--- a/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
+++ b/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32E8531A-3969-4DDC-9FBF-F177E7EB8F4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3F63F8-0637-49AC-A3A9-9CC7FAE2E8E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="150" windowWidth="15270" windowHeight="10800" tabRatio="708" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="150" windowWidth="15270" windowHeight="10800" tabRatio="708" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tageswerte berechnet" sheetId="9" r:id="rId1"/>
@@ -16,6 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_7Tage_LK001" localSheetId="1">'7Tage_LK'!$A$5:$D$417</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'BL_7-Tage-Inzidenz'!$A$3:$IZ$19</definedName>
     <definedName name="Tageswerte_berechnet001" localSheetId="0">'Tageswerte berechnet'!$A$5:$C$21</definedName>
     <definedName name="Tageswerte_berechnet002" localSheetId="0">'Tageswerte berechnet'!$A$30:$E$31</definedName>
     <definedName name="Tageswerte_berechnet003" localSheetId="0">'Tageswerte berechnet'!$A$35:$A$36</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="973">
   <si>
     <t>Todesfälle</t>
   </si>
@@ -2945,10 +2946,22 @@
     <t>30.12.2020</t>
   </si>
   <si>
-    <t>Stand: 31.12.2020 06:13:36</t>
-  </si>
-  <si>
     <t>31.12.2020</t>
+  </si>
+  <si>
+    <t>01.01.2021</t>
+  </si>
+  <si>
+    <t>02.01.2021</t>
+  </si>
+  <si>
+    <t>03.01.2021</t>
+  </si>
+  <si>
+    <t>Stand: 04.01.2021 05:21:13</t>
+  </si>
+  <si>
+    <t>04.01.2021</t>
   </si>
 </sst>
 </file>
@@ -3535,24 +3548,24 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A2:E36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="8" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3571,10 +3584,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>14717</v>
+        <v>14301</v>
       </c>
       <c r="C6" s="29">
-        <v>132.58087956157232</v>
+        <v>128.83326483726614</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3582,10 +3595,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>21434</v>
+        <v>20858</v>
       </c>
       <c r="C7" s="29">
-        <v>163.30993908677942</v>
+        <v>158.92127971783358</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3593,10 +3606,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>4612</v>
+        <v>4618</v>
       </c>
       <c r="C8" s="29">
-        <v>125.68500644912332</v>
+        <v>125.8485168651456</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3604,10 +3617,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>4457</v>
+        <v>4295</v>
       </c>
       <c r="C9" s="29">
-        <v>176.7323197296634</v>
+        <v>170.30857375788742</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3615,10 +3628,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C10" s="29">
-        <v>80.152436428548356</v>
+        <v>81.03323243325768</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3626,10 +3639,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>1856</v>
+        <v>2027</v>
       </c>
       <c r="C11" s="29">
-        <v>100.47351391498621</v>
+        <v>109.73050253538634</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3637,10 +3650,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>8311</v>
+        <v>8397</v>
       </c>
       <c r="C12" s="29">
-        <v>132.17071029630665</v>
+        <v>133.53837737433366</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3648,10 +3661,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1430</v>
+        <v>1472</v>
       </c>
       <c r="C13" s="29">
-        <v>88.9227168315157</v>
+        <v>91.534432990203584</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3659,10 +3672,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>6362</v>
+        <v>7282</v>
       </c>
       <c r="C14" s="29">
-        <v>79.588591284436262</v>
+        <v>91.097787131918395</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3670,10 +3683,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>22750</v>
+        <v>21620</v>
       </c>
       <c r="C15" s="29">
-        <v>126.76057201279241</v>
+        <v>120.46433261171744</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3681,10 +3694,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>4503</v>
+        <v>4825</v>
       </c>
       <c r="C16" s="29">
-        <v>109.99283568760667</v>
+        <v>117.8581905824344</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3692,10 +3705,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>1115</v>
+        <v>855</v>
       </c>
       <c r="C17" s="29">
-        <v>112.98152676040925</v>
+        <v>86.636058636905744</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3703,10 +3716,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>13302</v>
+        <v>13153</v>
       </c>
       <c r="C18" s="29">
-        <v>326.67226755789767</v>
+        <v>323.01310593813167</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3714,10 +3727,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>3365</v>
+        <v>4003</v>
       </c>
       <c r="C19" s="29">
-        <v>153.31818832120911</v>
+        <v>182.38713457646364</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3725,10 +3738,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>2239</v>
+        <v>2272</v>
       </c>
       <c r="C20" s="29">
-        <v>77.1065782345934</v>
+        <v>78.243030705223859</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3736,10 +3749,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>5258</v>
+        <v>5364</v>
       </c>
       <c r="C21" s="29">
-        <v>246.46358966859131</v>
+        <v>251.43223563756632</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3748,11 +3761,11 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B6:B21)</f>
-        <v>116257</v>
+        <v>115894</v>
       </c>
       <c r="C22" s="30">
         <f>B22/A36*100000</f>
-        <v>139.78790143570785</v>
+        <v>139.35142872248488</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3774,10 +3787,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="B31">
-        <v>1719737</v>
+        <v>1775513</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -3786,7 +3799,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>33071</v>
+        <v>34574</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -3809,7 +3822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B76BA60-F11B-446D-83C1-ED8D11202D1B}">
   <dimension ref="A2:D417"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -3823,7 +3836,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3848,10 +3861,10 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>690</v>
+        <v>645</v>
       </c>
       <c r="D6" s="29">
-        <v>123.8721352325</v>
+        <v>115.79351771730001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3862,10 +3875,10 @@
         <v>120</v>
       </c>
       <c r="C7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="29">
-        <v>99.165167658300007</v>
+        <v>98.3964454284</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3876,10 +3889,10 @@
         <v>122</v>
       </c>
       <c r="C8">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D8" s="29">
-        <v>80.204968252200004</v>
+        <v>72.035943708000005</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3890,10 +3903,10 @@
         <v>124</v>
       </c>
       <c r="C9">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D9" s="29">
-        <v>104.02078385999999</v>
+        <v>100.4688546551</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3904,10 +3917,10 @@
         <v>126</v>
       </c>
       <c r="C10">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="D10" s="29">
-        <v>441.86905014929999</v>
+        <v>467.59813408209999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3918,10 +3931,10 @@
         <v>128</v>
       </c>
       <c r="C11">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D11" s="29">
-        <v>45.029307868499998</v>
+        <v>52.792981638900002</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3932,10 +3945,10 @@
         <v>130</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D12" s="29">
-        <v>66.1272287882</v>
+        <v>91.375807052799999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3946,10 +3959,10 @@
         <v>132</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D13" s="29">
-        <v>89.673230747199995</v>
+        <v>90.569963054599995</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3960,10 +3973,10 @@
         <v>134</v>
       </c>
       <c r="C14">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D14" s="29">
-        <v>106.4100488098</v>
+        <v>115.6630965324</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3974,10 +3987,10 @@
         <v>136</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D15" s="29">
-        <v>80.555358115999994</v>
+        <v>63.970431445000003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3988,10 +4001,10 @@
         <v>138</v>
       </c>
       <c r="C16">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D16" s="29">
-        <v>131.97605022849999</v>
+        <v>117.419868218</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4002,10 +4015,10 @@
         <v>140</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D17" s="29">
-        <v>40.045170952799999</v>
+        <v>64.072273524500005</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4016,10 +4029,10 @@
         <v>142</v>
       </c>
       <c r="C18">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="D18" s="29">
-        <v>153.9568163749</v>
+        <v>179.1956387315</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4030,10 +4043,10 @@
         <v>144</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D19" s="29">
-        <v>76.558687018499995</v>
+        <v>57.4190152639</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4044,10 +4057,10 @@
         <v>146</v>
       </c>
       <c r="C20">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D20" s="29">
-        <v>73.134659869700002</v>
+        <v>63.925110108299997</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4058,10 +4071,10 @@
         <v>148</v>
       </c>
       <c r="C21">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D21" s="29">
-        <v>160.55885749699999</v>
+        <v>126.7569927608</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4072,10 +4085,10 @@
         <v>150</v>
       </c>
       <c r="C22">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="D22" s="29">
-        <v>134.32835820899999</v>
+        <v>177.38231917339999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4086,10 +4099,10 @@
         <v>152</v>
       </c>
       <c r="C23">
-        <v>375</v>
+        <v>444</v>
       </c>
       <c r="D23" s="29">
-        <v>126.4405796711</v>
+        <v>149.7056463305</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4100,10 +4113,10 @@
         <v>154</v>
       </c>
       <c r="C24">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="D24" s="29">
-        <v>124.27604273519999</v>
+        <v>135.3228020894</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4114,10 +4127,10 @@
         <v>156</v>
       </c>
       <c r="C25">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D25" s="29">
-        <v>45.863337796700002</v>
+        <v>59.569622655400003</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4128,10 +4141,10 @@
         <v>158</v>
       </c>
       <c r="C26">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D26" s="29">
-        <v>104.016702972</v>
+        <v>112.3078894408</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4142,10 +4155,10 @@
         <v>160</v>
       </c>
       <c r="C27">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="D27" s="29">
-        <v>200.51339177599999</v>
+        <v>137.55024943090001</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4156,10 +4169,10 @@
         <v>162</v>
       </c>
       <c r="C28">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="D28" s="29">
-        <v>152.19931162969999</v>
+        <v>185.6705295399</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4170,10 +4183,10 @@
         <v>164</v>
       </c>
       <c r="C29">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="D29" s="29">
-        <v>91.465559698899995</v>
+        <v>111.0094827114</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4184,10 +4197,10 @@
         <v>166</v>
       </c>
       <c r="C30">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D30" s="29">
-        <v>108.72519706440001</v>
+        <v>146.77901603699999</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4198,10 +4211,10 @@
         <v>168</v>
       </c>
       <c r="C31">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D31" s="29">
-        <v>69.791787833000001</v>
+        <v>55.574942163300001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4212,10 +4225,10 @@
         <v>170</v>
       </c>
       <c r="C32">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D32" s="29">
-        <v>126.39046499459999</v>
+        <v>137.2627630586</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4226,10 +4239,10 @@
         <v>172</v>
       </c>
       <c r="C33">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D33" s="29">
-        <v>124.7003951545</v>
+        <v>125.78005225539999</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4240,10 +4253,10 @@
         <v>174</v>
       </c>
       <c r="C34">
-        <v>1170</v>
+        <v>1190</v>
       </c>
       <c r="D34" s="29">
-        <v>390.31485398220002</v>
+        <v>396.98690276820003</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4254,10 +4267,10 @@
         <v>176</v>
       </c>
       <c r="C35">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D35" s="29">
-        <v>221.97558268590001</v>
+        <v>224.64998729659999</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4268,10 +4281,10 @@
         <v>178</v>
       </c>
       <c r="C36">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="D36" s="29">
-        <v>252.7396203118</v>
+        <v>284.57323661060002</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4282,10 +4295,10 @@
         <v>180</v>
       </c>
       <c r="C37">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="D37" s="29">
-        <v>184.0855667475</v>
+        <v>287.9287069641</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4296,10 +4309,10 @@
         <v>182</v>
       </c>
       <c r="C38">
-        <v>238</v>
+        <v>336</v>
       </c>
       <c r="D38" s="29">
-        <v>88.037286380099999</v>
+        <v>124.2879337131</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4310,10 +4323,10 @@
         <v>184</v>
       </c>
       <c r="C39">
-        <v>435</v>
+        <v>493</v>
       </c>
       <c r="D39" s="29">
-        <v>130.08334305220001</v>
+        <v>147.4277887925</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4324,10 +4337,10 @@
         <v>186</v>
       </c>
       <c r="C40">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="D40" s="29">
-        <v>109.55154772580001</v>
+        <v>125.5056566179</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4338,10 +4351,10 @@
         <v>188</v>
       </c>
       <c r="C41">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="D41" s="29">
-        <v>117.2684820014</v>
+        <v>112.38229525129999</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4352,10 +4365,10 @@
         <v>190</v>
       </c>
       <c r="C42">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="D42" s="29">
-        <v>163.89889225639999</v>
+        <v>157.81447862280001</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4366,10 +4379,10 @@
         <v>192</v>
       </c>
       <c r="C43">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D43" s="29">
-        <v>133.248764784</v>
+        <v>135.1142474909</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4380,10 +4393,10 @@
         <v>194</v>
       </c>
       <c r="C44">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D44" s="29">
-        <v>77.851788878400001</v>
+        <v>108.99250442979999</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4408,10 +4421,10 @@
         <v>198</v>
       </c>
       <c r="C46">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D46" s="29">
-        <v>152.87516991480001</v>
+        <v>154.4154738938</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4422,10 +4435,10 @@
         <v>200</v>
       </c>
       <c r="C47">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="D47" s="29">
-        <v>189.52468213820001</v>
+        <v>199.56572490049999</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4436,10 +4449,10 @@
         <v>202</v>
       </c>
       <c r="C48">
-        <v>477</v>
+        <v>372</v>
       </c>
       <c r="D48" s="29">
-        <v>157.85450249359999</v>
+        <v>123.1066560327</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4450,10 +4463,10 @@
         <v>204</v>
       </c>
       <c r="C49">
-        <v>543</v>
+        <v>446</v>
       </c>
       <c r="D49" s="29">
-        <v>158.8778483902</v>
+        <v>130.49635429470001</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4478,10 +4491,10 @@
         <v>208</v>
       </c>
       <c r="C51">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D51" s="29">
-        <v>70.232835183999995</v>
+        <v>72.010881644299999</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4492,10 +4505,10 @@
         <v>210</v>
       </c>
       <c r="C52">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D52" s="29">
-        <v>111.2866525571</v>
+        <v>106.8153138383</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -4506,10 +4519,10 @@
         <v>212</v>
       </c>
       <c r="C53">
-        <v>433</v>
+        <v>306</v>
       </c>
       <c r="D53" s="29">
-        <v>129.565074283</v>
+        <v>91.563308846599995</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4520,10 +4533,10 @@
         <v>214</v>
       </c>
       <c r="C54">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D54" s="29">
-        <v>50.647922817500003</v>
+        <v>70.412965868200004</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4534,10 +4547,10 @@
         <v>216</v>
       </c>
       <c r="C55">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D55" s="29">
-        <v>79.7512568394</v>
+        <v>97.922429283900001</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4548,10 +4561,10 @@
         <v>218</v>
       </c>
       <c r="C56">
-        <v>294</v>
+        <v>425</v>
       </c>
       <c r="D56" s="29">
-        <v>74.845916697000007</v>
+        <v>108.1956278783</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4562,10 +4575,10 @@
         <v>220</v>
       </c>
       <c r="C57">
-        <v>556</v>
+        <v>470</v>
       </c>
       <c r="D57" s="29">
-        <v>152.08418242440001</v>
+        <v>128.56037003500001</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4576,10 +4589,10 @@
         <v>222</v>
       </c>
       <c r="C58">
-        <v>314</v>
+        <v>222</v>
       </c>
       <c r="D58" s="29">
-        <v>144.3877316411</v>
+        <v>102.0830459374</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4590,10 +4603,10 @@
         <v>224</v>
       </c>
       <c r="C59">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="D59" s="29">
-        <v>125.5789828102</v>
+        <v>116.782387396</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4604,10 +4617,10 @@
         <v>226</v>
       </c>
       <c r="C60">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="D60" s="29">
-        <v>76.6426987591</v>
+        <v>99.459990756099998</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4618,10 +4631,10 @@
         <v>228</v>
       </c>
       <c r="C61">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D61" s="29">
-        <v>72.709841950300003</v>
+        <v>72.171250528499996</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4632,10 +4645,10 @@
         <v>230</v>
       </c>
       <c r="C62">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="D62" s="29">
-        <v>146.30204567690001</v>
+        <v>122.4854335899</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4646,10 +4659,10 @@
         <v>232</v>
       </c>
       <c r="C63">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="D63" s="29">
-        <v>95.589050205000007</v>
+        <v>148.23229524550001</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4660,10 +4673,10 @@
         <v>234</v>
       </c>
       <c r="C64">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="D64" s="29">
-        <v>55.331467566900002</v>
+        <v>92.620065275100004</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4674,10 +4687,10 @@
         <v>236</v>
       </c>
       <c r="C65">
-        <v>338</v>
+        <v>218</v>
       </c>
       <c r="D65" s="29">
-        <v>128.2240962667</v>
+        <v>82.700748479699996</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4688,10 +4701,10 @@
         <v>238</v>
       </c>
       <c r="C66">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D66" s="29">
-        <v>83.5155464013</v>
+        <v>83.8679326731</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4702,10 +4715,10 @@
         <v>240</v>
       </c>
       <c r="C67">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D67" s="29">
-        <v>63.356299992099999</v>
+        <v>66.876094436100004</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4716,10 +4729,10 @@
         <v>242</v>
       </c>
       <c r="C68">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="D68" s="29">
-        <v>167.18293951219999</v>
+        <v>186.75284881970001</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4730,10 +4743,10 @@
         <v>244</v>
       </c>
       <c r="C69">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D69" s="29">
-        <v>188.4410273805</v>
+        <v>201.00376253920001</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4744,10 +4757,10 @@
         <v>246</v>
       </c>
       <c r="C70">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D70" s="29">
-        <v>75.972984900399993</v>
+        <v>87.145482679799997</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4758,10 +4771,10 @@
         <v>248</v>
       </c>
       <c r="C71">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="D71" s="29">
-        <v>166.40885013830001</v>
+        <v>135.9396240566</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4772,10 +4785,10 @@
         <v>250</v>
       </c>
       <c r="C72">
-        <v>808</v>
+        <v>510</v>
       </c>
       <c r="D72" s="29">
-        <v>328.00993772679999</v>
+        <v>207.03597554539999</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4786,10 +4799,10 @@
         <v>252</v>
       </c>
       <c r="C73">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="D73" s="29">
-        <v>117.7628572433</v>
+        <v>123.03582100049999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4800,10 +4813,10 @@
         <v>254</v>
       </c>
       <c r="C74">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="D74" s="29">
-        <v>530.77522399689997</v>
+        <v>435.82002337360001</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4814,10 +4827,10 @@
         <v>256</v>
       </c>
       <c r="C75">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="D75" s="29">
-        <v>360.81939433060001</v>
+        <v>315.8610672415</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4828,10 +4841,10 @@
         <v>258</v>
       </c>
       <c r="C76">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D76" s="29">
-        <v>66.802443991900006</v>
+        <v>70.061099796299999</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -4842,10 +4855,10 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D77" s="29">
-        <v>96.5609784846</v>
+        <v>88.854233722900005</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -4856,10 +4869,10 @@
         <v>262</v>
       </c>
       <c r="C78">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="D78" s="29">
-        <v>208.67192359399999</v>
+        <v>183.5911635466</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -4870,10 +4883,10 @@
         <v>264</v>
       </c>
       <c r="C79">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="D79" s="29">
-        <v>35.346751633499998</v>
+        <v>56.049849018899998</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -4884,10 +4897,10 @@
         <v>266</v>
       </c>
       <c r="C80">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="D80" s="29">
-        <v>143.31919508839999</v>
+        <v>96.191712018800004</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -4898,10 +4911,10 @@
         <v>268</v>
       </c>
       <c r="C81">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="D81" s="29">
-        <v>219.56660479769999</v>
+        <v>203.75780925219999</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -4912,10 +4925,10 @@
         <v>270</v>
       </c>
       <c r="C82">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D82" s="29">
-        <v>65.675077246399994</v>
+        <v>64.424123394099993</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4926,10 +4939,10 @@
         <v>272</v>
       </c>
       <c r="C83">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="D83" s="29">
-        <v>137.6559541236</v>
+        <v>140.67767018980001</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -4940,10 +4953,10 @@
         <v>274</v>
       </c>
       <c r="C84">
-        <v>337</v>
+        <v>431</v>
       </c>
       <c r="D84" s="29">
-        <v>282.06029561930001</v>
+        <v>360.7358676911</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -4954,10 +4967,10 @@
         <v>276</v>
       </c>
       <c r="C85">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="D85" s="29">
-        <v>64.467050890300001</v>
+        <v>145.69553501210001</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -4968,10 +4981,10 @@
         <v>278</v>
       </c>
       <c r="C86">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="D86" s="29">
-        <v>151.05551602310001</v>
+        <v>218.46872152099999</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -4982,10 +4995,10 @@
         <v>280</v>
       </c>
       <c r="C87">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="D87" s="29">
-        <v>69.0960850158</v>
+        <v>79.690818051600004</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -5010,10 +5023,10 @@
         <v>284</v>
       </c>
       <c r="C89">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D89" s="29">
-        <v>173.76374336750001</v>
+        <v>166.52358739389999</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -5024,10 +5037,10 @@
         <v>286</v>
       </c>
       <c r="C90">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D90" s="29">
-        <v>48.801363434999999</v>
+        <v>55.558475295199997</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -5038,10 +5051,10 @@
         <v>288</v>
       </c>
       <c r="C91">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="D91" s="29">
-        <v>148.00086707579999</v>
+        <v>178.64751126819999</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -5052,10 +5065,10 @@
         <v>290</v>
       </c>
       <c r="C92">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D92" s="29">
-        <v>86.292731496800002</v>
+        <v>76.999668104899996</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5066,10 +5079,10 @@
         <v>292</v>
       </c>
       <c r="C93">
-        <v>933</v>
+        <v>810</v>
       </c>
       <c r="D93" s="29">
-        <v>158.60603484910001</v>
+        <v>137.6965575861</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -5080,10 +5093,10 @@
         <v>294</v>
       </c>
       <c r="C94">
-        <v>1140</v>
+        <v>1434</v>
       </c>
       <c r="D94" s="29">
-        <v>204.74873379069999</v>
+        <v>257.55235461040002</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -5094,10 +5107,10 @@
         <v>296</v>
       </c>
       <c r="C95">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="D95" s="29">
-        <v>130.34254019560001</v>
+        <v>126.7330544671</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -5108,10 +5121,10 @@
         <v>298</v>
       </c>
       <c r="C96">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="D96" s="29">
-        <v>116.76327662689999</v>
+        <v>103.5376627695</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -5122,10 +5135,10 @@
         <v>300</v>
       </c>
       <c r="C97">
-        <v>539</v>
+        <v>580</v>
       </c>
       <c r="D97" s="29">
-        <v>86.673088086600004</v>
+        <v>93.2660317072</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -5136,10 +5149,10 @@
         <v>302</v>
       </c>
       <c r="C98">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D98" s="29">
-        <v>195.61570216289999</v>
+        <v>188.65428927459999</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -5150,10 +5163,10 @@
         <v>304</v>
       </c>
       <c r="C99">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="D99" s="29">
-        <v>347.9791212527</v>
+        <v>274.98350098989999</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -5164,10 +5177,10 @@
         <v>306</v>
       </c>
       <c r="C100">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D100" s="29">
-        <v>167.81932706710001</v>
+        <v>169.32443313940001</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5178,10 +5191,10 @@
         <v>308</v>
       </c>
       <c r="C101">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="D101" s="29">
-        <v>411.83431952659998</v>
+        <v>324.26035502960002</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -5192,10 +5205,10 @@
         <v>310</v>
       </c>
       <c r="C102">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D102" s="29">
-        <v>340.77405796110003</v>
+        <v>336.84582674540002</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5206,10 +5219,10 @@
         <v>312</v>
       </c>
       <c r="C103">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D103" s="29">
-        <v>54.0941237754</v>
+        <v>38.0662352493</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -5220,10 +5233,10 @@
         <v>314</v>
       </c>
       <c r="C104">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="D104" s="29">
-        <v>138.2145089178</v>
+        <v>108.1678765444</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -5234,10 +5247,10 @@
         <v>316</v>
       </c>
       <c r="C105">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="D105" s="29">
-        <v>63.923365366399999</v>
+        <v>79.827743352300004</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5248,10 +5261,10 @@
         <v>318</v>
       </c>
       <c r="C106">
-        <v>464</v>
+        <v>364</v>
       </c>
       <c r="D106" s="29">
-        <v>143.16303925259999</v>
+        <v>112.3089359654</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -5262,10 +5275,10 @@
         <v>320</v>
       </c>
       <c r="C107">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="D107" s="29">
-        <v>188.41828860070001</v>
+        <v>201.44721281240001</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5276,10 +5289,10 @@
         <v>322</v>
       </c>
       <c r="C108">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="D108" s="29">
-        <v>164.99978289500001</v>
+        <v>98.420923130399999</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5290,10 +5303,10 @@
         <v>324</v>
       </c>
       <c r="C109">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D109" s="29">
-        <v>149.54598772790001</v>
+        <v>145.34000682300001</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -5304,10 +5317,10 @@
         <v>326</v>
       </c>
       <c r="C110">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D110" s="29">
-        <v>102.19678657759999</v>
+        <v>95.087444902599998</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -5318,10 +5331,10 @@
         <v>328</v>
       </c>
       <c r="C111">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="D111" s="29">
-        <v>159.5488919002</v>
+        <v>183.59050574809999</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5332,10 +5345,10 @@
         <v>330</v>
       </c>
       <c r="C112">
-        <v>920</v>
+        <v>1217</v>
       </c>
       <c r="D112" s="29">
-        <v>274.6695009375</v>
+        <v>363.33998113140001</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5346,10 +5359,10 @@
         <v>332</v>
       </c>
       <c r="C113">
-        <v>1044</v>
+        <v>941</v>
       </c>
       <c r="D113" s="29">
-        <v>179.14750497630001</v>
+        <v>161.47299059650001</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5360,10 +5373,10 @@
         <v>334</v>
       </c>
       <c r="C114">
-        <v>690</v>
+        <v>606</v>
       </c>
       <c r="D114" s="29">
-        <v>128.96617721819999</v>
+        <v>113.2659469482</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5374,10 +5387,10 @@
         <v>336</v>
       </c>
       <c r="C115">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="D115" s="29">
-        <v>123.41471475189999</v>
+        <v>100.69401412809999</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -5388,10 +5401,10 @@
         <v>338</v>
       </c>
       <c r="C116">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D116" s="29">
-        <v>41.036333791799997</v>
+        <v>48.7999645091</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -5402,10 +5415,10 @@
         <v>340</v>
       </c>
       <c r="C117">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="D117" s="29">
-        <v>181.57878884370001</v>
+        <v>141.13232876949999</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -5416,10 +5429,10 @@
         <v>342</v>
       </c>
       <c r="C118">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D118" s="29">
-        <v>180.4683975227</v>
+        <v>166.1129568106</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -5430,10 +5443,10 @@
         <v>344</v>
       </c>
       <c r="C119">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="D119" s="29">
-        <v>107.3574483559</v>
+        <v>206.05703797340001</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -5444,10 +5457,10 @@
         <v>346</v>
       </c>
       <c r="C120">
-        <v>884</v>
+        <v>813</v>
       </c>
       <c r="D120" s="29">
-        <v>115.80078073830001</v>
+        <v>106.50003929890001</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -5458,10 +5471,10 @@
         <v>348</v>
       </c>
       <c r="C121">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="D121" s="29">
-        <v>131.49073293110001</v>
+        <v>96.887908475499998</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -5472,10 +5485,10 @@
         <v>350</v>
       </c>
       <c r="C122">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="D122" s="29">
-        <v>172.7710589033</v>
+        <v>140.55008971870001</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -5486,10 +5499,10 @@
         <v>352</v>
       </c>
       <c r="C123">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D123" s="29">
-        <v>131.93169997379999</v>
+        <v>116.7088115153</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -5514,10 +5527,10 @@
         <v>356</v>
       </c>
       <c r="C125">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D125" s="29">
-        <v>43.564597179400003</v>
+        <v>40.5252066786</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -5528,10 +5541,10 @@
         <v>358</v>
       </c>
       <c r="C126">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="D126" s="29">
-        <v>189.56284030559999</v>
+        <v>202.11073517220001</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -5542,10 +5555,10 @@
         <v>360</v>
       </c>
       <c r="C127">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="D127" s="29">
-        <v>104.8739005339</v>
+        <v>121.7449193155</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -5556,10 +5569,10 @@
         <v>362</v>
       </c>
       <c r="C128">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="D128" s="29">
-        <v>225.68620279070001</v>
+        <v>197.66998451329999</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -5570,10 +5583,10 @@
         <v>364</v>
       </c>
       <c r="C129">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="D129" s="29">
-        <v>190.91580188879999</v>
+        <v>167.1573909871</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -5584,10 +5597,10 @@
         <v>366</v>
       </c>
       <c r="C130">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D130" s="29">
-        <v>174.16086130459999</v>
+        <v>156.0662263639</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -5598,10 +5611,10 @@
         <v>368</v>
       </c>
       <c r="C131">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="D131" s="29">
-        <v>147.1239577115</v>
+        <v>134.02915519269999</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -5612,10 +5625,10 @@
         <v>370</v>
       </c>
       <c r="C132">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="D132" s="29">
-        <v>248.05369127520001</v>
+        <v>200.8053691275</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -5626,10 +5639,10 @@
         <v>372</v>
       </c>
       <c r="C133">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D133" s="29">
-        <v>86.812956833800001</v>
+        <v>98.439692124000004</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -5640,10 +5653,10 @@
         <v>374</v>
       </c>
       <c r="C134">
-        <v>592</v>
+        <v>728</v>
       </c>
       <c r="D134" s="29">
-        <v>218.70197422859999</v>
+        <v>268.94431965950002</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5654,10 +5667,10 @@
         <v>376</v>
       </c>
       <c r="C135">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="D135" s="29">
-        <v>123.4966548268</v>
+        <v>148.98908357549999</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5668,10 +5681,10 @@
         <v>378</v>
       </c>
       <c r="C136">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="D136" s="29">
-        <v>115.82637664879999</v>
+        <v>124.3487187433</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5682,10 +5695,10 @@
         <v>380</v>
       </c>
       <c r="C137">
-        <v>783</v>
+        <v>859</v>
       </c>
       <c r="D137" s="29">
-        <v>309.82293006229997</v>
+        <v>339.89514294190002</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5710,10 +5723,10 @@
         <v>384</v>
       </c>
       <c r="C139">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="D139" s="29">
-        <v>151.2141607614</v>
+        <v>179.38150443270001</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -5724,10 +5737,10 @@
         <v>386</v>
       </c>
       <c r="C140">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D140" s="29">
-        <v>75.143923616999999</v>
+        <v>76.370763186199994</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -5738,10 +5751,10 @@
         <v>388</v>
       </c>
       <c r="C141">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="D141" s="29">
-        <v>123.9410332308</v>
+        <v>163.31053790409999</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -5752,10 +5765,10 @@
         <v>390</v>
       </c>
       <c r="C142">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D142" s="29">
-        <v>208.42317090700001</v>
+        <v>213.5567465451</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -5766,10 +5779,10 @@
         <v>392</v>
       </c>
       <c r="C143">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="D143" s="29">
-        <v>118.9586763671</v>
+        <v>122.9481441721</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5780,10 +5793,10 @@
         <v>394</v>
       </c>
       <c r="C144">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="D144" s="29">
-        <v>81.085123635100004</v>
+        <v>107.06385256679999</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -5794,10 +5807,10 @@
         <v>396</v>
       </c>
       <c r="C145">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D145" s="29">
-        <v>197.84182518669999</v>
+        <v>196.74574859289999</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -5808,10 +5821,10 @@
         <v>398</v>
       </c>
       <c r="C146">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="D146" s="29">
-        <v>112.88595868269999</v>
+        <v>96.986527882299995</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -5822,10 +5835,10 @@
         <v>400</v>
       </c>
       <c r="C147">
-        <v>258</v>
+        <v>417</v>
       </c>
       <c r="D147" s="29">
-        <v>108.0573960681</v>
+        <v>174.65090759840001</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -5836,10 +5849,10 @@
         <v>402</v>
       </c>
       <c r="C148">
-        <v>1856</v>
+        <v>2027</v>
       </c>
       <c r="D148" s="29">
-        <v>100.473513915</v>
+        <v>109.73050253540001</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -5850,10 +5863,10 @@
         <v>404</v>
       </c>
       <c r="C149">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="D149" s="29">
-        <v>90.205925317600006</v>
+        <v>113.09399592050001</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -5864,10 +5877,10 @@
         <v>406</v>
       </c>
       <c r="C150">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="D150" s="29">
-        <v>150.62584761779999</v>
+        <v>141.1769937082</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -5878,10 +5891,10 @@
         <v>408</v>
       </c>
       <c r="C151">
-        <v>1378</v>
+        <v>1460</v>
       </c>
       <c r="D151" s="29">
-        <v>119.0892867174</v>
+        <v>126.17587707360001</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -5892,10 +5905,10 @@
         <v>410</v>
       </c>
       <c r="C152">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D152" s="29">
-        <v>70.353062323399996</v>
+        <v>75.462502603800004</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -5906,10 +5919,10 @@
         <v>412</v>
       </c>
       <c r="C153">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="D153" s="29">
-        <v>150.48520931979999</v>
+        <v>168.2996577751</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -5920,10 +5933,10 @@
         <v>414</v>
       </c>
       <c r="C154">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="D154" s="29">
-        <v>124.43117178609999</v>
+        <v>235.82669700420001</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -5934,10 +5947,10 @@
         <v>416</v>
       </c>
       <c r="C155">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="D155" s="29">
-        <v>94.480846155699993</v>
+        <v>137.4266853174</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -5948,10 +5961,10 @@
         <v>418</v>
       </c>
       <c r="C156">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D156" s="29">
-        <v>113.7389548812</v>
+        <v>122.9802449653</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -5962,10 +5975,10 @@
         <v>420</v>
       </c>
       <c r="C157">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="D157" s="29">
-        <v>135.6163111125</v>
+        <v>105.2729355668</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -5976,10 +5989,10 @@
         <v>422</v>
       </c>
       <c r="C158">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D158" s="29">
-        <v>90.3770984433</v>
+        <v>82.092531085999994</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -5990,10 +6003,10 @@
         <v>424</v>
       </c>
       <c r="C159">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="D159" s="29">
-        <v>221.18301314460001</v>
+        <v>203.80434782610001</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -6004,10 +6017,10 @@
         <v>426</v>
       </c>
       <c r="C160">
-        <v>326</v>
+        <v>403</v>
       </c>
       <c r="D160" s="29">
-        <v>94.641986204299997</v>
+        <v>116.9960749704</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -6018,10 +6031,10 @@
         <v>428</v>
       </c>
       <c r="C161">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D161" s="29">
-        <v>116.6089491499</v>
+        <v>112.69589716500001</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -6032,10 +6045,10 @@
         <v>430</v>
       </c>
       <c r="C162">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D162" s="29">
-        <v>125.962517936</v>
+        <v>140.20175909389999</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -6046,10 +6059,10 @@
         <v>432</v>
       </c>
       <c r="C163">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="D163" s="29">
-        <v>162.42447461469999</v>
+        <v>148.85584528570001</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -6060,10 +6073,10 @@
         <v>434</v>
       </c>
       <c r="C164">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="D164" s="29">
-        <v>164.27078472860001</v>
+        <v>200.0651969651</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -6074,10 +6087,10 @@
         <v>436</v>
       </c>
       <c r="C165">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="D165" s="29">
-        <v>209.57761412869999</v>
+        <v>161.53215318220001</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -6088,10 +6101,10 @@
         <v>438</v>
       </c>
       <c r="C166">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D166" s="29">
-        <v>88.375357920200003</v>
+        <v>95.445386553800006</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -6102,10 +6115,10 @@
         <v>440</v>
       </c>
       <c r="C167">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D167" s="29">
-        <v>378.18250866339997</v>
+        <v>403.5001661471</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -6116,10 +6129,10 @@
         <v>442</v>
       </c>
       <c r="C168">
-        <v>222</v>
+        <v>343</v>
       </c>
       <c r="D168" s="29">
-        <v>80.488149751500004</v>
+        <v>124.35781695830001</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -6130,10 +6143,10 @@
         <v>444</v>
       </c>
       <c r="C169">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D169" s="29">
-        <v>69.675144450800005</v>
+        <v>62.746124560699997</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -6144,10 +6157,10 @@
         <v>446</v>
       </c>
       <c r="C170">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="D170" s="29">
-        <v>97.081641439500004</v>
+        <v>81.464159990499994</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -6158,10 +6171,10 @@
         <v>448</v>
       </c>
       <c r="C171">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D171" s="29">
-        <v>261.86579378070002</v>
+        <v>281.50572831419998</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -6172,10 +6185,10 @@
         <v>450</v>
       </c>
       <c r="C172">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D172" s="29">
-        <v>194.0907796331</v>
+        <v>186.70689127750001</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -6186,10 +6199,10 @@
         <v>452</v>
       </c>
       <c r="C173">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D173" s="29">
-        <v>142.02654120989999</v>
+        <v>146.4648706227</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -6200,10 +6213,10 @@
         <v>454</v>
       </c>
       <c r="C174">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D174" s="29">
-        <v>46.836413182299999</v>
+        <v>38.320701694599997</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -6214,10 +6227,10 @@
         <v>456</v>
       </c>
       <c r="C175">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D175" s="29">
-        <v>142.6014787773</v>
+        <v>136.18441223240001</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -6228,10 +6241,10 @@
         <v>458</v>
       </c>
       <c r="C176">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="D176" s="29">
-        <v>253.17885344800001</v>
+        <v>307.76760251859997</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -6242,10 +6255,10 @@
         <v>460</v>
       </c>
       <c r="C177">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D177" s="29">
-        <v>88.069174333299998</v>
+        <v>101.1703738209</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -6256,10 +6269,10 @@
         <v>462</v>
       </c>
       <c r="C178">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="D178" s="29">
-        <v>114.0619527047</v>
+        <v>181.42137359329999</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -6270,10 +6283,10 @@
         <v>464</v>
       </c>
       <c r="C179">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D179" s="29">
-        <v>177.47714563170001</v>
+        <v>159.61781022220001</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -6298,10 +6311,10 @@
         <v>468</v>
       </c>
       <c r="C181">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D181" s="29">
-        <v>110.39923003609999</v>
+        <v>107.568480548</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -6312,10 +6325,10 @@
         <v>470</v>
       </c>
       <c r="C182">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="D182" s="29">
-        <v>78.8309940396</v>
+        <v>88.124078702800006</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -6326,10 +6339,10 @@
         <v>472</v>
       </c>
       <c r="C183">
-        <v>552</v>
+        <v>626</v>
       </c>
       <c r="D183" s="29">
-        <v>124.0167961878</v>
+        <v>140.64223625650001</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -6340,10 +6353,10 @@
         <v>474</v>
       </c>
       <c r="C184">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="D184" s="29">
-        <v>137.53048674909999</v>
+        <v>120.71021139130001</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -6354,10 +6367,10 @@
         <v>476</v>
       </c>
       <c r="C185">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="D185" s="29">
-        <v>113.61524556099999</v>
+        <v>97.987869777499995</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -6368,10 +6381,10 @@
         <v>478</v>
       </c>
       <c r="C186">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D186" s="29">
-        <v>74.327672417700001</v>
+        <v>87.841794675399996</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -6382,10 +6395,10 @@
         <v>480</v>
       </c>
       <c r="C187">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="D187" s="29">
-        <v>134.083115279</v>
+        <v>173.08911245100001</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -6396,10 +6409,10 @@
         <v>482</v>
       </c>
       <c r="C188">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D188" s="29">
-        <v>115.68885482490001</v>
+        <v>88.212751804000007</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -6410,10 +6423,10 @@
         <v>484</v>
       </c>
       <c r="C189">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="D189" s="29">
-        <v>68.883360211400003</v>
+        <v>58.348258061400003</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -6424,10 +6437,10 @@
         <v>486</v>
       </c>
       <c r="C190">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D190" s="29">
-        <v>88.859634688200003</v>
+        <v>106.4121551204</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -6438,10 +6451,10 @@
         <v>488</v>
       </c>
       <c r="C191">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="D191" s="29">
-        <v>78.728817627599994</v>
+        <v>86.729713727900005</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -6452,10 +6465,10 @@
         <v>490</v>
       </c>
       <c r="C192">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D192" s="29">
-        <v>95.570441552999995</v>
+        <v>102.5847858871</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -6466,10 +6479,10 @@
         <v>492</v>
       </c>
       <c r="C193">
-        <v>1046</v>
+        <v>1006</v>
       </c>
       <c r="D193" s="29">
-        <v>96.151813233799999</v>
+        <v>92.474879649399995</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -6480,10 +6493,10 @@
         <v>494</v>
       </c>
       <c r="C194">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D194" s="29">
-        <v>114.21386283859999</v>
+        <v>116.6588079146</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -6494,10 +6507,10 @@
         <v>496</v>
       </c>
       <c r="C195">
-        <v>361</v>
+        <v>422</v>
       </c>
       <c r="D195" s="29">
-        <v>158.73923233529999</v>
+        <v>185.56220511219999</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -6508,10 +6521,10 @@
         <v>498</v>
       </c>
       <c r="C196">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D196" s="29">
-        <v>194.77698035750001</v>
+        <v>154.3232998217</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -6522,10 +6535,10 @@
         <v>500</v>
       </c>
       <c r="C197">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="D197" s="29">
-        <v>238.94027890340001</v>
+        <v>282.25693765199998</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -6536,10 +6549,10 @@
         <v>502</v>
       </c>
       <c r="C198">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D198" s="29">
-        <v>41.299363420200002</v>
+        <v>74.054030960299997</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -6550,10 +6563,10 @@
         <v>504</v>
       </c>
       <c r="C199">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D199" s="29">
-        <v>118.5792055193</v>
+        <v>134.749097181</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -6564,10 +6577,10 @@
         <v>506</v>
       </c>
       <c r="C200">
-        <v>188</v>
+        <v>294</v>
       </c>
       <c r="D200" s="29">
-        <v>74.214725306800005</v>
+        <v>116.0591980862</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -6578,10 +6591,10 @@
         <v>508</v>
       </c>
       <c r="C201">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D201" s="29">
-        <v>85.322412064600002</v>
+        <v>121.584437192</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -6592,10 +6605,10 @@
         <v>510</v>
       </c>
       <c r="C202">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D202" s="29">
-        <v>68.993034197300005</v>
+        <v>91.436551345799998</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -6606,10 +6619,10 @@
         <v>512</v>
       </c>
       <c r="C203">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D203" s="29">
-        <v>228.84853768510001</v>
+        <v>200.24247047450001</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -6620,10 +6633,10 @@
         <v>514</v>
       </c>
       <c r="C204">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="D204" s="29">
-        <v>185.74689640080001</v>
+        <v>199.50592576380001</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -6634,10 +6647,10 @@
         <v>516</v>
       </c>
       <c r="C205">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D205" s="29">
-        <v>33.380964651299998</v>
+        <v>31.0384408161</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -6648,10 +6661,10 @@
         <v>518</v>
       </c>
       <c r="C206">
-        <v>1098</v>
+        <v>940</v>
       </c>
       <c r="D206" s="29">
-        <v>185.11493816859999</v>
+        <v>158.47726947039999</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -6662,10 +6675,10 @@
         <v>520</v>
       </c>
       <c r="C207">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="D207" s="29">
-        <v>252.9644881246</v>
+        <v>249.09060622379999</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -6676,10 +6689,10 @@
         <v>522</v>
       </c>
       <c r="C208">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D208" s="29">
-        <v>97.111690659600001</v>
+        <v>101.99781346</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -6690,10 +6703,10 @@
         <v>524</v>
       </c>
       <c r="C209">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D209" s="29">
-        <v>173.71510722420001</v>
+        <v>178.20773930749999</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -6704,10 +6717,10 @@
         <v>526</v>
       </c>
       <c r="C210">
-        <v>333</v>
+        <v>462</v>
       </c>
       <c r="D210" s="29">
-        <v>193.70375540969999</v>
+        <v>268.74214714509998</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -6718,10 +6731,10 @@
         <v>528</v>
       </c>
       <c r="C211">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D211" s="29">
-        <v>117.1003037289</v>
+        <v>109.7815347459</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -6732,10 +6745,10 @@
         <v>530</v>
       </c>
       <c r="C212">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="D212" s="29">
-        <v>160.56907059860001</v>
+        <v>153.3751158227</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -6746,10 +6759,10 @@
         <v>532</v>
       </c>
       <c r="C213">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="D213" s="29">
-        <v>162.63290430890001</v>
+        <v>170.5022383884</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6774,10 +6787,10 @@
         <v>536</v>
       </c>
       <c r="C215">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D215" s="29">
-        <v>64.033710650299994</v>
+        <v>88.820953482600004</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -6788,10 +6801,10 @@
         <v>538</v>
       </c>
       <c r="C216">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="D216" s="29">
-        <v>110.0063620346</v>
+        <v>112.0231453386</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -6802,10 +6815,10 @@
         <v>540</v>
       </c>
       <c r="C217">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="D217" s="29">
-        <v>195.06191474170001</v>
+        <v>183.4510864833</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -6816,10 +6829,10 @@
         <v>542</v>
       </c>
       <c r="C218">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="D218" s="29">
-        <v>110.9647321028</v>
+        <v>121.82511013840001</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -6830,10 +6843,10 @@
         <v>544</v>
       </c>
       <c r="C219">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D219" s="29">
-        <v>46.703848723</v>
+        <v>52.677596815400001</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -6844,10 +6857,10 @@
         <v>546</v>
       </c>
       <c r="C220">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D220" s="29">
-        <v>77.031549260199995</v>
+        <v>74.505924694300006</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -6858,10 +6871,10 @@
         <v>548</v>
       </c>
       <c r="C221">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D221" s="29">
-        <v>160.26555574579999</v>
+        <v>159.07664212750001</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -6872,10 +6885,10 @@
         <v>550</v>
       </c>
       <c r="C222">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="D222" s="29">
-        <v>157.73870860349999</v>
+        <v>133.16634696169999</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -6886,10 +6899,10 @@
         <v>552</v>
       </c>
       <c r="C223">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="D223" s="29">
-        <v>121.60212690429999</v>
+        <v>152.56912816560001</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -6900,10 +6913,10 @@
         <v>554</v>
       </c>
       <c r="C224">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="D224" s="29">
-        <v>79.645201586200002</v>
+        <v>89.286462830800005</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -6914,10 +6927,10 @@
         <v>556</v>
       </c>
       <c r="C225">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="D225" s="29">
-        <v>116.205656562</v>
+        <v>95.618040241900005</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -6928,10 +6941,10 @@
         <v>558</v>
       </c>
       <c r="C226">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="D226" s="29">
-        <v>123.9257013391</v>
+        <v>110.208734397</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -6942,10 +6955,10 @@
         <v>560</v>
       </c>
       <c r="C227">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="D227" s="29">
-        <v>176.07787341709999</v>
+        <v>167.70854122540001</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -6956,10 +6969,10 @@
         <v>562</v>
       </c>
       <c r="C228">
-        <v>251</v>
+        <v>426</v>
       </c>
       <c r="D228" s="29">
-        <v>186.00583954589999</v>
+        <v>315.6911858428</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -6970,10 +6983,10 @@
         <v>564</v>
       </c>
       <c r="C229">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="D229" s="29">
-        <v>119.3925952308</v>
+        <v>134.36725971729999</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -6984,10 +6997,10 @@
         <v>566</v>
       </c>
       <c r="C230">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="D230" s="29">
-        <v>98.239489837199997</v>
+        <v>104.8212918859</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -6998,10 +7011,10 @@
         <v>568</v>
       </c>
       <c r="C231">
-        <v>267</v>
+        <v>323</v>
       </c>
       <c r="D231" s="29">
-        <v>136.39777063720001</v>
+        <v>165.00554275580001</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -7012,10 +7025,10 @@
         <v>570</v>
       </c>
       <c r="C232">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="D232" s="29">
-        <v>81.143848456900002</v>
+        <v>91.869759459799994</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -7026,10 +7039,10 @@
         <v>572</v>
       </c>
       <c r="C233">
-        <v>474</v>
+        <v>405</v>
       </c>
       <c r="D233" s="29">
-        <v>183.66825019180001</v>
+        <v>156.9317327588</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -7040,10 +7053,10 @@
         <v>574</v>
       </c>
       <c r="C234">
-        <v>1453</v>
+        <v>1281</v>
       </c>
       <c r="D234" s="29">
-        <v>601.11618131950001</v>
+        <v>529.95858793549996</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -7054,10 +7067,10 @@
         <v>576</v>
       </c>
       <c r="C235">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D235" s="29">
-        <v>192.74376417229999</v>
+        <v>126.9841269841</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -7068,10 +7081,10 @@
         <v>578</v>
       </c>
       <c r="C236">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D236" s="29">
-        <v>107.51334230889999</v>
+        <v>114.2934629951</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -7082,10 +7095,10 @@
         <v>580</v>
       </c>
       <c r="C237">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="D237" s="29">
-        <v>133.86329468459999</v>
+        <v>139.42377000229999</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -7096,10 +7109,10 @@
         <v>582</v>
       </c>
       <c r="C238">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="D238" s="29">
-        <v>182.98170182979999</v>
+        <v>129.98700129989999</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -7110,10 +7123,10 @@
         <v>584</v>
       </c>
       <c r="C239">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="D239" s="29">
-        <v>181.7574547742</v>
+        <v>196.51553870890001</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -7124,10 +7137,10 @@
         <v>586</v>
       </c>
       <c r="C240">
-        <v>591</v>
+        <v>514</v>
       </c>
       <c r="D240" s="29">
-        <v>190.3939640925</v>
+        <v>165.58798230720001</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -7138,10 +7151,10 @@
         <v>588</v>
       </c>
       <c r="C241">
-        <v>1041</v>
+        <v>967</v>
       </c>
       <c r="D241" s="29">
-        <v>342.3227304266</v>
+        <v>317.98854978150001</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -7152,10 +7165,10 @@
         <v>590</v>
       </c>
       <c r="C242">
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="D242" s="29">
-        <v>92.708229579299996</v>
+        <v>113.77828175640001</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -7166,10 +7179,10 @@
         <v>592</v>
       </c>
       <c r="C243">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D243" s="29">
-        <v>155.34382767189999</v>
+        <v>150.1657000829</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -7180,10 +7193,10 @@
         <v>594</v>
       </c>
       <c r="C244">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="D244" s="29">
-        <v>106.0762342351</v>
+        <v>117.211308547</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -7194,10 +7207,10 @@
         <v>596</v>
       </c>
       <c r="C245">
-        <v>2567</v>
+        <v>1976</v>
       </c>
       <c r="D245" s="29">
-        <v>172.95209759159999</v>
+        <v>133.13336378689999</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -7208,10 +7221,10 @@
         <v>598</v>
       </c>
       <c r="C246">
-        <v>465</v>
+        <v>569</v>
       </c>
       <c r="D246" s="29">
-        <v>132.67783823580001</v>
+        <v>162.3520214111</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -7222,10 +7235,10 @@
         <v>600</v>
       </c>
       <c r="C247">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="D247" s="29">
-        <v>89.7577808578</v>
+        <v>96.735417532300005</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -7236,10 +7249,10 @@
         <v>602</v>
       </c>
       <c r="C248">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="D248" s="29">
-        <v>202.5996811318</v>
+        <v>170.57361469860001</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -7250,10 +7263,10 @@
         <v>604</v>
       </c>
       <c r="C249">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D249" s="29">
-        <v>124.3538225954</v>
+        <v>136.68643310069999</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -7264,10 +7277,10 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="D250" s="29">
-        <v>176.11259316499999</v>
+        <v>189.48823315230001</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -7278,10 +7291,10 @@
         <v>608</v>
       </c>
       <c r="C251">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D251" s="29">
-        <v>32.420569604500002</v>
+        <v>41.149184497999997</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -7292,10 +7305,10 @@
         <v>610</v>
       </c>
       <c r="C252">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D252" s="29">
-        <v>76.098867648799995</v>
+        <v>66.967003531000003</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -7306,10 +7319,10 @@
         <v>612</v>
       </c>
       <c r="C253">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="D253" s="29">
-        <v>150.47419169619999</v>
+        <v>117.8054527095</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -7320,10 +7333,10 @@
         <v>614</v>
       </c>
       <c r="C254">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D254" s="29">
-        <v>145.0502911593</v>
+        <v>158.81418740070001</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -7334,10 +7347,10 @@
         <v>616</v>
       </c>
       <c r="C255">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D255" s="29">
-        <v>116.40132171819999</v>
+        <v>110.7689996996</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -7348,10 +7361,10 @@
         <v>618</v>
       </c>
       <c r="C256">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D256" s="29">
-        <v>77.6237985434</v>
+        <v>81.048377890899999</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -7362,10 +7375,10 @@
         <v>620</v>
       </c>
       <c r="C257">
-        <v>221</v>
+        <v>290</v>
       </c>
       <c r="D257" s="29">
-        <v>120.88988080590001</v>
+        <v>158.63378024299999</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -7376,10 +7389,10 @@
         <v>622</v>
       </c>
       <c r="C258">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="D258" s="29">
-        <v>93.0883927836</v>
+        <v>65.9032869264</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -7390,10 +7403,10 @@
         <v>624</v>
       </c>
       <c r="C259">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D259" s="29">
-        <v>27.719025495499999</v>
+        <v>33.142313092400002</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -7404,10 +7417,10 @@
         <v>626</v>
       </c>
       <c r="C260">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="D260" s="29">
-        <v>103.0977270548</v>
+        <v>163.03826604010001</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -7418,10 +7431,10 @@
         <v>628</v>
       </c>
       <c r="C261">
-        <v>754</v>
+        <v>867</v>
       </c>
       <c r="D261" s="29">
-        <v>381.30686099489998</v>
+        <v>438.45231894250003</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -7432,10 +7445,10 @@
         <v>630</v>
       </c>
       <c r="C262">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D262" s="29">
-        <v>51.486759639500001</v>
+        <v>52.758037655300001</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -7446,10 +7459,10 @@
         <v>632</v>
       </c>
       <c r="C263">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D263" s="29">
-        <v>45.3566163964</v>
+        <v>36.285293117099997</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -7460,10 +7473,10 @@
         <v>634</v>
       </c>
       <c r="C264">
-        <v>1500</v>
+        <v>1593</v>
       </c>
       <c r="D264" s="29">
-        <v>289.36859771979999</v>
+        <v>307.30945077839999</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -7474,10 +7487,10 @@
         <v>636</v>
       </c>
       <c r="C265">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D265" s="29">
-        <v>141.10731181790001</v>
+        <v>133.495714085</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -7488,10 +7501,10 @@
         <v>638</v>
       </c>
       <c r="C266">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="D266" s="29">
-        <v>102.5588431362</v>
+        <v>61.535305881699998</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -7502,10 +7515,10 @@
         <v>640</v>
       </c>
       <c r="C267">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="D267" s="29">
-        <v>148.8658626685</v>
+        <v>137.8387617301</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -7516,10 +7529,10 @@
         <v>642</v>
       </c>
       <c r="C268">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="D268" s="29">
-        <v>169.38376572850001</v>
+        <v>146.13501356969999</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -7530,10 +7543,10 @@
         <v>644</v>
       </c>
       <c r="C269">
-        <v>376</v>
+        <v>309</v>
       </c>
       <c r="D269" s="29">
-        <v>176.59712372129999</v>
+        <v>145.12901922840001</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -7544,10 +7557,10 @@
         <v>646</v>
       </c>
       <c r="C270">
-        <v>455</v>
+        <v>343</v>
       </c>
       <c r="D270" s="29">
-        <v>416.01521427070003</v>
+        <v>313.61146921940002</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -7558,10 +7571,10 @@
         <v>648</v>
       </c>
       <c r="C271">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="D271" s="29">
-        <v>192.3414992296</v>
+        <v>144.7731714631</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -7572,10 +7585,10 @@
         <v>650</v>
       </c>
       <c r="C272">
-        <v>283</v>
+        <v>215</v>
       </c>
       <c r="D272" s="29">
-        <v>158.27474930509999</v>
+        <v>120.24406749329999</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -7586,10 +7599,10 @@
         <v>652</v>
       </c>
       <c r="C273">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D273" s="29">
-        <v>133.5584894074</v>
+        <v>141.23426466070001</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -7600,10 +7613,10 @@
         <v>654</v>
       </c>
       <c r="C274">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="D274" s="29">
-        <v>121.1310435538</v>
+        <v>123.0983690871</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -7614,10 +7627,10 @@
         <v>656</v>
       </c>
       <c r="C275">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="D275" s="29">
-        <v>64.467668576999998</v>
+        <v>82.802510098900001</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -7628,10 +7641,10 @@
         <v>658</v>
       </c>
       <c r="C276">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="D276" s="29">
-        <v>86.332034532799995</v>
+        <v>131.40805256319999</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -7642,10 +7655,10 @@
         <v>660</v>
       </c>
       <c r="C277">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="D277" s="29">
-        <v>141.09215781419999</v>
+        <v>116.4570191482</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -7656,10 +7669,10 @@
         <v>662</v>
       </c>
       <c r="C278">
-        <v>598</v>
+        <v>569</v>
       </c>
       <c r="D278" s="29">
-        <v>138.76223161230001</v>
+        <v>132.03295951070001</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -7670,10 +7683,10 @@
         <v>664</v>
       </c>
       <c r="C279">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D279" s="29">
-        <v>129.49997276869999</v>
+        <v>123.448572172</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -7684,10 +7697,10 @@
         <v>666</v>
       </c>
       <c r="C280">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="D280" s="29">
-        <v>118.1300268097</v>
+        <v>129.57998212690001</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -7698,10 +7711,10 @@
         <v>668</v>
       </c>
       <c r="C281">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D281" s="29">
-        <v>150.94339622640001</v>
+        <v>153.49096409520001</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -7712,10 +7725,10 @@
         <v>670</v>
       </c>
       <c r="C282">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="D282" s="29">
-        <v>81.455143006900002</v>
+        <v>97.746171608300003</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -7726,10 +7739,10 @@
         <v>672</v>
       </c>
       <c r="C283">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D283" s="29">
-        <v>35.109893968100003</v>
+        <v>49.153851555400003</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -7740,10 +7753,10 @@
         <v>674</v>
       </c>
       <c r="C284">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D284" s="29">
-        <v>49.366956053400003</v>
+        <v>53.356205027500003</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -7754,10 +7767,10 @@
         <v>676</v>
       </c>
       <c r="C285">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="D285" s="29">
-        <v>119.35950475919999</v>
+        <v>148.6936203356</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -7768,10 +7781,10 @@
         <v>678</v>
       </c>
       <c r="C286">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="D286" s="29">
-        <v>99.402609805799997</v>
+        <v>109.1479637083</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -7782,10 +7795,10 @@
         <v>680</v>
       </c>
       <c r="C287">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D287" s="29">
-        <v>299.22542279790002</v>
+        <v>323.84523606610003</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -7796,10 +7809,10 @@
         <v>682</v>
       </c>
       <c r="C288">
-        <v>670</v>
+        <v>607</v>
       </c>
       <c r="D288" s="29">
-        <v>347.7701187609</v>
+        <v>315.0693463998</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -7810,10 +7823,10 @@
         <v>684</v>
       </c>
       <c r="C289">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="D289" s="29">
-        <v>51.928398157300002</v>
+        <v>86.794608348599994</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -7824,10 +7837,10 @@
         <v>686</v>
       </c>
       <c r="C290">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D290" s="29">
-        <v>147.39485443780001</v>
+        <v>138.0364509815</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -7838,10 +7851,10 @@
         <v>688</v>
       </c>
       <c r="C291">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D291" s="29">
-        <v>246.90965964579999</v>
+        <v>240.55828576420001</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -7852,10 +7865,10 @@
         <v>690</v>
       </c>
       <c r="C292">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="D292" s="29">
-        <v>146.15489255080001</v>
+        <v>137.29702027499999</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -7866,10 +7879,10 @@
         <v>692</v>
       </c>
       <c r="C293">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D293" s="29">
-        <v>181.45211404139999</v>
+        <v>186.42340483710001</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -7880,10 +7893,10 @@
         <v>694</v>
       </c>
       <c r="C294">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D294" s="29">
-        <v>30.306327028599998</v>
+        <v>34.968838879099998</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -7894,10 +7907,10 @@
         <v>696</v>
       </c>
       <c r="C295">
-        <v>539</v>
+        <v>397</v>
       </c>
       <c r="D295" s="29">
-        <v>298.88983774550002</v>
+        <v>220.14706045450001</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -7908,10 +7921,10 @@
         <v>698</v>
       </c>
       <c r="C296">
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="D296" s="29">
-        <v>126.0585687504</v>
+        <v>91.427093819000007</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -7922,10 +7935,10 @@
         <v>700</v>
       </c>
       <c r="C297">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="D297" s="29">
-        <v>128.67984978600001</v>
+        <v>78.783581501599997</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -7936,10 +7949,10 @@
         <v>702</v>
       </c>
       <c r="C298">
-        <v>249</v>
+        <v>331</v>
       </c>
       <c r="D298" s="29">
-        <v>107.596577651</v>
+        <v>143.02998876500001</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -7950,10 +7963,10 @@
         <v>704</v>
       </c>
       <c r="C299">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D299" s="29">
-        <v>126.4785021582</v>
+        <v>126.8288581198</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -7964,10 +7977,10 @@
         <v>706</v>
       </c>
       <c r="C300">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="D300" s="29">
-        <v>147.68691676290001</v>
+        <v>145.7329553504</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -7978,10 +7991,10 @@
         <v>708</v>
       </c>
       <c r="C301">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="D301" s="29">
-        <v>272.57460276450001</v>
+        <v>337.16574086039998</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -7992,10 +8005,10 @@
         <v>710</v>
       </c>
       <c r="C302">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="D302" s="29">
-        <v>106.4705344429</v>
+        <v>87.527924020499995</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -8006,10 +8019,10 @@
         <v>712</v>
       </c>
       <c r="C303">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c r="D303" s="29">
-        <v>144.27783789349999</v>
+        <v>93.780594630799996</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -8020,10 +8033,10 @@
         <v>714</v>
       </c>
       <c r="C304">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D304" s="29">
-        <v>78.140437227199996</v>
+        <v>95.205590184800002</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -8034,10 +8047,10 @@
         <v>716</v>
       </c>
       <c r="C305">
-        <v>562</v>
+        <v>479</v>
       </c>
       <c r="D305" s="29">
-        <v>131.53952739389999</v>
+        <v>112.11287121300001</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -8048,10 +8061,10 @@
         <v>718</v>
       </c>
       <c r="C306">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D306" s="29">
-        <v>48.157958102599999</v>
+        <v>41.590963815899997</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -8062,10 +8075,10 @@
         <v>720</v>
       </c>
       <c r="C307">
-        <v>361</v>
+        <v>294</v>
       </c>
       <c r="D307" s="29">
-        <v>125.7690726534</v>
+        <v>102.4268901942</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -8076,10 +8089,10 @@
         <v>722</v>
       </c>
       <c r="C308">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="D308" s="29">
-        <v>87.120045047399998</v>
+        <v>78.408040542699993</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -8090,10 +8103,10 @@
         <v>724</v>
       </c>
       <c r="C309">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D309" s="29">
-        <v>128.23252831799999</v>
+        <v>129.83543492199999</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -8104,10 +8117,10 @@
         <v>726</v>
       </c>
       <c r="C310">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D310" s="29">
-        <v>114.3820943555</v>
+        <v>107.5967158768</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -8118,10 +8131,10 @@
         <v>728</v>
       </c>
       <c r="C311">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="D311" s="29">
-        <v>123.909613056</v>
+        <v>102.0224449379</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -8132,10 +8145,10 @@
         <v>730</v>
       </c>
       <c r="C312">
-        <v>685</v>
+        <v>603</v>
       </c>
       <c r="D312" s="29">
-        <v>151.63925353639999</v>
+        <v>133.48681734659999</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -8146,10 +8159,10 @@
         <v>732</v>
       </c>
       <c r="C313">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D313" s="29">
-        <v>130.01136577349999</v>
+        <v>127.55832113629999</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -8160,10 +8173,10 @@
         <v>734</v>
       </c>
       <c r="C314">
-        <v>934</v>
+        <v>833</v>
       </c>
       <c r="D314" s="29">
-        <v>170.327616234</v>
+        <v>151.908891138</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -8174,10 +8187,10 @@
         <v>736</v>
       </c>
       <c r="C315">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D315" s="29">
-        <v>173.34049117449999</v>
+        <v>169.4597339094</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -8188,10 +8201,10 @@
         <v>738</v>
       </c>
       <c r="C316">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D316" s="29">
-        <v>102.86901345619999</v>
+        <v>102.70255874190001</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -8202,10 +8215,10 @@
         <v>740</v>
       </c>
       <c r="C317">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="D317" s="29">
-        <v>183.33647265650001</v>
+        <v>223.51980912920001</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -8216,10 +8229,10 @@
         <v>742</v>
       </c>
       <c r="C318">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="D318" s="29">
-        <v>210.8542745197</v>
+        <v>163.64809365709999</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -8230,10 +8243,10 @@
         <v>744</v>
       </c>
       <c r="C319">
-        <v>506</v>
+        <v>442</v>
       </c>
       <c r="D319" s="29">
-        <v>193.62491868519999</v>
+        <v>169.13481039300001</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -8244,10 +8257,10 @@
         <v>746</v>
       </c>
       <c r="C320">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D320" s="29">
-        <v>25.813730036199999</v>
+        <v>38.720595054299999</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -8258,10 +8271,10 @@
         <v>748</v>
       </c>
       <c r="C321">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D321" s="29">
-        <v>32.901748890100002</v>
+        <v>39.389417685399998</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -8272,10 +8285,10 @@
         <v>750</v>
       </c>
       <c r="C322">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D322" s="29">
-        <v>60.446202879399998</v>
+        <v>51.898254997499997</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -8286,10 +8299,10 @@
         <v>752</v>
       </c>
       <c r="C323">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="D323" s="29">
-        <v>229.58761015869999</v>
+        <v>213.01943210600001</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -8300,10 +8313,10 @@
         <v>754</v>
       </c>
       <c r="C324">
-        <v>229</v>
+        <v>294</v>
       </c>
       <c r="D324" s="29">
-        <v>188.4742637981</v>
+        <v>241.97132557489999</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -8314,10 +8327,10 @@
         <v>756</v>
       </c>
       <c r="C325">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="D325" s="29">
-        <v>193.02535066269999</v>
+        <v>145.84137605629999</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -8328,10 +8341,10 @@
         <v>758</v>
       </c>
       <c r="C326">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="D326" s="29">
-        <v>321.88065099459999</v>
+        <v>353.22483423749998</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -8342,10 +8355,10 @@
         <v>760</v>
       </c>
       <c r="C327">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="D327" s="29">
-        <v>294.31765633930002</v>
+        <v>285.61325245490002</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -8356,10 +8369,10 @@
         <v>762</v>
       </c>
       <c r="C328">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D328" s="29">
-        <v>331.20828767810002</v>
+        <v>339.92429524850002</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -8370,10 +8383,10 @@
         <v>764</v>
       </c>
       <c r="C329">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D329" s="29">
-        <v>261.63044215539998</v>
+        <v>268.41345361869998</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -8384,10 +8397,10 @@
         <v>766</v>
       </c>
       <c r="C330">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="D330" s="29">
-        <v>171.8823172207</v>
+        <v>161.0753451798</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -8398,10 +8411,10 @@
         <v>768</v>
       </c>
       <c r="C331">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D331" s="29">
-        <v>61.886410306899997</v>
+        <v>56.963627668900003</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -8412,10 +8425,10 @@
         <v>770</v>
       </c>
       <c r="C332">
-        <v>686</v>
+        <v>869</v>
       </c>
       <c r="D332" s="29">
-        <v>279.3318837393</v>
+        <v>353.84753202540003</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -8426,10 +8439,10 @@
         <v>772</v>
       </c>
       <c r="C333">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D333" s="29">
-        <v>52.737053053499999</v>
+        <v>68.078741214499999</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -8440,10 +8453,10 @@
         <v>774</v>
       </c>
       <c r="C334">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="D334" s="29">
-        <v>184.0052875083</v>
+        <v>209.91407799070001</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -8454,10 +8467,10 @@
         <v>776</v>
       </c>
       <c r="C335">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="D335" s="29">
-        <v>93.095957796500002</v>
+        <v>121.8292781041</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -8468,10 +8481,10 @@
         <v>778</v>
       </c>
       <c r="C336">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="D336" s="29">
-        <v>84.906855911799994</v>
+        <v>72.234190850299996</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -8482,10 +8495,10 @@
         <v>780</v>
       </c>
       <c r="C337">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="D337" s="29">
-        <v>77.054624271700007</v>
+        <v>56.672433335299999</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -8496,10 +8509,10 @@
         <v>782</v>
       </c>
       <c r="C338">
-        <v>223</v>
+        <v>344</v>
       </c>
       <c r="D338" s="29">
-        <v>178.51996541680001</v>
+        <v>275.3850587595</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -8510,10 +8523,10 @@
         <v>784</v>
       </c>
       <c r="C339">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D339" s="29">
-        <v>239.1352089993</v>
+        <v>148.84946682610001</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -8524,10 +8537,10 @@
         <v>786</v>
       </c>
       <c r="C340">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="D340" s="29">
-        <v>122.9918530603</v>
+        <v>138.23877699339999</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -8538,10 +8551,10 @@
         <v>788</v>
       </c>
       <c r="C341">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="D341" s="29">
-        <v>129.680029832</v>
+        <v>107.97393041799999</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -8552,10 +8565,10 @@
         <v>790</v>
       </c>
       <c r="C342">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D342" s="29">
-        <v>100.0865613504</v>
+        <v>88.590132006100006</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -8566,10 +8579,10 @@
         <v>792</v>
       </c>
       <c r="C343">
-        <v>260</v>
+        <v>322</v>
       </c>
       <c r="D343" s="29">
-        <v>122.3494866027</v>
+        <v>151.52513340799999</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -8580,10 +8593,10 @@
         <v>794</v>
       </c>
       <c r="C344">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D344" s="29">
-        <v>142.25283569800001</v>
+        <v>112.3048702879</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -8594,10 +8607,10 @@
         <v>796</v>
       </c>
       <c r="C345">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="D345" s="29">
-        <v>158.51704274759999</v>
+        <v>129.93200225219999</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -8608,10 +8621,10 @@
         <v>798</v>
       </c>
       <c r="C346">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="D346" s="29">
-        <v>127.544353026</v>
+        <v>148.45326335819999</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -8622,10 +8635,10 @@
         <v>800</v>
       </c>
       <c r="C347">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="D347" s="29">
-        <v>64.940921800300003</v>
+        <v>114.3681789483</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -8636,10 +8649,10 @@
         <v>802</v>
       </c>
       <c r="C348">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D348" s="29">
-        <v>102.1867236698</v>
+        <v>96.409382402199995</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -8650,10 +8663,10 @@
         <v>804</v>
       </c>
       <c r="C349">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D349" s="29">
-        <v>73.3670108293</v>
+        <v>81.773647486800002</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -8664,10 +8677,10 @@
         <v>806</v>
       </c>
       <c r="C350">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="D350" s="29">
-        <v>85.159964875699998</v>
+        <v>96.094901999800001</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -8678,10 +8691,10 @@
         <v>808</v>
       </c>
       <c r="C351">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D351" s="29">
-        <v>113.0333762442</v>
+        <v>125.5926402713</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -8692,10 +8705,10 @@
         <v>810</v>
       </c>
       <c r="C352">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="D352" s="29">
-        <v>246.30187103</v>
+        <v>288.07236377779998</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -8706,10 +8719,10 @@
         <v>812</v>
       </c>
       <c r="C353">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D353" s="29">
-        <v>308.4013375609</v>
+        <v>254.69099225529999</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -8720,10 +8733,10 @@
         <v>814</v>
       </c>
       <c r="C354">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="D354" s="29">
-        <v>185.91404442160001</v>
+        <v>239.3148869682</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -8734,10 +8747,10 @@
         <v>816</v>
       </c>
       <c r="C355">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="D355" s="29">
-        <v>80.021104467100002</v>
+        <v>199.61308476959999</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -8748,10 +8761,10 @@
         <v>818</v>
       </c>
       <c r="C356">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D356" s="29">
-        <v>72.367391644500003</v>
+        <v>85.569550930999995</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -8762,10 +8775,10 @@
         <v>820</v>
       </c>
       <c r="C357">
-        <v>401</v>
+        <v>149</v>
       </c>
       <c r="D357" s="29">
-        <v>121.9905449722</v>
+        <v>45.3281576081</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -8776,10 +8789,10 @@
         <v>822</v>
       </c>
       <c r="C358">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D358" s="29">
-        <v>121.4631183826</v>
+        <v>125.1216460448</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -8790,10 +8803,10 @@
         <v>824</v>
       </c>
       <c r="C359">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D359" s="29">
-        <v>67.168906902399996</v>
+        <v>52.6665292757</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -8804,10 +8817,10 @@
         <v>826</v>
       </c>
       <c r="C360">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="D360" s="29">
-        <v>129.84695015840001</v>
+        <v>125.831065102</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -8818,10 +8831,10 @@
         <v>828</v>
       </c>
       <c r="C361">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="D361" s="29">
-        <v>167.28123032650001</v>
+        <v>188.86590520729999</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -8832,10 +8845,10 @@
         <v>830</v>
       </c>
       <c r="C362">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="D362" s="29">
-        <v>144.9892691558</v>
+        <v>131.88289454279999</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -8846,10 +8859,10 @@
         <v>832</v>
       </c>
       <c r="C363">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D363" s="29">
-        <v>165.30309054009999</v>
+        <v>148.56353706760001</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -8860,10 +8873,10 @@
         <v>834</v>
       </c>
       <c r="C364">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D364" s="29">
-        <v>199.76265822779999</v>
+        <v>203.71835443040001</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -8874,10 +8887,10 @@
         <v>836</v>
       </c>
       <c r="C365">
-        <v>802</v>
+        <v>694</v>
       </c>
       <c r="D365" s="29">
-        <v>126.1182775577</v>
+        <v>109.13476885919999</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -8888,10 +8901,10 @@
         <v>838</v>
       </c>
       <c r="C366">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="D366" s="29">
-        <v>112.1958722777</v>
+        <v>128.48236986640001</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -8902,10 +8915,10 @@
         <v>840</v>
       </c>
       <c r="C367">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D367" s="29">
-        <v>109.6687791967</v>
+        <v>142.3585114572</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -8916,10 +8929,10 @@
         <v>842</v>
       </c>
       <c r="C368">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D368" s="29">
-        <v>220.17450868469999</v>
+        <v>250.07475060479999</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -8930,10 +8943,10 @@
         <v>844</v>
       </c>
       <c r="C369">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D369" s="29">
-        <v>227.6510761955</v>
+        <v>225.2980934958</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -8944,10 +8957,10 @@
         <v>846</v>
       </c>
       <c r="C370">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D370" s="29">
-        <v>302.58445992840001</v>
+        <v>294.25644726979999</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -8958,10 +8971,10 @@
         <v>848</v>
       </c>
       <c r="C371">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="D371" s="29">
-        <v>175.9540714757</v>
+        <v>188.3610893362</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -8972,10 +8985,10 @@
         <v>850</v>
       </c>
       <c r="C372">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D372" s="29">
-        <v>62.764507567599999</v>
+        <v>78.007316548299997</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -8986,10 +8999,10 @@
         <v>852</v>
       </c>
       <c r="C373">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="D373" s="29">
-        <v>87.015890440299998</v>
+        <v>113.12065757240001</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -9000,10 +9013,10 @@
         <v>854</v>
       </c>
       <c r="C374">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="D374" s="29">
-        <v>130.75153709579999</v>
+        <v>110.6359160042</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -9014,10 +9027,10 @@
         <v>856</v>
       </c>
       <c r="C375">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="D375" s="29">
-        <v>174.75810920250001</v>
+        <v>213.1196453689</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -9028,10 +9041,10 @@
         <v>858</v>
       </c>
       <c r="C376">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D376" s="29">
-        <v>104.24811050300001</v>
+        <v>114.3366373259</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -9042,10 +9055,10 @@
         <v>860</v>
       </c>
       <c r="C377">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D377" s="29">
-        <v>44.377577417200001</v>
+        <v>43.295197480200002</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -9056,10 +9069,10 @@
         <v>862</v>
       </c>
       <c r="C378">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D378" s="29">
-        <v>92.278570865199995</v>
+        <v>95.433393800800005</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -9070,10 +9083,10 @@
         <v>864</v>
       </c>
       <c r="C379">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D379" s="29">
-        <v>115.72813763800001</v>
+        <v>117.24754425899999</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -9084,10 +9097,10 @@
         <v>866</v>
       </c>
       <c r="C380">
-        <v>449</v>
+        <v>276</v>
       </c>
       <c r="D380" s="29">
-        <v>439.19712027550003</v>
+        <v>269.97417638309997</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -9098,10 +9111,10 @@
         <v>868</v>
       </c>
       <c r="C381">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D381" s="29">
-        <v>127.9749004066</v>
+        <v>126.5988262087</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -9112,10 +9125,10 @@
         <v>870</v>
       </c>
       <c r="C382">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D382" s="29">
-        <v>156.84736790509999</v>
+        <v>147.04440741100001</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -9126,10 +9139,10 @@
         <v>872</v>
       </c>
       <c r="C383">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D383" s="29">
-        <v>48.857678312300003</v>
+        <v>40.107049360799998</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -9140,10 +9153,10 @@
         <v>874</v>
       </c>
       <c r="C384">
-        <v>573</v>
+        <v>466</v>
       </c>
       <c r="D384" s="29">
-        <v>191.7266439807</v>
+        <v>155.9242863787</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -9154,10 +9167,10 @@
         <v>876</v>
       </c>
       <c r="C385">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D385" s="29">
-        <v>152.4000643677</v>
+        <v>165.65224387800001</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -9168,10 +9181,10 @@
         <v>878</v>
       </c>
       <c r="C386">
-        <v>1723</v>
+        <v>1428</v>
       </c>
       <c r="D386" s="29">
-        <v>762.39950087830005</v>
+        <v>631.86679469199998</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -9182,10 +9195,10 @@
         <v>880</v>
       </c>
       <c r="C387">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="D387" s="29">
-        <v>116.71186598929999</v>
+        <v>126.8976288393</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -9196,10 +9209,10 @@
         <v>882</v>
       </c>
       <c r="C388">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D388" s="29">
-        <v>52.513996315100002</v>
+        <v>52.959030182200003</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -9210,10 +9223,10 @@
         <v>884</v>
       </c>
       <c r="C389">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D389" s="29">
-        <v>97.285888599399996</v>
+        <v>72.552188107999996</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -9224,10 +9237,10 @@
         <v>886</v>
       </c>
       <c r="C390">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D390" s="29">
-        <v>173.26701021700001</v>
+        <v>173.90637187830001</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -9252,10 +9265,10 @@
         <v>890</v>
       </c>
       <c r="C392">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="D392" s="29">
-        <v>181.03944716379999</v>
+        <v>166.64267204149999</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -9266,10 +9279,10 @@
         <v>892</v>
       </c>
       <c r="C393">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="D393" s="29">
-        <v>305.1086792072</v>
+        <v>332.84583186240002</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -9280,10 +9293,10 @@
         <v>894</v>
       </c>
       <c r="C394">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D394" s="29">
-        <v>226.937744192</v>
+        <v>215.23992232649999</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -9294,10 +9307,10 @@
         <v>896</v>
       </c>
       <c r="C395">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D395" s="29">
-        <v>104.07593852879999</v>
+        <v>93.004030174600004</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -9308,10 +9321,10 @@
         <v>898</v>
       </c>
       <c r="C396">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="D396" s="29">
-        <v>246.82651622</v>
+        <v>167.10615073279999</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -9322,10 +9335,10 @@
         <v>900</v>
       </c>
       <c r="C397">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D397" s="29">
-        <v>176.49350017040001</v>
+        <v>193.53425191100001</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -9336,10 +9349,10 @@
         <v>902</v>
       </c>
       <c r="C398">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="D398" s="29">
-        <v>127.7260540038</v>
+        <v>166.7827812612</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -9350,10 +9363,10 @@
         <v>904</v>
       </c>
       <c r="C399">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D399" s="29">
-        <v>126.2061632333</v>
+        <v>129.18741118369999</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -9364,10 +9377,10 @@
         <v>906</v>
       </c>
       <c r="C400">
-        <v>484</v>
+        <v>433</v>
       </c>
       <c r="D400" s="29">
-        <v>105.22288119380001</v>
+        <v>94.135346192</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -9378,10 +9391,10 @@
         <v>908</v>
       </c>
       <c r="C401">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D401" s="29">
-        <v>49.670930088200002</v>
+        <v>56.444238736599999</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -9392,10 +9405,10 @@
         <v>910</v>
       </c>
       <c r="C402">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="D402" s="29">
-        <v>116.3919486489</v>
+        <v>131.74578017280001</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -9406,10 +9419,10 @@
         <v>912</v>
       </c>
       <c r="C403">
-        <v>510</v>
+        <v>338</v>
       </c>
       <c r="D403" s="29">
-        <v>165.40236557809999</v>
+        <v>109.619606991</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -9420,10 +9433,10 @@
         <v>914</v>
       </c>
       <c r="C404">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="D404" s="29">
-        <v>103.4207861416</v>
+        <v>93.365987489000005</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -9434,10 +9447,10 @@
         <v>916</v>
       </c>
       <c r="C405">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D405" s="29">
-        <v>32.856260431899997</v>
+        <v>40.741762935499999</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -9448,10 +9461,10 @@
         <v>918</v>
       </c>
       <c r="C406">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="D406" s="29">
-        <v>214.4806447224</v>
+        <v>248.09328307440001</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -9462,10 +9475,10 @@
         <v>920</v>
       </c>
       <c r="C407">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D407" s="29">
-        <v>28.106664792899998</v>
+        <v>68.509995432699995</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -9476,10 +9489,10 @@
         <v>922</v>
       </c>
       <c r="C408">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D408" s="29">
-        <v>56.845730718399999</v>
+        <v>46.814131179900002</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -9490,10 +9503,10 @@
         <v>924</v>
       </c>
       <c r="C409">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D409" s="29">
-        <v>36.986114126300002</v>
+        <v>67.539860578399995</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -9504,10 +9517,10 @@
         <v>926</v>
       </c>
       <c r="C410">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D410" s="29">
-        <v>129.27629216439999</v>
+        <v>152.01934356370001</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -9518,10 +9531,10 @@
         <v>928</v>
       </c>
       <c r="C411">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="D411" s="29">
-        <v>265.63897873510001</v>
+        <v>328.95189594660002</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -9532,10 +9545,10 @@
         <v>930</v>
       </c>
       <c r="C412">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="D412" s="29">
-        <v>151.78822866799999</v>
+        <v>156.85722331740001</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -9546,10 +9559,10 @@
         <v>932</v>
       </c>
       <c r="C413">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D413" s="29">
-        <v>96.143323901399995</v>
+        <v>85.200181343500006</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -9560,10 +9573,10 @@
         <v>934</v>
       </c>
       <c r="C414">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D414" s="29">
-        <v>60.381264556200001</v>
+        <v>65.926482729699998</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -9574,10 +9587,10 @@
         <v>936</v>
       </c>
       <c r="C415">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="D415" s="29">
-        <v>166.34717447439999</v>
+        <v>151.5607589656</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -9588,10 +9601,10 @@
         <v>938</v>
       </c>
       <c r="C416">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D416" s="29">
-        <v>61.416079314500003</v>
+        <v>76.038955341700003</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -9602,10 +9615,10 @@
         <v>940</v>
       </c>
       <c r="C417">
-        <v>1073</v>
+        <v>948</v>
       </c>
       <c r="D417" s="29">
-        <v>340.63275788729999</v>
+        <v>300.95047015569997</v>
       </c>
     </row>
   </sheetData>
@@ -9620,8 +9633,8 @@
   <dimension ref="A2:S510"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A314" sqref="A314"/>
+      <pane ySplit="3" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H316" sqref="H316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9635,7 +9648,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -16707,7 +16720,7 @@
         <v>3</v>
       </c>
       <c r="D263" s="3">
-        <f t="shared" ref="D263:D314" si="46">B263-B262</f>
+        <f t="shared" ref="D263:D318" si="46">B263-B262</f>
         <v>15332</v>
       </c>
       <c r="E263" s="3">
@@ -18228,7 +18241,7 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="37" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B314">
         <v>1719737</v>
@@ -18257,20 +18270,124 @@
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A315" s="26"/>
-      <c r="G315" s="4"/>
+      <c r="A315" s="26" t="s">
+        <v>968</v>
+      </c>
+      <c r="B315" s="32">
+        <v>1742661</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D315" s="3">
+        <f t="shared" si="46"/>
+        <v>22924</v>
+      </c>
+      <c r="E315" s="3">
+        <v>33624</v>
+      </c>
+      <c r="F315" s="3">
+        <f t="shared" ref="F315:F316" si="138">E315-E314</f>
+        <v>553</v>
+      </c>
+      <c r="G315" s="4">
+        <f t="shared" ref="G315:G316" si="139">E315/B315</f>
+        <v>1.9294630453082957E-2</v>
+      </c>
+      <c r="H315" s="3">
+        <f t="shared" ref="H315:H316" si="140">B315-E315</f>
+        <v>1709037</v>
+      </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A316" s="26"/>
-      <c r="G316" s="4"/>
+      <c r="A316" s="26" t="s">
+        <v>969</v>
+      </c>
+      <c r="B316" s="32">
+        <v>1755351</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D316" s="3">
+        <f t="shared" si="46"/>
+        <v>12690</v>
+      </c>
+      <c r="E316" s="3">
+        <v>33960</v>
+      </c>
+      <c r="F316" s="3">
+        <f t="shared" si="138"/>
+        <v>336</v>
+      </c>
+      <c r="G316" s="4">
+        <f t="shared" si="139"/>
+        <v>1.9346558038819586E-2</v>
+      </c>
+      <c r="H316" s="3">
+        <f t="shared" si="140"/>
+        <v>1721391</v>
+      </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A317" s="26"/>
-      <c r="G317" s="4"/>
+      <c r="A317" s="26" t="s">
+        <v>970</v>
+      </c>
+      <c r="B317" s="32">
+        <v>1765666</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D317" s="3">
+        <f t="shared" si="46"/>
+        <v>10315</v>
+      </c>
+      <c r="E317" s="3">
+        <v>34272</v>
+      </c>
+      <c r="F317" s="3">
+        <f t="shared" ref="F317" si="141">E317-E316</f>
+        <v>312</v>
+      </c>
+      <c r="G317" s="4">
+        <f t="shared" ref="G317" si="142">E317/B317</f>
+        <v>1.9410239535676624E-2</v>
+      </c>
+      <c r="H317" s="3">
+        <f t="shared" ref="H317" si="143">B317-E317</f>
+        <v>1731394</v>
+      </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A318" s="26"/>
-      <c r="G318" s="4"/>
+      <c r="A318" s="26" t="s">
+        <v>972</v>
+      </c>
+      <c r="B318" s="32">
+        <v>1775513</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D318" s="3">
+        <f t="shared" si="46"/>
+        <v>9847</v>
+      </c>
+      <c r="E318" s="3">
+        <v>34574</v>
+      </c>
+      <c r="F318" s="3">
+        <f t="shared" ref="F318" si="144">E318-E317</f>
+        <v>302</v>
+      </c>
+      <c r="G318" s="4">
+        <f t="shared" ref="G318" si="145">E318/B318</f>
+        <v>1.9472681979799639E-2</v>
+      </c>
+      <c r="H318" s="3">
+        <f t="shared" ref="H318" si="146">B318-E318</f>
+        <v>1740939</v>
+      </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="26"/>
@@ -19049,10 +19166,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A2:IJ20"/>
+  <dimension ref="A2:IY20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="IG4" sqref="IG4:IG20"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="IK4" sqref="IK4:IK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19061,12 +19178,12 @@
     <col min="2" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:244" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="3" spans="1:244" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:259" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>43957</v>
       </c>
@@ -19796,8 +19913,53 @@
       <c r="IJ3" s="5">
         <v>44199</v>
       </c>
-    </row>
-    <row r="4" spans="1:244" x14ac:dyDescent="0.25">
+      <c r="IK3" s="5">
+        <v>44200</v>
+      </c>
+      <c r="IL3" s="5">
+        <v>44201</v>
+      </c>
+      <c r="IM3" s="5">
+        <v>44202</v>
+      </c>
+      <c r="IN3" s="5">
+        <v>44203</v>
+      </c>
+      <c r="IO3" s="5">
+        <v>44204</v>
+      </c>
+      <c r="IP3" s="5">
+        <v>44205</v>
+      </c>
+      <c r="IQ3" s="5">
+        <v>44206</v>
+      </c>
+      <c r="IR3" s="5">
+        <v>44207</v>
+      </c>
+      <c r="IS3" s="5">
+        <v>44208</v>
+      </c>
+      <c r="IT3" s="5">
+        <v>44209</v>
+      </c>
+      <c r="IU3" s="5">
+        <v>44210</v>
+      </c>
+      <c r="IV3" s="5">
+        <v>44211</v>
+      </c>
+      <c r="IW3" s="5">
+        <v>44212</v>
+      </c>
+      <c r="IX3" s="5">
+        <v>44213</v>
+      </c>
+      <c r="IY3" s="5">
+        <v>44214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -20521,8 +20683,20 @@
       <c r="IG4" s="3">
         <v>14717</v>
       </c>
-    </row>
-    <row r="5" spans="1:244" x14ac:dyDescent="0.25">
+      <c r="IH4" s="3">
+        <v>14365</v>
+      </c>
+      <c r="II4" s="3">
+        <v>14522</v>
+      </c>
+      <c r="IJ4" s="3">
+        <v>14266</v>
+      </c>
+      <c r="IK4">
+        <v>14301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -21246,8 +21420,20 @@
       <c r="IG5" s="3">
         <v>21434</v>
       </c>
-    </row>
-    <row r="6" spans="1:244" x14ac:dyDescent="0.25">
+      <c r="IH5" s="3">
+        <v>21649</v>
+      </c>
+      <c r="II5" s="3">
+        <v>21108</v>
+      </c>
+      <c r="IJ5" s="3">
+        <v>20621</v>
+      </c>
+      <c r="IK5">
+        <v>20858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -21971,8 +22157,20 @@
       <c r="IG6" s="3">
         <v>4612</v>
       </c>
-    </row>
-    <row r="7" spans="1:244" x14ac:dyDescent="0.25">
+      <c r="IH6" s="3">
+        <v>4657</v>
+      </c>
+      <c r="II6" s="3">
+        <v>4687</v>
+      </c>
+      <c r="IJ6" s="3">
+        <v>4443</v>
+      </c>
+      <c r="IK6">
+        <v>4618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -22696,8 +22894,20 @@
       <c r="IG7" s="3">
         <v>4457</v>
       </c>
-    </row>
-    <row r="8" spans="1:244" x14ac:dyDescent="0.25">
+      <c r="IH7" s="3">
+        <v>4965</v>
+      </c>
+      <c r="II7" s="3">
+        <v>4552</v>
+      </c>
+      <c r="IJ7" s="3">
+        <v>4462</v>
+      </c>
+      <c r="IK7">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -23421,8 +23631,20 @@
       <c r="IG8" s="3">
         <v>546</v>
       </c>
-    </row>
-    <row r="9" spans="1:244" x14ac:dyDescent="0.25">
+      <c r="IH8" s="3">
+        <v>590</v>
+      </c>
+      <c r="II8" s="3">
+        <v>579</v>
+      </c>
+      <c r="IJ8" s="3">
+        <v>556</v>
+      </c>
+      <c r="IK8">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -24146,8 +24368,20 @@
       <c r="IG9" s="3">
         <v>1856</v>
       </c>
-    </row>
-    <row r="10" spans="1:244" x14ac:dyDescent="0.25">
+      <c r="IH9" s="3">
+        <v>2093</v>
+      </c>
+      <c r="II9" s="3">
+        <v>2189</v>
+      </c>
+      <c r="IJ9" s="3">
+        <v>2180</v>
+      </c>
+      <c r="IK9">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -24871,8 +25105,20 @@
       <c r="IG10" s="3">
         <v>8311</v>
       </c>
-    </row>
-    <row r="11" spans="1:244" x14ac:dyDescent="0.25">
+      <c r="IH10" s="3">
+        <v>8310</v>
+      </c>
+      <c r="II10" s="3">
+        <v>8454</v>
+      </c>
+      <c r="IJ10" s="3">
+        <v>8437</v>
+      </c>
+      <c r="IK10">
+        <v>8397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
@@ -25596,8 +25842,20 @@
       <c r="IG11" s="3">
         <v>1430</v>
       </c>
-    </row>
-    <row r="12" spans="1:244" x14ac:dyDescent="0.25">
+      <c r="IH11" s="3">
+        <v>1451</v>
+      </c>
+      <c r="II11" s="3">
+        <v>1487</v>
+      </c>
+      <c r="IJ11" s="3">
+        <v>1459</v>
+      </c>
+      <c r="IK11">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -26321,8 +26579,20 @@
       <c r="IG12" s="3">
         <v>6362</v>
       </c>
-    </row>
-    <row r="13" spans="1:244" x14ac:dyDescent="0.25">
+      <c r="IH12" s="3">
+        <v>6726</v>
+      </c>
+      <c r="II12" s="3">
+        <v>7112</v>
+      </c>
+      <c r="IJ12" s="3">
+        <v>7114</v>
+      </c>
+      <c r="IK12">
+        <v>7282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -27046,8 +27316,20 @@
       <c r="IG13" s="3">
         <v>22750</v>
       </c>
-    </row>
-    <row r="14" spans="1:244" x14ac:dyDescent="0.25">
+      <c r="IH13" s="3">
+        <v>22609</v>
+      </c>
+      <c r="II13" s="3">
+        <v>22169</v>
+      </c>
+      <c r="IJ13" s="3">
+        <v>22030</v>
+      </c>
+      <c r="IK13">
+        <v>21620</v>
+      </c>
+    </row>
+    <row r="14" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
@@ -27771,8 +28053,20 @@
       <c r="IG14" s="3">
         <v>4503</v>
       </c>
-    </row>
-    <row r="15" spans="1:244" x14ac:dyDescent="0.25">
+      <c r="IH14" s="3">
+        <v>4638</v>
+      </c>
+      <c r="II14" s="3">
+        <v>4829</v>
+      </c>
+      <c r="IJ14" s="3">
+        <v>4822</v>
+      </c>
+      <c r="IK14">
+        <v>4825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -28496,8 +28790,20 @@
       <c r="IG15" s="3">
         <v>1115</v>
       </c>
-    </row>
-    <row r="16" spans="1:244" x14ac:dyDescent="0.25">
+      <c r="IH15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="II15" s="3">
+        <v>957</v>
+      </c>
+      <c r="IJ15" s="3">
+        <v>895</v>
+      </c>
+      <c r="IK15">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -29221,8 +29527,20 @@
       <c r="IG16" s="3">
         <v>13302</v>
       </c>
-    </row>
-    <row r="17" spans="1:241" x14ac:dyDescent="0.25">
+      <c r="IH16" s="3">
+        <v>13619</v>
+      </c>
+      <c r="II16" s="3">
+        <v>13892</v>
+      </c>
+      <c r="IJ16" s="3">
+        <v>13425</v>
+      </c>
+      <c r="IK16">
+        <v>13153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:245" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -29946,8 +30264,20 @@
       <c r="IG17" s="3">
         <v>3365</v>
       </c>
-    </row>
-    <row r="18" spans="1:241" x14ac:dyDescent="0.25">
+      <c r="IH17" s="3">
+        <v>3616</v>
+      </c>
+      <c r="II17" s="3">
+        <v>3545</v>
+      </c>
+      <c r="IJ17" s="3">
+        <v>3826</v>
+      </c>
+      <c r="IK17">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:245" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -30671,8 +31001,20 @@
       <c r="IG18" s="3">
         <v>2239</v>
       </c>
-    </row>
-    <row r="19" spans="1:241" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="IH18" s="3">
+        <v>2218</v>
+      </c>
+      <c r="II18" s="3">
+        <v>2156</v>
+      </c>
+      <c r="IJ18" s="3">
+        <v>2248</v>
+      </c>
+      <c r="IK18">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:245" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -31396,8 +31738,20 @@
       <c r="IG19" s="3">
         <v>5258</v>
       </c>
-    </row>
-    <row r="20" spans="1:241" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="IH19" s="3">
+        <v>5468</v>
+      </c>
+      <c r="II19" s="3">
+        <v>5221</v>
+      </c>
+      <c r="IJ19" s="3">
+        <v>5310</v>
+      </c>
+      <c r="IK19">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:245" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -32161,6 +32515,19 @@
       </c>
       <c r="IG20" s="12">
         <v>116257</v>
+      </c>
+      <c r="IH20" s="12">
+        <v>117974</v>
+      </c>
+      <c r="II20" s="12">
+        <v>117459</v>
+      </c>
+      <c r="IJ20" s="12">
+        <v>116094</v>
+      </c>
+      <c r="IK20" s="1">
+        <f>SUM(IK4:IK19)</f>
+        <v>115894</v>
       </c>
     </row>
   </sheetData>
@@ -32172,11 +32539,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Tabelle5"/>
-  <dimension ref="A2:IK20"/>
+  <dimension ref="A2:IZ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32243,12 +32610,12 @@
     <col min="221" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:245" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="3" spans="1:245" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:260" x14ac:dyDescent="0.25">
       <c r="C3" s="5">
         <v>43957</v>
       </c>
@@ -32978,8 +33345,53 @@
       <c r="IK3" s="5">
         <v>44199</v>
       </c>
-    </row>
-    <row r="4" spans="1:245" x14ac:dyDescent="0.25">
+      <c r="IL3" s="5">
+        <v>44200</v>
+      </c>
+      <c r="IM3" s="5">
+        <v>44201</v>
+      </c>
+      <c r="IN3" s="5">
+        <v>44202</v>
+      </c>
+      <c r="IO3" s="5">
+        <v>44203</v>
+      </c>
+      <c r="IP3" s="5">
+        <v>44204</v>
+      </c>
+      <c r="IQ3" s="5">
+        <v>44205</v>
+      </c>
+      <c r="IR3" s="5">
+        <v>44206</v>
+      </c>
+      <c r="IS3" s="5">
+        <v>44207</v>
+      </c>
+      <c r="IT3" s="5">
+        <v>44208</v>
+      </c>
+      <c r="IU3" s="5">
+        <v>44209</v>
+      </c>
+      <c r="IV3" s="5">
+        <v>44210</v>
+      </c>
+      <c r="IW3" s="5">
+        <v>44211</v>
+      </c>
+      <c r="IX3" s="5">
+        <v>44212</v>
+      </c>
+      <c r="IY3" s="5">
+        <v>44213</v>
+      </c>
+      <c r="IZ3" s="5">
+        <v>44214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -33706,8 +34118,34 @@
       <c r="IH4" s="13">
         <v>132.58087956157232</v>
       </c>
-    </row>
-    <row r="5" spans="1:245" x14ac:dyDescent="0.25">
+      <c r="II4" s="13">
+        <v>129.40982094869787</v>
+      </c>
+      <c r="IJ4" s="13">
+        <v>130.82418515955379</v>
+      </c>
+      <c r="IK4" s="13">
+        <v>128.51796071382691</v>
+      </c>
+      <c r="IL4" s="13">
+        <v>128.83326483726614</v>
+      </c>
+      <c r="IM4" s="13"/>
+      <c r="IN4" s="13"/>
+      <c r="IO4" s="13"/>
+      <c r="IP4" s="13"/>
+      <c r="IQ4" s="13"/>
+      <c r="IR4" s="13"/>
+      <c r="IS4" s="13"/>
+      <c r="IT4" s="13"/>
+      <c r="IU4" s="13"/>
+      <c r="IV4" s="13"/>
+      <c r="IW4" s="13"/>
+      <c r="IX4" s="13"/>
+      <c r="IY4" s="13"/>
+      <c r="IZ4" s="13"/>
+    </row>
+    <row r="5" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -34434,8 +34872,34 @@
       <c r="IH5" s="13">
         <v>163.30993908677942</v>
       </c>
-    </row>
-    <row r="6" spans="1:245" x14ac:dyDescent="0.25">
+      <c r="II5" s="13">
+        <v>164.9480671498408</v>
+      </c>
+      <c r="IJ5" s="13">
+        <v>160.82607979116077</v>
+      </c>
+      <c r="IK5" s="13">
+        <v>157.11552924831943</v>
+      </c>
+      <c r="IL5" s="13">
+        <v>158.92127971783358</v>
+      </c>
+      <c r="IM5" s="13"/>
+      <c r="IN5" s="13"/>
+      <c r="IO5" s="13"/>
+      <c r="IP5" s="13"/>
+      <c r="IQ5" s="13"/>
+      <c r="IR5" s="13"/>
+      <c r="IS5" s="13"/>
+      <c r="IT5" s="13"/>
+      <c r="IU5" s="13"/>
+      <c r="IV5" s="13"/>
+      <c r="IW5" s="13"/>
+      <c r="IX5" s="13"/>
+      <c r="IY5" s="13"/>
+      <c r="IZ5" s="13"/>
+    </row>
+    <row r="6" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -35162,8 +35626,34 @@
       <c r="IH6" s="13">
         <v>125.68500644912332</v>
       </c>
-    </row>
-    <row r="7" spans="1:245" x14ac:dyDescent="0.25">
+      <c r="II6" s="13">
+        <v>126.9113345692904</v>
+      </c>
+      <c r="IJ6" s="13">
+        <v>127.72888664940179</v>
+      </c>
+      <c r="IK6" s="13">
+        <v>121.07946306449587</v>
+      </c>
+      <c r="IL6" s="13">
+        <v>125.8485168651456</v>
+      </c>
+      <c r="IM6" s="13"/>
+      <c r="IN6" s="13"/>
+      <c r="IO6" s="13"/>
+      <c r="IP6" s="13"/>
+      <c r="IQ6" s="13"/>
+      <c r="IR6" s="13"/>
+      <c r="IS6" s="13"/>
+      <c r="IT6" s="13"/>
+      <c r="IU6" s="13"/>
+      <c r="IV6" s="13"/>
+      <c r="IW6" s="13"/>
+      <c r="IX6" s="13"/>
+      <c r="IY6" s="13"/>
+      <c r="IZ6" s="13"/>
+    </row>
+    <row r="7" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -35890,8 +36380,34 @@
       <c r="IH7" s="13">
         <v>176.7323197296634</v>
       </c>
-    </row>
-    <row r="8" spans="1:245" x14ac:dyDescent="0.25">
+      <c r="II7" s="13">
+        <v>196.87591820905962</v>
+      </c>
+      <c r="IJ7" s="13">
+        <v>180.49933125632214</v>
+      </c>
+      <c r="IK7" s="13">
+        <v>176.93058349422438</v>
+      </c>
+      <c r="IL7" s="13">
+        <v>170.30857375788742</v>
+      </c>
+      <c r="IM7" s="13"/>
+      <c r="IN7" s="13"/>
+      <c r="IO7" s="13"/>
+      <c r="IP7" s="13"/>
+      <c r="IQ7" s="13"/>
+      <c r="IR7" s="13"/>
+      <c r="IS7" s="13"/>
+      <c r="IT7" s="13"/>
+      <c r="IU7" s="13"/>
+      <c r="IV7" s="13"/>
+      <c r="IW7" s="13"/>
+      <c r="IX7" s="13"/>
+      <c r="IY7" s="13"/>
+      <c r="IZ7" s="13"/>
+    </row>
+    <row r="8" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -36618,8 +37134,34 @@
       <c r="IH8" s="13">
         <v>80.152436428548356</v>
       </c>
-    </row>
-    <row r="9" spans="1:245" x14ac:dyDescent="0.25">
+      <c r="II8" s="13">
+        <v>86.611607129750055</v>
+      </c>
+      <c r="IJ8" s="13">
+        <v>84.996814454449634</v>
+      </c>
+      <c r="IK8" s="13">
+        <v>81.620429769730563</v>
+      </c>
+      <c r="IL8" s="13">
+        <v>81.03323243325768</v>
+      </c>
+      <c r="IM8" s="13"/>
+      <c r="IN8" s="13"/>
+      <c r="IO8" s="13"/>
+      <c r="IP8" s="13"/>
+      <c r="IQ8" s="13"/>
+      <c r="IR8" s="13"/>
+      <c r="IS8" s="13"/>
+      <c r="IT8" s="13"/>
+      <c r="IU8" s="13"/>
+      <c r="IV8" s="13"/>
+      <c r="IW8" s="13"/>
+      <c r="IX8" s="13"/>
+      <c r="IY8" s="13"/>
+      <c r="IZ8" s="13"/>
+    </row>
+    <row r="9" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -37346,8 +37888,34 @@
       <c r="IH9" s="13">
         <v>100.47351391498621</v>
       </c>
-    </row>
-    <row r="10" spans="1:245" x14ac:dyDescent="0.25">
+      <c r="II9" s="13">
+        <v>113.30337533624252</v>
+      </c>
+      <c r="IJ9" s="13">
+        <v>118.50028122839699</v>
+      </c>
+      <c r="IK9" s="13">
+        <v>118.0130713010075</v>
+      </c>
+      <c r="IL9" s="13">
+        <v>109.73050253538634</v>
+      </c>
+      <c r="IM9" s="13"/>
+      <c r="IN9" s="13"/>
+      <c r="IO9" s="13"/>
+      <c r="IP9" s="13"/>
+      <c r="IQ9" s="13"/>
+      <c r="IR9" s="13"/>
+      <c r="IS9" s="13"/>
+      <c r="IT9" s="13"/>
+      <c r="IU9" s="13"/>
+      <c r="IV9" s="13"/>
+      <c r="IW9" s="13"/>
+      <c r="IX9" s="13"/>
+      <c r="IY9" s="13"/>
+      <c r="IZ9" s="13"/>
+    </row>
+    <row r="10" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -38074,8 +38642,34 @@
       <c r="IH10" s="13">
         <v>132.17071029630665</v>
       </c>
-    </row>
-    <row r="11" spans="1:245" x14ac:dyDescent="0.25">
+      <c r="II10" s="13">
+        <v>132.15480719074819</v>
+      </c>
+      <c r="IJ10" s="13">
+        <v>134.44485439116551</v>
+      </c>
+      <c r="IK10" s="13">
+        <v>134.1745015966718</v>
+      </c>
+      <c r="IL10" s="13">
+        <v>133.53837737433366</v>
+      </c>
+      <c r="IM10" s="13"/>
+      <c r="IN10" s="13"/>
+      <c r="IO10" s="13"/>
+      <c r="IP10" s="13"/>
+      <c r="IQ10" s="13"/>
+      <c r="IR10" s="13"/>
+      <c r="IS10" s="13"/>
+      <c r="IT10" s="13"/>
+      <c r="IU10" s="13"/>
+      <c r="IV10" s="13"/>
+      <c r="IW10" s="13"/>
+      <c r="IX10" s="13"/>
+      <c r="IY10" s="13"/>
+      <c r="IZ10" s="13"/>
+    </row>
+    <row r="11" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>16</v>
       </c>
@@ -38802,8 +39396,34 @@
       <c r="IH11" s="13">
         <v>88.9227168315157</v>
       </c>
-    </row>
-    <row r="12" spans="1:245" x14ac:dyDescent="0.25">
+      <c r="II11" s="13">
+        <v>90.228574910859635</v>
+      </c>
+      <c r="IJ11" s="13">
+        <v>92.467188761163527</v>
+      </c>
+      <c r="IK11" s="13">
+        <v>90.726044655371609</v>
+      </c>
+      <c r="IL11" s="13">
+        <v>91.534432990203584</v>
+      </c>
+      <c r="IM11" s="13"/>
+      <c r="IN11" s="13"/>
+      <c r="IO11" s="13"/>
+      <c r="IP11" s="13"/>
+      <c r="IQ11" s="13"/>
+      <c r="IR11" s="13"/>
+      <c r="IS11" s="13"/>
+      <c r="IT11" s="13"/>
+      <c r="IU11" s="13"/>
+      <c r="IV11" s="13"/>
+      <c r="IW11" s="13"/>
+      <c r="IX11" s="13"/>
+      <c r="IY11" s="13"/>
+      <c r="IZ11" s="13"/>
+    </row>
+    <row r="12" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -39530,8 +40150,34 @@
       <c r="IH12" s="13">
         <v>79.588591284436262</v>
       </c>
-    </row>
-    <row r="13" spans="1:245" x14ac:dyDescent="0.25">
+      <c r="II12" s="13">
+        <v>84.142229641483553</v>
+      </c>
+      <c r="IJ12" s="13">
+        <v>88.971087899231492</v>
+      </c>
+      <c r="IK12" s="13">
+        <v>88.996107890204271</v>
+      </c>
+      <c r="IL12" s="13">
+        <v>91.097787131918395</v>
+      </c>
+      <c r="IM12" s="13"/>
+      <c r="IN12" s="13"/>
+      <c r="IO12" s="13"/>
+      <c r="IP12" s="13"/>
+      <c r="IQ12" s="13"/>
+      <c r="IR12" s="13"/>
+      <c r="IS12" s="13"/>
+      <c r="IT12" s="13"/>
+      <c r="IU12" s="13"/>
+      <c r="IV12" s="13"/>
+      <c r="IW12" s="13"/>
+      <c r="IX12" s="13"/>
+      <c r="IY12" s="13"/>
+      <c r="IZ12" s="13"/>
+    </row>
+    <row r="13" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -40258,8 +40904,34 @@
       <c r="IH13" s="13">
         <v>126.76057201279241</v>
       </c>
-    </row>
-    <row r="14" spans="1:245" x14ac:dyDescent="0.25">
+      <c r="II13" s="13">
+        <v>125.97493506097686</v>
+      </c>
+      <c r="IJ13" s="13">
+        <v>123.52330201985031</v>
+      </c>
+      <c r="IK13" s="13">
+        <v>122.74880885458535</v>
+      </c>
+      <c r="IL13" s="13">
+        <v>120.46433261171744</v>
+      </c>
+      <c r="IM13" s="13"/>
+      <c r="IN13" s="13"/>
+      <c r="IO13" s="13"/>
+      <c r="IP13" s="13"/>
+      <c r="IQ13" s="13"/>
+      <c r="IR13" s="13"/>
+      <c r="IS13" s="13"/>
+      <c r="IT13" s="13"/>
+      <c r="IU13" s="13"/>
+      <c r="IV13" s="13"/>
+      <c r="IW13" s="13"/>
+      <c r="IX13" s="13"/>
+      <c r="IY13" s="13"/>
+      <c r="IZ13" s="13"/>
+    </row>
+    <row r="14" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
@@ -40986,8 +41658,34 @@
       <c r="IH14" s="13">
         <v>109.99283568760667</v>
       </c>
-    </row>
-    <row r="15" spans="1:245" x14ac:dyDescent="0.25">
+      <c r="II14" s="13">
+        <v>113.2904223671152</v>
+      </c>
+      <c r="IJ14" s="13">
+        <v>117.95589685441985</v>
+      </c>
+      <c r="IK14" s="13">
+        <v>117.78491087844533</v>
+      </c>
+      <c r="IL14" s="13">
+        <v>117.8581905824344</v>
+      </c>
+      <c r="IM14" s="13"/>
+      <c r="IN14" s="13"/>
+      <c r="IO14" s="13"/>
+      <c r="IP14" s="13"/>
+      <c r="IQ14" s="13"/>
+      <c r="IR14" s="13"/>
+      <c r="IS14" s="13"/>
+      <c r="IT14" s="13"/>
+      <c r="IU14" s="13"/>
+      <c r="IV14" s="13"/>
+      <c r="IW14" s="13"/>
+      <c r="IX14" s="13"/>
+      <c r="IY14" s="13"/>
+      <c r="IZ14" s="13"/>
+    </row>
+    <row r="15" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -41714,8 +42412,34 @@
       <c r="IH15" s="13">
         <v>112.98152676040925</v>
       </c>
-    </row>
-    <row r="16" spans="1:245" x14ac:dyDescent="0.25">
+      <c r="II15" s="13">
+        <v>101.32872355193653</v>
+      </c>
+      <c r="IJ15" s="13">
+        <v>96.971588439203273</v>
+      </c>
+      <c r="IK15" s="13">
+        <v>90.689207578983201</v>
+      </c>
+      <c r="IL15" s="13">
+        <v>86.636058636905744</v>
+      </c>
+      <c r="IM15" s="13"/>
+      <c r="IN15" s="13"/>
+      <c r="IO15" s="13"/>
+      <c r="IP15" s="13"/>
+      <c r="IQ15" s="13"/>
+      <c r="IR15" s="13"/>
+      <c r="IS15" s="13"/>
+      <c r="IT15" s="13"/>
+      <c r="IU15" s="13"/>
+      <c r="IV15" s="13"/>
+      <c r="IW15" s="13"/>
+      <c r="IX15" s="13"/>
+      <c r="IY15" s="13"/>
+      <c r="IZ15" s="13"/>
+    </row>
+    <row r="16" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -42442,8 +43166,34 @@
       <c r="IH16" s="13">
         <v>326.67226755789767</v>
       </c>
-    </row>
-    <row r="17" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="II16" s="13">
+        <v>334.45719529927891</v>
+      </c>
+      <c r="IJ16" s="13">
+        <v>341.16156524690376</v>
+      </c>
+      <c r="IK16" s="13">
+        <v>329.69291775408027</v>
+      </c>
+      <c r="IL16" s="13">
+        <v>323.01310593813167</v>
+      </c>
+      <c r="IM16" s="13"/>
+      <c r="IN16" s="13"/>
+      <c r="IO16" s="13"/>
+      <c r="IP16" s="13"/>
+      <c r="IQ16" s="13"/>
+      <c r="IR16" s="13"/>
+      <c r="IS16" s="13"/>
+      <c r="IT16" s="13"/>
+      <c r="IU16" s="13"/>
+      <c r="IV16" s="13"/>
+      <c r="IW16" s="13"/>
+      <c r="IX16" s="13"/>
+      <c r="IY16" s="13"/>
+      <c r="IZ16" s="13"/>
+    </row>
+    <row r="17" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -43170,8 +43920,34 @@
       <c r="IH17" s="13">
         <v>153.31818832120911</v>
       </c>
-    </row>
-    <row r="18" spans="1:242" x14ac:dyDescent="0.25">
+      <c r="II17" s="13">
+        <v>164.75440385423244</v>
+      </c>
+      <c r="IJ17" s="13">
+        <v>161.51945842457246</v>
+      </c>
+      <c r="IK17" s="13">
+        <v>174.32255230815633</v>
+      </c>
+      <c r="IL17" s="13">
+        <v>182.38713457646364</v>
+      </c>
+      <c r="IM17" s="13"/>
+      <c r="IN17" s="13"/>
+      <c r="IO17" s="13"/>
+      <c r="IP17" s="13"/>
+      <c r="IQ17" s="13"/>
+      <c r="IR17" s="13"/>
+      <c r="IS17" s="13"/>
+      <c r="IT17" s="13"/>
+      <c r="IU17" s="13"/>
+      <c r="IV17" s="13"/>
+      <c r="IW17" s="13"/>
+      <c r="IX17" s="13"/>
+      <c r="IY17" s="13"/>
+      <c r="IZ17" s="13"/>
+    </row>
+    <row r="18" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>23</v>
       </c>
@@ -43898,8 +44674,34 @@
       <c r="IH18" s="13">
         <v>77.1065782345934</v>
       </c>
-    </row>
-    <row r="19" spans="1:242" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="II18" s="13">
+        <v>76.383381207828563</v>
+      </c>
+      <c r="IJ18" s="13">
+        <v>74.248228081189538</v>
+      </c>
+      <c r="IK18" s="13">
+        <v>77.416519817492613</v>
+      </c>
+      <c r="IL18" s="13">
+        <v>78.243030705223859</v>
+      </c>
+      <c r="IM18" s="13"/>
+      <c r="IN18" s="13"/>
+      <c r="IO18" s="13"/>
+      <c r="IP18" s="13"/>
+      <c r="IQ18" s="13"/>
+      <c r="IR18" s="13"/>
+      <c r="IS18" s="13"/>
+      <c r="IT18" s="13"/>
+      <c r="IU18" s="13"/>
+      <c r="IV18" s="13"/>
+      <c r="IW18" s="13"/>
+      <c r="IX18" s="13"/>
+      <c r="IY18" s="13"/>
+      <c r="IZ18" s="13"/>
+    </row>
+    <row r="19" spans="1:260" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -44626,8 +45428,34 @@
       <c r="IH19" s="13">
         <v>246.46358966859131</v>
       </c>
-    </row>
-    <row r="20" spans="1:242" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="II19" s="13">
+        <v>256.30713356939088</v>
+      </c>
+      <c r="IJ19" s="13">
+        <v>244.72925098130756</v>
+      </c>
+      <c r="IK19" s="13">
+        <v>248.90103863450361</v>
+      </c>
+      <c r="IL19" s="13">
+        <v>251.43223563756632</v>
+      </c>
+      <c r="IM19" s="13"/>
+      <c r="IN19" s="13"/>
+      <c r="IO19" s="13"/>
+      <c r="IP19" s="13"/>
+      <c r="IQ19" s="13"/>
+      <c r="IR19" s="13"/>
+      <c r="IS19" s="13"/>
+      <c r="IT19" s="13"/>
+      <c r="IU19" s="13"/>
+      <c r="IV19" s="13"/>
+      <c r="IW19" s="13"/>
+      <c r="IX19" s="13"/>
+      <c r="IY19" s="13"/>
+      <c r="IZ19" s="13"/>
+    </row>
+    <row r="20" spans="1:260" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -45354,8 +46182,39 @@
       <c r="IH20" s="15">
         <v>139.78790143570785</v>
       </c>
+      <c r="II20" s="15">
+        <v>141.85242939329416</v>
+      </c>
+      <c r="IJ20" s="15">
+        <v>141.23319124643513</v>
+      </c>
+      <c r="IK20" s="15">
+        <v>139.59190955621654</v>
+      </c>
+      <c r="IL20" s="15">
+        <v>139.35142872248488</v>
+      </c>
+      <c r="IM20" s="15"/>
+      <c r="IN20" s="15"/>
+      <c r="IO20" s="15"/>
+      <c r="IP20" s="15"/>
+      <c r="IQ20" s="15"/>
+      <c r="IR20" s="15"/>
+      <c r="IS20" s="15"/>
+      <c r="IT20" s="15"/>
+      <c r="IU20" s="15"/>
+      <c r="IV20" s="15"/>
+      <c r="IW20" s="15"/>
+      <c r="IX20" s="15"/>
+      <c r="IY20" s="15"/>
+      <c r="IZ20" s="15"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:IZ19" xr:uid="{C8C148A6-5036-4817-8100-C69306831D97}">
+    <sortState ref="A4:IZ19">
+      <sortCondition ref="A3:A19"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A4:HQ19">
     <sortCondition ref="A4:A19"/>
   </sortState>

--- a/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
+++ b/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491A572C-2F37-4734-B315-CEFC627A676C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD2F004-09F2-41D2-A84A-0B4C50E65E03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="150" windowWidth="15270" windowHeight="10800" tabRatio="708" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="150" windowWidth="15270" windowHeight="10800" tabRatio="929" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tageswerte berechnet" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="990">
   <si>
     <t>Todesfälle</t>
   </si>
@@ -2990,10 +2990,28 @@
     <t>14.01.2021</t>
   </si>
   <si>
-    <t>Stand: 15.01.2021 06:14:31</t>
-  </si>
-  <si>
     <t>15.01.2021</t>
+  </si>
+  <si>
+    <t>16.01.2021</t>
+  </si>
+  <si>
+    <t>17.01.2021</t>
+  </si>
+  <si>
+    <t>18.01.2021</t>
+  </si>
+  <si>
+    <t>19.01.2021</t>
+  </si>
+  <si>
+    <t>20.01.2021</t>
+  </si>
+  <si>
+    <t>Stand: 21.01.2021 06:13:00</t>
+  </si>
+  <si>
+    <t>21.01.2021</t>
   </si>
 </sst>
 </file>
@@ -3208,6 +3226,20 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet002" fillFormulas="1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
+    <queryTableFields count="5">
+      <queryTableField id="1" name="Berichtsdatum"/>
+      <queryTableField id="2" name="Fälle gesamt"/>
+      <queryTableField id="3"/>
+      <queryTableField id="4"/>
+      <queryTableField id="5" name="Todesfälle"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet001" fillFormulas="1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="4">
     <queryTableFields count="3">
@@ -3219,25 +3251,11 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet003" fillFormulas="1" connectionId="3" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" name="Bev"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet002" fillFormulas="1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
-    <queryTableFields count="5">
-      <queryTableField id="1" name="Berichtsdatum"/>
-      <queryTableField id="2" name="Fälle gesamt"/>
-      <queryTableField id="3"/>
-      <queryTableField id="4"/>
-      <queryTableField id="5" name="Todesfälle"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3586,8 +3604,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -3597,7 +3615,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3616,10 +3634,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>14555</v>
+        <v>10979</v>
       </c>
       <c r="C6" s="29">
-        <v>131.12147190451077</v>
+        <v>98.906399178263399</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3627,10 +3645,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>20469</v>
+        <v>15715</v>
       </c>
       <c r="C7" s="29">
-        <v>155.95741080373648</v>
+        <v>119.73573260934675</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3638,10 +3656,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>6103</v>
+        <v>4245</v>
       </c>
       <c r="C8" s="29">
-        <v>166.3173448306591</v>
+        <v>115.68361933576074</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3649,10 +3667,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>5553</v>
+        <v>5126</v>
       </c>
       <c r="C9" s="29">
-        <v>220.19173692143164</v>
+        <v>203.26001142792339</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3660,10 +3678,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="C10" s="29">
-        <v>78.684443087366162</v>
+        <v>76.629252409711071</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3671,10 +3689,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>1929</v>
+        <v>1527</v>
       </c>
       <c r="C11" s="29">
-        <v>104.42532777047865</v>
+        <v>82.663284347081856</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3682,10 +3700,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>8584</v>
+        <v>7499</v>
       </c>
       <c r="C12" s="29">
-        <v>136.51225811376446</v>
+        <v>119.25738858284247</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3693,10 +3711,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1899</v>
+        <v>1824</v>
       </c>
       <c r="C13" s="29">
-        <v>118.0868806035303</v>
+        <v>113.4231017487305</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3704,10 +3722,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>7431</v>
+        <v>7216</v>
       </c>
       <c r="C14" s="29">
-        <v>92.961776459391047</v>
+        <v>90.272127429816422</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3715,10 +3733,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>22968</v>
+        <v>19851</v>
       </c>
       <c r="C15" s="29">
-        <v>127.9752447468051</v>
+        <v>110.60765340773372</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3726,10 +3744,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>4858</v>
+        <v>4144</v>
       </c>
       <c r="C16" s="29">
-        <v>118.66426732631429</v>
+        <v>101.22369777691362</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3737,10 +3755,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>1379</v>
+        <v>1074</v>
       </c>
       <c r="C17" s="29">
-        <v>139.73230977812051</v>
+        <v>108.82704909477984</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3748,10 +3766,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>11158</v>
+        <v>7572</v>
       </c>
       <c r="C18" s="29">
-        <v>274.01963324394995</v>
+        <v>185.95417305280415</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3759,10 +3777,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>5336</v>
+        <v>4286</v>
       </c>
       <c r="C19" s="29">
-        <v>243.1220959530377</v>
+        <v>195.28135368341822</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3770,10 +3788,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>2627</v>
+        <v>2565</v>
       </c>
       <c r="C20" s="29">
-        <v>90.468504252915096</v>
+        <v>88.333351126276057</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3781,10 +3799,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>6136</v>
+        <v>4801</v>
       </c>
       <c r="C21" s="29">
-        <v>287.61897797764857</v>
+        <v>225.04216317970841</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3793,11 +3811,11 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B6:B21)</f>
-        <v>121521</v>
+        <v>98946</v>
       </c>
       <c r="C22" s="30">
         <f>B22/A36*100000</f>
-        <v>146.11735697952514</v>
+        <v>118.97308287206404</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3819,10 +3837,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="B31">
-        <v>2000958</v>
+        <v>2088400</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -3831,7 +3849,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>44994</v>
+        <v>49783</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -3854,21 +3872,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B76BA60-F11B-446D-83C1-ED8D11202D1B}">
   <dimension ref="A2:D417"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3893,10 +3911,10 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>478</v>
+        <v>409</v>
       </c>
       <c r="D6" s="29">
-        <v>85.812870494400002</v>
+        <v>73.425656971099997</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3907,10 +3925,10 @@
         <v>120</v>
       </c>
       <c r="C7">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D7" s="29">
-        <v>111.46472333689999</v>
+        <v>86.865611979799993</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3921,10 +3939,10 @@
         <v>122</v>
       </c>
       <c r="C8">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D8" s="29">
-        <v>86.888715606600002</v>
+        <v>69.0653893283</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3935,10 +3953,10 @@
         <v>124</v>
       </c>
       <c r="C9">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D9" s="29">
-        <v>144.10684203049999</v>
+        <v>142.07716819909999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3949,10 +3967,10 @@
         <v>126</v>
       </c>
       <c r="C10">
-        <v>448</v>
+        <v>322</v>
       </c>
       <c r="D10" s="29">
-        <v>501.15780877700001</v>
+        <v>360.20717505840003</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3963,10 +3981,10 @@
         <v>128</v>
       </c>
       <c r="C11">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D11" s="29">
-        <v>73.754900819100001</v>
+        <v>62.109390163400001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3977,10 +3995,10 @@
         <v>130</v>
       </c>
       <c r="C12">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="D12" s="29">
-        <v>181.54930085480001</v>
+        <v>146.6822165847</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3991,10 +4009,10 @@
         <v>132</v>
       </c>
       <c r="C13">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D13" s="29">
-        <v>132.7163815058</v>
+        <v>139.89023996559999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4005,10 +4023,10 @@
         <v>134</v>
       </c>
       <c r="C14">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="D14" s="29">
-        <v>134.16919197760001</v>
+        <v>94.072651846400007</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4019,10 +4037,10 @@
         <v>136</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D15" s="29">
-        <v>78.186082877199993</v>
+        <v>42.646954296700002</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4033,10 +4051,10 @@
         <v>138</v>
       </c>
       <c r="C16">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="D16" s="29">
-        <v>87.337092063</v>
+        <v>39.786897495399998</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4047,10 +4065,10 @@
         <v>140</v>
       </c>
       <c r="C17">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D17" s="29">
-        <v>76.886728229400006</v>
+        <v>64.873176943600001</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4061,10 +4079,10 @@
         <v>142</v>
       </c>
       <c r="C18">
-        <v>300</v>
+        <v>457</v>
       </c>
       <c r="D18" s="29">
-        <v>189.2911676741</v>
+        <v>288.3535454236</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4075,10 +4093,10 @@
         <v>144</v>
       </c>
       <c r="C19">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="D19" s="29">
-        <v>153.11737403699999</v>
+        <v>253.60065074880001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4089,10 +4107,10 @@
         <v>146</v>
       </c>
       <c r="C20">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="D20" s="29">
-        <v>100.76330915379999</v>
+        <v>86.678115401100001</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4103,10 +4121,10 @@
         <v>148</v>
       </c>
       <c r="C21">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="D21" s="29">
-        <v>167.60091265029999</v>
+        <v>121.1233486381</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4117,10 +4135,10 @@
         <v>150</v>
       </c>
       <c r="C22">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D22" s="29">
-        <v>180.82663605050001</v>
+        <v>155.5683122847</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4131,10 +4149,10 @@
         <v>152</v>
       </c>
       <c r="C23">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="D23" s="29">
-        <v>131.83537773699999</v>
+        <v>115.6509835391</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4145,10 +4163,10 @@
         <v>154</v>
       </c>
       <c r="C24">
-        <v>390</v>
+        <v>200</v>
       </c>
       <c r="D24" s="29">
-        <v>153.86557671969999</v>
+        <v>78.9054239588</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4159,10 +4177,10 @@
         <v>156</v>
       </c>
       <c r="C25">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D25" s="29">
-        <v>53.770809830600001</v>
+        <v>39.0101953673</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4173,10 +4191,10 @@
         <v>158</v>
       </c>
       <c r="C26">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="D26" s="29">
-        <v>137.9351930716</v>
+        <v>96.479260727699995</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4187,10 +4205,10 @@
         <v>160</v>
       </c>
       <c r="C27">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D27" s="29">
-        <v>94.929045381899996</v>
+        <v>92.991717925100005</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4201,10 +4219,10 @@
         <v>162</v>
       </c>
       <c r="C28">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="D28" s="29">
-        <v>182.51286747290001</v>
+        <v>156.6200385235</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4215,10 +4233,10 @@
         <v>164</v>
       </c>
       <c r="C29">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D29" s="29">
-        <v>111.7912396319</v>
+        <v>107.88245502940001</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4229,10 +4247,10 @@
         <v>166</v>
       </c>
       <c r="C30">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D30" s="29">
-        <v>92.416417504799995</v>
+        <v>61.610945003200001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4243,10 +4261,10 @@
         <v>168</v>
       </c>
       <c r="C31">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D31" s="29">
-        <v>68.499347317499996</v>
+        <v>58.159823194099999</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4257,10 +4275,10 @@
         <v>170</v>
       </c>
       <c r="C32">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="D32" s="29">
-        <v>148.81457975169999</v>
+        <v>114.1591296725</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4271,10 +4289,10 @@
         <v>172</v>
       </c>
       <c r="C33">
-        <v>275</v>
+        <v>163</v>
       </c>
       <c r="D33" s="29">
-        <v>148.45285137440001</v>
+        <v>87.992053723699996</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4285,10 +4303,10 @@
         <v>174</v>
       </c>
       <c r="C34">
-        <v>1008</v>
+        <v>905</v>
       </c>
       <c r="D34" s="29">
-        <v>336.27125881540002</v>
+        <v>301.91020756739999</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4299,10 +4317,10 @@
         <v>176</v>
       </c>
       <c r="C35">
-        <v>242</v>
+        <v>114</v>
       </c>
       <c r="D35" s="29">
-        <v>323.60295789150001</v>
+        <v>152.44106280840001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4313,10 +4331,10 @@
         <v>178</v>
       </c>
       <c r="C36">
-        <v>266</v>
+        <v>183</v>
       </c>
       <c r="D36" s="29">
-        <v>256.59824046919999</v>
+        <v>176.53187220250001</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4327,10 +4345,10 @@
         <v>180</v>
       </c>
       <c r="C37">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="D37" s="29">
-        <v>252.05562216199999</v>
+        <v>181.25348110530001</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4341,10 +4359,10 @@
         <v>182</v>
       </c>
       <c r="C38">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="D38" s="29">
-        <v>158.31915365840001</v>
+        <v>146.8521121551</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4355,10 +4373,10 @@
         <v>184</v>
       </c>
       <c r="C39">
-        <v>539</v>
+        <v>348</v>
       </c>
       <c r="D39" s="29">
-        <v>161.1837285176</v>
+        <v>104.0666744418</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4369,10 +4387,10 @@
         <v>186</v>
       </c>
       <c r="C40">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="D40" s="29">
-        <v>108.13340471319999</v>
+        <v>87.924866783200002</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4383,10 +4401,10 @@
         <v>188</v>
       </c>
       <c r="C41">
-        <v>432</v>
+        <v>320</v>
       </c>
       <c r="D41" s="29">
-        <v>150.7737625732</v>
+        <v>111.68426857270001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4397,10 +4415,10 @@
         <v>190</v>
       </c>
       <c r="C42">
-        <v>472</v>
+        <v>312</v>
       </c>
       <c r="D42" s="29">
-        <v>179.4902021927</v>
+        <v>118.6460658562</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4411,10 +4429,10 @@
         <v>192</v>
       </c>
       <c r="C43">
-        <v>551</v>
+        <v>433</v>
       </c>
       <c r="D43" s="29">
-        <v>146.84013879189999</v>
+        <v>115.3934303029</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4425,10 +4443,10 @@
         <v>194</v>
       </c>
       <c r="C44">
-        <v>486</v>
+        <v>408</v>
       </c>
       <c r="D44" s="29">
-        <v>151.34387757959999</v>
+        <v>127.05411944959999</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4439,10 +4457,10 @@
         <v>196</v>
       </c>
       <c r="C45">
-        <v>871</v>
+        <v>499</v>
       </c>
       <c r="D45" s="29">
-        <v>218.82442794120001</v>
+        <v>125.3655448251</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4453,10 +4471,10 @@
         <v>198</v>
       </c>
       <c r="C46">
-        <v>421</v>
+        <v>295</v>
       </c>
       <c r="D46" s="29">
-        <v>162.1169937887</v>
+        <v>113.5974184505</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4467,10 +4485,10 @@
         <v>200</v>
       </c>
       <c r="C47">
-        <v>534</v>
+        <v>288</v>
       </c>
       <c r="D47" s="29">
-        <v>223.413201461</v>
+        <v>120.49251314750001</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4481,10 +4499,10 @@
         <v>202</v>
       </c>
       <c r="C48">
-        <v>452</v>
+        <v>328</v>
       </c>
       <c r="D48" s="29">
-        <v>149.58120571719999</v>
+        <v>108.5456537063</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4495,10 +4513,10 @@
         <v>204</v>
       </c>
       <c r="C49">
-        <v>558</v>
+        <v>404</v>
       </c>
       <c r="D49" s="29">
-        <v>163.26673922969999</v>
+        <v>118.20745994409999</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4509,10 +4527,10 @@
         <v>206</v>
       </c>
       <c r="C50">
-        <v>482</v>
+        <v>362</v>
       </c>
       <c r="D50" s="29">
-        <v>180.87118369309999</v>
+        <v>135.841013479</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4523,10 +4541,10 @@
         <v>208</v>
       </c>
       <c r="C51">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D51" s="29">
-        <v>93.347439168600005</v>
+        <v>68.454788723600004</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4537,10 +4555,10 @@
         <v>210</v>
       </c>
       <c r="C52">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="D52" s="29">
-        <v>105.3248675987</v>
+        <v>82.471358591400005</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -4551,10 +4569,10 @@
         <v>212</v>
       </c>
       <c r="C53">
-        <v>959</v>
+        <v>544</v>
       </c>
       <c r="D53" s="29">
-        <v>286.95821301929999</v>
+        <v>162.7792157273</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4565,10 +4583,10 @@
         <v>214</v>
       </c>
       <c r="C54">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D54" s="29">
-        <v>127.2374646391</v>
+        <v>140.8259317365</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4579,10 +4597,10 @@
         <v>216</v>
       </c>
       <c r="C55">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D55" s="29">
-        <v>54.513517333300001</v>
+        <v>46.437440691299997</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4593,10 +4611,10 @@
         <v>218</v>
       </c>
       <c r="C56">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="D56" s="29">
-        <v>87.320236146499994</v>
+        <v>69.754357737999996</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4607,10 +4625,10 @@
         <v>220</v>
       </c>
       <c r="C57">
-        <v>512</v>
+        <v>379</v>
       </c>
       <c r="D57" s="29">
-        <v>140.04874352749999</v>
+        <v>103.6688941346</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4621,10 +4639,10 @@
         <v>222</v>
       </c>
       <c r="C58">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="D58" s="29">
-        <v>184.3932496436</v>
+        <v>144.3877316411</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4635,10 +4653,10 @@
         <v>224</v>
       </c>
       <c r="C59">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="D59" s="29">
-        <v>98.582534814799999</v>
+        <v>89.7859394006</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4649,10 +4667,10 @@
         <v>226</v>
       </c>
       <c r="C60">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="D60" s="29">
-        <v>148.01986859580001</v>
+        <v>118.18187136900001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4663,10 +4681,10 @@
         <v>228</v>
       </c>
       <c r="C61">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="D61" s="29">
-        <v>76.749277614299999</v>
+        <v>66.516040598999993</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4677,10 +4695,10 @@
         <v>230</v>
       </c>
       <c r="C62">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="D62" s="29">
-        <v>212.64832220470001</v>
+        <v>166.71628460849999</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4691,10 +4709,10 @@
         <v>232</v>
       </c>
       <c r="C63">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D63" s="29">
-        <v>170.3978721046</v>
+        <v>123.296021279</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4705,10 +4723,10 @@
         <v>234</v>
       </c>
       <c r="C64">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="D64" s="29">
-        <v>94.624828592699998</v>
+        <v>70.166716117500002</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4719,10 +4737,10 @@
         <v>236</v>
       </c>
       <c r="C65">
-        <v>248</v>
+        <v>152</v>
       </c>
       <c r="D65" s="29">
-        <v>94.081585426499998</v>
+        <v>57.662907196900001</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4733,10 +4751,10 @@
         <v>238</v>
       </c>
       <c r="C66">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="D66" s="29">
-        <v>80.872649363299999</v>
+        <v>74.705889608000007</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4747,10 +4765,10 @@
         <v>240</v>
       </c>
       <c r="C67">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D67" s="29">
-        <v>67.756043047099993</v>
+        <v>86.234963878100004</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4761,10 +4779,10 @@
         <v>242</v>
       </c>
       <c r="C68">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D68" s="29">
-        <v>347.22610514069999</v>
+        <v>343.87126354520001</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4775,10 +4793,10 @@
         <v>244</v>
       </c>
       <c r="C69">
-        <v>298</v>
+        <v>191</v>
       </c>
       <c r="D69" s="29">
-        <v>187.1847538646</v>
+        <v>119.97412076560001</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4789,10 +4807,10 @@
         <v>246</v>
       </c>
       <c r="C70">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D70" s="29">
-        <v>73.179860455500005</v>
+        <v>64.241862231900001</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4803,10 +4821,10 @@
         <v>248</v>
       </c>
       <c r="C71">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="D71" s="29">
-        <v>175.7839966249</v>
+        <v>127.3457397772</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4817,10 +4835,10 @@
         <v>250</v>
       </c>
       <c r="C72">
-        <v>377</v>
+        <v>185</v>
       </c>
       <c r="D72" s="29">
-        <v>153.04424074630001</v>
+        <v>75.101285246900005</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4831,10 +4849,10 @@
         <v>252</v>
       </c>
       <c r="C73">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="D73" s="29">
-        <v>168.73484022919999</v>
+        <v>87.882729286</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4845,10 +4863,10 @@
         <v>254</v>
       </c>
       <c r="C74">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="D74" s="29">
-        <v>255.6486170627</v>
+        <v>163.12816517339999</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4859,10 +4877,10 @@
         <v>256</v>
       </c>
       <c r="C75">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="D75" s="29">
-        <v>237.47218924000001</v>
+        <v>157.93053362079999</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4873,10 +4891,10 @@
         <v>258</v>
       </c>
       <c r="C76">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D76" s="29">
-        <v>86.354378818699999</v>
+        <v>79.837067209799997</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -4887,10 +4905,10 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="D77" s="29">
-        <v>72.534068345199998</v>
+        <v>52.133861623100003</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -4901,10 +4919,10 @@
         <v>262</v>
       </c>
       <c r="C78">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="D78" s="29">
-        <v>231.7462228375</v>
+        <v>351.13064066290002</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -4915,10 +4933,10 @@
         <v>264</v>
       </c>
       <c r="C79">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D79" s="29">
-        <v>100.9907189529</v>
+        <v>100.4857653582</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -4929,10 +4947,10 @@
         <v>266</v>
       </c>
       <c r="C80">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="D80" s="29">
-        <v>138.15453940960001</v>
+        <v>120.7238264934</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -4943,10 +4961,10 @@
         <v>268</v>
       </c>
       <c r="C81">
-        <v>417</v>
+        <v>329</v>
       </c>
       <c r="D81" s="29">
-        <v>244.15806453499999</v>
+        <v>192.63310127579999</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -4957,10 +4975,10 @@
         <v>270</v>
       </c>
       <c r="C82">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D82" s="29">
-        <v>100.70178511109999</v>
+        <v>96.948923554199993</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4971,10 +4989,10 @@
         <v>272</v>
       </c>
       <c r="C83">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="D83" s="29">
-        <v>101.0596151005</v>
+        <v>117.51118034939999</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -4985,10 +5003,10 @@
         <v>274</v>
       </c>
       <c r="C84">
-        <v>292</v>
+        <v>185</v>
       </c>
       <c r="D84" s="29">
-        <v>244.39645792530001</v>
+        <v>154.84022163079999</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -4999,10 +5017,10 @@
         <v>276</v>
       </c>
       <c r="C85">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="D85" s="29">
-        <v>95.411235317600003</v>
+        <v>51.573640712200003</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -5013,10 +5031,10 @@
         <v>278</v>
       </c>
       <c r="C86">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="D86" s="29">
-        <v>189.75568954970001</v>
+        <v>156.0490868007</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -5027,10 +5045,10 @@
         <v>280</v>
       </c>
       <c r="C87">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="D87" s="29">
-        <v>68.635444449100007</v>
+        <v>54.816227445899997</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -5041,10 +5059,10 @@
         <v>282</v>
       </c>
       <c r="C88">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="D88" s="29">
-        <v>149.12698577079999</v>
+        <v>75.599096953300005</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -5055,10 +5073,10 @@
         <v>284</v>
       </c>
       <c r="C89">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="D89" s="29">
-        <v>171.695127375</v>
+        <v>72.401559736500005</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -5069,10 +5087,10 @@
         <v>286</v>
       </c>
       <c r="C90">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D90" s="29">
-        <v>66.820328395600001</v>
+        <v>46.548992814899997</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -5083,10 +5101,10 @@
         <v>288</v>
       </c>
       <c r="C91">
-        <v>276</v>
+        <v>159</v>
       </c>
       <c r="D91" s="29">
-        <v>206.30423895409999</v>
+        <v>118.8491811366</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -5097,10 +5115,10 @@
         <v>290</v>
       </c>
       <c r="C92">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D92" s="29">
-        <v>148.68901427150001</v>
+        <v>116.82708264190001</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5111,10 +5129,10 @@
         <v>292</v>
       </c>
       <c r="C93">
-        <v>748</v>
+        <v>662</v>
       </c>
       <c r="D93" s="29">
-        <v>127.15682107950001</v>
+        <v>112.53718657029999</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -5125,10 +5143,10 @@
         <v>294</v>
       </c>
       <c r="C94">
-        <v>915</v>
+        <v>716</v>
       </c>
       <c r="D94" s="29">
-        <v>164.33779948989999</v>
+        <v>128.5965731528</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -5139,10 +5157,10 @@
         <v>296</v>
       </c>
       <c r="C95">
-        <v>665</v>
+        <v>554</v>
       </c>
       <c r="D95" s="29">
-        <v>133.3504449694</v>
+        <v>111.0919496437</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -5153,10 +5171,10 @@
         <v>298</v>
       </c>
       <c r="C96">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="D96" s="29">
-        <v>108.8279083125</v>
+        <v>114.87390321869999</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -5167,10 +5185,10 @@
         <v>300</v>
       </c>
       <c r="C97">
-        <v>681</v>
+        <v>380</v>
       </c>
       <c r="D97" s="29">
-        <v>109.5071855045</v>
+        <v>61.105331118499997</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -5181,10 +5199,10 @@
         <v>302</v>
       </c>
       <c r="C98">
-        <v>319</v>
+        <v>241</v>
       </c>
       <c r="D98" s="29">
-        <v>222.0690711387</v>
+        <v>167.7700506095</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -5195,10 +5213,10 @@
         <v>304</v>
       </c>
       <c r="C99">
-        <v>309</v>
+        <v>148</v>
       </c>
       <c r="D99" s="29">
-        <v>308.9814611123</v>
+        <v>147.99112053280001</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -5209,10 +5227,10 @@
         <v>306</v>
       </c>
       <c r="C100">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="D100" s="29">
-        <v>123.4186979327</v>
+        <v>97.079341666600001</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5223,10 +5241,10 @@
         <v>308</v>
       </c>
       <c r="C101">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="D101" s="29">
-        <v>234.31952662719999</v>
+        <v>120.71005917159999</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -5237,10 +5255,10 @@
         <v>310</v>
       </c>
       <c r="C102">
-        <v>320</v>
+        <v>214</v>
       </c>
       <c r="D102" s="29">
-        <v>314.2584972551</v>
+        <v>210.16037003939999</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5251,10 +5269,10 @@
         <v>312</v>
       </c>
       <c r="C103">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D103" s="29">
-        <v>38.0662352493</v>
+        <v>32.055777052099998</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -5265,10 +5283,10 @@
         <v>314</v>
       </c>
       <c r="C104">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="D104" s="29">
-        <v>100.9566847748</v>
+        <v>62.496995336799998</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -5279,10 +5297,10 @@
         <v>316</v>
       </c>
       <c r="C105">
-        <v>369</v>
+        <v>264</v>
       </c>
       <c r="D105" s="29">
-        <v>112.85991301529999</v>
+        <v>80.7453036207</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5293,10 +5311,10 @@
         <v>318</v>
       </c>
       <c r="C106">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="D106" s="29">
-        <v>124.3420362474</v>
+        <v>118.4797566228</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -5307,10 +5325,10 @@
         <v>320</v>
       </c>
       <c r="C107">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="D107" s="29">
-        <v>153.34041572289999</v>
+        <v>104.231393694</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5321,10 +5339,10 @@
         <v>322</v>
       </c>
       <c r="C108">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="D108" s="29">
-        <v>132.434036271</v>
+        <v>104.2103891969</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5335,10 +5353,10 @@
         <v>324</v>
       </c>
       <c r="C109">
-        <v>287</v>
+        <v>343</v>
       </c>
       <c r="D109" s="29">
-        <v>134.12405774339999</v>
+        <v>160.29460559579999</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -5349,10 +5367,10 @@
         <v>326</v>
       </c>
       <c r="C110">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D110" s="29">
-        <v>117.30413763689999</v>
+        <v>121.7474761837</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -5363,10 +5381,10 @@
         <v>328</v>
       </c>
       <c r="C111">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="D111" s="29">
-        <v>136.96434555810001</v>
+        <v>116.565400475</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5377,10 +5395,10 @@
         <v>330</v>
       </c>
       <c r="C112">
-        <v>915</v>
+        <v>509</v>
       </c>
       <c r="D112" s="29">
-        <v>273.17673191059998</v>
+        <v>151.96388693169999</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5391,10 +5409,10 @@
         <v>332</v>
       </c>
       <c r="C113">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="D113" s="29">
-        <v>140.53812890379999</v>
+        <v>138.82215663389999</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5405,10 +5423,10 @@
         <v>334</v>
       </c>
       <c r="C114">
-        <v>662</v>
+        <v>586</v>
       </c>
       <c r="D114" s="29">
-        <v>123.7327671282</v>
+        <v>109.5277968839</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5419,10 +5437,10 @@
         <v>336</v>
       </c>
       <c r="C115">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="D115" s="29">
-        <v>100.1776345685</v>
+        <v>79.522452183300004</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -5433,10 +5451,10 @@
         <v>338</v>
       </c>
       <c r="C116">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="D116" s="29">
-        <v>127.5453617852</v>
+        <v>192.98167783150001</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -5447,10 +5465,10 @@
         <v>340</v>
       </c>
       <c r="C117">
-        <v>217</v>
+        <v>131</v>
       </c>
       <c r="D117" s="29">
-        <v>186.7421667255</v>
+        <v>112.7337504195</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -5461,10 +5479,10 @@
         <v>342</v>
       </c>
       <c r="C118">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D118" s="29">
-        <v>114.8435256962</v>
+        <v>104.5896394734</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -5475,10 +5493,10 @@
         <v>344</v>
       </c>
       <c r="C119">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="D119" s="29">
-        <v>96.968017869799993</v>
+        <v>164.4993160292</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -5489,10 +5507,10 @@
         <v>346</v>
       </c>
       <c r="C120">
-        <v>880</v>
+        <v>799</v>
       </c>
       <c r="D120" s="29">
-        <v>115.27679530509999</v>
+        <v>104.6660902827</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -5503,10 +5521,10 @@
         <v>348</v>
       </c>
       <c r="C121">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="D121" s="29">
-        <v>77.423819719299999</v>
+        <v>61.420013408599999</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -5517,10 +5535,10 @@
         <v>350</v>
       </c>
       <c r="C122">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="D122" s="29">
-        <v>149.99416689349999</v>
+        <v>103.8848489225</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -5531,10 +5549,10 @@
         <v>352</v>
       </c>
       <c r="C123">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="D123" s="29">
-        <v>147.15458843229999</v>
+        <v>93.874478827499999</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -5545,10 +5563,10 @@
         <v>354</v>
       </c>
       <c r="C124">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D124" s="29">
-        <v>159.5160919834</v>
+        <v>156.9638345116</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -5559,10 +5577,10 @@
         <v>356</v>
       </c>
       <c r="C125">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D125" s="29">
-        <v>50.656508348199999</v>
+        <v>39.5120765116</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -5573,10 +5591,10 @@
         <v>358</v>
       </c>
       <c r="C126">
-        <v>700</v>
+        <v>627</v>
       </c>
       <c r="D126" s="29">
-        <v>313.69737166419998</v>
+        <v>280.98321719059999</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -5587,10 +5605,10 @@
         <v>360</v>
       </c>
       <c r="C127">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="D127" s="29">
-        <v>121.7449193155</v>
+        <v>76.603544737799993</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -5601,10 +5619,10 @@
         <v>362</v>
       </c>
       <c r="C128">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="D128" s="29">
-        <v>207.00872393910001</v>
+        <v>189.8877016584</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -5615,10 +5633,10 @@
         <v>364</v>
       </c>
       <c r="C129">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="D129" s="29">
-        <v>152.732641511</v>
+        <v>112.8524517832</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -5629,10 +5647,10 @@
         <v>366</v>
       </c>
       <c r="C130">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D130" s="29">
-        <v>117.6151271148</v>
+        <v>98.389577490299999</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -5643,10 +5661,10 @@
         <v>368</v>
       </c>
       <c r="C131">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="D131" s="29">
-        <v>179.09068150740001</v>
+        <v>172.1581389975</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -5657,10 +5675,10 @@
         <v>370</v>
       </c>
       <c r="C132">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="D132" s="29">
-        <v>224.4295302013</v>
+        <v>142.8187919463</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -5671,10 +5689,10 @@
         <v>372</v>
       </c>
       <c r="C133">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D133" s="29">
-        <v>116.26735290240001</v>
+        <v>103.8655019262</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -5685,10 +5703,10 @@
         <v>374</v>
       </c>
       <c r="C134">
-        <v>478</v>
+        <v>342</v>
       </c>
       <c r="D134" s="29">
-        <v>176.5870670292</v>
+        <v>126.3447215983</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5699,10 +5717,10 @@
         <v>376</v>
       </c>
       <c r="C135">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D135" s="29">
-        <v>159.18605507500001</v>
+        <v>148.98908357549999</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5713,10 +5731,10 @@
         <v>378</v>
       </c>
       <c r="C136">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="D136" s="29">
-        <v>123.5739603711</v>
+        <v>90.646729551199996</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5727,10 +5745,10 @@
         <v>380</v>
       </c>
       <c r="C137">
-        <v>615</v>
+        <v>440</v>
       </c>
       <c r="D137" s="29">
-        <v>243.34751211790001</v>
+        <v>174.10228509250001</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5741,10 +5759,10 @@
         <v>382</v>
       </c>
       <c r="C138">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="D138" s="29">
-        <v>78.507909488500005</v>
+        <v>51.3603146186</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -5755,10 +5773,10 @@
         <v>384</v>
       </c>
       <c r="C139">
-        <v>437</v>
+        <v>325</v>
       </c>
       <c r="D139" s="29">
-        <v>323.92445221930001</v>
+        <v>240.90491297770001</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -5769,10 +5787,10 @@
         <v>386</v>
       </c>
       <c r="C140">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="D140" s="29">
-        <v>94.466646832799995</v>
+        <v>81.584831355600002</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -5783,10 +5801,10 @@
         <v>388</v>
       </c>
       <c r="C141">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="D141" s="29">
-        <v>116.6503842172</v>
+        <v>83.842463656099994</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -5797,10 +5815,10 @@
         <v>390</v>
       </c>
       <c r="C142">
-        <v>297</v>
+        <v>187</v>
       </c>
       <c r="D142" s="29">
-        <v>304.93439290330002</v>
+        <v>191.99572886510001</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -5811,10 +5829,10 @@
         <v>392</v>
       </c>
       <c r="C143">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="D143" s="29">
-        <v>136.7299420439</v>
+        <v>114.6065296708</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5825,10 +5843,10 @@
         <v>394</v>
       </c>
       <c r="C144">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D144" s="29">
-        <v>106.2766183567</v>
+        <v>100.76597888640001</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -5839,10 +5857,10 @@
         <v>396</v>
       </c>
       <c r="C145">
-        <v>437</v>
+        <v>380</v>
       </c>
       <c r="D145" s="29">
-        <v>119.7463678762</v>
+        <v>104.1272764141</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -5853,10 +5871,10 @@
         <v>398</v>
       </c>
       <c r="C146">
-        <v>260</v>
+        <v>364</v>
       </c>
       <c r="D146" s="29">
-        <v>137.79506693659999</v>
+        <v>192.91309371119999</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -5867,10 +5885,10 @@
         <v>400</v>
       </c>
       <c r="C147">
-        <v>759</v>
+        <v>561</v>
       </c>
       <c r="D147" s="29">
-        <v>317.88978145599998</v>
+        <v>234.9620123805</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -5881,10 +5899,10 @@
         <v>402</v>
       </c>
       <c r="C148">
-        <v>1929</v>
+        <v>1527</v>
       </c>
       <c r="D148" s="29">
-        <v>104.4253277705</v>
+        <v>82.663284347100003</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -5895,10 +5913,10 @@
         <v>404</v>
       </c>
       <c r="C149">
-        <v>101</v>
+        <v>181</v>
       </c>
       <c r="D149" s="29">
-        <v>67.991033261799998</v>
+        <v>121.84531703339999</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -5909,10 +5927,10 @@
         <v>406</v>
       </c>
       <c r="C150">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="D150" s="29">
-        <v>130.06069499099999</v>
+        <v>119.5002112097</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -5923,10 +5941,10 @@
         <v>408</v>
       </c>
       <c r="C151">
-        <v>1218</v>
+        <v>1938</v>
       </c>
       <c r="D151" s="29">
-        <v>105.2617933395</v>
+        <v>167.48551354009999</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -5937,10 +5955,10 @@
         <v>410</v>
       </c>
       <c r="C152">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D152" s="29">
-        <v>58.562046291500003</v>
+        <v>64.064520439700004</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -5951,10 +5969,10 @@
         <v>412</v>
       </c>
       <c r="C153">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="D153" s="29">
-        <v>148.61000421919999</v>
+        <v>183.30129857950001</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -5965,10 +5983,10 @@
         <v>414</v>
       </c>
       <c r="C154">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="D154" s="29">
-        <v>184.86916951079999</v>
+        <v>90.064467197599996</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -5979,10 +5997,10 @@
         <v>416</v>
       </c>
       <c r="C155">
-        <v>318</v>
+        <v>156</v>
       </c>
       <c r="D155" s="29">
-        <v>195.0968121917</v>
+        <v>95.707870131799993</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -5993,10 +6011,10 @@
         <v>418</v>
       </c>
       <c r="C156">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D156" s="29">
-        <v>78.906399948800001</v>
+        <v>68.954241396699999</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -6007,10 +6025,10 @@
         <v>420</v>
       </c>
       <c r="C157">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D157" s="29">
-        <v>109.6077035019</v>
+        <v>74.929560021100002</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -6021,10 +6039,10 @@
         <v>422</v>
       </c>
       <c r="C158">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="D158" s="29">
-        <v>119.74965543730001</v>
+        <v>84.351958546999995</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -6035,10 +6053,10 @@
         <v>424</v>
       </c>
       <c r="C159">
-        <v>300</v>
+        <v>213</v>
       </c>
       <c r="D159" s="29">
-        <v>236.98179979779999</v>
+        <v>168.2570778564</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -6049,10 +6067,10 @@
         <v>426</v>
       </c>
       <c r="C160">
-        <v>414</v>
+        <v>281</v>
       </c>
       <c r="D160" s="29">
-        <v>120.18951622269999</v>
+        <v>81.577908354000002</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -6063,10 +6081,10 @@
         <v>428</v>
       </c>
       <c r="C161">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="D161" s="29">
-        <v>139.30465066229999</v>
+        <v>131.08724149400001</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -6077,10 +6095,10 @@
         <v>430</v>
       </c>
       <c r="C162">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D162" s="29">
-        <v>161.0129577095</v>
+        <v>159.91763146650001</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -6091,10 +6109,10 @@
         <v>432</v>
       </c>
       <c r="C163">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="D163" s="29">
-        <v>132.8927519575</v>
+        <v>116.1315039628</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -6105,10 +6123,10 @@
         <v>434</v>
       </c>
       <c r="C164">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="D164" s="29">
-        <v>150.84788013990001</v>
+        <v>138.70334741670001</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -6119,10 +6137,10 @@
         <v>436</v>
       </c>
       <c r="C165">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="D165" s="29">
-        <v>130.05409256210001</v>
+        <v>176.44281347590001</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -6133,10 +6151,10 @@
         <v>438</v>
       </c>
       <c r="C166">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D166" s="29">
-        <v>81.305329286599999</v>
+        <v>72.2152924719</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -6147,10 +6165,10 @@
         <v>440</v>
       </c>
       <c r="C167">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="D167" s="29">
-        <v>444.64135955820001</v>
+        <v>398.75310536889998</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -6161,10 +6179,10 @@
         <v>442</v>
       </c>
       <c r="C168">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="D168" s="29">
-        <v>81.575827450800006</v>
+        <v>105.8672960695</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -6175,10 +6193,10 @@
         <v>444</v>
       </c>
       <c r="C169">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="D169" s="29">
-        <v>90.077258571800002</v>
+        <v>96.621332912499994</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -6189,10 +6207,10 @@
         <v>446</v>
       </c>
       <c r="C170">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D170" s="29">
-        <v>95.393265066599994</v>
+        <v>89.061853668400005</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -6203,10 +6221,10 @@
         <v>448</v>
       </c>
       <c r="C171">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="D171" s="29">
-        <v>220.40370976540001</v>
+        <v>141.84397163119999</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -6217,10 +6235,10 @@
         <v>450</v>
       </c>
       <c r="C172">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="D172" s="29">
-        <v>185.65205008390001</v>
+        <v>131.8551492073</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -6231,10 +6249,10 @@
         <v>452</v>
       </c>
       <c r="C173">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D173" s="29">
-        <v>86.991256491100003</v>
+        <v>55.922950601399997</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -6245,10 +6263,10 @@
         <v>454</v>
       </c>
       <c r="C174">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="D174" s="29">
-        <v>75.222118141300001</v>
+        <v>154.7020920265</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -6259,10 +6277,10 @@
         <v>456</v>
       </c>
       <c r="C175">
-        <v>250</v>
+        <v>307</v>
       </c>
       <c r="D175" s="29">
-        <v>178.25184847169999</v>
+        <v>218.89326992319999</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -6273,10 +6291,10 @@
         <v>458</v>
       </c>
       <c r="C176">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="D176" s="29">
-        <v>239.06107351599999</v>
+        <v>190.1194364182</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -6287,10 +6305,10 @@
         <v>460</v>
       </c>
       <c r="C177">
-        <v>243</v>
+        <v>184</v>
       </c>
       <c r="D177" s="29">
-        <v>176.86619308260001</v>
+        <v>133.92337253989999</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -6301,10 +6319,10 @@
         <v>462</v>
       </c>
       <c r="C178">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D178" s="29">
-        <v>188.60637848810001</v>
+        <v>189.5045040999</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -6315,10 +6333,10 @@
         <v>464</v>
       </c>
       <c r="C179">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D179" s="29">
-        <v>143.99089173889999</v>
+        <v>114.9694716985</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -6329,10 +6347,10 @@
         <v>466</v>
       </c>
       <c r="C180">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D180" s="29">
-        <v>141.95741277619999</v>
+        <v>129.96101169650001</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -6343,10 +6361,10 @@
         <v>468</v>
       </c>
       <c r="C181">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="D181" s="29">
-        <v>127.3837269648</v>
+        <v>98.132648920999998</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -6357,10 +6375,10 @@
         <v>470</v>
       </c>
       <c r="C182">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="D182" s="29">
-        <v>84.599115554700006</v>
+        <v>66.6538486189</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -6371,10 +6389,10 @@
         <v>472</v>
       </c>
       <c r="C183">
-        <v>596</v>
+        <v>411</v>
       </c>
       <c r="D183" s="29">
-        <v>133.90219298540001</v>
+        <v>92.338592813800005</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -6385,10 +6403,10 @@
         <v>474</v>
       </c>
       <c r="C184">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="D184" s="29">
-        <v>112.30007371240001</v>
+        <v>62.828675601199997</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -6399,10 +6417,10 @@
         <v>476</v>
       </c>
       <c r="C185">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="D185" s="29">
-        <v>124.1742832525</v>
+        <v>115.72705309929999</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -6413,10 +6431,10 @@
         <v>478</v>
       </c>
       <c r="C186">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D186" s="29">
-        <v>175.68358935090001</v>
+        <v>76.580026127300002</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -6427,10 +6445,10 @@
         <v>480</v>
       </c>
       <c r="C187">
-        <v>194</v>
+        <v>129</v>
       </c>
       <c r="D187" s="29">
-        <v>157.6492385704</v>
+        <v>104.8286173999</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -6441,10 +6459,10 @@
         <v>482</v>
       </c>
       <c r="C188">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D188" s="29">
-        <v>118.58107619560001</v>
+        <v>65.074980839000006</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -6455,10 +6473,10 @@
         <v>484</v>
       </c>
       <c r="C189">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D189" s="29">
-        <v>76.987284942100004</v>
+        <v>74.556107522900007</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -6469,10 +6487,10 @@
         <v>486</v>
       </c>
       <c r="C190">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="D190" s="29">
-        <v>111.8973177555</v>
+        <v>166.74894410620001</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -6483,10 +6501,10 @@
         <v>488</v>
       </c>
       <c r="C191">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="D191" s="29">
-        <v>92.170323076200006</v>
+        <v>78.728817627599994</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -6497,10 +6515,10 @@
         <v>490</v>
       </c>
       <c r="C192">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D192" s="29">
-        <v>119.2438536808</v>
+        <v>133.27254234910001</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -6511,10 +6529,10 @@
         <v>492</v>
       </c>
       <c r="C193">
-        <v>1109</v>
+        <v>1012</v>
       </c>
       <c r="D193" s="29">
-        <v>101.9429836294</v>
+        <v>93.026419687000001</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -6525,10 +6543,10 @@
         <v>494</v>
       </c>
       <c r="C194">
-        <v>338</v>
+        <v>206</v>
       </c>
       <c r="D194" s="29">
-        <v>118.0559193867</v>
+        <v>71.951240809599994</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -6553,10 +6571,10 @@
         <v>498</v>
       </c>
       <c r="C196">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="D196" s="29">
-        <v>248.7152210719</v>
+        <v>176.797566786</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -6567,10 +6585,10 @@
         <v>500</v>
       </c>
       <c r="C197">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="D197" s="29">
-        <v>286.4488723696</v>
+        <v>198.41824329990001</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -6581,10 +6599,10 @@
         <v>502</v>
       </c>
       <c r="C198">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D198" s="29">
-        <v>81.174610860300007</v>
+        <v>49.844059300200001</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -6595,10 +6613,10 @@
         <v>504</v>
       </c>
       <c r="C199">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="D199" s="29">
-        <v>269.49819436209998</v>
+        <v>195.38619091250001</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -6609,10 +6627,10 @@
         <v>506</v>
       </c>
       <c r="C200">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="D200" s="29">
-        <v>120.0067898578</v>
+        <v>124.34914080670001</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -6623,10 +6641,10 @@
         <v>508</v>
       </c>
       <c r="C201">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D201" s="29">
-        <v>147.18116081139999</v>
+        <v>102.38689447749999</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -6637,10 +6655,10 @@
         <v>510</v>
       </c>
       <c r="C202">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D202" s="29">
-        <v>73.980482452499999</v>
+        <v>59.018137686800003</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -6651,10 +6669,10 @@
         <v>512</v>
       </c>
       <c r="C203">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="D203" s="29">
-        <v>164.82543488030001</v>
+        <v>202.9668578278</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -6665,10 +6683,10 @@
         <v>514</v>
       </c>
       <c r="C204">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="D204" s="29">
-        <v>143.21898746049999</v>
+        <v>111.9484661809</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -6679,10 +6697,10 @@
         <v>516</v>
       </c>
       <c r="C205">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="D205" s="29">
-        <v>74.375131766999999</v>
+        <v>45.679214786000003</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -6693,10 +6711,10 @@
         <v>518</v>
       </c>
       <c r="C206">
-        <v>1187</v>
+        <v>1070</v>
       </c>
       <c r="D206" s="29">
-        <v>200.11970091629999</v>
+        <v>180.39433865239999</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -6707,10 +6725,10 @@
         <v>520</v>
       </c>
       <c r="C207">
-        <v>842</v>
+        <v>609</v>
       </c>
       <c r="D207" s="29">
-        <v>326.1808560504</v>
+        <v>235.91940776089999</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -6721,10 +6739,10 @@
         <v>522</v>
       </c>
       <c r="C208">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="D208" s="29">
-        <v>133.75761166320001</v>
+        <v>117.2669472116</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -6735,10 +6753,10 @@
         <v>524</v>
       </c>
       <c r="C209">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D209" s="29">
-        <v>256.08002875279999</v>
+        <v>157.24212291840001</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -6749,10 +6767,10 @@
         <v>526</v>
       </c>
       <c r="C210">
-        <v>344</v>
+        <v>214</v>
       </c>
       <c r="D210" s="29">
-        <v>200.1023779608</v>
+        <v>124.4822932663</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -6763,10 +6781,10 @@
         <v>528</v>
       </c>
       <c r="C211">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D211" s="29">
-        <v>126.858662373</v>
+        <v>96.363791610299998</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -6777,10 +6795,10 @@
         <v>530</v>
       </c>
       <c r="C212">
-        <v>386</v>
+        <v>462</v>
       </c>
       <c r="D212" s="29">
-        <v>111.0746617402</v>
+        <v>132.94428425909999</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -6791,10 +6809,10 @@
         <v>532</v>
       </c>
       <c r="C213">
-        <v>325</v>
+        <v>229</v>
       </c>
       <c r="D213" s="29">
-        <v>142.08519865700001</v>
+        <v>100.1154168998</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6805,10 +6823,10 @@
         <v>534</v>
       </c>
       <c r="C214">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D214" s="29">
-        <v>105.2971874567</v>
+        <v>104.3735279176</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -6819,10 +6837,10 @@
         <v>536</v>
       </c>
       <c r="C215">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D215" s="29">
-        <v>74.361728497100003</v>
+        <v>53.705692803399998</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -6833,10 +6851,10 @@
         <v>538</v>
       </c>
       <c r="C216">
-        <v>712</v>
+        <v>482</v>
       </c>
       <c r="D216" s="29">
-        <v>130.5408829477</v>
+        <v>88.371777501099999</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -6847,10 +6865,10 @@
         <v>540</v>
       </c>
       <c r="C217">
-        <v>412</v>
+        <v>319</v>
       </c>
       <c r="D217" s="29">
-        <v>239.18306212370001</v>
+        <v>185.19271072199999</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -6861,10 +6879,10 @@
         <v>542</v>
       </c>
       <c r="C218">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D218" s="29">
-        <v>150.6287214502</v>
+        <v>153.93405389579999</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -6875,10 +6893,10 @@
         <v>544</v>
       </c>
       <c r="C219">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="D219" s="29">
-        <v>49.9622567734</v>
+        <v>30.954876479199999</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -6889,10 +6907,10 @@
         <v>546</v>
       </c>
       <c r="C220">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="D220" s="29">
-        <v>109.0227937617</v>
+        <v>78.294361543199997</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -6903,10 +6921,10 @@
         <v>548</v>
       </c>
       <c r="C221">
-        <v>568</v>
+        <v>512</v>
       </c>
       <c r="D221" s="29">
-        <v>135.06058703799999</v>
+        <v>121.74475451310001</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -6917,10 +6935,10 @@
         <v>550</v>
       </c>
       <c r="C222">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D222" s="29">
-        <v>85.606937332599998</v>
+        <v>91.1555351226</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -6931,10 +6949,10 @@
         <v>552</v>
       </c>
       <c r="C223">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="D223" s="29">
-        <v>127.6444686138</v>
+        <v>149.54795731089999</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -6945,10 +6963,10 @@
         <v>554</v>
       </c>
       <c r="C224">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="D224" s="29">
-        <v>103.9579473336</v>
+        <v>90.544018645400001</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -6959,10 +6977,10 @@
         <v>556</v>
       </c>
       <c r="C225">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="D225" s="29">
-        <v>108.8856152037</v>
+        <v>80.977957525500003</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -6973,10 +6991,10 @@
         <v>558</v>
       </c>
       <c r="C226">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="D226" s="29">
-        <v>119.66871159839999</v>
+        <v>132.9126796804</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -6987,10 +7005,10 @@
         <v>560</v>
       </c>
       <c r="C227">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="D227" s="29">
-        <v>134.23121245870001</v>
+        <v>141.31295508240001</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -7001,10 +7019,10 @@
         <v>562</v>
       </c>
       <c r="C228">
-        <v>511</v>
+        <v>273</v>
       </c>
       <c r="D228" s="29">
-        <v>378.68121118699997</v>
+        <v>202.30914022319999</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -7015,10 +7033,10 @@
         <v>564</v>
       </c>
       <c r="C229">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="D229" s="29">
-        <v>113.3217853038</v>
+        <v>78.111087727300003</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -7029,10 +7047,10 @@
         <v>566</v>
       </c>
       <c r="C230">
-        <v>540</v>
+        <v>602</v>
       </c>
       <c r="D230" s="29">
-        <v>131.63604097289999</v>
+        <v>146.7498086402</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -7043,10 +7061,10 @@
         <v>568</v>
       </c>
       <c r="C231">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="D231" s="29">
-        <v>115.9636476953</v>
+        <v>94.507818606300006</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -7057,10 +7075,10 @@
         <v>570</v>
       </c>
       <c r="C232">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="D232" s="29">
-        <v>107.7254539858</v>
+        <v>95.134167156299995</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -7071,10 +7089,10 @@
         <v>572</v>
       </c>
       <c r="C233">
-        <v>577</v>
+        <v>448</v>
       </c>
       <c r="D233" s="29">
-        <v>223.57928346130001</v>
+        <v>173.59362043440001</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -7085,10 +7103,10 @@
         <v>574</v>
       </c>
       <c r="C234">
-        <v>970</v>
+        <v>575</v>
       </c>
       <c r="D234" s="29">
-        <v>401.29573013070001</v>
+        <v>237.88148951049999</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -7099,10 +7117,10 @@
         <v>576</v>
       </c>
       <c r="C235">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D235" s="29">
-        <v>113.3786848073</v>
+        <v>122.4489795918</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -7113,10 +7131,10 @@
         <v>578</v>
       </c>
       <c r="C236">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D236" s="29">
-        <v>94.921689606100003</v>
+        <v>68.769795530899998</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -7127,10 +7145,10 @@
         <v>580</v>
       </c>
       <c r="C237">
-        <v>932</v>
+        <v>773</v>
       </c>
       <c r="D237" s="29">
-        <v>191.93937022470001</v>
+        <v>159.19434890950001</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -7141,10 +7159,10 @@
         <v>582</v>
       </c>
       <c r="C238">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="D238" s="29">
-        <v>210.9789021098</v>
+        <v>76.992300769899998</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -7155,10 +7173,10 @@
         <v>584</v>
       </c>
       <c r="C239">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D239" s="29">
-        <v>163.115664541</v>
+        <v>151.46454564519999</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -7169,10 +7187,10 @@
         <v>586</v>
       </c>
       <c r="C240">
-        <v>592</v>
+        <v>512</v>
       </c>
       <c r="D240" s="29">
-        <v>190.71611970009999</v>
+        <v>164.94367109199999</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -7183,10 +7201,10 @@
         <v>588</v>
       </c>
       <c r="C241">
-        <v>1263</v>
+        <v>899</v>
       </c>
       <c r="D241" s="29">
-        <v>415.32527236200002</v>
+        <v>295.62741081029998</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -7197,10 +7215,10 @@
         <v>590</v>
       </c>
       <c r="C242">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="D242" s="29">
-        <v>101.5193423079</v>
+        <v>84.280208708399996</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -7211,10 +7229,10 @@
         <v>592</v>
       </c>
       <c r="C243">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="D243" s="29">
-        <v>144.1245512289</v>
+        <v>191.59072079539999</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -7225,10 +7243,10 @@
         <v>594</v>
       </c>
       <c r="C244">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D244" s="29">
-        <v>92.010877209399993</v>
+        <v>86.736368324799997</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -7239,10 +7257,10 @@
         <v>596</v>
       </c>
       <c r="C245">
-        <v>2206</v>
+        <v>1381</v>
       </c>
       <c r="D245" s="29">
-        <v>148.6296561305</v>
+        <v>93.045129245799998</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -7253,10 +7271,10 @@
         <v>598</v>
       </c>
       <c r="C246">
-        <v>393</v>
+        <v>599</v>
       </c>
       <c r="D246" s="29">
-        <v>112.1341729605</v>
+        <v>170.91188194239999</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -7267,10 +7285,10 @@
         <v>600</v>
       </c>
       <c r="C247">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="D247" s="29">
-        <v>72.313689171700005</v>
+        <v>38.059836406099997</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -7281,10 +7299,10 @@
         <v>602</v>
       </c>
       <c r="C248">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D248" s="29">
-        <v>170.57361469860001</v>
+        <v>163.6114263435</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -7295,10 +7313,10 @@
         <v>604</v>
       </c>
       <c r="C249">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="D249" s="29">
-        <v>142.85273835340001</v>
+        <v>90.439143705700005</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -7309,10 +7327,10 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="D250" s="29">
-        <v>93.629479910499995</v>
+        <v>75.052202150499994</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -7323,10 +7341,10 @@
         <v>608</v>
       </c>
       <c r="C251">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D251" s="29">
-        <v>101.00254376780001</v>
+        <v>114.71893860039999</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -7337,10 +7355,10 @@
         <v>610</v>
       </c>
       <c r="C252">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D252" s="29">
-        <v>89.796663825600007</v>
+        <v>66.967003531000003</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -7351,10 +7369,10 @@
         <v>612</v>
       </c>
       <c r="C253">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="D253" s="29">
-        <v>137.60468845899999</v>
+        <v>117.8054527095</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -7365,10 +7383,10 @@
         <v>614</v>
       </c>
       <c r="C254">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D254" s="29">
-        <v>133.4039174166</v>
+        <v>148.22657490739999</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -7393,10 +7411,10 @@
         <v>618</v>
       </c>
       <c r="C256">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="D256" s="29">
-        <v>101.5958539759</v>
+        <v>87.326773361299999</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -7407,10 +7425,10 @@
         <v>620</v>
       </c>
       <c r="C257">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="D257" s="29">
-        <v>132.9241675829</v>
+        <v>90.257150827900006</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -7421,10 +7439,10 @@
         <v>622</v>
       </c>
       <c r="C258">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="D258" s="29">
-        <v>84.0266908312</v>
+        <v>134.2779471126</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -7435,10 +7453,10 @@
         <v>624</v>
       </c>
       <c r="C259">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="D259" s="29">
-        <v>100.6321142988</v>
+        <v>156.0701652898</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -7449,10 +7467,10 @@
         <v>626</v>
       </c>
       <c r="C260">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="D260" s="29">
-        <v>195.4061570922</v>
+        <v>100.70010549529999</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -7463,10 +7481,10 @@
         <v>628</v>
       </c>
       <c r="C261">
-        <v>508</v>
+        <v>348</v>
       </c>
       <c r="D261" s="29">
-        <v>256.9017047552</v>
+        <v>175.98778199770001</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -7477,10 +7495,10 @@
         <v>630</v>
       </c>
       <c r="C262">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="D262" s="29">
-        <v>78.819236978899994</v>
+        <v>47.6729255921</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -7491,10 +7509,10 @@
         <v>632</v>
       </c>
       <c r="C263">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="D263" s="29">
-        <v>71.814642627699996</v>
+        <v>45.3566163964</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -7505,10 +7523,10 @@
         <v>634</v>
       </c>
       <c r="C264">
-        <v>1136</v>
+        <v>1005</v>
       </c>
       <c r="D264" s="29">
-        <v>219.1484846731</v>
+        <v>193.87696047220001</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -7519,10 +7537,10 @@
         <v>636</v>
       </c>
       <c r="C265">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="D265" s="29">
-        <v>108.3188908146</v>
+        <v>60.307274345400003</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -7533,10 +7551,10 @@
         <v>638</v>
       </c>
       <c r="C266">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="D266" s="29">
-        <v>132.6855033075</v>
+        <v>106.40479975389999</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -7547,10 +7565,10 @@
         <v>640</v>
       </c>
       <c r="C267">
-        <v>551</v>
+        <v>425</v>
       </c>
       <c r="D267" s="29">
-        <v>202.53108723540001</v>
+        <v>156.21726329410001</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -7561,10 +7579,10 @@
         <v>642</v>
       </c>
       <c r="C268">
-        <v>325</v>
+        <v>249</v>
       </c>
       <c r="D268" s="29">
-        <v>154.20090717580001</v>
+        <v>118.1416181132</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -7575,10 +7593,10 @@
         <v>644</v>
       </c>
       <c r="C269">
-        <v>252</v>
+        <v>518</v>
       </c>
       <c r="D269" s="29">
-        <v>118.3576467494</v>
+        <v>243.29071831819999</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -7589,10 +7607,10 @@
         <v>646</v>
       </c>
       <c r="C270">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="D270" s="29">
-        <v>246.8661711057</v>
+        <v>211.2077241682</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -7603,10 +7621,10 @@
         <v>648</v>
       </c>
       <c r="C271">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D271" s="29">
-        <v>157.18230044570001</v>
+        <v>142.7049832994</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -7617,10 +7635,10 @@
         <v>650</v>
       </c>
       <c r="C272">
-        <v>533</v>
+        <v>472</v>
       </c>
       <c r="D272" s="29">
-        <v>298.09343243680001</v>
+        <v>263.97767375270001</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -7631,10 +7649,10 @@
         <v>652</v>
       </c>
       <c r="C273">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D273" s="29">
-        <v>168.09947804730001</v>
+        <v>164.26159042059999</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -7645,10 +7663,10 @@
         <v>654</v>
       </c>
       <c r="C274">
-        <v>633</v>
+        <v>504</v>
       </c>
       <c r="D274" s="29">
-        <v>177.90243751630001</v>
+        <v>141.6474384016</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -7659,10 +7677,10 @@
         <v>656</v>
       </c>
       <c r="C275">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="D275" s="29">
-        <v>82.802510098900001</v>
+        <v>56.187417567099999</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -7673,10 +7691,10 @@
         <v>658</v>
       </c>
       <c r="C276">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="D276" s="29">
-        <v>135.22805409119999</v>
+        <v>71.816028726400006</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -7687,10 +7705,10 @@
         <v>660</v>
       </c>
       <c r="C277">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D277" s="29">
-        <v>108.9918256131</v>
+        <v>110.4848643201</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -7701,10 +7719,10 @@
         <v>662</v>
       </c>
       <c r="C278">
-        <v>574</v>
+        <v>478</v>
       </c>
       <c r="D278" s="29">
-        <v>133.19317883849999</v>
+        <v>110.9169677436</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -7715,10 +7733,10 @@
         <v>664</v>
       </c>
       <c r="C279">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="D279" s="29">
-        <v>116.7920315157</v>
+        <v>84.1144682937</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -7729,10 +7747,10 @@
         <v>666</v>
       </c>
       <c r="C280">
-        <v>450</v>
+        <v>333</v>
       </c>
       <c r="D280" s="29">
-        <v>125.67024128689999</v>
+        <v>92.995978552300002</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -7743,10 +7761,10 @@
         <v>668</v>
       </c>
       <c r="C281">
-        <v>566</v>
+        <v>413</v>
       </c>
       <c r="D281" s="29">
-        <v>180.2404267176</v>
+        <v>131.51819122680001</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -7757,10 +7775,10 @@
         <v>670</v>
       </c>
       <c r="C282">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="D282" s="29">
-        <v>106.24583870470001</v>
+        <v>74.372087093299996</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -7771,10 +7789,10 @@
         <v>672</v>
       </c>
       <c r="C283">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D283" s="29">
-        <v>37.743136015700003</v>
+        <v>50.031598904600003</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -7785,10 +7803,10 @@
         <v>674</v>
       </c>
       <c r="C284">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D284" s="29">
-        <v>77.291698871500003</v>
+        <v>72.305137654000006</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -7799,10 +7817,10 @@
         <v>676</v>
       </c>
       <c r="C285">
-        <v>244</v>
+        <v>333</v>
       </c>
       <c r="D285" s="29">
-        <v>246.81117933260001</v>
+        <v>336.83656851540002</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -7813,10 +7831,10 @@
         <v>678</v>
       </c>
       <c r="C286">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="D286" s="29">
-        <v>95.179623114699993</v>
+        <v>67.242941927399997</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -7827,10 +7845,10 @@
         <v>680</v>
       </c>
       <c r="C287">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="D287" s="29">
-        <v>268.92411416020002</v>
+        <v>204.53383330490001</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -7841,10 +7859,10 @@
         <v>682</v>
       </c>
       <c r="C288">
-        <v>492</v>
+        <v>408</v>
       </c>
       <c r="D288" s="29">
-        <v>255.37746034380001</v>
+        <v>211.77643052900001</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -7855,10 +7873,10 @@
         <v>684</v>
       </c>
       <c r="C289">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="D289" s="29">
-        <v>160.9780342876</v>
+        <v>121.66081853990001</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -7869,10 +7887,10 @@
         <v>686</v>
       </c>
       <c r="C290">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="D290" s="29">
-        <v>161.43245962239999</v>
+        <v>83.445764152600006</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -7883,10 +7901,10 @@
         <v>688</v>
       </c>
       <c r="C291">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D291" s="29">
-        <v>195.3047468581</v>
+        <v>184.98376430050001</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -7897,10 +7915,10 @@
         <v>690</v>
       </c>
       <c r="C292">
-        <v>567</v>
+        <v>485</v>
       </c>
       <c r="D292" s="29">
-        <v>179.3719135851</v>
+        <v>153.43100192029999</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -7925,10 +7943,10 @@
         <v>694</v>
       </c>
       <c r="C294">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D294" s="29">
-        <v>41.962606655000002</v>
+        <v>34.191753570700001</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -7939,10 +7957,10 @@
         <v>696</v>
       </c>
       <c r="C295">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="D295" s="29">
-        <v>314.41658256350001</v>
+        <v>297.7807845442</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -7953,10 +7971,10 @@
         <v>698</v>
       </c>
       <c r="C296">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="D296" s="29">
-        <v>176.85139864979999</v>
+        <v>190.24223562329999</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -7967,10 +7985,10 @@
         <v>700</v>
       </c>
       <c r="C297">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D297" s="29">
-        <v>233.7246251215</v>
+        <v>211.40261036269999</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -7981,10 +7999,10 @@
         <v>702</v>
       </c>
       <c r="C298">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="D298" s="29">
-        <v>124.4490536687</v>
+        <v>63.520871143400001</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -7995,10 +8013,10 @@
         <v>704</v>
       </c>
       <c r="C299">
-        <v>588</v>
+        <v>458</v>
       </c>
       <c r="D299" s="29">
-        <v>206.00930545430001</v>
+        <v>160.46303043890001</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -8009,10 +8027,10 @@
         <v>706</v>
       </c>
       <c r="C300">
-        <v>1122</v>
+        <v>832</v>
       </c>
       <c r="D300" s="29">
-        <v>182.69539207049999</v>
+        <v>135.4746579346</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -8023,10 +8041,10 @@
         <v>708</v>
       </c>
       <c r="C301">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D301" s="29">
-        <v>269.99095724070003</v>
+        <v>255.78090685960001</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -8037,10 +8055,10 @@
         <v>710</v>
       </c>
       <c r="C302">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D302" s="29">
-        <v>65.319346284000005</v>
+        <v>67.278926672500006</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -8051,10 +8069,10 @@
         <v>712</v>
       </c>
       <c r="C303">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="D303" s="29">
-        <v>91.719482660899999</v>
+        <v>65.440305044599995</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -8065,10 +8083,10 @@
         <v>714</v>
       </c>
       <c r="C304">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D304" s="29">
-        <v>95.205590184800002</v>
+        <v>97.001922075099998</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -8079,10 +8097,10 @@
         <v>716</v>
       </c>
       <c r="C305">
-        <v>516</v>
+        <v>394</v>
       </c>
       <c r="D305" s="29">
-        <v>120.7729468599</v>
+        <v>92.218102834899994</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -8093,10 +8111,10 @@
         <v>718</v>
       </c>
       <c r="C306">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D306" s="29">
-        <v>48.887624134399999</v>
+        <v>51.806288261900001</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -8107,10 +8125,10 @@
         <v>720</v>
       </c>
       <c r="C307">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="D307" s="29">
-        <v>122.6335556067</v>
+        <v>107.3043611558</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -8121,10 +8139,10 @@
         <v>722</v>
       </c>
       <c r="C308">
-        <v>578</v>
+        <v>411</v>
       </c>
       <c r="D308" s="29">
-        <v>122.8180147254</v>
+        <v>87.332532962200005</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -8135,10 +8153,10 @@
         <v>724</v>
       </c>
       <c r="C309">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="D309" s="29">
-        <v>100.9831160504</v>
+        <v>71.596494977600003</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -8149,10 +8167,10 @@
         <v>726</v>
       </c>
       <c r="C310">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D310" s="29">
-        <v>138.61558892240001</v>
+        <v>150.24766631450001</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -8163,10 +8181,10 @@
         <v>728</v>
       </c>
       <c r="C311">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D311" s="29">
-        <v>116.1431985625</v>
+        <v>111.5539536345</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -8177,10 +8195,10 @@
         <v>730</v>
       </c>
       <c r="C312">
-        <v>548</v>
+        <v>447</v>
       </c>
       <c r="D312" s="29">
-        <v>121.3114028291</v>
+        <v>98.952914351499999</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -8191,10 +8209,10 @@
         <v>732</v>
       </c>
       <c r="C313">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D313" s="29">
-        <v>80.132791483000005</v>
+        <v>68.685249842600001</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -8205,10 +8223,10 @@
         <v>734</v>
       </c>
       <c r="C314">
-        <v>687</v>
+        <v>544</v>
       </c>
       <c r="D314" s="29">
-        <v>125.2838033756</v>
+        <v>99.205806457500003</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -8219,10 +8237,10 @@
         <v>736</v>
       </c>
       <c r="C315">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D315" s="29">
-        <v>116.422717953</v>
+        <v>113.835546443</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -8233,10 +8251,10 @@
         <v>738</v>
       </c>
       <c r="C316">
-        <v>586</v>
+        <v>642</v>
       </c>
       <c r="D316" s="29">
-        <v>97.542462597599993</v>
+        <v>106.8639266001</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -8247,10 +8265,10 @@
         <v>740</v>
       </c>
       <c r="C317">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D317" s="29">
-        <v>131.85157280089999</v>
+        <v>107.99271677030001</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -8261,10 +8279,10 @@
         <v>742</v>
       </c>
       <c r="C318">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="D318" s="29">
-        <v>225.01612877849999</v>
+        <v>122.7360702428</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -8275,10 +8293,10 @@
         <v>744</v>
       </c>
       <c r="C319">
-        <v>427</v>
+        <v>344</v>
       </c>
       <c r="D319" s="29">
-        <v>163.394941262</v>
+        <v>131.63433207060001</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -8289,10 +8307,10 @@
         <v>746</v>
       </c>
       <c r="C320">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D320" s="29">
-        <v>35.374370790299999</v>
+        <v>48.759267846100002</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -8303,10 +8321,10 @@
         <v>748</v>
       </c>
       <c r="C321">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="D321" s="29">
-        <v>75.535000973199999</v>
+        <v>57.925614243200002</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -8317,10 +8335,10 @@
         <v>750</v>
       </c>
       <c r="C322">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D322" s="29">
-        <v>50.6771195858</v>
+        <v>38.465765468699999</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -8331,10 +8349,10 @@
         <v>752</v>
       </c>
       <c r="C323">
-        <v>321</v>
+        <v>158</v>
       </c>
       <c r="D323" s="29">
-        <v>253.25643594819999</v>
+        <v>124.655815825</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -8345,10 +8363,10 @@
         <v>754</v>
       </c>
       <c r="C324">
-        <v>377</v>
+        <v>253</v>
       </c>
       <c r="D324" s="29">
-        <v>310.2829583052</v>
+        <v>208.2270250695</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -8359,10 +8377,10 @@
         <v>756</v>
       </c>
       <c r="C325">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="D325" s="29">
-        <v>188.7358984258</v>
+        <v>117.9599365161</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -8373,10 +8391,10 @@
         <v>758</v>
       </c>
       <c r="C326">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D326" s="29">
-        <v>305.00301386379999</v>
+        <v>285.71428571429999</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -8387,10 +8405,10 @@
         <v>760</v>
       </c>
       <c r="C327">
-        <v>645</v>
+        <v>364</v>
       </c>
       <c r="D327" s="29">
-        <v>350.89628158750003</v>
+        <v>198.02518836869999</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -8401,10 +8419,10 @@
         <v>762</v>
       </c>
       <c r="C328">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="D328" s="29">
-        <v>329.96314373939998</v>
+        <v>261.48022711430002</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -8415,10 +8433,10 @@
         <v>764</v>
       </c>
       <c r="C329">
-        <v>541</v>
+        <v>385</v>
       </c>
       <c r="D329" s="29">
-        <v>524.22988594850005</v>
+        <v>373.06563048089998</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -8429,10 +8447,10 @@
         <v>766</v>
       </c>
       <c r="C330">
-        <v>364</v>
+        <v>226</v>
       </c>
       <c r="D330" s="29">
-        <v>187.32084870750001</v>
+        <v>116.30360386789999</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -8443,10 +8461,10 @@
         <v>768</v>
       </c>
       <c r="C331">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D331" s="29">
-        <v>76.654758220999994</v>
+        <v>61.183155644300001</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -8457,10 +8475,10 @@
         <v>770</v>
       </c>
       <c r="C332">
-        <v>1045</v>
+        <v>462</v>
       </c>
       <c r="D332" s="29">
-        <v>425.51285496729997</v>
+        <v>188.1214727224</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -8471,10 +8489,10 @@
         <v>772</v>
       </c>
       <c r="C333">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D333" s="29">
-        <v>82.461573865399998</v>
+        <v>61.366752644000002</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -8485,10 +8503,10 @@
         <v>774</v>
       </c>
       <c r="C334">
-        <v>516</v>
+        <v>409</v>
       </c>
       <c r="D334" s="29">
-        <v>272.83542630540001</v>
+        <v>216.2590879048</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -8499,10 +8517,10 @@
         <v>776</v>
       </c>
       <c r="C335">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D335" s="29">
-        <v>93.095957796500002</v>
+        <v>132.17327341480001</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -8513,10 +8531,10 @@
         <v>778</v>
       </c>
       <c r="C336">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D336" s="29">
-        <v>96.945887720200005</v>
+        <v>93.144088201700001</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -8527,10 +8545,10 @@
         <v>780</v>
       </c>
       <c r="C337">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="D337" s="29">
-        <v>77.551750879899998</v>
+        <v>37.284495615300003</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -8541,10 +8559,10 @@
         <v>782</v>
       </c>
       <c r="C338">
-        <v>419</v>
+        <v>334</v>
       </c>
       <c r="D338" s="29">
-        <v>335.42540587270003</v>
+        <v>267.37967914439997</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -8555,10 +8573,10 @@
         <v>784</v>
       </c>
       <c r="C339">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D339" s="29">
-        <v>207.41319147900001</v>
+        <v>112.247138918</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -8569,10 +8587,10 @@
         <v>786</v>
       </c>
       <c r="C340">
-        <v>304</v>
+        <v>171</v>
       </c>
       <c r="D340" s="29">
-        <v>154.50216252199999</v>
+        <v>86.907466418699997</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -8583,10 +8601,10 @@
         <v>788</v>
       </c>
       <c r="C341">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D341" s="29">
-        <v>103.5213972049</v>
+        <v>107.4173637664</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -8597,10 +8615,10 @@
         <v>790</v>
       </c>
       <c r="C342">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="D342" s="29">
-        <v>107.5254273967</v>
+        <v>87.237610906699999</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -8611,10 +8629,10 @@
         <v>792</v>
       </c>
       <c r="C343">
-        <v>278</v>
+        <v>183</v>
       </c>
       <c r="D343" s="29">
-        <v>130.81983567520001</v>
+        <v>86.115215570399997</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -8625,10 +8643,10 @@
         <v>794</v>
       </c>
       <c r="C344">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D344" s="29">
-        <v>116.0483659641</v>
+        <v>89.843896230300004</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -8639,10 +8657,10 @@
         <v>796</v>
       </c>
       <c r="C345">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D345" s="29">
-        <v>106.54424184680001</v>
+        <v>74.494347957900004</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -8653,10 +8671,10 @@
         <v>798</v>
       </c>
       <c r="C346">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="D346" s="29">
-        <v>133.81702612570001</v>
+        <v>95.135542011200002</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -8667,10 +8685,10 @@
         <v>800</v>
       </c>
       <c r="C347">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D347" s="29">
-        <v>73.960494272600002</v>
+        <v>72.156579778099996</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -8681,10 +8699,10 @@
         <v>802</v>
       </c>
       <c r="C348">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="D348" s="29">
-        <v>140.1005257381</v>
+        <v>124.21283725230001</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -8695,10 +8713,10 @@
         <v>804</v>
       </c>
       <c r="C349">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="D349" s="29">
-        <v>144.44130257009999</v>
+        <v>82.537887182899993</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -8709,10 +8727,10 @@
         <v>806</v>
       </c>
       <c r="C350">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="D350" s="29">
-        <v>92.118561227399994</v>
+        <v>73.230942558400002</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -8723,10 +8741,10 @@
         <v>808</v>
       </c>
       <c r="C351">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D351" s="29">
-        <v>106.75374423060001</v>
+        <v>108.6376338347</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -8737,10 +8755,10 @@
         <v>810</v>
       </c>
       <c r="C352">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="D352" s="29">
-        <v>256.38440376220001</v>
+        <v>185.8066746367</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -8751,10 +8769,10 @@
         <v>812</v>
       </c>
       <c r="C353">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D353" s="29">
-        <v>211.3761976541</v>
+        <v>233.8998908467</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -8765,10 +8783,10 @@
         <v>814</v>
       </c>
       <c r="C354">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D354" s="29">
-        <v>106.80168509329999</v>
+        <v>81.090168311499994</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -8779,10 +8797,10 @@
         <v>816</v>
       </c>
       <c r="C355">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="D355" s="29">
-        <v>233.90784382690001</v>
+        <v>264.68519169889998</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -8793,10 +8811,10 @@
         <v>818</v>
       </c>
       <c r="C356">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D356" s="29">
-        <v>58.187294633100002</v>
+        <v>50.852761696100004</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -8807,10 +8825,10 @@
         <v>820</v>
       </c>
       <c r="C357">
-        <v>609</v>
+        <v>487</v>
       </c>
       <c r="D357" s="29">
-        <v>185.26743612990001</v>
+        <v>148.1531057393</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -8821,10 +8839,10 @@
         <v>822</v>
       </c>
       <c r="C358">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D358" s="29">
-        <v>123.6582349799</v>
+        <v>120.7314128502</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -8835,10 +8853,10 @@
         <v>824</v>
       </c>
       <c r="C359">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D359" s="29">
-        <v>79.381435430099998</v>
+        <v>61.825925671500002</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -8849,10 +8867,10 @@
         <v>826</v>
       </c>
       <c r="C360">
-        <v>553</v>
+        <v>426</v>
       </c>
       <c r="D360" s="29">
-        <v>123.37691312299999</v>
+        <v>95.042613002500005</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -8863,10 +8881,10 @@
         <v>828</v>
       </c>
       <c r="C361">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="D361" s="29">
-        <v>159.1869772462</v>
+        <v>93.533591150299998</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -8877,10 +8895,10 @@
         <v>830</v>
       </c>
       <c r="C362">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="D362" s="29">
-        <v>90.515899670699994</v>
+        <v>103.62227428369999</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -8891,10 +8909,10 @@
         <v>832</v>
       </c>
       <c r="C363">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D363" s="29">
-        <v>79.512878994000005</v>
+        <v>69.050658073700006</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -8905,10 +8923,10 @@
         <v>834</v>
       </c>
       <c r="C364">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="D364" s="29">
-        <v>178.00632911389999</v>
+        <v>129.54905063289999</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -8919,10 +8937,10 @@
         <v>836</v>
       </c>
       <c r="C365">
-        <v>756</v>
+        <v>575</v>
       </c>
       <c r="D365" s="29">
-        <v>118.8845608898</v>
+        <v>90.4214583487</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -8933,10 +8951,10 @@
         <v>838</v>
       </c>
       <c r="C366">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="D366" s="29">
-        <v>135.72081323910001</v>
+        <v>165.57939215170001</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -8947,10 +8965,10 @@
         <v>840</v>
       </c>
       <c r="C367">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D367" s="29">
-        <v>80.142569413000004</v>
+        <v>71.706509474699999</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -8961,10 +8979,10 @@
         <v>842</v>
       </c>
       <c r="C368">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D368" s="29">
-        <v>244.638342983</v>
+        <v>198.42887819730001</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -8975,10 +8993,10 @@
         <v>844</v>
       </c>
       <c r="C369">
-        <v>643</v>
+        <v>364</v>
       </c>
       <c r="D369" s="29">
-        <v>378.24196897590002</v>
+        <v>214.12142567219999</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -8989,10 +9007,10 @@
         <v>846</v>
       </c>
       <c r="C370">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D370" s="29">
-        <v>240.12436498899999</v>
+        <v>237.3483607695</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -9003,10 +9021,10 @@
         <v>848</v>
       </c>
       <c r="C371">
-        <v>346</v>
+        <v>257</v>
       </c>
       <c r="D371" s="29">
-        <v>195.12855362369999</v>
+        <v>144.93652682449999</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -9017,10 +9035,10 @@
         <v>850</v>
       </c>
       <c r="C372">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D372" s="29">
-        <v>59.177964277999997</v>
+        <v>48.418334409300002</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -9031,10 +9049,10 @@
         <v>852</v>
       </c>
       <c r="C373">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D373" s="29">
-        <v>51.540181260799997</v>
+        <v>52.8788872676</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -9045,10 +9063,10 @@
         <v>854</v>
       </c>
       <c r="C374">
-        <v>223</v>
+        <v>113</v>
       </c>
       <c r="D374" s="29">
-        <v>97.517032683500005</v>
+        <v>49.414460507800001</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -9059,10 +9077,10 @@
         <v>856</v>
       </c>
       <c r="C375">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D375" s="29">
-        <v>159.8397340267</v>
+        <v>156.2877399372</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -9073,10 +9091,10 @@
         <v>858</v>
       </c>
       <c r="C376">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="D376" s="29">
-        <v>210.1776421431</v>
+        <v>181.5934828117</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -9087,10 +9105,10 @@
         <v>860</v>
       </c>
       <c r="C377">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D377" s="29">
-        <v>76.8489755274</v>
+        <v>106.0732338265</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -9101,10 +9119,10 @@
         <v>862</v>
       </c>
       <c r="C378">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D378" s="29">
-        <v>77.293161921299998</v>
+        <v>82.814102058499998</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -9115,10 +9133,10 @@
         <v>864</v>
       </c>
       <c r="C379">
-        <v>557</v>
+        <v>464</v>
       </c>
       <c r="D379" s="29">
-        <v>141.05158132240001</v>
+        <v>117.5007786959</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -9129,10 +9147,10 @@
         <v>866</v>
       </c>
       <c r="C380">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="D380" s="29">
-        <v>355.07473198219998</v>
+        <v>304.21003208389999</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -9143,10 +9161,10 @@
         <v>868</v>
       </c>
       <c r="C381">
-        <v>324</v>
+        <v>261</v>
       </c>
       <c r="D381" s="29">
-        <v>222.9240200632</v>
+        <v>179.57768282870001</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -9157,10 +9175,10 @@
         <v>870</v>
       </c>
       <c r="C382">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="D382" s="29">
-        <v>126.03806349520001</v>
+        <v>65.819877602999995</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -9171,10 +9189,10 @@
         <v>872</v>
       </c>
       <c r="C383">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D383" s="29">
-        <v>55.420650025900002</v>
+        <v>45.211582915900003</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -9185,10 +9203,10 @@
         <v>874</v>
       </c>
       <c r="C384">
-        <v>380</v>
+        <v>283</v>
       </c>
       <c r="D384" s="29">
-        <v>127.14855970799999</v>
+        <v>94.692216835099998</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -9199,10 +9217,10 @@
         <v>876</v>
       </c>
       <c r="C385">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="D385" s="29">
-        <v>175.11808638529999</v>
+        <v>137.25471635599999</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -9213,10 +9231,10 @@
         <v>878</v>
       </c>
       <c r="C386">
-        <v>561</v>
+        <v>384</v>
       </c>
       <c r="D386" s="29">
-        <v>248.233383629</v>
+        <v>169.9137599172</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -9227,10 +9245,10 @@
         <v>880</v>
       </c>
       <c r="C387">
-        <v>332</v>
+        <v>466</v>
       </c>
       <c r="D387" s="29">
-        <v>140.903052758</v>
+        <v>197.77356200369999</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -9241,10 +9259,10 @@
         <v>882</v>
       </c>
       <c r="C388">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D388" s="29">
-        <v>80.996163808099993</v>
+        <v>85.001468611799993</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -9255,10 +9273,10 @@
         <v>884</v>
       </c>
       <c r="C389">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D389" s="29">
-        <v>74.2011014741</v>
+        <v>77.498928206299993</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -9269,10 +9287,10 @@
         <v>886</v>
       </c>
       <c r="C390">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="D390" s="29">
-        <v>155.36488370009999</v>
+        <v>131.70850223139999</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -9283,10 +9301,10 @@
         <v>888</v>
       </c>
       <c r="C391">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D391" s="29">
-        <v>139.1788448156</v>
+        <v>109.35480664080001</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -9297,10 +9315,10 @@
         <v>890</v>
       </c>
       <c r="C392">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="D392" s="29">
-        <v>169.52202706590001</v>
+        <v>155.48517132160001</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -9311,10 +9329,10 @@
         <v>892</v>
       </c>
       <c r="C393">
-        <v>309</v>
+        <v>211</v>
       </c>
       <c r="D393" s="29">
-        <v>259.72061122600002</v>
+        <v>177.34967303779999</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -9325,10 +9343,10 @@
         <v>894</v>
       </c>
       <c r="C394">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D394" s="29">
-        <v>159.09037737169999</v>
+        <v>105.2803967901</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -9339,10 +9357,10 @@
         <v>896</v>
       </c>
       <c r="C395">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="D395" s="29">
-        <v>118.8384830009</v>
+        <v>66.431450124700007</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -9353,10 +9371,10 @@
         <v>898</v>
       </c>
       <c r="C396">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="D396" s="29">
-        <v>203.9001655731</v>
+        <v>237.62801250999999</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -9367,10 +9385,10 @@
         <v>900</v>
       </c>
       <c r="C397">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="D397" s="29">
-        <v>327.42587272989999</v>
+        <v>265.34884853210002</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -9381,10 +9399,10 @@
         <v>902</v>
       </c>
       <c r="C398">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="D398" s="29">
-        <v>183.67217683199999</v>
+        <v>135.115164566</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -9395,10 +9413,10 @@
         <v>904</v>
       </c>
       <c r="C399">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D399" s="29">
-        <v>147.074898886</v>
+        <v>129.18741118369999</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -9409,10 +9427,10 @@
         <v>906</v>
       </c>
       <c r="C400">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="D400" s="29">
-        <v>93.917943544899998</v>
+        <v>90.222098544299996</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -9423,10 +9441,10 @@
         <v>908</v>
       </c>
       <c r="C401">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="D401" s="29">
-        <v>89.181897203800006</v>
+        <v>176.10602485800001</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -9437,10 +9455,10 @@
         <v>910</v>
       </c>
       <c r="C402">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="D402" s="29">
-        <v>98.561692685599994</v>
+        <v>69.835169189300004</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -9451,10 +9469,10 @@
         <v>912</v>
       </c>
       <c r="C403">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="D403" s="29">
-        <v>107.6736968077</v>
+        <v>111.24119881039999</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -9465,10 +9483,10 @@
         <v>914</v>
       </c>
       <c r="C404">
-        <v>324</v>
+        <v>231</v>
       </c>
       <c r="D404" s="29">
-        <v>116.3483844093</v>
+        <v>82.952088884399998</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -9479,10 +9497,10 @@
         <v>916</v>
       </c>
       <c r="C405">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D405" s="29">
-        <v>89.369028374699994</v>
+        <v>70.969522532799999</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -9493,10 +9511,10 @@
         <v>918</v>
       </c>
       <c r="C406">
-        <v>546</v>
+        <v>374</v>
       </c>
       <c r="D406" s="29">
-        <v>436.9642985763</v>
+        <v>299.3125415156</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -9507,10 +9525,10 @@
         <v>920</v>
       </c>
       <c r="C407">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D407" s="29">
-        <v>149.3166567122</v>
+        <v>73.779995081300001</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -9521,10 +9539,10 @@
         <v>922</v>
       </c>
       <c r="C408">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D408" s="29">
-        <v>69.385230141600005</v>
+        <v>58.517663974900003</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -9535,10 +9553,10 @@
         <v>924</v>
       </c>
       <c r="C409">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D409" s="29">
-        <v>82.012687845200006</v>
+        <v>67.539860578399995</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -9549,10 +9567,10 @@
         <v>926</v>
       </c>
       <c r="C410">
-        <v>218</v>
+        <v>127</v>
       </c>
       <c r="D410" s="29">
-        <v>260.94658973930001</v>
+        <v>152.01934356370001</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -9563,10 +9581,10 @@
         <v>928</v>
       </c>
       <c r="C411">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D411" s="29">
-        <v>268.3917142661</v>
+        <v>254.62803661140001</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -9577,10 +9595,10 @@
         <v>930</v>
       </c>
       <c r="C412">
-        <v>531</v>
+        <v>445</v>
       </c>
       <c r="D412" s="29">
-        <v>149.53534215709999</v>
+        <v>125.3168121656</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -9591,10 +9609,10 @@
         <v>932</v>
       </c>
       <c r="C413">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D413" s="29">
-        <v>89.890099582600001</v>
+        <v>99.269936060800006</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -9605,10 +9623,10 @@
         <v>934</v>
       </c>
       <c r="C414">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="D414" s="29">
-        <v>79.481460487199996</v>
+        <v>64.078076671900007</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -9619,10 +9637,10 @@
         <v>936</v>
       </c>
       <c r="C415">
-        <v>304</v>
+        <v>183</v>
       </c>
       <c r="D415" s="29">
-        <v>160.53822552450001</v>
+        <v>96.639787075599997</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -9633,10 +9651,10 @@
         <v>938</v>
       </c>
       <c r="C416">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D416" s="29">
-        <v>35.094902465399997</v>
+        <v>55.566928903600001</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -9647,10 +9665,10 @@
         <v>940</v>
       </c>
       <c r="C417">
-        <v>952</v>
+        <v>470</v>
       </c>
       <c r="D417" s="29">
-        <v>302.2203033632</v>
+        <v>149.2054018705</v>
       </c>
     </row>
   </sheetData>
@@ -9665,8 +9683,8 @@
   <dimension ref="A2:S510"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I303" sqref="I303"/>
+      <pane ySplit="3" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H334" sqref="H334:H335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9680,7 +9698,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -16752,7 +16770,7 @@
         <v>3</v>
       </c>
       <c r="D263" s="3">
-        <f t="shared" ref="D263:D329" si="46">B263-B262</f>
+        <f t="shared" ref="D263:D331" si="46">B263-B262</f>
         <v>15332</v>
       </c>
       <c r="E263" s="3">
@@ -18649,15 +18667,15 @@
         <v>41577</v>
       </c>
       <c r="F326" s="3">
-        <f t="shared" ref="F326:F329" si="168">E326-E325</f>
+        <f t="shared" ref="F326:F331" si="168">E326-E325</f>
         <v>891</v>
       </c>
       <c r="G326" s="4">
-        <f t="shared" ref="G326:G329" si="169">E326/B326</f>
+        <f t="shared" ref="G326:G331" si="169">E326/B326</f>
         <v>2.1499866068612171E-2</v>
       </c>
       <c r="H326" s="3">
-        <f t="shared" ref="H326:H329" si="170">B326-E326</f>
+        <f t="shared" ref="H326:H331" si="170">B326-E326</f>
         <v>1892249</v>
       </c>
     </row>
@@ -18723,7 +18741,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="26" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B329" s="32">
         <v>2000958</v>
@@ -18752,28 +18770,178 @@
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A330" s="26"/>
-      <c r="G330" s="4"/>
+      <c r="A330" s="26" t="s">
+        <v>983</v>
+      </c>
+      <c r="B330" s="32">
+        <v>2019636</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D330" s="3">
+        <f t="shared" si="46"/>
+        <v>18678</v>
+      </c>
+      <c r="E330" s="3">
+        <v>45974</v>
+      </c>
+      <c r="F330" s="3">
+        <f t="shared" si="168"/>
+        <v>980</v>
+      </c>
+      <c r="G330" s="4">
+        <f t="shared" si="169"/>
+        <v>2.2763507879637716E-2</v>
+      </c>
+      <c r="H330" s="3">
+        <f t="shared" si="170"/>
+        <v>1973662</v>
+      </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A331" s="26"/>
-      <c r="G331" s="4"/>
+      <c r="A331" s="26" t="s">
+        <v>984</v>
+      </c>
+      <c r="B331" s="32">
+        <v>2033518</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D331" s="3">
+        <f t="shared" si="46"/>
+        <v>13882</v>
+      </c>
+      <c r="E331" s="3">
+        <v>46419</v>
+      </c>
+      <c r="F331" s="3">
+        <f t="shared" si="168"/>
+        <v>445</v>
+      </c>
+      <c r="G331" s="4">
+        <f t="shared" si="169"/>
+        <v>2.2826943257940182E-2</v>
+      </c>
+      <c r="H331" s="3">
+        <f t="shared" si="170"/>
+        <v>1987099</v>
+      </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A332" s="26"/>
-      <c r="G332" s="4"/>
+      <c r="A332" s="26" t="s">
+        <v>985</v>
+      </c>
+      <c r="B332" s="32">
+        <v>2040659</v>
+      </c>
+      <c r="D332" s="3">
+        <f t="shared" ref="D332" si="171">B332-B331</f>
+        <v>7141</v>
+      </c>
+      <c r="E332" s="3">
+        <v>46633</v>
+      </c>
+      <c r="F332" s="3">
+        <f t="shared" ref="F332" si="172">E332-E331</f>
+        <v>214</v>
+      </c>
+      <c r="G332" s="4">
+        <f t="shared" ref="G332" si="173">E332/B332</f>
+        <v>2.2851931655411314E-2</v>
+      </c>
+      <c r="H332" s="3">
+        <f t="shared" ref="H332" si="174">B332-E332</f>
+        <v>1994026</v>
+      </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A333" s="26"/>
-      <c r="G333" s="4"/>
+      <c r="A333" s="26" t="s">
+        <v>986</v>
+      </c>
+      <c r="B333" s="32">
+        <v>2052028</v>
+      </c>
+      <c r="D333" s="3">
+        <f t="shared" ref="D333:D335" si="175">B333-B332</f>
+        <v>11369</v>
+      </c>
+      <c r="E333" s="3">
+        <v>47622</v>
+      </c>
+      <c r="F333" s="3">
+        <f t="shared" ref="F333" si="176">E333-E332</f>
+        <v>989</v>
+      </c>
+      <c r="G333" s="4">
+        <f t="shared" ref="G333" si="177">E333/B333</f>
+        <v>2.3207285670565899E-2</v>
+      </c>
+      <c r="H333" s="3">
+        <f t="shared" ref="H333" si="178">B333-E333</f>
+        <v>2004406</v>
+      </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A334" s="26"/>
-      <c r="G334" s="4"/>
+      <c r="A334" s="26" t="s">
+        <v>987</v>
+      </c>
+      <c r="B334" s="32">
+        <v>2068002</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D334" s="3">
+        <f t="shared" si="175"/>
+        <v>15974</v>
+      </c>
+      <c r="E334" s="3">
+        <v>48770</v>
+      </c>
+      <c r="F334" s="3">
+        <f t="shared" ref="F334:F335" si="179">E334-E333</f>
+        <v>1148</v>
+      </c>
+      <c r="G334" s="4">
+        <f t="shared" ref="G334:G335" si="180">E334/B334</f>
+        <v>2.3583149339313984E-2</v>
+      </c>
+      <c r="H334" s="3">
+        <f t="shared" ref="H334:H335" si="181">B334-E334</f>
+        <v>2019232</v>
+      </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A335" s="26"/>
-      <c r="G335" s="4"/>
+      <c r="A335" s="26" t="s">
+        <v>989</v>
+      </c>
+      <c r="B335" s="32">
+        <v>2088400</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D335" s="3">
+        <f t="shared" si="175"/>
+        <v>20398</v>
+      </c>
+      <c r="E335" s="3">
+        <v>49783</v>
+      </c>
+      <c r="F335" s="3">
+        <f t="shared" si="179"/>
+        <v>1013</v>
+      </c>
+      <c r="G335" s="4">
+        <f t="shared" si="180"/>
+        <v>2.3837866309136181E-2</v>
+      </c>
+      <c r="H335" s="3">
+        <f t="shared" si="181"/>
+        <v>2038617</v>
+      </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="26"/>
@@ -19484,10 +19652,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A2:IY20"/>
+  <dimension ref="A2:JH20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="IU21" sqref="IU21"/>
+      <selection activeCell="JB20" sqref="JB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19496,12 +19664,12 @@
     <col min="2" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="3" spans="1:259" x14ac:dyDescent="0.25">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:268" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>43957</v>
       </c>
@@ -20276,8 +20444,23 @@
       <c r="IY3" s="5">
         <v>44214</v>
       </c>
-    </row>
-    <row r="4" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="IZ3" s="5">
+        <v>44215</v>
+      </c>
+      <c r="JA3" s="5">
+        <v>44216</v>
+      </c>
+      <c r="JB3" s="5">
+        <v>44217</v>
+      </c>
+      <c r="JC3" s="5"/>
+      <c r="JD3" s="5"/>
+      <c r="JE3" s="5"/>
+      <c r="JF3" s="5"/>
+      <c r="JG3" s="5"/>
+      <c r="JH3" s="5"/>
+    </row>
+    <row r="4" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -21046,8 +21229,26 @@
       <c r="IV4" s="3">
         <v>14555</v>
       </c>
-    </row>
-    <row r="5" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="IW4" s="3">
+        <v>13665</v>
+      </c>
+      <c r="IX4" s="3">
+        <v>12318</v>
+      </c>
+      <c r="IY4" s="3">
+        <v>13164</v>
+      </c>
+      <c r="IZ4" s="3">
+        <v>12479</v>
+      </c>
+      <c r="JA4" s="3">
+        <v>11637</v>
+      </c>
+      <c r="JB4" s="3">
+        <v>10979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -21816,8 +22017,26 @@
       <c r="IV5" s="3">
         <v>20469</v>
       </c>
-    </row>
-    <row r="6" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="IW5" s="3">
+        <v>19449</v>
+      </c>
+      <c r="IX5" s="3">
+        <v>18598</v>
+      </c>
+      <c r="IY5" s="3">
+        <v>17121</v>
+      </c>
+      <c r="IZ5" s="3">
+        <v>17867</v>
+      </c>
+      <c r="JA5" s="3">
+        <v>16823</v>
+      </c>
+      <c r="JB5" s="3">
+        <v>15715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -22586,8 +22805,26 @@
       <c r="IV6" s="3">
         <v>6103</v>
       </c>
-    </row>
-    <row r="7" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="IW6" s="3">
+        <v>5791</v>
+      </c>
+      <c r="IX6" s="3">
+        <v>5886</v>
+      </c>
+      <c r="IY6" s="3">
+        <v>5889</v>
+      </c>
+      <c r="IZ6" s="3">
+        <v>5058</v>
+      </c>
+      <c r="JA6" s="3">
+        <v>4713</v>
+      </c>
+      <c r="JB6" s="3">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -23356,8 +23593,26 @@
       <c r="IV7" s="3">
         <v>5553</v>
       </c>
-    </row>
-    <row r="8" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="IW7" s="3">
+        <v>5086</v>
+      </c>
+      <c r="IX7" s="3">
+        <v>5193</v>
+      </c>
+      <c r="IY7" s="3">
+        <v>5196</v>
+      </c>
+      <c r="IZ7" s="3">
+        <v>5685</v>
+      </c>
+      <c r="JA7" s="3">
+        <v>5266</v>
+      </c>
+      <c r="JB7" s="3">
+        <v>5126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -24126,8 +24381,26 @@
       <c r="IV8" s="3">
         <v>536</v>
       </c>
-    </row>
-    <row r="9" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="IW8" s="3">
+        <v>545</v>
+      </c>
+      <c r="IX8" s="3">
+        <v>588</v>
+      </c>
+      <c r="IY8" s="3">
+        <v>590</v>
+      </c>
+      <c r="IZ8" s="3">
+        <v>567</v>
+      </c>
+      <c r="JA8" s="3">
+        <v>535</v>
+      </c>
+      <c r="JB8" s="3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -24896,8 +25169,26 @@
       <c r="IV9" s="3">
         <v>1929</v>
       </c>
-    </row>
-    <row r="10" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="IW9" s="3">
+        <v>1836</v>
+      </c>
+      <c r="IX9" s="3">
+        <v>2011</v>
+      </c>
+      <c r="IY9" s="3">
+        <v>1813</v>
+      </c>
+      <c r="IZ9" s="3">
+        <v>1724</v>
+      </c>
+      <c r="JA9" s="3">
+        <v>1586</v>
+      </c>
+      <c r="JB9" s="3">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -25666,8 +25957,26 @@
       <c r="IV10" s="3">
         <v>8584</v>
       </c>
-    </row>
-    <row r="11" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="IW10" s="3">
+        <v>8106</v>
+      </c>
+      <c r="IX10" s="3">
+        <v>8164</v>
+      </c>
+      <c r="IY10" s="3">
+        <v>8130</v>
+      </c>
+      <c r="IZ10" s="3">
+        <v>7855</v>
+      </c>
+      <c r="JA10" s="3">
+        <v>7605</v>
+      </c>
+      <c r="JB10" s="3">
+        <v>7499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
@@ -26436,8 +26745,26 @@
       <c r="IV11" s="3">
         <v>1899</v>
       </c>
-    </row>
-    <row r="12" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="IW11" s="3">
+        <v>1862</v>
+      </c>
+      <c r="IX11" s="3">
+        <v>1909</v>
+      </c>
+      <c r="IY11" s="3">
+        <v>1953</v>
+      </c>
+      <c r="IZ11" s="3">
+        <v>1911</v>
+      </c>
+      <c r="JA11" s="3">
+        <v>1803</v>
+      </c>
+      <c r="JB11" s="3">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -27206,8 +27533,26 @@
       <c r="IV12" s="3">
         <v>7431</v>
       </c>
-    </row>
-    <row r="13" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="IW12" s="3">
+        <v>7889</v>
+      </c>
+      <c r="IX12" s="3">
+        <v>7317</v>
+      </c>
+      <c r="IY12" s="3">
+        <v>7788</v>
+      </c>
+      <c r="IZ12" s="3">
+        <v>7849</v>
+      </c>
+      <c r="JA12" s="3">
+        <v>7221</v>
+      </c>
+      <c r="JB12" s="3">
+        <v>7216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -27976,8 +28321,26 @@
       <c r="IV13" s="3">
         <v>22968</v>
       </c>
-    </row>
-    <row r="14" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="IW13" s="3">
+        <v>21919</v>
+      </c>
+      <c r="IX13" s="3">
+        <v>22084</v>
+      </c>
+      <c r="IY13" s="3">
+        <v>21710</v>
+      </c>
+      <c r="IZ13" s="3">
+        <v>21122</v>
+      </c>
+      <c r="JA13" s="3">
+        <v>20286</v>
+      </c>
+      <c r="JB13" s="3">
+        <v>19851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
@@ -28746,8 +29109,26 @@
       <c r="IV14" s="3">
         <v>4858</v>
       </c>
-    </row>
-    <row r="15" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="IW14" s="3">
+        <v>4655</v>
+      </c>
+      <c r="IX14" s="3">
+        <v>4366</v>
+      </c>
+      <c r="IY14" s="3">
+        <v>3970</v>
+      </c>
+      <c r="IZ14" s="3">
+        <v>4357</v>
+      </c>
+      <c r="JA14" s="3">
+        <v>4115</v>
+      </c>
+      <c r="JB14" s="3">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -29516,8 +29897,26 @@
       <c r="IV15" s="3">
         <v>1379</v>
       </c>
-    </row>
-    <row r="16" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="IW15" s="3">
+        <v>1174</v>
+      </c>
+      <c r="IX15" s="3">
+        <v>1091</v>
+      </c>
+      <c r="IY15" s="3">
+        <v>1062</v>
+      </c>
+      <c r="IZ15" s="3">
+        <v>1047</v>
+      </c>
+      <c r="JA15" s="3">
+        <v>1092</v>
+      </c>
+      <c r="JB15" s="3">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="16" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -30286,8 +30685,26 @@
       <c r="IV16" s="3">
         <v>11158</v>
       </c>
-    </row>
-    <row r="17" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="IW16" s="3">
+        <v>10416</v>
+      </c>
+      <c r="IX16" s="3">
+        <v>10287</v>
+      </c>
+      <c r="IY16" s="3">
+        <v>9974</v>
+      </c>
+      <c r="IZ16" s="3">
+        <v>9189</v>
+      </c>
+      <c r="JA16" s="3">
+        <v>7862</v>
+      </c>
+      <c r="JB16" s="3">
+        <v>7572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -31056,8 +31473,26 @@
       <c r="IV17" s="3">
         <v>5336</v>
       </c>
-    </row>
-    <row r="18" spans="1:256" x14ac:dyDescent="0.25">
+      <c r="IW17" s="3">
+        <v>5148</v>
+      </c>
+      <c r="IX17" s="3">
+        <v>4954</v>
+      </c>
+      <c r="IY17" s="3">
+        <v>5001</v>
+      </c>
+      <c r="IZ17" s="3">
+        <v>4651</v>
+      </c>
+      <c r="JA17" s="3">
+        <v>4494</v>
+      </c>
+      <c r="JB17" s="3">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -31826,8 +32261,26 @@
       <c r="IV18" s="3">
         <v>2627</v>
       </c>
-    </row>
-    <row r="19" spans="1:256" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="IW18" s="3">
+        <v>2535</v>
+      </c>
+      <c r="IX18" s="3">
+        <v>2502</v>
+      </c>
+      <c r="IY18" s="3">
+        <v>2575</v>
+      </c>
+      <c r="IZ18" s="3">
+        <v>2537</v>
+      </c>
+      <c r="JA18" s="3">
+        <v>2594</v>
+      </c>
+      <c r="JB18" s="3">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:262" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -32596,8 +33049,26 @@
       <c r="IV19" s="3">
         <v>6136</v>
       </c>
-    </row>
-    <row r="20" spans="1:256" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="IW19" s="3">
+        <v>5724</v>
+      </c>
+      <c r="IX19" s="3">
+        <v>5851</v>
+      </c>
+      <c r="IY19" s="3">
+        <v>5849</v>
+      </c>
+      <c r="IZ19" s="3">
+        <v>5467</v>
+      </c>
+      <c r="JA19" s="3">
+        <v>5072</v>
+      </c>
+      <c r="JB19" s="3">
+        <v>4801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:262" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -33408,6 +33879,24 @@
       </c>
       <c r="IV20" s="12">
         <v>121521</v>
+      </c>
+      <c r="IW20" s="12">
+        <v>115800</v>
+      </c>
+      <c r="IX20" s="12">
+        <v>113119</v>
+      </c>
+      <c r="IY20" s="12">
+        <v>111785</v>
+      </c>
+      <c r="IZ20" s="12">
+        <v>109365</v>
+      </c>
+      <c r="JA20" s="12">
+        <v>102704</v>
+      </c>
+      <c r="JB20" s="12">
+        <v>98946</v>
       </c>
     </row>
   </sheetData>
@@ -33419,11 +33908,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Tabelle5"/>
-  <dimension ref="A2:IZ20"/>
+  <dimension ref="A2:JC21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E28" sqref="E28"/>
+      <selection pane="topRight" activeCell="JC8" sqref="JC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33490,12 +33979,12 @@
     <col min="221" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="3" spans="1:260" x14ac:dyDescent="0.25">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:263" x14ac:dyDescent="0.25">
       <c r="C3" s="5">
         <v>43957</v>
       </c>
@@ -34270,8 +34759,17 @@
       <c r="IZ3" s="5">
         <v>44214</v>
       </c>
-    </row>
-    <row r="4" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="JA3" s="5">
+        <v>44215</v>
+      </c>
+      <c r="JB3" s="5">
+        <v>44216</v>
+      </c>
+      <c r="JC3" s="5">
+        <v>44217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -35043,11 +35541,26 @@
       <c r="IW4" s="13">
         <v>131.12147190451077</v>
       </c>
-      <c r="IX4" s="13"/>
-      <c r="IY4" s="13"/>
-      <c r="IZ4" s="13"/>
-    </row>
-    <row r="5" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="IX4" s="13">
+        <v>123.10373847991342</v>
+      </c>
+      <c r="IY4" s="13">
+        <v>110.96903407212392</v>
+      </c>
+      <c r="IZ4" s="13">
+        <v>118.59038517011199</v>
+      </c>
+      <c r="JA4" s="13">
+        <v>112.41943303994435</v>
+      </c>
+      <c r="JB4" s="13">
+        <v>104.83411669892078</v>
+      </c>
+      <c r="JC4" s="13">
+        <v>98.906399178263399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -35819,11 +36332,26 @@
       <c r="IW5" s="13">
         <v>155.95741080373648</v>
       </c>
-      <c r="IX5" s="13"/>
-      <c r="IY5" s="13"/>
-      <c r="IZ5" s="13"/>
-    </row>
-    <row r="6" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="IX5" s="13">
+        <v>148.18582650456159</v>
+      </c>
+      <c r="IY5" s="13">
+        <v>141.70188705495585</v>
+      </c>
+      <c r="IZ5" s="13">
+        <v>130.44832822173885</v>
+      </c>
+      <c r="JA5" s="13">
+        <v>136.13225164054717</v>
+      </c>
+      <c r="JB5" s="13">
+        <v>128.17780653433283</v>
+      </c>
+      <c r="JC5" s="13">
+        <v>119.73573260934675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -36595,11 +37123,26 @@
       <c r="IW6" s="13">
         <v>166.3173448306591</v>
       </c>
-      <c r="IX6" s="13"/>
-      <c r="IY6" s="13"/>
-      <c r="IZ6" s="13"/>
-    </row>
-    <row r="7" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="IX6" s="13">
+        <v>157.81480319750071</v>
+      </c>
+      <c r="IY6" s="13">
+        <v>160.4037181178534</v>
+      </c>
+      <c r="IZ6" s="13">
+        <v>160.48547332586455</v>
+      </c>
+      <c r="JA6" s="13">
+        <v>137.83928070677922</v>
+      </c>
+      <c r="JB6" s="13">
+        <v>128.43743178549832</v>
+      </c>
+      <c r="JC6" s="13">
+        <v>115.68361933576074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -37371,11 +37914,26 @@
       <c r="IW7" s="13">
         <v>220.19173692143164</v>
       </c>
-      <c r="IX7" s="13"/>
-      <c r="IY7" s="13"/>
-      <c r="IZ7" s="13"/>
-    </row>
-    <row r="8" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="IX7" s="13">
+        <v>201.67390131143551</v>
+      </c>
+      <c r="IY7" s="13">
+        <v>205.91674587304064</v>
+      </c>
+      <c r="IZ7" s="13">
+        <v>206.03570413177721</v>
+      </c>
+      <c r="JA7" s="13">
+        <v>225.42590030584171</v>
+      </c>
+      <c r="JB7" s="13">
+        <v>208.811396835631</v>
+      </c>
+      <c r="JC7" s="13">
+        <v>203.26001142792339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -38147,11 +38705,26 @@
       <c r="IW8" s="13">
         <v>78.684443087366162</v>
       </c>
-      <c r="IX8" s="13"/>
-      <c r="IY8" s="13"/>
-      <c r="IZ8" s="13"/>
-    </row>
-    <row r="9" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="IX8" s="13">
+        <v>80.005637094430142</v>
+      </c>
+      <c r="IY8" s="13">
+        <v>86.318008461513614</v>
+      </c>
+      <c r="IZ8" s="13">
+        <v>86.611607129750055</v>
+      </c>
+      <c r="JA8" s="13">
+        <v>83.235222445030985</v>
+      </c>
+      <c r="JB8" s="13">
+        <v>78.537643753247934</v>
+      </c>
+      <c r="JC8" s="13">
+        <v>76.629252409711071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -38923,11 +39496,26 @@
       <c r="IW9" s="13">
         <v>104.42532777047865</v>
       </c>
-      <c r="IX9" s="13"/>
-      <c r="IY9" s="13"/>
-      <c r="IZ9" s="13"/>
-    </row>
-    <row r="10" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="IX9" s="13">
+        <v>99.390825187454027</v>
+      </c>
+      <c r="IY9" s="13">
+        <v>108.86435155336059</v>
+      </c>
+      <c r="IZ9" s="13">
+        <v>98.145733150792012</v>
+      </c>
+      <c r="JA9" s="13">
+        <v>93.327768313273808</v>
+      </c>
+      <c r="JB9" s="13">
+        <v>85.857216093301787</v>
+      </c>
+      <c r="JC9" s="13">
+        <v>82.663284347081856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -39699,11 +40287,26 @@
       <c r="IW10" s="13">
         <v>136.51225811376446</v>
       </c>
-      <c r="IX10" s="13"/>
-      <c r="IY10" s="13"/>
-      <c r="IZ10" s="13"/>
-    </row>
-    <row r="11" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="IX10" s="13">
+        <v>128.91057365682369</v>
+      </c>
+      <c r="IY10" s="13">
+        <v>129.83295377921399</v>
+      </c>
+      <c r="IZ10" s="13">
+        <v>129.29224819022659</v>
+      </c>
+      <c r="JA10" s="13">
+        <v>124.91889416165189</v>
+      </c>
+      <c r="JB10" s="13">
+        <v>120.94311777203852</v>
+      </c>
+      <c r="JC10" s="13">
+        <v>119.25738858284247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>16</v>
       </c>
@@ -40475,11 +41078,26 @@
       <c r="IW11" s="13">
         <v>118.0868806035303</v>
       </c>
-      <c r="IX11" s="13"/>
-      <c r="IY11" s="13"/>
-      <c r="IZ11" s="13"/>
-    </row>
-    <row r="12" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="IX11" s="13">
+        <v>115.78608303516239</v>
+      </c>
+      <c r="IY11" s="13">
+        <v>118.70871778417026</v>
+      </c>
+      <c r="IZ11" s="13">
+        <v>121.44480137898613</v>
+      </c>
+      <c r="JA11" s="13">
+        <v>118.83308522029824</v>
+      </c>
+      <c r="JB11" s="13">
+        <v>112.11724366938658</v>
+      </c>
+      <c r="JC11" s="13">
+        <v>113.4231017487305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -41251,11 +41869,26 @@
       <c r="IW12" s="13">
         <v>92.961776459391047</v>
       </c>
-      <c r="IX12" s="13"/>
-      <c r="IY12" s="13"/>
-      <c r="IZ12" s="13"/>
-    </row>
-    <row r="13" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="IX12" s="13">
+        <v>98.69135439215934</v>
+      </c>
+      <c r="IY12" s="13">
+        <v>91.535636973942175</v>
+      </c>
+      <c r="IZ12" s="13">
+        <v>97.427844848033573</v>
+      </c>
+      <c r="JA12" s="13">
+        <v>98.190954572703589</v>
+      </c>
+      <c r="JB12" s="13">
+        <v>90.334677407248392</v>
+      </c>
+      <c r="JC12" s="13">
+        <v>90.272127429816422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -42027,11 +42660,26 @@
       <c r="IW13" s="13">
         <v>127.9752447468051</v>
       </c>
-      <c r="IX13" s="13"/>
-      <c r="IY13" s="13"/>
-      <c r="IZ13" s="13"/>
-    </row>
-    <row r="14" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="IX13" s="13">
+        <v>122.13032870102842</v>
+      </c>
+      <c r="IY13" s="13">
+        <v>123.04969109145087</v>
+      </c>
+      <c r="IZ13" s="13">
+        <v>120.96580300649332</v>
+      </c>
+      <c r="JA13" s="13">
+        <v>117.68952976062423</v>
+      </c>
+      <c r="JB13" s="13">
+        <v>113.03142698248381</v>
+      </c>
+      <c r="JC13" s="13">
+        <v>110.60765340773372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
@@ -42803,11 +43451,26 @@
       <c r="IW14" s="13">
         <v>118.66426732631429</v>
       </c>
-      <c r="IX14" s="13"/>
-      <c r="IY14" s="13"/>
-      <c r="IZ14" s="13"/>
-    </row>
-    <row r="15" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="IX14" s="13">
+        <v>113.70567402305332</v>
+      </c>
+      <c r="IY14" s="13">
+        <v>106.64639587210543</v>
+      </c>
+      <c r="IZ14" s="13">
+        <v>96.973474945547082</v>
+      </c>
+      <c r="JA14" s="13">
+        <v>106.4265567601382</v>
+      </c>
+      <c r="JB14" s="13">
+        <v>100.5153273050192</v>
+      </c>
+      <c r="JC14" s="13">
+        <v>101.22369777691362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -43579,11 +44242,26 @@
       <c r="IW15" s="13">
         <v>139.73230977812051</v>
       </c>
-      <c r="IX15" s="13"/>
-      <c r="IY15" s="13"/>
-      <c r="IZ15" s="13"/>
-    </row>
-    <row r="16" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="IX15" s="13">
+        <v>118.95992144997349</v>
+      </c>
+      <c r="IY15" s="13">
+        <v>110.54963739516278</v>
+      </c>
+      <c r="IZ15" s="13">
+        <v>107.61110441215661</v>
+      </c>
+      <c r="JA15" s="13">
+        <v>106.09117355887756</v>
+      </c>
+      <c r="JB15" s="13">
+        <v>110.65096611871471</v>
+      </c>
+      <c r="JC15" s="13">
+        <v>108.82704909477984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -44355,11 +45033,26 @@
       <c r="IW16" s="13">
         <v>274.01963324394995</v>
       </c>
-      <c r="IX16" s="13"/>
-      <c r="IY16" s="13"/>
-      <c r="IZ16" s="13"/>
-    </row>
-    <row r="17" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="IX16" s="13">
+        <v>255.79749954014898</v>
+      </c>
+      <c r="IY16" s="13">
+        <v>252.62950055390866</v>
+      </c>
+      <c r="IZ16" s="13">
+        <v>244.94280533923254</v>
+      </c>
+      <c r="JA16" s="13">
+        <v>225.66467197335146</v>
+      </c>
+      <c r="JB16" s="13">
+        <v>193.07603123892582</v>
+      </c>
+      <c r="JC16" s="13">
+        <v>185.95417305280415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -45131,11 +45824,26 @@
       <c r="IW17" s="13">
         <v>243.1220959530377</v>
       </c>
-      <c r="IX17" s="13"/>
-      <c r="IY17" s="13"/>
-      <c r="IZ17" s="13"/>
-    </row>
-    <row r="18" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="IX17" s="13">
+        <v>234.55632495619156</v>
+      </c>
+      <c r="IY17" s="13">
+        <v>225.71717828923326</v>
+      </c>
+      <c r="IZ17" s="13">
+        <v>227.85862103844482</v>
+      </c>
+      <c r="JA17" s="13">
+        <v>211.91170694857163</v>
+      </c>
+      <c r="JB17" s="13">
+        <v>204.7583769139714</v>
+      </c>
+      <c r="JC17" s="13">
+        <v>195.28135368341822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>23</v>
       </c>
@@ -45907,11 +46615,26 @@
       <c r="IW18" s="13">
         <v>90.468504252915096</v>
       </c>
-      <c r="IX18" s="13"/>
-      <c r="IY18" s="13"/>
-      <c r="IZ18" s="13"/>
-    </row>
-    <row r="19" spans="1:260" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="IX18" s="13">
+        <v>87.300212516612007</v>
+      </c>
+      <c r="IY18" s="13">
+        <v>86.163760045981562</v>
+      </c>
+      <c r="IZ18" s="13">
+        <v>88.67773066283074</v>
+      </c>
+      <c r="JA18" s="13">
+        <v>87.369088423922946</v>
+      </c>
+      <c r="JB18" s="13">
+        <v>89.332051782284637</v>
+      </c>
+      <c r="JC18" s="13">
+        <v>88.333351126276057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:263" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -46683,11 +47406,26 @@
       <c r="IW19" s="13">
         <v>287.61897797764857</v>
       </c>
-      <c r="IX19" s="13"/>
-      <c r="IY19" s="13"/>
-      <c r="IZ19" s="13"/>
-    </row>
-    <row r="20" spans="1:260" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="IX19" s="13">
+        <v>268.30688232465133</v>
+      </c>
+      <c r="IY19" s="13">
+        <v>274.25988268370628</v>
+      </c>
+      <c r="IZ19" s="13">
+        <v>274.16613464655586</v>
+      </c>
+      <c r="JA19" s="13">
+        <v>256.26025955081565</v>
+      </c>
+      <c r="JB19" s="13">
+        <v>237.74502221359739</v>
+      </c>
+      <c r="JC19" s="13">
+        <v>225.04216317970841</v>
+      </c>
+    </row>
+    <row r="20" spans="1:263" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -47459,9 +48197,28 @@
       <c r="IW20" s="15">
         <v>146.11735697952514</v>
       </c>
-      <c r="IX20" s="15"/>
-      <c r="IY20" s="15"/>
-      <c r="IZ20" s="15"/>
+      <c r="IX20" s="15">
+        <v>139.23840273063101</v>
+      </c>
+      <c r="IY20" s="15">
+        <v>136.01475715445812</v>
+      </c>
+      <c r="IZ20" s="15">
+        <v>134.41074999346793</v>
+      </c>
+      <c r="JA20" s="15">
+        <v>131.50093190531484</v>
+      </c>
+      <c r="JB20" s="15">
+        <v>123.49171773788191</v>
+      </c>
+      <c r="JC20" s="15">
+        <v>118.97308287206404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="JB21" s="13"/>
+      <c r="JC21" s="13"/>
     </row>
   </sheetData>
   <sortState ref="A4:HQ19">

--- a/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
+++ b/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD2F004-09F2-41D2-A84A-0B4C50E65E03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AE4F23-BF78-47C1-9C65-7FA00F7A7180}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="150" windowWidth="15270" windowHeight="10800" tabRatio="929" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="150" windowWidth="15270" windowHeight="10800" tabRatio="800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tageswerte berechnet" sheetId="9" r:id="rId1"/>
@@ -16,6 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_7Tage_LK001" localSheetId="1">'7Tage_LK'!$A$5:$D$417</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'7Tage_LK'!$A$5:$D$417</definedName>
     <definedName name="Tageswerte_berechnet001" localSheetId="0">'Tageswerte berechnet'!$A$5:$C$21</definedName>
     <definedName name="Tageswerte_berechnet002" localSheetId="0">'Tageswerte berechnet'!$A$30:$E$31</definedName>
     <definedName name="Tageswerte_berechnet003" localSheetId="0">'Tageswerte berechnet'!$A$35:$A$36</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="996">
   <si>
     <t>Todesfälle</t>
   </si>
@@ -2489,529 +2490,547 @@
     <t>07318</t>
   </si>
   <si>
+    <t>LK Stade</t>
+  </si>
+  <si>
+    <t>03359</t>
+  </si>
+  <si>
+    <t>LK Stadtverband Saarbrücken</t>
+  </si>
+  <si>
+    <t>10041</t>
+  </si>
+  <si>
+    <t>LK Starnberg</t>
+  </si>
+  <si>
+    <t>09188</t>
+  </si>
+  <si>
+    <t>LK Steinburg</t>
+  </si>
+  <si>
+    <t>01061</t>
+  </si>
+  <si>
+    <t>LK Steinfurt</t>
+  </si>
+  <si>
+    <t>05566</t>
+  </si>
+  <si>
+    <t>LK Stendal</t>
+  </si>
+  <si>
+    <t>15090</t>
+  </si>
+  <si>
+    <t>LK Stormarn</t>
+  </si>
+  <si>
+    <t>01062</t>
+  </si>
+  <si>
+    <t>SK Straubing</t>
+  </si>
+  <si>
+    <t>09263</t>
+  </si>
+  <si>
+    <t>LK Straubing-Bogen</t>
+  </si>
+  <si>
+    <t>09278</t>
+  </si>
+  <si>
+    <t>SK Stuttgart</t>
+  </si>
+  <si>
+    <t>08111</t>
+  </si>
+  <si>
+    <t>LK Südliche Weinstraße</t>
+  </si>
+  <si>
+    <t>07337</t>
+  </si>
+  <si>
+    <t>LK Südwestpfalz</t>
+  </si>
+  <si>
+    <t>07340</t>
+  </si>
+  <si>
+    <t>SK Suhl</t>
+  </si>
+  <si>
+    <t>16054</t>
+  </si>
+  <si>
+    <t>LK Teltow-Fläming</t>
+  </si>
+  <si>
+    <t>12072</t>
+  </si>
+  <si>
+    <t>LK Tirschenreuth</t>
+  </si>
+  <si>
+    <t>09377</t>
+  </si>
+  <si>
+    <t>LK Traunstein</t>
+  </si>
+  <si>
+    <t>09189</t>
+  </si>
+  <si>
+    <t>SK Trier</t>
+  </si>
+  <si>
+    <t>07211</t>
+  </si>
+  <si>
+    <t>LK Trier-Saarburg</t>
+  </si>
+  <si>
+    <t>07235</t>
+  </si>
+  <si>
+    <t>LK Tübingen</t>
+  </si>
+  <si>
+    <t>08416</t>
+  </si>
+  <si>
+    <t>LK Tuttlingen</t>
+  </si>
+  <si>
+    <t>08327</t>
+  </si>
+  <si>
+    <t>LK Uckermark</t>
+  </si>
+  <si>
+    <t>12073</t>
+  </si>
+  <si>
+    <t>LK Uelzen</t>
+  </si>
+  <si>
+    <t>03360</t>
+  </si>
+  <si>
+    <t>SK Ulm</t>
+  </si>
+  <si>
+    <t>08421</t>
+  </si>
+  <si>
+    <t>LK Unna</t>
+  </si>
+  <si>
+    <t>05978</t>
+  </si>
+  <si>
+    <t>LK Unstrut-Hainich-Kreis</t>
+  </si>
+  <si>
+    <t>16064</t>
+  </si>
+  <si>
+    <t>LK Unterallgäu</t>
+  </si>
+  <si>
+    <t>09778</t>
+  </si>
+  <si>
+    <t>LK Vechta</t>
+  </si>
+  <si>
+    <t>03460</t>
+  </si>
+  <si>
+    <t>LK Verden</t>
+  </si>
+  <si>
+    <t>03361</t>
+  </si>
+  <si>
+    <t>LK Viersen</t>
+  </si>
+  <si>
+    <t>05166</t>
+  </si>
+  <si>
+    <t>LK Vogelsbergkreis</t>
+  </si>
+  <si>
+    <t>06535</t>
+  </si>
+  <si>
+    <t>LK Vogtlandkreis</t>
+  </si>
+  <si>
+    <t>14523</t>
+  </si>
+  <si>
+    <t>LK Vorpommern-Greifswald</t>
+  </si>
+  <si>
+    <t>13075</t>
+  </si>
+  <si>
+    <t>LK Vorpommern-Rügen</t>
+  </si>
+  <si>
+    <t>13073</t>
+  </si>
+  <si>
+    <t>LK Vulkaneifel</t>
+  </si>
+  <si>
+    <t>07233</t>
+  </si>
+  <si>
+    <t>LK Waldeck-Frankenberg</t>
+  </si>
+  <si>
+    <t>06635</t>
+  </si>
+  <si>
+    <t>LK Waldshut</t>
+  </si>
+  <si>
+    <t>08337</t>
+  </si>
+  <si>
+    <t>LK Warendorf</t>
+  </si>
+  <si>
+    <t>05570</t>
+  </si>
+  <si>
+    <t>LK Wartburgkreis</t>
+  </si>
+  <si>
+    <t>16063</t>
+  </si>
+  <si>
+    <t>SK Weiden i.d.OPf.</t>
+  </si>
+  <si>
+    <t>09363</t>
+  </si>
+  <si>
+    <t>LK Weilheim-Schongau</t>
+  </si>
+  <si>
+    <t>09190</t>
+  </si>
+  <si>
+    <t>SK Weimar</t>
+  </si>
+  <si>
+    <t>16055</t>
+  </si>
+  <si>
+    <t>LK Weimarer Land</t>
+  </si>
+  <si>
+    <t>16071</t>
+  </si>
+  <si>
+    <t>LK Weißenburg-Gunzenhausen</t>
+  </si>
+  <si>
+    <t>09577</t>
+  </si>
+  <si>
+    <t>LK Werra-Meißner-Kreis</t>
+  </si>
+  <si>
+    <t>06636</t>
+  </si>
+  <si>
+    <t>LK Wesel</t>
+  </si>
+  <si>
+    <t>05170</t>
+  </si>
+  <si>
+    <t>LK Wesermarsch</t>
+  </si>
+  <si>
+    <t>03461</t>
+  </si>
+  <si>
+    <t>LK Westerwaldkreis</t>
+  </si>
+  <si>
+    <t>07143</t>
+  </si>
+  <si>
+    <t>LK Wetteraukreis</t>
+  </si>
+  <si>
+    <t>06440</t>
+  </si>
+  <si>
+    <t>SK Wiesbaden</t>
+  </si>
+  <si>
+    <t>06414</t>
+  </si>
+  <si>
+    <t>SK Wilhelmshaven</t>
+  </si>
+  <si>
+    <t>03405</t>
+  </si>
+  <si>
+    <t>LK Wittenberg</t>
+  </si>
+  <si>
+    <t>15091</t>
+  </si>
+  <si>
+    <t>LK Wittmund</t>
+  </si>
+  <si>
+    <t>03462</t>
+  </si>
+  <si>
+    <t>LK Wolfenbüttel</t>
+  </si>
+  <si>
+    <t>03158</t>
+  </si>
+  <si>
+    <t>SK Wolfsburg</t>
+  </si>
+  <si>
+    <t>03103</t>
+  </si>
+  <si>
+    <t>SK Worms</t>
+  </si>
+  <si>
+    <t>07319</t>
+  </si>
+  <si>
+    <t>LK Wunsiedel i.Fichtelgebirge</t>
+  </si>
+  <si>
+    <t>09479</t>
+  </si>
+  <si>
+    <t>SK Wuppertal</t>
+  </si>
+  <si>
+    <t>05124</t>
+  </si>
+  <si>
+    <t>SK Würzburg</t>
+  </si>
+  <si>
+    <t>09663</t>
+  </si>
+  <si>
+    <t>LK Würzburg</t>
+  </si>
+  <si>
+    <t>09679</t>
+  </si>
+  <si>
+    <t>LK Zollernalbkreis</t>
+  </si>
+  <si>
+    <t>08417</t>
+  </si>
+  <si>
+    <t>SK Zweibrücken</t>
+  </si>
+  <si>
+    <t>07320</t>
+  </si>
+  <si>
+    <t>LK Zwickau</t>
+  </si>
+  <si>
+    <t>14524</t>
+  </si>
+  <si>
+    <t>05.12.2020</t>
+  </si>
+  <si>
+    <t>06.12.2020</t>
+  </si>
+  <si>
+    <t>07.12.2020</t>
+  </si>
+  <si>
+    <t>08.12.2020</t>
+  </si>
+  <si>
+    <t>09.12.2020</t>
+  </si>
+  <si>
+    <t>10.12.2020</t>
+  </si>
+  <si>
+    <t>11.12.2020</t>
+  </si>
+  <si>
+    <t>12.12.2020</t>
+  </si>
+  <si>
+    <t>13.12.2020</t>
+  </si>
+  <si>
+    <t>14.12.2020</t>
+  </si>
+  <si>
+    <t>15.12.2020</t>
+  </si>
+  <si>
+    <t>16.12.2020</t>
+  </si>
+  <si>
+    <t>17.12.2020</t>
+  </si>
+  <si>
+    <t>18.12.2020</t>
+  </si>
+  <si>
+    <t>19.12.2020</t>
+  </si>
+  <si>
+    <t>20.12.2020</t>
+  </si>
+  <si>
+    <t>21.12.2020</t>
+  </si>
+  <si>
+    <t>22.12.2020</t>
+  </si>
+  <si>
+    <t>23.12.2020</t>
+  </si>
+  <si>
+    <t>24.12.2020</t>
+  </si>
+  <si>
+    <t>25.12.2020</t>
+  </si>
+  <si>
+    <t>26.12.2020</t>
+  </si>
+  <si>
+    <t>27.12.2020</t>
+  </si>
+  <si>
+    <t>28.12.2020</t>
+  </si>
+  <si>
+    <t>29.12.2020</t>
+  </si>
+  <si>
+    <t>30.12.2020</t>
+  </si>
+  <si>
+    <t>31.12.2020</t>
+  </si>
+  <si>
+    <t>01.01.2021</t>
+  </si>
+  <si>
+    <t>02.01.2021</t>
+  </si>
+  <si>
+    <t>03.01.2021</t>
+  </si>
+  <si>
+    <t>04.01.2021</t>
+  </si>
+  <si>
+    <t>05.01.2021</t>
+  </si>
+  <si>
+    <t>06.01.2021</t>
+  </si>
+  <si>
+    <t>07.01.2021</t>
+  </si>
+  <si>
+    <t>08.01.2021</t>
+  </si>
+  <si>
+    <t>09.01.2021</t>
+  </si>
+  <si>
+    <t>10.01.2021</t>
+  </si>
+  <si>
+    <t>11.01.2021</t>
+  </si>
+  <si>
+    <t>12.01.2021</t>
+  </si>
+  <si>
+    <t>13.01.2021</t>
+  </si>
+  <si>
+    <t>14.01.2021</t>
+  </si>
+  <si>
+    <t>15.01.2021</t>
+  </si>
+  <si>
+    <t>16.01.2021</t>
+  </si>
+  <si>
+    <t>17.01.2021</t>
+  </si>
+  <si>
+    <t>18.01.2021</t>
+  </si>
+  <si>
+    <t>19.01.2021</t>
+  </si>
+  <si>
+    <t>20.01.2021</t>
+  </si>
+  <si>
+    <t>21.01.2021</t>
+  </si>
+  <si>
+    <t>22.01.2021</t>
+  </si>
+  <si>
+    <t>23.01.2021</t>
+  </si>
+  <si>
+    <t>24.01.2021</t>
+  </si>
+  <si>
+    <t>25.01.2021</t>
+  </si>
+  <si>
+    <t>26.01.2021</t>
+  </si>
+  <si>
+    <t>Stand: 28.01.2021 06:22:37</t>
+  </si>
+  <si>
     <t>LK Spree-Neiße</t>
   </si>
   <si>
     <t>12071</t>
   </si>
   <si>
-    <t>LK Stade</t>
-  </si>
-  <si>
-    <t>03359</t>
-  </si>
-  <si>
-    <t>LK Stadtverband Saarbrücken</t>
-  </si>
-  <si>
-    <t>10041</t>
-  </si>
-  <si>
-    <t>LK Starnberg</t>
-  </si>
-  <si>
-    <t>09188</t>
-  </si>
-  <si>
-    <t>LK Steinburg</t>
-  </si>
-  <si>
-    <t>01061</t>
-  </si>
-  <si>
-    <t>LK Steinfurt</t>
-  </si>
-  <si>
-    <t>05566</t>
-  </si>
-  <si>
-    <t>LK Stendal</t>
-  </si>
-  <si>
-    <t>15090</t>
-  </si>
-  <si>
-    <t>LK Stormarn</t>
-  </si>
-  <si>
-    <t>01062</t>
-  </si>
-  <si>
-    <t>SK Straubing</t>
-  </si>
-  <si>
-    <t>09263</t>
-  </si>
-  <si>
-    <t>LK Straubing-Bogen</t>
-  </si>
-  <si>
-    <t>09278</t>
-  </si>
-  <si>
-    <t>SK Stuttgart</t>
-  </si>
-  <si>
-    <t>08111</t>
-  </si>
-  <si>
-    <t>LK Südliche Weinstraße</t>
-  </si>
-  <si>
-    <t>07337</t>
-  </si>
-  <si>
-    <t>LK Südwestpfalz</t>
-  </si>
-  <si>
-    <t>07340</t>
-  </si>
-  <si>
-    <t>SK Suhl</t>
-  </si>
-  <si>
-    <t>16054</t>
-  </si>
-  <si>
-    <t>LK Teltow-Fläming</t>
-  </si>
-  <si>
-    <t>12072</t>
-  </si>
-  <si>
-    <t>LK Tirschenreuth</t>
-  </si>
-  <si>
-    <t>09377</t>
-  </si>
-  <si>
-    <t>LK Traunstein</t>
-  </si>
-  <si>
-    <t>09189</t>
-  </si>
-  <si>
-    <t>SK Trier</t>
-  </si>
-  <si>
-    <t>07211</t>
-  </si>
-  <si>
-    <t>LK Trier-Saarburg</t>
-  </si>
-  <si>
-    <t>07235</t>
-  </si>
-  <si>
-    <t>LK Tübingen</t>
-  </si>
-  <si>
-    <t>08416</t>
-  </si>
-  <si>
-    <t>LK Tuttlingen</t>
-  </si>
-  <si>
-    <t>08327</t>
-  </si>
-  <si>
-    <t>LK Uckermark</t>
-  </si>
-  <si>
-    <t>12073</t>
-  </si>
-  <si>
-    <t>LK Uelzen</t>
-  </si>
-  <si>
-    <t>03360</t>
-  </si>
-  <si>
-    <t>SK Ulm</t>
-  </si>
-  <si>
-    <t>08421</t>
-  </si>
-  <si>
-    <t>LK Unna</t>
-  </si>
-  <si>
-    <t>05978</t>
-  </si>
-  <si>
-    <t>LK Unstrut-Hainich-Kreis</t>
-  </si>
-  <si>
-    <t>16064</t>
-  </si>
-  <si>
-    <t>LK Unterallgäu</t>
-  </si>
-  <si>
-    <t>09778</t>
-  </si>
-  <si>
-    <t>LK Vechta</t>
-  </si>
-  <si>
-    <t>03460</t>
-  </si>
-  <si>
-    <t>LK Verden</t>
-  </si>
-  <si>
-    <t>03361</t>
-  </si>
-  <si>
-    <t>LK Viersen</t>
-  </si>
-  <si>
-    <t>05166</t>
-  </si>
-  <si>
-    <t>LK Vogelsbergkreis</t>
-  </si>
-  <si>
-    <t>06535</t>
-  </si>
-  <si>
-    <t>LK Vogtlandkreis</t>
-  </si>
-  <si>
-    <t>14523</t>
-  </si>
-  <si>
-    <t>LK Vorpommern-Greifswald</t>
-  </si>
-  <si>
-    <t>13075</t>
-  </si>
-  <si>
-    <t>LK Vorpommern-Rügen</t>
-  </si>
-  <si>
-    <t>13073</t>
-  </si>
-  <si>
-    <t>LK Vulkaneifel</t>
-  </si>
-  <si>
-    <t>07233</t>
-  </si>
-  <si>
-    <t>LK Waldeck-Frankenberg</t>
-  </si>
-  <si>
-    <t>06635</t>
-  </si>
-  <si>
-    <t>LK Waldshut</t>
-  </si>
-  <si>
-    <t>08337</t>
-  </si>
-  <si>
-    <t>LK Warendorf</t>
-  </si>
-  <si>
-    <t>05570</t>
-  </si>
-  <si>
-    <t>LK Wartburgkreis</t>
-  </si>
-  <si>
-    <t>16063</t>
-  </si>
-  <si>
-    <t>SK Weiden i.d.OPf.</t>
-  </si>
-  <si>
-    <t>09363</t>
-  </si>
-  <si>
-    <t>LK Weilheim-Schongau</t>
-  </si>
-  <si>
-    <t>09190</t>
-  </si>
-  <si>
-    <t>SK Weimar</t>
-  </si>
-  <si>
-    <t>16055</t>
-  </si>
-  <si>
-    <t>LK Weimarer Land</t>
-  </si>
-  <si>
-    <t>16071</t>
-  </si>
-  <si>
-    <t>LK Weißenburg-Gunzenhausen</t>
-  </si>
-  <si>
-    <t>09577</t>
-  </si>
-  <si>
-    <t>LK Werra-Meißner-Kreis</t>
-  </si>
-  <si>
-    <t>06636</t>
-  </si>
-  <si>
-    <t>LK Wesel</t>
-  </si>
-  <si>
-    <t>05170</t>
-  </si>
-  <si>
-    <t>LK Wesermarsch</t>
-  </si>
-  <si>
-    <t>03461</t>
-  </si>
-  <si>
-    <t>LK Westerwaldkreis</t>
-  </si>
-  <si>
-    <t>07143</t>
-  </si>
-  <si>
-    <t>LK Wetteraukreis</t>
-  </si>
-  <si>
-    <t>06440</t>
-  </si>
-  <si>
-    <t>SK Wiesbaden</t>
-  </si>
-  <si>
-    <t>06414</t>
-  </si>
-  <si>
-    <t>SK Wilhelmshaven</t>
-  </si>
-  <si>
-    <t>03405</t>
-  </si>
-  <si>
-    <t>LK Wittenberg</t>
-  </si>
-  <si>
-    <t>15091</t>
-  </si>
-  <si>
-    <t>LK Wittmund</t>
-  </si>
-  <si>
-    <t>03462</t>
-  </si>
-  <si>
-    <t>LK Wolfenbüttel</t>
-  </si>
-  <si>
-    <t>03158</t>
-  </si>
-  <si>
-    <t>SK Wolfsburg</t>
-  </si>
-  <si>
-    <t>03103</t>
-  </si>
-  <si>
-    <t>SK Worms</t>
-  </si>
-  <si>
-    <t>07319</t>
-  </si>
-  <si>
-    <t>LK Wunsiedel i.Fichtelgebirge</t>
-  </si>
-  <si>
-    <t>09479</t>
-  </si>
-  <si>
-    <t>SK Wuppertal</t>
-  </si>
-  <si>
-    <t>05124</t>
-  </si>
-  <si>
-    <t>SK Würzburg</t>
-  </si>
-  <si>
-    <t>09663</t>
-  </si>
-  <si>
-    <t>LK Würzburg</t>
-  </si>
-  <si>
-    <t>09679</t>
-  </si>
-  <si>
-    <t>LK Zollernalbkreis</t>
-  </si>
-  <si>
-    <t>08417</t>
-  </si>
-  <si>
-    <t>SK Zweibrücken</t>
-  </si>
-  <si>
-    <t>07320</t>
-  </si>
-  <si>
-    <t>LK Zwickau</t>
-  </si>
-  <si>
-    <t>14524</t>
-  </si>
-  <si>
-    <t>05.12.2020</t>
-  </si>
-  <si>
-    <t>06.12.2020</t>
-  </si>
-  <si>
-    <t>07.12.2020</t>
-  </si>
-  <si>
-    <t>08.12.2020</t>
-  </si>
-  <si>
-    <t>09.12.2020</t>
-  </si>
-  <si>
-    <t>10.12.2020</t>
-  </si>
-  <si>
-    <t>11.12.2020</t>
-  </si>
-  <si>
-    <t>12.12.2020</t>
-  </si>
-  <si>
-    <t>13.12.2020</t>
-  </si>
-  <si>
-    <t>14.12.2020</t>
-  </si>
-  <si>
-    <t>15.12.2020</t>
-  </si>
-  <si>
-    <t>16.12.2020</t>
-  </si>
-  <si>
-    <t>17.12.2020</t>
-  </si>
-  <si>
-    <t>18.12.2020</t>
-  </si>
-  <si>
-    <t>19.12.2020</t>
-  </si>
-  <si>
-    <t>20.12.2020</t>
-  </si>
-  <si>
-    <t>21.12.2020</t>
-  </si>
-  <si>
-    <t>22.12.2020</t>
-  </si>
-  <si>
-    <t>23.12.2020</t>
-  </si>
-  <si>
-    <t>24.12.2020</t>
-  </si>
-  <si>
-    <t>25.12.2020</t>
-  </si>
-  <si>
-    <t>26.12.2020</t>
-  </si>
-  <si>
-    <t>27.12.2020</t>
-  </si>
-  <si>
-    <t>28.12.2020</t>
-  </si>
-  <si>
-    <t>29.12.2020</t>
-  </si>
-  <si>
-    <t>30.12.2020</t>
-  </si>
-  <si>
-    <t>31.12.2020</t>
-  </si>
-  <si>
-    <t>01.01.2021</t>
-  </si>
-  <si>
-    <t>02.01.2021</t>
-  </si>
-  <si>
-    <t>03.01.2021</t>
-  </si>
-  <si>
-    <t>04.01.2021</t>
-  </si>
-  <si>
-    <t>05.01.2021</t>
-  </si>
-  <si>
-    <t>06.01.2021</t>
-  </si>
-  <si>
-    <t>07.01.2021</t>
-  </si>
-  <si>
-    <t>08.01.2021</t>
-  </si>
-  <si>
-    <t>09.01.2021</t>
-  </si>
-  <si>
-    <t>10.01.2021</t>
-  </si>
-  <si>
-    <t>11.01.2021</t>
-  </si>
-  <si>
-    <t>12.01.2021</t>
-  </si>
-  <si>
-    <t>13.01.2021</t>
-  </si>
-  <si>
-    <t>14.01.2021</t>
-  </si>
-  <si>
-    <t>15.01.2021</t>
-  </si>
-  <si>
-    <t>16.01.2021</t>
-  </si>
-  <si>
-    <t>17.01.2021</t>
-  </si>
-  <si>
-    <t>18.01.2021</t>
-  </si>
-  <si>
-    <t>19.01.2021</t>
-  </si>
-  <si>
-    <t>20.01.2021</t>
-  </si>
-  <si>
-    <t>Stand: 21.01.2021 06:13:00</t>
-  </si>
-  <si>
-    <t>21.01.2021</t>
+    <t>28.01.2021</t>
   </si>
 </sst>
 </file>
@@ -3226,20 +3245,6 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet002" fillFormulas="1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
-    <queryTableFields count="5">
-      <queryTableField id="1" name="Berichtsdatum"/>
-      <queryTableField id="2" name="Fälle gesamt"/>
-      <queryTableField id="3"/>
-      <queryTableField id="4"/>
-      <queryTableField id="5" name="Todesfälle"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet001" fillFormulas="1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="4">
     <queryTableFields count="3">
@@ -3251,11 +3256,25 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet003" fillFormulas="1" connectionId="3" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" name="Bev"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet002" fillFormulas="1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
+    <queryTableFields count="5">
+      <queryTableField id="1" name="Berichtsdatum"/>
+      <queryTableField id="2" name="Fälle gesamt"/>
+      <queryTableField id="3"/>
+      <queryTableField id="4"/>
+      <queryTableField id="5" name="Todesfälle"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3615,7 +3634,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3634,10 +3653,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>10979</v>
+        <v>8770</v>
       </c>
       <c r="C6" s="29">
-        <v>98.906399178263399</v>
+        <v>79.006204644627928</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3645,10 +3664,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>15715</v>
+        <v>12737</v>
       </c>
       <c r="C7" s="29">
-        <v>119.73573260934675</v>
+        <v>97.045754135873352</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3656,10 +3675,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>4245</v>
+        <v>3273</v>
       </c>
       <c r="C8" s="29">
-        <v>115.68361933576074</v>
+        <v>89.194931940151918</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3667,10 +3686,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>5126</v>
+        <v>3818</v>
       </c>
       <c r="C9" s="29">
-        <v>203.26001142792339</v>
+        <v>151.39421061876931</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3678,10 +3697,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="C10" s="29">
-        <v>76.629252409711071</v>
+        <v>72.812469722637331</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3689,10 +3708,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>1527</v>
+        <v>1550</v>
       </c>
       <c r="C11" s="29">
-        <v>82.663284347081856</v>
+        <v>83.908376383743857</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3700,10 +3719,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>7499</v>
+        <v>6263</v>
       </c>
       <c r="C12" s="29">
-        <v>119.25738858284247</v>
+        <v>99.601150112593984</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3711,10 +3730,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1824</v>
+        <v>1618</v>
       </c>
       <c r="C13" s="29">
-        <v>113.4231017487305</v>
+        <v>100.61325582754714</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3722,10 +3741,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>7216</v>
+        <v>6104</v>
       </c>
       <c r="C14" s="29">
-        <v>90.272127429816422</v>
+        <v>76.36101244894671</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3733,10 +3752,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>19851</v>
+        <v>16712</v>
       </c>
       <c r="C15" s="29">
-        <v>110.60765340773372</v>
+        <v>93.117480416606</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3744,10 +3763,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>4144</v>
+        <v>3687</v>
       </c>
       <c r="C16" s="29">
-        <v>101.22369777691362</v>
+        <v>90.060756202577352</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3755,10 +3774,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>1074</v>
+        <v>1058</v>
       </c>
       <c r="C17" s="29">
-        <v>108.82704909477984</v>
+        <v>107.20578951794886</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3766,10 +3785,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>7572</v>
+        <v>5292</v>
       </c>
       <c r="C18" s="29">
-        <v>185.95417305280415</v>
+        <v>129.96163283088214</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3777,10 +3796,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>4286</v>
+        <v>3818</v>
       </c>
       <c r="C19" s="29">
-        <v>195.28135368341822</v>
+        <v>173.95805141467352</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3788,10 +3807,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>2565</v>
+        <v>2717</v>
       </c>
       <c r="C20" s="29">
-        <v>88.333351126276057</v>
+        <v>93.567920081907232</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3799,10 +3818,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>4801</v>
+        <v>3714</v>
       </c>
       <c r="C21" s="29">
-        <v>225.04216317970841</v>
+        <v>174.09010498842682</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3811,11 +3830,11 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B6:B21)</f>
-        <v>98946</v>
+        <v>81627</v>
       </c>
       <c r="C22" s="30">
         <f>B22/A36*100000</f>
-        <v>118.97308287206404</v>
+        <v>98.148645075070974</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3837,10 +3856,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="B31">
-        <v>2088400</v>
+        <v>2178828</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -3849,7 +3868,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>49783</v>
+        <v>54913</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -3873,20 +3892,20 @@
   <dimension ref="A2:D417"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C417"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3911,10 +3930,10 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>409</v>
+        <v>486</v>
       </c>
       <c r="D6" s="29">
-        <v>73.425656971099997</v>
+        <v>87.2490691637</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3925,10 +3944,10 @@
         <v>120</v>
       </c>
       <c r="C7">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D7" s="29">
-        <v>86.865611979799993</v>
+        <v>83.0220008302</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3939,10 +3958,10 @@
         <v>122</v>
       </c>
       <c r="C8">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D8" s="29">
-        <v>69.0653893283</v>
+        <v>64.609557758700007</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3953,10 +3972,10 @@
         <v>124</v>
       </c>
       <c r="C9">
-        <v>280</v>
+        <v>197</v>
       </c>
       <c r="D9" s="29">
-        <v>142.07716819909999</v>
+        <v>99.961436197200001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3967,10 +3986,10 @@
         <v>126</v>
       </c>
       <c r="C10">
-        <v>322</v>
+        <v>177</v>
       </c>
       <c r="D10" s="29">
-        <v>360.20717505840003</v>
+        <v>198.00208069979999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3981,10 +4000,10 @@
         <v>128</v>
       </c>
       <c r="C11">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D11" s="29">
-        <v>62.109390163400001</v>
+        <v>45.029307868499998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3995,10 +4014,10 @@
         <v>130</v>
       </c>
       <c r="C12">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D12" s="29">
-        <v>146.6822165847</v>
+        <v>123.8382648215</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4009,10 +4028,10 @@
         <v>132</v>
       </c>
       <c r="C13">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="D13" s="29">
-        <v>139.89023996559999</v>
+        <v>96.847089206899994</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4023,10 +4042,10 @@
         <v>134</v>
       </c>
       <c r="C14">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D14" s="29">
-        <v>94.072651846400007</v>
+        <v>88.675040674900004</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4037,10 +4056,10 @@
         <v>136</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D15" s="29">
-        <v>42.646954296700002</v>
+        <v>101.87883526429999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4051,10 +4070,10 @@
         <v>138</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D16" s="29">
-        <v>39.786897495399998</v>
+        <v>58.224728042000002</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4065,10 +4084,10 @@
         <v>140</v>
       </c>
       <c r="C17">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D17" s="29">
-        <v>64.873176943600001</v>
+        <v>47.253301724300002</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4079,10 +4098,10 @@
         <v>142</v>
       </c>
       <c r="C18">
-        <v>457</v>
+        <v>382</v>
       </c>
       <c r="D18" s="29">
-        <v>288.3535454236</v>
+        <v>241.03075350500001</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4093,10 +4112,10 @@
         <v>144</v>
       </c>
       <c r="C19">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="D19" s="29">
-        <v>253.60065074880001</v>
+        <v>145.93999712900001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4107,10 +4126,10 @@
         <v>146</v>
       </c>
       <c r="C20">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D20" s="29">
-        <v>86.678115401100001</v>
+        <v>87.761591843600002</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4121,10 +4140,10 @@
         <v>148</v>
       </c>
       <c r="C21">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D21" s="29">
-        <v>121.1233486381</v>
+        <v>146.47474719019999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4149,10 +4168,10 @@
         <v>152</v>
       </c>
       <c r="C23">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D23" s="29">
-        <v>115.6509835391</v>
+        <v>114.30228402260001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4163,10 +4182,10 @@
         <v>154</v>
       </c>
       <c r="C24">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D24" s="29">
-        <v>78.9054239588</v>
+        <v>72.198462922299996</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4177,10 +4196,10 @@
         <v>156</v>
       </c>
       <c r="C25">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D25" s="29">
-        <v>39.0101953673</v>
+        <v>18.450768079100001</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4191,10 +4210,10 @@
         <v>158</v>
       </c>
       <c r="C26">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="D26" s="29">
-        <v>96.479260727699995</v>
+        <v>116.8303547874</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4205,10 +4224,10 @@
         <v>160</v>
       </c>
       <c r="C27">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D27" s="29">
-        <v>92.991717925100005</v>
+        <v>73.618443357399997</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4219,10 +4238,10 @@
         <v>162</v>
       </c>
       <c r="C28">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="D28" s="29">
-        <v>156.6200385235</v>
+        <v>113.6758344122</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4233,10 +4252,10 @@
         <v>164</v>
       </c>
       <c r="C29">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="D29" s="29">
-        <v>107.88245502940001</v>
+        <v>125.86286420099999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4247,10 +4266,10 @@
         <v>166</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D30" s="29">
-        <v>61.610945003200001</v>
+        <v>28.993385883799998</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4261,10 +4280,10 @@
         <v>168</v>
       </c>
       <c r="C31">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="29">
-        <v>58.159823194099999</v>
+        <v>56.867382678699997</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4275,10 +4294,10 @@
         <v>170</v>
       </c>
       <c r="C32">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="D32" s="29">
-        <v>114.1591296725</v>
+        <v>96.491645318500005</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4289,10 +4308,10 @@
         <v>172</v>
       </c>
       <c r="C33">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D33" s="29">
-        <v>87.992053723699996</v>
+        <v>89.071710824600004</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4303,10 +4322,10 @@
         <v>174</v>
       </c>
       <c r="C34">
-        <v>905</v>
+        <v>407</v>
       </c>
       <c r="D34" s="29">
-        <v>301.91020756739999</v>
+        <v>135.77619279550001</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4317,10 +4336,10 @@
         <v>176</v>
       </c>
       <c r="C35">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D35" s="29">
-        <v>152.44106280840001</v>
+        <v>156.45266972440001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4331,10 +4350,10 @@
         <v>178</v>
       </c>
       <c r="C36">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D36" s="29">
-        <v>176.53187220250001</v>
+        <v>172.67325204510001</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4345,10 +4364,10 @@
         <v>180</v>
       </c>
       <c r="C37">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D37" s="29">
-        <v>181.25348110530001</v>
+        <v>194.46988076919999</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4359,10 +4378,10 @@
         <v>182</v>
       </c>
       <c r="C38">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="D38" s="29">
-        <v>146.8521121551</v>
+        <v>134.27535695789999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4373,10 +4392,10 @@
         <v>184</v>
       </c>
       <c r="C39">
-        <v>348</v>
+        <v>267</v>
       </c>
       <c r="D39" s="29">
-        <v>104.0666744418</v>
+        <v>79.844258838900004</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4387,10 +4406,10 @@
         <v>186</v>
       </c>
       <c r="C40">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="D40" s="29">
-        <v>87.924866783200002</v>
+        <v>67.007257346900005</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4401,10 +4420,10 @@
         <v>188</v>
       </c>
       <c r="C41">
-        <v>320</v>
+        <v>222</v>
       </c>
       <c r="D41" s="29">
-        <v>111.68426857270001</v>
+        <v>77.480961322300004</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4415,10 +4434,10 @@
         <v>190</v>
       </c>
       <c r="C42">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="D42" s="29">
-        <v>118.6460658562</v>
+        <v>93.547859617399993</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4429,10 +4448,10 @@
         <v>192</v>
       </c>
       <c r="C43">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D43" s="29">
-        <v>115.3934303029</v>
+        <v>110.3299772411</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4443,10 +4462,10 @@
         <v>194</v>
       </c>
       <c r="C44">
-        <v>408</v>
+        <v>321</v>
       </c>
       <c r="D44" s="29">
-        <v>127.05411944959999</v>
+        <v>99.961696919900007</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4457,10 +4476,10 @@
         <v>196</v>
       </c>
       <c r="C45">
-        <v>499</v>
+        <v>339</v>
       </c>
       <c r="D45" s="29">
-        <v>125.3655448251</v>
+        <v>85.168175742900004</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4471,10 +4490,10 @@
         <v>198</v>
       </c>
       <c r="C46">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="D46" s="29">
-        <v>113.5974184505</v>
+        <v>99.734682639599995</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4485,10 +4504,10 @@
         <v>200</v>
       </c>
       <c r="C47">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="D47" s="29">
-        <v>120.49251314750001</v>
+        <v>107.10445613109999</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4499,10 +4518,10 @@
         <v>202</v>
       </c>
       <c r="C48">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="D48" s="29">
-        <v>108.5456537063</v>
+        <v>75.452466600700006</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4513,10 +4532,10 @@
         <v>204</v>
       </c>
       <c r="C49">
-        <v>404</v>
+        <v>281</v>
       </c>
       <c r="D49" s="29">
-        <v>118.20745994409999</v>
+        <v>82.218555060100002</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4527,10 +4546,10 @@
         <v>206</v>
       </c>
       <c r="C50">
-        <v>362</v>
+        <v>251</v>
       </c>
       <c r="D50" s="29">
-        <v>135.841013479</v>
+        <v>94.188106031000004</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4541,10 +4560,10 @@
         <v>208</v>
       </c>
       <c r="C51">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D51" s="29">
-        <v>68.454788723600004</v>
+        <v>62.231626112400001</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4555,10 +4574,10 @@
         <v>210</v>
       </c>
       <c r="C52">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="D52" s="29">
-        <v>82.471358591400005</v>
+        <v>68.560527021799999</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -4569,10 +4588,10 @@
         <v>212</v>
       </c>
       <c r="C53">
-        <v>544</v>
+        <v>343</v>
       </c>
       <c r="D53" s="29">
-        <v>162.7792157273</v>
+        <v>102.6346893281</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4583,10 +4602,10 @@
         <v>214</v>
       </c>
       <c r="C54">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="D54" s="29">
-        <v>140.8259317365</v>
+        <v>206.297636842</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4597,10 +4616,10 @@
         <v>216</v>
       </c>
       <c r="C55">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D55" s="29">
-        <v>46.437440691299997</v>
+        <v>51.484988592500002</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4625,10 +4644,10 @@
         <v>220</v>
       </c>
       <c r="C57">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="D57" s="29">
-        <v>103.6688941346</v>
+        <v>92.727586046499994</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4639,10 +4658,10 @@
         <v>222</v>
       </c>
       <c r="C58">
-        <v>314</v>
+        <v>176</v>
       </c>
       <c r="D58" s="29">
-        <v>144.3877316411</v>
+        <v>80.930703085499999</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4653,10 +4672,10 @@
         <v>224</v>
       </c>
       <c r="C59">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="D59" s="29">
-        <v>89.7859394006</v>
+        <v>103.7391597128</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4667,10 +4686,10 @@
         <v>226</v>
       </c>
       <c r="C60">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="D60" s="29">
-        <v>118.18187136900001</v>
+        <v>140.999163366</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4681,10 +4700,10 @@
         <v>228</v>
       </c>
       <c r="C61">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="D61" s="29">
-        <v>66.516040598999993</v>
+        <v>47.396045123199997</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4695,10 +4714,10 @@
         <v>230</v>
       </c>
       <c r="C62">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D62" s="29">
-        <v>166.71628460849999</v>
+        <v>153.9573852762</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4709,10 +4728,10 @@
         <v>232</v>
       </c>
       <c r="C63">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="D63" s="29">
-        <v>123.296021279</v>
+        <v>177.32461487309999</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4723,10 +4742,10 @@
         <v>234</v>
       </c>
       <c r="C64">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="D64" s="29">
-        <v>70.166716117500002</v>
+        <v>87.006727985699996</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4737,10 +4756,10 @@
         <v>236</v>
       </c>
       <c r="C65">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D65" s="29">
-        <v>57.662907196900001</v>
+        <v>52.7312111866</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4751,10 +4770,10 @@
         <v>238</v>
       </c>
       <c r="C66">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="D66" s="29">
-        <v>74.705889608000007</v>
+        <v>70.301061211299995</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4765,10 +4784,10 @@
         <v>240</v>
       </c>
       <c r="C67">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D67" s="29">
-        <v>86.234963878100004</v>
+        <v>85.355015267100001</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4779,10 +4798,10 @@
         <v>242</v>
       </c>
       <c r="C68">
-        <v>615</v>
+        <v>556</v>
       </c>
       <c r="D68" s="29">
-        <v>343.87126354520001</v>
+        <v>310.88198785549997</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4793,10 +4812,10 @@
         <v>244</v>
       </c>
       <c r="C69">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="D69" s="29">
-        <v>119.97412076560001</v>
+        <v>84.798462321200006</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4807,10 +4826,10 @@
         <v>246</v>
       </c>
       <c r="C70">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D70" s="29">
-        <v>64.241862231900001</v>
+        <v>63.124612454000001</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4821,10 +4840,10 @@
         <v>248</v>
       </c>
       <c r="C71">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D71" s="29">
-        <v>127.3457397772</v>
+        <v>123.4394287411</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4835,10 +4854,10 @@
         <v>250</v>
       </c>
       <c r="C72">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="D72" s="29">
-        <v>75.101285246900005</v>
+        <v>62.9226984501</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4849,10 +4868,10 @@
         <v>252</v>
       </c>
       <c r="C73">
-        <v>150</v>
+        <v>251</v>
       </c>
       <c r="D73" s="29">
-        <v>87.882729286</v>
+        <v>147.05710033860001</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4863,10 +4882,10 @@
         <v>254</v>
       </c>
       <c r="C74">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D74" s="29">
-        <v>163.12816517339999</v>
+        <v>160.69341643940001</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4877,10 +4896,10 @@
         <v>256</v>
       </c>
       <c r="C75">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D75" s="29">
-        <v>157.93053362079999</v>
+        <v>123.3472050907</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4891,10 +4910,10 @@
         <v>258</v>
       </c>
       <c r="C76">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D76" s="29">
-        <v>79.837067209799997</v>
+        <v>104.2769857434</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -4905,10 +4924,10 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D77" s="29">
-        <v>52.133861623100003</v>
+        <v>48.960496132999999</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -4919,10 +4938,10 @@
         <v>262</v>
       </c>
       <c r="C78">
-        <v>350</v>
+        <v>211</v>
       </c>
       <c r="D78" s="29">
-        <v>351.13064066290002</v>
+        <v>211.68161479969999</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -4933,10 +4952,10 @@
         <v>264</v>
       </c>
       <c r="C79">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="D79" s="29">
-        <v>100.4857653582</v>
+        <v>68.673688888000001</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -4947,10 +4966,10 @@
         <v>266</v>
       </c>
       <c r="C80">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D80" s="29">
-        <v>120.7238264934</v>
+        <v>114.2680068948</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -4961,10 +4980,10 @@
         <v>268</v>
       </c>
       <c r="C81">
-        <v>329</v>
+        <v>241</v>
       </c>
       <c r="D81" s="29">
-        <v>192.63310127579999</v>
+        <v>141.10813801660001</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -4975,10 +4994,10 @@
         <v>270</v>
       </c>
       <c r="C82">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="D82" s="29">
-        <v>96.948923554199993</v>
+        <v>66.926031098699994</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4989,10 +5008,10 @@
         <v>272</v>
       </c>
       <c r="C83">
-        <v>350</v>
+        <v>257</v>
       </c>
       <c r="D83" s="29">
-        <v>117.51118034939999</v>
+        <v>86.286780999399994</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -5003,10 +5022,10 @@
         <v>274</v>
       </c>
       <c r="C84">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D84" s="29">
-        <v>154.84022163079999</v>
+        <v>166.55786002439999</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -5017,10 +5036,10 @@
         <v>276</v>
       </c>
       <c r="C85">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D85" s="29">
-        <v>51.573640712200003</v>
+        <v>59.309686819100001</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -5031,10 +5050,10 @@
         <v>278</v>
       </c>
       <c r="C86">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="D86" s="29">
-        <v>156.0490868007</v>
+        <v>203.48800918820001</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -5045,10 +5064,10 @@
         <v>280</v>
       </c>
       <c r="C87">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D87" s="29">
-        <v>54.816227445899997</v>
+        <v>47.9066189443</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -5059,10 +5078,10 @@
         <v>282</v>
       </c>
       <c r="C88">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D88" s="29">
-        <v>75.599096953300005</v>
+        <v>53.851411528299998</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -5073,10 +5092,10 @@
         <v>284</v>
       </c>
       <c r="C89">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D89" s="29">
-        <v>72.401559736500005</v>
+        <v>63.092787770299999</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -5087,10 +5106,10 @@
         <v>286</v>
       </c>
       <c r="C90">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D90" s="29">
-        <v>46.548992814899997</v>
+        <v>56.309265501900001</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -5101,10 +5120,10 @@
         <v>288</v>
       </c>
       <c r="C91">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="D91" s="29">
-        <v>118.8491811366</v>
+        <v>64.283204891500006</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -5115,10 +5134,10 @@
         <v>290</v>
       </c>
       <c r="C92">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D92" s="29">
-        <v>116.82708264190001</v>
+        <v>69.034185197499994</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5129,10 +5148,10 @@
         <v>292</v>
       </c>
       <c r="C93">
-        <v>662</v>
+        <v>546</v>
       </c>
       <c r="D93" s="29">
-        <v>112.53718657029999</v>
+        <v>92.817679557999995</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -5143,10 +5162,10 @@
         <v>294</v>
       </c>
       <c r="C94">
-        <v>716</v>
+        <v>579</v>
       </c>
       <c r="D94" s="29">
-        <v>128.5965731528</v>
+        <v>103.99080426739999</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -5157,10 +5176,10 @@
         <v>296</v>
       </c>
       <c r="C95">
-        <v>554</v>
+        <v>458</v>
       </c>
       <c r="D95" s="29">
-        <v>111.0919496437</v>
+        <v>91.841359091699999</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -5171,10 +5190,10 @@
         <v>298</v>
       </c>
       <c r="C96">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="D96" s="29">
-        <v>114.87390321869999</v>
+        <v>99.003166589800003</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -5185,10 +5204,10 @@
         <v>300</v>
       </c>
       <c r="C97">
-        <v>380</v>
+        <v>492</v>
       </c>
       <c r="D97" s="29">
-        <v>61.105331118499997</v>
+        <v>79.115323448200002</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -5199,10 +5218,10 @@
         <v>302</v>
       </c>
       <c r="C98">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="D98" s="29">
-        <v>167.7700506095</v>
+        <v>98.852063014699993</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -5213,10 +5232,10 @@
         <v>304</v>
       </c>
       <c r="C99">
-        <v>148</v>
+        <v>215</v>
       </c>
       <c r="D99" s="29">
-        <v>147.99112053280001</v>
+        <v>214.987100774</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -5227,10 +5246,10 @@
         <v>306</v>
       </c>
       <c r="C100">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D100" s="29">
-        <v>97.079341666600001</v>
+        <v>109.87274328159999</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5241,10 +5260,10 @@
         <v>308</v>
       </c>
       <c r="C101">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D101" s="29">
-        <v>120.71005917159999</v>
+        <v>108.875739645</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -5255,10 +5274,10 @@
         <v>310</v>
       </c>
       <c r="C102">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="D102" s="29">
-        <v>210.16037003939999</v>
+        <v>177.7524625099</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5269,10 +5288,10 @@
         <v>312</v>
       </c>
       <c r="C103">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D103" s="29">
-        <v>32.055777052099998</v>
+        <v>24.041832789099999</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -5283,10 +5302,10 @@
         <v>314</v>
       </c>
       <c r="C104">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="D104" s="29">
-        <v>62.496995336799998</v>
+        <v>33.051295610799997</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -5297,10 +5316,10 @@
         <v>316</v>
       </c>
       <c r="C105">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D105" s="29">
-        <v>80.7453036207</v>
+        <v>66.981899594400005</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5311,10 +5330,10 @@
         <v>318</v>
       </c>
       <c r="C106">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="D106" s="29">
-        <v>118.4797566228</v>
+        <v>92.253768828700004</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -5325,10 +5344,10 @@
         <v>320</v>
       </c>
       <c r="C107">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="D107" s="29">
-        <v>104.231393694</v>
+        <v>68.151295876800006</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5339,10 +5358,10 @@
         <v>322</v>
       </c>
       <c r="C108">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="D108" s="29">
-        <v>104.2103891969</v>
+        <v>61.513076956500001</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5353,10 +5372,10 @@
         <v>324</v>
       </c>
       <c r="C109">
-        <v>343</v>
+        <v>284</v>
       </c>
       <c r="D109" s="29">
-        <v>160.29460559579999</v>
+        <v>132.72206410850001</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -5367,10 +5386,10 @@
         <v>326</v>
       </c>
       <c r="C110">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="D110" s="29">
-        <v>121.7474761837</v>
+        <v>64.872742783999996</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -5381,10 +5400,10 @@
         <v>328</v>
       </c>
       <c r="C111">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="D111" s="29">
-        <v>116.565400475</v>
+        <v>77.224577814699998</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5395,10 +5414,10 @@
         <v>330</v>
       </c>
       <c r="C112">
-        <v>509</v>
+        <v>423</v>
       </c>
       <c r="D112" s="29">
-        <v>151.96388693169999</v>
+        <v>126.28825967020001</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5409,10 +5428,10 @@
         <v>332</v>
       </c>
       <c r="C113">
-        <v>809</v>
+        <v>725</v>
       </c>
       <c r="D113" s="29">
-        <v>138.82215663389999</v>
+        <v>124.4079895669</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5423,10 +5442,10 @@
         <v>334</v>
       </c>
       <c r="C114">
-        <v>586</v>
+        <v>470</v>
       </c>
       <c r="D114" s="29">
-        <v>109.5277968839</v>
+        <v>87.846526510999993</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5437,10 +5456,10 @@
         <v>336</v>
       </c>
       <c r="C115">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D115" s="29">
-        <v>79.522452183300004</v>
+        <v>63.514685834700003</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -5451,10 +5470,10 @@
         <v>338</v>
       </c>
       <c r="C116">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="D116" s="29">
-        <v>192.98167783150001</v>
+        <v>138.63626281000001</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -5465,10 +5484,10 @@
         <v>340</v>
       </c>
       <c r="C117">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="D117" s="29">
-        <v>112.7337504195</v>
+        <v>78.311231207500001</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -5479,10 +5498,10 @@
         <v>342</v>
       </c>
       <c r="C118">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D118" s="29">
-        <v>104.5896394734</v>
+        <v>137.40207538659999</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -5493,10 +5512,10 @@
         <v>344</v>
       </c>
       <c r="C119">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="D119" s="29">
-        <v>164.4993160292</v>
+        <v>199.13075098269999</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -5507,10 +5526,10 @@
         <v>346</v>
       </c>
       <c r="C120">
-        <v>799</v>
+        <v>485</v>
       </c>
       <c r="D120" s="29">
-        <v>104.6660902827</v>
+        <v>63.533233776099998</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -5521,10 +5540,10 @@
         <v>348</v>
       </c>
       <c r="C121">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D121" s="29">
-        <v>61.420013408599999</v>
+        <v>55.7970544346</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -5535,10 +5554,10 @@
         <v>350</v>
       </c>
       <c r="C122">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D122" s="29">
-        <v>103.8848489225</v>
+        <v>111.1067902915</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -5549,10 +5568,10 @@
         <v>352</v>
       </c>
       <c r="C123">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="D123" s="29">
-        <v>93.874478827499999</v>
+        <v>63.428701910500003</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -5563,10 +5582,10 @@
         <v>354</v>
       </c>
       <c r="C124">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D124" s="29">
-        <v>156.9638345116</v>
+        <v>142.9264184171</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -5577,10 +5596,10 @@
         <v>356</v>
       </c>
       <c r="C125">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D125" s="29">
-        <v>39.5120765116</v>
+        <v>38.4989463446</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -5591,10 +5610,10 @@
         <v>358</v>
       </c>
       <c r="C126">
-        <v>627</v>
+        <v>481</v>
       </c>
       <c r="D126" s="29">
-        <v>280.98321719059999</v>
+        <v>215.55490824349999</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -5605,10 +5624,10 @@
         <v>360</v>
       </c>
       <c r="C127">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D127" s="29">
-        <v>76.603544737799993</v>
+        <v>72.955756893200004</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -5619,10 +5638,10 @@
         <v>362</v>
       </c>
       <c r="C128">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="D128" s="29">
-        <v>189.8877016584</v>
+        <v>150.19805909870001</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -5647,10 +5666,10 @@
         <v>366</v>
       </c>
       <c r="C130">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D130" s="29">
-        <v>98.389577490299999</v>
+        <v>107.4368949606</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -5661,10 +5680,10 @@
         <v>368</v>
       </c>
       <c r="C131">
-        <v>447</v>
+        <v>282</v>
       </c>
       <c r="D131" s="29">
-        <v>172.1581389975</v>
+        <v>108.6098326561</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -5675,10 +5694,10 @@
         <v>370</v>
       </c>
       <c r="C132">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="D132" s="29">
-        <v>142.8187919463</v>
+        <v>94.496644295300001</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -5689,10 +5708,10 @@
         <v>372</v>
       </c>
       <c r="C133">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="D133" s="29">
-        <v>103.8655019262</v>
+        <v>62.009254881300002</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -5703,10 +5722,10 @@
         <v>374</v>
       </c>
       <c r="C134">
-        <v>342</v>
+        <v>230</v>
       </c>
       <c r="D134" s="29">
-        <v>126.3447215983</v>
+        <v>84.968672419900003</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5717,10 +5736,10 @@
         <v>376</v>
       </c>
       <c r="C135">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="D135" s="29">
-        <v>148.98908357549999</v>
+        <v>93.4722387451</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5731,10 +5750,10 @@
         <v>378</v>
       </c>
       <c r="C136">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="D136" s="29">
-        <v>90.646729551199996</v>
+        <v>56.944740359100003</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5745,10 +5764,10 @@
         <v>380</v>
       </c>
       <c r="C137">
-        <v>440</v>
+        <v>332</v>
       </c>
       <c r="D137" s="29">
-        <v>174.10228509250001</v>
+        <v>131.36808784249999</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5759,10 +5778,10 @@
         <v>382</v>
       </c>
       <c r="C138">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D138" s="29">
-        <v>51.3603146186</v>
+        <v>59.431221201500001</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -5773,10 +5792,10 @@
         <v>384</v>
       </c>
       <c r="C139">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="D139" s="29">
-        <v>240.90491297770001</v>
+        <v>200.136389243</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -5787,10 +5806,10 @@
         <v>386</v>
       </c>
       <c r="C140">
-        <v>266</v>
+        <v>164</v>
       </c>
       <c r="D140" s="29">
-        <v>81.584831355600002</v>
+        <v>50.300422339500003</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -5801,10 +5820,10 @@
         <v>388</v>
       </c>
       <c r="C141">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D141" s="29">
-        <v>83.842463656099994</v>
+        <v>61.970516615400001</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -5815,10 +5834,10 @@
         <v>390</v>
       </c>
       <c r="C142">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="D142" s="29">
-        <v>191.99572886510001</v>
+        <v>148.87369350500001</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -5829,10 +5848,10 @@
         <v>392</v>
       </c>
       <c r="C143">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="D143" s="29">
-        <v>114.6065296708</v>
+        <v>132.74047423889999</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5843,10 +5862,10 @@
         <v>394</v>
       </c>
       <c r="C144">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="D144" s="29">
-        <v>100.76597888640001</v>
+        <v>76.361718374800006</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -5857,10 +5876,10 @@
         <v>396</v>
       </c>
       <c r="C145">
-        <v>380</v>
+        <v>306</v>
       </c>
       <c r="D145" s="29">
-        <v>104.1272764141</v>
+        <v>83.849859428200006</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -5871,10 +5890,10 @@
         <v>398</v>
       </c>
       <c r="C146">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="D146" s="29">
-        <v>192.91309371119999</v>
+        <v>211.99241067169999</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -5885,10 +5904,10 @@
         <v>400</v>
       </c>
       <c r="C147">
-        <v>561</v>
+        <v>396</v>
       </c>
       <c r="D147" s="29">
-        <v>234.9620123805</v>
+        <v>165.85553815099999</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -5899,10 +5918,10 @@
         <v>402</v>
       </c>
       <c r="C148">
-        <v>1527</v>
+        <v>1550</v>
       </c>
       <c r="D148" s="29">
-        <v>82.663284347100003</v>
+        <v>83.908376383700002</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -5913,10 +5932,10 @@
         <v>404</v>
       </c>
       <c r="C149">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="D149" s="29">
-        <v>121.84531703339999</v>
+        <v>84.147318393299997</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -5927,10 +5946,10 @@
         <v>406</v>
       </c>
       <c r="C150">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D150" s="29">
-        <v>119.5002112097</v>
+        <v>121.7234709531</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -5941,10 +5960,10 @@
         <v>408</v>
       </c>
       <c r="C151">
-        <v>1938</v>
+        <v>1509</v>
       </c>
       <c r="D151" s="29">
-        <v>167.48551354009999</v>
+        <v>130.41054692060001</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -5955,10 +5974,10 @@
         <v>410</v>
       </c>
       <c r="C152">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="D152" s="29">
-        <v>64.064520439700004</v>
+        <v>53.8456398788</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -5969,10 +5988,10 @@
         <v>412</v>
       </c>
       <c r="C153">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="D153" s="29">
-        <v>183.30129857950001</v>
+        <v>161.73643992309999</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -5983,10 +6002,10 @@
         <v>414</v>
       </c>
       <c r="C154">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D154" s="29">
-        <v>90.064467197599996</v>
+        <v>74.658703071700003</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -5997,10 +6016,10 @@
         <v>416</v>
       </c>
       <c r="C155">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="D155" s="29">
-        <v>95.707870131799993</v>
+        <v>140.4942452576</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -6011,10 +6030,10 @@
         <v>418</v>
       </c>
       <c r="C156">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D156" s="29">
-        <v>68.954241396699999</v>
+        <v>34.1216864644</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -6025,10 +6044,10 @@
         <v>420</v>
       </c>
       <c r="C157">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D157" s="29">
-        <v>74.929560021100002</v>
+        <v>55.113478032000003</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -6039,10 +6058,10 @@
         <v>422</v>
       </c>
       <c r="C158">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="D158" s="29">
-        <v>84.351958546999995</v>
+        <v>50.460546630800003</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -6053,10 +6072,10 @@
         <v>424</v>
       </c>
       <c r="C159">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D159" s="29">
-        <v>168.2570778564</v>
+        <v>178.52628918100001</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -6067,10 +6086,10 @@
         <v>426</v>
       </c>
       <c r="C160">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="D160" s="29">
-        <v>81.577908354000002</v>
+        <v>72.578210279399997</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -6081,10 +6100,10 @@
         <v>428</v>
       </c>
       <c r="C161">
-        <v>335</v>
+        <v>255</v>
       </c>
       <c r="D161" s="29">
-        <v>131.08724149400001</v>
+        <v>99.782825614800004</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -6095,10 +6114,10 @@
         <v>430</v>
       </c>
       <c r="C162">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="D162" s="29">
-        <v>159.91763146650001</v>
+        <v>102.9606668346</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -6109,10 +6128,10 @@
         <v>432</v>
       </c>
       <c r="C163">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c r="D163" s="29">
-        <v>116.1315039628</v>
+        <v>88.595167971600006</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -6123,10 +6142,10 @@
         <v>434</v>
       </c>
       <c r="C164">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D164" s="29">
-        <v>138.70334741670001</v>
+        <v>137.4249755511</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -6137,10 +6156,10 @@
         <v>436</v>
       </c>
       <c r="C165">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="D165" s="29">
-        <v>176.44281347590001</v>
+        <v>91.949071811400003</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -6151,10 +6170,10 @@
         <v>438</v>
       </c>
       <c r="C166">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="D166" s="29">
-        <v>72.2152924719</v>
+        <v>84.840343603400001</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -6165,10 +6184,10 @@
         <v>440</v>
       </c>
       <c r="C167">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="D167" s="29">
-        <v>398.75310536889998</v>
+        <v>219.94714938999999</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -6179,10 +6198,10 @@
         <v>442</v>
       </c>
       <c r="C168">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D168" s="29">
-        <v>105.8672960695</v>
+        <v>101.8791445052</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -6193,10 +6212,10 @@
         <v>444</v>
       </c>
       <c r="C169">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="D169" s="29">
-        <v>96.621332912499994</v>
+        <v>87.767585275100004</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -6207,10 +6226,10 @@
         <v>446</v>
       </c>
       <c r="C170">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="D170" s="29">
-        <v>89.061853668400005</v>
+        <v>81.886254083799997</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -6221,10 +6240,10 @@
         <v>448</v>
       </c>
       <c r="C171">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D171" s="29">
-        <v>141.84397163119999</v>
+        <v>168.03055100930001</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -6235,10 +6254,10 @@
         <v>450</v>
       </c>
       <c r="C172">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="D172" s="29">
-        <v>131.8551492073</v>
+        <v>172.99395576000001</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -6249,10 +6268,10 @@
         <v>452</v>
       </c>
       <c r="C173">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D173" s="29">
-        <v>55.922950601399997</v>
+        <v>34.618969419899997</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -6263,10 +6282,10 @@
         <v>454</v>
       </c>
       <c r="C174">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="D174" s="29">
-        <v>154.7020920265</v>
+        <v>62.448550909799998</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -6277,10 +6296,10 @@
         <v>456</v>
       </c>
       <c r="C175">
-        <v>307</v>
+        <v>191</v>
       </c>
       <c r="D175" s="29">
-        <v>218.89326992319999</v>
+        <v>136.18441223240001</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -6291,10 +6310,10 @@
         <v>458</v>
       </c>
       <c r="C176">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D176" s="29">
-        <v>190.1194364182</v>
+        <v>147.76609662210001</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -6305,10 +6324,10 @@
         <v>460</v>
       </c>
       <c r="C177">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="D177" s="29">
-        <v>133.92337253989999</v>
+        <v>77.879352509599997</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -6319,10 +6338,10 @@
         <v>462</v>
       </c>
       <c r="C178">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="D178" s="29">
-        <v>189.5045040999</v>
+        <v>94.303189243999995</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -6333,10 +6352,10 @@
         <v>464</v>
       </c>
       <c r="C179">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="D179" s="29">
-        <v>114.9694716985</v>
+        <v>141.75847481279999</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -6347,10 +6366,10 @@
         <v>466</v>
       </c>
       <c r="C180">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D180" s="29">
-        <v>129.96101169650001</v>
+        <v>98.970308907299994</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -6361,10 +6380,10 @@
         <v>468</v>
       </c>
       <c r="C181">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D181" s="29">
-        <v>98.132648920999998</v>
+        <v>94.358316270200007</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -6375,10 +6394,10 @@
         <v>470</v>
       </c>
       <c r="C182">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D182" s="29">
-        <v>66.6538486189</v>
+        <v>69.858360571700004</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -6389,10 +6408,10 @@
         <v>472</v>
       </c>
       <c r="C183">
-        <v>411</v>
+        <v>339</v>
       </c>
       <c r="D183" s="29">
-        <v>92.338592813800005</v>
+        <v>76.162488963200005</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -6403,10 +6422,10 @@
         <v>474</v>
       </c>
       <c r="C184">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D184" s="29">
-        <v>62.828675601199997</v>
+        <v>74.207097166799997</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -6417,10 +6436,10 @@
         <v>476</v>
       </c>
       <c r="C185">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D185" s="29">
-        <v>115.72705309929999</v>
+        <v>112.7705225457</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -6431,10 +6450,10 @@
         <v>478</v>
       </c>
       <c r="C186">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D186" s="29">
-        <v>76.580026127300002</v>
+        <v>78.832379836900003</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -6445,10 +6464,10 @@
         <v>480</v>
       </c>
       <c r="C187">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D187" s="29">
-        <v>104.8286173999</v>
+        <v>92.639243283699997</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -6459,10 +6478,10 @@
         <v>482</v>
       </c>
       <c r="C188">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D188" s="29">
-        <v>65.074980839000006</v>
+        <v>56.398316727199997</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -6473,10 +6492,10 @@
         <v>484</v>
       </c>
       <c r="C189">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="D189" s="29">
-        <v>74.556107522900007</v>
+        <v>55.917080642199998</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -6487,10 +6506,10 @@
         <v>486</v>
       </c>
       <c r="C190">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="D190" s="29">
-        <v>166.74894410620001</v>
+        <v>88.859634688200003</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -6501,10 +6520,10 @@
         <v>488</v>
       </c>
       <c r="C191">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D191" s="29">
-        <v>78.728817627599994</v>
+        <v>75.848495031400006</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -6515,10 +6534,10 @@
         <v>490</v>
       </c>
       <c r="C192">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D192" s="29">
-        <v>133.27254234910001</v>
+        <v>122.7510258479</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -6529,10 +6548,10 @@
         <v>492</v>
       </c>
       <c r="C193">
-        <v>1012</v>
+        <v>801</v>
       </c>
       <c r="D193" s="29">
-        <v>93.026419687000001</v>
+        <v>73.630595029000006</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -6543,10 +6562,10 @@
         <v>494</v>
       </c>
       <c r="C194">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D194" s="29">
-        <v>71.951240809599994</v>
+        <v>71.252685073600006</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -6557,10 +6576,10 @@
         <v>496</v>
       </c>
       <c r="C195">
-        <v>336</v>
+        <v>204</v>
       </c>
       <c r="D195" s="29">
-        <v>147.74621070539999</v>
+        <v>89.703056499699997</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -6571,10 +6590,10 @@
         <v>498</v>
       </c>
       <c r="C196">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="D196" s="29">
-        <v>176.797566786</v>
+        <v>101.88334357159999</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -6585,10 +6604,10 @@
         <v>500</v>
       </c>
       <c r="C197">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="D197" s="29">
-        <v>198.41824329990001</v>
+        <v>127.1553531006</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -6599,10 +6618,10 @@
         <v>502</v>
       </c>
       <c r="C198">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D198" s="29">
-        <v>49.844059300200001</v>
+        <v>56.964639200199997</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -6613,10 +6632,10 @@
         <v>504</v>
       </c>
       <c r="C199">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="D199" s="29">
-        <v>195.38619091250001</v>
+        <v>164.3938985609</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -6627,10 +6646,10 @@
         <v>506</v>
       </c>
       <c r="C200">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="D200" s="29">
-        <v>124.34914080670001</v>
+        <v>99.084553468199999</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -6641,10 +6660,10 @@
         <v>508</v>
       </c>
       <c r="C201">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D201" s="29">
-        <v>102.38689447749999</v>
+        <v>117.3183165888</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -6655,10 +6674,10 @@
         <v>510</v>
       </c>
       <c r="C202">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D202" s="29">
-        <v>59.018137686800003</v>
+        <v>59.849379062700002</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -6669,10 +6688,10 @@
         <v>512</v>
       </c>
       <c r="C203">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="D203" s="29">
-        <v>202.9668578278</v>
+        <v>84.456007955199993</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -6683,10 +6702,10 @@
         <v>514</v>
       </c>
       <c r="C204">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="D204" s="29">
-        <v>111.9484661809</v>
+        <v>95.062384690000002</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -6697,10 +6716,10 @@
         <v>516</v>
       </c>
       <c r="C205">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D205" s="29">
-        <v>45.679214786000003</v>
+        <v>49.778631497600003</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -6711,10 +6730,10 @@
         <v>518</v>
       </c>
       <c r="C206">
-        <v>1070</v>
+        <v>623</v>
       </c>
       <c r="D206" s="29">
-        <v>180.39433865239999</v>
+        <v>105.0333392341</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -6725,10 +6744,10 @@
         <v>520</v>
       </c>
       <c r="C207">
-        <v>609</v>
+        <v>461</v>
       </c>
       <c r="D207" s="29">
-        <v>235.91940776089999</v>
+        <v>178.5859556286</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -6739,10 +6758,10 @@
         <v>522</v>
       </c>
       <c r="C208">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D208" s="29">
-        <v>117.2669472116</v>
+        <v>113.6023551112</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -6753,10 +6772,10 @@
         <v>524</v>
       </c>
       <c r="C209">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="D209" s="29">
-        <v>157.24212291840001</v>
+        <v>106.32562597339999</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -6767,10 +6786,10 @@
         <v>526</v>
       </c>
       <c r="C210">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D210" s="29">
-        <v>124.4822932663</v>
+        <v>123.31890734789999</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -6781,10 +6800,10 @@
         <v>528</v>
       </c>
       <c r="C211">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D211" s="29">
-        <v>96.363791610299998</v>
+        <v>79.286663983099999</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -6795,10 +6814,10 @@
         <v>530</v>
       </c>
       <c r="C212">
-        <v>462</v>
+        <v>387</v>
       </c>
       <c r="D212" s="29">
-        <v>132.94428425909999</v>
+        <v>111.3624199313</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -6809,10 +6828,10 @@
         <v>532</v>
       </c>
       <c r="C213">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="D213" s="29">
-        <v>100.1154168998</v>
+        <v>90.060156687200006</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6823,10 +6842,10 @@
         <v>534</v>
       </c>
       <c r="C214">
-        <v>226</v>
+        <v>330</v>
       </c>
       <c r="D214" s="29">
-        <v>104.3735279176</v>
+        <v>152.4038239505</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -6837,10 +6856,10 @@
         <v>536</v>
       </c>
       <c r="C215">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D215" s="29">
-        <v>53.705692803399998</v>
+        <v>35.115260679199999</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -6851,10 +6870,10 @@
         <v>538</v>
       </c>
       <c r="C216">
-        <v>482</v>
+        <v>392</v>
       </c>
       <c r="D216" s="29">
-        <v>88.371777501099999</v>
+        <v>71.870823195900002</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -6865,10 +6884,10 @@
         <v>540</v>
       </c>
       <c r="C217">
-        <v>319</v>
+        <v>161</v>
       </c>
       <c r="D217" s="29">
-        <v>185.19271072199999</v>
+        <v>93.467167480399993</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -6879,10 +6898,10 @@
         <v>542</v>
       </c>
       <c r="C218">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="D218" s="29">
-        <v>153.93405389579999</v>
+        <v>129.38015572840001</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -6893,10 +6912,10 @@
         <v>544</v>
       </c>
       <c r="C219">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D219" s="29">
-        <v>30.954876479199999</v>
+        <v>33.127148512799998</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -6907,10 +6926,10 @@
         <v>546</v>
       </c>
       <c r="C220">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="D220" s="29">
-        <v>78.294361543199997</v>
+        <v>86.713110096199998</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -6921,10 +6940,10 @@
         <v>548</v>
       </c>
       <c r="C221">
-        <v>512</v>
+        <v>408</v>
       </c>
       <c r="D221" s="29">
-        <v>121.74475451310001</v>
+        <v>97.015351252599999</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -6935,10 +6954,10 @@
         <v>550</v>
       </c>
       <c r="C222">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D222" s="29">
-        <v>91.1555351226</v>
+        <v>74.509741752400004</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -6949,10 +6968,10 @@
         <v>552</v>
       </c>
       <c r="C223">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="D223" s="29">
-        <v>149.54795731089999</v>
+        <v>90.635125642899993</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -6963,10 +6982,10 @@
         <v>554</v>
       </c>
       <c r="C224">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="D224" s="29">
-        <v>90.544018645400001</v>
+        <v>70.842310884599996</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -6977,10 +6996,10 @@
         <v>556</v>
       </c>
       <c r="C225">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D225" s="29">
-        <v>80.977957525500003</v>
+        <v>73.200413582300001</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -6991,10 +7010,10 @@
         <v>558</v>
       </c>
       <c r="C226">
-        <v>281</v>
+        <v>179</v>
       </c>
       <c r="D226" s="29">
-        <v>132.9126796804</v>
+        <v>84.666795953000005</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -7005,10 +7024,10 @@
         <v>560</v>
       </c>
       <c r="C227">
-        <v>439</v>
+        <v>304</v>
       </c>
       <c r="D227" s="29">
-        <v>141.31295508240001</v>
+        <v>97.856807164100005</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -7019,10 +7038,10 @@
         <v>562</v>
       </c>
       <c r="C228">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="D228" s="29">
-        <v>202.30914022319999</v>
+        <v>234.91574157790001</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -7033,10 +7052,10 @@
         <v>564</v>
       </c>
       <c r="C229">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="D229" s="29">
-        <v>78.111087727300003</v>
+        <v>56.660892651899999</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -7047,10 +7066,10 @@
         <v>566</v>
       </c>
       <c r="C230">
-        <v>602</v>
+        <v>455</v>
       </c>
       <c r="D230" s="29">
-        <v>146.7498086402</v>
+        <v>110.915553042</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -7061,10 +7080,10 @@
         <v>568</v>
       </c>
       <c r="C231">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="D231" s="29">
-        <v>94.507818606300006</v>
+        <v>67.432605708300002</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -7075,10 +7094,10 @@
         <v>570</v>
       </c>
       <c r="C232">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="D232" s="29">
-        <v>95.134167156299995</v>
+        <v>124.9801803818</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -7089,10 +7108,10 @@
         <v>572</v>
       </c>
       <c r="C233">
-        <v>448</v>
+        <v>384</v>
       </c>
       <c r="D233" s="29">
-        <v>173.59362043440001</v>
+        <v>148.79453180100001</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -7103,10 +7122,10 @@
         <v>574</v>
       </c>
       <c r="C234">
-        <v>575</v>
+        <v>378</v>
       </c>
       <c r="D234" s="29">
-        <v>237.88148951049999</v>
+        <v>156.3812226695</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -7117,10 +7136,10 @@
         <v>576</v>
       </c>
       <c r="C235">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D235" s="29">
-        <v>122.4489795918</v>
+        <v>106.5759637188</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -7131,10 +7150,10 @@
         <v>578</v>
       </c>
       <c r="C236">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D236" s="29">
-        <v>68.769795530899998</v>
+        <v>89.110157589400004</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -7145,10 +7164,10 @@
         <v>580</v>
       </c>
       <c r="C237">
-        <v>773</v>
+        <v>557</v>
       </c>
       <c r="D237" s="29">
-        <v>159.19434890950001</v>
+        <v>114.7105463682</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -7159,10 +7178,10 @@
         <v>582</v>
       </c>
       <c r="C238">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D238" s="29">
-        <v>76.992300769899998</v>
+        <v>73.992600739899999</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -7173,10 +7192,10 @@
         <v>584</v>
       </c>
       <c r="C239">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D239" s="29">
-        <v>151.46454564519999</v>
+        <v>162.3389232813</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -7187,10 +7206,10 @@
         <v>586</v>
       </c>
       <c r="C240">
-        <v>512</v>
+        <v>412</v>
       </c>
       <c r="D240" s="29">
-        <v>164.94367109199999</v>
+        <v>132.72811033190001</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -7201,10 +7220,10 @@
         <v>588</v>
       </c>
       <c r="C241">
-        <v>899</v>
+        <v>614</v>
       </c>
       <c r="D241" s="29">
-        <v>295.62741081029998</v>
+        <v>201.90793129869999</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -7215,10 +7234,10 @@
         <v>590</v>
       </c>
       <c r="C242">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D242" s="29">
-        <v>84.280208708399996</v>
+        <v>83.130933135099994</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -7229,10 +7248,10 @@
         <v>592</v>
       </c>
       <c r="C243">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="D243" s="29">
-        <v>191.59072079539999</v>
+        <v>145.85059375860001</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -7243,10 +7262,10 @@
         <v>594</v>
       </c>
       <c r="C244">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D244" s="29">
-        <v>86.736368324799997</v>
+        <v>89.0805944958</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -7257,10 +7276,10 @@
         <v>596</v>
       </c>
       <c r="C245">
-        <v>1381</v>
+        <v>981</v>
       </c>
       <c r="D245" s="29">
-        <v>93.045129245799998</v>
+        <v>66.095055604699994</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -7271,10 +7290,10 @@
         <v>598</v>
       </c>
       <c r="C246">
-        <v>599</v>
+        <v>239</v>
       </c>
       <c r="D246" s="29">
-        <v>170.91188194239999</v>
+        <v>68.193555566300006</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -7285,10 +7304,10 @@
         <v>600</v>
       </c>
       <c r="C247">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D247" s="29">
-        <v>38.059836406099997</v>
+        <v>33.619522158800002</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -7299,10 +7318,10 @@
         <v>602</v>
       </c>
       <c r="C248">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="D248" s="29">
-        <v>163.6114263435</v>
+        <v>112.7874513517</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -7313,10 +7332,10 @@
         <v>604</v>
       </c>
       <c r="C249">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D249" s="29">
-        <v>90.439143705700005</v>
+        <v>81.1896858267</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -7327,10 +7346,10 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D250" s="29">
-        <v>75.052202150499994</v>
+        <v>57.218015500900002</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -7341,10 +7360,10 @@
         <v>608</v>
       </c>
       <c r="C251">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D251" s="29">
-        <v>114.71893860039999</v>
+        <v>83.545313980700001</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -7355,10 +7374,10 @@
         <v>610</v>
       </c>
       <c r="C252">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D252" s="29">
-        <v>66.967003531000003</v>
+        <v>85.230731766700004</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -7369,10 +7388,10 @@
         <v>612</v>
       </c>
       <c r="C253">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D253" s="29">
-        <v>117.8054527095</v>
+        <v>90.086522660200004</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -7383,10 +7402,10 @@
         <v>614</v>
       </c>
       <c r="C254">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D254" s="29">
-        <v>148.22657490739999</v>
+        <v>155.6379036527</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -7411,10 +7430,10 @@
         <v>618</v>
       </c>
       <c r="C256">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D256" s="29">
-        <v>87.326773361299999</v>
+        <v>85.6144836876</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -7425,10 +7444,10 @@
         <v>620</v>
       </c>
       <c r="C257">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="D257" s="29">
-        <v>90.257150827900006</v>
+        <v>129.642089371</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -7439,10 +7458,10 @@
         <v>622</v>
       </c>
       <c r="C258">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="D258" s="29">
-        <v>134.2779471126</v>
+        <v>163.93442622949999</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -7453,10 +7472,10 @@
         <v>624</v>
       </c>
       <c r="C259">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="D259" s="29">
-        <v>156.0701652898</v>
+        <v>104.2476393634</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -7467,10 +7486,10 @@
         <v>626</v>
       </c>
       <c r="C260">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D260" s="29">
-        <v>100.70010549529999</v>
+        <v>93.507240817099998</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -7481,10 +7500,10 @@
         <v>628</v>
       </c>
       <c r="C261">
-        <v>348</v>
+        <v>270</v>
       </c>
       <c r="D261" s="29">
-        <v>175.98778199770001</v>
+        <v>136.54224465339999</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -7495,10 +7514,10 @@
         <v>630</v>
       </c>
       <c r="C262">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D262" s="29">
-        <v>47.6729255921</v>
+        <v>69.284651860500006</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -7509,10 +7528,10 @@
         <v>632</v>
       </c>
       <c r="C263">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D263" s="29">
-        <v>45.3566163964</v>
+        <v>34.773405903899999</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -7523,10 +7542,10 @@
         <v>634</v>
       </c>
       <c r="C264">
-        <v>1005</v>
+        <v>721</v>
       </c>
       <c r="D264" s="29">
-        <v>193.87696047220001</v>
+        <v>139.08983930400001</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -7537,10 +7556,10 @@
         <v>636</v>
       </c>
       <c r="C265">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D265" s="29">
-        <v>60.307274345400003</v>
+        <v>54.452199166200003</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -7551,10 +7570,10 @@
         <v>638</v>
       </c>
       <c r="C266">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D266" s="29">
-        <v>106.40479975389999</v>
+        <v>94.866929901000006</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -7565,10 +7584,10 @@
         <v>640</v>
       </c>
       <c r="C267">
-        <v>425</v>
+        <v>313</v>
       </c>
       <c r="D267" s="29">
-        <v>156.21726329410001</v>
+        <v>115.0494197907</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -7579,10 +7598,10 @@
         <v>642</v>
       </c>
       <c r="C268">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="D268" s="29">
-        <v>118.1416181132</v>
+        <v>102.9587595605</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -7593,10 +7612,10 @@
         <v>644</v>
       </c>
       <c r="C269">
-        <v>518</v>
+        <v>279</v>
       </c>
       <c r="D269" s="29">
-        <v>243.29071831819999</v>
+        <v>131.03882318679999</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -7607,10 +7626,10 @@
         <v>646</v>
       </c>
       <c r="C270">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c r="D270" s="29">
-        <v>211.2077241682</v>
+        <v>282.52461804320001</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -7621,10 +7640,10 @@
         <v>648</v>
       </c>
       <c r="C271">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D271" s="29">
-        <v>142.7049832994</v>
+        <v>136.50041880809999</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -7635,10 +7654,10 @@
         <v>650</v>
       </c>
       <c r="C272">
-        <v>472</v>
+        <v>236</v>
       </c>
       <c r="D272" s="29">
-        <v>263.97767375270001</v>
+        <v>131.98883687630001</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -7649,10 +7668,10 @@
         <v>652</v>
       </c>
       <c r="C273">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="D273" s="29">
-        <v>164.26159042059999</v>
+        <v>88.271415413</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -7663,10 +7682,10 @@
         <v>654</v>
       </c>
       <c r="C274">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="D274" s="29">
-        <v>141.6474384016</v>
+        <v>144.45790344930001</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -7677,10 +7696,10 @@
         <v>656</v>
       </c>
       <c r="C275">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="D275" s="29">
-        <v>56.187417567099999</v>
+        <v>39.035469046599999</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -7691,10 +7710,10 @@
         <v>658</v>
       </c>
       <c r="C276">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D276" s="29">
-        <v>71.816028726400006</v>
+        <v>74.108029643199998</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -7705,10 +7724,10 @@
         <v>660</v>
       </c>
       <c r="C277">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="D277" s="29">
-        <v>110.4848643201</v>
+        <v>85.849725654099998</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -7719,10 +7738,10 @@
         <v>662</v>
       </c>
       <c r="C278">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="D278" s="29">
-        <v>110.9169677436</v>
+        <v>120.19872236649999</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -7733,10 +7752,10 @@
         <v>664</v>
       </c>
       <c r="C279">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="D279" s="29">
-        <v>84.1144682937</v>
+        <v>51.436905071699996</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -7747,10 +7766,10 @@
         <v>666</v>
       </c>
       <c r="C280">
-        <v>333</v>
+        <v>250</v>
       </c>
       <c r="D280" s="29">
-        <v>92.995978552300002</v>
+        <v>69.816800714899998</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -7761,10 +7780,10 @@
         <v>668</v>
       </c>
       <c r="C281">
-        <v>413</v>
+        <v>325</v>
       </c>
       <c r="D281" s="29">
-        <v>131.51819122680001</v>
+        <v>103.49494467</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -7775,10 +7794,10 @@
         <v>670</v>
       </c>
       <c r="C282">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D282" s="29">
-        <v>74.372087093299996</v>
+        <v>56.664447309099998</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -7789,10 +7808,10 @@
         <v>672</v>
       </c>
       <c r="C283">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D283" s="29">
-        <v>50.031598904600003</v>
+        <v>63.197809142600001</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -7803,10 +7822,10 @@
         <v>674</v>
       </c>
       <c r="C284">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D284" s="29">
-        <v>72.305137654000006</v>
+        <v>78.289011114999994</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -7817,10 +7836,10 @@
         <v>676</v>
       </c>
       <c r="C285">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="D285" s="29">
-        <v>336.83656851540002</v>
+        <v>303.45636803190001</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -7831,10 +7850,10 @@
         <v>678</v>
       </c>
       <c r="C286">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D286" s="29">
-        <v>67.242941927399997</v>
+        <v>70.166548098199996</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -7859,10 +7878,10 @@
         <v>682</v>
       </c>
       <c r="C288">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="D288" s="29">
-        <v>211.77643052900001</v>
+        <v>228.3863466489</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -7873,10 +7892,10 @@
         <v>684</v>
       </c>
       <c r="C289">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D289" s="29">
-        <v>121.66081853990001</v>
+        <v>123.14448705869999</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -7887,10 +7906,10 @@
         <v>686</v>
       </c>
       <c r="C290">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D290" s="29">
-        <v>83.445764152600006</v>
+        <v>43.672549463099998</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -7901,10 +7920,10 @@
         <v>688</v>
       </c>
       <c r="C291">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="D291" s="29">
-        <v>184.98376430050001</v>
+        <v>115.9125733385</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -7915,10 +7934,10 @@
         <v>690</v>
       </c>
       <c r="C292">
-        <v>485</v>
+        <v>604</v>
       </c>
       <c r="D292" s="29">
-        <v>153.43100192029999</v>
+        <v>191.07695909239999</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -7929,10 +7948,10 @@
         <v>692</v>
       </c>
       <c r="C293">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D293" s="29">
-        <v>124.28226989140001</v>
+        <v>54.684198752199997</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -7943,10 +7962,10 @@
         <v>694</v>
       </c>
       <c r="C294">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D294" s="29">
-        <v>34.191753570700001</v>
+        <v>37.300094804399997</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -7957,10 +7976,10 @@
         <v>696</v>
       </c>
       <c r="C295">
-        <v>537</v>
+        <v>219</v>
       </c>
       <c r="D295" s="29">
-        <v>297.7807845442</v>
+        <v>121.4413255404</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -7971,10 +7990,10 @@
         <v>698</v>
       </c>
       <c r="C296">
-        <v>412</v>
+        <v>244</v>
       </c>
       <c r="D296" s="29">
-        <v>190.24223562329999</v>
+        <v>112.6677317769</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -7985,10 +8004,10 @@
         <v>700</v>
       </c>
       <c r="C297">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="D297" s="29">
-        <v>211.40261036269999</v>
+        <v>235.0376848132</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -7999,10 +8018,10 @@
         <v>702</v>
       </c>
       <c r="C298">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="D298" s="29">
-        <v>63.520871143400001</v>
+        <v>43.211476968299998</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -8013,10 +8032,10 @@
         <v>704</v>
       </c>
       <c r="C299">
-        <v>458</v>
+        <v>282</v>
       </c>
       <c r="D299" s="29">
-        <v>160.46303043890001</v>
+        <v>98.800381187300005</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -8027,10 +8046,10 @@
         <v>706</v>
       </c>
       <c r="C300">
-        <v>832</v>
+        <v>730</v>
       </c>
       <c r="D300" s="29">
-        <v>135.4746579346</v>
+        <v>118.8659859282</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -8041,10 +8060,10 @@
         <v>708</v>
       </c>
       <c r="C301">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="D301" s="29">
-        <v>255.78090685960001</v>
+        <v>198.94070533519999</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -8055,10 +8074,10 @@
         <v>710</v>
       </c>
       <c r="C302">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D302" s="29">
-        <v>67.278926672500006</v>
+        <v>37.885220844700001</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -8069,10 +8088,10 @@
         <v>712</v>
       </c>
       <c r="C303">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="D303" s="29">
-        <v>65.440305044599995</v>
+        <v>41.222239398200003</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -8083,10 +8102,10 @@
         <v>714</v>
       </c>
       <c r="C304">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D304" s="29">
-        <v>97.001922075099998</v>
+        <v>86.223930733399996</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -8097,10 +8116,10 @@
         <v>716</v>
       </c>
       <c r="C305">
-        <v>394</v>
+        <v>310</v>
       </c>
       <c r="D305" s="29">
-        <v>92.218102834899994</v>
+        <v>72.557390555400005</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -8111,10 +8130,10 @@
         <v>718</v>
       </c>
       <c r="C306">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D306" s="29">
-        <v>51.806288261900001</v>
+        <v>48.522791118500002</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -8125,10 +8144,10 @@
         <v>720</v>
       </c>
       <c r="C307">
-        <v>308</v>
+        <v>224</v>
       </c>
       <c r="D307" s="29">
-        <v>107.3043611558</v>
+        <v>78.039535386099999</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -8139,10 +8158,10 @@
         <v>722</v>
       </c>
       <c r="C308">
-        <v>411</v>
+        <v>298</v>
       </c>
       <c r="D308" s="29">
-        <v>87.332532962200005</v>
+        <v>63.3213985955</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -8153,10 +8172,10 @@
         <v>724</v>
       </c>
       <c r="C309">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D309" s="29">
-        <v>71.596494977600003</v>
+        <v>65.1848685617</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -8167,10 +8186,10 @@
         <v>726</v>
       </c>
       <c r="C310">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D310" s="29">
-        <v>150.24766631450001</v>
+        <v>107.5967158768</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -8181,10 +8200,10 @@
         <v>728</v>
       </c>
       <c r="C311">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="D311" s="29">
-        <v>111.5539536345</v>
+        <v>93.549992763099993</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -8195,10 +8214,10 @@
         <v>730</v>
       </c>
       <c r="C312">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="D312" s="29">
-        <v>98.952914351499999</v>
+        <v>100.7238837359</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -8209,10 +8228,10 @@
         <v>732</v>
       </c>
       <c r="C313">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D313" s="29">
-        <v>68.685249842600001</v>
+        <v>77.679746845799997</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -8223,10 +8242,10 @@
         <v>734</v>
       </c>
       <c r="C314">
-        <v>544</v>
+        <v>444</v>
       </c>
       <c r="D314" s="29">
-        <v>99.205806457500003</v>
+        <v>80.969444976299997</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -8237,10 +8256,10 @@
         <v>736</v>
       </c>
       <c r="C315">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="D315" s="29">
-        <v>113.835546443</v>
+        <v>93.784967239899999</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -8251,10 +8270,10 @@
         <v>738</v>
       </c>
       <c r="C316">
-        <v>642</v>
+        <v>444</v>
       </c>
       <c r="D316" s="29">
-        <v>106.8639266001</v>
+        <v>73.905893162699996</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -8265,10 +8284,10 @@
         <v>740</v>
       </c>
       <c r="C317">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D317" s="29">
-        <v>107.99271677030001</v>
+        <v>100.45834118160001</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -8279,10 +8298,10 @@
         <v>742</v>
       </c>
       <c r="C318">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D318" s="29">
-        <v>122.7360702428</v>
+        <v>108.57421598400001</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -8293,10 +8312,10 @@
         <v>744</v>
       </c>
       <c r="C319">
-        <v>344</v>
+        <v>223</v>
       </c>
       <c r="D319" s="29">
-        <v>131.63433207060001</v>
+        <v>85.332721080599995</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -8307,10 +8326,10 @@
         <v>746</v>
       </c>
       <c r="C320">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="D320" s="29">
-        <v>48.759267846100002</v>
+        <v>34.896338752600002</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -8321,10 +8340,10 @@
         <v>748</v>
       </c>
       <c r="C321">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D321" s="29">
-        <v>57.925614243200002</v>
+        <v>49.584325792199998</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -8335,10 +8354,10 @@
         <v>750</v>
       </c>
       <c r="C322">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D322" s="29">
-        <v>38.465765468699999</v>
+        <v>47.624281056500003</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -8349,10 +8368,10 @@
         <v>752</v>
       </c>
       <c r="C323">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="D323" s="29">
-        <v>124.655815825</v>
+        <v>93.097381438900001</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -8363,10 +8382,10 @@
         <v>754</v>
       </c>
       <c r="C324">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="D324" s="29">
-        <v>208.2270250695</v>
+        <v>153.08389985349999</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -8377,10 +8396,10 @@
         <v>756</v>
       </c>
       <c r="C325">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="D325" s="29">
-        <v>117.9599365161</v>
+        <v>88.648679563599998</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -8391,10 +8410,10 @@
         <v>758</v>
       </c>
       <c r="C326">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="D326" s="29">
-        <v>285.71428571429999</v>
+        <v>183.24291742010001</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -8405,10 +8424,10 @@
         <v>760</v>
       </c>
       <c r="C327">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="D327" s="29">
-        <v>198.02518836869999</v>
+        <v>173.54405244399999</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -8419,10 +8438,10 @@
         <v>762</v>
       </c>
       <c r="C328">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="D328" s="29">
-        <v>261.48022711430002</v>
+        <v>200.46817412089999</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -8433,10 +8452,10 @@
         <v>764</v>
       </c>
       <c r="C329">
-        <v>385</v>
+        <v>258</v>
       </c>
       <c r="D329" s="29">
-        <v>373.06563048089998</v>
+        <v>250.0024225041</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -8447,10 +8466,10 @@
         <v>766</v>
       </c>
       <c r="C330">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="D330" s="29">
-        <v>116.30360386789999</v>
+        <v>96.233512934900006</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -8461,10 +8480,10 @@
         <v>768</v>
       </c>
       <c r="C331">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D331" s="29">
-        <v>61.183155644300001</v>
+        <v>63.292919632100002</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -8475,10 +8494,10 @@
         <v>770</v>
       </c>
       <c r="C332">
-        <v>462</v>
+        <v>400</v>
       </c>
       <c r="D332" s="29">
-        <v>188.1214727224</v>
+        <v>162.8757339588</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -8489,10 +8508,10 @@
         <v>772</v>
       </c>
       <c r="C333">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D333" s="29">
-        <v>61.366752644000002</v>
+        <v>55.6136195837</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -8503,10 +8522,10 @@
         <v>774</v>
       </c>
       <c r="C334">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D334" s="29">
-        <v>216.2590879048</v>
+        <v>211.5003304693</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -8517,10 +8536,10 @@
         <v>776</v>
       </c>
       <c r="C335">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D335" s="29">
-        <v>132.17327341480001</v>
+        <v>156.30926247310001</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -8531,10 +8550,10 @@
         <v>778</v>
       </c>
       <c r="C336">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D336" s="29">
-        <v>93.144088201700001</v>
+        <v>100.11405398559999</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -8545,10 +8564,10 @@
         <v>780</v>
       </c>
       <c r="C337">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D337" s="29">
-        <v>37.284495615300003</v>
+        <v>59.655192984499998</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -8559,10 +8578,10 @@
         <v>782</v>
       </c>
       <c r="C338">
-        <v>334</v>
+        <v>411</v>
       </c>
       <c r="D338" s="29">
-        <v>267.37967914439997</v>
+        <v>329.02110218069998</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -8573,10 +8592,10 @@
         <v>784</v>
       </c>
       <c r="C339">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D339" s="29">
-        <v>112.247138918</v>
+        <v>82.965276591600002</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -8587,10 +8606,10 @@
         <v>786</v>
       </c>
       <c r="C340">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="D340" s="29">
-        <v>86.907466418699997</v>
+        <v>70.135850092200002</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -8601,10 +8620,10 @@
         <v>788</v>
       </c>
       <c r="C341">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D341" s="29">
-        <v>107.4173637664</v>
+        <v>97.955730688499997</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -8615,10 +8634,10 @@
         <v>790</v>
       </c>
       <c r="C342">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="D342" s="29">
-        <v>87.237610906699999</v>
+        <v>64.244752218100004</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -8629,10 +8648,10 @@
         <v>792</v>
       </c>
       <c r="C343">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D343" s="29">
-        <v>86.115215570399997</v>
+        <v>74.350841858600006</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -8643,10 +8662,10 @@
         <v>794</v>
       </c>
       <c r="C344">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D344" s="29">
-        <v>89.843896230300004</v>
+        <v>41.178452438900003</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -8657,10 +8676,10 @@
         <v>796</v>
       </c>
       <c r="C345">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D345" s="29">
-        <v>74.494347957900004</v>
+        <v>57.170080990899997</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -8671,10 +8690,10 @@
         <v>798</v>
       </c>
       <c r="C346">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D346" s="29">
-        <v>95.135542011200002</v>
+        <v>86.771977878399994</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -8685,10 +8704,10 @@
         <v>800</v>
       </c>
       <c r="C347">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="D347" s="29">
-        <v>72.156579778099996</v>
+        <v>108.5956525661</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -8699,10 +8718,10 @@
         <v>802</v>
       </c>
       <c r="C348">
-        <v>344</v>
+        <v>246</v>
       </c>
       <c r="D348" s="29">
-        <v>124.21283725230001</v>
+        <v>88.826621988599996</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -8713,10 +8732,10 @@
         <v>804</v>
       </c>
       <c r="C349">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D349" s="29">
-        <v>82.537887182899993</v>
+        <v>81.773647486800002</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -8727,10 +8746,10 @@
         <v>806</v>
       </c>
       <c r="C350">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D350" s="29">
-        <v>73.230942558400002</v>
+        <v>75.219112944599999</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -8741,10 +8760,10 @@
         <v>808</v>
       </c>
       <c r="C351">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="D351" s="29">
-        <v>108.6376338347</v>
+        <v>91.054664196700003</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -8755,10 +8774,10 @@
         <v>810</v>
       </c>
       <c r="C352">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="D352" s="29">
-        <v>185.8066746367</v>
+        <v>146.91690552669999</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -8769,10 +8788,10 @@
         <v>812</v>
       </c>
       <c r="C353">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="D353" s="29">
-        <v>233.8998908467</v>
+        <v>133.40956737179999</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -8791,542 +8810,542 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>815</v>
+        <v>993</v>
       </c>
       <c r="B355" t="s">
-        <v>816</v>
+        <v>994</v>
       </c>
       <c r="C355">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="D355" s="29">
-        <v>264.68519169889998</v>
+        <v>229.51107984519999</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B356" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C356">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D356" s="29">
-        <v>50.852761696100004</v>
+        <v>42.540291034299997</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B357" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C357">
-        <v>487</v>
+        <v>441</v>
       </c>
       <c r="D357" s="29">
-        <v>148.1531057393</v>
+        <v>134.1591778872</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B358" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C358">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="D358" s="29">
-        <v>120.7314128502</v>
+        <v>62.926675788600001</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B359" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C359">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D359" s="29">
-        <v>61.825925671500002</v>
+        <v>47.323548044900001</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B360" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C360">
-        <v>426</v>
+        <v>277</v>
       </c>
       <c r="D360" s="29">
-        <v>95.042613002500005</v>
+        <v>61.8000089242</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B361" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C361">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D361" s="29">
-        <v>93.533591150299998</v>
+        <v>89.036783883400005</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B362" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C362">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="D362" s="29">
-        <v>103.62227428369999</v>
+        <v>88.468028637399996</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B363" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C363">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D363" s="29">
-        <v>69.050658073700006</v>
+        <v>66.958213889600003</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B364" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C364">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D364" s="29">
-        <v>129.54905063289999</v>
+        <v>115.7041139241</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B365" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C365">
-        <v>575</v>
+        <v>445</v>
       </c>
       <c r="D365" s="29">
-        <v>90.4214583487</v>
+        <v>69.978346026400004</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B366" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C366">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="D366" s="29">
-        <v>165.57939215170001</v>
+        <v>92.290153002599993</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B367" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C367">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D367" s="29">
-        <v>71.706509474699999</v>
+        <v>49.561852137000002</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B368" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C368">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D368" s="29">
-        <v>198.42887819730001</v>
+        <v>125.03737530239999</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B369" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C369">
-        <v>364</v>
+        <v>172</v>
       </c>
       <c r="D369" s="29">
-        <v>214.12142567219999</v>
+        <v>101.17825608690001</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B370" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C370">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D370" s="29">
-        <v>237.3483607695</v>
+        <v>258.16839241600002</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B371" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C371">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="D371" s="29">
-        <v>144.93652682449999</v>
+        <v>112.2271161015</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B372" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C372">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D372" s="29">
-        <v>48.418334409300002</v>
+        <v>42.141883652499999</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B373" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C373">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D373" s="29">
-        <v>52.8788872676</v>
+        <v>39.491827199799999</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B374" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C374">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D374" s="29">
-        <v>49.414460507800001</v>
+        <v>48.102572175699997</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B375" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C375">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="D375" s="29">
-        <v>156.2877399372</v>
+        <v>134.26537658239999</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B376" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C376">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D376" s="29">
-        <v>181.5934828117</v>
+        <v>182.43419338020001</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B377" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C377">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="D377" s="29">
-        <v>106.0732338265</v>
+        <v>184.00458929089999</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B378" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C378">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D378" s="29">
-        <v>82.814102058499998</v>
+        <v>63.885164445100003</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B379" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C379">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="D379" s="29">
-        <v>117.5007786959</v>
+        <v>109.65051115369999</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B380" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C380">
-        <v>311</v>
+        <v>199</v>
       </c>
       <c r="D380" s="29">
-        <v>304.21003208389999</v>
+        <v>194.6552938415</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B381" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C381">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="D381" s="29">
-        <v>179.57768282870001</v>
+        <v>132.10312300039999</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B382" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C382">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D382" s="29">
-        <v>65.819877602999995</v>
+        <v>78.423683952600001</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B383" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C383">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D383" s="29">
-        <v>45.211582915900003</v>
+        <v>25.5226677751</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B384" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C384">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D384" s="29">
-        <v>94.692216835099998</v>
+        <v>90.342397687200005</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B385" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C385">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="D385" s="29">
-        <v>137.25471635599999</v>
+        <v>99.391346326800004</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B386" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C386">
-        <v>384</v>
+        <v>277</v>
       </c>
       <c r="D386" s="29">
-        <v>169.9137599172</v>
+        <v>122.5679986902</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B387" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C387">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D387" s="29">
-        <v>197.77356200369999</v>
+        <v>199.8955959308</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B388" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C388">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="D388" s="29">
-        <v>85.001468611799993</v>
+        <v>52.068962448000001</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B389" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C389">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D389" s="29">
-        <v>77.498928206299993</v>
+        <v>64.307621277600006</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B390" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C390">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="D390" s="29">
-        <v>131.70850223139999</v>
+        <v>115.08509903709999</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B391" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C391">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D391" s="29">
-        <v>109.35480664080001</v>
+        <v>115.2026572633</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B392" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C392">
-        <v>432</v>
+        <v>290</v>
       </c>
       <c r="D392" s="29">
-        <v>155.48517132160001</v>
+        <v>104.37661963719999</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B393" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C393">
         <v>211</v>
@@ -9337,341 +9356,342 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B394" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C394">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D394" s="29">
-        <v>105.2803967901</v>
+        <v>152.07168425239999</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B395" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C395">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="D395" s="29">
-        <v>66.431450124700007</v>
+        <v>39.858870074800002</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B396" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C396">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="D396" s="29">
-        <v>237.62801250999999</v>
+        <v>154.84147911939999</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B397" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C397">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="D397" s="29">
-        <v>265.34884853210002</v>
+        <v>206.92341399290001</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B398" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C398">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="D398" s="29">
-        <v>135.115164566</v>
+        <v>86.558152300100005</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B399" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C399">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="D399" s="29">
-        <v>129.18741118369999</v>
+        <v>204.71235926029999</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B400" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C400">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="D400" s="29">
-        <v>90.222098544299996</v>
+        <v>68.4818338348</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B401" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C401">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="D401" s="29">
-        <v>176.10602485800001</v>
+        <v>84.666358104799997</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B402" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C402">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="D402" s="29">
-        <v>69.835169189300004</v>
+        <v>96.580553134200002</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B403" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C403">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="D403" s="29">
-        <v>111.24119881039999</v>
+        <v>94.700962252599993</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B404" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C404">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D404" s="29">
-        <v>82.952088884399998</v>
+        <v>82.592988932500006</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B405" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C405">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D405" s="29">
-        <v>70.969522532799999</v>
+        <v>32.856260431899997</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B406" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C406">
-        <v>374</v>
+        <v>164</v>
       </c>
       <c r="D406" s="29">
-        <v>299.3125415156</v>
+        <v>131.24934975549999</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B407" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C407">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D407" s="29">
-        <v>73.779995081300001</v>
+        <v>77.293328180399996</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B408" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C408">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D408" s="29">
-        <v>58.517663974900003</v>
+        <v>75.236996539100005</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B409" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C409">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D409" s="29">
-        <v>67.539860578399995</v>
+        <v>52.262987352400003</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B410" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C410">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D410" s="29">
-        <v>152.01934356370001</v>
+        <v>129.27629216439999</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B411" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C411">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D411" s="29">
-        <v>254.62803661140001</v>
+        <v>236.7352556603</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B412" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C412">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D412" s="29">
-        <v>125.3168121656</v>
+        <v>126.1616446072</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B413" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C413">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D413" s="29">
-        <v>99.269936060800006</v>
+        <v>71.912079666099999</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B414" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C414">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="D414" s="29">
-        <v>64.078076671900007</v>
+        <v>79.481460487199996</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B415" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C415">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D415" s="29">
-        <v>96.639787075599997</v>
+        <v>89.246579321200002</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B416" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C416">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D416" s="29">
-        <v>55.566928903600001</v>
+        <v>43.868628081799997</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B417" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C417">
-        <v>470</v>
+        <v>373</v>
       </c>
       <c r="D417" s="29">
-        <v>149.2054018705</v>
+        <v>118.4119465908</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A5:D417" xr:uid="{29666E3B-11E1-4405-ACD7-2A49F7C52D5E}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -9683,8 +9703,8 @@
   <dimension ref="A2:S510"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H334" sqref="H334:H335"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W341" sqref="W341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9698,7 +9718,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -17511,7 +17531,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="26" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B288" s="32">
         <v>1153556</v>
@@ -17541,7 +17561,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="26" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B289" s="32">
         <v>1171323</v>
@@ -17571,7 +17591,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="26" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B290" s="32">
         <v>1183655</v>
@@ -17601,7 +17621,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="26" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B291" s="32">
         <v>1197709</v>
@@ -17631,7 +17651,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="26" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B292" s="32">
         <v>1218524</v>
@@ -17661,7 +17681,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="26" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B293" s="32">
         <v>1242203</v>
@@ -17691,7 +17711,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="26" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B294" s="32">
         <v>1272078</v>
@@ -17721,7 +17741,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="26" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B295" s="32">
         <v>1300516</v>
@@ -17751,7 +17771,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="26" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B296" s="32">
         <v>1320716</v>
@@ -17781,7 +17801,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="26" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B297" s="32">
         <v>1337078</v>
@@ -17811,7 +17831,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="26" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B298" s="32">
         <v>1351510</v>
@@ -17841,7 +17861,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="26" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B299" s="32">
         <v>1379238</v>
@@ -17871,7 +17891,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="26" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B300" s="32">
         <v>1406161</v>
@@ -17901,7 +17921,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="26" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B301" s="32">
         <v>1439938</v>
@@ -17931,7 +17951,7 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="26" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B302" s="32">
         <v>1471238</v>
@@ -17961,7 +17981,7 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="26" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B303" s="32">
         <v>1494009</v>
@@ -17991,7 +18011,7 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="26" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B304" s="32">
         <v>1510652</v>
@@ -18021,7 +18041,7 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="26" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B305" s="32">
         <v>1530180</v>
@@ -18051,7 +18071,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="26" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B306" s="32">
         <v>1554920</v>
@@ -18081,7 +18101,7 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="26" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B307" s="32">
         <v>1587115</v>
@@ -18111,7 +18131,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="26" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B308" s="32">
         <v>1612648</v>
@@ -18141,7 +18161,7 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="26" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B309" s="32">
         <v>1627103</v>
@@ -18171,7 +18191,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="26" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B310" s="32">
         <v>1640858</v>
@@ -18201,7 +18221,7 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="26" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B311" s="32">
         <v>1651834</v>
@@ -18231,7 +18251,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="26" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B312" s="32">
         <v>1664726</v>
@@ -18261,7 +18281,7 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="26" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B313" s="32">
         <v>1687185</v>
@@ -18291,7 +18311,7 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="37" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B314">
         <v>1719737</v>
@@ -18321,7 +18341,7 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="26" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B315" s="32">
         <v>1742661</v>
@@ -18351,7 +18371,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="26" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B316" s="32">
         <v>1755351</v>
@@ -18381,7 +18401,7 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="26" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B317" s="32">
         <v>1765666</v>
@@ -18411,7 +18431,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="26" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B318" s="32">
         <v>1775513</v>
@@ -18441,7 +18461,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="26" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B319" s="32">
         <v>1787410</v>
@@ -18471,7 +18491,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="26" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B320" s="32">
         <v>1808647</v>
@@ -18501,7 +18521,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="26" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B321" s="32">
         <v>1835038</v>
@@ -18531,7 +18551,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="26" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B322" s="32">
         <v>1866887</v>
@@ -18561,7 +18581,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="26" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B323" s="32">
         <v>1891581</v>
@@ -18591,7 +18611,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="26" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B324" s="32">
         <v>1908527</v>
@@ -18621,7 +18641,7 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="26" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B325" s="32">
         <v>1921024</v>
@@ -18651,7 +18671,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="26" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B326" s="32">
         <v>1933826</v>
@@ -18681,7 +18701,7 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="26" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B327" s="32">
         <v>1953426</v>
@@ -18711,7 +18731,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="37" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B328" s="37">
         <v>1978590</v>
@@ -18741,7 +18761,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="26" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B329" s="32">
         <v>2000958</v>
@@ -18771,7 +18791,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="26" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B330" s="32">
         <v>2019636</v>
@@ -18801,7 +18821,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="26" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B331" s="32">
         <v>2033518</v>
@@ -18831,7 +18851,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="26" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B332" s="32">
         <v>2040659</v>
@@ -18858,13 +18878,13 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="26" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B333" s="32">
         <v>2052028</v>
       </c>
       <c r="D333" s="3">
-        <f t="shared" ref="D333:D335" si="175">B333-B332</f>
+        <f t="shared" ref="D333:D342" si="175">B333-B332</f>
         <v>11369</v>
       </c>
       <c r="E333" s="3">
@@ -18885,7 +18905,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="26" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B334" s="32">
         <v>2068002</v>
@@ -18915,7 +18935,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="26" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B335" s="32">
         <v>2088400</v>
@@ -18944,70 +18964,246 @@
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A336" s="26"/>
-      <c r="G336" s="4"/>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" s="26"/>
-      <c r="G337" s="4"/>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338" s="26"/>
-      <c r="G338" s="4"/>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A339" s="26"/>
-      <c r="G339" s="4"/>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A340" s="26"/>
-      <c r="G340" s="4"/>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A341" s="26"/>
-      <c r="G341" s="4"/>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A342" s="26"/>
-      <c r="G342" s="4"/>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="26" t="s">
+        <v>987</v>
+      </c>
+      <c r="B336" s="32">
+        <v>2106262</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D336" s="3">
+        <f t="shared" si="175"/>
+        <v>17862</v>
+      </c>
+      <c r="E336" s="3">
+        <v>50642</v>
+      </c>
+      <c r="F336" s="3">
+        <f t="shared" ref="F336" si="182">E336-E335</f>
+        <v>859</v>
+      </c>
+      <c r="G336" s="4">
+        <f t="shared" ref="G336" si="183">E336/B336</f>
+        <v>2.404354254124131E-2</v>
+      </c>
+      <c r="H336" s="3">
+        <f t="shared" ref="H336" si="184">B336-E336</f>
+        <v>2055620</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337" s="26" t="s">
+        <v>988</v>
+      </c>
+      <c r="B337" s="32">
+        <v>2122679</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D337" s="3">
+        <f t="shared" si="175"/>
+        <v>16417</v>
+      </c>
+      <c r="E337" s="3">
+        <v>51521</v>
+      </c>
+      <c r="F337" s="3">
+        <f t="shared" ref="F337" si="185">E337-E336</f>
+        <v>879</v>
+      </c>
+      <c r="G337" s="4">
+        <f t="shared" ref="G337" si="186">E337/B337</f>
+        <v>2.4271686863628461E-2</v>
+      </c>
+      <c r="H337" s="3">
+        <f t="shared" ref="H337" si="187">B337-E337</f>
+        <v>2071158</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338" s="26" t="s">
+        <v>989</v>
+      </c>
+      <c r="B338" s="32">
+        <v>2134936</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D338" s="3">
+        <f t="shared" si="175"/>
+        <v>12257</v>
+      </c>
+      <c r="E338" s="3">
+        <v>51870</v>
+      </c>
+      <c r="F338" s="3">
+        <f t="shared" ref="F338:F339" si="188">E338-E337</f>
+        <v>349</v>
+      </c>
+      <c r="G338" s="4">
+        <f t="shared" ref="G338" si="189">E338/B338</f>
+        <v>2.4295810272532761E-2</v>
+      </c>
+      <c r="H338" s="3">
+        <f t="shared" ref="H338" si="190">B338-E338</f>
+        <v>2083066</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339" s="26" t="s">
+        <v>990</v>
+      </c>
+      <c r="B339" s="32">
+        <v>2141665</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D339" s="3">
+        <f t="shared" si="175"/>
+        <v>6729</v>
+      </c>
+      <c r="E339" s="3">
+        <v>52087</v>
+      </c>
+      <c r="F339" s="3">
+        <f t="shared" si="188"/>
+        <v>217</v>
+      </c>
+      <c r="G339" s="4">
+        <f t="shared" ref="G339" si="191">E339/B339</f>
+        <v>2.4320797136807109E-2</v>
+      </c>
+      <c r="H339" s="3">
+        <f t="shared" ref="H339" si="192">B339-E339</f>
+        <v>2089578</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A340" s="26" t="s">
+        <v>991</v>
+      </c>
+      <c r="B340" s="32">
+        <v>2148077</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D340" s="3">
+        <f t="shared" si="175"/>
+        <v>6412</v>
+      </c>
+      <c r="E340" s="3">
+        <v>52990</v>
+      </c>
+      <c r="F340" s="3">
+        <f t="shared" ref="F340:F342" si="193">E340-E339</f>
+        <v>903</v>
+      </c>
+      <c r="G340" s="4">
+        <f t="shared" ref="G340:G342" si="194">E340/B340</f>
+        <v>2.4668575660928355E-2</v>
+      </c>
+      <c r="H340" s="3">
+        <f t="shared" ref="H340:H342" si="195">B340-E340</f>
+        <v>2095087</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A341" s="26">
+        <v>44588</v>
+      </c>
+      <c r="B341">
+        <v>2161275</v>
+      </c>
+      <c r="D341" s="3">
+        <f t="shared" si="175"/>
+        <v>13198</v>
+      </c>
+      <c r="E341">
+        <v>53972</v>
+      </c>
+      <c r="F341" s="3">
+        <f t="shared" si="193"/>
+        <v>982</v>
+      </c>
+      <c r="G341" s="4">
+        <f t="shared" si="194"/>
+        <v>2.4972296445385248E-2</v>
+      </c>
+      <c r="H341" s="3">
+        <f t="shared" si="195"/>
+        <v>2107303</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A342" s="26">
+        <v>44589</v>
+      </c>
+      <c r="B342">
+        <v>2178828</v>
+      </c>
+      <c r="D342" s="3">
+        <f t="shared" si="175"/>
+        <v>17553</v>
+      </c>
+      <c r="E342">
+        <v>54913</v>
+      </c>
+      <c r="F342" s="3">
+        <f t="shared" si="193"/>
+        <v>941</v>
+      </c>
+      <c r="G342" s="4">
+        <f t="shared" si="194"/>
+        <v>2.5202999043522481E-2</v>
+      </c>
+      <c r="H342" s="3">
+        <f t="shared" si="195"/>
+        <v>2123915</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="26"/>
       <c r="G343" s="4"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="26"/>
       <c r="G344" s="4"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="26"/>
       <c r="G345" s="4"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="26"/>
       <c r="G346" s="4"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="26"/>
       <c r="G347" s="4"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="26"/>
       <c r="G348" s="4"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="26"/>
       <c r="G349" s="4"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="26"/>
       <c r="G350" s="4"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="26"/>
       <c r="G351" s="4"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="26"/>
       <c r="G352" s="4"/>
     </row>
@@ -19652,10 +19848,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A2:JH20"/>
+  <dimension ref="A2:JL20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="JB20" sqref="JB20"/>
+      <selection activeCell="JJ21" sqref="JJ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19664,12 +19860,12 @@
     <col min="2" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:268" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:272" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>43957</v>
       </c>
@@ -20453,14 +20649,38 @@
       <c r="JB3" s="5">
         <v>44217</v>
       </c>
-      <c r="JC3" s="5"/>
-      <c r="JD3" s="5"/>
-      <c r="JE3" s="5"/>
-      <c r="JF3" s="5"/>
-      <c r="JG3" s="5"/>
-      <c r="JH3" s="5"/>
-    </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="JC3" s="5">
+        <v>44218</v>
+      </c>
+      <c r="JD3" s="5">
+        <v>44219</v>
+      </c>
+      <c r="JE3" s="5">
+        <v>44220</v>
+      </c>
+      <c r="JF3" s="5">
+        <v>44221</v>
+      </c>
+      <c r="JG3" s="5">
+        <v>44222</v>
+      </c>
+      <c r="JH3" s="5">
+        <v>44223</v>
+      </c>
+      <c r="JI3" s="5">
+        <v>44224</v>
+      </c>
+      <c r="JJ3" s="5">
+        <v>44225</v>
+      </c>
+      <c r="JK3" s="5">
+        <v>44226</v>
+      </c>
+      <c r="JL3" s="5">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -21247,8 +21467,29 @@
       <c r="JB4" s="3">
         <v>10979</v>
       </c>
-    </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="JC4" s="3">
+        <v>10684</v>
+      </c>
+      <c r="JD4">
+        <v>10161</v>
+      </c>
+      <c r="JE4">
+        <v>10020</v>
+      </c>
+      <c r="JF4" s="3">
+        <v>9992</v>
+      </c>
+      <c r="JG4">
+        <v>9656</v>
+      </c>
+      <c r="JH4">
+        <v>9083</v>
+      </c>
+      <c r="JI4" s="3">
+        <v>8770</v>
+      </c>
+    </row>
+    <row r="5" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -22035,8 +22276,29 @@
       <c r="JB5" s="3">
         <v>15715</v>
       </c>
-    </row>
-    <row r="6" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="JC5" s="3">
+        <v>15082</v>
+      </c>
+      <c r="JD5">
+        <v>14277</v>
+      </c>
+      <c r="JE5">
+        <v>14250</v>
+      </c>
+      <c r="JF5" s="3">
+        <v>14046</v>
+      </c>
+      <c r="JG5">
+        <v>13654</v>
+      </c>
+      <c r="JH5">
+        <v>12692</v>
+      </c>
+      <c r="JI5" s="3">
+        <v>12737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -22823,8 +23085,29 @@
       <c r="JB6" s="3">
         <v>4245</v>
       </c>
-    </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="JC6" s="3">
+        <v>4118</v>
+      </c>
+      <c r="JD6">
+        <v>3851</v>
+      </c>
+      <c r="JE6">
+        <v>4028</v>
+      </c>
+      <c r="JF6" s="3">
+        <v>4029</v>
+      </c>
+      <c r="JG6">
+        <v>3731</v>
+      </c>
+      <c r="JH6">
+        <v>3313</v>
+      </c>
+      <c r="JI6" s="3">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -23611,8 +23894,29 @@
       <c r="JB7" s="3">
         <v>5126</v>
       </c>
-    </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="JC7" s="3">
+        <v>4902</v>
+      </c>
+      <c r="JD7">
+        <v>4564</v>
+      </c>
+      <c r="JE7">
+        <v>4221</v>
+      </c>
+      <c r="JF7" s="3">
+        <v>4315</v>
+      </c>
+      <c r="JG7">
+        <v>4061</v>
+      </c>
+      <c r="JH7">
+        <v>3800</v>
+      </c>
+      <c r="JI7" s="3">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -24399,8 +24703,29 @@
       <c r="JB8" s="3">
         <v>522</v>
       </c>
-    </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="JC8" s="3">
+        <v>551</v>
+      </c>
+      <c r="JD8">
+        <v>540</v>
+      </c>
+      <c r="JE8">
+        <v>512</v>
+      </c>
+      <c r="JF8" s="3">
+        <v>507</v>
+      </c>
+      <c r="JG8">
+        <v>518</v>
+      </c>
+      <c r="JH8">
+        <v>529</v>
+      </c>
+      <c r="JI8" s="3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -25187,8 +25512,29 @@
       <c r="JB9" s="3">
         <v>1527</v>
       </c>
-    </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="JC9" s="3">
+        <v>1523</v>
+      </c>
+      <c r="JD9">
+        <v>1464</v>
+      </c>
+      <c r="JE9">
+        <v>1514</v>
+      </c>
+      <c r="JF9" s="3">
+        <v>1660</v>
+      </c>
+      <c r="JG9">
+        <v>1555</v>
+      </c>
+      <c r="JH9">
+        <v>1393</v>
+      </c>
+      <c r="JI9" s="3">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -25975,8 +26321,29 @@
       <c r="JB10" s="3">
         <v>7499</v>
       </c>
-    </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="JC10" s="3">
+        <v>7488</v>
+      </c>
+      <c r="JD10">
+        <v>7259</v>
+      </c>
+      <c r="JE10">
+        <v>7093</v>
+      </c>
+      <c r="JF10" s="3">
+        <v>7023</v>
+      </c>
+      <c r="JG10">
+        <v>6814</v>
+      </c>
+      <c r="JH10">
+        <v>6604</v>
+      </c>
+      <c r="JI10" s="3">
+        <v>6263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
@@ -26763,8 +27130,29 @@
       <c r="JB11" s="3">
         <v>1824</v>
       </c>
-    </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="JC11" s="3">
+        <v>1732</v>
+      </c>
+      <c r="JD11">
+        <v>1703</v>
+      </c>
+      <c r="JE11">
+        <v>1710</v>
+      </c>
+      <c r="JF11" s="3">
+        <v>1713</v>
+      </c>
+      <c r="JG11">
+        <v>1650</v>
+      </c>
+      <c r="JH11">
+        <v>1665</v>
+      </c>
+      <c r="JI11" s="3">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -27551,8 +27939,29 @@
       <c r="JB12" s="3">
         <v>7216</v>
       </c>
-    </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="JC12" s="3">
+        <v>7095</v>
+      </c>
+      <c r="JD12">
+        <v>7111</v>
+      </c>
+      <c r="JE12">
+        <v>6846</v>
+      </c>
+      <c r="JF12" s="3">
+        <v>6756</v>
+      </c>
+      <c r="JG12">
+        <v>6682</v>
+      </c>
+      <c r="JH12">
+        <v>6020</v>
+      </c>
+      <c r="JI12" s="3">
+        <v>6104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -28339,8 +28748,29 @@
       <c r="JB13" s="3">
         <v>19851</v>
       </c>
-    </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="JC13" s="3">
+        <v>19273</v>
+      </c>
+      <c r="JD13">
+        <v>19028</v>
+      </c>
+      <c r="JE13">
+        <v>18824</v>
+      </c>
+      <c r="JF13" s="3">
+        <v>18679</v>
+      </c>
+      <c r="JG13">
+        <v>18381</v>
+      </c>
+      <c r="JH13">
+        <v>17437</v>
+      </c>
+      <c r="JI13" s="3">
+        <v>16712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
@@ -29127,8 +29557,29 @@
       <c r="JB14" s="3">
         <v>4144</v>
       </c>
-    </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="JC14" s="3">
+        <v>4095</v>
+      </c>
+      <c r="JD14">
+        <v>4141</v>
+      </c>
+      <c r="JE14">
+        <v>3938</v>
+      </c>
+      <c r="JF14" s="3">
+        <v>4087</v>
+      </c>
+      <c r="JG14">
+        <v>4104</v>
+      </c>
+      <c r="JH14">
+        <v>3992</v>
+      </c>
+      <c r="JI14" s="3">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -29915,8 +30366,29 @@
       <c r="JB15" s="3">
         <v>1074</v>
       </c>
-    </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.25">
+      <c r="JC15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="JD15">
+        <v>1069</v>
+      </c>
+      <c r="JE15">
+        <v>1101</v>
+      </c>
+      <c r="JF15" s="3">
+        <v>1111</v>
+      </c>
+      <c r="JG15">
+        <v>1101</v>
+      </c>
+      <c r="JH15">
+        <v>1075</v>
+      </c>
+      <c r="JI15" s="3">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="16" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -30703,8 +31175,29 @@
       <c r="JB16" s="3">
         <v>7572</v>
       </c>
-    </row>
-    <row r="17" spans="1:262" x14ac:dyDescent="0.25">
+      <c r="JC16" s="3">
+        <v>6887</v>
+      </c>
+      <c r="JD16">
+        <v>6879</v>
+      </c>
+      <c r="JE16">
+        <v>6807</v>
+      </c>
+      <c r="JF16" s="3">
+        <v>6979</v>
+      </c>
+      <c r="JG16">
+        <v>6553</v>
+      </c>
+      <c r="JH16">
+        <v>5742</v>
+      </c>
+      <c r="JI16" s="3">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -31491,8 +31984,29 @@
       <c r="JB17" s="3">
         <v>4286</v>
       </c>
-    </row>
-    <row r="18" spans="1:262" x14ac:dyDescent="0.25">
+      <c r="JC17" s="3">
+        <v>4051</v>
+      </c>
+      <c r="JD17">
+        <v>4480</v>
+      </c>
+      <c r="JE17">
+        <v>4340</v>
+      </c>
+      <c r="JF17" s="3">
+        <v>4484</v>
+      </c>
+      <c r="JG17">
+        <v>4298</v>
+      </c>
+      <c r="JH17">
+        <v>3988</v>
+      </c>
+      <c r="JI17" s="3">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="18" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -32279,8 +32793,29 @@
       <c r="JB18" s="3">
         <v>2565</v>
       </c>
-    </row>
-    <row r="19" spans="1:262" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="JC18" s="3">
+        <v>2667</v>
+      </c>
+      <c r="JD18">
+        <v>2675</v>
+      </c>
+      <c r="JE18">
+        <v>2794</v>
+      </c>
+      <c r="JF18" s="3">
+        <v>2733</v>
+      </c>
+      <c r="JG18">
+        <v>2606</v>
+      </c>
+      <c r="JH18">
+        <v>2685</v>
+      </c>
+      <c r="JI18" s="3">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:269" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -33067,8 +33602,29 @@
       <c r="JB19" s="3">
         <v>4801</v>
       </c>
-    </row>
-    <row r="20" spans="1:262" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="JC19" s="3">
+        <v>4660</v>
+      </c>
+      <c r="JD19">
+        <v>4470</v>
+      </c>
+      <c r="JE19">
+        <v>4429</v>
+      </c>
+      <c r="JF19" s="3">
+        <v>4343</v>
+      </c>
+      <c r="JG19">
+        <v>4145</v>
+      </c>
+      <c r="JH19">
+        <v>3935</v>
+      </c>
+      <c r="JI19" s="3">
+        <v>3714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:269" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -33897,6 +34453,30 @@
       </c>
       <c r="JB20" s="12">
         <v>98946</v>
+      </c>
+      <c r="JC20" s="12">
+        <v>95908</v>
+      </c>
+      <c r="JD20" s="1">
+        <v>93672</v>
+      </c>
+      <c r="JE20" s="1">
+        <f>SUM(JE4:JE19)</f>
+        <v>92427</v>
+      </c>
+      <c r="JF20" s="12">
+        <v>92457</v>
+      </c>
+      <c r="JG20" s="1">
+        <f>SUM(JG4:JG19)</f>
+        <v>89509</v>
+      </c>
+      <c r="JH20" s="12">
+        <v>92458</v>
+      </c>
+      <c r="JI20" s="1">
+        <f>SUM(JI4:JI19)</f>
+        <v>81627</v>
       </c>
     </row>
   </sheetData>
@@ -33908,11 +34488,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Tabelle5"/>
-  <dimension ref="A2:JC21"/>
+  <dimension ref="A2:JM21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JC8" sqref="JC8"/>
+      <selection pane="topRight" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33979,12 +34559,12 @@
     <col min="221" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:263" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:273" x14ac:dyDescent="0.25">
       <c r="C3" s="5">
         <v>43957</v>
       </c>
@@ -34768,8 +35348,38 @@
       <c r="JC3" s="5">
         <v>44217</v>
       </c>
-    </row>
-    <row r="4" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="JD3" s="5">
+        <v>44218</v>
+      </c>
+      <c r="JE3" s="5">
+        <v>44219</v>
+      </c>
+      <c r="JF3" s="5">
+        <v>44220</v>
+      </c>
+      <c r="JG3" s="5">
+        <v>44221</v>
+      </c>
+      <c r="JH3" s="5">
+        <v>44222</v>
+      </c>
+      <c r="JI3" s="5">
+        <v>44223</v>
+      </c>
+      <c r="JJ3" s="5">
+        <v>44224</v>
+      </c>
+      <c r="JK3" s="5">
+        <v>44225</v>
+      </c>
+      <c r="JL3" s="5">
+        <v>44226</v>
+      </c>
+      <c r="JM3" s="5">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -35559,8 +36169,32 @@
       <c r="JC4" s="13">
         <v>98.906399178263399</v>
       </c>
-    </row>
-    <row r="5" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="JD4" s="13">
+        <v>96.248835852132814</v>
+      </c>
+      <c r="JE4" s="13">
+        <v>91.537291379026726</v>
+      </c>
+      <c r="JF4" s="13">
+        <v>90.267066196028722</v>
+      </c>
+      <c r="JG4" s="13">
+        <v>90.014822897277341</v>
+      </c>
+      <c r="JH4" s="13">
+        <v>86.987903312260812</v>
+      </c>
+      <c r="JI4" s="13">
+        <v>81.825924377098687</v>
+      </c>
+      <c r="JJ4" s="13">
+        <v>79.006204644627928</v>
+      </c>
+      <c r="JK4" s="13"/>
+      <c r="JL4" s="13"/>
+      <c r="JM4" s="13"/>
+    </row>
+    <row r="5" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -36350,8 +36984,32 @@
       <c r="JC5" s="13">
         <v>119.73573260934675</v>
       </c>
-    </row>
-    <row r="6" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="JD5" s="13">
+        <v>114.91277882368233</v>
+      </c>
+      <c r="JE5" s="13">
+        <v>108.7793225875688</v>
+      </c>
+      <c r="JF5" s="13">
+        <v>108.57360417964945</v>
+      </c>
+      <c r="JG5" s="13">
+        <v>107.01928731981448</v>
+      </c>
+      <c r="JH5" s="13">
+        <v>104.03256080483746</v>
+      </c>
+      <c r="JI5" s="13">
+        <v>96.702890122674461</v>
+      </c>
+      <c r="JJ5" s="13">
+        <v>97.045754135873352</v>
+      </c>
+      <c r="JK5" s="13"/>
+      <c r="JL5" s="13"/>
+      <c r="JM5" s="13"/>
+    </row>
+    <row r="6" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -37141,8 +37799,32 @@
       <c r="JC6" s="13">
         <v>115.68361933576074</v>
       </c>
-    </row>
-    <row r="7" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="JD6" s="13">
+        <v>112.22264886328922</v>
+      </c>
+      <c r="JE6" s="13">
+        <v>104.9464353502979</v>
+      </c>
+      <c r="JF6" s="13">
+        <v>109.76999262295507</v>
+      </c>
+      <c r="JG6" s="13">
+        <v>109.79724435895878</v>
+      </c>
+      <c r="JH6" s="13">
+        <v>101.67622702985236</v>
+      </c>
+      <c r="JI6" s="13">
+        <v>90.285001380300429</v>
+      </c>
+      <c r="JJ6" s="13">
+        <v>89.194931940151918</v>
+      </c>
+      <c r="JK6" s="13"/>
+      <c r="JL6" s="13"/>
+      <c r="JM6" s="13"/>
+    </row>
+    <row r="7" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -37932,9 +38614,33 @@
       <c r="JC7" s="13">
         <v>203.26001142792339</v>
       </c>
-    </row>
-    <row r="8" spans="1:263" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="JD7" s="13">
+        <v>194.37779477559121</v>
+      </c>
+      <c r="JE7" s="13">
+        <v>180.9751642912685</v>
+      </c>
+      <c r="JF7" s="13">
+        <v>167.37427004238484</v>
+      </c>
+      <c r="JG7" s="13">
+        <v>171.10162881613138</v>
+      </c>
+      <c r="JH7" s="13">
+        <v>161.02982957643326</v>
+      </c>
+      <c r="JI7" s="13">
+        <v>150.68046106634978</v>
+      </c>
+      <c r="JJ7" s="13">
+        <v>151.39421061876931</v>
+      </c>
+      <c r="JK7" s="13"/>
+      <c r="JL7" s="13"/>
+      <c r="JM7" s="13"/>
+    </row>
+    <row r="8" spans="1:273" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -38723,8 +39429,32 @@
       <c r="JC8" s="13">
         <v>76.629252409711071</v>
       </c>
-    </row>
-    <row r="9" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="JD8" s="13">
+        <v>80.886433099139467</v>
+      </c>
+      <c r="JE8" s="13">
+        <v>79.271640423839031</v>
+      </c>
+      <c r="JF8" s="13">
+        <v>75.161259068528864</v>
+      </c>
+      <c r="JG8" s="13">
+        <v>74.427262397937767</v>
+      </c>
+      <c r="JH8" s="13">
+        <v>76.042055073238188</v>
+      </c>
+      <c r="JI8" s="13">
+        <v>77.65684774853861</v>
+      </c>
+      <c r="JJ8" s="13">
+        <v>72.812469722637331</v>
+      </c>
+      <c r="JK8" s="13"/>
+      <c r="JL8" s="13"/>
+      <c r="JM8" s="13"/>
+    </row>
+    <row r="9" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -39514,8 +40244,32 @@
       <c r="JC9" s="13">
         <v>82.663284347081856</v>
       </c>
-    </row>
-    <row r="10" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="JD9" s="13">
+        <v>82.446746601575427</v>
+      </c>
+      <c r="JE9" s="13">
+        <v>79.252814855355496</v>
+      </c>
+      <c r="JF9" s="13">
+        <v>81.959536674185941</v>
+      </c>
+      <c r="JG9" s="13">
+        <v>89.863164385170847</v>
+      </c>
+      <c r="JH9" s="13">
+        <v>84.1790485656269</v>
+      </c>
+      <c r="JI9" s="13">
+        <v>75.409269872616264</v>
+      </c>
+      <c r="JJ9" s="13">
+        <v>83.908376383743857</v>
+      </c>
+      <c r="JK9" s="13"/>
+      <c r="JL9" s="13"/>
+      <c r="JM9" s="13"/>
+    </row>
+    <row r="10" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -40305,8 +41059,32 @@
       <c r="JC10" s="13">
         <v>119.25738858284247</v>
       </c>
-    </row>
-    <row r="11" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="JD10" s="13">
+        <v>119.08245442169947</v>
+      </c>
+      <c r="JE10" s="13">
+        <v>115.44064324881361</v>
+      </c>
+      <c r="JF10" s="13">
+        <v>112.80072772611035</v>
+      </c>
+      <c r="JG10" s="13">
+        <v>111.68751033701861</v>
+      </c>
+      <c r="JH10" s="13">
+        <v>108.36376127530184</v>
+      </c>
+      <c r="JI10" s="13">
+        <v>105.02410910802661</v>
+      </c>
+      <c r="JJ10" s="13">
+        <v>99.601150112593984</v>
+      </c>
+      <c r="JK10" s="13"/>
+      <c r="JL10" s="13"/>
+      <c r="JM10" s="13"/>
+    </row>
+    <row r="11" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>16</v>
       </c>
@@ -41096,8 +41874,32 @@
       <c r="JC11" s="13">
         <v>113.4231017487305</v>
       </c>
-    </row>
-    <row r="12" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="JD11" s="13">
+        <v>107.70219968684279</v>
+      </c>
+      <c r="JE11" s="13">
+        <v>105.89887186298688</v>
+      </c>
+      <c r="JF11" s="13">
+        <v>106.33415788943486</v>
+      </c>
+      <c r="JG11" s="13">
+        <v>106.52070904362687</v>
+      </c>
+      <c r="JH11" s="13">
+        <v>102.60313480559503</v>
+      </c>
+      <c r="JI11" s="13">
+        <v>103.53589057655499</v>
+      </c>
+      <c r="JJ11" s="13">
+        <v>100.61325582754714</v>
+      </c>
+      <c r="JK11" s="13"/>
+      <c r="JL11" s="13"/>
+      <c r="JM11" s="13"/>
+    </row>
+    <row r="12" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -41887,8 +42689,32 @@
       <c r="JC12" s="13">
         <v>90.272127429816422</v>
       </c>
-    </row>
-    <row r="13" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="JD12" s="13">
+        <v>88.7584179759628</v>
+      </c>
+      <c r="JE12" s="13">
+        <v>88.958577903745095</v>
+      </c>
+      <c r="JF12" s="13">
+        <v>85.643429099850778</v>
+      </c>
+      <c r="JG12" s="13">
+        <v>84.517529506075363</v>
+      </c>
+      <c r="JH12" s="13">
+        <v>83.591789840082228</v>
+      </c>
+      <c r="JI12" s="13">
+        <v>75.310172828089648</v>
+      </c>
+      <c r="JJ12" s="13">
+        <v>76.36101244894671</v>
+      </c>
+      <c r="JK12" s="13"/>
+      <c r="JL12" s="13"/>
+      <c r="JM12" s="13"/>
+    </row>
+    <row r="13" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -42678,8 +43504,32 @@
       <c r="JC13" s="13">
         <v>110.60765340773372</v>
       </c>
-    </row>
-    <row r="14" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="JD13" s="13">
+        <v>107.3870990946175</v>
+      </c>
+      <c r="JE13" s="13">
+        <v>106.02198524217202</v>
+      </c>
+      <c r="JF13" s="13">
+        <v>104.88531901401336</v>
+      </c>
+      <c r="JG13" s="13">
+        <v>104.07739448909668</v>
+      </c>
+      <c r="JH13" s="13">
+        <v>102.41697029306097</v>
+      </c>
+      <c r="JI13" s="13">
+        <v>97.157103041189501</v>
+      </c>
+      <c r="JJ13" s="13">
+        <v>93.117480416606</v>
+      </c>
+      <c r="JK13" s="13"/>
+      <c r="JL13" s="13"/>
+      <c r="JM13" s="13"/>
+    </row>
+    <row r="14" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
@@ -43469,8 +44319,32 @@
       <c r="JC14" s="13">
         <v>101.22369777691362</v>
       </c>
-    </row>
-    <row r="15" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="JD14" s="13">
+        <v>100.02679594509199</v>
+      </c>
+      <c r="JE14" s="13">
+        <v>101.15041807292455</v>
+      </c>
+      <c r="JF14" s="13">
+        <v>96.191824769663569</v>
+      </c>
+      <c r="JG14" s="13">
+        <v>99.83138340112113</v>
+      </c>
+      <c r="JH14" s="13">
+        <v>100.24663505705924</v>
+      </c>
+      <c r="JI14" s="13">
+        <v>97.510859441466991</v>
+      </c>
+      <c r="JJ14" s="13">
+        <v>90.060756202577352</v>
+      </c>
+      <c r="JK14" s="13"/>
+      <c r="JL14" s="13"/>
+      <c r="JM14" s="13"/>
+    </row>
+    <row r="15" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -44260,8 +45134,32 @@
       <c r="JC15" s="13">
         <v>108.82704909477984</v>
       </c>
-    </row>
-    <row r="16" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="JD15" s="13">
+        <v>111.4615959071302</v>
+      </c>
+      <c r="JE15" s="13">
+        <v>108.32040547702016</v>
+      </c>
+      <c r="JF15" s="13">
+        <v>111.56292463068215</v>
+      </c>
+      <c r="JG15" s="13">
+        <v>112.5762118662015</v>
+      </c>
+      <c r="JH15" s="13">
+        <v>111.56292463068215</v>
+      </c>
+      <c r="JI15" s="13">
+        <v>108.92837781833178</v>
+      </c>
+      <c r="JJ15" s="13">
+        <v>107.20578951794886</v>
+      </c>
+      <c r="JK15" s="13"/>
+      <c r="JL15" s="13"/>
+      <c r="JM15" s="13"/>
+    </row>
+    <row r="16" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -45051,8 +45949,32 @@
       <c r="JC16" s="13">
         <v>185.95417305280415</v>
       </c>
-    </row>
-    <row r="17" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="JD16" s="13">
+        <v>169.13185285455128</v>
+      </c>
+      <c r="JE16" s="13">
+        <v>168.93538780114102</v>
+      </c>
+      <c r="JF16" s="13">
+        <v>167.16720232044875</v>
+      </c>
+      <c r="JG16" s="13">
+        <v>171.39120096876917</v>
+      </c>
+      <c r="JH16" s="13">
+        <v>160.92943687467323</v>
+      </c>
+      <c r="JI16" s="13">
+        <v>141.01279208520884</v>
+      </c>
+      <c r="JJ16" s="13">
+        <v>129.96163283088214</v>
+      </c>
+      <c r="JK16" s="13"/>
+      <c r="JL16" s="13"/>
+      <c r="JM16" s="13"/>
+    </row>
+    <row r="17" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -45842,8 +46764,32 @@
       <c r="JC17" s="13">
         <v>195.28135368341822</v>
       </c>
-    </row>
-    <row r="18" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="JD17" s="13">
+        <v>184.57413993736054</v>
+      </c>
+      <c r="JE17" s="13">
+        <v>204.12050035037649</v>
+      </c>
+      <c r="JF17" s="13">
+        <v>197.7417347144272</v>
+      </c>
+      <c r="JG17" s="13">
+        <v>204.30275079711788</v>
+      </c>
+      <c r="JH17" s="13">
+        <v>195.82810502364245</v>
+      </c>
+      <c r="JI17" s="13">
+        <v>181.70369540118335</v>
+      </c>
+      <c r="JJ17" s="13">
+        <v>173.95805141467352</v>
+      </c>
+      <c r="JK17" s="13"/>
+      <c r="JL17" s="13"/>
+      <c r="JM17" s="13"/>
+    </row>
+    <row r="18" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>23</v>
       </c>
@@ -46633,8 +47579,32 @@
       <c r="JC18" s="13">
         <v>88.333351126276057</v>
       </c>
-    </row>
-    <row r="19" spans="1:263" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="JD18" s="13">
+        <v>91.846022399133815</v>
+      </c>
+      <c r="JE18" s="13">
+        <v>92.121526028377559</v>
+      </c>
+      <c r="JF18" s="13">
+        <v>96.219642513378275</v>
+      </c>
+      <c r="JG18" s="13">
+        <v>94.11892734039472</v>
+      </c>
+      <c r="JH18" s="13">
+        <v>89.74530722615026</v>
+      </c>
+      <c r="JI18" s="13">
+        <v>92.465905564932243</v>
+      </c>
+      <c r="JJ18" s="13">
+        <v>93.567920081907232</v>
+      </c>
+      <c r="JK18" s="13"/>
+      <c r="JL18" s="13"/>
+      <c r="JM18" s="13"/>
+    </row>
+    <row r="19" spans="1:273" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -47424,8 +48394,32 @@
       <c r="JC19" s="13">
         <v>225.04216317970841</v>
       </c>
-    </row>
-    <row r="20" spans="1:263" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="JD19" s="13">
+        <v>218.43292656060012</v>
+      </c>
+      <c r="JE19" s="13">
+        <v>209.52686303130531</v>
+      </c>
+      <c r="JF19" s="13">
+        <v>207.60502826972063</v>
+      </c>
+      <c r="JG19" s="13">
+        <v>203.5738626722503</v>
+      </c>
+      <c r="JH19" s="13">
+        <v>194.29280699435355</v>
+      </c>
+      <c r="JI19" s="13">
+        <v>184.44926309355398</v>
+      </c>
+      <c r="JJ19" s="13">
+        <v>174.09010498842682</v>
+      </c>
+      <c r="JK19" s="13"/>
+      <c r="JL19" s="13"/>
+      <c r="JM19" s="13"/>
+    </row>
+    <row r="20" spans="1:273" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -48215,13 +49209,37 @@
       <c r="JC20" s="15">
         <v>118.97308287206404</v>
       </c>
-    </row>
-    <row r="21" spans="1:263" x14ac:dyDescent="0.25">
+      <c r="JD20" s="15">
+        <v>115.32017900768012</v>
+      </c>
+      <c r="JE20" s="15">
+        <v>112.63160328656018</v>
+      </c>
+      <c r="JF20" s="15">
+        <v>111.13461009658059</v>
+      </c>
+      <c r="JG20" s="15">
+        <v>111.17068222164033</v>
+      </c>
+      <c r="JH20" s="15">
+        <v>107.62599473243567</v>
+      </c>
+      <c r="JI20" s="15">
+        <v>100.94543717137016</v>
+      </c>
+      <c r="JJ20" s="15">
+        <v>98.148645075070974</v>
+      </c>
+      <c r="JK20" s="15"/>
+      <c r="JL20" s="15"/>
+      <c r="JM20" s="15"/>
+    </row>
+    <row r="21" spans="1:273" x14ac:dyDescent="0.25">
       <c r="JB21" s="13"/>
       <c r="JC21" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="A4:HQ19">
+  <sortState ref="A4:JJ19">
     <sortCondition ref="A4:A19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
+++ b/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AE4F23-BF78-47C1-9C65-7FA00F7A7180}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD8DEDC-3DBF-4913-B610-AE6339CC2BE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="150" windowWidth="15270" windowHeight="10800" tabRatio="800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="996">
   <si>
     <t>Todesfälle</t>
   </si>
@@ -3021,16 +3021,16 @@
     <t>26.01.2021</t>
   </si>
   <si>
-    <t>Stand: 28.01.2021 06:22:37</t>
-  </si>
-  <si>
     <t>LK Spree-Neiße</t>
   </si>
   <si>
     <t>12071</t>
   </si>
   <si>
-    <t>28.01.2021</t>
+    <t>Stand: 29.01.2021 06:17:14</t>
+  </si>
+  <si>
+    <t>29.01.2021</t>
   </si>
 </sst>
 </file>
@@ -3245,18 +3245,6 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet001" fillFormulas="1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="4">
-    <queryTableFields count="3">
-      <queryTableField id="1" name="Bundesland"/>
-      <queryTableField id="2" name="Fälle in den letzten 7 Tagen"/>
-      <queryTableField id="3" name="7-Tage-Inzidenz"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet003" fillFormulas="1" connectionId="3" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
@@ -3266,7 +3254,7 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet002" fillFormulas="1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
     <queryTableFields count="5">
@@ -3275,6 +3263,18 @@
       <queryTableField id="3"/>
       <queryTableField id="4"/>
       <queryTableField id="5" name="Todesfälle"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet001" fillFormulas="1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" name="Bundesland"/>
+      <queryTableField id="2" name="Fälle in den letzten 7 Tagen"/>
+      <queryTableField id="3" name="7-Tage-Inzidenz"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3618,7 +3618,7 @@
   <dimension ref="A2:E36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C22"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3634,7 +3634,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3653,10 +3653,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>8770</v>
+        <v>8411</v>
       </c>
       <c r="C6" s="29">
-        <v>79.006204644627928</v>
+        <v>75.772085207065629</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3664,10 +3664,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>12737</v>
+        <v>12311</v>
       </c>
       <c r="C7" s="29">
-        <v>97.045754135873352</v>
+        <v>93.799974810923828</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3675,10 +3675,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>3273</v>
+        <v>3105</v>
       </c>
       <c r="C8" s="29">
-        <v>89.194931940151918</v>
+        <v>84.616640291528171</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3686,10 +3686,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>3818</v>
+        <v>3535</v>
       </c>
       <c r="C9" s="29">
-        <v>151.39421061876931</v>
+        <v>140.17248154461748</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3697,10 +3697,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="C10" s="29">
-        <v>72.812469722637331</v>
+        <v>73.986864395583098</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3708,10 +3708,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>1550</v>
+        <v>1306</v>
       </c>
       <c r="C11" s="29">
-        <v>83.908376383743857</v>
+        <v>70.699573907851274</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3719,10 +3719,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>6263</v>
+        <v>5936</v>
       </c>
       <c r="C12" s="29">
-        <v>99.601150112593984</v>
+        <v>94.400834594979713</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3730,10 +3730,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1618</v>
+        <v>1587</v>
       </c>
       <c r="C13" s="29">
-        <v>100.61325582754714</v>
+        <v>98.685560567563229</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3741,10 +3741,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>6104</v>
+        <v>5741</v>
       </c>
       <c r="C14" s="29">
-        <v>76.36101244894671</v>
+        <v>71.81988408738583</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3752,10 +3752,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>16712</v>
+        <v>16160</v>
       </c>
       <c r="C15" s="29">
-        <v>93.117480416606</v>
+        <v>90.041795328647254</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3763,10 +3763,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>3687</v>
+        <v>3530</v>
       </c>
       <c r="C16" s="29">
-        <v>90.060756202577352</v>
+        <v>86.225785027148916</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3774,10 +3774,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>1058</v>
+        <v>1091</v>
       </c>
       <c r="C17" s="29">
-        <v>107.20578951794886</v>
+        <v>110.54963739516278</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3785,10 +3785,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>5292</v>
+        <v>5349</v>
       </c>
       <c r="C18" s="29">
-        <v>129.96163283088214</v>
+        <v>131.36144633643022</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3796,10 +3796,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>3818</v>
+        <v>3645</v>
       </c>
       <c r="C19" s="29">
-        <v>173.95805141467352</v>
+        <v>166.07571959310766</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3807,10 +3807,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>2717</v>
+        <v>2606</v>
       </c>
       <c r="C20" s="29">
-        <v>93.567920081907232</v>
+        <v>89.74530722615026</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3818,10 +3818,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>3714</v>
+        <v>3664</v>
       </c>
       <c r="C21" s="29">
-        <v>174.09010498842682</v>
+        <v>171.746404059665</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3830,11 +3830,11 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B6:B21)</f>
-        <v>81627</v>
+        <v>78481</v>
       </c>
       <c r="C22" s="30">
         <f>B22/A36*100000</f>
-        <v>98.148645075070974</v>
+        <v>94.365881560471948</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3859,7 +3859,7 @@
         <v>995</v>
       </c>
       <c r="B31">
-        <v>2178828</v>
+        <v>2192850</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -3868,7 +3868,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>54913</v>
+        <v>55752</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -3905,7 +3905,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3930,10 +3930,10 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="D6" s="29">
-        <v>87.2490691637</v>
+        <v>84.735721492400003</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3944,10 +3944,10 @@
         <v>120</v>
       </c>
       <c r="C7">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D7" s="29">
-        <v>83.0220008302</v>
+        <v>79.178389680699993</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3958,10 +3958,10 @@
         <v>122</v>
       </c>
       <c r="C8">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D8" s="29">
-        <v>64.609557758700007</v>
+        <v>68.322750733399999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3972,10 +3972,10 @@
         <v>124</v>
       </c>
       <c r="C9">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D9" s="29">
-        <v>99.961436197200001</v>
+        <v>101.9911100286</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3986,10 +3986,10 @@
         <v>126</v>
       </c>
       <c r="C10">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="D10" s="29">
-        <v>198.00208069979999</v>
+        <v>175.62896423660001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4000,10 +4000,10 @@
         <v>128</v>
       </c>
       <c r="C11">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D11" s="29">
-        <v>45.029307868499998</v>
+        <v>34.936531966899999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4014,10 +4014,10 @@
         <v>130</v>
       </c>
       <c r="C12">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="29">
-        <v>123.8382648215</v>
+        <v>122.6359515708</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4028,10 +4028,10 @@
         <v>132</v>
       </c>
       <c r="C13">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D13" s="29">
-        <v>96.847089206899994</v>
+        <v>97.743821514399997</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4042,10 +4042,10 @@
         <v>134</v>
       </c>
       <c r="C14">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D14" s="29">
-        <v>88.675040674900004</v>
+        <v>71.711119850100005</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4056,10 +4056,10 @@
         <v>136</v>
       </c>
       <c r="C15">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D15" s="29">
-        <v>101.87883526429999</v>
+        <v>92.4017343095</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4070,10 +4070,10 @@
         <v>138</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="29">
-        <v>58.224728042000002</v>
+        <v>57.254315908000002</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4084,10 +4084,10 @@
         <v>140</v>
       </c>
       <c r="C17">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D17" s="29">
-        <v>47.253301724300002</v>
+        <v>40.846074371900002</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4098,10 +4098,10 @@
         <v>142</v>
       </c>
       <c r="C18">
-        <v>382</v>
+        <v>476</v>
       </c>
       <c r="D18" s="29">
-        <v>241.03075350500001</v>
+        <v>300.34198604289998</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4112,10 +4112,10 @@
         <v>144</v>
       </c>
       <c r="C19">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D19" s="29">
-        <v>145.93999712900001</v>
+        <v>153.11737403699999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4140,10 +4140,10 @@
         <v>148</v>
       </c>
       <c r="C21">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="D21" s="29">
-        <v>146.47474719019999</v>
+        <v>109.8560603927</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4154,10 +4154,10 @@
         <v>150</v>
       </c>
       <c r="C22">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="D22" s="29">
-        <v>155.5683122847</v>
+        <v>129.16188289319999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4168,10 +4168,10 @@
         <v>152</v>
       </c>
       <c r="C23">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="D23" s="29">
-        <v>114.30228402260001</v>
+        <v>124.0803555172</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4182,10 +4182,10 @@
         <v>154</v>
       </c>
       <c r="C24">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D24" s="29">
-        <v>72.198462922299996</v>
+        <v>73.776571401499993</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4196,10 +4196,10 @@
         <v>156</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D25" s="29">
-        <v>18.450768079100001</v>
+        <v>14.233449661</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4210,10 +4210,10 @@
         <v>158</v>
       </c>
       <c r="C26">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D26" s="29">
-        <v>116.8303547874</v>
+        <v>100.2479818498</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4224,10 +4224,10 @@
         <v>160</v>
       </c>
       <c r="C27">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D27" s="29">
-        <v>73.618443357399997</v>
+        <v>58.119823703199998</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4238,10 +4238,10 @@
         <v>162</v>
       </c>
       <c r="C28">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D28" s="29">
-        <v>113.6758344122</v>
+        <v>121.254223373</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4252,10 +4252,10 @@
         <v>164</v>
       </c>
       <c r="C29">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="D29" s="29">
-        <v>125.86286420099999</v>
+        <v>99.283128903900007</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4266,10 +4266,10 @@
         <v>166</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D30" s="29">
-        <v>28.993385883799998</v>
+        <v>18.1208661774</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4280,10 +4280,10 @@
         <v>168</v>
       </c>
       <c r="C31">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D31" s="29">
-        <v>56.867382678699997</v>
+        <v>77.546430925500005</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4294,10 +4294,10 @@
         <v>170</v>
       </c>
       <c r="C32">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="D32" s="29">
-        <v>96.491645318500005</v>
+        <v>131.8266140266</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4308,10 +4308,10 @@
         <v>172</v>
       </c>
       <c r="C33">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="D33" s="29">
-        <v>89.071710824600004</v>
+        <v>76.655654164200001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4322,10 +4322,10 @@
         <v>174</v>
       </c>
       <c r="C34">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="D34" s="29">
-        <v>135.77619279550001</v>
+        <v>148.11948304969999</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4336,10 +4336,10 @@
         <v>176</v>
       </c>
       <c r="C35">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D35" s="29">
-        <v>156.45266972440001</v>
+        <v>137.73183744970001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4350,10 +4350,10 @@
         <v>178</v>
       </c>
       <c r="C36">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="D36" s="29">
-        <v>172.67325204510001</v>
+        <v>138.91032566749999</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4364,10 +4364,10 @@
         <v>180</v>
       </c>
       <c r="C37">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="D37" s="29">
-        <v>194.46988076919999</v>
+        <v>148.2124819455</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4378,10 +4378,10 @@
         <v>182</v>
       </c>
       <c r="C38">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="D38" s="29">
-        <v>134.27535695789999</v>
+        <v>116.88984242070001</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4392,10 +4392,10 @@
         <v>184</v>
       </c>
       <c r="C39">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="D39" s="29">
-        <v>79.844258838900004</v>
+        <v>67.583529953600006</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4406,10 +4406,10 @@
         <v>186</v>
       </c>
       <c r="C40">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D40" s="29">
-        <v>67.007257346900005</v>
+        <v>62.752828309000002</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4420,10 +4420,10 @@
         <v>188</v>
       </c>
       <c r="C41">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D41" s="29">
-        <v>77.480961322300004</v>
+        <v>83.065174751000001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4434,10 +4434,10 @@
         <v>190</v>
       </c>
       <c r="C42">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D42" s="29">
-        <v>93.547859617399993</v>
+        <v>77.9565496811</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4448,10 +4448,10 @@
         <v>192</v>
       </c>
       <c r="C43">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="D43" s="29">
-        <v>110.3299772411</v>
+        <v>99.137080999299997</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4462,10 +4462,10 @@
         <v>194</v>
       </c>
       <c r="C44">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="D44" s="29">
-        <v>99.961696919900007</v>
+        <v>94.979182431699996</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4476,10 +4476,10 @@
         <v>196</v>
       </c>
       <c r="C45">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="D45" s="29">
-        <v>85.168175742900004</v>
+        <v>80.143504607599994</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4490,10 +4490,10 @@
         <v>198</v>
       </c>
       <c r="C46">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="D46" s="29">
-        <v>99.734682639599995</v>
+        <v>92.803314734200001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4504,10 +4504,10 @@
         <v>200</v>
       </c>
       <c r="C47">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D47" s="29">
-        <v>107.10445613109999</v>
+        <v>104.1758186588</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4518,10 +4518,10 @@
         <v>202</v>
       </c>
       <c r="C48">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="D48" s="29">
-        <v>75.452466600700006</v>
+        <v>79.092717182300007</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4546,10 +4546,10 @@
         <v>206</v>
       </c>
       <c r="C50">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D50" s="29">
-        <v>94.188106031000004</v>
+        <v>94.938608867900001</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4560,10 +4560,10 @@
         <v>208</v>
       </c>
       <c r="C51">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D51" s="29">
-        <v>62.231626112400001</v>
+        <v>66.6767422633</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4574,10 +4574,10 @@
         <v>210</v>
       </c>
       <c r="C52">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D52" s="29">
-        <v>68.560527021799999</v>
+        <v>75.515942806599995</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -4588,10 +4588,10 @@
         <v>212</v>
       </c>
       <c r="C53">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D53" s="29">
-        <v>102.6346893281</v>
+        <v>102.9339158276</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4602,10 +4602,10 @@
         <v>214</v>
       </c>
       <c r="C54">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="D54" s="29">
-        <v>206.297636842</v>
+        <v>168.00286593120001</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4616,10 +4616,10 @@
         <v>216</v>
       </c>
       <c r="C55">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D55" s="29">
-        <v>51.484988592500002</v>
+        <v>49.465969432000001</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4630,10 +4630,10 @@
         <v>218</v>
       </c>
       <c r="C56">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="D56" s="29">
-        <v>69.754357737999996</v>
+        <v>60.589551611899999</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4644,10 +4644,10 @@
         <v>220</v>
       </c>
       <c r="C57">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D57" s="29">
-        <v>92.727586046499994</v>
+        <v>93.274651450999997</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4658,10 +4658,10 @@
         <v>222</v>
       </c>
       <c r="C58">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D58" s="29">
-        <v>80.930703085499999</v>
+        <v>84.609371407599994</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4672,10 +4672,10 @@
         <v>224</v>
       </c>
       <c r="C59">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D59" s="29">
-        <v>103.7391597128</v>
+        <v>104.0424905892</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4686,10 +4686,10 @@
         <v>226</v>
       </c>
       <c r="C60">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="D60" s="29">
-        <v>140.999163366</v>
+        <v>124.61751782970001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4700,10 +4700,10 @@
         <v>228</v>
       </c>
       <c r="C61">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="D61" s="29">
-        <v>47.396045123199997</v>
+        <v>53.5898464745</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4714,10 +4714,10 @@
         <v>230</v>
       </c>
       <c r="C62">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="D62" s="29">
-        <v>153.9573852762</v>
+        <v>126.73840003399999</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4728,10 +4728,10 @@
         <v>232</v>
       </c>
       <c r="C63">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D63" s="29">
-        <v>177.32461487309999</v>
+        <v>198.1048431785</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4742,10 +4742,10 @@
         <v>234</v>
       </c>
       <c r="C64">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D64" s="29">
-        <v>87.006727985699996</v>
+        <v>83.398154013899997</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4756,10 +4756,10 @@
         <v>236</v>
       </c>
       <c r="C65">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D65" s="29">
-        <v>52.7312111866</v>
+        <v>57.2835459653</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4770,10 +4770,10 @@
         <v>238</v>
       </c>
       <c r="C66">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D66" s="29">
-        <v>70.301061211299995</v>
+        <v>69.948674939499995</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4784,10 +4784,10 @@
         <v>240</v>
       </c>
       <c r="C67">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D67" s="29">
-        <v>85.355015267100001</v>
+        <v>94.154501377100004</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4798,10 +4798,10 @@
         <v>242</v>
       </c>
       <c r="C68">
-        <v>556</v>
+        <v>455</v>
       </c>
       <c r="D68" s="29">
-        <v>310.88198785549997</v>
+        <v>254.40882099679999</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4812,10 +4812,10 @@
         <v>244</v>
       </c>
       <c r="C69">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D69" s="29">
-        <v>84.798462321200006</v>
+        <v>77.260821226000004</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4826,10 +4826,10 @@
         <v>246</v>
       </c>
       <c r="C70">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D70" s="29">
-        <v>63.124612454000001</v>
+        <v>50.834864896600003</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4840,10 +4840,10 @@
         <v>248</v>
       </c>
       <c r="C71">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D71" s="29">
-        <v>123.4394287411</v>
+        <v>110.93923342550001</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4854,10 +4854,10 @@
         <v>250</v>
       </c>
       <c r="C72">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D72" s="29">
-        <v>62.9226984501</v>
+        <v>62.110792663600002</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4868,10 +4868,10 @@
         <v>252</v>
       </c>
       <c r="C73">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="D73" s="29">
-        <v>147.05710033860001</v>
+        <v>123.03582100049999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4882,10 +4882,10 @@
         <v>254</v>
       </c>
       <c r="C74">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D74" s="29">
-        <v>160.69341643940001</v>
+        <v>136.34592910009999</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4896,10 +4896,10 @@
         <v>256</v>
       </c>
       <c r="C75">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D75" s="29">
-        <v>123.3472050907</v>
+        <v>107.2083184433</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4910,10 +4910,10 @@
         <v>258</v>
       </c>
       <c r="C76">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D76" s="29">
-        <v>104.2769857434</v>
+        <v>84.725050916499995</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -4924,10 +4924,10 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D77" s="29">
-        <v>48.960496132999999</v>
+        <v>44.427116861499997</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -4938,10 +4938,10 @@
         <v>262</v>
       </c>
       <c r="C78">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D78" s="29">
-        <v>211.68161479969999</v>
+        <v>198.63961957500001</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -4952,10 +4952,10 @@
         <v>264</v>
       </c>
       <c r="C79">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D79" s="29">
-        <v>68.673688888000001</v>
+        <v>67.158828103700003</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -4966,10 +4966,10 @@
         <v>266</v>
       </c>
       <c r="C80">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D80" s="29">
-        <v>114.2680068948</v>
+        <v>105.2298594568</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -4980,10 +4980,10 @@
         <v>268</v>
       </c>
       <c r="C81">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D81" s="29">
-        <v>141.10813801660001</v>
+        <v>135.25302855539999</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -5008,10 +5008,10 @@
         <v>272</v>
       </c>
       <c r="C83">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="D83" s="29">
-        <v>86.286780999399994</v>
+        <v>91.658720672599998</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -5022,10 +5022,10 @@
         <v>274</v>
       </c>
       <c r="C84">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D84" s="29">
-        <v>166.55786002439999</v>
+        <v>160.69904082759999</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -5036,10 +5036,10 @@
         <v>276</v>
       </c>
       <c r="C85">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D85" s="29">
-        <v>59.309686819100001</v>
+        <v>65.756391908099999</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -5064,10 +5064,10 @@
         <v>280</v>
       </c>
       <c r="C87">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D87" s="29">
-        <v>47.9066189443</v>
+        <v>53.8949463123</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -5078,10 +5078,10 @@
         <v>282</v>
       </c>
       <c r="C88">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D88" s="29">
-        <v>53.851411528299998</v>
+        <v>54.887015596200001</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -5092,10 +5092,10 @@
         <v>284</v>
       </c>
       <c r="C89">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D89" s="29">
-        <v>63.092787770299999</v>
+        <v>70.332943744000005</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -5106,10 +5106,10 @@
         <v>286</v>
       </c>
       <c r="C90">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D90" s="29">
-        <v>56.309265501900001</v>
+        <v>42.044251574800001</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -5120,10 +5120,10 @@
         <v>288</v>
       </c>
       <c r="C91">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D91" s="29">
-        <v>64.283204891500006</v>
+        <v>52.3235388652</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -5134,10 +5134,10 @@
         <v>290</v>
       </c>
       <c r="C92">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D92" s="29">
-        <v>69.034185197499994</v>
+        <v>74.344507135699999</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5148,10 +5148,10 @@
         <v>292</v>
       </c>
       <c r="C93">
-        <v>546</v>
+        <v>501</v>
       </c>
       <c r="D93" s="29">
-        <v>92.817679557999995</v>
+        <v>85.167870803200003</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -5162,10 +5162,10 @@
         <v>294</v>
       </c>
       <c r="C94">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D94" s="29">
-        <v>103.99080426739999</v>
+        <v>103.6315959625</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -5176,10 +5176,10 @@
         <v>296</v>
       </c>
       <c r="C95">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D95" s="29">
-        <v>91.841359091699999</v>
+        <v>91.039251152000006</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -5190,10 +5190,10 @@
         <v>298</v>
       </c>
       <c r="C96">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D96" s="29">
-        <v>99.003166589800003</v>
+        <v>100.5146653164</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -5204,10 +5204,10 @@
         <v>300</v>
       </c>
       <c r="C97">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="D97" s="29">
-        <v>79.115323448200002</v>
+        <v>75.256039377600004</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -5218,10 +5218,10 @@
         <v>302</v>
       </c>
       <c r="C98">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D98" s="29">
-        <v>98.852063014699993</v>
+        <v>93.282932704000004</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -5232,10 +5232,10 @@
         <v>304</v>
       </c>
       <c r="C99">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="D99" s="29">
-        <v>214.987100774</v>
+        <v>231.98608083510001</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -5246,10 +5246,10 @@
         <v>306</v>
       </c>
       <c r="C100">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D100" s="29">
-        <v>109.87274328159999</v>
+        <v>101.5946598837</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5260,10 +5260,10 @@
         <v>308</v>
       </c>
       <c r="C101">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D101" s="29">
-        <v>108.875739645</v>
+        <v>89.940828402400001</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -5274,10 +5274,10 @@
         <v>310</v>
       </c>
       <c r="C102">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="D102" s="29">
-        <v>177.7524625099</v>
+        <v>201.3218498041</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5288,10 +5288,10 @@
         <v>312</v>
       </c>
       <c r="C103">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D103" s="29">
-        <v>24.041832789099999</v>
+        <v>22.038346723299998</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -5302,10 +5302,10 @@
         <v>314</v>
       </c>
       <c r="C104">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D104" s="29">
-        <v>33.051295610799997</v>
+        <v>29.445699726000001</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -5316,10 +5316,10 @@
         <v>316</v>
       </c>
       <c r="C105">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="D105" s="29">
-        <v>66.981899594400005</v>
+        <v>58.723857178700001</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5330,10 +5330,10 @@
         <v>318</v>
       </c>
       <c r="C106">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="D106" s="29">
-        <v>92.253768828700004</v>
+        <v>79.912127513800002</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -5344,10 +5344,10 @@
         <v>320</v>
       </c>
       <c r="C107">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D107" s="29">
-        <v>68.151295876800006</v>
+        <v>73.663533043399994</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5358,10 +5358,10 @@
         <v>322</v>
       </c>
       <c r="C108">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D108" s="29">
-        <v>61.513076956500001</v>
+        <v>65.131493247999998</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5372,10 +5372,10 @@
         <v>324</v>
       </c>
       <c r="C109">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D109" s="29">
-        <v>132.72206410850001</v>
+        <v>127.1140895687</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -5386,10 +5386,10 @@
         <v>326</v>
       </c>
       <c r="C110">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D110" s="29">
-        <v>64.872742783999996</v>
+        <v>63.095407365299998</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -5400,10 +5400,10 @@
         <v>328</v>
       </c>
       <c r="C111">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D111" s="29">
-        <v>77.224577814699998</v>
+        <v>78.681645320599998</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5414,10 +5414,10 @@
         <v>330</v>
       </c>
       <c r="C112">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="D112" s="29">
-        <v>126.28825967020001</v>
+        <v>114.3461074555</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5428,10 +5428,10 @@
         <v>332</v>
       </c>
       <c r="C113">
-        <v>725</v>
+        <v>690</v>
       </c>
       <c r="D113" s="29">
-        <v>124.4079895669</v>
+        <v>118.4020866223</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5442,10 +5442,10 @@
         <v>334</v>
       </c>
       <c r="C114">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D114" s="29">
-        <v>87.846526510999993</v>
+        <v>86.538173988500006</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5456,10 +5456,10 @@
         <v>336</v>
       </c>
       <c r="C115">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D115" s="29">
-        <v>63.514685834700003</v>
+        <v>60.416408476900003</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -5470,10 +5470,10 @@
         <v>338</v>
       </c>
       <c r="C116">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D116" s="29">
-        <v>138.63626281000001</v>
+        <v>148.61807373229999</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -5484,10 +5484,10 @@
         <v>340</v>
       </c>
       <c r="C117">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D117" s="29">
-        <v>78.311231207500001</v>
+        <v>87.777423990800003</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -5498,10 +5498,10 @@
         <v>342</v>
       </c>
       <c r="C118">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D118" s="29">
-        <v>137.40207538659999</v>
+        <v>120.99585743</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -5512,10 +5512,10 @@
         <v>344</v>
       </c>
       <c r="C119">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D119" s="29">
-        <v>199.13075098269999</v>
+        <v>174.88874651520001</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -5526,10 +5526,10 @@
         <v>346</v>
       </c>
       <c r="C120">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D120" s="29">
-        <v>63.533233776099998</v>
+        <v>63.402237417800002</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -5540,10 +5540,10 @@
         <v>348</v>
       </c>
       <c r="C121">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D121" s="29">
-        <v>55.7970544346</v>
+        <v>53.201842600399999</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -5554,10 +5554,10 @@
         <v>350</v>
       </c>
       <c r="C122">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D122" s="29">
-        <v>111.1067902915</v>
+        <v>110.55125633999999</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -5568,10 +5568,10 @@
         <v>352</v>
       </c>
       <c r="C123">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D123" s="29">
-        <v>63.428701910500003</v>
+        <v>64.274417935900004</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -5582,10 +5582,10 @@
         <v>354</v>
       </c>
       <c r="C124">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D124" s="29">
-        <v>142.9264184171</v>
+        <v>151.85931956819999</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -5596,10 +5596,10 @@
         <v>356</v>
       </c>
       <c r="C125">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D125" s="29">
-        <v>38.4989463446</v>
+        <v>39.5120765116</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -5610,10 +5610,10 @@
         <v>358</v>
       </c>
       <c r="C126">
-        <v>481</v>
+        <v>414</v>
       </c>
       <c r="D126" s="29">
-        <v>215.55490824349999</v>
+        <v>185.5295883842</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -5624,10 +5624,10 @@
         <v>360</v>
       </c>
       <c r="C127">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D127" s="29">
-        <v>72.955756893200004</v>
+        <v>69.763942529100007</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -5638,10 +5638,10 @@
         <v>362</v>
       </c>
       <c r="C128">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D128" s="29">
-        <v>150.19805909870001</v>
+        <v>143.97223281480001</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -5652,10 +5652,10 @@
         <v>364</v>
       </c>
       <c r="C129">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D129" s="29">
-        <v>112.8524517832</v>
+        <v>114.54948113330001</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -5666,10 +5666,10 @@
         <v>366</v>
       </c>
       <c r="C130">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D130" s="29">
-        <v>107.4368949606</v>
+        <v>84.818601284699994</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -5680,10 +5680,10 @@
         <v>368</v>
       </c>
       <c r="C131">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D131" s="29">
-        <v>108.6098326561</v>
+        <v>103.9881376495</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -5694,10 +5694,10 @@
         <v>370</v>
       </c>
       <c r="C132">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D132" s="29">
-        <v>94.496644295300001</v>
+        <v>106.3087248322</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -5708,10 +5708,10 @@
         <v>372</v>
       </c>
       <c r="C133">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D133" s="29">
-        <v>62.009254881300002</v>
+        <v>63.559486253300001</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -5722,10 +5722,10 @@
         <v>374</v>
       </c>
       <c r="C134">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D134" s="29">
-        <v>84.968672419900003</v>
+        <v>81.643811325200005</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5736,10 +5736,10 @@
         <v>376</v>
       </c>
       <c r="C135">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D135" s="29">
-        <v>93.4722387451</v>
+        <v>83.841765662300006</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5750,10 +5750,10 @@
         <v>378</v>
       </c>
       <c r="C136">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D136" s="29">
-        <v>56.944740359100003</v>
+        <v>53.070948497899998</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5764,10 +5764,10 @@
         <v>380</v>
       </c>
       <c r="C137">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D137" s="29">
-        <v>131.36808784249999</v>
+        <v>129.78533979619999</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5778,10 +5778,10 @@
         <v>382</v>
       </c>
       <c r="C138">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D138" s="29">
-        <v>59.431221201500001</v>
+        <v>64.567252663399998</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -5792,10 +5792,10 @@
         <v>384</v>
       </c>
       <c r="C139">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D139" s="29">
-        <v>200.136389243</v>
+        <v>246.83488006639999</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -5806,10 +5806,10 @@
         <v>386</v>
       </c>
       <c r="C140">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D140" s="29">
-        <v>50.300422339500003</v>
+        <v>47.846743201000002</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -5820,10 +5820,10 @@
         <v>388</v>
       </c>
       <c r="C141">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D141" s="29">
-        <v>61.970516615400001</v>
+        <v>58.3251921086</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -5834,10 +5834,10 @@
         <v>390</v>
       </c>
       <c r="C142">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="D142" s="29">
-        <v>148.87369350500001</v>
+        <v>127.312675825</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -5848,10 +5848,10 @@
         <v>392</v>
       </c>
       <c r="C143">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D143" s="29">
-        <v>132.74047423889999</v>
+        <v>130.5644008907</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5862,10 +5862,10 @@
         <v>394</v>
       </c>
       <c r="C144">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D144" s="29">
-        <v>76.361718374800006</v>
+        <v>66.127673644200001</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -5876,10 +5876,10 @@
         <v>396</v>
       </c>
       <c r="C145">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="D145" s="29">
-        <v>83.849859428200006</v>
+        <v>90.152299842700003</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -5890,10 +5890,10 @@
         <v>398</v>
       </c>
       <c r="C146">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D146" s="29">
-        <v>211.99241067169999</v>
+        <v>213.05237272510001</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -5904,10 +5904,10 @@
         <v>400</v>
       </c>
       <c r="C147">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="D147" s="29">
-        <v>165.85553815099999</v>
+        <v>152.03424330499999</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -5918,10 +5918,10 @@
         <v>402</v>
       </c>
       <c r="C148">
-        <v>1550</v>
+        <v>1306</v>
       </c>
       <c r="D148" s="29">
-        <v>83.908376383700002</v>
+        <v>70.699573907900003</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -5932,10 +5932,10 @@
         <v>404</v>
       </c>
       <c r="C149">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D149" s="29">
-        <v>84.147318393299997</v>
+        <v>78.088711468900001</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -5946,10 +5946,10 @@
         <v>406</v>
       </c>
       <c r="C150">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="D150" s="29">
-        <v>121.7234709531</v>
+        <v>101.71413326219999</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -5960,10 +5960,10 @@
         <v>408</v>
       </c>
       <c r="C151">
-        <v>1509</v>
+        <v>1318</v>
       </c>
       <c r="D151" s="29">
-        <v>130.41054692060001</v>
+        <v>113.9039767007</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -5974,10 +5974,10 @@
         <v>410</v>
       </c>
       <c r="C152">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D152" s="29">
-        <v>53.8456398788</v>
+        <v>51.487436672400001</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -5988,10 +5988,10 @@
         <v>412</v>
       </c>
       <c r="C153">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="D153" s="29">
-        <v>161.73643992309999</v>
+        <v>148.61000421919999</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -6002,10 +6002,10 @@
         <v>414</v>
       </c>
       <c r="C154">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D154" s="29">
-        <v>74.658703071700003</v>
+        <v>52.142586272300001</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -6016,10 +6016,10 @@
         <v>416</v>
       </c>
       <c r="C155">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D155" s="29">
-        <v>140.4942452576</v>
+        <v>137.4266853174</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -6030,10 +6030,10 @@
         <v>418</v>
       </c>
       <c r="C156">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D156" s="29">
-        <v>34.1216864644</v>
+        <v>24.169527912300001</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -6044,10 +6044,10 @@
         <v>420</v>
       </c>
       <c r="C157">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D157" s="29">
-        <v>55.113478032000003</v>
+        <v>49.540204972600002</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -6058,10 +6058,10 @@
         <v>422</v>
       </c>
       <c r="C158">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D158" s="29">
-        <v>50.460546630800003</v>
+        <v>54.979401553000002</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -6072,10 +6072,10 @@
         <v>424</v>
       </c>
       <c r="C159">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="D159" s="29">
-        <v>178.52628918100001</v>
+        <v>161.93756319510001</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -6086,10 +6086,10 @@
         <v>426</v>
       </c>
       <c r="C160">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D160" s="29">
-        <v>72.578210279399997</v>
+        <v>68.804143344899998</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -6100,10 +6100,10 @@
         <v>428</v>
       </c>
       <c r="C161">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D161" s="29">
-        <v>99.782825614800004</v>
+        <v>104.0871827982</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -6114,10 +6114,10 @@
         <v>430</v>
       </c>
       <c r="C162">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="D162" s="29">
-        <v>102.9606668346</v>
+        <v>129.24849666470001</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -6128,10 +6128,10 @@
         <v>432</v>
       </c>
       <c r="C163">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D163" s="29">
-        <v>88.595167971600006</v>
+        <v>90.191477304499998</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -6142,10 +6142,10 @@
         <v>434</v>
       </c>
       <c r="C164">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D164" s="29">
-        <v>137.4249755511</v>
+        <v>130.39393029039999</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -6156,10 +6156,10 @@
         <v>436</v>
       </c>
       <c r="C165">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D165" s="29">
-        <v>91.949071811400003</v>
+        <v>103.5462520399</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -6170,10 +6170,10 @@
         <v>438</v>
       </c>
       <c r="C166">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D166" s="29">
-        <v>84.840343603400001</v>
+        <v>80.800327241299996</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -6184,10 +6184,10 @@
         <v>440</v>
       </c>
       <c r="C167">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="D167" s="29">
-        <v>219.94714938999999</v>
+        <v>261.0883428011</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -6198,10 +6198,10 @@
         <v>442</v>
       </c>
       <c r="C168">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="D168" s="29">
-        <v>101.8791445052</v>
+        <v>77.950235119699997</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -6212,10 +6212,10 @@
         <v>444</v>
       </c>
       <c r="C169">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D169" s="29">
-        <v>87.767585275100004</v>
+        <v>83.533184231099995</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -6226,10 +6226,10 @@
         <v>446</v>
       </c>
       <c r="C170">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D170" s="29">
-        <v>81.886254083799997</v>
+        <v>70.489713566899994</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -6240,10 +6240,10 @@
         <v>448</v>
       </c>
       <c r="C171">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D171" s="29">
-        <v>168.03055100930001</v>
+        <v>220.40370976540001</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -6254,10 +6254,10 @@
         <v>450</v>
       </c>
       <c r="C172">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="D172" s="29">
-        <v>172.99395576000001</v>
+        <v>227.84569783020001</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -6268,10 +6268,10 @@
         <v>452</v>
       </c>
       <c r="C173">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D173" s="29">
-        <v>34.618969419899997</v>
+        <v>31.955971772200002</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -6282,10 +6282,10 @@
         <v>454</v>
       </c>
       <c r="C174">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D174" s="29">
-        <v>62.448550909799998</v>
+        <v>43.997842686399999</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -6296,10 +6296,10 @@
         <v>456</v>
       </c>
       <c r="C175">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="D175" s="29">
-        <v>136.18441223240001</v>
+        <v>159.00064883670001</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -6310,10 +6310,10 @@
         <v>458</v>
       </c>
       <c r="C176">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D176" s="29">
-        <v>147.76609662210001</v>
+        <v>151.53083793729999</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -6324,10 +6324,10 @@
         <v>460</v>
       </c>
       <c r="C177">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D177" s="29">
-        <v>77.879352509599997</v>
+        <v>73.512286013700006</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -6338,10 +6338,10 @@
         <v>462</v>
       </c>
       <c r="C178">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D178" s="29">
-        <v>94.303189243999995</v>
+        <v>113.16382709289999</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -6352,10 +6352,10 @@
         <v>464</v>
       </c>
       <c r="C179">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D179" s="29">
-        <v>141.75847481279999</v>
+        <v>135.0612240342</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -6366,10 +6366,10 @@
         <v>466</v>
       </c>
       <c r="C180">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D180" s="29">
-        <v>98.970308907299994</v>
+        <v>94.971508547400006</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -6380,10 +6380,10 @@
         <v>468</v>
       </c>
       <c r="C181">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D181" s="29">
-        <v>94.358316270200007</v>
+        <v>76.430236178900003</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -6394,10 +6394,10 @@
         <v>470</v>
       </c>
       <c r="C182">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D182" s="29">
-        <v>69.858360571700004</v>
+        <v>66.012946228299995</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -6408,10 +6408,10 @@
         <v>472</v>
       </c>
       <c r="C183">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D183" s="29">
-        <v>76.162488963200005</v>
+        <v>75.713152745100004</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -6422,10 +6422,10 @@
         <v>474</v>
       </c>
       <c r="C184">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D184" s="29">
-        <v>74.207097166799997</v>
+        <v>65.796959487899997</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -6436,10 +6436,10 @@
         <v>476</v>
       </c>
       <c r="C185">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D185" s="29">
-        <v>112.7705225457</v>
+        <v>107.7021844537</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -6450,10 +6450,10 @@
         <v>478</v>
       </c>
       <c r="C186">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D186" s="29">
-        <v>78.832379836900003</v>
+        <v>60.813550159899997</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -6478,10 +6478,10 @@
         <v>482</v>
       </c>
       <c r="C188">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D188" s="29">
-        <v>56.398316727199997</v>
+        <v>54.952206041899998</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -6492,10 +6492,10 @@
         <v>484</v>
       </c>
       <c r="C189">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D189" s="29">
-        <v>55.917080642199998</v>
+        <v>54.296295696000001</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -6506,10 +6506,10 @@
         <v>486</v>
       </c>
       <c r="C190">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D190" s="29">
-        <v>88.859634688200003</v>
+        <v>95.441829850299996</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -6520,10 +6520,10 @@
         <v>488</v>
       </c>
       <c r="C191">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D191" s="29">
-        <v>75.848495031400006</v>
+        <v>72.648136591300002</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -6534,10 +6534,10 @@
         <v>490</v>
       </c>
       <c r="C192">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D192" s="29">
-        <v>122.7510258479</v>
+        <v>136.77971451619999</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -6548,10 +6548,10 @@
         <v>492</v>
       </c>
       <c r="C193">
-        <v>801</v>
+        <v>784</v>
       </c>
       <c r="D193" s="29">
-        <v>73.630595029000006</v>
+        <v>72.067898255599999</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -6562,10 +6562,10 @@
         <v>494</v>
       </c>
       <c r="C194">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D194" s="29">
-        <v>71.252685073600006</v>
+        <v>70.554129337600003</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -6576,10 +6576,10 @@
         <v>496</v>
       </c>
       <c r="C195">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D195" s="29">
-        <v>89.703056499699997</v>
+        <v>95.859148612499993</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -6590,10 +6590,10 @@
         <v>498</v>
       </c>
       <c r="C196">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D196" s="29">
-        <v>101.88334357159999</v>
+        <v>103.38162803589999</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -6604,10 +6604,10 @@
         <v>500</v>
       </c>
       <c r="C197">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D197" s="29">
-        <v>127.1553531006</v>
+        <v>118.7714836654</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -6618,10 +6618,10 @@
         <v>502</v>
       </c>
       <c r="C198">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D198" s="29">
-        <v>56.964639200199997</v>
+        <v>44.147595380200002</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -6632,10 +6632,10 @@
         <v>504</v>
       </c>
       <c r="C199">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D199" s="29">
-        <v>164.3938985609</v>
+        <v>142.83404301190001</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -6646,10 +6646,10 @@
         <v>506</v>
       </c>
       <c r="C200">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D200" s="29">
-        <v>99.084553468199999</v>
+        <v>99.479312645299999</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -6660,10 +6660,10 @@
         <v>508</v>
       </c>
       <c r="C201">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D201" s="29">
-        <v>117.3183165888</v>
+        <v>134.38279900169999</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -6674,10 +6674,10 @@
         <v>510</v>
       </c>
       <c r="C202">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D202" s="29">
-        <v>59.849379062700002</v>
+        <v>68.993034197300005</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -6688,10 +6688,10 @@
         <v>512</v>
       </c>
       <c r="C203">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D203" s="29">
-        <v>84.456007955199993</v>
+        <v>85.818201631899996</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -6702,10 +6702,10 @@
         <v>514</v>
       </c>
       <c r="C204">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D204" s="29">
-        <v>95.062384690000002</v>
+        <v>89.433690859600006</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -6716,10 +6716,10 @@
         <v>516</v>
       </c>
       <c r="C205">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D205" s="29">
-        <v>49.778631497600003</v>
+        <v>42.751059992000002</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -6730,10 +6730,10 @@
         <v>518</v>
       </c>
       <c r="C206">
-        <v>623</v>
+        <v>592</v>
       </c>
       <c r="D206" s="29">
-        <v>105.0333392341</v>
+        <v>99.806961198400003</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -6744,10 +6744,10 @@
         <v>520</v>
       </c>
       <c r="C207">
-        <v>461</v>
+        <v>505</v>
       </c>
       <c r="D207" s="29">
-        <v>178.5859556286</v>
+        <v>195.6310359922</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -6758,10 +6758,10 @@
         <v>522</v>
       </c>
       <c r="C208">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D208" s="29">
-        <v>113.6023551112</v>
+        <v>111.1592937109</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -6772,10 +6772,10 @@
         <v>524</v>
       </c>
       <c r="C209">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="D209" s="29">
-        <v>106.32562597339999</v>
+        <v>152.74949083499999</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -6786,10 +6786,10 @@
         <v>526</v>
       </c>
       <c r="C210">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D210" s="29">
-        <v>123.31890734789999</v>
+        <v>125.0639862255</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -6800,10 +6800,10 @@
         <v>528</v>
       </c>
       <c r="C211">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D211" s="29">
-        <v>79.286663983099999</v>
+        <v>75.627279491600007</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -6814,10 +6814,10 @@
         <v>530</v>
       </c>
       <c r="C212">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="D212" s="29">
-        <v>111.3624199313</v>
+        <v>107.6215634478</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -6828,10 +6828,10 @@
         <v>532</v>
       </c>
       <c r="C213">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D213" s="29">
-        <v>90.060156687200006</v>
+        <v>90.934527140499995</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6842,10 +6842,10 @@
         <v>534</v>
       </c>
       <c r="C214">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="D214" s="29">
-        <v>152.4038239505</v>
+        <v>141.78173925089999</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -6856,10 +6856,10 @@
         <v>536</v>
       </c>
       <c r="C215">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D215" s="29">
-        <v>35.115260679199999</v>
+        <v>28.918449971099999</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -6870,10 +6870,10 @@
         <v>538</v>
       </c>
       <c r="C216">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D216" s="29">
-        <v>71.870823195900002</v>
+        <v>69.120664145099994</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -6884,10 +6884,10 @@
         <v>540</v>
       </c>
       <c r="C217">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D217" s="29">
-        <v>93.467167480399993</v>
+        <v>92.306084654499998</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -6898,10 +6898,10 @@
         <v>542</v>
       </c>
       <c r="C218">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D218" s="29">
-        <v>129.38015572840001</v>
+        <v>126.0748232828</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -6912,10 +6912,10 @@
         <v>544</v>
       </c>
       <c r="C219">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D219" s="29">
-        <v>33.127148512799998</v>
+        <v>31.497944487600002</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -6926,10 +6926,10 @@
         <v>546</v>
       </c>
       <c r="C220">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D220" s="29">
-        <v>86.713110096199998</v>
+        <v>86.292172668500001</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -6940,10 +6940,10 @@
         <v>548</v>
       </c>
       <c r="C221">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D221" s="29">
-        <v>97.015351252599999</v>
+        <v>98.679830318200004</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -6954,10 +6954,10 @@
         <v>550</v>
       </c>
       <c r="C222">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D222" s="29">
-        <v>74.509741752400004</v>
+        <v>62.619889345099999</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -6968,10 +6968,10 @@
         <v>552</v>
       </c>
       <c r="C223">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D223" s="29">
-        <v>90.635125642899993</v>
+        <v>70.997515086999996</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -6982,10 +6982,10 @@
         <v>554</v>
       </c>
       <c r="C224">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D224" s="29">
-        <v>70.842310884599996</v>
+        <v>67.488828712499995</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -7010,10 +7010,10 @@
         <v>558</v>
       </c>
       <c r="C226">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D226" s="29">
-        <v>84.666795953000005</v>
+        <v>77.098814191900004</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -7024,10 +7024,10 @@
         <v>560</v>
       </c>
       <c r="C227">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="D227" s="29">
-        <v>97.856807164100005</v>
+        <v>88.843680188500002</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -7038,10 +7038,10 @@
         <v>562</v>
       </c>
       <c r="C228">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D228" s="29">
-        <v>234.91574157790001</v>
+        <v>237.13891894299999</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -7052,10 +7052,10 @@
         <v>564</v>
       </c>
       <c r="C229">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D229" s="29">
-        <v>56.660892651899999</v>
+        <v>58.279775299100002</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -7066,10 +7066,10 @@
         <v>566</v>
       </c>
       <c r="C230">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="D230" s="29">
-        <v>110.915553042</v>
+        <v>107.50276679460001</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -7080,10 +7080,10 @@
         <v>568</v>
       </c>
       <c r="C231">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D231" s="29">
-        <v>67.432605708300002</v>
+        <v>75.095401811499997</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -7094,10 +7094,10 @@
         <v>570</v>
       </c>
       <c r="C232">
-        <v>268</v>
+        <v>212</v>
       </c>
       <c r="D232" s="29">
-        <v>124.9801803818</v>
+        <v>98.864918809499997</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -7108,10 +7108,10 @@
         <v>572</v>
       </c>
       <c r="C233">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="D233" s="29">
-        <v>148.79453180100001</v>
+        <v>137.55744476390001</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -7122,10 +7122,10 @@
         <v>574</v>
       </c>
       <c r="C234">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="D234" s="29">
-        <v>156.3812226695</v>
+        <v>149.3482047187</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -7136,10 +7136,10 @@
         <v>576</v>
       </c>
       <c r="C235">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D235" s="29">
-        <v>106.5759637188</v>
+        <v>99.773242630400006</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -7150,10 +7150,10 @@
         <v>578</v>
       </c>
       <c r="C236">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D236" s="29">
-        <v>89.110157589400004</v>
+        <v>73.612738878200005</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -7164,10 +7164,10 @@
         <v>580</v>
       </c>
       <c r="C237">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="D237" s="29">
-        <v>114.7105463682</v>
+        <v>107.7084663385</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -7178,10 +7178,10 @@
         <v>582</v>
       </c>
       <c r="C238">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D238" s="29">
-        <v>73.992600739899999</v>
+        <v>72.992700729899994</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -7192,10 +7192,10 @@
         <v>584</v>
       </c>
       <c r="C239">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="D239" s="29">
-        <v>162.3389232813</v>
+        <v>192.63183241030001</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -7206,10 +7206,10 @@
         <v>586</v>
       </c>
       <c r="C240">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="D240" s="29">
-        <v>132.72811033190001</v>
+        <v>116.9424855594</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -7220,10 +7220,10 @@
         <v>588</v>
       </c>
       <c r="C241">
-        <v>614</v>
+        <v>647</v>
       </c>
       <c r="D241" s="29">
-        <v>201.90793129869999</v>
+        <v>212.75966050529999</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -7234,10 +7234,10 @@
         <v>590</v>
       </c>
       <c r="C242">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D242" s="29">
-        <v>83.130933135099994</v>
+        <v>81.981657561899993</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -7248,10 +7248,10 @@
         <v>592</v>
       </c>
       <c r="C243">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D243" s="29">
-        <v>145.85059375860001</v>
+        <v>146.71361502350001</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -7262,10 +7262,10 @@
         <v>594</v>
       </c>
       <c r="C244">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D244" s="29">
-        <v>89.0805944958</v>
+        <v>90.252707581199999</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -7276,10 +7276,10 @@
         <v>596</v>
       </c>
       <c r="C245">
-        <v>981</v>
+        <v>935</v>
       </c>
       <c r="D245" s="29">
-        <v>66.095055604699994</v>
+        <v>62.995797136</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -7290,10 +7290,10 @@
         <v>598</v>
       </c>
       <c r="C246">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D246" s="29">
-        <v>68.193555566300006</v>
+        <v>69.049541619500005</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -7304,10 +7304,10 @@
         <v>600</v>
       </c>
       <c r="C247">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D247" s="29">
-        <v>33.619522158800002</v>
+        <v>32.033695641800001</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -7318,10 +7318,10 @@
         <v>602</v>
       </c>
       <c r="C248">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="D248" s="29">
-        <v>112.7874513517</v>
+        <v>94.685761628600005</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -7332,10 +7332,10 @@
         <v>604</v>
       </c>
       <c r="C249">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D249" s="29">
-        <v>81.1896858267</v>
+        <v>68.857075321400004</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -7346,10 +7346,10 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D250" s="29">
-        <v>57.218015500900002</v>
+        <v>38.640737740900001</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -7360,10 +7360,10 @@
         <v>608</v>
       </c>
       <c r="C251">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D251" s="29">
-        <v>83.545313980700001</v>
+        <v>72.322809117700004</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -7374,10 +7374,10 @@
         <v>610</v>
       </c>
       <c r="C252">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D252" s="29">
-        <v>85.230731766700004</v>
+        <v>95.884573237599994</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -7388,10 +7388,10 @@
         <v>612</v>
       </c>
       <c r="C253">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D253" s="29">
-        <v>90.086522660200004</v>
+        <v>98.006216960000003</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -7402,10 +7402,10 @@
         <v>614</v>
       </c>
       <c r="C254">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D254" s="29">
-        <v>155.6379036527</v>
+        <v>160.9317098994</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -7416,10 +7416,10 @@
         <v>616</v>
       </c>
       <c r="C255">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D255" s="29">
-        <v>103.2592370081</v>
+        <v>97.626914989499994</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -7430,10 +7430,10 @@
         <v>618</v>
       </c>
       <c r="C256">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D256" s="29">
-        <v>85.6144836876</v>
+        <v>79.906851441699999</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -7444,10 +7444,10 @@
         <v>620</v>
       </c>
       <c r="C257">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D257" s="29">
-        <v>129.642089371</v>
+        <v>134.56520668889999</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -7458,10 +7458,10 @@
         <v>622</v>
       </c>
       <c r="C258">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="D258" s="29">
-        <v>163.93442622949999</v>
+        <v>185.35299448059999</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -7472,10 +7472,10 @@
         <v>624</v>
       </c>
       <c r="C259">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="D259" s="29">
-        <v>104.2476393634</v>
+        <v>114.4916270465</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -7486,10 +7486,10 @@
         <v>626</v>
       </c>
       <c r="C260">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D260" s="29">
-        <v>93.507240817099998</v>
+        <v>69.531025223</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -7500,10 +7500,10 @@
         <v>628</v>
       </c>
       <c r="C261">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="D261" s="29">
-        <v>136.54224465339999</v>
+        <v>147.66790903250001</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -7514,10 +7514,10 @@
         <v>630</v>
       </c>
       <c r="C262">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D262" s="29">
-        <v>69.284651860500006</v>
+        <v>64.835178805300004</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -7528,10 +7528,10 @@
         <v>632</v>
       </c>
       <c r="C263">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D263" s="29">
-        <v>34.773405903899999</v>
+        <v>30.237744264300002</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -7542,10 +7542,10 @@
         <v>634</v>
       </c>
       <c r="C264">
-        <v>721</v>
+        <v>675</v>
       </c>
       <c r="D264" s="29">
-        <v>139.08983930400001</v>
+        <v>130.2158689739</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -7556,10 +7556,10 @@
         <v>636</v>
       </c>
       <c r="C265">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D265" s="29">
-        <v>54.452199166200003</v>
+        <v>42.742048807899998</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -7570,10 +7570,10 @@
         <v>638</v>
       </c>
       <c r="C266">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="D266" s="29">
-        <v>94.866929901000006</v>
+        <v>67.304240808200007</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -7584,10 +7584,10 @@
         <v>640</v>
       </c>
       <c r="C267">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D267" s="29">
-        <v>115.0494197907</v>
+        <v>109.5358693215</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -7598,10 +7598,10 @@
         <v>642</v>
       </c>
       <c r="C268">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D268" s="29">
-        <v>102.9587595605</v>
+        <v>95.841794613900007</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -7612,10 +7612,10 @@
         <v>644</v>
       </c>
       <c r="C269">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="D269" s="29">
-        <v>131.03882318679999</v>
+        <v>114.1305879369</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -7626,10 +7626,10 @@
         <v>646</v>
       </c>
       <c r="C270">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="D270" s="29">
-        <v>282.52461804320001</v>
+        <v>266.98119245499998</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -7640,10 +7640,10 @@
         <v>648</v>
       </c>
       <c r="C271">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D271" s="29">
-        <v>136.50041880809999</v>
+        <v>133.39813656250001</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -7654,10 +7654,10 @@
         <v>650</v>
       </c>
       <c r="C272">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="D272" s="29">
-        <v>131.98883687630001</v>
+        <v>87.246858274199994</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -7668,10 +7668,10 @@
         <v>652</v>
       </c>
       <c r="C273">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D273" s="29">
-        <v>88.271415413</v>
+        <v>91.341725514299995</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -7682,10 +7682,10 @@
         <v>654</v>
       </c>
       <c r="C274">
-        <v>514</v>
+        <v>431</v>
       </c>
       <c r="D274" s="29">
-        <v>144.45790344930001</v>
+        <v>121.1310435538</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -7696,10 +7696,10 @@
         <v>656</v>
       </c>
       <c r="C275">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D275" s="29">
-        <v>39.035469046599999</v>
+        <v>32.529557538900001</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -7710,10 +7710,10 @@
         <v>658</v>
       </c>
       <c r="C276">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D276" s="29">
-        <v>74.108029643199998</v>
+        <v>60.356024142400003</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -7724,10 +7724,10 @@
         <v>660</v>
       </c>
       <c r="C277">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D277" s="29">
-        <v>85.849725654099998</v>
+        <v>74.651935351399999</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -7738,10 +7738,10 @@
         <v>662</v>
       </c>
       <c r="C278">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="D278" s="29">
-        <v>120.19872236649999</v>
+        <v>114.39762572719999</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -7752,10 +7752,10 @@
         <v>664</v>
       </c>
       <c r="C279">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D279" s="29">
-        <v>51.436905071699996</v>
+        <v>67.170546623000007</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -7780,10 +7780,10 @@
         <v>668</v>
       </c>
       <c r="C281">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="D281" s="29">
-        <v>103.49494467</v>
+        <v>88.2095374572</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -7794,10 +7794,10 @@
         <v>670</v>
       </c>
       <c r="C282">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D282" s="29">
-        <v>56.664447309099998</v>
+        <v>48.8730858041</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -7808,10 +7808,10 @@
         <v>672</v>
       </c>
       <c r="C283">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D283" s="29">
-        <v>63.197809142600001</v>
+        <v>61.442314444200001</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -7822,10 +7822,10 @@
         <v>674</v>
       </c>
       <c r="C284">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D284" s="29">
-        <v>78.289011114999994</v>
+        <v>79.784979480299995</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -7836,10 +7836,10 @@
         <v>676</v>
       </c>
       <c r="C285">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="D285" s="29">
-        <v>303.45636803190001</v>
+        <v>276.14529490899997</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -7850,10 +7850,10 @@
         <v>678</v>
       </c>
       <c r="C286">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D286" s="29">
-        <v>70.166548098199996</v>
+        <v>66.268406537199994</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -7864,10 +7864,10 @@
         <v>680</v>
       </c>
       <c r="C287">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D287" s="29">
-        <v>204.53383330490001</v>
+        <v>193.1708425658</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -7878,10 +7878,10 @@
         <v>682</v>
       </c>
       <c r="C288">
-        <v>440</v>
+        <v>392</v>
       </c>
       <c r="D288" s="29">
-        <v>228.3863466489</v>
+        <v>203.47147246910001</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -7892,10 +7892,10 @@
         <v>684</v>
       </c>
       <c r="C289">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D289" s="29">
-        <v>123.14448705869999</v>
+        <v>129.0791611338</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -7906,10 +7906,10 @@
         <v>686</v>
       </c>
       <c r="C290">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D290" s="29">
-        <v>43.672549463099998</v>
+        <v>42.112815553700003</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -7920,10 +7920,10 @@
         <v>688</v>
       </c>
       <c r="C291">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D291" s="29">
-        <v>115.9125733385</v>
+        <v>119.8821820145</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -7934,10 +7934,10 @@
         <v>690</v>
       </c>
       <c r="C292">
-        <v>604</v>
+        <v>532</v>
       </c>
       <c r="D292" s="29">
-        <v>191.07695909239999</v>
+        <v>168.29957324040001</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -7948,10 +7948,10 @@
         <v>692</v>
       </c>
       <c r="C293">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D293" s="29">
-        <v>54.684198752199997</v>
+        <v>57.169844150000003</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -7962,10 +7962,10 @@
         <v>694</v>
       </c>
       <c r="C294">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D294" s="29">
-        <v>37.300094804399997</v>
+        <v>33.414668262299998</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -7976,10 +7976,10 @@
         <v>696</v>
       </c>
       <c r="C295">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D295" s="29">
-        <v>121.4413255404</v>
+        <v>118.1141659365</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -7990,10 +7990,10 @@
         <v>698</v>
       </c>
       <c r="C296">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="D296" s="29">
-        <v>112.6677317769</v>
+        <v>102.50916579699999</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -8004,10 +8004,10 @@
         <v>700</v>
       </c>
       <c r="C297">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D297" s="29">
-        <v>235.0376848132</v>
+        <v>211.40261036269999</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -8018,10 +8018,10 @@
         <v>702</v>
       </c>
       <c r="C298">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D298" s="29">
-        <v>43.211476968299998</v>
+        <v>41.050903119899999</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -8032,10 +8032,10 @@
         <v>704</v>
       </c>
       <c r="C299">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="D299" s="29">
-        <v>98.800381187300005</v>
+        <v>90.391838107500007</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -8046,10 +8046,10 @@
         <v>706</v>
       </c>
       <c r="C300">
-        <v>730</v>
+        <v>673</v>
       </c>
       <c r="D300" s="29">
-        <v>118.8659859282</v>
+        <v>109.5846692188</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -8060,10 +8060,10 @@
         <v>708</v>
       </c>
       <c r="C301">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D301" s="29">
-        <v>198.94070533519999</v>
+        <v>210.5671101925</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -8074,10 +8074,10 @@
         <v>710</v>
       </c>
       <c r="C302">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D302" s="29">
-        <v>37.885220844700001</v>
+        <v>38.538414307499998</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -8088,10 +8088,10 @@
         <v>712</v>
       </c>
       <c r="C303">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D303" s="29">
-        <v>41.222239398200003</v>
+        <v>45.344463337999997</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -8102,10 +8102,10 @@
         <v>714</v>
       </c>
       <c r="C304">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D304" s="29">
-        <v>86.223930733399996</v>
+        <v>87.122096678600002</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -8116,10 +8116,10 @@
         <v>716</v>
       </c>
       <c r="C305">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="D305" s="29">
-        <v>72.557390555400005</v>
+        <v>61.556753922799999</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -8130,10 +8130,10 @@
         <v>718</v>
       </c>
       <c r="C306">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D306" s="29">
-        <v>48.522791118500002</v>
+        <v>50.346956198100003</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -8144,10 +8144,10 @@
         <v>720</v>
       </c>
       <c r="C307">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D307" s="29">
-        <v>78.039535386099999</v>
+        <v>73.5104552074</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -8158,10 +8158,10 @@
         <v>722</v>
       </c>
       <c r="C308">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D308" s="29">
-        <v>63.3213985955</v>
+        <v>60.346567788999998</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -8172,10 +8172,10 @@
         <v>724</v>
       </c>
       <c r="C309">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D309" s="29">
-        <v>65.1848685617</v>
+        <v>59.8418465484</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -8186,10 +8186,10 @@
         <v>726</v>
       </c>
       <c r="C310">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D310" s="29">
-        <v>107.5967158768</v>
+        <v>92.087279354000003</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -8200,10 +8200,10 @@
         <v>728</v>
       </c>
       <c r="C311">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D311" s="29">
-        <v>93.549992763099993</v>
+        <v>86.489615950800001</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -8214,10 +8214,10 @@
         <v>730</v>
       </c>
       <c r="C312">
-        <v>455</v>
+        <v>420</v>
       </c>
       <c r="D312" s="29">
-        <v>100.7238837359</v>
+        <v>92.975892679300003</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -8228,10 +8228,10 @@
         <v>732</v>
       </c>
       <c r="C313">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D313" s="29">
-        <v>77.679746845799997</v>
+        <v>72.773657571300006</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -8242,10 +8242,10 @@
         <v>734</v>
       </c>
       <c r="C314">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="D314" s="29">
-        <v>80.969444976299997</v>
+        <v>76.045627376400006</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -8256,10 +8256,10 @@
         <v>736</v>
       </c>
       <c r="C315">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D315" s="29">
-        <v>93.784967239899999</v>
+        <v>97.018931627499995</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -8270,10 +8270,10 @@
         <v>738</v>
       </c>
       <c r="C316">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="D316" s="29">
-        <v>73.905893162699996</v>
+        <v>70.410344161799998</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -8284,10 +8284,10 @@
         <v>740</v>
       </c>
       <c r="C317">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D317" s="29">
-        <v>100.45834118160001</v>
+        <v>80.366672945299996</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -8298,10 +8298,10 @@
         <v>742</v>
       </c>
       <c r="C318">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D318" s="29">
-        <v>108.57421598400001</v>
+        <v>105.42713725980001</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -8312,10 +8312,10 @@
         <v>744</v>
       </c>
       <c r="C319">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="D319" s="29">
-        <v>85.332721080599995</v>
+        <v>77.296904297200001</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -8326,10 +8326,10 @@
         <v>746</v>
       </c>
       <c r="C320">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D320" s="29">
-        <v>34.896338752600002</v>
+        <v>39.198627092000002</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -8340,10 +8340,10 @@
         <v>748</v>
       </c>
       <c r="C321">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D321" s="29">
-        <v>49.584325792199998</v>
+        <v>47.730706136400002</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -8354,10 +8354,10 @@
         <v>750</v>
       </c>
       <c r="C322">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D322" s="29">
-        <v>47.624281056500003</v>
+        <v>40.297468586299999</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -8368,10 +8368,10 @@
         <v>752</v>
       </c>
       <c r="C323">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D323" s="29">
-        <v>93.097381438900001</v>
+        <v>83.629851123099996</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -8382,10 +8382,10 @@
         <v>754</v>
       </c>
       <c r="C324">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D324" s="29">
-        <v>153.08389985349999</v>
+        <v>148.96874125529999</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -8396,10 +8396,10 @@
         <v>756</v>
       </c>
       <c r="C325">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D325" s="29">
-        <v>88.648679563599998</v>
+        <v>85.074136032799998</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -8410,10 +8410,10 @@
         <v>758</v>
       </c>
       <c r="C326">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D326" s="29">
-        <v>183.24291742010001</v>
+        <v>165.15973478000001</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -8424,10 +8424,10 @@
         <v>760</v>
       </c>
       <c r="C327">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="D327" s="29">
-        <v>173.54405244399999</v>
+        <v>149.06291651929999</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -8438,10 +8438,10 @@
         <v>762</v>
       </c>
       <c r="C328">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="D328" s="29">
-        <v>200.46817412089999</v>
+        <v>164.35899990039999</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -8452,10 +8452,10 @@
         <v>764</v>
       </c>
       <c r="C329">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="D329" s="29">
-        <v>250.0024225041</v>
+        <v>219.96337173809999</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -8466,10 +8466,10 @@
         <v>766</v>
       </c>
       <c r="C330">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="D330" s="29">
-        <v>96.233512934900006</v>
+        <v>106.0112495433</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -8480,10 +8480,10 @@
         <v>768</v>
       </c>
       <c r="C331">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="D331" s="29">
-        <v>63.292919632100002</v>
+        <v>82.984050184300003</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -8494,10 +8494,10 @@
         <v>770</v>
       </c>
       <c r="C332">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D332" s="29">
-        <v>162.8757339588</v>
+        <v>159.6182192796</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -8508,10 +8508,10 @@
         <v>772</v>
       </c>
       <c r="C333">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D333" s="29">
-        <v>55.6136195837</v>
+        <v>66.161030194399999</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -8522,10 +8522,10 @@
         <v>774</v>
       </c>
       <c r="C334">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D334" s="29">
-        <v>211.5003304693</v>
+        <v>215.73033707869999</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -8536,10 +8536,10 @@
         <v>776</v>
       </c>
       <c r="C335">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D335" s="29">
-        <v>156.30926247310001</v>
+        <v>147.11459997470001</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -8550,10 +8550,10 @@
         <v>778</v>
       </c>
       <c r="C336">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="D336" s="29">
-        <v>100.11405398559999</v>
+        <v>81.738689646400005</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -8564,10 +8564,10 @@
         <v>780</v>
       </c>
       <c r="C337">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D337" s="29">
-        <v>59.655192984499998</v>
+        <v>71.089104973299996</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -8578,10 +8578,10 @@
         <v>782</v>
       </c>
       <c r="C338">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="D338" s="29">
-        <v>329.02110218069998</v>
+        <v>341.02917160330003</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -8592,10 +8592,10 @@
         <v>784</v>
       </c>
       <c r="C339">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D339" s="29">
-        <v>82.965276591600002</v>
+        <v>73.204655816100001</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -8606,10 +8606,10 @@
         <v>786</v>
       </c>
       <c r="C340">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D340" s="29">
-        <v>70.135850092200002</v>
+        <v>75.218158069899999</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -8620,10 +8620,10 @@
         <v>788</v>
       </c>
       <c r="C341">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="D341" s="29">
-        <v>97.955730688499997</v>
+        <v>118.5486967992</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -8634,10 +8634,10 @@
         <v>790</v>
       </c>
       <c r="C342">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D342" s="29">
-        <v>64.244752218100004</v>
+        <v>67.626054966500007</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -8648,10 +8648,10 @@
         <v>792</v>
       </c>
       <c r="C343">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D343" s="29">
-        <v>74.350841858600006</v>
+        <v>68.703942476899996</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -8662,10 +8662,10 @@
         <v>794</v>
       </c>
       <c r="C344">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D344" s="29">
-        <v>41.178452438900003</v>
+        <v>65.5111743346</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -8676,10 +8676,10 @@
         <v>796</v>
       </c>
       <c r="C345">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D345" s="29">
-        <v>57.170080990899997</v>
+        <v>69.297067867799996</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -8690,10 +8690,10 @@
         <v>798</v>
       </c>
       <c r="C346">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D346" s="29">
-        <v>86.771977878399994</v>
+        <v>78.408413745499999</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -8704,10 +8704,10 @@
         <v>800</v>
       </c>
       <c r="C347">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D347" s="29">
-        <v>108.5956525661</v>
+        <v>104.62704067830001</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -8718,10 +8718,10 @@
         <v>802</v>
       </c>
       <c r="C348">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D348" s="29">
-        <v>88.826621988599996</v>
+        <v>85.937951354800006</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -8732,10 +8732,10 @@
         <v>804</v>
       </c>
       <c r="C349">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D349" s="29">
-        <v>81.773647486800002</v>
+        <v>81.009407790699996</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -8746,10 +8746,10 @@
         <v>806</v>
       </c>
       <c r="C350">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D350" s="29">
-        <v>75.219112944599999</v>
+        <v>74.225027751499994</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -8774,10 +8774,10 @@
         <v>810</v>
       </c>
       <c r="C352">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D352" s="29">
-        <v>146.91690552669999</v>
+        <v>178.6048655422</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -8788,10 +8788,10 @@
         <v>812</v>
       </c>
       <c r="C353">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D353" s="29">
-        <v>133.40956737179999</v>
+        <v>138.60734272400001</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -8802,24 +8802,24 @@
         <v>814</v>
       </c>
       <c r="C354">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D354" s="29">
-        <v>81.090168311499994</v>
+        <v>73.178932378699997</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
+        <v>992</v>
+      </c>
+      <c r="B355" t="s">
         <v>993</v>
       </c>
-      <c r="B355" t="s">
-        <v>994</v>
-      </c>
       <c r="C355">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="D355" s="29">
-        <v>229.51107984519999</v>
+        <v>185.54344002810001</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -8844,10 +8844,10 @@
         <v>818</v>
       </c>
       <c r="C357">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D357" s="29">
-        <v>134.1591778872</v>
+        <v>132.9423145957</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -8858,10 +8858,10 @@
         <v>820</v>
       </c>
       <c r="C358">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D358" s="29">
-        <v>62.926675788600001</v>
+        <v>60.731559191300001</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -8886,10 +8886,10 @@
         <v>824</v>
       </c>
       <c r="C360">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="D360" s="29">
-        <v>61.8000089242</v>
+        <v>65.592789255300005</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -8900,10 +8900,10 @@
         <v>826</v>
       </c>
       <c r="C361">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D361" s="29">
-        <v>89.036783883400005</v>
+        <v>78.244446443000001</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -8914,10 +8914,10 @@
         <v>828</v>
       </c>
       <c r="C362">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D362" s="29">
-        <v>88.468028637399996</v>
+        <v>81.505267124300005</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -8942,10 +8942,10 @@
         <v>832</v>
       </c>
       <c r="C364">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D364" s="29">
-        <v>115.7041139241</v>
+        <v>116.6930379747</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -8956,10 +8956,10 @@
         <v>834</v>
       </c>
       <c r="C365">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="D365" s="29">
-        <v>69.978346026400004</v>
+        <v>72.494421389199999</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -8970,10 +8970,10 @@
         <v>836</v>
       </c>
       <c r="C366">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="D366" s="29">
-        <v>92.290153002599993</v>
+        <v>122.1487319152</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -8998,10 +8998,10 @@
         <v>840</v>
       </c>
       <c r="C368">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D368" s="29">
-        <v>125.03737530239999</v>
+        <v>144.06480197889999</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -9012,10 +9012,10 @@
         <v>842</v>
       </c>
       <c r="C369">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D369" s="29">
-        <v>101.17825608690001</v>
+        <v>100.5900104119</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -9026,10 +9026,10 @@
         <v>844</v>
       </c>
       <c r="C370">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D370" s="29">
-        <v>258.16839241600002</v>
+        <v>269.27240929409999</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -9040,10 +9040,10 @@
         <v>846</v>
       </c>
       <c r="C371">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D371" s="29">
-        <v>112.2271161015</v>
+        <v>102.07591967019999</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -9054,10 +9054,10 @@
         <v>848</v>
       </c>
       <c r="C372">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D372" s="29">
-        <v>42.141883652499999</v>
+        <v>41.245247830099999</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -9068,10 +9068,10 @@
         <v>850</v>
       </c>
       <c r="C373">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D373" s="29">
-        <v>39.491827199799999</v>
+        <v>41.49988621</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -9082,10 +9082,10 @@
         <v>852</v>
       </c>
       <c r="C374">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D374" s="29">
-        <v>48.102572175699997</v>
+        <v>51.600941061199997</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -9096,10 +9096,10 @@
         <v>854</v>
       </c>
       <c r="C375">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D375" s="29">
-        <v>134.26537658239999</v>
+        <v>125.7405907677</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -9110,10 +9110,10 @@
         <v>856</v>
       </c>
       <c r="C376">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D376" s="29">
-        <v>182.43419338020001</v>
+        <v>169.8235348517</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -9124,10 +9124,10 @@
         <v>858</v>
       </c>
       <c r="C377">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="D377" s="29">
-        <v>184.00458929089999</v>
+        <v>207.81694790509999</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -9138,10 +9138,10 @@
         <v>860</v>
       </c>
       <c r="C378">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D378" s="29">
-        <v>63.885164445100003</v>
+        <v>74.138338985700003</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -9152,10 +9152,10 @@
         <v>862</v>
       </c>
       <c r="C379">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="D379" s="29">
-        <v>109.65051115369999</v>
+        <v>104.5858224168</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -9166,10 +9166,10 @@
         <v>864</v>
       </c>
       <c r="C380">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D380" s="29">
-        <v>194.6552938415</v>
+        <v>162.37577275219999</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -9194,10 +9194,10 @@
         <v>868</v>
       </c>
       <c r="C382">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D382" s="29">
-        <v>78.423683952600001</v>
+        <v>79.824106880299993</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -9208,10 +9208,10 @@
         <v>870</v>
       </c>
       <c r="C383">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D383" s="29">
-        <v>25.5226677751</v>
+        <v>29.897982250799998</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -9222,10 +9222,10 @@
         <v>872</v>
       </c>
       <c r="C384">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D384" s="29">
-        <v>90.342397687200005</v>
+        <v>89.673194741399996</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -9236,10 +9236,10 @@
         <v>874</v>
       </c>
       <c r="C385">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D385" s="29">
-        <v>99.391346326800004</v>
+        <v>78.566492810699998</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -9250,10 +9250,10 @@
         <v>876</v>
       </c>
       <c r="C386">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D386" s="29">
-        <v>122.5679986902</v>
+        <v>119.4706124418</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -9264,10 +9264,10 @@
         <v>878</v>
       </c>
       <c r="C387">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D387" s="29">
-        <v>199.8955959308</v>
+        <v>202.0176298579</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -9278,10 +9278,10 @@
         <v>880</v>
       </c>
       <c r="C388">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D388" s="29">
-        <v>52.068962448000001</v>
+        <v>56.519301118800001</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -9292,10 +9292,10 @@
         <v>882</v>
       </c>
       <c r="C389">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D389" s="29">
-        <v>64.307621277600006</v>
+        <v>70.903274741900006</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -9306,10 +9306,10 @@
         <v>884</v>
       </c>
       <c r="C390">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D390" s="29">
-        <v>115.08509903709999</v>
+        <v>105.4946741174</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -9320,10 +9320,10 @@
         <v>886</v>
       </c>
       <c r="C391">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D391" s="29">
-        <v>115.2026572633</v>
+        <v>112.2787319521</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -9334,10 +9334,10 @@
         <v>888</v>
       </c>
       <c r="C392">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D392" s="29">
-        <v>104.37661963719999</v>
+        <v>105.8162971494</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -9348,10 +9348,10 @@
         <v>890</v>
       </c>
       <c r="C393">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D393" s="29">
-        <v>177.34967303779999</v>
+        <v>181.55227192500001</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -9362,10 +9362,10 @@
         <v>892</v>
       </c>
       <c r="C394">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D394" s="29">
-        <v>152.07168425239999</v>
+        <v>145.05299113309999</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -9376,10 +9376,10 @@
         <v>894</v>
       </c>
       <c r="C395">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D395" s="29">
-        <v>39.858870074800002</v>
+        <v>37.644488404000001</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -9390,10 +9390,10 @@
         <v>896</v>
       </c>
       <c r="C396">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D396" s="29">
-        <v>154.84147911939999</v>
+        <v>108.8489605691</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -9404,10 +9404,10 @@
         <v>898</v>
       </c>
       <c r="C397">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D397" s="29">
-        <v>206.92341399290001</v>
+        <v>195.9686450168</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -9418,10 +9418,10 @@
         <v>900</v>
       </c>
       <c r="C398">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D398" s="29">
-        <v>86.558152300100005</v>
+        <v>82.335803407399993</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -9432,10 +9432,10 @@
         <v>902</v>
       </c>
       <c r="C399">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="D399" s="29">
-        <v>204.71235926029999</v>
+        <v>165.9561359052</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -9460,10 +9460,10 @@
         <v>906</v>
       </c>
       <c r="C401">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D401" s="29">
-        <v>84.666358104799997</v>
+        <v>90.310781978500003</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -9474,10 +9474,10 @@
         <v>908</v>
       </c>
       <c r="C402">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D402" s="29">
-        <v>96.580553134200002</v>
+        <v>94.104128694799996</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -9488,10 +9488,10 @@
         <v>910</v>
       </c>
       <c r="C403">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D403" s="29">
-        <v>94.700962252599993</v>
+        <v>90.809141886000006</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -9502,10 +9502,10 @@
         <v>912</v>
       </c>
       <c r="C404">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="D404" s="29">
-        <v>82.592988932500006</v>
+        <v>70.024490616700007</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -9516,10 +9516,10 @@
         <v>914</v>
       </c>
       <c r="C405">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D405" s="29">
-        <v>32.856260431899997</v>
+        <v>63.084020029199998</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -9530,10 +9530,10 @@
         <v>916</v>
       </c>
       <c r="C406">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="D406" s="29">
-        <v>131.24934975549999</v>
+        <v>112.8424287532</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -9544,10 +9544,10 @@
         <v>918</v>
       </c>
       <c r="C407">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D407" s="29">
-        <v>77.293328180399996</v>
+        <v>87.833327477799997</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -9558,10 +9558,10 @@
         <v>920</v>
       </c>
       <c r="C408">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D408" s="29">
-        <v>75.236996539100005</v>
+        <v>71.893130026199998</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -9586,10 +9586,10 @@
         <v>924</v>
       </c>
       <c r="C410">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D410" s="29">
-        <v>129.27629216439999</v>
+        <v>126.88228675400001</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -9600,10 +9600,10 @@
         <v>926</v>
       </c>
       <c r="C411">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D411" s="29">
-        <v>236.7352556603</v>
+        <v>249.1225655495</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -9614,10 +9614,10 @@
         <v>928</v>
       </c>
       <c r="C412">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="D412" s="29">
-        <v>126.1616446072</v>
+        <v>118.55815263309999</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -9628,10 +9628,10 @@
         <v>930</v>
       </c>
       <c r="C413">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D413" s="29">
-        <v>71.912079666099999</v>
+        <v>70.3487735864</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -9642,10 +9642,10 @@
         <v>932</v>
       </c>
       <c r="C414">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D414" s="29">
-        <v>79.481460487199996</v>
+        <v>69.623294845399997</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -9656,10 +9656,10 @@
         <v>934</v>
       </c>
       <c r="C415">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D415" s="29">
-        <v>89.246579321200002</v>
+        <v>86.606147980299994</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -9670,10 +9670,10 @@
         <v>936</v>
       </c>
       <c r="C416">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D416" s="29">
-        <v>43.868628081799997</v>
+        <v>40.944052876299999</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -9684,10 +9684,10 @@
         <v>938</v>
       </c>
       <c r="C417">
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="D417" s="29">
-        <v>118.4119465908</v>
+        <v>128.5706122501</v>
       </c>
     </row>
   </sheetData>
@@ -9703,8 +9703,8 @@
   <dimension ref="A2:S510"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W341" sqref="W341"/>
+      <pane ySplit="3" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P343" sqref="P343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9718,7 +9718,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -18884,7 +18884,7 @@
         <v>2052028</v>
       </c>
       <c r="D333" s="3">
-        <f t="shared" ref="D333:D342" si="175">B333-B332</f>
+        <f t="shared" ref="D333:D343" si="175">B333-B332</f>
         <v>11369</v>
       </c>
       <c r="E333" s="3">
@@ -19101,15 +19101,15 @@
         <v>52990</v>
       </c>
       <c r="F340" s="3">
-        <f t="shared" ref="F340:F342" si="193">E340-E339</f>
+        <f t="shared" ref="F340:F343" si="193">E340-E339</f>
         <v>903</v>
       </c>
       <c r="G340" s="4">
-        <f t="shared" ref="G340:G342" si="194">E340/B340</f>
+        <f t="shared" ref="G340:G343" si="194">E340/B340</f>
         <v>2.4668575660928355E-2</v>
       </c>
       <c r="H340" s="3">
-        <f t="shared" ref="H340:H342" si="195">B340-E340</f>
+        <f t="shared" ref="H340:H343" si="195">B340-E340</f>
         <v>2095087</v>
       </c>
     </row>
@@ -19168,8 +19168,34 @@
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A343" s="26"/>
-      <c r="G343" s="4"/>
+      <c r="A343" s="26">
+        <v>44590</v>
+      </c>
+      <c r="B343" s="32">
+        <v>2192850</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D343" s="3">
+        <f t="shared" si="175"/>
+        <v>14022</v>
+      </c>
+      <c r="E343" s="3">
+        <v>55752</v>
+      </c>
+      <c r="F343" s="3">
+        <f t="shared" si="193"/>
+        <v>839</v>
+      </c>
+      <c r="G343" s="4">
+        <f t="shared" si="194"/>
+        <v>2.5424447636637253E-2</v>
+      </c>
+      <c r="H343" s="3">
+        <f t="shared" si="195"/>
+        <v>2137098</v>
+      </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="26"/>
@@ -19850,8 +19876,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A2:JL20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="JJ21" sqref="JJ21"/>
+    <sheetView topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="JL17" sqref="JL17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19862,7 +19888,7 @@
   <sheetData>
     <row r="2" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="3" spans="1:272" x14ac:dyDescent="0.25">
@@ -21488,6 +21514,9 @@
       <c r="JI4" s="3">
         <v>8770</v>
       </c>
+      <c r="JJ4" s="3">
+        <v>8411</v>
+      </c>
     </row>
     <row r="5" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -22297,6 +22326,9 @@
       <c r="JI5" s="3">
         <v>12737</v>
       </c>
+      <c r="JJ5" s="3">
+        <v>12311</v>
+      </c>
     </row>
     <row r="6" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -23106,6 +23138,9 @@
       <c r="JI6" s="3">
         <v>3273</v>
       </c>
+      <c r="JJ6" s="3">
+        <v>3105</v>
+      </c>
     </row>
     <row r="7" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -23915,6 +23950,9 @@
       <c r="JI7" s="3">
         <v>3818</v>
       </c>
+      <c r="JJ7" s="3">
+        <v>3535</v>
+      </c>
     </row>
     <row r="8" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -24724,6 +24762,9 @@
       <c r="JI8" s="3">
         <v>496</v>
       </c>
+      <c r="JJ8" s="3">
+        <v>504</v>
+      </c>
     </row>
     <row r="9" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -25533,6 +25574,9 @@
       <c r="JI9" s="3">
         <v>1550</v>
       </c>
+      <c r="JJ9" s="3">
+        <v>1306</v>
+      </c>
     </row>
     <row r="10" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -26342,6 +26386,9 @@
       <c r="JI10" s="3">
         <v>6263</v>
       </c>
+      <c r="JJ10" s="3">
+        <v>5936</v>
+      </c>
     </row>
     <row r="11" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -27151,6 +27198,9 @@
       <c r="JI11" s="3">
         <v>1618</v>
       </c>
+      <c r="JJ11" s="3">
+        <v>1587</v>
+      </c>
     </row>
     <row r="12" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -27960,6 +28010,9 @@
       <c r="JI12" s="3">
         <v>6104</v>
       </c>
+      <c r="JJ12" s="3">
+        <v>5741</v>
+      </c>
     </row>
     <row r="13" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -28769,6 +28822,9 @@
       <c r="JI13" s="3">
         <v>16712</v>
       </c>
+      <c r="JJ13" s="3">
+        <v>16160</v>
+      </c>
     </row>
     <row r="14" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -29578,6 +29634,9 @@
       <c r="JI14" s="3">
         <v>3687</v>
       </c>
+      <c r="JJ14" s="3">
+        <v>3530</v>
+      </c>
     </row>
     <row r="15" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -30387,6 +30446,9 @@
       <c r="JI15" s="3">
         <v>1058</v>
       </c>
+      <c r="JJ15" s="3">
+        <v>1091</v>
+      </c>
     </row>
     <row r="16" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -31196,8 +31258,11 @@
       <c r="JI16" s="3">
         <v>5292</v>
       </c>
-    </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.25">
+      <c r="JJ16" s="3">
+        <v>5349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -32005,8 +32070,11 @@
       <c r="JI17" s="3">
         <v>3818</v>
       </c>
-    </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.25">
+      <c r="JJ17" s="3">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:270" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -32814,8 +32882,11 @@
       <c r="JI18" s="3">
         <v>2717</v>
       </c>
-    </row>
-    <row r="19" spans="1:269" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="JJ18" s="3">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:270" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -33623,8 +33694,11 @@
       <c r="JI19" s="3">
         <v>3714</v>
       </c>
-    </row>
-    <row r="20" spans="1:269" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="JJ19" s="3">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:270" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -34477,6 +34551,9 @@
       <c r="JI20" s="1">
         <f>SUM(JI4:JI19)</f>
         <v>81627</v>
+      </c>
+      <c r="JJ20" s="12">
+        <v>78481</v>
       </c>
     </row>
   </sheetData>
@@ -34492,7 +34569,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L32" sqref="L32"/>
+      <selection pane="topRight" activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34561,7 +34638,7 @@
   <sheetData>
     <row r="2" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="3" spans="1:273" x14ac:dyDescent="0.25">
@@ -36190,7 +36267,9 @@
       <c r="JJ4" s="13">
         <v>79.006204644627928</v>
       </c>
-      <c r="JK4" s="13"/>
+      <c r="JK4" s="13">
+        <v>75.772085207065629</v>
+      </c>
       <c r="JL4" s="13"/>
       <c r="JM4" s="13"/>
     </row>
@@ -37005,7 +37084,9 @@
       <c r="JJ5" s="13">
         <v>97.045754135873352</v>
       </c>
-      <c r="JK5" s="13"/>
+      <c r="JK5" s="13">
+        <v>93.799974810923828</v>
+      </c>
       <c r="JL5" s="13"/>
       <c r="JM5" s="13"/>
     </row>
@@ -37820,7 +37901,9 @@
       <c r="JJ6" s="13">
         <v>89.194931940151918</v>
       </c>
-      <c r="JK6" s="13"/>
+      <c r="JK6" s="13">
+        <v>84.616640291528171</v>
+      </c>
       <c r="JL6" s="13"/>
       <c r="JM6" s="13"/>
     </row>
@@ -38635,12 +38718,14 @@
       <c r="JJ7" s="13">
         <v>151.39421061876931</v>
       </c>
-      <c r="JK7" s="13"/>
+      <c r="JK7" s="13">
+        <v>140.17248154461748</v>
+      </c>
       <c r="JL7" s="13"/>
       <c r="JM7" s="13"/>
     </row>
     <row r="8" spans="1:273" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -39450,12 +39535,14 @@
       <c r="JJ8" s="13">
         <v>72.812469722637331</v>
       </c>
-      <c r="JK8" s="13"/>
+      <c r="JK8" s="13">
+        <v>73.986864395583098</v>
+      </c>
       <c r="JL8" s="13"/>
       <c r="JM8" s="13"/>
     </row>
     <row r="9" spans="1:273" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -40265,7 +40352,9 @@
       <c r="JJ9" s="13">
         <v>83.908376383743857</v>
       </c>
-      <c r="JK9" s="13"/>
+      <c r="JK9" s="13">
+        <v>70.699573907851274</v>
+      </c>
       <c r="JL9" s="13"/>
       <c r="JM9" s="13"/>
     </row>
@@ -41080,7 +41169,9 @@
       <c r="JJ10" s="13">
         <v>99.601150112593984</v>
       </c>
-      <c r="JK10" s="13"/>
+      <c r="JK10" s="13">
+        <v>94.400834594979713</v>
+      </c>
       <c r="JL10" s="13"/>
       <c r="JM10" s="13"/>
     </row>
@@ -41895,7 +41986,9 @@
       <c r="JJ11" s="13">
         <v>100.61325582754714</v>
       </c>
-      <c r="JK11" s="13"/>
+      <c r="JK11" s="13">
+        <v>98.685560567563229</v>
+      </c>
       <c r="JL11" s="13"/>
       <c r="JM11" s="13"/>
     </row>
@@ -42710,7 +42803,9 @@
       <c r="JJ12" s="13">
         <v>76.36101244894671</v>
       </c>
-      <c r="JK12" s="13"/>
+      <c r="JK12" s="13">
+        <v>71.81988408738583</v>
+      </c>
       <c r="JL12" s="13"/>
       <c r="JM12" s="13"/>
     </row>
@@ -43525,7 +43620,9 @@
       <c r="JJ13" s="13">
         <v>93.117480416606</v>
       </c>
-      <c r="JK13" s="13"/>
+      <c r="JK13" s="13">
+        <v>90.041795328647254</v>
+      </c>
       <c r="JL13" s="13"/>
       <c r="JM13" s="13"/>
     </row>
@@ -44340,7 +44437,9 @@
       <c r="JJ14" s="13">
         <v>90.060756202577352</v>
       </c>
-      <c r="JK14" s="13"/>
+      <c r="JK14" s="13">
+        <v>86.225785027148916</v>
+      </c>
       <c r="JL14" s="13"/>
       <c r="JM14" s="13"/>
     </row>
@@ -45155,7 +45254,9 @@
       <c r="JJ15" s="13">
         <v>107.20578951794886</v>
       </c>
-      <c r="JK15" s="13"/>
+      <c r="JK15" s="13">
+        <v>110.54963739516278</v>
+      </c>
       <c r="JL15" s="13"/>
       <c r="JM15" s="13"/>
     </row>
@@ -45970,7 +46071,9 @@
       <c r="JJ16" s="13">
         <v>129.96163283088214</v>
       </c>
-      <c r="JK16" s="13"/>
+      <c r="JK16" s="13">
+        <v>131.36144633643022</v>
+      </c>
       <c r="JL16" s="13"/>
       <c r="JM16" s="13"/>
     </row>
@@ -46785,7 +46888,9 @@
       <c r="JJ17" s="13">
         <v>173.95805141467352</v>
       </c>
-      <c r="JK17" s="13"/>
+      <c r="JK17" s="13">
+        <v>166.07571959310766</v>
+      </c>
       <c r="JL17" s="13"/>
       <c r="JM17" s="13"/>
     </row>
@@ -47600,7 +47705,9 @@
       <c r="JJ18" s="13">
         <v>93.567920081907232</v>
       </c>
-      <c r="JK18" s="13"/>
+      <c r="JK18" s="13">
+        <v>89.74530722615026</v>
+      </c>
       <c r="JL18" s="13"/>
       <c r="JM18" s="13"/>
     </row>
@@ -48415,7 +48522,9 @@
       <c r="JJ19" s="13">
         <v>174.09010498842682</v>
       </c>
-      <c r="JK19" s="13"/>
+      <c r="JK19" s="13">
+        <v>171.746404059665</v>
+      </c>
       <c r="JL19" s="13"/>
       <c r="JM19" s="13"/>
     </row>
@@ -49230,7 +49339,9 @@
       <c r="JJ20" s="15">
         <v>98.148645075070974</v>
       </c>
-      <c r="JK20" s="15"/>
+      <c r="JK20" s="15">
+        <v>94.365881560471948</v>
+      </c>
       <c r="JL20" s="15"/>
       <c r="JM20" s="15"/>
     </row>
@@ -49239,7 +49350,7 @@
       <c r="JC21" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="A4:JJ19">
+  <sortState ref="A4:JK19">
     <sortCondition ref="A4:A19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
+++ b/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B190A3-8CBA-4DA6-B901-EC33FA1A8344}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912C97C0-01A7-4B15-90AB-8E6A6FF405A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="150" windowWidth="15270" windowHeight="10800" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="1013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="1016">
   <si>
     <t>Todesfälle</t>
   </si>
@@ -3078,10 +3078,19 @@
     <t>22.02.2021</t>
   </si>
   <si>
-    <t>Stand: 23.02.2021 05:22:11</t>
-  </si>
-  <si>
     <t>23.02.2021</t>
+  </si>
+  <si>
+    <t>24.02.2021</t>
+  </si>
+  <si>
+    <t>25.02.2021</t>
+  </si>
+  <si>
+    <t>Stand: 26.02.2021 05:44:06</t>
+  </si>
+  <si>
+    <t>26.02.2021</t>
   </si>
 </sst>
 </file>
@@ -3296,6 +3305,16 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet003" fillFormulas="1" connectionId="3" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" name="Bev"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet002" fillFormulas="1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
     <queryTableFields count="5">
@@ -3309,23 +3328,13 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet001" fillFormulas="1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="Bundesland"/>
       <queryTableField id="2" name="Fälle in den letzten 7 Tagen"/>
       <queryTableField id="3" name="7-Tage-Inzidenz"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet003" fillFormulas="1" connectionId="3" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" name="Bev"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3668,8 +3677,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3685,7 +3694,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3704,10 +3713,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>4979</v>
+        <v>5420</v>
       </c>
       <c r="C6" s="29">
-        <v>44.854263731539618</v>
+        <v>48.827095686873818</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3715,10 +3724,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>7586</v>
+        <v>7810</v>
       </c>
       <c r="C7" s="29">
-        <v>57.799253425040057</v>
+        <v>59.505954290741215</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3726,10 +3735,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>2009</v>
+        <v>1926</v>
       </c>
       <c r="C8" s="29">
-        <v>54.748737631458965</v>
+        <v>52.486843543150805</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3737,10 +3746,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>1592</v>
+        <v>1621</v>
       </c>
       <c r="C9" s="29">
-        <v>63.127182636218116</v>
+        <v>64.277112470671838</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3748,10 +3757,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="C10" s="29">
-        <v>76.629252409711071</v>
+        <v>77.950446416775051</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3759,10 +3768,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>1210</v>
+        <v>1351</v>
       </c>
       <c r="C11" s="29">
-        <v>65.502668015696827</v>
+        <v>73.135623544798676</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3770,10 +3779,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>3805</v>
+        <v>3846</v>
       </c>
       <c r="C12" s="29">
-        <v>60.5113166499154</v>
+        <v>61.163343977811984</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3781,10 +3790,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1080</v>
+        <v>1029</v>
       </c>
       <c r="C13" s="29">
-        <v>67.158415509116764</v>
+        <v>63.987045887852908</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3792,10 +3801,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>5138</v>
+        <v>5208</v>
       </c>
       <c r="C14" s="29">
-        <v>64.276356809090458</v>
+        <v>65.152056493138019</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3803,10 +3812,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>10882</v>
+        <v>11469</v>
       </c>
       <c r="C15" s="29">
-        <v>60.633342621679418</v>
+        <v>63.904043974273236</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3814,10 +3823,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>2171</v>
+        <v>2167</v>
       </c>
       <c r="C16" s="29">
-        <v>53.030079120096396</v>
+        <v>52.932372848110958</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3825,10 +3834,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>552</v>
+        <v>651</v>
       </c>
       <c r="C17" s="29">
-        <v>55.933455400668969</v>
+        <v>65.9649990323107</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3836,10 +3845,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>2879</v>
+        <v>3067</v>
       </c>
       <c r="C18" s="29">
-        <v>70.702861096014686</v>
+        <v>75.319789851155619</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3847,10 +3856,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>1910</v>
+        <v>1877</v>
       </c>
       <c r="C19" s="29">
-        <v>87.024588319022115</v>
+        <v>85.521022133405509</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3858,10 +3867,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>1431</v>
+        <v>1476</v>
       </c>
       <c r="C20" s="29">
-        <v>49.28071168097506</v>
+        <v>50.830419595471135</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3869,10 +3878,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>2556</v>
+        <v>2585</v>
       </c>
       <c r="C21" s="29">
-        <v>119.80999147830343</v>
+        <v>121.16933801698526</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3881,11 +3890,11 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B6:B21)</f>
-        <v>50302</v>
+        <v>52034</v>
       </c>
       <c r="C22" s="30">
         <f>B22/A36*100000</f>
-        <v>60.483334491849746</v>
+        <v>62.565898511965919</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3907,10 +3916,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="B31">
-        <v>2394811</v>
+        <v>2424684</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -3919,7 +3928,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>68318</v>
+        <v>69519</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -3942,8 +3951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B76BA60-F11B-446D-83C1-ED8D11202D1B}">
   <dimension ref="A2:D417"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView topLeftCell="A354" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3956,7 +3965,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3975,5770 +3984,5770 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>368</v>
+        <v>118</v>
       </c>
       <c r="C6">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="D6" s="29">
-        <v>58.926611334699999</v>
+        <v>47.933130589999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="C7">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D7" s="29">
-        <v>100.93959731539999</v>
+        <v>83.790723060100007</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>122</v>
       </c>
       <c r="C8">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="D8" s="29">
-        <v>124.7936254486</v>
+        <v>23.021796442799999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>373</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>374</v>
+        <v>124</v>
       </c>
       <c r="C9">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="D9" s="29">
-        <v>51.720061473000001</v>
+        <v>38.056384338999997</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>375</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>376</v>
+        <v>126</v>
       </c>
       <c r="C10">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D10" s="29">
-        <v>38.521892331300002</v>
+        <v>87.255154206699999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>377</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>128</v>
       </c>
       <c r="C11">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D11" s="29">
-        <v>44.548606403400001</v>
+        <v>93.940452622199999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>379</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>380</v>
+        <v>130</v>
       </c>
       <c r="C12">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="D12" s="29">
-        <v>57.770303689800002</v>
+        <v>40.878650523600001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>381</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>382</v>
+        <v>132</v>
       </c>
       <c r="C13">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="D13" s="29">
-        <v>43.289408035699999</v>
+        <v>95.053624592000006</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>383</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>384</v>
+        <v>134</v>
       </c>
       <c r="C14">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="D14" s="29">
-        <v>128.97678417879999</v>
+        <v>40.096540131200001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>385</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>386</v>
+        <v>136</v>
       </c>
       <c r="C15">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="D15" s="29">
-        <v>39.565576108499997</v>
+        <v>104.24811050300001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>387</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>388</v>
+        <v>138</v>
       </c>
       <c r="C16">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="D16" s="29">
-        <v>59.7833219113</v>
+        <v>163.02923851759999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>389</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>390</v>
+        <v>140</v>
       </c>
       <c r="C17">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D17" s="29">
-        <v>92.404361485899997</v>
+        <v>77.687631648500002</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>391</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>392</v>
+        <v>142</v>
       </c>
       <c r="C18">
-        <v>269</v>
+        <v>90</v>
       </c>
       <c r="D18" s="29">
-        <v>97.560621776700003</v>
+        <v>56.787350302199997</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>393</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>394</v>
+        <v>144</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D19" s="29">
-        <v>20.4680894613</v>
+        <v>33.494425570600001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>395</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s">
-        <v>396</v>
+        <v>146</v>
       </c>
       <c r="C20">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="D20" s="29">
-        <v>47.679331831699997</v>
+        <v>73.676398090899994</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>397</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>398</v>
+        <v>148</v>
       </c>
       <c r="C21">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="D21" s="29">
-        <v>94.866603775599998</v>
+        <v>63.378496380400001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>399</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="C22">
-        <v>231</v>
+        <v>63</v>
       </c>
       <c r="D22" s="29">
-        <v>96.749063921399994</v>
+        <v>36.165327210100003</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>402</v>
+        <v>152</v>
       </c>
       <c r="C23">
-        <v>1210</v>
+        <v>142</v>
       </c>
       <c r="D23" s="29">
-        <v>65.502668015699996</v>
+        <v>47.878832835399997</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>403</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>404</v>
+        <v>154</v>
       </c>
       <c r="C24">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D24" s="29">
-        <v>39.717534281600003</v>
+        <v>35.507440781500001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>405</v>
+        <v>155</v>
       </c>
       <c r="B25" t="s">
-        <v>406</v>
+        <v>156</v>
       </c>
       <c r="C25">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="D25" s="29">
-        <v>82.816425443</v>
+        <v>34.2657121469</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>407</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>408</v>
+        <v>158</v>
       </c>
       <c r="C26">
-        <v>1281</v>
+        <v>31</v>
       </c>
       <c r="D26" s="29">
-        <v>110.706368857</v>
+        <v>23.3660709575</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>409</v>
+        <v>159</v>
       </c>
       <c r="B27" t="s">
-        <v>410</v>
+        <v>160</v>
       </c>
       <c r="C27">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="D27" s="29">
-        <v>56.596876952899997</v>
+        <v>38.746549135499997</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>411</v>
+        <v>161</v>
       </c>
       <c r="B28" t="s">
-        <v>412</v>
+        <v>162</v>
       </c>
       <c r="C28">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="D28" s="29">
-        <v>60.9441657681</v>
+        <v>59.364046859699997</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>413</v>
+        <v>163</v>
       </c>
       <c r="B29" t="s">
-        <v>414</v>
+        <v>164</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D29" s="29">
-        <v>36.736822146400002</v>
+        <v>42.214873707199999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>415</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>416</v>
+        <v>166</v>
       </c>
       <c r="C30">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="D30" s="29">
-        <v>86.5051903114</v>
+        <v>67.0472048564</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>417</v>
+        <v>167</v>
       </c>
       <c r="B31" t="s">
-        <v>418</v>
+        <v>168</v>
       </c>
       <c r="C31">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D31" s="29">
-        <v>34.1216864644</v>
+        <v>50.405180101600003</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>419</v>
+        <v>169</v>
       </c>
       <c r="B32" t="s">
-        <v>420</v>
+        <v>170</v>
       </c>
       <c r="C32">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D32" s="29">
-        <v>34.058890918700001</v>
+        <v>46.886785401200001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>421</v>
+        <v>171</v>
       </c>
       <c r="B33" t="s">
-        <v>422</v>
+        <v>172</v>
       </c>
       <c r="C33">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="D33" s="29">
-        <v>36.9039818643</v>
+        <v>63.159940402899998</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>423</v>
+        <v>173</v>
       </c>
       <c r="B34" t="s">
-        <v>424</v>
+        <v>174</v>
       </c>
       <c r="C34">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="D34" s="29">
-        <v>48.186299292199998</v>
+        <v>69.389307374599994</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="B35" t="s">
-        <v>426</v>
+        <v>176</v>
       </c>
       <c r="C35">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="D35" s="29">
-        <v>49.643495831099997</v>
+        <v>92.266959068199995</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>427</v>
+        <v>177</v>
       </c>
       <c r="B36" t="s">
-        <v>428</v>
+        <v>178</v>
       </c>
       <c r="C36">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="D36" s="29">
-        <v>69.261020132699997</v>
+        <v>106.1120543294</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>429</v>
+        <v>179</v>
       </c>
       <c r="B37" t="s">
-        <v>430</v>
+        <v>180</v>
       </c>
       <c r="C37">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D37" s="29">
-        <v>70.100879547000005</v>
+        <v>77.410340888700006</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>431</v>
+        <v>181</v>
       </c>
       <c r="B38" t="s">
-        <v>432</v>
+        <v>182</v>
       </c>
       <c r="C38">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="D38" s="29">
-        <v>57.467135981600002</v>
+        <v>70.281867278199996</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>433</v>
+        <v>183</v>
       </c>
       <c r="B39" t="s">
-        <v>434</v>
+        <v>184</v>
       </c>
       <c r="C39">
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="D39" s="29">
-        <v>83.733357196300005</v>
+        <v>61.3036444269</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>435</v>
+        <v>185</v>
       </c>
       <c r="B40" t="s">
-        <v>436</v>
+        <v>186</v>
       </c>
       <c r="C40">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="D40" s="29">
-        <v>49.702200979099999</v>
+        <v>42.898826132099998</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>437</v>
+        <v>187</v>
       </c>
       <c r="B41" t="s">
-        <v>438</v>
+        <v>188</v>
       </c>
       <c r="C41">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="D41" s="29">
-        <v>67.670274064599994</v>
+        <v>33.854293911100001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>439</v>
+        <v>189</v>
       </c>
       <c r="B42" t="s">
-        <v>440</v>
+        <v>190</v>
       </c>
       <c r="C42">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="D42" s="29">
-        <v>145.5765305315</v>
+        <v>53.238619294400003</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>441</v>
+        <v>191</v>
       </c>
       <c r="B43" t="s">
-        <v>442</v>
+        <v>192</v>
       </c>
       <c r="C43">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="D43" s="29">
-        <v>62.722747328799997</v>
+        <v>62.360421918900002</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>443</v>
+        <v>193</v>
       </c>
       <c r="B44" t="s">
-        <v>444</v>
+        <v>194</v>
       </c>
       <c r="C44">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="D44" s="29">
-        <v>80.838565384899994</v>
+        <v>53.562030748300003</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>445</v>
+        <v>195</v>
       </c>
       <c r="B45" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
       <c r="C45">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="D45" s="29">
-        <v>63.736208075500002</v>
+        <v>48.990543568900002</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>447</v>
+        <v>197</v>
       </c>
       <c r="B46" t="s">
-        <v>448</v>
+        <v>198</v>
       </c>
       <c r="C46">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="D46" s="29">
-        <v>194.21713038729999</v>
+        <v>54.680791254200003</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>449</v>
+        <v>199</v>
       </c>
       <c r="B47" t="s">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="C47">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="D47" s="29">
-        <v>199.36498560140001</v>
+        <v>53.552228065599998</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="B48" t="s">
-        <v>452</v>
+        <v>202</v>
       </c>
       <c r="C48">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="D48" s="29">
-        <v>79.889929430600006</v>
+        <v>48.977916916200002</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>453</v>
+        <v>203</v>
       </c>
       <c r="B49" t="s">
-        <v>454</v>
+        <v>204</v>
       </c>
       <c r="C49">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="D49" s="29">
-        <v>36.901416446699997</v>
+        <v>57.640766358900002</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>455</v>
+        <v>205</v>
       </c>
       <c r="B50" t="s">
-        <v>456</v>
+        <v>206</v>
       </c>
       <c r="C50">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="D50" s="29">
-        <v>54.901569329300003</v>
+        <v>55.161958512200002</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>457</v>
+        <v>207</v>
       </c>
       <c r="B51" t="s">
-        <v>458</v>
+        <v>208</v>
       </c>
       <c r="C51">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D51" s="29">
-        <v>93.177347551500006</v>
+        <v>61.342602882199998</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>459</v>
+        <v>209</v>
       </c>
       <c r="B52" t="s">
-        <v>460</v>
+        <v>210</v>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="D52" s="29">
-        <v>13.101199487600001</v>
+        <v>55.146510865400003</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>461</v>
+        <v>211</v>
       </c>
       <c r="B53" t="s">
-        <v>462</v>
+        <v>212</v>
       </c>
       <c r="C53">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D53" s="29">
-        <v>73.646300171500002</v>
+        <v>34.710273941899999</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>463</v>
+        <v>213</v>
       </c>
       <c r="B54" t="s">
-        <v>464</v>
+        <v>214</v>
       </c>
       <c r="C54">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D54" s="29">
-        <v>87.064260121199993</v>
+        <v>114.88431273240001</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>465</v>
+        <v>215</v>
       </c>
       <c r="B55" t="s">
-        <v>466</v>
+        <v>216</v>
       </c>
       <c r="C55">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="D55" s="29">
-        <v>21.993401979400002</v>
+        <v>83.789295160400002</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>467</v>
+        <v>217</v>
       </c>
       <c r="B56" t="s">
-        <v>468</v>
+        <v>218</v>
       </c>
       <c r="C56">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="D56" s="29">
-        <v>29.2510780438</v>
+        <v>41.496205515699998</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>469</v>
+        <v>219</v>
       </c>
       <c r="B57" t="s">
-        <v>470</v>
+        <v>220</v>
       </c>
       <c r="C57">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="D57" s="29">
-        <v>49.349484073600003</v>
+        <v>58.809530973500003</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>471</v>
+        <v>221</v>
       </c>
       <c r="B58" t="s">
-        <v>472</v>
+        <v>222</v>
       </c>
       <c r="C58">
-        <v>275</v>
+        <v>113</v>
       </c>
       <c r="D58" s="29">
-        <v>61.783729984899999</v>
+        <v>51.961190049199999</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>473</v>
+        <v>223</v>
       </c>
       <c r="B59" t="s">
-        <v>474</v>
+        <v>224</v>
       </c>
       <c r="C59">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="D59" s="29">
-        <v>24.240985074499999</v>
+        <v>58.846190012500003</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>475</v>
+        <v>225</v>
       </c>
       <c r="B60" t="s">
-        <v>476</v>
+        <v>226</v>
       </c>
       <c r="C60">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D60" s="29">
-        <v>36.745451166599999</v>
+        <v>71.962228605899995</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>477</v>
+        <v>227</v>
       </c>
       <c r="B61" t="s">
-        <v>478</v>
+        <v>228</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="D61" s="29">
-        <v>22.5235370963</v>
+        <v>74.056320505000002</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>479</v>
+        <v>229</v>
       </c>
       <c r="B62" t="s">
-        <v>480</v>
+        <v>230</v>
       </c>
       <c r="C62">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D62" s="29">
-        <v>31.692372702299998</v>
+        <v>53.587377195599998</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>481</v>
+        <v>231</v>
       </c>
       <c r="B63" t="s">
-        <v>482</v>
+        <v>232</v>
       </c>
       <c r="C63">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D63" s="29">
-        <v>28.922213706200001</v>
+        <v>84.506261775499993</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>483</v>
+        <v>233</v>
       </c>
       <c r="B64" t="s">
-        <v>484</v>
+        <v>234</v>
       </c>
       <c r="C64">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D64" s="29">
-        <v>32.010502686499997</v>
+        <v>44.505745651700003</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>485</v>
+        <v>235</v>
       </c>
       <c r="B65" t="s">
-        <v>486</v>
+        <v>236</v>
       </c>
       <c r="C65">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="D65" s="29">
-        <v>60.336788985799998</v>
+        <v>41.350374239899999</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>487</v>
+        <v>237</v>
       </c>
       <c r="B66" t="s">
-        <v>488</v>
+        <v>238</v>
       </c>
       <c r="C66">
-        <v>235</v>
+        <v>340</v>
       </c>
       <c r="D66" s="29">
-        <v>75.2084233434</v>
+        <v>59.905666195099997</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>489</v>
+        <v>239</v>
       </c>
       <c r="B67" t="s">
-        <v>490</v>
+        <v>240</v>
       </c>
       <c r="C67">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="D67" s="29">
-        <v>27.180584294900001</v>
+        <v>168.07018470119999</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>491</v>
+        <v>241</v>
       </c>
       <c r="B68" t="s">
-        <v>492</v>
+        <v>242</v>
       </c>
       <c r="C68">
-        <v>699</v>
+        <v>309</v>
       </c>
       <c r="D68" s="29">
-        <v>64.254414388599997</v>
+        <v>172.7743421715</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>493</v>
+        <v>243</v>
       </c>
       <c r="B69" t="s">
-        <v>494</v>
+        <v>244</v>
       </c>
       <c r="C69">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="D69" s="29">
-        <v>78.936798169799999</v>
+        <v>45.225846571300004</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>495</v>
+        <v>245</v>
       </c>
       <c r="B70" t="s">
-        <v>496</v>
+        <v>246</v>
       </c>
       <c r="C70">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="D70" s="29">
-        <v>62.440362857700002</v>
+        <v>28.489869337599998</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>497</v>
+        <v>247</v>
       </c>
       <c r="B71" t="s">
-        <v>498</v>
+        <v>248</v>
       </c>
       <c r="C71">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="D71" s="29">
-        <v>74.914223214399996</v>
+        <v>148.43981937219999</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>499</v>
+        <v>249</v>
       </c>
       <c r="B72" t="s">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C72">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D72" s="29">
-        <v>163.4854539865</v>
+        <v>35.317901710699999</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="B73" t="s">
-        <v>502</v>
+        <v>252</v>
       </c>
       <c r="C73">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="D73" s="29">
-        <v>19.9376237201</v>
+        <v>121.86405127659999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>503</v>
+        <v>253</v>
       </c>
       <c r="B74" t="s">
-        <v>504</v>
+        <v>254</v>
       </c>
       <c r="C74">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="D74" s="29">
-        <v>172.47884439169999</v>
+        <v>82.781456953599999</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>505</v>
+        <v>255</v>
       </c>
       <c r="B75" t="s">
-        <v>506</v>
+        <v>256</v>
       </c>
       <c r="C75">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="D75" s="29">
-        <v>84.0837047359</v>
+        <v>38.041661383099999</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>507</v>
+        <v>257</v>
       </c>
       <c r="B76" t="s">
-        <v>508</v>
+        <v>258</v>
       </c>
       <c r="C76">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D76" s="29">
-        <v>40.528145730699997</v>
+        <v>42.362525458199997</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>509</v>
+        <v>259</v>
       </c>
       <c r="B77" t="s">
-        <v>510</v>
+        <v>260</v>
       </c>
       <c r="C77">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D77" s="29">
-        <v>42.393310169400003</v>
+        <v>34.0003445368</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>511</v>
+        <v>261</v>
       </c>
       <c r="B78" t="s">
-        <v>512</v>
+        <v>262</v>
       </c>
       <c r="C78">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="D78" s="29">
-        <v>40.865810300900002</v>
+        <v>102.3295009932</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>513</v>
+        <v>263</v>
       </c>
       <c r="B79" t="s">
-        <v>514</v>
+        <v>264</v>
       </c>
       <c r="C79">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="D79" s="29">
-        <v>30.0197004284</v>
+        <v>69.178642482800001</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>515</v>
+        <v>265</v>
       </c>
       <c r="B80" t="s">
-        <v>516</v>
+        <v>266</v>
       </c>
       <c r="C80">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="D80" s="29">
-        <v>81.988334231300001</v>
+        <v>43.253991310499998</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>517</v>
+        <v>267</v>
       </c>
       <c r="B81" t="s">
-        <v>518</v>
+        <v>268</v>
       </c>
       <c r="C81">
-        <v>261</v>
+        <v>112</v>
       </c>
       <c r="D81" s="29">
-        <v>44.002731204</v>
+        <v>65.577225966200004</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>519</v>
+        <v>269</v>
       </c>
       <c r="B82" t="s">
-        <v>520</v>
+        <v>270</v>
       </c>
       <c r="C82">
-        <v>288</v>
+        <v>86</v>
       </c>
       <c r="D82" s="29">
-        <v>111.5677987441</v>
+        <v>53.791015649400002</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>521</v>
+        <v>271</v>
       </c>
       <c r="B83" t="s">
-        <v>522</v>
+        <v>272</v>
       </c>
       <c r="C83">
-        <v>112</v>
+        <v>198</v>
       </c>
       <c r="D83" s="29">
-        <v>68.405719206699999</v>
+        <v>66.477753454799995</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>523</v>
+        <v>273</v>
       </c>
       <c r="B84" t="s">
-        <v>524</v>
+        <v>274</v>
       </c>
       <c r="C84">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D84" s="29">
-        <v>40.433688750400002</v>
+        <v>63.610036994300003</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>525</v>
+        <v>275</v>
       </c>
       <c r="B85" t="s">
-        <v>526</v>
+        <v>276</v>
       </c>
       <c r="C85">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D85" s="29">
-        <v>58.169295918800003</v>
+        <v>58.020345801300003</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>527</v>
+        <v>277</v>
       </c>
       <c r="B86" t="s">
-        <v>528</v>
+        <v>278</v>
       </c>
       <c r="C86">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D86" s="29">
-        <v>54.890767372900001</v>
+        <v>86.139095913999995</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>529</v>
+        <v>279</v>
       </c>
       <c r="B87" t="s">
-        <v>530</v>
+        <v>280</v>
       </c>
       <c r="C87">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="D87" s="29">
-        <v>50.069925240400003</v>
+        <v>40.997010442700002</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>531</v>
+        <v>281</v>
       </c>
       <c r="B88" t="s">
-        <v>532</v>
+        <v>282</v>
       </c>
       <c r="C88">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D88" s="29">
-        <v>40.221040850599998</v>
+        <v>30.032517967699999</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>533</v>
+        <v>283</v>
       </c>
       <c r="B89" t="s">
-        <v>534</v>
+        <v>284</v>
       </c>
       <c r="C89">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="D89" s="29">
-        <v>54.495912806500002</v>
+        <v>63.092787770299999</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>535</v>
+        <v>285</v>
       </c>
       <c r="B90" t="s">
-        <v>536</v>
+        <v>286</v>
       </c>
       <c r="C90">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D90" s="29">
-        <v>33.049657109800002</v>
+        <v>8.2586922735999995</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>537</v>
+        <v>287</v>
       </c>
       <c r="B91" t="s">
-        <v>538</v>
+        <v>288</v>
       </c>
       <c r="C91">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="D91" s="29">
-        <v>27.868278382100002</v>
+        <v>12.707145153000001</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>539</v>
+        <v>289</v>
       </c>
       <c r="B92" t="s">
-        <v>540</v>
+        <v>290</v>
       </c>
       <c r="C92">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D92" s="29">
-        <v>43.5406059691</v>
+        <v>27.8791901759</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>541</v>
+        <v>291</v>
       </c>
       <c r="B93" t="s">
-        <v>542</v>
+        <v>292</v>
       </c>
       <c r="C93">
-        <v>145</v>
+        <v>356</v>
       </c>
       <c r="D93" s="29">
-        <v>68.467600659200002</v>
+        <v>60.5184870378</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>543</v>
+        <v>293</v>
       </c>
       <c r="B94" t="s">
-        <v>544</v>
+        <v>294</v>
       </c>
       <c r="C94">
-        <v>74</v>
+        <v>310</v>
       </c>
       <c r="D94" s="29">
-        <v>40.187032622099998</v>
+        <v>55.677287258900002</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>545</v>
+        <v>295</v>
       </c>
       <c r="B95" t="s">
-        <v>546</v>
+        <v>296</v>
       </c>
       <c r="C95">
-        <v>144</v>
+        <v>450</v>
       </c>
       <c r="D95" s="29">
-        <v>60.614989581800003</v>
+        <v>90.237143212399999</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>547</v>
+        <v>297</v>
       </c>
       <c r="B96" t="s">
-        <v>548</v>
+        <v>298</v>
       </c>
       <c r="C96">
-        <v>349</v>
+        <v>259</v>
       </c>
       <c r="D96" s="29">
-        <v>82.986170556800005</v>
+        <v>97.8695425449</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>549</v>
+        <v>299</v>
       </c>
       <c r="B97" t="s">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="C97">
-        <v>41</v>
+        <v>371</v>
       </c>
       <c r="D97" s="29">
-        <v>32.498929913300003</v>
+        <v>59.658099591999999</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>551</v>
+        <v>301</v>
       </c>
       <c r="B98" t="s">
-        <v>552</v>
+        <v>302</v>
       </c>
       <c r="C98">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D98" s="29">
-        <v>45.317562821499997</v>
+        <v>49.426031507399998</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>553</v>
+        <v>303</v>
       </c>
       <c r="B99" t="s">
-        <v>554</v>
+        <v>304</v>
       </c>
       <c r="C99">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D99" s="29">
-        <v>57.847567467899999</v>
+        <v>150.9909405436</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>555</v>
+        <v>305</v>
       </c>
       <c r="B100" t="s">
-        <v>556</v>
+        <v>306</v>
       </c>
       <c r="C100">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D100" s="29">
-        <v>25.620144753799998</v>
+        <v>33.112333591700001</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>557</v>
+        <v>307</v>
       </c>
       <c r="B101" t="s">
-        <v>558</v>
+        <v>308</v>
       </c>
       <c r="C101">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D101" s="29">
-        <v>26.487936164099999</v>
+        <v>99.408284023700006</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>559</v>
+        <v>309</v>
       </c>
       <c r="B102" t="s">
-        <v>560</v>
+        <v>310</v>
       </c>
       <c r="C102">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="D102" s="29">
-        <v>51.503582717999997</v>
+        <v>114.9007630589</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>561</v>
+        <v>311</v>
       </c>
       <c r="B103" t="s">
-        <v>562</v>
+        <v>312</v>
       </c>
       <c r="C103">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D103" s="29">
-        <v>45.945665545200001</v>
+        <v>48.083665578100003</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>563</v>
+        <v>313</v>
       </c>
       <c r="B104" t="s">
-        <v>564</v>
+        <v>314</v>
       </c>
       <c r="C104">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="D104" s="29">
-        <v>71.230836476700006</v>
+        <v>27.041969136100001</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>565</v>
+        <v>315</v>
       </c>
       <c r="B105" t="s">
-        <v>566</v>
+        <v>316</v>
       </c>
       <c r="C105">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="D105" s="29">
-        <v>93.120310466000006</v>
+        <v>95.120414492600005</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>567</v>
+        <v>317</v>
       </c>
       <c r="B106" t="s">
-        <v>568</v>
+        <v>318</v>
       </c>
       <c r="C106">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="D106" s="29">
-        <v>39.335686663200001</v>
+        <v>84.231701974000003</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>569</v>
+        <v>319</v>
       </c>
       <c r="B107" t="s">
-        <v>570</v>
+        <v>320</v>
       </c>
       <c r="C107">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D107" s="29">
-        <v>41.970956098400002</v>
+        <v>44.097897332099997</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>571</v>
+        <v>321</v>
       </c>
       <c r="B108" t="s">
-        <v>572</v>
+        <v>322</v>
       </c>
       <c r="C108">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="D108" s="29">
-        <v>62.772693103500004</v>
+        <v>45.5920452736</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>573</v>
+        <v>323</v>
       </c>
       <c r="B109" t="s">
-        <v>574</v>
+        <v>324</v>
       </c>
       <c r="C109">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="D109" s="29">
-        <v>69.089058692600005</v>
+        <v>88.792930213399998</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>575</v>
+        <v>325</v>
       </c>
       <c r="B110" t="s">
-        <v>576</v>
+        <v>326</v>
       </c>
       <c r="C110">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D110" s="29">
-        <v>38.5487528345</v>
+        <v>42.656050049800001</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>577</v>
+        <v>327</v>
       </c>
       <c r="B111" t="s">
-        <v>578</v>
+        <v>328</v>
       </c>
       <c r="C111">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D111" s="29">
-        <v>44.555078794700002</v>
+        <v>45.897626437</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>579</v>
+        <v>329</v>
       </c>
       <c r="B112" t="s">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="C112">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="D112" s="29">
-        <v>68.373252054299996</v>
+        <v>82.997957892000002</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>581</v>
+        <v>331</v>
       </c>
       <c r="B113" t="s">
-        <v>582</v>
+        <v>332</v>
       </c>
       <c r="C113">
-        <v>46</v>
+        <v>344</v>
       </c>
       <c r="D113" s="29">
-        <v>45.995400459999999</v>
+        <v>59.029446084200003</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>583</v>
+        <v>333</v>
       </c>
       <c r="B114" t="s">
-        <v>584</v>
+        <v>334</v>
       </c>
       <c r="C114">
-        <v>62</v>
+        <v>284</v>
       </c>
       <c r="D114" s="29">
-        <v>48.157958102599999</v>
+        <v>53.081730913000001</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>585</v>
+        <v>335</v>
       </c>
       <c r="B115" t="s">
-        <v>586</v>
+        <v>336</v>
       </c>
       <c r="C115">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="D115" s="29">
-        <v>62.498187874700001</v>
+        <v>53.187094641999998</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>587</v>
+        <v>337</v>
       </c>
       <c r="B116" t="s">
-        <v>588</v>
+        <v>338</v>
       </c>
       <c r="C116">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D116" s="29">
-        <v>51.956764080100001</v>
+        <v>163.03624506450001</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>589</v>
+        <v>339</v>
       </c>
       <c r="B117" t="s">
-        <v>590</v>
+        <v>340</v>
       </c>
       <c r="C117">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D117" s="29">
-        <v>37.926093918799999</v>
+        <v>72.287290345299994</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>591</v>
+        <v>341</v>
       </c>
       <c r="B118" t="s">
-        <v>592</v>
+        <v>342</v>
       </c>
       <c r="C118">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="D118" s="29">
-        <v>70.767743717200005</v>
+        <v>59.472540092700001</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>593</v>
+        <v>343</v>
       </c>
       <c r="B119" t="s">
-        <v>594</v>
+        <v>344</v>
       </c>
       <c r="C119">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D119" s="29">
-        <v>36.921562192300001</v>
+        <v>27.705147962800002</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>595</v>
+        <v>345</v>
       </c>
       <c r="B120" t="s">
-        <v>596</v>
+        <v>346</v>
       </c>
       <c r="C120">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="D120" s="29">
-        <v>31.598961344199999</v>
+        <v>65.7601718672</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>597</v>
+        <v>347</v>
       </c>
       <c r="B121" t="s">
-        <v>598</v>
+        <v>348</v>
       </c>
       <c r="C121">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="D121" s="29">
-        <v>36.522071600399997</v>
+        <v>27.249724258699999</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>599</v>
+        <v>349</v>
       </c>
       <c r="B122" t="s">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="C122">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D122" s="29">
-        <v>25.373224270800002</v>
+        <v>36.665240796200003</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>601</v>
+        <v>351</v>
       </c>
       <c r="B123" t="s">
-        <v>602</v>
+        <v>352</v>
       </c>
       <c r="C123">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D123" s="29">
-        <v>36.899598281700001</v>
+        <v>32.982924993399998</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>603</v>
+        <v>353</v>
       </c>
       <c r="B124" t="s">
-        <v>604</v>
+        <v>354</v>
       </c>
       <c r="C124">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D124" s="29">
-        <v>29.803808721199999</v>
+        <v>81.672239095500004</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>605</v>
+        <v>355</v>
       </c>
       <c r="B125" t="s">
-        <v>606</v>
+        <v>356</v>
       </c>
       <c r="C125">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="D125" s="29">
-        <v>65.3920177153</v>
+        <v>34.446425676799997</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>607</v>
+        <v>357</v>
       </c>
       <c r="B126" t="s">
-        <v>608</v>
+        <v>358</v>
       </c>
       <c r="C126">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="D126" s="29">
-        <v>53.618634345899999</v>
+        <v>54.2248313877</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>609</v>
+        <v>359</v>
       </c>
       <c r="B127" t="s">
-        <v>610</v>
+        <v>360</v>
       </c>
       <c r="C127">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D127" s="29">
-        <v>60.118105442599997</v>
+        <v>47.421241980600001</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>611</v>
+        <v>361</v>
       </c>
       <c r="B128" t="s">
-        <v>612</v>
+        <v>362</v>
       </c>
       <c r="C128">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D128" s="29">
-        <v>88.106599085300005</v>
+        <v>73.931687121099998</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>613</v>
+        <v>363</v>
       </c>
       <c r="B129" t="s">
-        <v>614</v>
+        <v>364</v>
       </c>
       <c r="C129">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="D129" s="29">
-        <v>179.98941238750001</v>
+        <v>76.366320755499999</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>615</v>
+        <v>365</v>
       </c>
       <c r="B130" t="s">
-        <v>616</v>
+        <v>366</v>
       </c>
       <c r="C130">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D130" s="29">
-        <v>69.465304896399999</v>
+        <v>53.1529901384</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>617</v>
+        <v>367</v>
       </c>
       <c r="B131" t="s">
-        <v>618</v>
+        <v>368</v>
       </c>
       <c r="C131">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="D131" s="29">
-        <v>46.8025844159</v>
+        <v>68.555142598499998</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>619</v>
+        <v>369</v>
       </c>
       <c r="B132" t="s">
-        <v>620</v>
+        <v>370</v>
       </c>
       <c r="C132">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D132" s="29">
-        <v>64.547538167799999</v>
+        <v>99.865771812099993</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>621</v>
+        <v>371</v>
       </c>
       <c r="B133" t="s">
-        <v>622</v>
+        <v>372</v>
       </c>
       <c r="C133">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="D133" s="29">
-        <v>96.383557129899998</v>
+        <v>113.16689015839999</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>623</v>
+        <v>373</v>
       </c>
       <c r="B134" t="s">
-        <v>624</v>
+        <v>374</v>
       </c>
       <c r="C134">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="D134" s="29">
-        <v>40.975950732400001</v>
+        <v>42.484336210000002</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>625</v>
+        <v>375</v>
       </c>
       <c r="B135" t="s">
-        <v>626</v>
+        <v>376</v>
       </c>
       <c r="C135">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D135" s="29">
-        <v>47.952431188299997</v>
+        <v>47.585866997499998</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>627</v>
+        <v>377</v>
       </c>
       <c r="B136" t="s">
-        <v>628</v>
+        <v>378</v>
       </c>
       <c r="C136">
-        <v>241</v>
+        <v>108</v>
       </c>
       <c r="D136" s="29">
-        <v>121.8765961536</v>
+        <v>41.836952100600001</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>629</v>
+        <v>379</v>
       </c>
       <c r="B137" t="s">
-        <v>630</v>
+        <v>380</v>
       </c>
       <c r="C137">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="D137" s="29">
-        <v>74.369763923700006</v>
+        <v>65.288356909699999</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>631</v>
+        <v>381</v>
       </c>
       <c r="B138" t="s">
-        <v>632</v>
+        <v>382</v>
       </c>
       <c r="C138">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D138" s="29">
-        <v>25.702082624599999</v>
+        <v>52.827752179100003</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>633</v>
+        <v>383</v>
       </c>
       <c r="B139" t="s">
-        <v>634</v>
+        <v>384</v>
       </c>
       <c r="C139">
-        <v>513</v>
+        <v>172</v>
       </c>
       <c r="D139" s="29">
-        <v>98.964060420199999</v>
+        <v>127.4942924067</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>635</v>
+        <v>385</v>
       </c>
       <c r="B140" t="s">
-        <v>636</v>
+        <v>386</v>
       </c>
       <c r="C140">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D140" s="29">
-        <v>57.965244273700002</v>
+        <v>34.044798046899999</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>637</v>
+        <v>387</v>
       </c>
       <c r="B141" t="s">
-        <v>638</v>
+        <v>388</v>
       </c>
       <c r="C141">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="D141" s="29">
-        <v>39.741551715299998</v>
+        <v>67.803035826200002</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>639</v>
+        <v>389</v>
       </c>
       <c r="B142" t="s">
-        <v>640</v>
+        <v>390</v>
       </c>
       <c r="C142">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="D142" s="29">
-        <v>62.119335286400002</v>
+        <v>120.1256699316</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>641</v>
+        <v>391</v>
       </c>
       <c r="B143" t="s">
-        <v>642</v>
+        <v>392</v>
       </c>
       <c r="C143">
-        <v>122</v>
+        <v>272</v>
       </c>
       <c r="D143" s="29">
-        <v>57.884648232099998</v>
+        <v>98.648658450799999</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>643</v>
+        <v>393</v>
       </c>
       <c r="B144" t="s">
-        <v>644</v>
+        <v>394</v>
       </c>
       <c r="C144">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="D144" s="29">
-        <v>66.2239213955</v>
+        <v>33.851071032100002</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>645</v>
+        <v>395</v>
       </c>
       <c r="B145" t="s">
-        <v>646</v>
+        <v>396</v>
       </c>
       <c r="C145">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="D145" s="29">
-        <v>111.54693657369999</v>
+        <v>60.284212660800002</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>647</v>
+        <v>397</v>
       </c>
       <c r="B146" t="s">
-        <v>648</v>
+        <v>398</v>
       </c>
       <c r="C146">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="D146" s="29">
-        <v>29.988728374499999</v>
+        <v>98.046489935699995</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>649</v>
+        <v>399</v>
       </c>
       <c r="B147" t="s">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="C147">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="D147" s="29">
-        <v>41.386330207</v>
+        <v>109.7327045342</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>651</v>
+        <v>401</v>
       </c>
       <c r="B148" t="s">
-        <v>652</v>
+        <v>402</v>
       </c>
       <c r="C148">
-        <v>88</v>
+        <v>1351</v>
       </c>
       <c r="D148" s="29">
-        <v>67.546822229</v>
+        <v>73.135623544799998</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>653</v>
+        <v>403</v>
       </c>
       <c r="B149" t="s">
-        <v>654</v>
+        <v>404</v>
       </c>
       <c r="C149">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="D149" s="29">
-        <v>56.490347457799999</v>
+        <v>42.410248470200003</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>655</v>
+        <v>405</v>
       </c>
       <c r="B150" t="s">
-        <v>656</v>
+        <v>406</v>
       </c>
       <c r="C150">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="D150" s="29">
-        <v>30.163771535999999</v>
+        <v>73.367571533399996</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>657</v>
+        <v>407</v>
       </c>
       <c r="B151" t="s">
-        <v>658</v>
+        <v>408</v>
       </c>
       <c r="C151">
-        <v>50</v>
+        <v>1345</v>
       </c>
       <c r="D151" s="29">
-        <v>38.200015280000002</v>
+        <v>116.2373662082</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>659</v>
+        <v>409</v>
       </c>
       <c r="B152" t="s">
-        <v>660</v>
+        <v>410</v>
       </c>
       <c r="C152">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="D152" s="29">
-        <v>76.891493412000003</v>
+        <v>62.099351101099998</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>661</v>
+        <v>411</v>
       </c>
       <c r="B153" t="s">
-        <v>662</v>
+        <v>412</v>
       </c>
       <c r="C153">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D153" s="29">
-        <v>30.1657025244</v>
+        <v>63.756973418999998</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>663</v>
+        <v>413</v>
       </c>
       <c r="B154" t="s">
-        <v>664</v>
+        <v>414</v>
       </c>
       <c r="C154">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="D154" s="29">
-        <v>76.247647517999994</v>
+        <v>21.331058020499999</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>665</v>
+        <v>415</v>
       </c>
       <c r="B155" t="s">
-        <v>666</v>
+        <v>416</v>
       </c>
       <c r="C155">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="D155" s="29">
-        <v>58.925379803399998</v>
+        <v>77.916022479099993</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>667</v>
+        <v>417</v>
       </c>
       <c r="B156" t="s">
-        <v>668</v>
+        <v>418</v>
       </c>
       <c r="C156">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D156" s="29">
-        <v>20.698988933999999</v>
+        <v>36.965160336399997</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>669</v>
+        <v>419</v>
       </c>
       <c r="B157" t="s">
-        <v>670</v>
+        <v>420</v>
       </c>
       <c r="C157">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D157" s="29">
-        <v>33.998668385499997</v>
+        <v>35.297396042999999</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>671</v>
+        <v>421</v>
       </c>
       <c r="B158" t="s">
-        <v>672</v>
+        <v>422</v>
       </c>
       <c r="C158">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D158" s="29">
-        <v>56.175830349000002</v>
+        <v>42.929121760500003</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="B159" t="s">
-        <v>674</v>
+        <v>424</v>
       </c>
       <c r="C159">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D159" s="29">
-        <v>39.393833618400002</v>
+        <v>43.446663296300002</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>675</v>
+        <v>425</v>
       </c>
       <c r="B160" t="s">
-        <v>676</v>
+        <v>426</v>
       </c>
       <c r="C160">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="D160" s="29">
-        <v>37.4262853906</v>
+        <v>52.546624242299998</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>677</v>
+        <v>427</v>
       </c>
       <c r="B161" t="s">
-        <v>678</v>
+        <v>428</v>
       </c>
       <c r="C161">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D161" s="29">
-        <v>42.554712041000002</v>
+        <v>53.217506994600001</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>679</v>
+        <v>429</v>
       </c>
       <c r="B162" t="s">
-        <v>680</v>
+        <v>430</v>
       </c>
       <c r="C162">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D162" s="29">
-        <v>79.540935174099999</v>
+        <v>55.861638388999999</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>681</v>
+        <v>431</v>
       </c>
       <c r="B163" t="s">
-        <v>682</v>
+        <v>432</v>
       </c>
       <c r="C163">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="D163" s="29">
-        <v>105.8882152645</v>
+        <v>59.861599980800001</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>683</v>
+        <v>433</v>
       </c>
       <c r="B164" t="s">
-        <v>684</v>
+        <v>434</v>
       </c>
       <c r="C164">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="D164" s="29">
-        <v>117.951647243</v>
+        <v>79.898241599499997</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>685</v>
+        <v>435</v>
       </c>
       <c r="B165" t="s">
-        <v>686</v>
+        <v>436</v>
       </c>
       <c r="C165">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D165" s="29">
-        <v>28.8550773238</v>
+        <v>50.5305709955</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>687</v>
+        <v>437</v>
       </c>
       <c r="B166" t="s">
-        <v>688</v>
+        <v>438</v>
       </c>
       <c r="C166">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="D166" s="29">
-        <v>36.520399818999998</v>
+        <v>67.165272019400007</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>689</v>
+        <v>439</v>
       </c>
       <c r="B167" t="s">
-        <v>690</v>
+        <v>440</v>
       </c>
       <c r="C167">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="D167" s="29">
-        <v>47.769239773099997</v>
+        <v>194.62949190629999</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>691</v>
+        <v>441</v>
       </c>
       <c r="B168" t="s">
-        <v>692</v>
+        <v>442</v>
       </c>
       <c r="C168">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="D168" s="29">
-        <v>24.856453978299999</v>
+        <v>63.085306562</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>693</v>
+        <v>443</v>
       </c>
       <c r="B169" t="s">
-        <v>694</v>
+        <v>444</v>
       </c>
       <c r="C169">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="D169" s="29">
-        <v>30.306327028599998</v>
+        <v>82.763293132200005</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>695</v>
+        <v>445</v>
       </c>
       <c r="B170" t="s">
-        <v>696</v>
+        <v>446</v>
       </c>
       <c r="C170">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="D170" s="29">
-        <v>30.498963035300001</v>
+        <v>64.158302168700004</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>697</v>
+        <v>447</v>
       </c>
       <c r="B171" t="s">
-        <v>698</v>
+        <v>448</v>
       </c>
       <c r="C171">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="D171" s="29">
-        <v>55.410359890300001</v>
+        <v>172.39498090559999</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>699</v>
+        <v>449</v>
       </c>
       <c r="B172" t="s">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="C172">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="D172" s="29">
-        <v>116.8623125607</v>
+        <v>151.8971318868</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>701</v>
+        <v>451</v>
       </c>
       <c r="B173" t="s">
-        <v>702</v>
+        <v>452</v>
       </c>
       <c r="C173">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="D173" s="29">
-        <v>52.718001901299999</v>
+        <v>79.002263548000002</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>703</v>
+        <v>453</v>
       </c>
       <c r="B174" t="s">
-        <v>704</v>
+        <v>454</v>
       </c>
       <c r="C174">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D174" s="29">
-        <v>40.991647513899999</v>
+        <v>56.771409918000003</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>705</v>
+        <v>455</v>
       </c>
       <c r="B175" t="s">
-        <v>706</v>
+        <v>456</v>
       </c>
       <c r="C175">
-        <v>445</v>
+        <v>74</v>
       </c>
       <c r="D175" s="29">
-        <v>72.459402380900002</v>
+        <v>52.762547147600003</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>707</v>
+        <v>457</v>
       </c>
       <c r="B176" t="s">
-        <v>708</v>
+        <v>458</v>
       </c>
       <c r="C176">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D176" s="29">
-        <v>69.758429143499995</v>
+        <v>74.353640975399998</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>709</v>
+        <v>459</v>
       </c>
       <c r="B177" t="s">
-        <v>710</v>
+        <v>460</v>
       </c>
       <c r="C177">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D177" s="29">
-        <v>27.434125439300001</v>
+        <v>25.474554559200001</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>711</v>
+        <v>461</v>
       </c>
       <c r="B178" t="s">
-        <v>712</v>
+        <v>462</v>
       </c>
       <c r="C178">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="D178" s="29">
-        <v>54.104189210100003</v>
+        <v>61.072541605700003</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>713</v>
+        <v>463</v>
       </c>
       <c r="B179" t="s">
-        <v>714</v>
+        <v>464</v>
       </c>
       <c r="C179">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D179" s="29">
-        <v>65.566113995199998</v>
+        <v>83.715634731899996</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>715</v>
+        <v>465</v>
       </c>
       <c r="B180" t="s">
-        <v>716</v>
+        <v>466</v>
       </c>
       <c r="C180">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="D180" s="29">
-        <v>42.3641538404</v>
+        <v>20.9937018894</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>717</v>
+        <v>467</v>
       </c>
       <c r="B181" t="s">
-        <v>718</v>
+        <v>468</v>
       </c>
       <c r="C181">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="D181" s="29">
-        <v>48.522791118500002</v>
+        <v>32.081827531899997</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>719</v>
+        <v>469</v>
       </c>
       <c r="B182" t="s">
-        <v>720</v>
+        <v>470</v>
       </c>
       <c r="C182">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="D182" s="29">
-        <v>36.232641429200001</v>
+        <v>47.747228097200001</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>721</v>
+        <v>471</v>
       </c>
       <c r="B183" t="s">
-        <v>722</v>
+        <v>472</v>
       </c>
       <c r="C183">
-        <v>356</v>
+        <v>278</v>
       </c>
       <c r="D183" s="29">
-        <v>75.645697650900004</v>
+        <v>62.457734311999999</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>723</v>
+        <v>473</v>
       </c>
       <c r="B184" t="s">
-        <v>724</v>
+        <v>474</v>
       </c>
       <c r="C184">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D184" s="29">
-        <v>42.209873904699997</v>
+        <v>23.251557112299999</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>725</v>
+        <v>475</v>
       </c>
       <c r="B185" t="s">
-        <v>726</v>
+        <v>476</v>
       </c>
       <c r="C185">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D185" s="29">
-        <v>87.240580440700001</v>
+        <v>35.056005135900001</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>727</v>
+        <v>477</v>
       </c>
       <c r="B186" t="s">
-        <v>728</v>
+        <v>478</v>
       </c>
       <c r="C186">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="D186" s="29">
-        <v>61.072259426499997</v>
+        <v>6.7570611289000002</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>729</v>
+        <v>479</v>
       </c>
       <c r="B187" t="s">
-        <v>730</v>
+        <v>480</v>
       </c>
       <c r="C187">
-        <v>215</v>
+        <v>52</v>
       </c>
       <c r="D187" s="29">
-        <v>47.594802204899999</v>
+        <v>42.256496936399998</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>731</v>
+        <v>481</v>
       </c>
       <c r="B188" t="s">
-        <v>732</v>
+        <v>482</v>
       </c>
       <c r="C188">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="D188" s="29">
-        <v>79.315109937299994</v>
+        <v>36.152767132800001</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>733</v>
+        <v>483</v>
       </c>
       <c r="B189" t="s">
-        <v>734</v>
+        <v>484</v>
       </c>
       <c r="C189">
-        <v>303</v>
+        <v>92</v>
       </c>
       <c r="D189" s="29">
-        <v>55.2561752879</v>
+        <v>37.278053761400002</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>735</v>
+        <v>485</v>
       </c>
       <c r="B190" t="s">
-        <v>736</v>
+        <v>486</v>
       </c>
       <c r="C190">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D190" s="29">
-        <v>53.037015956399998</v>
+        <v>54.851626350700002</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>737</v>
+        <v>487</v>
       </c>
       <c r="B191" t="s">
-        <v>738</v>
+        <v>488</v>
       </c>
       <c r="C191">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="D191" s="29">
-        <v>46.2744105839</v>
+        <v>81.609140223699995</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>739</v>
+        <v>489</v>
       </c>
       <c r="B192" t="s">
-        <v>740</v>
+        <v>490</v>
       </c>
       <c r="C192">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D192" s="29">
-        <v>50.229170590800003</v>
+        <v>36.825307754400001</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>741</v>
+        <v>491</v>
       </c>
       <c r="B193" t="s">
-        <v>742</v>
+        <v>492</v>
       </c>
       <c r="C193">
-        <v>33</v>
+        <v>725</v>
       </c>
       <c r="D193" s="29">
-        <v>51.9267989489</v>
+        <v>66.6444212185</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>743</v>
+        <v>493</v>
       </c>
       <c r="B194" t="s">
-        <v>744</v>
+        <v>494</v>
       </c>
       <c r="C194">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="D194" s="29">
-        <v>60.459954846400002</v>
+        <v>79.635353905800002</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>745</v>
+        <v>495</v>
       </c>
       <c r="B195" t="s">
-        <v>746</v>
+        <v>496</v>
       </c>
       <c r="C195">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="D195" s="29">
-        <v>27.2478261493</v>
+        <v>65.078688048800004</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>747</v>
+        <v>497</v>
       </c>
       <c r="B196" t="s">
-        <v>748</v>
+        <v>498</v>
       </c>
       <c r="C196">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D196" s="29">
-        <v>39.852822599299998</v>
+        <v>83.903930000100004</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>749</v>
+        <v>499</v>
       </c>
       <c r="B197" t="s">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="C197">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="D197" s="29">
-        <v>27.475546763400001</v>
+        <v>192.82899700979999</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>751</v>
+        <v>501</v>
       </c>
       <c r="B198" t="s">
-        <v>752</v>
+        <v>502</v>
       </c>
       <c r="C198">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D198" s="29">
-        <v>43.392847280799998</v>
+        <v>19.9376237201</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>753</v>
+        <v>503</v>
       </c>
       <c r="B199" t="s">
-        <v>754</v>
+        <v>504</v>
       </c>
       <c r="C199">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="D199" s="29">
-        <v>81.480140244599994</v>
+        <v>160.35142564540001</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>755</v>
+        <v>505</v>
       </c>
       <c r="B200" t="s">
-        <v>756</v>
+        <v>506</v>
       </c>
       <c r="C200">
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="D200" s="29">
-        <v>42.894522369500002</v>
+        <v>88.426055684700003</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>757</v>
+        <v>507</v>
       </c>
       <c r="B201" t="s">
-        <v>758</v>
+        <v>508</v>
       </c>
       <c r="C201">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="D201" s="29">
-        <v>165.15973478000001</v>
+        <v>31.9959045242</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>759</v>
+        <v>509</v>
       </c>
       <c r="B202" t="s">
-        <v>760</v>
+        <v>510</v>
       </c>
       <c r="C202">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="D202" s="29">
-        <v>83.235862143999995</v>
+        <v>29.9246895313</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>761</v>
+        <v>511</v>
       </c>
       <c r="B203" t="s">
-        <v>762</v>
+        <v>512</v>
       </c>
       <c r="C203">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="D203" s="29">
-        <v>180.5458711027</v>
+        <v>62.660909128100002</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>763</v>
+        <v>513</v>
       </c>
       <c r="B204" t="s">
-        <v>764</v>
+        <v>514</v>
       </c>
       <c r="C204">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D204" s="29">
-        <v>80.427135921900003</v>
+        <v>38.150035961100002</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>765</v>
+        <v>515</v>
       </c>
       <c r="B205" t="s">
-        <v>766</v>
+        <v>516</v>
       </c>
       <c r="C205">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="D205" s="29">
-        <v>53.520242487899999</v>
+        <v>82.573965190099997</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>993</v>
+        <v>517</v>
       </c>
       <c r="B206" t="s">
-        <v>767</v>
+        <v>518</v>
       </c>
       <c r="C206">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="D206" s="29">
-        <v>31.646459816</v>
+        <v>48.554737880300003</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>768</v>
+        <v>519</v>
       </c>
       <c r="B207" t="s">
-        <v>769</v>
+        <v>520</v>
       </c>
       <c r="C207">
-        <v>182</v>
+        <v>252</v>
       </c>
       <c r="D207" s="29">
-        <v>74.108458951200006</v>
+        <v>97.621823901100001</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>770</v>
+        <v>521</v>
       </c>
       <c r="B208" t="s">
-        <v>771</v>
+        <v>522</v>
       </c>
       <c r="C208">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D208" s="29">
-        <v>100.6798285566</v>
+        <v>69.016484556799995</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>772</v>
+        <v>523</v>
       </c>
       <c r="B209" t="s">
-        <v>773</v>
+        <v>524</v>
       </c>
       <c r="C209">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="D209" s="29">
-        <v>132.18770654330001</v>
+        <v>91.350185695500002</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>774</v>
+        <v>525</v>
       </c>
       <c r="B210" t="s">
-        <v>775</v>
+        <v>526</v>
       </c>
       <c r="C210">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="D210" s="29">
-        <v>82.751962485799993</v>
+        <v>73.293312857700002</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>776</v>
+        <v>527</v>
       </c>
       <c r="B211" t="s">
-        <v>777</v>
+        <v>528</v>
       </c>
       <c r="C211">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D211" s="29">
-        <v>55.126093017400002</v>
+        <v>73.187689830599993</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>778</v>
+        <v>529</v>
       </c>
       <c r="B212" t="s">
-        <v>779</v>
+        <v>530</v>
       </c>
       <c r="C212">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="D212" s="29">
-        <v>63.632205850200002</v>
+        <v>44.6025196107</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>780</v>
+        <v>531</v>
       </c>
       <c r="B213" t="s">
-        <v>781</v>
+        <v>532</v>
       </c>
       <c r="C213">
-        <v>271</v>
+        <v>108</v>
       </c>
       <c r="D213" s="29">
-        <v>216.94578756920001</v>
+        <v>47.216004476800002</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>782</v>
+        <v>533</v>
       </c>
       <c r="B214" t="s">
-        <v>783</v>
+        <v>534</v>
       </c>
       <c r="C214">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="D214" s="29">
-        <v>73.204655816100001</v>
+        <v>51.724934189300001</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>784</v>
+        <v>535</v>
       </c>
       <c r="B215" t="s">
-        <v>785</v>
+        <v>536</v>
       </c>
       <c r="C215">
-        <v>234</v>
+        <v>9</v>
       </c>
       <c r="D215" s="29">
-        <v>118.9260066782</v>
+        <v>18.590432124300001</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>786</v>
+        <v>537</v>
       </c>
       <c r="B216" t="s">
-        <v>787</v>
+        <v>538</v>
       </c>
       <c r="C216">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="D216" s="29">
-        <v>40.629365569699999</v>
+        <v>40.519010016099998</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>788</v>
+        <v>539</v>
       </c>
       <c r="B217" t="s">
-        <v>789</v>
+        <v>540</v>
       </c>
       <c r="C217">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="D217" s="29">
-        <v>110.23046959529999</v>
+        <v>52.829268575900002</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>790</v>
+        <v>541</v>
       </c>
       <c r="B218" t="s">
-        <v>791</v>
+        <v>542</v>
       </c>
       <c r="C218">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="D218" s="29">
-        <v>35.2931211354</v>
+        <v>69.884171707299998</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>792</v>
+        <v>543</v>
       </c>
       <c r="B219" t="s">
-        <v>793</v>
+        <v>544</v>
       </c>
       <c r="C219">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D219" s="29">
-        <v>11.230487028800001</v>
+        <v>30.4118084708</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>794</v>
+        <v>545</v>
       </c>
       <c r="B220" t="s">
-        <v>795</v>
+        <v>546</v>
       </c>
       <c r="C220">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="D220" s="29">
-        <v>24.253973753699999</v>
+        <v>53.038115884100002</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>796</v>
+        <v>547</v>
       </c>
       <c r="B221" t="s">
-        <v>797</v>
+        <v>548</v>
       </c>
       <c r="C221">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="D221" s="29">
-        <v>82.590195811900003</v>
+        <v>81.083908767500006</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>798</v>
+        <v>549</v>
       </c>
       <c r="B222" t="s">
-        <v>799</v>
+        <v>550</v>
       </c>
       <c r="C222">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="D222" s="29">
-        <v>50.509605844699998</v>
+        <v>22.1943911603</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>800</v>
+        <v>551</v>
       </c>
       <c r="B223" t="s">
-        <v>801</v>
+        <v>552</v>
       </c>
       <c r="C223">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="D223" s="29">
-        <v>58.856664163200001</v>
+        <v>46.8281482489</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>802</v>
+        <v>553</v>
       </c>
       <c r="B224" t="s">
-        <v>803</v>
+        <v>554</v>
       </c>
       <c r="C224">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="D224" s="29">
-        <v>27.512629060999998</v>
+        <v>52.817344209799998</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>804</v>
+        <v>555</v>
       </c>
       <c r="B225" t="s">
-        <v>805</v>
+        <v>556</v>
       </c>
       <c r="C225">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="D225" s="29">
-        <v>57.988302930899998</v>
+        <v>21.502621489799999</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>806</v>
+        <v>557</v>
       </c>
       <c r="B226" t="s">
-        <v>807</v>
+        <v>558</v>
       </c>
       <c r="C226">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="D226" s="29">
-        <v>114.2893026469</v>
+        <v>34.055917925199999</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>808</v>
+        <v>559</v>
       </c>
       <c r="B227" t="s">
-        <v>809</v>
+        <v>560</v>
       </c>
       <c r="C227">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="D227" s="29">
-        <v>128.1922018811</v>
+        <v>60.838607085600003</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>810</v>
+        <v>561</v>
       </c>
       <c r="B228" t="s">
-        <v>811</v>
+        <v>562</v>
       </c>
       <c r="C228">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D228" s="29">
-        <v>65.838487793900001</v>
+        <v>45.204606423500003</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>812</v>
+        <v>563</v>
       </c>
       <c r="B229" t="s">
-        <v>813</v>
+        <v>564</v>
       </c>
       <c r="C229">
-        <v>26</v>
+        <v>190</v>
       </c>
       <c r="D229" s="29">
-        <v>51.423033563399997</v>
+        <v>76.896925741900006</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>991</v>
+        <v>565</v>
       </c>
       <c r="B230" t="s">
-        <v>992</v>
+        <v>566</v>
       </c>
       <c r="C230">
-        <v>128</v>
+        <v>495</v>
       </c>
       <c r="D230" s="29">
-        <v>112.55715793180001</v>
+        <v>120.6663708919</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>814</v>
+        <v>567</v>
       </c>
       <c r="B231" t="s">
-        <v>815</v>
+        <v>568</v>
       </c>
       <c r="C231">
         <v>65</v>
       </c>
       <c r="D231" s="29">
-        <v>31.782976060100001</v>
+        <v>33.205449780599999</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>816</v>
+        <v>569</v>
       </c>
       <c r="B232" t="s">
-        <v>817</v>
+        <v>570</v>
       </c>
       <c r="C232">
-        <v>206</v>
+        <v>72</v>
       </c>
       <c r="D232" s="29">
-        <v>62.668459511899997</v>
+        <v>33.576764878699997</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>818</v>
+        <v>571</v>
       </c>
       <c r="B233" t="s">
-        <v>819</v>
+        <v>572</v>
       </c>
       <c r="C233">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="D233" s="29">
-        <v>42.438920880700003</v>
+        <v>55.410463665499996</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>820</v>
+        <v>573</v>
       </c>
       <c r="B234" t="s">
-        <v>821</v>
+        <v>574</v>
       </c>
       <c r="C234">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="D234" s="29">
-        <v>34.347736484199999</v>
+        <v>79.018025211299999</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>822</v>
+        <v>575</v>
       </c>
       <c r="B235" t="s">
-        <v>823</v>
+        <v>576</v>
       </c>
       <c r="C235">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="D235" s="29">
-        <v>49.083039578799998</v>
+        <v>15.873015873</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>824</v>
+        <v>577</v>
       </c>
       <c r="B236" t="s">
-        <v>825</v>
+        <v>578</v>
       </c>
       <c r="C236">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D236" s="29">
-        <v>37.773181041500003</v>
+        <v>42.617901455800002</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>826</v>
+        <v>579</v>
       </c>
       <c r="B237" t="s">
-        <v>827</v>
+        <v>580</v>
       </c>
       <c r="C237">
-        <v>105</v>
+        <v>354</v>
       </c>
       <c r="D237" s="29">
-        <v>43.005291698699999</v>
+        <v>72.9040097205</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>828</v>
+        <v>581</v>
       </c>
       <c r="B238" t="s">
-        <v>829</v>
+        <v>582</v>
       </c>
       <c r="C238">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D238" s="29">
-        <v>27.201774392699999</v>
+        <v>51.994800519899997</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>830</v>
+        <v>583</v>
       </c>
       <c r="B239" t="s">
-        <v>831</v>
+        <v>584</v>
       </c>
       <c r="C239">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D239" s="29">
-        <v>53.401898734200003</v>
+        <v>55.148629440000001</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>832</v>
+        <v>585</v>
       </c>
       <c r="B240" t="s">
-        <v>833</v>
+        <v>586</v>
       </c>
       <c r="C240">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="D240" s="29">
-        <v>36.483092759800002</v>
+        <v>56.377231330299999</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>834</v>
+        <v>587</v>
       </c>
       <c r="B241" t="s">
-        <v>835</v>
+        <v>588</v>
       </c>
       <c r="C241">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="D241" s="29">
-        <v>44.335465658099999</v>
+        <v>46.366479337299999</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>836</v>
+        <v>589</v>
       </c>
       <c r="B242" t="s">
-        <v>837</v>
+        <v>590</v>
       </c>
       <c r="C242">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D242" s="29">
-        <v>40.071284706500002</v>
+        <v>43.289379927500001</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>838</v>
+        <v>591</v>
       </c>
       <c r="B243" t="s">
-        <v>839</v>
+        <v>592</v>
       </c>
       <c r="C243">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="D243" s="29">
-        <v>81.546114327699996</v>
+        <v>91.480254073500006</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>840</v>
+        <v>593</v>
       </c>
       <c r="B244" t="s">
-        <v>841</v>
+        <v>594</v>
       </c>
       <c r="C244">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D244" s="29">
-        <v>45.294916969100001</v>
+        <v>43.368184162399999</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>842</v>
+        <v>595</v>
       </c>
       <c r="B245" t="s">
-        <v>843</v>
+        <v>596</v>
       </c>
       <c r="C245">
-        <v>256</v>
+        <v>489</v>
       </c>
       <c r="D245" s="29">
-        <v>355.32854009940002</v>
+        <v>32.946465026200002</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>844</v>
+        <v>597</v>
       </c>
       <c r="B246" t="s">
-        <v>845</v>
+        <v>598</v>
       </c>
       <c r="C246">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D246" s="29">
-        <v>91.360767881599998</v>
+        <v>43.0846313411</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>846</v>
+        <v>599</v>
       </c>
       <c r="B247" t="s">
-        <v>847</v>
+        <v>600</v>
       </c>
       <c r="C247">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D247" s="29">
-        <v>30.485617961399999</v>
+        <v>21.250075326800001</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>848</v>
+        <v>601</v>
       </c>
       <c r="B248" t="s">
-        <v>849</v>
+        <v>602</v>
       </c>
       <c r="C248">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D248" s="29">
-        <v>42.169239213399997</v>
+        <v>32.0260664332</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>850</v>
+        <v>603</v>
       </c>
       <c r="B249" t="s">
-        <v>851</v>
+        <v>604</v>
       </c>
       <c r="C249">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="D249" s="29">
-        <v>39.793946072600001</v>
+        <v>20.554350842200002</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>852</v>
+        <v>605</v>
       </c>
       <c r="B250" t="s">
-        <v>853</v>
+        <v>606</v>
       </c>
       <c r="C250">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D250" s="29">
-        <v>34.099143259000002</v>
+        <v>45.328557734500002</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>854</v>
+        <v>607</v>
       </c>
       <c r="B251" t="s">
-        <v>855</v>
+        <v>608</v>
       </c>
       <c r="C251">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D251" s="29">
-        <v>37.831975585800002</v>
+        <v>53.618634345899999</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>856</v>
+        <v>609</v>
       </c>
       <c r="B252" t="s">
-        <v>857</v>
+        <v>610</v>
       </c>
       <c r="C252">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D252" s="29">
-        <v>89.837534771500003</v>
+        <v>67.727992207499994</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>858</v>
+        <v>611</v>
       </c>
       <c r="B253" t="s">
-        <v>859</v>
+        <v>612</v>
       </c>
       <c r="C253">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="D253" s="29">
-        <v>59.9416357757</v>
+        <v>110.8757201972</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>860</v>
+        <v>613</v>
       </c>
       <c r="B254" t="s">
-        <v>861</v>
+        <v>614</v>
       </c>
       <c r="C254">
-        <v>279</v>
+        <v>184</v>
       </c>
       <c r="D254" s="29">
-        <v>70.652407879600005</v>
+        <v>194.81206987819999</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>862</v>
+        <v>615</v>
       </c>
       <c r="B255" t="s">
-        <v>863</v>
+        <v>616</v>
       </c>
       <c r="C255">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="D255" s="29">
-        <v>173.1356131153</v>
+        <v>67.587864223500006</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>864</v>
+        <v>617</v>
       </c>
       <c r="B256" t="s">
-        <v>865</v>
+        <v>618</v>
       </c>
       <c r="C256">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D256" s="29">
-        <v>38.530077541799997</v>
+        <v>46.2318211913</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>866</v>
+        <v>619</v>
       </c>
       <c r="B257" t="s">
-        <v>867</v>
+        <v>620</v>
       </c>
       <c r="C257">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="D257" s="29">
-        <v>121.836794712</v>
+        <v>76.034811909599995</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>868</v>
+        <v>621</v>
       </c>
       <c r="B258" t="s">
-        <v>869</v>
+        <v>622</v>
       </c>
       <c r="C258">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="D258" s="29">
-        <v>18.230476982199999</v>
+        <v>83.202899744600003</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>870</v>
+        <v>623</v>
       </c>
       <c r="B259" t="s">
-        <v>871</v>
+        <v>624</v>
       </c>
       <c r="C259">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="D259" s="29">
-        <v>41.490582641499998</v>
+        <v>35.552663135499998</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>872</v>
+        <v>625</v>
       </c>
       <c r="B260" t="s">
-        <v>873</v>
+        <v>626</v>
       </c>
       <c r="C260">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D260" s="29">
-        <v>52.062133790200001</v>
+        <v>46.7536204086</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>874</v>
+        <v>627</v>
       </c>
       <c r="B261" t="s">
-        <v>875</v>
+        <v>628</v>
       </c>
       <c r="C261">
-        <v>393</v>
+        <v>283</v>
       </c>
       <c r="D261" s="29">
-        <v>173.89611366520001</v>
+        <v>143.1165008774</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>876</v>
+        <v>629</v>
       </c>
       <c r="B262" t="s">
-        <v>877</v>
+        <v>630</v>
       </c>
       <c r="C262">
-        <v>386</v>
+        <v>138</v>
       </c>
       <c r="D262" s="29">
-        <v>163.82101917049999</v>
+        <v>87.718183089500002</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>878</v>
+        <v>631</v>
       </c>
       <c r="B263" t="s">
-        <v>879</v>
+        <v>632</v>
       </c>
       <c r="C263">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D263" s="29">
-        <v>21.3616256197</v>
+        <v>27.969913444500001</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>880</v>
+        <v>633</v>
       </c>
       <c r="B264" t="s">
-        <v>881</v>
+        <v>634</v>
       </c>
       <c r="C264">
-        <v>47</v>
+        <v>494</v>
       </c>
       <c r="D264" s="29">
-        <v>77.498928206299993</v>
+        <v>95.298724848999996</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>882</v>
+        <v>635</v>
       </c>
       <c r="B265" t="s">
-        <v>883</v>
+        <v>636</v>
       </c>
       <c r="C265">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D265" s="29">
-        <v>56.263826195900002</v>
+        <v>48.0116164692</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>884</v>
+        <v>637</v>
       </c>
       <c r="B266" t="s">
-        <v>885</v>
+        <v>638</v>
       </c>
       <c r="C266">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D266" s="29">
-        <v>50.291515353500003</v>
+        <v>51.279421568099998</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>886</v>
+        <v>639</v>
       </c>
       <c r="B267" t="s">
-        <v>887</v>
+        <v>640</v>
       </c>
       <c r="C267">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="D267" s="29">
-        <v>49.668874172199999</v>
+        <v>70.205875974500003</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>888</v>
+        <v>641</v>
       </c>
       <c r="B268" t="s">
-        <v>889</v>
+        <v>642</v>
       </c>
       <c r="C268">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="D268" s="29">
-        <v>126.91848639200001</v>
+        <v>55.037862253500002</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>890</v>
+        <v>643</v>
       </c>
       <c r="B269" t="s">
-        <v>891</v>
+        <v>644</v>
       </c>
       <c r="C269">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="D269" s="29">
-        <v>252.6729522963</v>
+        <v>74.208365819099996</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>892</v>
+        <v>645</v>
       </c>
       <c r="B270" t="s">
-        <v>893</v>
+        <v>646</v>
       </c>
       <c r="C270">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="D270" s="29">
-        <v>41.335124522100003</v>
+        <v>141.7194685977</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>894</v>
+        <v>647</v>
       </c>
       <c r="B271" t="s">
-        <v>895</v>
+        <v>648</v>
       </c>
       <c r="C271">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D271" s="29">
-        <v>58.257190163700002</v>
+        <v>35.159198783900003</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>896</v>
+        <v>649</v>
       </c>
       <c r="B272" t="s">
-        <v>897</v>
+        <v>650</v>
       </c>
       <c r="C272">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="D272" s="29">
-        <v>174.0591070646</v>
+        <v>42.504879672000001</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>898</v>
+        <v>651</v>
       </c>
       <c r="B273" t="s">
-        <v>899</v>
+        <v>652</v>
       </c>
       <c r="C273">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="D273" s="29">
-        <v>45.390250596400001</v>
+        <v>80.595640159699997</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>900</v>
+        <v>653</v>
       </c>
       <c r="B274" t="s">
-        <v>901</v>
+        <v>654</v>
       </c>
       <c r="C274">
-        <v>51</v>
+        <v>206</v>
       </c>
       <c r="D274" s="29">
-        <v>50.681215156699999</v>
+        <v>57.895579981600001</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>902</v>
+        <v>655</v>
       </c>
       <c r="B275" t="s">
-        <v>903</v>
+        <v>656</v>
       </c>
       <c r="C275">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="D275" s="29">
-        <v>46.306763831200001</v>
+        <v>46.132827055100002</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>904</v>
+        <v>657</v>
       </c>
       <c r="B276" t="s">
-        <v>905</v>
+        <v>658</v>
       </c>
       <c r="C276">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="D276" s="29">
-        <v>155.7860989129</v>
+        <v>27.504011001599999</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>906</v>
+        <v>659</v>
       </c>
       <c r="B277" t="s">
-        <v>907</v>
+        <v>660</v>
       </c>
       <c r="C277">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D277" s="29">
-        <v>53.490767889700003</v>
+        <v>85.849725654099998</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>908</v>
+        <v>661</v>
       </c>
       <c r="B278" t="s">
-        <v>909</v>
+        <v>662</v>
       </c>
       <c r="C278">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="D278" s="29">
-        <v>63.242080956300001</v>
+        <v>31.7900095834</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>910</v>
+        <v>663</v>
       </c>
       <c r="B279" t="s">
-        <v>911</v>
+        <v>664</v>
       </c>
       <c r="C279">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D279" s="29">
-        <v>52.428592974600001</v>
+        <v>78.063067696999994</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>912</v>
+        <v>665</v>
       </c>
       <c r="B280" t="s">
-        <v>913</v>
+        <v>666</v>
       </c>
       <c r="C280">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="D280" s="29">
-        <v>51.255766273699997</v>
+        <v>47.754691688999998</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>914</v>
+        <v>667</v>
       </c>
       <c r="B281" t="s">
-        <v>915</v>
+        <v>668</v>
       </c>
       <c r="C281">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="D281" s="29">
-        <v>103.2388177955</v>
+        <v>25.794124671599999</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>916</v>
+        <v>669</v>
       </c>
       <c r="B282" t="s">
-        <v>917</v>
+        <v>670</v>
       </c>
       <c r="C282">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D282" s="29">
-        <v>33.376664441599999</v>
+        <v>43.914946664600002</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>918</v>
+        <v>671</v>
       </c>
       <c r="B283" t="s">
-        <v>919</v>
+        <v>672</v>
       </c>
       <c r="C283">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D283" s="29">
-        <v>70.221196769800002</v>
+        <v>50.909346253800003</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>920</v>
+        <v>673</v>
       </c>
       <c r="B284" t="s">
-        <v>921</v>
+        <v>674</v>
       </c>
       <c r="C284">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D284" s="29">
-        <v>19.297103022400002</v>
+        <v>36.900553009600003</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>922</v>
+        <v>675</v>
       </c>
       <c r="B285" t="s">
-        <v>923</v>
+        <v>676</v>
       </c>
       <c r="C285">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D285" s="29">
-        <v>75.411170429199998</v>
+        <v>57.6567099261</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>924</v>
+        <v>677</v>
       </c>
       <c r="B286" t="s">
-        <v>925</v>
+        <v>678</v>
       </c>
       <c r="C286">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="D286" s="29">
-        <v>306.93001169910002</v>
+        <v>43.204402301199998</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>926</v>
+        <v>679</v>
       </c>
       <c r="B287" t="s">
-        <v>927</v>
+        <v>680</v>
       </c>
       <c r="C287">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="D287" s="29">
-        <v>66.741762883700005</v>
+        <v>71.965608014699995</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>928</v>
+        <v>681</v>
       </c>
       <c r="B288" t="s">
-        <v>929</v>
+        <v>682</v>
       </c>
       <c r="C288">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="D288" s="29">
-        <v>42.990917191699999</v>
+        <v>95.507017689600005</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>930</v>
+        <v>683</v>
       </c>
       <c r="B289" t="s">
-        <v>931</v>
+        <v>684</v>
       </c>
       <c r="C289">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="D289" s="29">
-        <v>29.5744969255</v>
+        <v>107.5659676115</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>932</v>
+        <v>685</v>
       </c>
       <c r="B290" t="s">
-        <v>933</v>
+        <v>686</v>
       </c>
       <c r="C290">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="D290" s="29">
-        <v>44.359246526500002</v>
+        <v>33.534279052000002</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>934</v>
+        <v>687</v>
       </c>
       <c r="B291" t="s">
-        <v>935</v>
+        <v>688</v>
       </c>
       <c r="C291">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="D291" s="29">
-        <v>14.6228760273</v>
+        <v>42.8717737005</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="B292" t="s">
-        <v>937</v>
+        <v>690</v>
       </c>
       <c r="C292">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="D292" s="29">
-        <v>64.761493577799996</v>
+        <v>50.300060423300003</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>117</v>
+        <v>691</v>
       </c>
       <c r="B293" t="s">
-        <v>118</v>
+        <v>692</v>
       </c>
       <c r="C293">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="D293" s="29">
-        <v>40.034037908499997</v>
+        <v>39.770326365199999</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>119</v>
+        <v>693</v>
       </c>
       <c r="B294" t="s">
-        <v>120</v>
+        <v>694</v>
       </c>
       <c r="C294">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="D294" s="29">
-        <v>76.103500761000006</v>
+        <v>37.300094804399997</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>121</v>
+        <v>695</v>
       </c>
       <c r="B295" t="s">
-        <v>122</v>
+        <v>696</v>
       </c>
       <c r="C295">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D295" s="29">
-        <v>26.734989417400001</v>
+        <v>29.9444364346</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>123</v>
+        <v>697</v>
       </c>
       <c r="B296" t="s">
-        <v>124</v>
+        <v>698</v>
       </c>
       <c r="C296">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D296" s="29">
-        <v>46.1750796647</v>
+        <v>48.0223119049</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>125</v>
+        <v>699</v>
       </c>
       <c r="B297" t="s">
-        <v>126</v>
+        <v>700</v>
       </c>
       <c r="C297">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D297" s="29">
-        <v>81.661875090899997</v>
+        <v>73.531342734800006</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
+        <v>701</v>
+      </c>
+      <c r="B298" t="s">
+        <v>702</v>
+      </c>
+      <c r="C298">
         <v>127</v>
       </c>
-      <c r="B298" t="s">
-        <v>128</v>
-      </c>
-      <c r="C298">
-        <v>102</v>
-      </c>
       <c r="D298" s="29">
-        <v>79.189472458400004</v>
+        <v>54.878575749699998</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>129</v>
+        <v>703</v>
       </c>
       <c r="B299" t="s">
-        <v>130</v>
+        <v>704</v>
       </c>
       <c r="C299">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="D299" s="29">
-        <v>57.711036033299997</v>
+        <v>42.743427322199999</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>131</v>
+        <v>705</v>
       </c>
       <c r="B300" t="s">
-        <v>132</v>
+        <v>706</v>
       </c>
       <c r="C300">
-        <v>87</v>
+        <v>442</v>
       </c>
       <c r="D300" s="29">
-        <v>78.015710749999997</v>
+        <v>71.970912027799997</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>133</v>
+        <v>707</v>
       </c>
       <c r="B301" t="s">
-        <v>134</v>
+        <v>708</v>
       </c>
       <c r="C301">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D301" s="29">
-        <v>44.723063992500002</v>
+        <v>100.7621754295</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>135</v>
+        <v>709</v>
       </c>
       <c r="B302" t="s">
-        <v>136</v>
+        <v>710</v>
       </c>
       <c r="C302">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D302" s="29">
-        <v>85.293908593400005</v>
+        <v>47.6831227873</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>137</v>
+        <v>711</v>
       </c>
       <c r="B303" t="s">
-        <v>138</v>
+        <v>712</v>
       </c>
       <c r="C303">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D303" s="29">
-        <v>94.129977001200004</v>
+        <v>48.436131292799999</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>139</v>
+        <v>713</v>
       </c>
       <c r="B304" t="s">
-        <v>140</v>
+        <v>714</v>
       </c>
       <c r="C304">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D304" s="29">
-        <v>40.846074371900002</v>
+        <v>76.3441053369</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>141</v>
+        <v>715</v>
       </c>
       <c r="B305" t="s">
-        <v>142</v>
+        <v>716</v>
       </c>
       <c r="C305">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="D305" s="29">
-        <v>64.989967568099999</v>
+        <v>42.1300977418</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>143</v>
+        <v>717</v>
       </c>
       <c r="B306" t="s">
-        <v>144</v>
+        <v>718</v>
       </c>
       <c r="C306">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="D306" s="29">
-        <v>26.317048662600001</v>
+        <v>43.779961911400001</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>145</v>
+        <v>719</v>
       </c>
       <c r="B307" t="s">
+        <v>720</v>
+      </c>
+      <c r="C307">
         <v>146</v>
       </c>
-      <c r="C307">
-        <v>105</v>
-      </c>
       <c r="D307" s="29">
-        <v>56.882513232000001</v>
+        <v>50.8650543141</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>147</v>
+        <v>721</v>
       </c>
       <c r="B308" t="s">
-        <v>148</v>
+        <v>722</v>
       </c>
       <c r="C308">
-        <v>34</v>
+        <v>379</v>
       </c>
       <c r="D308" s="29">
-        <v>47.885975043000002</v>
+        <v>80.532919690200004</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>149</v>
+        <v>723</v>
       </c>
       <c r="B309" t="s">
-        <v>150</v>
+        <v>724</v>
       </c>
       <c r="C309">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D309" s="29">
-        <v>44.202066590100003</v>
+        <v>54.498824535200001</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>151</v>
+        <v>725</v>
       </c>
       <c r="B310" t="s">
-        <v>152</v>
+        <v>726</v>
       </c>
       <c r="C310">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="D310" s="29">
-        <v>57.994079209100001</v>
+        <v>96.933978267399993</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>153</v>
+        <v>727</v>
       </c>
       <c r="B311" t="s">
-        <v>154</v>
+        <v>728</v>
       </c>
       <c r="C311">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="D311" s="29">
-        <v>33.140278062699998</v>
+        <v>64.249428992000006</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>155</v>
+        <v>729</v>
       </c>
       <c r="B312" t="s">
-        <v>156</v>
+        <v>730</v>
       </c>
       <c r="C312">
-        <v>59</v>
+        <v>265</v>
       </c>
       <c r="D312" s="29">
-        <v>31.1027233334</v>
+        <v>58.663360857100002</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>157</v>
+        <v>731</v>
       </c>
       <c r="B313" t="s">
-        <v>158</v>
+        <v>732</v>
       </c>
       <c r="C313">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="D313" s="29">
-        <v>26.381047855199999</v>
+        <v>81.768154574500002</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>159</v>
+        <v>733</v>
       </c>
       <c r="B314" t="s">
-        <v>160</v>
+        <v>734</v>
       </c>
       <c r="C314">
-        <v>30</v>
+        <v>287</v>
       </c>
       <c r="D314" s="29">
-        <v>29.059911851599999</v>
+        <v>52.338357450899998</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>161</v>
+        <v>735</v>
       </c>
       <c r="B315" t="s">
-        <v>162</v>
+        <v>736</v>
       </c>
       <c r="C315">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D315" s="29">
-        <v>55.574852379299998</v>
+        <v>41.3947441611</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>163</v>
+        <v>737</v>
       </c>
       <c r="B316" t="s">
-        <v>164</v>
+        <v>738</v>
       </c>
       <c r="C316">
-        <v>38</v>
+        <v>310</v>
       </c>
       <c r="D316" s="29">
-        <v>29.706762979099999</v>
+        <v>51.600961442399999</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>165</v>
+        <v>739</v>
       </c>
       <c r="B317" t="s">
-        <v>166</v>
+        <v>740</v>
       </c>
       <c r="C317">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D317" s="29">
-        <v>30.805472501600001</v>
+        <v>50.229170590800003</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>167</v>
+        <v>741</v>
       </c>
       <c r="B318" t="s">
-        <v>168</v>
+        <v>742</v>
       </c>
       <c r="C318">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D318" s="29">
-        <v>62.037144740400002</v>
+        <v>66.088653207700006</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>169</v>
+        <v>743</v>
       </c>
       <c r="B319" t="s">
-        <v>170</v>
+        <v>744</v>
       </c>
       <c r="C319">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="D319" s="29">
-        <v>67.9518629003</v>
+        <v>84.950063138600001</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>171</v>
+        <v>745</v>
       </c>
       <c r="B320" t="s">
-        <v>172</v>
+        <v>746</v>
       </c>
       <c r="C320">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="D320" s="29">
-        <v>63.159940402899998</v>
+        <v>26.7697941116</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>173</v>
+        <v>747</v>
       </c>
       <c r="B321" t="s">
-        <v>174</v>
+        <v>748</v>
       </c>
       <c r="C321">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c r="D321" s="29">
-        <v>78.062970796399995</v>
+        <v>71.827761661599993</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>175</v>
+        <v>749</v>
       </c>
       <c r="B322" t="s">
-        <v>176</v>
+        <v>750</v>
       </c>
       <c r="C322">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="D322" s="29">
-        <v>110.987791343</v>
+        <v>21.980437410699999</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>177</v>
+        <v>751</v>
       </c>
       <c r="B323" t="s">
-        <v>178</v>
+        <v>752</v>
       </c>
       <c r="C323">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="D323" s="29">
-        <v>117.6879148017</v>
+        <v>41.814925561499997</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>179</v>
+        <v>753</v>
       </c>
       <c r="B324" t="s">
-        <v>180</v>
+        <v>754</v>
       </c>
       <c r="C324">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D324" s="29">
-        <v>86.850626362900002</v>
+        <v>63.373442412499998</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>181</v>
+        <v>755</v>
       </c>
       <c r="B325" t="s">
-        <v>182</v>
+        <v>756</v>
       </c>
       <c r="C325">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="D325" s="29">
-        <v>68.432344455099994</v>
+        <v>66.486509672699995</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>183</v>
+        <v>757</v>
       </c>
       <c r="B326" t="s">
-        <v>184</v>
+        <v>758</v>
       </c>
       <c r="C326">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="D326" s="29">
-        <v>61.602686594799998</v>
+        <v>125.37673297169999</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>185</v>
+        <v>759</v>
       </c>
       <c r="B327" t="s">
-        <v>186</v>
+        <v>760</v>
       </c>
       <c r="C327">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="D327" s="29">
-        <v>45.380576404199999</v>
+        <v>95.204417484999993</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>187</v>
+        <v>761</v>
       </c>
       <c r="B328" t="s">
-        <v>188</v>
+        <v>762</v>
       </c>
       <c r="C328">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D328" s="29">
-        <v>55.493120947100003</v>
+        <v>192.99731048909999</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>189</v>
+        <v>763</v>
       </c>
       <c r="B329" t="s">
-        <v>190</v>
+        <v>764</v>
       </c>
       <c r="C329">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="D329" s="29">
-        <v>52.858343442299997</v>
+        <v>107.559181775</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>191</v>
+        <v>765</v>
       </c>
       <c r="B330" t="s">
-        <v>192</v>
+        <v>766</v>
       </c>
       <c r="C330">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="D330" s="29">
-        <v>69.822352746799993</v>
+        <v>67.414920826100001</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>193</v>
+        <v>993</v>
       </c>
       <c r="B331" t="s">
-        <v>194</v>
+        <v>767</v>
       </c>
       <c r="C331">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="D331" s="29">
-        <v>59.790173858599999</v>
+        <v>33.052969141200002</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>195</v>
+        <v>768</v>
       </c>
       <c r="B332" t="s">
-        <v>196</v>
+        <v>769</v>
       </c>
       <c r="C332">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D332" s="29">
-        <v>44.719573103899997</v>
+        <v>68.814997597599998</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>197</v>
+        <v>770</v>
       </c>
       <c r="B333" t="s">
-        <v>198</v>
+        <v>771</v>
       </c>
       <c r="C333">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="D333" s="29">
-        <v>54.295715259399998</v>
+        <v>90.132417945900002</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>199</v>
+        <v>772</v>
       </c>
       <c r="B334" t="s">
-        <v>200</v>
+        <v>773</v>
       </c>
       <c r="C334">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="D334" s="29">
-        <v>62.756517264300001</v>
+        <v>104.6926635823</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>201</v>
+        <v>774</v>
       </c>
       <c r="B335" t="s">
-        <v>202</v>
+        <v>775</v>
       </c>
       <c r="C335">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="D335" s="29">
-        <v>43.683006979399998</v>
+        <v>93.095957796500002</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>203</v>
+        <v>776</v>
       </c>
       <c r="B336" t="s">
-        <v>204</v>
+        <v>777</v>
       </c>
       <c r="C336">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="D336" s="29">
-        <v>51.2037264609</v>
+        <v>54.492459764300001</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>205</v>
+        <v>778</v>
       </c>
       <c r="B337" t="s">
-        <v>206</v>
+        <v>779</v>
       </c>
       <c r="C337">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D337" s="29">
-        <v>55.161958512200002</v>
+        <v>71.586231581500002</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>207</v>
+        <v>780</v>
       </c>
       <c r="B338" t="s">
-        <v>208</v>
+        <v>781</v>
       </c>
       <c r="C338">
-        <v>73</v>
+        <v>264</v>
       </c>
       <c r="D338" s="29">
-        <v>64.898695802899994</v>
+        <v>211.34202183869999</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>209</v>
+        <v>782</v>
       </c>
       <c r="B339" t="s">
-        <v>210</v>
+        <v>783</v>
       </c>
       <c r="C339">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="D339" s="29">
-        <v>57.133772518199997</v>
+        <v>75.644811009999998</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>211</v>
+        <v>784</v>
       </c>
       <c r="B340" t="s">
-        <v>212</v>
+        <v>785</v>
       </c>
       <c r="C340">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="D340" s="29">
-        <v>40.694803931800003</v>
+        <v>144.84577736439999</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>213</v>
+        <v>786</v>
       </c>
       <c r="B341" t="s">
-        <v>214</v>
+        <v>787</v>
       </c>
       <c r="C341">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D341" s="29">
-        <v>108.707736779</v>
+        <v>41.1859322213</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>215</v>
+        <v>788</v>
       </c>
       <c r="B342" t="s">
-        <v>216</v>
+        <v>789</v>
       </c>
       <c r="C342">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="D342" s="29">
-        <v>87.827333481400004</v>
+        <v>139.98593378059999</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>217</v>
+        <v>790</v>
       </c>
       <c r="B343" t="s">
-        <v>218</v>
+        <v>791</v>
       </c>
       <c r="C343">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="D343" s="29">
-        <v>50.9155895898</v>
+        <v>36.704845980800002</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>219</v>
+        <v>792</v>
       </c>
       <c r="B344" t="s">
-        <v>220</v>
+        <v>793</v>
       </c>
       <c r="C344">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="D344" s="29">
-        <v>56.074203951500003</v>
+        <v>16.845730543199998</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>221</v>
+        <v>794</v>
       </c>
       <c r="B345" t="s">
-        <v>222</v>
+        <v>795</v>
       </c>
       <c r="C345">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="D345" s="29">
-        <v>36.786683220699999</v>
+        <v>31.183680540499999</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>223</v>
+        <v>796</v>
       </c>
       <c r="B346" t="s">
-        <v>224</v>
+        <v>797</v>
       </c>
       <c r="C346">
-        <v>229</v>
+        <v>70</v>
       </c>
       <c r="D346" s="29">
-        <v>69.462770684899994</v>
+        <v>73.181186162499998</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>225</v>
+        <v>798</v>
       </c>
       <c r="B347" t="s">
-        <v>226</v>
+        <v>799</v>
       </c>
       <c r="C347">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="D347" s="29">
-        <v>70.792111067600004</v>
+        <v>50.509605844699998</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>227</v>
+        <v>800</v>
       </c>
       <c r="B348" t="s">
-        <v>228</v>
+        <v>801</v>
       </c>
       <c r="C348">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="D348" s="29">
-        <v>61.399422091399998</v>
+        <v>68.967011381399999</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>229</v>
+        <v>802</v>
       </c>
       <c r="B349" t="s">
-        <v>230</v>
+        <v>803</v>
       </c>
       <c r="C349">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D349" s="29">
-        <v>70.599242971999999</v>
+        <v>51.204059641299999</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>231</v>
+        <v>804</v>
       </c>
       <c r="B350" t="s">
-        <v>232</v>
+        <v>805</v>
       </c>
       <c r="C350">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="D350" s="29">
-        <v>90.047655990199999</v>
+        <v>45.3965571516</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>233</v>
+        <v>806</v>
       </c>
       <c r="B351" t="s">
-        <v>234</v>
+        <v>807</v>
       </c>
       <c r="C351">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="D351" s="29">
-        <v>50.520035604599997</v>
+        <v>118.6850450564</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>235</v>
+        <v>808</v>
       </c>
       <c r="B352" t="s">
-        <v>236</v>
+        <v>809</v>
       </c>
       <c r="C352">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="D352" s="29">
-        <v>39.074206850499998</v>
+        <v>184.36631281780001</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>237</v>
+        <v>810</v>
       </c>
       <c r="B353" t="s">
-        <v>238</v>
+        <v>811</v>
       </c>
       <c r="C353">
-        <v>378</v>
+        <v>35</v>
       </c>
       <c r="D353" s="29">
-        <v>66.601005357999995</v>
+        <v>60.640712441700003</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>239</v>
+        <v>812</v>
       </c>
       <c r="B354" t="s">
-        <v>240</v>
+        <v>813</v>
       </c>
       <c r="C354">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="D354" s="29">
-        <v>126.7125999842</v>
+        <v>49.445224580199998</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>241</v>
+        <v>991</v>
       </c>
       <c r="B355" t="s">
-        <v>242</v>
+        <v>992</v>
       </c>
       <c r="C355">
-        <v>351</v>
+        <v>119</v>
       </c>
       <c r="D355" s="29">
-        <v>196.25823334040001</v>
+        <v>104.64298276469999</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>243</v>
+        <v>814</v>
       </c>
       <c r="B356" t="s">
-        <v>244</v>
+        <v>815</v>
       </c>
       <c r="C356">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D356" s="29">
-        <v>52.763487666499998</v>
+        <v>19.558754498500001</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>245</v>
+        <v>816</v>
       </c>
       <c r="B357" t="s">
-        <v>246</v>
+        <v>817</v>
       </c>
       <c r="C357">
-        <v>53</v>
+        <v>259</v>
       </c>
       <c r="D357" s="29">
-        <v>29.6071191156</v>
+        <v>78.791898124200003</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>247</v>
+        <v>818</v>
       </c>
       <c r="B358" t="s">
-        <v>248</v>
+        <v>819</v>
       </c>
       <c r="C358">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="D358" s="29">
-        <v>103.90787356049999</v>
+        <v>29.268221297</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>249</v>
+        <v>820</v>
       </c>
       <c r="B359" t="s">
-        <v>250</v>
+        <v>821</v>
       </c>
       <c r="C359">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D359" s="29">
-        <v>36.129807497100003</v>
+        <v>41.217283780999999</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>251</v>
+        <v>822</v>
       </c>
       <c r="B360" t="s">
-        <v>252</v>
+        <v>823</v>
       </c>
       <c r="C360">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="D360" s="29">
-        <v>99.014541662300005</v>
+        <v>43.5054214448</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>253</v>
+        <v>824</v>
       </c>
       <c r="B361" t="s">
-        <v>254</v>
+        <v>825</v>
       </c>
       <c r="C361">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D361" s="29">
-        <v>77.911959485799997</v>
+        <v>50.3642413886</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>255</v>
+        <v>826</v>
       </c>
       <c r="B362" t="s">
-        <v>256</v>
+        <v>827</v>
       </c>
       <c r="C362">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="D362" s="29">
-        <v>43.805549471500001</v>
+        <v>57.340388931699998</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>257</v>
+        <v>828</v>
       </c>
       <c r="B363" t="s">
-        <v>258</v>
+        <v>829</v>
       </c>
       <c r="C363">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D363" s="29">
-        <v>89.613034623199994</v>
+        <v>37.663995312899999</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>259</v>
+        <v>830</v>
       </c>
       <c r="B364" t="s">
-        <v>260</v>
+        <v>831</v>
       </c>
       <c r="C364">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D364" s="29">
-        <v>33.093668682500002</v>
+        <v>59.335443038000001</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>261</v>
+        <v>832</v>
       </c>
       <c r="B365" t="s">
-        <v>262</v>
+        <v>833</v>
       </c>
       <c r="C365">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="D365" s="29">
-        <v>78.251971347700007</v>
+        <v>45.603865949800003</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>263</v>
+        <v>834</v>
       </c>
       <c r="B366" t="s">
-        <v>264</v>
+        <v>835</v>
       </c>
       <c r="C366">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="D366" s="29">
-        <v>53.525081045100002</v>
+        <v>34.382606020600001</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>265</v>
+        <v>836</v>
       </c>
       <c r="B367" t="s">
-        <v>266</v>
+        <v>837</v>
       </c>
       <c r="C367">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D367" s="29">
-        <v>40.671663471000002</v>
+        <v>39.016777214199998</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>267</v>
+        <v>838</v>
       </c>
       <c r="B368" t="s">
-        <v>268</v>
+        <v>839</v>
       </c>
       <c r="C368">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="D368" s="29">
-        <v>56.209050828199999</v>
+        <v>89.700725760400005</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>269</v>
+        <v>840</v>
       </c>
       <c r="B369" t="s">
-        <v>270</v>
+        <v>841</v>
       </c>
       <c r="C369">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D369" s="29">
-        <v>56.292923354099997</v>
+        <v>45.883162644000002</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>271</v>
+        <v>842</v>
       </c>
       <c r="B370" t="s">
-        <v>272</v>
+        <v>843</v>
       </c>
       <c r="C370">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="D370" s="29">
-        <v>73.192678046200001</v>
+        <v>269.27240929409999</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>273</v>
+        <v>844</v>
       </c>
       <c r="B371" t="s">
-        <v>274</v>
+        <v>845</v>
       </c>
       <c r="C371">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D371" s="29">
-        <v>73.653727046</v>
+        <v>63.1630000169</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>275</v>
+        <v>846</v>
       </c>
       <c r="B372" t="s">
-        <v>276</v>
+        <v>847</v>
       </c>
       <c r="C372">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D372" s="29">
-        <v>28.365502391700002</v>
+        <v>28.692346316599998</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>277</v>
+        <v>848</v>
       </c>
       <c r="B373" t="s">
-        <v>278</v>
+        <v>849</v>
       </c>
       <c r="C373">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D373" s="29">
-        <v>84.890703219599999</v>
+        <v>46.854710237100001</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>279</v>
+        <v>850</v>
       </c>
       <c r="B374" t="s">
-        <v>280</v>
+        <v>851</v>
       </c>
       <c r="C374">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D374" s="29">
-        <v>45.142775543699997</v>
+        <v>37.607465519199998</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>281</v>
+        <v>852</v>
       </c>
       <c r="B375" t="s">
-        <v>282</v>
+        <v>853</v>
       </c>
       <c r="C375">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="D375" s="29">
-        <v>21.747685424899998</v>
+        <v>60.3838995212</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>283</v>
+        <v>854</v>
       </c>
       <c r="B376" t="s">
-        <v>284</v>
+        <v>855</v>
       </c>
       <c r="C376">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D376" s="29">
-        <v>64.127095766599993</v>
+        <v>39.513396722899998</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>285</v>
+        <v>856</v>
       </c>
       <c r="B377" t="s">
-        <v>286</v>
+        <v>857</v>
       </c>
       <c r="C377">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D377" s="29">
-        <v>12.763433513800001</v>
+        <v>86.590394960400005</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>287</v>
+        <v>858</v>
       </c>
       <c r="B378" t="s">
-        <v>288</v>
+        <v>859</v>
       </c>
       <c r="C378">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D378" s="29">
-        <v>17.192019912799999</v>
+        <v>56.786812840099998</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>289</v>
+        <v>860</v>
       </c>
       <c r="B379" t="s">
-        <v>290</v>
+        <v>861</v>
       </c>
       <c r="C379">
-        <v>32</v>
+        <v>310</v>
       </c>
       <c r="D379" s="29">
-        <v>42.482575506099998</v>
+        <v>78.502675421800006</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>291</v>
+        <v>862</v>
       </c>
       <c r="B380" t="s">
-        <v>292</v>
+        <v>863</v>
       </c>
       <c r="C380">
-        <v>372</v>
+        <v>164</v>
       </c>
       <c r="D380" s="29">
-        <v>63.238419039500002</v>
+        <v>160.41943814070001</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>293</v>
+        <v>864</v>
       </c>
       <c r="B381" t="s">
-        <v>294</v>
+        <v>865</v>
       </c>
       <c r="C381">
-        <v>271</v>
+        <v>52</v>
       </c>
       <c r="D381" s="29">
-        <v>48.672725313400001</v>
+        <v>35.777929145900004</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>295</v>
+        <v>866</v>
       </c>
       <c r="B382" t="s">
-        <v>296</v>
+        <v>867</v>
       </c>
       <c r="C382">
-        <v>367</v>
+        <v>164</v>
       </c>
       <c r="D382" s="29">
-        <v>73.593403464299996</v>
+        <v>114.83468007339999</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>297</v>
+        <v>868</v>
       </c>
       <c r="B383" t="s">
-        <v>298</v>
+        <v>869</v>
       </c>
       <c r="C383">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="D383" s="29">
-        <v>84.643928687499994</v>
+        <v>25.5226677751</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>299</v>
+        <v>870</v>
       </c>
       <c r="B384" t="s">
-        <v>300</v>
+        <v>871</v>
       </c>
       <c r="C384">
-        <v>382</v>
+        <v>138</v>
       </c>
       <c r="D384" s="29">
-        <v>61.426938124400003</v>
+        <v>46.175003262399997</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>301</v>
+        <v>872</v>
       </c>
       <c r="B385" t="s">
-        <v>302</v>
+        <v>873</v>
       </c>
       <c r="C385">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D385" s="29">
-        <v>39.680053463699998</v>
+        <v>52.062133790200001</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>303</v>
+        <v>874</v>
       </c>
       <c r="B386" t="s">
-        <v>304</v>
+        <v>875</v>
       </c>
       <c r="C386">
-        <v>138</v>
+        <v>480</v>
       </c>
       <c r="D386" s="29">
-        <v>137.99172049680001</v>
+        <v>212.39219989649999</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>305</v>
+        <v>876</v>
       </c>
       <c r="B387" t="s">
-        <v>306</v>
+        <v>877</v>
       </c>
       <c r="C387">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="D387" s="29">
-        <v>33.864886627899999</v>
+        <v>121.8047474143</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>307</v>
+        <v>878</v>
       </c>
       <c r="B388" t="s">
-        <v>308</v>
+        <v>879</v>
       </c>
       <c r="C388">
         <v>32</v>
       </c>
       <c r="D388" s="29">
-        <v>75.739644970399993</v>
+        <v>14.241083746499999</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>309</v>
+        <v>880</v>
       </c>
       <c r="B389" t="s">
-        <v>310</v>
+        <v>881</v>
       </c>
       <c r="C389">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="D389" s="29">
-        <v>109.00841623540001</v>
+        <v>84.094581670699995</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>311</v>
+        <v>882</v>
       </c>
       <c r="B390" t="s">
-        <v>312</v>
+        <v>883</v>
       </c>
       <c r="C390">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D390" s="29">
-        <v>22.038346723299998</v>
+        <v>41.558507985600002</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>313</v>
+        <v>884</v>
       </c>
       <c r="B391" t="s">
-        <v>314</v>
+        <v>885</v>
       </c>
       <c r="C391">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="D391" s="29">
-        <v>22.835440603799999</v>
+        <v>57.893721162799999</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>315</v>
+        <v>886</v>
       </c>
       <c r="B392" t="s">
-        <v>316</v>
+        <v>887</v>
       </c>
       <c r="C392">
-        <v>354</v>
+        <v>118</v>
       </c>
       <c r="D392" s="29">
-        <v>108.2721116732</v>
+        <v>42.470486610999998</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>317</v>
+        <v>888</v>
       </c>
       <c r="B393" t="s">
-        <v>318</v>
+        <v>889</v>
       </c>
       <c r="C393">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="D393" s="29">
-        <v>71.890060659200003</v>
+        <v>133.64264461139999</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>319</v>
+        <v>890</v>
       </c>
       <c r="B394" t="s">
-        <v>320</v>
+        <v>891</v>
       </c>
       <c r="C394">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D394" s="29">
-        <v>44.097897332099997</v>
+        <v>231.61687293829999</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>321</v>
+        <v>892</v>
       </c>
       <c r="B395" t="s">
-        <v>322</v>
+        <v>893</v>
       </c>
       <c r="C395">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D395" s="29">
-        <v>44.144678757000001</v>
+        <v>31.739470615199998</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>323</v>
+        <v>894</v>
       </c>
       <c r="B396" t="s">
-        <v>324</v>
+        <v>895</v>
       </c>
       <c r="C396">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="D396" s="29">
-        <v>99.074216869699995</v>
+        <v>61.323358067100003</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>325</v>
+        <v>896</v>
       </c>
       <c r="B397" t="s">
-        <v>326</v>
+        <v>897</v>
       </c>
       <c r="C397">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="D397" s="29">
-        <v>32.880705246700003</v>
+        <v>147.28078290080001</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>327</v>
+        <v>898</v>
       </c>
       <c r="B398" t="s">
-        <v>328</v>
+        <v>899</v>
       </c>
       <c r="C398">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D398" s="29">
-        <v>32.055485130599997</v>
+        <v>20.056157240299999</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>329</v>
+        <v>900</v>
       </c>
       <c r="B399" t="s">
-        <v>330</v>
+        <v>901</v>
       </c>
       <c r="C399">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="D399" s="29">
-        <v>73.1456823149</v>
+        <v>51.674964473499998</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>331</v>
+        <v>902</v>
       </c>
       <c r="B400" t="s">
-        <v>332</v>
+        <v>903</v>
       </c>
       <c r="C400">
-        <v>330</v>
+        <v>226</v>
       </c>
       <c r="D400" s="29">
-        <v>56.627084906299999</v>
+        <v>49.132998243400003</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>333</v>
+        <v>904</v>
       </c>
       <c r="B401" t="s">
-        <v>334</v>
+        <v>905</v>
       </c>
       <c r="C401">
-        <v>270</v>
+        <v>134</v>
       </c>
       <c r="D401" s="29">
-        <v>50.465025867999998</v>
+        <v>151.27055981399999</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>335</v>
+        <v>906</v>
       </c>
       <c r="B402" t="s">
-        <v>336</v>
+        <v>907</v>
       </c>
       <c r="C402">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D402" s="29">
-        <v>49.056058165000003</v>
+        <v>54.481337665399998</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>337</v>
+        <v>908</v>
       </c>
       <c r="B403" t="s">
-        <v>338</v>
+        <v>909</v>
       </c>
       <c r="C403">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="D403" s="29">
-        <v>168.58169557689999</v>
+        <v>55.782758587099998</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>339</v>
+        <v>910</v>
       </c>
       <c r="B404" t="s">
-        <v>340</v>
+        <v>911</v>
       </c>
       <c r="C404">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="D404" s="29">
-        <v>61.0999716014</v>
+        <v>52.787692926399998</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>341</v>
+        <v>912</v>
       </c>
       <c r="B405" t="s">
-        <v>342</v>
+        <v>913</v>
       </c>
       <c r="C405">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D405" s="29">
-        <v>65.624871826399996</v>
+        <v>61.769769611900003</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>343</v>
+        <v>914</v>
       </c>
       <c r="B406" t="s">
-        <v>344</v>
+        <v>915</v>
       </c>
       <c r="C406">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="D406" s="29">
-        <v>32.899863205800003</v>
+        <v>130.4490488424</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>345</v>
+        <v>916</v>
       </c>
       <c r="B407" t="s">
-        <v>346</v>
+        <v>917</v>
       </c>
       <c r="C407">
-        <v>418</v>
+        <v>15</v>
       </c>
       <c r="D407" s="29">
-        <v>54.756477769900002</v>
+        <v>26.3499982433</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>347</v>
+        <v>918</v>
       </c>
       <c r="B408" t="s">
-        <v>348</v>
+        <v>919</v>
       </c>
       <c r="C408">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D408" s="29">
-        <v>27.249724258699999</v>
+        <v>60.189597231299999</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>349</v>
+        <v>920</v>
       </c>
       <c r="B409" t="s">
-        <v>350</v>
+        <v>921</v>
       </c>
       <c r="C409">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="D409" s="29">
-        <v>48.886987728299999</v>
+        <v>23.317332818699999</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>351</v>
+        <v>922</v>
       </c>
       <c r="B410" t="s">
-        <v>352</v>
+        <v>923</v>
       </c>
       <c r="C410">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D410" s="29">
-        <v>22.8343326878</v>
+        <v>56.259127145599997</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>353</v>
+        <v>924</v>
       </c>
       <c r="B411" t="s">
-        <v>354</v>
+        <v>925</v>
       </c>
       <c r="C411">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="D411" s="29">
-        <v>84.224496567200006</v>
+        <v>295.91906957539999</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>355</v>
+        <v>926</v>
       </c>
       <c r="B412" t="s">
-        <v>356</v>
+        <v>927</v>
       </c>
       <c r="C412">
-        <v>26</v>
+        <v>297</v>
       </c>
       <c r="D412" s="29">
-        <v>26.341384341099999</v>
+        <v>83.638411715000004</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>357</v>
+        <v>928</v>
       </c>
       <c r="B413" t="s">
-        <v>358</v>
+        <v>929</v>
       </c>
       <c r="C413">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="D413" s="29">
-        <v>70.357839073199997</v>
+        <v>41.427611112000001</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>359</v>
+        <v>930</v>
       </c>
       <c r="B414" t="s">
-        <v>360</v>
+        <v>931</v>
       </c>
       <c r="C414">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D414" s="29">
-        <v>38.757745849499997</v>
+        <v>26.493820162399999</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>361</v>
+        <v>932</v>
       </c>
       <c r="B415" t="s">
-        <v>362</v>
+        <v>933</v>
       </c>
       <c r="C415">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D415" s="29">
-        <v>73.153458835600006</v>
+        <v>54.920971889999997</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>363</v>
+        <v>934</v>
       </c>
       <c r="B416" t="s">
-        <v>364</v>
+        <v>935</v>
       </c>
       <c r="C416">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="D416" s="29">
-        <v>75.517806080499994</v>
+        <v>58.491504108999997</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>365</v>
+        <v>936</v>
       </c>
       <c r="B417" t="s">
-        <v>366</v>
+        <v>937</v>
       </c>
       <c r="C417">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="D417" s="29">
-        <v>44.105672668099999</v>
+        <v>68.253534898200002</v>
       </c>
     </row>
   </sheetData>
@@ -9754,8 +9763,8 @@
   <dimension ref="A2:S510"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G370" sqref="G370"/>
+      <pane ySplit="3" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H370" sqref="H370:H371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9769,7 +9778,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -18935,7 +18944,7 @@
         <v>2052028</v>
       </c>
       <c r="D333" s="3">
-        <f t="shared" ref="D333:D368" si="175">B333-B332</f>
+        <f t="shared" ref="D333:D371" si="175">B333-B332</f>
         <v>11369</v>
       </c>
       <c r="E333" s="3">
@@ -19949,7 +19958,7 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="26" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B368" s="32">
         <v>2394811</v>
@@ -19977,67 +19986,145 @@
         <v>2326493</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A369" s="26"/>
-      <c r="G369" s="4"/>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A370" s="26"/>
-      <c r="G370" s="4"/>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" s="26"/>
-      <c r="G371" s="4"/>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A369" s="26" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B369" s="32">
+        <v>2402818</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D369" s="3">
+        <f t="shared" si="175"/>
+        <v>8007</v>
+      </c>
+      <c r="E369" s="3">
+        <v>68740</v>
+      </c>
+      <c r="F369" s="3">
+        <f t="shared" ref="F369:F371" si="243">E369-E368</f>
+        <v>422</v>
+      </c>
+      <c r="G369" s="4">
+        <f t="shared" ref="G369:G371" si="244">E369/B369</f>
+        <v>2.860807601740956E-2</v>
+      </c>
+      <c r="H369" s="3">
+        <f t="shared" ref="H369:H371" si="245">B369-E369</f>
+        <v>2334078</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A370" s="26" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B370" s="32">
+        <v>2414687</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D370" s="3">
+        <f t="shared" si="175"/>
+        <v>11869</v>
+      </c>
+      <c r="E370" s="3">
+        <v>69125</v>
+      </c>
+      <c r="F370" s="3">
+        <f t="shared" si="243"/>
+        <v>385</v>
+      </c>
+      <c r="G370" s="4">
+        <f t="shared" si="244"/>
+        <v>2.8626898641521653E-2</v>
+      </c>
+      <c r="H370" s="3">
+        <f t="shared" si="245"/>
+        <v>2345562</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A371" s="26" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B371" s="32">
+        <v>2424684</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D371" s="3">
+        <f t="shared" si="175"/>
+        <v>9997</v>
+      </c>
+      <c r="E371" s="3">
+        <v>69519</v>
+      </c>
+      <c r="F371" s="3">
+        <f t="shared" si="243"/>
+        <v>394</v>
+      </c>
+      <c r="G371" s="4">
+        <f t="shared" si="244"/>
+        <v>2.8671365010863273E-2</v>
+      </c>
+      <c r="H371" s="3">
+        <f t="shared" si="245"/>
+        <v>2355165</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="26"/>
       <c r="G372" s="4"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="26"/>
       <c r="G373" s="4"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="26"/>
       <c r="G374" s="4"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="26"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="26"/>
       <c r="G376" s="4"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="26"/>
       <c r="G377" s="4"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="26"/>
       <c r="G378" s="4"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="26"/>
       <c r="G379" s="4"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="26"/>
       <c r="G380" s="4"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="26"/>
       <c r="G381" s="4"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="26"/>
       <c r="G382" s="4"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="26"/>
       <c r="G383" s="4"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="26"/>
       <c r="G384" s="4"/>
     </row>
@@ -20556,8 +20643,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A2:KX20"/>
   <sheetViews>
-    <sheetView topLeftCell="JZ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="KI4" sqref="KI4:KI20"/>
+    <sheetView topLeftCell="JU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="KL4" sqref="KL4:KL20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20568,7 +20655,7 @@
   <sheetData>
     <row r="2" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="3" spans="1:310" x14ac:dyDescent="0.25">
@@ -22386,6 +22473,15 @@
       <c r="KI4" s="3">
         <v>4979</v>
       </c>
+      <c r="KJ4" s="3">
+        <v>5054</v>
+      </c>
+      <c r="KK4" s="3">
+        <v>5288</v>
+      </c>
+      <c r="KL4" s="3">
+        <v>5420</v>
+      </c>
     </row>
     <row r="5" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -23273,6 +23369,15 @@
       <c r="KI5" s="3">
         <v>7586</v>
       </c>
+      <c r="KJ5" s="3">
+        <v>7243</v>
+      </c>
+      <c r="KK5" s="3">
+        <v>7663</v>
+      </c>
+      <c r="KL5" s="3">
+        <v>7810</v>
+      </c>
     </row>
     <row r="6" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -24160,6 +24265,15 @@
       <c r="KI6" s="3">
         <v>2009</v>
       </c>
+      <c r="KJ6" s="3">
+        <v>1973</v>
+      </c>
+      <c r="KK6" s="3">
+        <v>2013</v>
+      </c>
+      <c r="KL6" s="3">
+        <v>1926</v>
+      </c>
     </row>
     <row r="7" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -25047,6 +25161,15 @@
       <c r="KI7" s="3">
         <v>1592</v>
       </c>
+      <c r="KJ7" s="3">
+        <v>1592</v>
+      </c>
+      <c r="KK7" s="3">
+        <v>1580</v>
+      </c>
+      <c r="KL7" s="3">
+        <v>1621</v>
+      </c>
     </row>
     <row r="8" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -25934,6 +26057,15 @@
       <c r="KI8" s="3">
         <v>522</v>
       </c>
+      <c r="KJ8" s="3">
+        <v>490</v>
+      </c>
+      <c r="KK8" s="3">
+        <v>517</v>
+      </c>
+      <c r="KL8" s="3">
+        <v>531</v>
+      </c>
     </row>
     <row r="9" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -26821,6 +26953,15 @@
       <c r="KI9" s="3">
         <v>1210</v>
       </c>
+      <c r="KJ9" s="3">
+        <v>1176</v>
+      </c>
+      <c r="KK9" s="3">
+        <v>1187</v>
+      </c>
+      <c r="KL9" s="3">
+        <v>1351</v>
+      </c>
     </row>
     <row r="10" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -27708,6 +27849,15 @@
       <c r="KI10" s="3">
         <v>3805</v>
       </c>
+      <c r="KJ10" s="3">
+        <v>3789</v>
+      </c>
+      <c r="KK10" s="3">
+        <v>3875</v>
+      </c>
+      <c r="KL10" s="3">
+        <v>3846</v>
+      </c>
     </row>
     <row r="11" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -28595,6 +28745,15 @@
       <c r="KI11" s="3">
         <v>1080</v>
       </c>
+      <c r="KJ11" s="3">
+        <v>1038</v>
+      </c>
+      <c r="KK11" s="3">
+        <v>1044</v>
+      </c>
+      <c r="KL11" s="3">
+        <v>1029</v>
+      </c>
     </row>
     <row r="12" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -29482,6 +29641,15 @@
       <c r="KI12" s="3">
         <v>5138</v>
       </c>
+      <c r="KJ12" s="3">
+        <v>4817</v>
+      </c>
+      <c r="KK12" s="3">
+        <v>5013</v>
+      </c>
+      <c r="KL12" s="3">
+        <v>5208</v>
+      </c>
     </row>
     <row r="13" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -30369,6 +30537,15 @@
       <c r="KI13" s="3">
         <v>10882</v>
       </c>
+      <c r="KJ13" s="3">
+        <v>10926</v>
+      </c>
+      <c r="KK13" s="3">
+        <v>11532</v>
+      </c>
+      <c r="KL13" s="3">
+        <v>11469</v>
+      </c>
     </row>
     <row r="14" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -31256,6 +31433,15 @@
       <c r="KI14" s="3">
         <v>2171</v>
       </c>
+      <c r="KJ14" s="3">
+        <v>2124</v>
+      </c>
+      <c r="KK14" s="3">
+        <v>2141</v>
+      </c>
+      <c r="KL14" s="3">
+        <v>2167</v>
+      </c>
     </row>
     <row r="15" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -32143,6 +32329,15 @@
       <c r="KI15" s="3">
         <v>552</v>
       </c>
+      <c r="KJ15" s="3">
+        <v>606</v>
+      </c>
+      <c r="KK15" s="3">
+        <v>624</v>
+      </c>
+      <c r="KL15" s="3">
+        <v>651</v>
+      </c>
     </row>
     <row r="16" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -33030,8 +33225,17 @@
       <c r="KI16" s="3">
         <v>2879</v>
       </c>
-    </row>
-    <row r="17" spans="1:295" x14ac:dyDescent="0.25">
+      <c r="KJ16" s="3">
+        <v>2696</v>
+      </c>
+      <c r="KK16" s="3">
+        <v>2903</v>
+      </c>
+      <c r="KL16" s="3">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -33917,8 +34121,17 @@
       <c r="KI17" s="3">
         <v>1910</v>
       </c>
-    </row>
-    <row r="18" spans="1:295" x14ac:dyDescent="0.25">
+      <c r="KJ17" s="3">
+        <v>1787</v>
+      </c>
+      <c r="KK17" s="3">
+        <v>1870</v>
+      </c>
+      <c r="KL17" s="3">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="18" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -34804,8 +35017,17 @@
       <c r="KI18" s="3">
         <v>1431</v>
       </c>
-    </row>
-    <row r="19" spans="1:295" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="KJ18" s="3">
+        <v>1454</v>
+      </c>
+      <c r="KK18" s="3">
+        <v>1478</v>
+      </c>
+      <c r="KL18" s="3">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:298" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -35691,8 +35913,17 @@
       <c r="KI19" s="3">
         <v>2556</v>
       </c>
-    </row>
-    <row r="20" spans="1:295" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="KJ19" s="3">
+        <v>2530</v>
+      </c>
+      <c r="KK19" s="3">
+        <v>2547</v>
+      </c>
+      <c r="KL19" s="3">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:298" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -36623,6 +36854,15 @@
       </c>
       <c r="KI20" s="12">
         <v>50302</v>
+      </c>
+      <c r="KJ20" s="12">
+        <v>49295</v>
+      </c>
+      <c r="KK20" s="12">
+        <v>51275</v>
+      </c>
+      <c r="KL20" s="12">
+        <v>52034</v>
       </c>
     </row>
   </sheetData>
@@ -36637,8 +36877,8 @@
   <dimension ref="A2:LD21"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KJ22" sqref="KJ22"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KL25" sqref="KL25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36707,7 +36947,7 @@
   <sheetData>
     <row r="2" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="3" spans="1:316" x14ac:dyDescent="0.25">
@@ -38543,9 +38783,15 @@
       <c r="KJ4" s="16">
         <v>44.854263731539618</v>
       </c>
-      <c r="KK4" s="16"/>
-      <c r="KL4" s="16"/>
-      <c r="KM4" s="16"/>
+      <c r="KK4" s="16">
+        <v>45.529915424623667</v>
+      </c>
+      <c r="KL4" s="16">
+        <v>47.637948707045894</v>
+      </c>
+      <c r="KM4" s="16">
+        <v>48.827095686873818</v>
+      </c>
       <c r="KN4" s="16"/>
       <c r="KO4" s="16"/>
       <c r="KP4" s="16"/>
@@ -39453,9 +39699,15 @@
       <c r="KJ5" s="16">
         <v>57.799253425040057</v>
       </c>
-      <c r="KK5" s="16"/>
-      <c r="KL5" s="16"/>
-      <c r="KM5" s="16"/>
+      <c r="KK5" s="16">
+        <v>55.185867724435163</v>
+      </c>
+      <c r="KL5" s="16">
+        <v>58.385931847624832</v>
+      </c>
+      <c r="KM5" s="16">
+        <v>59.505954290741215</v>
+      </c>
       <c r="KN5" s="16"/>
       <c r="KO5" s="16"/>
       <c r="KP5" s="16"/>
@@ -40363,9 +40615,15 @@
       <c r="KJ6" s="16">
         <v>54.748737631458965</v>
       </c>
-      <c r="KK6" s="16"/>
-      <c r="KL6" s="16"/>
-      <c r="KM6" s="16"/>
+      <c r="KK6" s="16">
+        <v>53.767675135325312</v>
+      </c>
+      <c r="KL6" s="16">
+        <v>54.857744575473824</v>
+      </c>
+      <c r="KM6" s="16">
+        <v>52.486843543150805</v>
+      </c>
       <c r="KN6" s="16"/>
       <c r="KO6" s="16"/>
       <c r="KP6" s="16"/>
@@ -41273,9 +41531,15 @@
       <c r="KJ7" s="16">
         <v>63.127182636218116</v>
       </c>
-      <c r="KK7" s="16"/>
-      <c r="KL7" s="16"/>
-      <c r="KM7" s="16"/>
+      <c r="KK7" s="16">
+        <v>63.127182636218116</v>
+      </c>
+      <c r="KL7" s="16">
+        <v>62.65134960127174</v>
+      </c>
+      <c r="KM7" s="16">
+        <v>64.277112470671838</v>
+      </c>
       <c r="KN7" s="16"/>
       <c r="KO7" s="16"/>
       <c r="KP7" s="16"/>
@@ -42183,9 +42447,15 @@
       <c r="KJ8" s="16">
         <v>76.629252409711071</v>
       </c>
-      <c r="KK8" s="16"/>
-      <c r="KL8" s="16"/>
-      <c r="KM8" s="16"/>
+      <c r="KK8" s="16">
+        <v>71.931673717928021</v>
+      </c>
+      <c r="KL8" s="16">
+        <v>75.89525573911996</v>
+      </c>
+      <c r="KM8" s="16">
+        <v>77.950446416775051</v>
+      </c>
       <c r="KN8" s="16"/>
       <c r="KO8" s="16"/>
       <c r="KP8" s="16"/>
@@ -43093,9 +43363,15 @@
       <c r="KJ9" s="16">
         <v>65.502668015696827</v>
       </c>
-      <c r="KK9" s="16"/>
-      <c r="KL9" s="16"/>
-      <c r="KM9" s="16"/>
+      <c r="KK9" s="16">
+        <v>63.662097178892118</v>
+      </c>
+      <c r="KL9" s="16">
+        <v>64.257575979034826</v>
+      </c>
+      <c r="KM9" s="16">
+        <v>73.135623544798676</v>
+      </c>
       <c r="KN9" s="16"/>
       <c r="KO9" s="16"/>
       <c r="KP9" s="16"/>
@@ -44003,9 +44279,15 @@
       <c r="KJ10" s="16">
         <v>60.5113166499154</v>
       </c>
-      <c r="KK10" s="16"/>
-      <c r="KL10" s="16"/>
-      <c r="KM10" s="16"/>
+      <c r="KK10" s="16">
+        <v>60.256866960980133</v>
+      </c>
+      <c r="KL10" s="16">
+        <v>61.624534039007138</v>
+      </c>
+      <c r="KM10" s="16">
+        <v>61.163343977811984</v>
+      </c>
       <c r="KN10" s="16"/>
       <c r="KO10" s="16"/>
       <c r="KP10" s="16"/>
@@ -44913,9 +45195,15 @@
       <c r="KJ11" s="16">
         <v>67.158415509116764</v>
       </c>
-      <c r="KK11" s="16"/>
-      <c r="KL11" s="16"/>
-      <c r="KM11" s="16"/>
+      <c r="KK11" s="16">
+        <v>64.546699350428881</v>
+      </c>
+      <c r="KL11" s="16">
+        <v>64.919801658812872</v>
+      </c>
+      <c r="KM11" s="16">
+        <v>63.987045887852908</v>
+      </c>
       <c r="KN11" s="16"/>
       <c r="KO11" s="16"/>
       <c r="KP11" s="16"/>
@@ -45823,9 +46111,15 @@
       <c r="KJ12" s="16">
         <v>64.276356809090458</v>
       </c>
-      <c r="KK12" s="16"/>
-      <c r="KL12" s="16"/>
-      <c r="KM12" s="16"/>
+      <c r="KK12" s="16">
+        <v>60.26064825795811</v>
+      </c>
+      <c r="KL12" s="16">
+        <v>62.712607373291256</v>
+      </c>
+      <c r="KM12" s="16">
+        <v>65.152056493138019</v>
+      </c>
       <c r="KN12" s="16"/>
       <c r="KO12" s="16"/>
       <c r="KP12" s="16"/>
@@ -46733,9 +47027,15 @@
       <c r="KJ13" s="16">
         <v>60.633342621679418</v>
       </c>
-      <c r="KK13" s="16"/>
-      <c r="KL13" s="16"/>
-      <c r="KM13" s="16"/>
+      <c r="KK13" s="16">
+        <v>60.878505925792076</v>
+      </c>
+      <c r="KL13" s="16">
+        <v>64.255073250616348</v>
+      </c>
+      <c r="KM13" s="16">
+        <v>63.904043974273236</v>
+      </c>
       <c r="KN13" s="16"/>
       <c r="KO13" s="16"/>
       <c r="KP13" s="16"/>
@@ -47643,9 +47943,15 @@
       <c r="KJ14" s="16">
         <v>53.030079120096396</v>
       </c>
-      <c r="KK14" s="16"/>
-      <c r="KL14" s="16"/>
-      <c r="KM14" s="16"/>
+      <c r="KK14" s="16">
+        <v>51.882030424267505</v>
+      </c>
+      <c r="KL14" s="16">
+        <v>52.297282080205612</v>
+      </c>
+      <c r="KM14" s="16">
+        <v>52.932372848110958</v>
+      </c>
       <c r="KN14" s="16"/>
       <c r="KO14" s="16"/>
       <c r="KP14" s="16"/>
@@ -48553,9 +48859,15 @@
       <c r="KJ15" s="16">
         <v>55.933455400668969</v>
       </c>
-      <c r="KK15" s="16"/>
-      <c r="KL15" s="16"/>
-      <c r="KM15" s="16"/>
+      <c r="KK15" s="16">
+        <v>61.405206472473544</v>
+      </c>
+      <c r="KL15" s="16">
+        <v>63.229123496408398</v>
+      </c>
+      <c r="KM15" s="16">
+        <v>65.9649990323107</v>
+      </c>
       <c r="KN15" s="16"/>
       <c r="KO15" s="16"/>
       <c r="KP15" s="16"/>
@@ -49463,9 +49775,15 @@
       <c r="KJ16" s="16">
         <v>70.702861096014686</v>
       </c>
-      <c r="KK16" s="16"/>
-      <c r="KL16" s="16"/>
-      <c r="KM16" s="16"/>
+      <c r="KK16" s="16">
+        <v>66.208722999255144</v>
+      </c>
+      <c r="KL16" s="16">
+        <v>71.292256256245437</v>
+      </c>
+      <c r="KM16" s="16">
+        <v>75.319789851155619</v>
+      </c>
       <c r="KN16" s="16"/>
       <c r="KO16" s="16"/>
       <c r="KP16" s="16"/>
@@ -50373,9 +50691,15 @@
       <c r="KJ17" s="16">
         <v>87.024588319022115</v>
       </c>
-      <c r="KK17" s="16"/>
-      <c r="KL17" s="16"/>
-      <c r="KM17" s="16"/>
+      <c r="KK17" s="16">
+        <v>81.420387081723831</v>
+      </c>
+      <c r="KL17" s="16">
+        <v>85.202083851608052</v>
+      </c>
+      <c r="KM17" s="16">
+        <v>85.521022133405509</v>
+      </c>
       <c r="KN17" s="16"/>
       <c r="KO17" s="16"/>
       <c r="KP17" s="16"/>
@@ -51283,9 +51607,15 @@
       <c r="KJ18" s="16">
         <v>49.28071168097506</v>
       </c>
-      <c r="KK18" s="16"/>
-      <c r="KL18" s="16"/>
-      <c r="KM18" s="16"/>
+      <c r="KK18" s="16">
+        <v>50.072784615050836</v>
+      </c>
+      <c r="KL18" s="16">
+        <v>50.899295502782074</v>
+      </c>
+      <c r="KM18" s="16">
+        <v>50.830419595471135</v>
+      </c>
       <c r="KN18" s="16"/>
       <c r="KO18" s="16"/>
       <c r="KP18" s="16"/>
@@ -52193,9 +52523,15 @@
       <c r="KJ19" s="16">
         <v>119.80999147830343</v>
       </c>
-      <c r="KK19" s="16"/>
-      <c r="KL19" s="16"/>
-      <c r="KM19" s="16"/>
+      <c r="KK19" s="16">
+        <v>118.59126699534728</v>
+      </c>
+      <c r="KL19" s="16">
+        <v>119.3881253111263</v>
+      </c>
+      <c r="KM19" s="16">
+        <v>121.16933801698526</v>
+      </c>
       <c r="KN19" s="16"/>
       <c r="KO19" s="16"/>
       <c r="KP19" s="16"/>
@@ -53103,9 +53439,15 @@
       <c r="KJ20" s="17">
         <v>60.483334491849746</v>
       </c>
-      <c r="KK20" s="17"/>
-      <c r="KL20" s="17"/>
-      <c r="KM20" s="17"/>
+      <c r="KK20" s="17">
+        <v>59.272513494010845</v>
+      </c>
+      <c r="KL20" s="17">
+        <v>61.653273747954273</v>
+      </c>
+      <c r="KM20" s="17">
+        <v>62.565898511965919</v>
+      </c>
       <c r="KN20" s="17"/>
       <c r="KO20" s="17"/>
       <c r="KP20" s="17"/>

--- a/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
+++ b/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912C97C0-01A7-4B15-90AB-8E6A6FF405A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDCC829-0277-4D07-8D22-764409FF5559}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="150" windowWidth="15270" windowHeight="10800" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1019">
   <si>
     <t>Todesfälle</t>
   </si>
@@ -3087,10 +3087,19 @@
     <t>25.02.2021</t>
   </si>
   <si>
-    <t>Stand: 26.02.2021 05:44:06</t>
-  </si>
-  <si>
     <t>26.02.2021</t>
+  </si>
+  <si>
+    <t>27.02.2021</t>
+  </si>
+  <si>
+    <t>28.02.2021</t>
+  </si>
+  <si>
+    <t>Stand: 01.03.2021 06:34:52</t>
+  </si>
+  <si>
+    <t>01.03.2021</t>
   </si>
 </sst>
 </file>
@@ -3305,16 +3314,6 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet003" fillFormulas="1" connectionId="3" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
-    <queryTableFields count="1">
-      <queryTableField id="1" name="Bev"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet002" fillFormulas="1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
     <queryTableFields count="5">
@@ -3328,13 +3327,23 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet001" fillFormulas="1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="4">
     <queryTableFields count="3">
       <queryTableField id="1" name="Bundesland"/>
       <queryTableField id="2" name="Fälle in den letzten 7 Tagen"/>
       <queryTableField id="3" name="7-Tage-Inzidenz"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet003" fillFormulas="1" connectionId="3" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
+    <queryTableFields count="1">
+      <queryTableField id="1" name="Bev"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3678,14 +3687,14 @@
   <dimension ref="A2:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
@@ -3694,7 +3703,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3713,10 +3722,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>5420</v>
+        <v>5767</v>
       </c>
       <c r="C6" s="29">
-        <v>48.827095686873818</v>
+        <v>51.953110853542682</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3724,10 +3733,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>7810</v>
+        <v>8649</v>
       </c>
       <c r="C7" s="29">
-        <v>59.505954290741215</v>
+        <v>65.898463336827248</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3735,10 +3744,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>1926</v>
+        <v>2481</v>
       </c>
       <c r="C8" s="29">
-        <v>52.486843543150805</v>
+        <v>67.611557025211397</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3746,10 +3755,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="C9" s="29">
-        <v>64.277112470671838</v>
+        <v>64.435723482320626</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3757,10 +3766,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="C10" s="29">
-        <v>77.950446416775051</v>
+        <v>82.941623776794543</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3768,10 +3777,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>1351</v>
+        <v>1320</v>
       </c>
       <c r="C11" s="29">
-        <v>73.135623544798676</v>
+        <v>71.457456017123803</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3779,10 +3788,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>3846</v>
+        <v>4116</v>
       </c>
       <c r="C12" s="29">
-        <v>61.163343977811984</v>
+        <v>65.457182478594419</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3790,10 +3799,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1029</v>
+        <v>1058</v>
       </c>
       <c r="C13" s="29">
-        <v>63.987045887852908</v>
+        <v>65.790373711708824</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3801,10 +3810,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>5208</v>
+        <v>5206</v>
       </c>
       <c r="C14" s="29">
-        <v>65.152056493138019</v>
+        <v>65.12703650216524</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3812,10 +3821,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>11469</v>
+        <v>11565</v>
       </c>
       <c r="C15" s="29">
-        <v>63.904043974273236</v>
+        <v>64.438945728700844</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3823,10 +3832,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>2167</v>
+        <v>2036</v>
       </c>
       <c r="C16" s="29">
-        <v>52.932372848110958</v>
+        <v>49.732492440587869</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3834,10 +3843,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>651</v>
+        <v>723</v>
       </c>
       <c r="C17" s="29">
-        <v>65.9649990323107</v>
+        <v>73.26066712805013</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3845,10 +3854,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>3067</v>
+        <v>3433</v>
       </c>
       <c r="C18" s="29">
-        <v>75.319789851155619</v>
+        <v>84.308066044674689</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3856,10 +3865,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>1877</v>
+        <v>2020</v>
       </c>
       <c r="C19" s="29">
-        <v>85.521022133405509</v>
+        <v>92.036475604410825</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3867,10 +3876,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>1476</v>
+        <v>1454</v>
       </c>
       <c r="C20" s="29">
-        <v>50.830419595471135</v>
+        <v>50.072784615050836</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3878,10 +3887,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>2585</v>
+        <v>2698</v>
       </c>
       <c r="C21" s="29">
-        <v>121.16933801698526</v>
+        <v>126.46610211598694</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3890,11 +3899,11 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B6:B21)</f>
-        <v>52034</v>
+        <v>54716</v>
       </c>
       <c r="C22" s="30">
         <f>B22/A36*100000</f>
-        <v>62.565898511965919</v>
+        <v>65.790746492307477</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3916,10 +3925,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="B31">
-        <v>2424684</v>
+        <v>2447068</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -3928,7 +3937,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>69519</v>
+        <v>70105</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -3965,7 +3974,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3990,10 +3999,10 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D6" s="29">
-        <v>47.933130589999998</v>
+        <v>44.7016835839</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4004,10 +4013,10 @@
         <v>120</v>
       </c>
       <c r="C7">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D7" s="29">
-        <v>83.790723060100007</v>
+        <v>67.647556231999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4018,10 +4027,10 @@
         <v>122</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D8" s="29">
-        <v>23.021796442799999</v>
+        <v>16.338049088399998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4032,10 +4041,10 @@
         <v>124</v>
       </c>
       <c r="C9">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D9" s="29">
-        <v>38.056384338999997</v>
+        <v>40.593476628300003</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4046,10 +4055,10 @@
         <v>126</v>
       </c>
       <c r="C10">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D10" s="29">
-        <v>87.255154206699999</v>
+        <v>99.560368261500003</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4060,10 +4069,10 @@
         <v>128</v>
       </c>
       <c r="C11">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D11" s="29">
-        <v>93.940452622199999</v>
+        <v>107.91506540899999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4074,10 +4083,10 @@
         <v>130</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D12" s="29">
-        <v>40.878650523600001</v>
+        <v>56.508722782600003</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4088,10 +4097,10 @@
         <v>132</v>
       </c>
       <c r="C13">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="D13" s="29">
-        <v>95.053624592000006</v>
+        <v>130.9229168908</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4102,10 +4111,10 @@
         <v>134</v>
       </c>
       <c r="C14">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D14" s="29">
-        <v>40.096540131200001</v>
+        <v>47.036325923200003</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4116,10 +4125,10 @@
         <v>136</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D15" s="29">
-        <v>104.24811050300001</v>
+        <v>94.771009548199999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4130,10 +4139,10 @@
         <v>138</v>
       </c>
       <c r="C16">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="D16" s="29">
-        <v>163.02923851759999</v>
+        <v>191.1711904046</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4144,10 +4153,10 @@
         <v>140</v>
       </c>
       <c r="C17">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D17" s="29">
-        <v>77.687631648500002</v>
+        <v>87.298472677199996</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4158,10 +4167,10 @@
         <v>142</v>
       </c>
       <c r="C18">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="D18" s="29">
-        <v>56.787350302199997</v>
+        <v>71.299673157300006</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4172,10 +4181,10 @@
         <v>144</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D19" s="29">
-        <v>33.494425570600001</v>
+        <v>55.026556294599999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4186,10 +4195,10 @@
         <v>146</v>
       </c>
       <c r="C20">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D20" s="29">
-        <v>73.676398090899994</v>
+        <v>91.553759392399996</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4200,10 +4209,10 @@
         <v>148</v>
       </c>
       <c r="C21">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D21" s="29">
-        <v>63.378496380400001</v>
+        <v>87.321483901899995</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4214,10 +4223,10 @@
         <v>150</v>
       </c>
       <c r="C22">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D22" s="29">
-        <v>36.165327210100003</v>
+        <v>40.183696900100003</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4228,10 +4237,10 @@
         <v>152</v>
       </c>
       <c r="C23">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D23" s="29">
-        <v>47.878832835399997</v>
+        <v>50.576231868400001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4242,10 +4251,10 @@
         <v>154</v>
       </c>
       <c r="C24">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D24" s="29">
-        <v>35.507440781500001</v>
+        <v>43.792510297200003</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4256,10 +4265,10 @@
         <v>156</v>
       </c>
       <c r="C25">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D25" s="29">
-        <v>34.2657121469</v>
+        <v>35.847206553699998</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4270,10 +4279,10 @@
         <v>158</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D26" s="29">
-        <v>23.3660709575</v>
+        <v>25.6273036308</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4284,10 +4293,10 @@
         <v>160</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D27" s="29">
-        <v>38.746549135499997</v>
+        <v>46.495858962600003</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4298,10 +4307,10 @@
         <v>162</v>
       </c>
       <c r="C28">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D28" s="29">
-        <v>59.364046859699997</v>
+        <v>46.733398591700002</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4312,10 +4321,10 @@
         <v>164</v>
       </c>
       <c r="C29">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D29" s="29">
-        <v>42.214873707199999</v>
+        <v>46.123658309699998</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4326,10 +4335,10 @@
         <v>166</v>
       </c>
       <c r="C30">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="29">
-        <v>67.0472048564</v>
+        <v>65.235118238699997</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4340,10 +4349,10 @@
         <v>168</v>
       </c>
       <c r="C31">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D31" s="29">
-        <v>50.405180101600003</v>
+        <v>72.376668863800006</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4354,10 +4363,10 @@
         <v>170</v>
       </c>
       <c r="C32">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D32" s="29">
-        <v>46.886785401200001</v>
+        <v>62.515713868299997</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4368,10 +4377,10 @@
         <v>172</v>
       </c>
       <c r="C33">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D33" s="29">
-        <v>63.159940402899998</v>
+        <v>57.221826348</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4382,10 +4391,10 @@
         <v>174</v>
       </c>
       <c r="C34">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="D34" s="29">
-        <v>69.389307374599994</v>
+        <v>89.405453732699996</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4396,10 +4405,10 @@
         <v>176</v>
       </c>
       <c r="C35">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D35" s="29">
-        <v>92.266959068199995</v>
+        <v>96.2785659842</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4410,10 +4419,10 @@
         <v>178</v>
       </c>
       <c r="C36">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D36" s="29">
-        <v>106.1120543294</v>
+        <v>115.758604723</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4424,10 +4433,10 @@
         <v>180</v>
       </c>
       <c r="C37">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="D37" s="29">
-        <v>77.410340888700006</v>
+        <v>106.6752258588</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4438,10 +4447,10 @@
         <v>182</v>
       </c>
       <c r="C38">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="D38" s="29">
-        <v>70.281867278199996</v>
+        <v>83.228527040000003</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4452,10 +4461,10 @@
         <v>184</v>
       </c>
       <c r="C39">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="D39" s="29">
-        <v>61.3036444269</v>
+        <v>75.358626319899997</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4466,10 +4475,10 @@
         <v>186</v>
       </c>
       <c r="C40">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="D40" s="29">
-        <v>42.898826132099998</v>
+        <v>67.3617931</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4480,10 +4489,10 @@
         <v>188</v>
       </c>
       <c r="C41">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="D41" s="29">
-        <v>33.854293911100001</v>
+        <v>55.842134286399997</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4494,10 +4503,10 @@
         <v>190</v>
       </c>
       <c r="C42">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="D42" s="29">
-        <v>53.238619294400003</v>
+        <v>63.506067301199998</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4508,10 +4517,10 @@
         <v>192</v>
       </c>
       <c r="C43">
-        <v>234</v>
+        <v>304</v>
       </c>
       <c r="D43" s="29">
-        <v>62.360421918900002</v>
+        <v>81.015248988600007</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4522,10 +4531,10 @@
         <v>194</v>
       </c>
       <c r="C44">
-        <v>172</v>
+        <v>280</v>
       </c>
       <c r="D44" s="29">
-        <v>53.562030748300003</v>
+        <v>87.194003543799994</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4536,10 +4545,10 @@
         <v>196</v>
       </c>
       <c r="C45">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D45" s="29">
-        <v>48.990543568900002</v>
+        <v>55.773849601499997</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4550,10 +4559,10 @@
         <v>198</v>
       </c>
       <c r="C46">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="D46" s="29">
-        <v>54.680791254200003</v>
+        <v>69.313679054600001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4564,10 +4573,10 @@
         <v>200</v>
       </c>
       <c r="C47">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D47" s="29">
-        <v>53.552228065599998</v>
+        <v>51.460344156700003</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4578,10 +4587,10 @@
         <v>202</v>
       </c>
       <c r="C48">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="D48" s="29">
-        <v>48.977916916200002</v>
+        <v>75.1215347296</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4592,10 +4601,10 @@
         <v>204</v>
       </c>
       <c r="C49">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="D49" s="29">
-        <v>57.640766358900002</v>
+        <v>62.322249921000001</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4606,10 +4615,10 @@
         <v>206</v>
       </c>
       <c r="C50">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D50" s="29">
-        <v>55.161958512200002</v>
+        <v>61.165981207400002</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4620,10 +4629,10 @@
         <v>208</v>
       </c>
       <c r="C51">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D51" s="29">
-        <v>61.342602882199998</v>
+        <v>26.670696905300002</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4634,10 +4643,10 @@
         <v>210</v>
       </c>
       <c r="C52">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D52" s="29">
-        <v>55.146510865400003</v>
+        <v>68.560527021799999</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -4648,10 +4657,10 @@
         <v>212</v>
       </c>
       <c r="C53">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D53" s="29">
-        <v>34.710273941899999</v>
+        <v>34.411047442399997</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4662,10 +4671,10 @@
         <v>214</v>
       </c>
       <c r="C54">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D54" s="29">
-        <v>114.88431273240001</v>
+        <v>86.472063347000002</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4676,10 +4685,10 @@
         <v>216</v>
       </c>
       <c r="C55">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D55" s="29">
-        <v>83.789295160400002</v>
+        <v>54.513517333300001</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4690,10 +4699,10 @@
         <v>218</v>
       </c>
       <c r="C56">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D56" s="29">
-        <v>41.496205515699998</v>
+        <v>37.1683804006</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4704,10 +4713,10 @@
         <v>220</v>
       </c>
       <c r="C57">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D57" s="29">
-        <v>58.809530973500003</v>
+        <v>57.988932866900001</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4718,10 +4727,10 @@
         <v>222</v>
       </c>
       <c r="C58">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="D58" s="29">
-        <v>51.961190049199999</v>
+        <v>62.537361475099999</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4732,10 +4741,10 @@
         <v>224</v>
       </c>
       <c r="C59">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="D59" s="29">
-        <v>58.846190012500003</v>
+        <v>50.959587227299998</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4746,10 +4755,10 @@
         <v>226</v>
       </c>
       <c r="C60">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D60" s="29">
-        <v>71.962228605899995</v>
+        <v>80.153051374</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4760,10 +4769,10 @@
         <v>228</v>
       </c>
       <c r="C61">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D61" s="29">
-        <v>74.056320505000002</v>
+        <v>73.517729083099994</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4774,10 +4783,10 @@
         <v>230</v>
       </c>
       <c r="C62">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D62" s="29">
-        <v>53.587377195599998</v>
+        <v>46.782630885000003</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4788,10 +4797,10 @@
         <v>232</v>
       </c>
       <c r="C63">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D63" s="29">
-        <v>84.506261775499993</v>
+        <v>72.038124792199994</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4802,10 +4811,10 @@
         <v>234</v>
       </c>
       <c r="C64">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D64" s="29">
-        <v>44.505745651700003</v>
+        <v>44.906698315200003</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4816,10 +4825,10 @@
         <v>236</v>
       </c>
       <c r="C65">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D65" s="29">
-        <v>41.350374239899999</v>
+        <v>45.523347786999999</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4830,10 +4839,10 @@
         <v>238</v>
       </c>
       <c r="C66">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D66" s="29">
-        <v>59.905666195099997</v>
+        <v>59.200893651599998</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4844,10 +4853,10 @@
         <v>240</v>
       </c>
       <c r="C67">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="D67" s="29">
-        <v>168.07018470119999</v>
+        <v>201.50823191929999</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4858,10 +4867,10 @@
         <v>242</v>
       </c>
       <c r="C68">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="D68" s="29">
-        <v>172.7743421715</v>
+        <v>195.13995280859999</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4872,10 +4881,10 @@
         <v>244</v>
       </c>
       <c r="C69">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D69" s="29">
-        <v>45.225846571300004</v>
+        <v>40.828889265800001</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4886,10 +4895,10 @@
         <v>246</v>
       </c>
       <c r="C70">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D70" s="29">
-        <v>28.489869337599998</v>
+        <v>36.869242672200002</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4900,10 +4909,10 @@
         <v>248</v>
       </c>
       <c r="C71">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D71" s="29">
-        <v>148.43981937219999</v>
+        <v>147.65855716499999</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4914,10 +4923,10 @@
         <v>250</v>
       </c>
       <c r="C72">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="D72" s="29">
-        <v>35.317901710699999</v>
+        <v>55.615546371999997</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4928,10 +4937,10 @@
         <v>252</v>
       </c>
       <c r="C73">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="D73" s="29">
-        <v>121.86405127659999</v>
+        <v>139.44059713390001</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4942,10 +4951,10 @@
         <v>254</v>
       </c>
       <c r="C74">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D74" s="29">
-        <v>82.781456953599999</v>
+        <v>53.564472146500002</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4956,10 +4965,10 @@
         <v>256</v>
       </c>
       <c r="C75">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D75" s="29">
-        <v>38.041661383099999</v>
+        <v>40.347216618399997</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4970,10 +4979,10 @@
         <v>258</v>
       </c>
       <c r="C76">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D76" s="29">
-        <v>42.362525458199997</v>
+        <v>29.327902240299998</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -4984,10 +4993,10 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D77" s="29">
-        <v>34.0003445368</v>
+        <v>31.2803169739</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -4998,10 +5007,10 @@
         <v>262</v>
       </c>
       <c r="C78">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D78" s="29">
-        <v>102.3295009932</v>
+        <v>93.300427376200005</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -5012,10 +5021,10 @@
         <v>264</v>
       </c>
       <c r="C79">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D79" s="29">
-        <v>69.178642482800001</v>
+        <v>75.743039214700005</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -5026,10 +5035,10 @@
         <v>266</v>
       </c>
       <c r="C80">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D80" s="29">
-        <v>43.253991310499998</v>
+        <v>34.8614258323</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -5040,10 +5049,10 @@
         <v>268</v>
       </c>
       <c r="C81">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D81" s="29">
-        <v>65.577225966200004</v>
+        <v>66.162736912400007</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -5054,10 +5063,10 @@
         <v>270</v>
       </c>
       <c r="C82">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D82" s="29">
-        <v>53.791015649400002</v>
+        <v>61.296738763299999</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -5068,10 +5077,10 @@
         <v>272</v>
       </c>
       <c r="C83">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D83" s="29">
-        <v>66.477753454799995</v>
+        <v>72.185439357500002</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -5096,10 +5105,10 @@
         <v>276</v>
       </c>
       <c r="C85">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D85" s="29">
-        <v>58.020345801300003</v>
+        <v>70.913755979300007</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -5110,10 +5119,10 @@
         <v>278</v>
       </c>
       <c r="C86">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D86" s="29">
-        <v>86.139095913999995</v>
+        <v>96.126237469299994</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -5124,10 +5133,10 @@
         <v>280</v>
       </c>
       <c r="C87">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D87" s="29">
-        <v>40.997010442700002</v>
+        <v>45.603416110399998</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -5138,10 +5147,10 @@
         <v>282</v>
       </c>
       <c r="C88">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D88" s="29">
-        <v>30.032517967699999</v>
+        <v>27.961309832000001</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -5152,10 +5161,10 @@
         <v>284</v>
       </c>
       <c r="C89">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D89" s="29">
-        <v>63.092787770299999</v>
+        <v>73.435867732700004</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -5166,10 +5175,10 @@
         <v>286</v>
       </c>
       <c r="C90">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="29">
-        <v>8.2586922735999995</v>
+        <v>9.0094824803000009</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -5180,10 +5189,10 @@
         <v>288</v>
       </c>
       <c r="C91">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D91" s="29">
-        <v>12.707145153000001</v>
+        <v>11.959666026300001</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -5194,10 +5203,10 @@
         <v>290</v>
       </c>
       <c r="C92">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D92" s="29">
-        <v>27.8791901759</v>
+        <v>23.896448722199999</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5208,10 +5217,10 @@
         <v>292</v>
       </c>
       <c r="C93">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="D93" s="29">
-        <v>60.5184870378</v>
+        <v>63.748406289800002</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -5222,10 +5231,10 @@
         <v>294</v>
       </c>
       <c r="C94">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="D94" s="29">
-        <v>55.677287258900002</v>
+        <v>59.448974460300001</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -5236,10 +5245,10 @@
         <v>296</v>
       </c>
       <c r="C95">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="D95" s="29">
-        <v>90.237143212399999</v>
+        <v>87.028711453699998</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -5250,10 +5259,10 @@
         <v>298</v>
       </c>
       <c r="C96">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D96" s="29">
-        <v>97.8695425449</v>
+        <v>101.6482893613</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -5264,10 +5273,10 @@
         <v>300</v>
       </c>
       <c r="C97">
-        <v>371</v>
+        <v>317</v>
       </c>
       <c r="D97" s="29">
-        <v>59.658099591999999</v>
+        <v>50.9747104331</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -5292,10 +5301,10 @@
         <v>304</v>
       </c>
       <c r="C99">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D99" s="29">
-        <v>150.9909405436</v>
+        <v>165.9900405976</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -5306,10 +5315,10 @@
         <v>306</v>
       </c>
       <c r="C100">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D100" s="29">
-        <v>33.112333591700001</v>
+        <v>37.627651808800003</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5334,10 +5343,10 @@
         <v>310</v>
       </c>
       <c r="C102">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D102" s="29">
-        <v>114.9007630589</v>
+        <v>130.61368792170001</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5348,10 +5357,10 @@
         <v>312</v>
       </c>
       <c r="C103">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D103" s="29">
-        <v>48.083665578100003</v>
+        <v>60.104581972600002</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -5362,10 +5371,10 @@
         <v>314</v>
       </c>
       <c r="C104">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D104" s="29">
-        <v>27.041969136100001</v>
+        <v>29.445699726000001</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -5376,10 +5385,10 @@
         <v>316</v>
       </c>
       <c r="C105">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="D105" s="29">
-        <v>95.120414492600005</v>
+        <v>83.803837848699999</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5390,10 +5399,10 @@
         <v>318</v>
       </c>
       <c r="C106">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D106" s="29">
-        <v>84.231701974000003</v>
+        <v>89.476899532900006</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -5404,10 +5413,10 @@
         <v>320</v>
       </c>
       <c r="C107">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D107" s="29">
-        <v>44.097897332099997</v>
+        <v>43.5967848624</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5418,10 +5427,10 @@
         <v>322</v>
       </c>
       <c r="C108">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D108" s="29">
-        <v>45.5920452736</v>
+        <v>38.355212690499997</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5432,10 +5441,10 @@
         <v>324</v>
       </c>
       <c r="C109">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="D109" s="29">
-        <v>88.792930213399998</v>
+        <v>78.044312345500003</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -5446,10 +5455,10 @@
         <v>326</v>
       </c>
       <c r="C110">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D110" s="29">
-        <v>42.656050049800001</v>
+        <v>40.878714631000001</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -5460,10 +5469,10 @@
         <v>328</v>
       </c>
       <c r="C111">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D111" s="29">
-        <v>45.897626437</v>
+        <v>62.653902755300003</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5474,10 +5483,10 @@
         <v>330</v>
       </c>
       <c r="C112">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D112" s="29">
-        <v>82.997957892000002</v>
+        <v>88.969033999299995</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5488,10 +5497,10 @@
         <v>332</v>
       </c>
       <c r="C113">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="D113" s="29">
-        <v>59.029446084200003</v>
+        <v>55.597501544399996</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5502,10 +5511,10 @@
         <v>334</v>
       </c>
       <c r="C114">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="D114" s="29">
-        <v>53.081730913000001</v>
+        <v>54.763898441899997</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5516,10 +5525,10 @@
         <v>336</v>
       </c>
       <c r="C115">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="D115" s="29">
-        <v>53.187094641999998</v>
+        <v>64.547444953899998</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -5530,10 +5539,10 @@
         <v>338</v>
       </c>
       <c r="C116">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D116" s="29">
-        <v>163.03624506450001</v>
+        <v>156.38170444970001</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -5544,10 +5553,10 @@
         <v>340</v>
       </c>
       <c r="C117">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D117" s="29">
-        <v>72.287290345299994</v>
+        <v>80.892920148399995</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -5558,10 +5567,10 @@
         <v>342</v>
       </c>
       <c r="C118">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D118" s="29">
-        <v>59.472540092700001</v>
+        <v>57.421762848100002</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -5572,10 +5581,10 @@
         <v>344</v>
       </c>
       <c r="C119">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D119" s="29">
-        <v>27.705147962800002</v>
+        <v>38.094578448900002</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -5586,10 +5595,10 @@
         <v>346</v>
       </c>
       <c r="C120">
-        <v>502</v>
+        <v>572</v>
       </c>
       <c r="D120" s="29">
-        <v>65.7601718672</v>
+        <v>74.929916948300004</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -5600,10 +5609,10 @@
         <v>348</v>
       </c>
       <c r="C121">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D121" s="29">
-        <v>27.249724258699999</v>
+        <v>28.114794870099999</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -5614,10 +5623,10 @@
         <v>350</v>
       </c>
       <c r="C122">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="D122" s="29">
-        <v>36.665240796200003</v>
+        <v>71.108345786599997</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -5628,10 +5637,10 @@
         <v>352</v>
       </c>
       <c r="C123">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D123" s="29">
-        <v>32.982924993399998</v>
+        <v>42.285801273600001</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -5642,10 +5651,10 @@
         <v>354</v>
       </c>
       <c r="C124">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D124" s="29">
-        <v>81.672239095500004</v>
+        <v>100.8141701335</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -5670,10 +5679,10 @@
         <v>358</v>
       </c>
       <c r="C126">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D126" s="29">
-        <v>54.2248313877</v>
+        <v>56.465526899499999</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -5684,10 +5693,10 @@
         <v>360</v>
       </c>
       <c r="C127">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D127" s="29">
-        <v>47.421241980600001</v>
+        <v>56.996685072799998</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -5698,10 +5707,10 @@
         <v>362</v>
       </c>
       <c r="C128">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D128" s="29">
-        <v>73.931687121099998</v>
+        <v>70.818773979200003</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -5712,10 +5721,10 @@
         <v>364</v>
       </c>
       <c r="C129">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D129" s="29">
-        <v>76.366320755499999</v>
+        <v>80.608894130799996</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -5726,10 +5735,10 @@
         <v>366</v>
       </c>
       <c r="C130">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D130" s="29">
-        <v>53.1529901384</v>
+        <v>45.236587351899999</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -5740,10 +5749,10 @@
         <v>368</v>
       </c>
       <c r="C131">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D131" s="29">
-        <v>68.555142598499998</v>
+        <v>69.710566350199997</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -5768,10 +5777,10 @@
         <v>372</v>
       </c>
       <c r="C133">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D133" s="29">
-        <v>113.16689015839999</v>
+        <v>106.96596467019999</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -5782,10 +5791,10 @@
         <v>374</v>
       </c>
       <c r="C134">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="D134" s="29">
-        <v>42.484336210000002</v>
+        <v>57.261496630800004</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5796,10 +5805,10 @@
         <v>376</v>
       </c>
       <c r="C135">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D135" s="29">
-        <v>47.585866997499998</v>
+        <v>47.0193685809</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5810,10 +5819,10 @@
         <v>378</v>
       </c>
       <c r="C136">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D136" s="29">
-        <v>41.836952100600001</v>
+        <v>40.674814542199996</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5824,10 +5833,10 @@
         <v>380</v>
       </c>
       <c r="C137">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="D137" s="29">
-        <v>65.288356909699999</v>
+        <v>72.015036106400004</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5838,10 +5847,10 @@
         <v>382</v>
       </c>
       <c r="C138">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D138" s="29">
-        <v>52.827752179100003</v>
+        <v>48.425439497500001</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -5852,10 +5861,10 @@
         <v>384</v>
       </c>
       <c r="C139">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D139" s="29">
-        <v>127.4942924067</v>
+        <v>125.2705547484</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -5866,10 +5875,10 @@
         <v>386</v>
       </c>
       <c r="C140">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="D140" s="29">
-        <v>34.044798046899999</v>
+        <v>41.405835462399999</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -5880,10 +5889,10 @@
         <v>388</v>
       </c>
       <c r="C141">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D141" s="29">
-        <v>67.803035826200002</v>
+        <v>77.280879543899999</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -5894,10 +5903,10 @@
         <v>390</v>
       </c>
       <c r="C142">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="D142" s="29">
-        <v>120.1256699316</v>
+        <v>154.00726914309999</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -5908,10 +5917,10 @@
         <v>392</v>
       </c>
       <c r="C143">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D143" s="29">
-        <v>98.648658450799999</v>
+        <v>96.472585102599993</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5922,10 +5931,10 @@
         <v>394</v>
       </c>
       <c r="C144">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D144" s="29">
-        <v>33.851071032100002</v>
+        <v>49.5957552331</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -5936,10 +5945,10 @@
         <v>396</v>
       </c>
       <c r="C145">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D145" s="29">
-        <v>60.284212660800002</v>
+        <v>60.010193512299999</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -5950,10 +5959,10 @@
         <v>398</v>
       </c>
       <c r="C146">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D146" s="29">
-        <v>98.046489935699995</v>
+        <v>100.16641404240001</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -5964,10 +5973,10 @@
         <v>400</v>
       </c>
       <c r="C147">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="D147" s="29">
-        <v>109.7327045342</v>
+        <v>116.8527655155</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -5978,10 +5987,10 @@
         <v>402</v>
       </c>
       <c r="C148">
-        <v>1351</v>
+        <v>1320</v>
       </c>
       <c r="D148" s="29">
-        <v>73.135623544799998</v>
+        <v>71.4574560171</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -5992,10 +6001,10 @@
         <v>404</v>
       </c>
       <c r="C149">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="D149" s="29">
-        <v>42.410248470200003</v>
+        <v>74.7228187332</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -6006,10 +6015,10 @@
         <v>406</v>
       </c>
       <c r="C150">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="D150" s="29">
-        <v>73.367571533399996</v>
+        <v>92.265279352600004</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -6020,10 +6029,10 @@
         <v>408</v>
       </c>
       <c r="C151">
-        <v>1345</v>
+        <v>1089</v>
       </c>
       <c r="D151" s="29">
-        <v>116.2373662082</v>
+        <v>94.113376803500003</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -6034,10 +6043,10 @@
         <v>410</v>
       </c>
       <c r="C152">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D152" s="29">
-        <v>62.099351101099998</v>
+        <v>62.885418836500001</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -6048,10 +6057,10 @@
         <v>412</v>
       </c>
       <c r="C153">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="D153" s="29">
-        <v>63.756973418999998</v>
+        <v>54.849749191299999</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -6062,10 +6071,10 @@
         <v>414</v>
       </c>
       <c r="C154">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D154" s="29">
-        <v>21.331058020499999</v>
+        <v>30.811528251799999</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -6076,10 +6085,10 @@
         <v>416</v>
       </c>
       <c r="C155">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="D155" s="29">
-        <v>77.916022479099993</v>
+        <v>49.080959041900002</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -6090,10 +6099,10 @@
         <v>418</v>
       </c>
       <c r="C156">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D156" s="29">
-        <v>36.965160336399997</v>
+        <v>42.652108080399998</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -6104,10 +6113,10 @@
         <v>420</v>
       </c>
       <c r="C157">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D157" s="29">
-        <v>35.297396042999999</v>
+        <v>43.9669319132</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -6118,10 +6127,10 @@
         <v>422</v>
       </c>
       <c r="C158">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D158" s="29">
-        <v>42.929121760500003</v>
+        <v>42.175979273499998</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -6146,10 +6155,10 @@
         <v>426</v>
       </c>
       <c r="C160">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="D160" s="29">
-        <v>52.546624242299998</v>
+        <v>56.611004017900001</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -6160,10 +6169,10 @@
         <v>428</v>
       </c>
       <c r="C161">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D161" s="29">
-        <v>53.217506994600001</v>
+        <v>57.913169376500001</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -6174,10 +6183,10 @@
         <v>430</v>
       </c>
       <c r="C162">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D162" s="29">
-        <v>55.861638388999999</v>
+        <v>43.813049716899997</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -6188,10 +6197,10 @@
         <v>432</v>
       </c>
       <c r="C163">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D163" s="29">
-        <v>59.861599980800001</v>
+        <v>65.847759978900001</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -6202,10 +6211,10 @@
         <v>434</v>
       </c>
       <c r="C164">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D164" s="29">
-        <v>79.898241599499997</v>
+        <v>87.5684727931</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -6216,10 +6225,10 @@
         <v>436</v>
       </c>
       <c r="C165">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D165" s="29">
-        <v>50.5305709955</v>
+        <v>56.329161109700003</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -6230,10 +6239,10 @@
         <v>438</v>
       </c>
       <c r="C166">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D166" s="29">
-        <v>67.165272019400007</v>
+        <v>63.125255657300002</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -6244,10 +6253,10 @@
         <v>440</v>
       </c>
       <c r="C167">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D167" s="29">
-        <v>194.62949190629999</v>
+        <v>219.94714938999999</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -6258,10 +6267,10 @@
         <v>442</v>
       </c>
       <c r="C168">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D168" s="29">
-        <v>63.085306562</v>
+        <v>72.874405856099997</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -6272,10 +6281,10 @@
         <v>444</v>
       </c>
       <c r="C169">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="D169" s="29">
-        <v>82.763293132200005</v>
+        <v>90.462204121200003</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -6286,10 +6295,10 @@
         <v>446</v>
       </c>
       <c r="C170">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D170" s="29">
-        <v>64.158302168700004</v>
+        <v>56.982702584099997</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -6300,10 +6309,10 @@
         <v>448</v>
       </c>
       <c r="C171">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D171" s="29">
-        <v>172.39498090559999</v>
+        <v>250.95471903980001</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -6314,10 +6323,10 @@
         <v>450</v>
       </c>
       <c r="C172">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D172" s="29">
-        <v>151.8971318868</v>
+        <v>137.12935517560001</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -6342,10 +6351,10 @@
         <v>454</v>
       </c>
       <c r="C174">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D174" s="29">
-        <v>56.771409918000003</v>
+        <v>55.352124670000002</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -6356,10 +6365,10 @@
         <v>456</v>
       </c>
       <c r="C175">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D175" s="29">
-        <v>52.762547147600003</v>
+        <v>49.197510178199998</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -6370,10 +6379,10 @@
         <v>458</v>
       </c>
       <c r="C176">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D176" s="29">
-        <v>74.353640975399998</v>
+        <v>79.059567619500001</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -6384,10 +6393,10 @@
         <v>460</v>
       </c>
       <c r="C177">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D177" s="29">
-        <v>25.474554559200001</v>
+        <v>29.113776639099999</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -6398,10 +6407,10 @@
         <v>462</v>
       </c>
       <c r="C178">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D178" s="29">
-        <v>61.072541605700003</v>
+        <v>51.193159875299997</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -6412,10 +6421,10 @@
         <v>464</v>
       </c>
       <c r="C179">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D179" s="29">
-        <v>83.715634731899996</v>
+        <v>82.599426268800002</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -6426,10 +6435,10 @@
         <v>466</v>
       </c>
       <c r="C180">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D180" s="29">
-        <v>20.9937018894</v>
+        <v>11.9964010797</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -6440,10 +6449,10 @@
         <v>468</v>
       </c>
       <c r="C181">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D181" s="29">
-        <v>32.081827531899997</v>
+        <v>31.138244369199999</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -6454,10 +6463,10 @@
         <v>470</v>
       </c>
       <c r="C182">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D182" s="29">
-        <v>47.747228097200001</v>
+        <v>45.824520925500003</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -6468,10 +6477,10 @@
         <v>472</v>
       </c>
       <c r="C183">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="D183" s="29">
-        <v>62.457734311999999</v>
+        <v>55.7176910409</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -6482,10 +6491,10 @@
         <v>474</v>
       </c>
       <c r="C184">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D184" s="29">
-        <v>23.251557112299999</v>
+        <v>29.188124885600001</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -6496,10 +6505,10 @@
         <v>476</v>
       </c>
       <c r="C185">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D185" s="29">
-        <v>35.056005135900001</v>
+        <v>32.099474582299997</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -6510,10 +6519,10 @@
         <v>478</v>
       </c>
       <c r="C186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D186" s="29">
-        <v>6.7570611289000002</v>
+        <v>9.0094148384999997</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -6524,10 +6533,10 @@
         <v>480</v>
       </c>
       <c r="C187">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D187" s="29">
-        <v>42.256496936399998</v>
+        <v>47.132246582900002</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -6538,10 +6547,10 @@
         <v>482</v>
       </c>
       <c r="C188">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D188" s="29">
-        <v>36.152767132800001</v>
+        <v>23.137770965000001</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -6552,10 +6561,10 @@
         <v>484</v>
       </c>
       <c r="C189">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="D189" s="29">
-        <v>37.278053761400002</v>
+        <v>53.485903222899999</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -6566,10 +6575,10 @@
         <v>486</v>
       </c>
       <c r="C190">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D190" s="29">
-        <v>54.851626350700002</v>
+        <v>61.433821512800002</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -6580,10 +6589,10 @@
         <v>488</v>
       </c>
       <c r="C191">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="D191" s="29">
-        <v>81.609140223699995</v>
+        <v>73.288208279299994</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -6594,10 +6603,10 @@
         <v>490</v>
       </c>
       <c r="C192">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D192" s="29">
-        <v>36.825307754400001</v>
+        <v>41.2092729632</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -6608,10 +6617,10 @@
         <v>492</v>
       </c>
       <c r="C193">
-        <v>725</v>
+        <v>783</v>
       </c>
       <c r="D193" s="29">
-        <v>66.6444212185</v>
+        <v>71.975974915999998</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -6622,10 +6631,10 @@
         <v>494</v>
       </c>
       <c r="C194">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D194" s="29">
-        <v>79.635353905800002</v>
+        <v>74.046908017700005</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -6636,10 +6645,10 @@
         <v>496</v>
       </c>
       <c r="C195">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D195" s="29">
-        <v>65.078688048800004</v>
+        <v>60.2417585317</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -6650,10 +6659,10 @@
         <v>498</v>
       </c>
       <c r="C196">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D196" s="29">
-        <v>83.903930000100004</v>
+        <v>89.897067857300001</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -6664,10 +6673,10 @@
         <v>500</v>
       </c>
       <c r="C197">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="D197" s="29">
-        <v>192.82899700979999</v>
+        <v>220.7752284604</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -6678,10 +6687,10 @@
         <v>502</v>
       </c>
       <c r="C198">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D198" s="29">
-        <v>19.9376237201</v>
+        <v>15.6652757801</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -6692,10 +6701,10 @@
         <v>504</v>
       </c>
       <c r="C199">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="D199" s="29">
-        <v>160.35142564540001</v>
+        <v>202.1236457716</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -6706,10 +6715,10 @@
         <v>506</v>
       </c>
       <c r="C200">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="D200" s="29">
-        <v>88.426055684700003</v>
+        <v>98.295035113799997</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -6720,10 +6729,10 @@
         <v>508</v>
       </c>
       <c r="C201">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D201" s="29">
-        <v>31.9959045242</v>
+        <v>17.064482412899999</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -6734,10 +6743,10 @@
         <v>510</v>
       </c>
       <c r="C202">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D202" s="29">
-        <v>29.9246895313</v>
+        <v>44.0557929211</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -6748,10 +6757,10 @@
         <v>512</v>
       </c>
       <c r="C203">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D203" s="29">
-        <v>62.660909128100002</v>
+        <v>49.038972361100001</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -6762,10 +6771,10 @@
         <v>514</v>
       </c>
       <c r="C204">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D204" s="29">
-        <v>38.150035961100002</v>
+        <v>45.654961068200002</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -6776,10 +6785,10 @@
         <v>516</v>
       </c>
       <c r="C205">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="D205" s="29">
-        <v>82.573965190099997</v>
+        <v>122.3968703882</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -6790,10 +6799,10 @@
         <v>518</v>
       </c>
       <c r="C206">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="D206" s="29">
-        <v>48.554737880300003</v>
+        <v>55.467044314600003</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -6804,10 +6813,10 @@
         <v>520</v>
       </c>
       <c r="C207">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="D207" s="29">
-        <v>97.621823901100001</v>
+        <v>79.027190777100003</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -6818,10 +6827,10 @@
         <v>522</v>
       </c>
       <c r="C208">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D208" s="29">
-        <v>69.016484556799995</v>
+        <v>69.627249906900005</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -6832,10 +6841,10 @@
         <v>524</v>
       </c>
       <c r="C209">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D209" s="29">
-        <v>91.350185695500002</v>
+        <v>112.31580208459999</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -6846,10 +6855,10 @@
         <v>526</v>
       </c>
       <c r="C210">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D210" s="29">
-        <v>73.293312857700002</v>
+        <v>76.201777653700006</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -6860,10 +6869,10 @@
         <v>528</v>
       </c>
       <c r="C211">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D211" s="29">
-        <v>73.187689830599993</v>
+        <v>62.209536356000001</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -6874,10 +6883,10 @@
         <v>530</v>
       </c>
       <c r="C212">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D212" s="29">
-        <v>44.6025196107</v>
+        <v>44.027003228600002</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -6888,10 +6897,10 @@
         <v>532</v>
       </c>
       <c r="C213">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D213" s="29">
-        <v>47.216004476800002</v>
+        <v>50.276301063200002</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6902,10 +6911,10 @@
         <v>534</v>
       </c>
       <c r="C214">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D214" s="29">
-        <v>51.724934189300001</v>
+        <v>48.030296032899997</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -6916,10 +6925,10 @@
         <v>536</v>
       </c>
       <c r="C215">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D215" s="29">
-        <v>18.590432124300001</v>
+        <v>14.459224985500001</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -6930,10 +6939,10 @@
         <v>538</v>
       </c>
       <c r="C216">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="D216" s="29">
-        <v>40.519010016099998</v>
+        <v>46.752703864700003</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -6944,10 +6953,10 @@
         <v>540</v>
       </c>
       <c r="C217">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D217" s="29">
-        <v>52.829268575900002</v>
+        <v>58.054141292200001</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -6958,10 +6967,10 @@
         <v>542</v>
       </c>
       <c r="C218">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="D218" s="29">
-        <v>69.884171707299998</v>
+        <v>79.327978694799995</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -6972,10 +6981,10 @@
         <v>544</v>
       </c>
       <c r="C219">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D219" s="29">
-        <v>30.4118084708</v>
+        <v>33.127148512799998</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -6986,10 +6995,10 @@
         <v>546</v>
       </c>
       <c r="C220">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D220" s="29">
-        <v>53.038115884100002</v>
+        <v>52.196241028800003</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -7000,10 +7009,10 @@
         <v>548</v>
       </c>
       <c r="C221">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D221" s="29">
-        <v>81.083908767500006</v>
+        <v>82.510605109500005</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -7014,10 +7023,10 @@
         <v>550</v>
       </c>
       <c r="C222">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D222" s="29">
-        <v>22.1943911603</v>
+        <v>30.120959431799999</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -7028,10 +7037,10 @@
         <v>552</v>
       </c>
       <c r="C223">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D223" s="29">
-        <v>46.8281482489</v>
+        <v>51.359904530999998</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -7042,10 +7051,10 @@
         <v>554</v>
       </c>
       <c r="C224">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D224" s="29">
-        <v>52.817344209799998</v>
+        <v>47.367935680199999</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -7056,10 +7065,10 @@
         <v>556</v>
       </c>
       <c r="C225">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D225" s="29">
-        <v>21.502621489799999</v>
+        <v>27.907657678300001</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -7070,10 +7079,10 @@
         <v>558</v>
       </c>
       <c r="C226">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D226" s="29">
-        <v>34.055917925199999</v>
+        <v>41.150900826300003</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -7084,10 +7093,10 @@
         <v>560</v>
       </c>
       <c r="C227">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D227" s="29">
-        <v>60.838607085600003</v>
+        <v>64.057581005499998</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -7098,10 +7107,10 @@
         <v>562</v>
       </c>
       <c r="C228">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D228" s="29">
-        <v>45.204606423500003</v>
+        <v>38.535074328199997</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -7112,10 +7121,10 @@
         <v>564</v>
       </c>
       <c r="C229">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D229" s="29">
-        <v>76.896925741900006</v>
+        <v>79.729970374399997</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -7126,10 +7135,10 @@
         <v>566</v>
       </c>
       <c r="C230">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="D230" s="29">
-        <v>120.6663708919</v>
+        <v>127.4919433868</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -7140,10 +7149,10 @@
         <v>568</v>
       </c>
       <c r="C231">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D231" s="29">
-        <v>33.205449780599999</v>
+        <v>36.781421295400001</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -7154,10 +7163,10 @@
         <v>570</v>
       </c>
       <c r="C232">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D232" s="29">
-        <v>33.576764878699997</v>
+        <v>40.5719242284</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -7168,10 +7177,10 @@
         <v>572</v>
       </c>
       <c r="C233">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D233" s="29">
-        <v>55.410463665499996</v>
+        <v>52.698063346200001</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -7182,10 +7191,10 @@
         <v>574</v>
       </c>
       <c r="C234">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="D234" s="29">
-        <v>79.018025211299999</v>
+        <v>88.533284791699998</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -7196,10 +7205,10 @@
         <v>576</v>
       </c>
       <c r="C235">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D235" s="29">
-        <v>15.873015873</v>
+        <v>27.210884353699999</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -7210,10 +7219,10 @@
         <v>578</v>
       </c>
       <c r="C236">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D236" s="29">
-        <v>42.617901455800002</v>
+        <v>44.555078794700002</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -7224,10 +7233,10 @@
         <v>580</v>
       </c>
       <c r="C237">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="D237" s="29">
-        <v>72.9040097205</v>
+        <v>80.1120332805</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -7238,10 +7247,10 @@
         <v>582</v>
       </c>
       <c r="C238">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D238" s="29">
-        <v>51.994800519899997</v>
+        <v>65.993400659900004</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -7252,10 +7261,10 @@
         <v>584</v>
       </c>
       <c r="C239">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D239" s="29">
-        <v>55.148629440000001</v>
+        <v>51.264923141499999</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -7266,10 +7275,10 @@
         <v>586</v>
       </c>
       <c r="C240">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D240" s="29">
-        <v>56.377231330299999</v>
+        <v>57.021542545499997</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -7280,10 +7289,10 @@
         <v>588</v>
       </c>
       <c r="C241">
-        <v>141</v>
+        <v>228</v>
       </c>
       <c r="D241" s="29">
-        <v>46.366479337299999</v>
+        <v>74.975583609300003</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -7294,10 +7303,10 @@
         <v>590</v>
       </c>
       <c r="C242">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D242" s="29">
-        <v>43.289379927500001</v>
+        <v>44.055563643100001</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -7308,10 +7317,10 @@
         <v>592</v>
       </c>
       <c r="C243">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D243" s="29">
-        <v>91.480254073500006</v>
+        <v>115.6448494891</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -7322,10 +7331,10 @@
         <v>594</v>
       </c>
       <c r="C244">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D244" s="29">
-        <v>43.368184162399999</v>
+        <v>41.610014534199998</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -7336,10 +7345,10 @@
         <v>596</v>
       </c>
       <c r="C245">
-        <v>489</v>
+        <v>590</v>
       </c>
       <c r="D245" s="29">
-        <v>32.946465026200002</v>
+        <v>39.751358620600001</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -7350,10 +7359,10 @@
         <v>598</v>
       </c>
       <c r="C246">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="D246" s="29">
-        <v>43.0846313411</v>
+        <v>53.071135294299999</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -7364,10 +7373,10 @@
         <v>600</v>
       </c>
       <c r="C247">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="D247" s="29">
-        <v>21.250075326800001</v>
+        <v>30.765034428300002</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -7378,10 +7387,10 @@
         <v>602</v>
       </c>
       <c r="C248">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D248" s="29">
-        <v>32.0260664332</v>
+        <v>43.861786636799998</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -7392,10 +7401,10 @@
         <v>604</v>
       </c>
       <c r="C249">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D249" s="29">
-        <v>20.554350842200002</v>
+        <v>26.720656094900001</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -7406,10 +7415,10 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="D250" s="29">
-        <v>45.328557734500002</v>
+        <v>66.135108825700001</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -7420,10 +7429,10 @@
         <v>608</v>
       </c>
       <c r="C251">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D251" s="29">
-        <v>53.618634345899999</v>
+        <v>39.902239513200001</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -7434,10 +7443,10 @@
         <v>610</v>
       </c>
       <c r="C252">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D252" s="29">
-        <v>67.727992207499994</v>
+        <v>81.425788384300006</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -7448,10 +7457,10 @@
         <v>612</v>
       </c>
       <c r="C253">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D253" s="29">
-        <v>110.8757201972</v>
+        <v>97.016255172599998</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -7462,10 +7471,10 @@
         <v>614</v>
       </c>
       <c r="C254">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="D254" s="29">
-        <v>194.81206987819999</v>
+        <v>155.6379036527</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -7476,10 +7485,10 @@
         <v>616</v>
       </c>
       <c r="C255">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D255" s="29">
-        <v>67.587864223500006</v>
+        <v>39.426254130399997</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -7490,10 +7499,10 @@
         <v>618</v>
       </c>
       <c r="C256">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D256" s="29">
-        <v>46.2318211913</v>
+        <v>54.793269560100001</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -7504,10 +7513,10 @@
         <v>620</v>
       </c>
       <c r="C257">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D257" s="29">
-        <v>76.034811909599995</v>
+        <v>78.2228640509</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -7518,10 +7527,10 @@
         <v>622</v>
       </c>
       <c r="C258">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D258" s="29">
-        <v>83.202899744600003</v>
+        <v>76.612571052000007</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -7532,10 +7541,10 @@
         <v>624</v>
       </c>
       <c r="C259">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D259" s="29">
-        <v>35.552663135499998</v>
+        <v>40.373363221699996</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -7546,10 +7555,10 @@
         <v>626</v>
       </c>
       <c r="C260">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D260" s="29">
-        <v>46.7536204086</v>
+        <v>68.332214443300003</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -7560,10 +7569,10 @@
         <v>628</v>
       </c>
       <c r="C261">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="D261" s="29">
-        <v>143.1165008774</v>
+        <v>166.3792536702</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -7574,10 +7583,10 @@
         <v>630</v>
       </c>
       <c r="C262">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D262" s="29">
-        <v>87.718183089500002</v>
+        <v>78.819236978899994</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -7588,10 +7597,10 @@
         <v>632</v>
       </c>
       <c r="C263">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D263" s="29">
-        <v>27.969913444500001</v>
+        <v>50.648221642700001</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -7602,10 +7611,10 @@
         <v>634</v>
       </c>
       <c r="C264">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="D264" s="29">
-        <v>95.298724848999996</v>
+        <v>98.192410826200003</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -7616,10 +7625,10 @@
         <v>636</v>
       </c>
       <c r="C265">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D265" s="29">
-        <v>48.0116164692</v>
+        <v>64.991334488700005</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -7630,10 +7639,10 @@
         <v>638</v>
       </c>
       <c r="C266">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D266" s="29">
-        <v>51.279421568099998</v>
+        <v>49.997436028899997</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -7644,10 +7653,10 @@
         <v>640</v>
       </c>
       <c r="C267">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="D267" s="29">
-        <v>70.205875974500003</v>
+        <v>79.0275567252</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -7658,10 +7667,10 @@
         <v>642</v>
       </c>
       <c r="C268">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D268" s="29">
-        <v>55.037862253500002</v>
+        <v>55.512326583300002</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -7672,10 +7681,10 @@
         <v>644</v>
       </c>
       <c r="C269">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="D269" s="29">
-        <v>74.208365819099996</v>
+        <v>83.132156645400002</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -7686,10 +7695,10 @@
         <v>646</v>
       </c>
       <c r="C270">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D270" s="29">
-        <v>141.7194685977</v>
+        <v>126.17604300959999</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -7700,10 +7709,10 @@
         <v>648</v>
       </c>
       <c r="C271">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D271" s="29">
-        <v>35.159198783900003</v>
+        <v>42.397857357100001</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -7714,10 +7723,10 @@
         <v>650</v>
       </c>
       <c r="C272">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D272" s="29">
-        <v>42.504879672000001</v>
+        <v>52.571824857499998</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -7728,10 +7737,10 @@
         <v>652</v>
       </c>
       <c r="C273">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="D273" s="29">
-        <v>80.595640159699997</v>
+        <v>98.249923242199998</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -7742,10 +7751,10 @@
         <v>654</v>
       </c>
       <c r="C274">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D274" s="29">
-        <v>57.895579981600001</v>
+        <v>60.424998524499998</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -7756,10 +7765,10 @@
         <v>656</v>
       </c>
       <c r="C275">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D275" s="29">
-        <v>46.132827055100002</v>
+        <v>49.6815060594</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -7770,10 +7779,10 @@
         <v>658</v>
       </c>
       <c r="C276">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D276" s="29">
-        <v>27.504011001599999</v>
+        <v>47.3680189472</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -7784,10 +7793,10 @@
         <v>660</v>
       </c>
       <c r="C277">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D277" s="29">
-        <v>85.849725654099998</v>
+        <v>87.342764361199997</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -7798,10 +7807,10 @@
         <v>662</v>
       </c>
       <c r="C278">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="D278" s="29">
-        <v>31.7900095834</v>
+        <v>38.519281685000003</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -7812,10 +7821,10 @@
         <v>664</v>
       </c>
       <c r="C279">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D279" s="29">
-        <v>78.063067696999994</v>
+        <v>84.1144682937</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -7826,10 +7835,10 @@
         <v>666</v>
       </c>
       <c r="C280">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D280" s="29">
-        <v>47.754691688999998</v>
+        <v>52.502234137599999</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -7840,10 +7849,10 @@
         <v>668</v>
       </c>
       <c r="C281">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D281" s="29">
-        <v>25.794124671599999</v>
+        <v>27.067908606</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -7854,10 +7863,10 @@
         <v>670</v>
       </c>
       <c r="C282">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D282" s="29">
-        <v>43.914946664600002</v>
+        <v>36.831890750900001</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -7868,10 +7877,10 @@
         <v>672</v>
       </c>
       <c r="C283">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D283" s="29">
-        <v>50.909346253800003</v>
+        <v>41.254125412500002</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -7882,10 +7891,10 @@
         <v>674</v>
       </c>
       <c r="C284">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D284" s="29">
-        <v>36.900553009600003</v>
+        <v>29.9193673051</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -7896,10 +7905,10 @@
         <v>676</v>
       </c>
       <c r="C285">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D285" s="29">
-        <v>57.6567099261</v>
+        <v>55.633667472500001</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -7910,10 +7919,10 @@
         <v>678</v>
       </c>
       <c r="C286">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D286" s="29">
-        <v>43.204402301199998</v>
+        <v>37.682035089800003</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -7924,10 +7933,10 @@
         <v>680</v>
       </c>
       <c r="C287">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D287" s="29">
-        <v>71.965608014699995</v>
+        <v>83.328598753899996</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -7938,10 +7947,10 @@
         <v>682</v>
       </c>
       <c r="C288">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="D288" s="29">
-        <v>95.507017689600005</v>
+        <v>114.19317332449999</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -7952,10 +7961,10 @@
         <v>684</v>
       </c>
       <c r="C289">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="D289" s="29">
-        <v>107.5659676115</v>
+        <v>78.634431495300007</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -7966,10 +7975,10 @@
         <v>686</v>
       </c>
       <c r="C290">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D290" s="29">
-        <v>33.534279052000002</v>
+        <v>47.571884236499997</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -7980,10 +7989,10 @@
         <v>688</v>
       </c>
       <c r="C291">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D291" s="29">
-        <v>42.8717737005</v>
+        <v>45.253538906099998</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -7994,10 +8003,10 @@
         <v>690</v>
       </c>
       <c r="C292">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D292" s="29">
-        <v>50.300060423300003</v>
+        <v>46.8201820293</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -8008,10 +8017,10 @@
         <v>692</v>
       </c>
       <c r="C293">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D293" s="29">
-        <v>39.770326365199999</v>
+        <v>52.198553354399998</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -8022,10 +8031,10 @@
         <v>694</v>
       </c>
       <c r="C294">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D294" s="29">
-        <v>37.300094804399997</v>
+        <v>34.191753570700001</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -8036,10 +8045,10 @@
         <v>696</v>
       </c>
       <c r="C295">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D295" s="29">
-        <v>29.9444364346</v>
+        <v>38.262335444199998</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -8050,10 +8059,10 @@
         <v>698</v>
       </c>
       <c r="C296">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D296" s="29">
-        <v>48.0223119049</v>
+        <v>57.719124885699998</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -8064,10 +8073,10 @@
         <v>700</v>
       </c>
       <c r="C297">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D297" s="29">
-        <v>73.531342734800006</v>
+        <v>61.7138055096</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -8078,10 +8087,10 @@
         <v>702</v>
       </c>
       <c r="C298">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="D298" s="29">
-        <v>54.878575749699998</v>
+        <v>64.817215452400006</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -8092,10 +8101,10 @@
         <v>704</v>
       </c>
       <c r="C299">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="D299" s="29">
-        <v>42.743427322199999</v>
+        <v>47.648410785400003</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -8106,10 +8115,10 @@
         <v>706</v>
       </c>
       <c r="C300">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="D300" s="29">
-        <v>71.970912027799997</v>
+        <v>64.317896495400007</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -8120,10 +8129,10 @@
         <v>708</v>
       </c>
       <c r="C301">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D301" s="29">
-        <v>100.7621754295</v>
+        <v>143.39232657279999</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -8134,10 +8143,10 @@
         <v>710</v>
       </c>
       <c r="C302">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D302" s="29">
-        <v>47.6831227873</v>
+        <v>46.376735861599997</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -8148,10 +8157,10 @@
         <v>712</v>
       </c>
       <c r="C303">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D303" s="29">
-        <v>48.436131292799999</v>
+        <v>46.890297315399998</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -8162,10 +8171,10 @@
         <v>714</v>
       </c>
       <c r="C304">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D304" s="29">
-        <v>76.3441053369</v>
+        <v>89.816594514000002</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -8176,10 +8185,10 @@
         <v>716</v>
       </c>
       <c r="C305">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D305" s="29">
-        <v>42.1300977418</v>
+        <v>40.023592854699999</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -8190,10 +8199,10 @@
         <v>718</v>
       </c>
       <c r="C306">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D306" s="29">
-        <v>43.779961911400001</v>
+        <v>43.415128895499997</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -8204,10 +8213,10 @@
         <v>720</v>
       </c>
       <c r="C307">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D307" s="29">
-        <v>50.8650543141</v>
+        <v>54.000571360899997</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -8218,10 +8227,10 @@
         <v>722</v>
       </c>
       <c r="C308">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="D308" s="29">
-        <v>80.532919690200004</v>
+        <v>84.570190070400002</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -8232,10 +8241,10 @@
         <v>724</v>
       </c>
       <c r="C309">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D309" s="29">
-        <v>54.498824535200001</v>
+        <v>49.1558025219</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -8246,10 +8255,10 @@
         <v>726</v>
       </c>
       <c r="C310">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D310" s="29">
-        <v>96.933978267399993</v>
+        <v>93.056619136699993</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -8260,10 +8269,10 @@
         <v>728</v>
       </c>
       <c r="C311">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D311" s="29">
-        <v>64.249428992000006</v>
+        <v>58.248108701600003</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -8274,10 +8283,10 @@
         <v>730</v>
       </c>
       <c r="C312">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="D312" s="29">
-        <v>58.663360857100002</v>
+        <v>54.900050915400001</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -8288,10 +8297,10 @@
         <v>732</v>
       </c>
       <c r="C313">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D313" s="29">
-        <v>81.768154574500002</v>
+        <v>93.215696214999994</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -8302,10 +8311,10 @@
         <v>734</v>
       </c>
       <c r="C314">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D314" s="29">
-        <v>52.338357450899998</v>
+        <v>50.149994073199998</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -8316,10 +8325,10 @@
         <v>736</v>
       </c>
       <c r="C315">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D315" s="29">
-        <v>41.3947441611</v>
+        <v>36.867194018500001</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -8330,10 +8339,10 @@
         <v>738</v>
       </c>
       <c r="C316">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="D316" s="29">
-        <v>51.600961442399999</v>
+        <v>44.110499297600001</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -8344,10 +8353,10 @@
         <v>740</v>
       </c>
       <c r="C317">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D317" s="29">
-        <v>50.229170590800003</v>
+        <v>41.4390657374</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -8358,10 +8367,10 @@
         <v>742</v>
       </c>
       <c r="C318">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D318" s="29">
-        <v>66.088653207700006</v>
+        <v>59.794495759299998</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -8372,10 +8381,10 @@
         <v>744</v>
       </c>
       <c r="C319">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="D319" s="29">
-        <v>84.950063138600001</v>
+        <v>96.047143458500003</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -8386,10 +8395,10 @@
         <v>746</v>
       </c>
       <c r="C320">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D320" s="29">
-        <v>26.7697941116</v>
+        <v>25.813730036199999</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -8400,10 +8409,10 @@
         <v>748</v>
       </c>
       <c r="C321">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="D321" s="29">
-        <v>71.827761661599993</v>
+        <v>82.949479596299994</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -8414,10 +8423,10 @@
         <v>750</v>
       </c>
       <c r="C322">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D322" s="29">
-        <v>21.980437410699999</v>
+        <v>18.927598881400002</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -8428,10 +8437,10 @@
         <v>752</v>
       </c>
       <c r="C323">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D323" s="29">
-        <v>41.814925561499997</v>
+        <v>49.704534158100003</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -8456,10 +8465,10 @@
         <v>756</v>
       </c>
       <c r="C325">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="D325" s="29">
-        <v>66.486509672699995</v>
+        <v>122.9642974592</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -8470,10 +8479,10 @@
         <v>758</v>
       </c>
       <c r="C326">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D326" s="29">
-        <v>125.37673297169999</v>
+        <v>120.5545509343</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -8484,10 +8493,10 @@
         <v>760</v>
       </c>
       <c r="C327">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="D327" s="29">
-        <v>95.204417484999993</v>
+        <v>118.0534776814</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -8498,10 +8507,10 @@
         <v>762</v>
       </c>
       <c r="C328">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="D328" s="29">
-        <v>192.99731048909999</v>
+        <v>224.12590895509999</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -8512,10 +8521,10 @@
         <v>764</v>
       </c>
       <c r="C329">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D329" s="29">
-        <v>107.559181775</v>
+        <v>111.43518832549999</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -8526,10 +8535,10 @@
         <v>766</v>
       </c>
       <c r="C330">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="D330" s="29">
-        <v>67.414920826100001</v>
+        <v>80.280363731799994</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -8540,10 +8549,10 @@
         <v>767</v>
       </c>
       <c r="C331">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D331" s="29">
-        <v>33.052969141200002</v>
+        <v>47.8213170553</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -8554,10 +8563,10 @@
         <v>769</v>
       </c>
       <c r="C332">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="D332" s="29">
-        <v>68.814997597599998</v>
+        <v>77.773162965300003</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -8568,10 +8577,10 @@
         <v>771</v>
       </c>
       <c r="C333">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D333" s="29">
-        <v>90.132417945900002</v>
+        <v>106.432961617</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -8582,10 +8591,10 @@
         <v>773</v>
       </c>
       <c r="C334">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D334" s="29">
-        <v>104.6926635823</v>
+        <v>99.933906146699996</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -8596,10 +8605,10 @@
         <v>775</v>
       </c>
       <c r="C335">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D335" s="29">
-        <v>93.095957796500002</v>
+        <v>87.349293735000003</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -8610,10 +8619,10 @@
         <v>777</v>
       </c>
       <c r="C336">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="D336" s="29">
-        <v>54.492459764300001</v>
+        <v>33.582562412900003</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -8624,10 +8633,10 @@
         <v>779</v>
       </c>
       <c r="C337">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="D337" s="29">
-        <v>71.586231581500002</v>
+        <v>63.632205850200002</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -8638,10 +8647,10 @@
         <v>781</v>
       </c>
       <c r="C338">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="D338" s="29">
-        <v>211.34202183869999</v>
+        <v>253.7705337987</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -8652,10 +8661,10 @@
         <v>783</v>
       </c>
       <c r="C339">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D339" s="29">
-        <v>75.644811009999998</v>
+        <v>56.123569459000002</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -8666,10 +8675,10 @@
         <v>785</v>
       </c>
       <c r="C340">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="D340" s="29">
-        <v>144.84577736439999</v>
+        <v>156.53508571309999</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -8680,10 +8689,10 @@
         <v>787</v>
       </c>
       <c r="C341">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D341" s="29">
-        <v>41.1859322213</v>
+        <v>43.412198827899999</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -8694,10 +8703,10 @@
         <v>789</v>
       </c>
       <c r="C342">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="D342" s="29">
-        <v>139.98593378059999</v>
+        <v>170.41765851549999</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -8708,10 +8717,10 @@
         <v>791</v>
       </c>
       <c r="C343">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D343" s="29">
-        <v>36.704845980800002</v>
+        <v>35.763696083900001</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -8722,10 +8731,10 @@
         <v>793</v>
       </c>
       <c r="C344">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D344" s="29">
-        <v>16.845730543199998</v>
+        <v>11.230487028800001</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -8736,10 +8745,10 @@
         <v>795</v>
       </c>
       <c r="C345">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D345" s="29">
-        <v>31.183680540499999</v>
+        <v>36.380960630600001</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -8750,10 +8759,10 @@
         <v>797</v>
       </c>
       <c r="C346">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D346" s="29">
-        <v>73.181186162499998</v>
+        <v>59.590394446600001</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -8764,10 +8773,10 @@
         <v>799</v>
       </c>
       <c r="C347">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D347" s="29">
-        <v>50.509605844699998</v>
+        <v>48.705691350199999</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -8778,10 +8787,10 @@
         <v>801</v>
       </c>
       <c r="C348">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D348" s="29">
-        <v>68.967011381399999</v>
+        <v>72.938933502799998</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -8792,10 +8801,10 @@
         <v>803</v>
       </c>
       <c r="C349">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D349" s="29">
-        <v>51.204059641299999</v>
+        <v>70.310052044700001</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -8806,10 +8815,10 @@
         <v>805</v>
       </c>
       <c r="C350">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="D350" s="29">
-        <v>45.3965571516</v>
+        <v>51.6924300413</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -8820,10 +8829,10 @@
         <v>807</v>
       </c>
       <c r="C351">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="D351" s="29">
-        <v>118.6850450564</v>
+        <v>133.75616188890001</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -8834,10 +8843,10 @@
         <v>809</v>
       </c>
       <c r="C352">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D352" s="29">
-        <v>184.36631281780001</v>
+        <v>171.4030564478</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -8848,10 +8857,10 @@
         <v>811</v>
       </c>
       <c r="C353">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D353" s="29">
-        <v>60.640712441700003</v>
+        <v>48.512569953400003</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -8862,10 +8871,10 @@
         <v>813</v>
       </c>
       <c r="C354">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D354" s="29">
-        <v>49.445224580199998</v>
+        <v>35.600561697800003</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -8876,10 +8885,10 @@
         <v>992</v>
       </c>
       <c r="C355">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D355" s="29">
-        <v>104.64298276469999</v>
+        <v>84.417868448799993</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -8890,10 +8899,10 @@
         <v>815</v>
       </c>
       <c r="C356">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D356" s="29">
-        <v>19.558754498500001</v>
+        <v>35.205758097299999</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -8904,10 +8913,10 @@
         <v>817</v>
       </c>
       <c r="C357">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D357" s="29">
-        <v>78.791898124200003</v>
+        <v>82.138272175799997</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -8918,10 +8927,10 @@
         <v>819</v>
       </c>
       <c r="C358">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D358" s="29">
-        <v>29.268221297</v>
+        <v>26.341399167300001</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -8946,10 +8955,10 @@
         <v>823</v>
       </c>
       <c r="C360">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="D360" s="29">
-        <v>43.5054214448</v>
+        <v>48.190620677299997</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -8960,10 +8969,10 @@
         <v>825</v>
       </c>
       <c r="C361">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D361" s="29">
-        <v>50.3642413886</v>
+        <v>76.445723536299994</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -8974,10 +8983,10 @@
         <v>827</v>
       </c>
       <c r="C362">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D362" s="29">
-        <v>57.340388931699998</v>
+        <v>62.664853618199999</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -9002,10 +9011,10 @@
         <v>831</v>
       </c>
       <c r="C364">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D364" s="29">
-        <v>59.335443038000001</v>
+        <v>57.357594936700004</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -9016,10 +9025,10 @@
         <v>833</v>
       </c>
       <c r="C365">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="D365" s="29">
-        <v>45.603865949800003</v>
+        <v>50.0069978346</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -9030,10 +9039,10 @@
         <v>835</v>
       </c>
       <c r="C366">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D366" s="29">
-        <v>34.382606020600001</v>
+        <v>29.858578912599999</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -9058,10 +9067,10 @@
         <v>839</v>
       </c>
       <c r="C368">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D368" s="29">
-        <v>89.700725760400005</v>
+        <v>114.1645600587</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -9072,10 +9081,10 @@
         <v>841</v>
       </c>
       <c r="C369">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D369" s="29">
-        <v>45.883162644000002</v>
+        <v>60.589304517099997</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -9086,10 +9095,10 @@
         <v>843</v>
       </c>
       <c r="C370">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D370" s="29">
-        <v>269.27240929409999</v>
+        <v>231.79635233050001</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -9100,10 +9109,10 @@
         <v>845</v>
       </c>
       <c r="C371">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D371" s="29">
-        <v>63.1630000169</v>
+        <v>61.471133944999998</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -9114,10 +9123,10 @@
         <v>847</v>
       </c>
       <c r="C372">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D372" s="29">
-        <v>28.692346316599998</v>
+        <v>30.485617961399999</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -9128,10 +9137,10 @@
         <v>849</v>
       </c>
       <c r="C373">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D373" s="29">
-        <v>46.854710237100001</v>
+        <v>41.49988621</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -9142,10 +9151,10 @@
         <v>851</v>
       </c>
       <c r="C374">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D374" s="29">
-        <v>37.607465519199998</v>
+        <v>39.356649961999999</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -9156,10 +9165,10 @@
         <v>853</v>
       </c>
       <c r="C375">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D375" s="29">
-        <v>60.3838995212</v>
+        <v>70.329482971700003</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -9170,10 +9179,10 @@
         <v>855</v>
       </c>
       <c r="C376">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D376" s="29">
-        <v>39.513396722899998</v>
+        <v>42.035528428600003</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -9184,10 +9193,10 @@
         <v>857</v>
       </c>
       <c r="C377">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D377" s="29">
-        <v>86.590394960400005</v>
+        <v>75.766595590400001</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -9198,10 +9207,10 @@
         <v>859</v>
       </c>
       <c r="C378">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D378" s="29">
-        <v>56.786812840099998</v>
+        <v>54.4206956385</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -9212,10 +9221,10 @@
         <v>861</v>
       </c>
       <c r="C379">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D379" s="29">
-        <v>78.502675421800006</v>
+        <v>75.717096616500001</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -9226,10 +9235,10 @@
         <v>863</v>
       </c>
       <c r="C380">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D380" s="29">
-        <v>160.41943814070001</v>
+        <v>141.8342593317</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -9240,10 +9249,10 @@
         <v>865</v>
       </c>
       <c r="C381">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D381" s="29">
-        <v>35.777929145900004</v>
+        <v>43.346337234499998</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -9254,10 +9263,10 @@
         <v>867</v>
       </c>
       <c r="C382">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D382" s="29">
-        <v>114.83468007339999</v>
+        <v>113.4342571457</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -9268,10 +9277,10 @@
         <v>869</v>
       </c>
       <c r="C383">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D383" s="29">
-        <v>25.5226677751</v>
+        <v>32.085639488699996</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -9282,10 +9291,10 @@
         <v>871</v>
       </c>
       <c r="C384">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D384" s="29">
-        <v>46.175003262399997</v>
+        <v>42.828988533199997</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -9296,10 +9305,10 @@
         <v>873</v>
       </c>
       <c r="C385">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D385" s="29">
-        <v>52.062133790200001</v>
+        <v>49.222381038000002</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -9310,10 +9319,10 @@
         <v>875</v>
       </c>
       <c r="C386">
-        <v>480</v>
+        <v>521</v>
       </c>
       <c r="D386" s="29">
-        <v>212.39219989649999</v>
+        <v>230.5340336376</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -9324,10 +9333,10 @@
         <v>877</v>
       </c>
       <c r="C387">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D387" s="29">
-        <v>121.8047474143</v>
+        <v>123.0779677705</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -9338,10 +9347,10 @@
         <v>879</v>
       </c>
       <c r="C388">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D388" s="29">
-        <v>14.241083746499999</v>
+        <v>22.251693353899999</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -9352,10 +9361,10 @@
         <v>881</v>
       </c>
       <c r="C389">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D389" s="29">
-        <v>84.094581670699995</v>
+        <v>64.307621277600006</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -9366,10 +9375,10 @@
         <v>883</v>
       </c>
       <c r="C390">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D390" s="29">
-        <v>41.558507985600002</v>
+        <v>54.985102873300001</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -9380,10 +9389,10 @@
         <v>885</v>
       </c>
       <c r="C391">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D391" s="29">
-        <v>57.893721162799999</v>
+        <v>54.385010789299997</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -9394,10 +9403,10 @@
         <v>887</v>
       </c>
       <c r="C392">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D392" s="29">
-        <v>42.470486610999998</v>
+        <v>42.110567232900003</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -9408,10 +9417,10 @@
         <v>889</v>
       </c>
       <c r="C393">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D393" s="29">
-        <v>133.64264461139999</v>
+        <v>137.00472372109999</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -9422,10 +9431,10 @@
         <v>891</v>
       </c>
       <c r="C394">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D394" s="29">
-        <v>231.61687293829999</v>
+        <v>262.03120978869998</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -9436,10 +9445,10 @@
         <v>893</v>
       </c>
       <c r="C395">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D395" s="29">
-        <v>31.739470615199998</v>
+        <v>40.5969972985</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -9450,10 +9459,10 @@
         <v>895</v>
       </c>
       <c r="C396">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D396" s="29">
-        <v>61.323358067100003</v>
+        <v>52.124854356999997</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -9464,10 +9473,10 @@
         <v>897</v>
       </c>
       <c r="C397">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D397" s="29">
-        <v>147.28078290080001</v>
+        <v>111.9820828667</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -9478,10 +9487,10 @@
         <v>899</v>
       </c>
       <c r="C398">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D398" s="29">
-        <v>20.056157240299999</v>
+        <v>19.000570017099999</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -9492,10 +9501,10 @@
         <v>901</v>
       </c>
       <c r="C399">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D399" s="29">
-        <v>51.674964473499998</v>
+        <v>59.624959007800001</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -9506,10 +9515,10 @@
         <v>903</v>
       </c>
       <c r="C400">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="D400" s="29">
-        <v>49.132998243400003</v>
+        <v>53.263648538200002</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -9520,10 +9529,10 @@
         <v>905</v>
       </c>
       <c r="C401">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D401" s="29">
-        <v>151.27055981399999</v>
+        <v>126.4350947699</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -9534,10 +9543,10 @@
         <v>907</v>
       </c>
       <c r="C402">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D402" s="29">
-        <v>54.481337665399998</v>
+        <v>47.052064347399998</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -9548,10 +9557,10 @@
         <v>909</v>
       </c>
       <c r="C403">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D403" s="29">
-        <v>55.782758587099998</v>
+        <v>53.836848403899999</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -9562,10 +9571,10 @@
         <v>911</v>
       </c>
       <c r="C404">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D404" s="29">
-        <v>52.787692926399998</v>
+        <v>59.610592012200001</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -9576,10 +9585,10 @@
         <v>913</v>
       </c>
       <c r="C405">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D405" s="29">
-        <v>61.769769611900003</v>
+        <v>51.255766273699997</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -9590,10 +9599,10 @@
         <v>915</v>
       </c>
       <c r="C406">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D406" s="29">
-        <v>130.4490488424</v>
+        <v>128.04814610290001</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -9604,10 +9613,10 @@
         <v>917</v>
       </c>
       <c r="C407">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D407" s="29">
-        <v>26.3499982433</v>
+        <v>33.376664441599999</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -9618,10 +9627,10 @@
         <v>919</v>
       </c>
       <c r="C408">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D408" s="29">
-        <v>60.189597231299999</v>
+        <v>50.993964320899998</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -9632,10 +9641,10 @@
         <v>921</v>
       </c>
       <c r="C409">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D409" s="29">
-        <v>23.317332818699999</v>
+        <v>35.378022207699999</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -9646,10 +9655,10 @@
         <v>923</v>
       </c>
       <c r="C410">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D410" s="29">
-        <v>56.259127145599997</v>
+        <v>50.2741136195</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -9660,10 +9669,10 @@
         <v>925</v>
       </c>
       <c r="C411">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D411" s="29">
-        <v>295.91906957539999</v>
+        <v>286.28449521710002</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -9674,10 +9683,10 @@
         <v>927</v>
       </c>
       <c r="C412">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="D412" s="29">
-        <v>83.638411715000004</v>
+        <v>79.132638693299995</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -9688,10 +9697,10 @@
         <v>929</v>
       </c>
       <c r="C413">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D413" s="29">
-        <v>41.427611112000001</v>
+        <v>44.554223271399998</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -9702,10 +9711,10 @@
         <v>931</v>
       </c>
       <c r="C414">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D414" s="29">
-        <v>26.493820162399999</v>
+        <v>33.887444393800003</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -9716,10 +9725,10 @@
         <v>933</v>
       </c>
       <c r="C415">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D415" s="29">
-        <v>54.920971889999997</v>
+        <v>61.258007108000001</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -9730,10 +9739,10 @@
         <v>935</v>
       </c>
       <c r="C416">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D416" s="29">
-        <v>58.491504108999997</v>
+        <v>76.038955341700003</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -9744,10 +9753,10 @@
         <v>937</v>
       </c>
       <c r="C417">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D417" s="29">
-        <v>68.253534898200002</v>
+        <v>63.809118672300002</v>
       </c>
     </row>
   </sheetData>
@@ -9764,7 +9773,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H370" sqref="H370:H371"/>
+      <selection pane="bottomLeft" activeCell="G377" sqref="G377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9778,7 +9787,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -18944,7 +18953,7 @@
         <v>2052028</v>
       </c>
       <c r="D333" s="3">
-        <f t="shared" ref="D333:D371" si="175">B333-B332</f>
+        <f t="shared" ref="D333:D374" si="175">B333-B332</f>
         <v>11369</v>
       </c>
       <c r="E333" s="3">
@@ -20004,15 +20013,15 @@
         <v>68740</v>
       </c>
       <c r="F369" s="3">
-        <f t="shared" ref="F369:F371" si="243">E369-E368</f>
+        <f t="shared" ref="F369:F373" si="243">E369-E368</f>
         <v>422</v>
       </c>
       <c r="G369" s="4">
-        <f t="shared" ref="G369:G371" si="244">E369/B369</f>
+        <f t="shared" ref="G369:G373" si="244">E369/B369</f>
         <v>2.860807601740956E-2</v>
       </c>
       <c r="H369" s="3">
-        <f t="shared" ref="H369:H371" si="245">B369-E369</f>
+        <f t="shared" ref="H369:H373" si="245">B369-E369</f>
         <v>2334078</v>
       </c>
     </row>
@@ -20048,7 +20057,7 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="26" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B371" s="32">
         <v>2424684</v>
@@ -20077,16 +20086,94 @@
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A372" s="26"/>
-      <c r="G372" s="4"/>
+      <c r="A372" s="26" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B372" s="32">
+        <v>2434446</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D372" s="3">
+        <f t="shared" si="175"/>
+        <v>9762</v>
+      </c>
+      <c r="E372" s="3">
+        <v>69888</v>
+      </c>
+      <c r="F372" s="3">
+        <f t="shared" si="243"/>
+        <v>369</v>
+      </c>
+      <c r="G372" s="4">
+        <f t="shared" si="244"/>
+        <v>2.8707968876697205E-2</v>
+      </c>
+      <c r="H372" s="3">
+        <f t="shared" si="245"/>
+        <v>2364558</v>
+      </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A373" s="26"/>
-      <c r="G373" s="4"/>
+      <c r="A373" s="26" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B373" s="32">
+        <v>2442336</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D373" s="3">
+        <f t="shared" si="175"/>
+        <v>7890</v>
+      </c>
+      <c r="E373" s="3">
+        <v>70045</v>
+      </c>
+      <c r="F373" s="3">
+        <f t="shared" si="243"/>
+        <v>157</v>
+      </c>
+      <c r="G373" s="4">
+        <f t="shared" si="244"/>
+        <v>2.8679510108355278E-2</v>
+      </c>
+      <c r="H373" s="3">
+        <f t="shared" si="245"/>
+        <v>2372291</v>
+      </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A374" s="26"/>
-      <c r="G374" s="4"/>
+      <c r="A374" s="26" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B374" s="32">
+        <v>2447068</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D374" s="3">
+        <f t="shared" si="175"/>
+        <v>4732</v>
+      </c>
+      <c r="E374" s="3">
+        <v>70105</v>
+      </c>
+      <c r="F374" s="3">
+        <f t="shared" ref="F374" si="246">E374-E373</f>
+        <v>60</v>
+      </c>
+      <c r="G374" s="4">
+        <f t="shared" ref="G374" si="247">E374/B374</f>
+        <v>2.8648570452476187E-2</v>
+      </c>
+      <c r="H374" s="3">
+        <f t="shared" ref="H374" si="248">B374-E374</f>
+        <v>2376963</v>
+      </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="26"/>
@@ -20643,8 +20730,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A2:KX20"/>
   <sheetViews>
-    <sheetView topLeftCell="JU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="KL4" sqref="KL4:KL20"/>
+    <sheetView topLeftCell="JX1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="KO4" sqref="KO4:KO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20655,7 +20742,7 @@
   <sheetData>
     <row r="2" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="3" spans="1:310" x14ac:dyDescent="0.25">
@@ -22482,6 +22569,15 @@
       <c r="KL4" s="3">
         <v>5420</v>
       </c>
+      <c r="KM4" s="3">
+        <v>5472</v>
+      </c>
+      <c r="KN4" s="3">
+        <v>5551</v>
+      </c>
+      <c r="KO4">
+        <v>5767</v>
+      </c>
     </row>
     <row r="5" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -23378,6 +23474,15 @@
       <c r="KL5" s="3">
         <v>7810</v>
       </c>
+      <c r="KM5" s="3">
+        <v>7921</v>
+      </c>
+      <c r="KN5" s="3">
+        <v>8116</v>
+      </c>
+      <c r="KO5">
+        <v>8649</v>
+      </c>
     </row>
     <row r="6" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -24274,6 +24379,15 @@
       <c r="KL6" s="3">
         <v>1926</v>
       </c>
+      <c r="KM6" s="3">
+        <v>2267</v>
+      </c>
+      <c r="KN6" s="3">
+        <v>2397</v>
+      </c>
+      <c r="KO6">
+        <v>2481</v>
+      </c>
     </row>
     <row r="7" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -25170,6 +25284,15 @@
       <c r="KL7" s="3">
         <v>1621</v>
       </c>
+      <c r="KM7" s="3">
+        <v>1591</v>
+      </c>
+      <c r="KN7" s="3">
+        <v>1597</v>
+      </c>
+      <c r="KO7">
+        <v>1625</v>
+      </c>
     </row>
     <row r="8" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -26066,6 +26189,15 @@
       <c r="KL8" s="3">
         <v>531</v>
       </c>
+      <c r="KM8" s="3">
+        <v>538</v>
+      </c>
+      <c r="KN8" s="3">
+        <v>544</v>
+      </c>
+      <c r="KO8">
+        <v>565</v>
+      </c>
     </row>
     <row r="9" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -26962,6 +27094,15 @@
       <c r="KL9" s="3">
         <v>1351</v>
       </c>
+      <c r="KM9" s="3">
+        <v>1284</v>
+      </c>
+      <c r="KN9" s="3">
+        <v>1344</v>
+      </c>
+      <c r="KO9">
+        <v>1320</v>
+      </c>
     </row>
     <row r="10" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -27858,6 +27999,15 @@
       <c r="KL10" s="3">
         <v>3846</v>
       </c>
+      <c r="KM10" s="3">
+        <v>4017</v>
+      </c>
+      <c r="KN10" s="3">
+        <v>3988</v>
+      </c>
+      <c r="KO10">
+        <v>4116</v>
+      </c>
     </row>
     <row r="11" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -28754,6 +28904,15 @@
       <c r="KL11" s="3">
         <v>1029</v>
       </c>
+      <c r="KM11" s="3">
+        <v>984</v>
+      </c>
+      <c r="KN11" s="3">
+        <v>1048</v>
+      </c>
+      <c r="KO11">
+        <v>1058</v>
+      </c>
     </row>
     <row r="12" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -29650,6 +29809,15 @@
       <c r="KL12" s="3">
         <v>5208</v>
       </c>
+      <c r="KM12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="KN12" s="3">
+        <v>5066</v>
+      </c>
+      <c r="KO12">
+        <v>5206</v>
+      </c>
     </row>
     <row r="13" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -30546,6 +30714,15 @@
       <c r="KL13" s="3">
         <v>11469</v>
       </c>
+      <c r="KM13" s="3">
+        <v>11630</v>
+      </c>
+      <c r="KN13" s="3">
+        <v>11512</v>
+      </c>
+      <c r="KO13">
+        <v>11565</v>
+      </c>
     </row>
     <row r="14" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -31442,6 +31619,15 @@
       <c r="KL14" s="3">
         <v>2167</v>
       </c>
+      <c r="KM14" s="3">
+        <v>2207</v>
+      </c>
+      <c r="KN14" s="3">
+        <v>1996</v>
+      </c>
+      <c r="KO14">
+        <v>2036</v>
+      </c>
     </row>
     <row r="15" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -32338,6 +32524,15 @@
       <c r="KL15" s="3">
         <v>651</v>
       </c>
+      <c r="KM15" s="3">
+        <v>677</v>
+      </c>
+      <c r="KN15" s="3">
+        <v>718</v>
+      </c>
+      <c r="KO15">
+        <v>723</v>
+      </c>
     </row>
     <row r="16" spans="1:310" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -33234,8 +33429,17 @@
       <c r="KL16" s="3">
         <v>3067</v>
       </c>
-    </row>
-    <row r="17" spans="1:298" x14ac:dyDescent="0.25">
+      <c r="KM16" s="3">
+        <v>3177</v>
+      </c>
+      <c r="KN16" s="3">
+        <v>3167</v>
+      </c>
+      <c r="KO16">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -34130,8 +34334,17 @@
       <c r="KL17" s="3">
         <v>1877</v>
       </c>
-    </row>
-    <row r="18" spans="1:298" x14ac:dyDescent="0.25">
+      <c r="KM17" s="3">
+        <v>1947</v>
+      </c>
+      <c r="KN17" s="3">
+        <v>1879</v>
+      </c>
+      <c r="KO17">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:301" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -35026,8 +35239,17 @@
       <c r="KL18" s="3">
         <v>1476</v>
       </c>
-    </row>
-    <row r="19" spans="1:298" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="KM18" s="3">
+        <v>1459</v>
+      </c>
+      <c r="KN18" s="3">
+        <v>1470</v>
+      </c>
+      <c r="KO18">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:301" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -35922,8 +36144,17 @@
       <c r="KL19" s="3">
         <v>2585</v>
       </c>
-    </row>
-    <row r="20" spans="1:298" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="KM19" s="3">
+        <v>2677</v>
+      </c>
+      <c r="KN19" s="3">
+        <v>2699</v>
+      </c>
+      <c r="KO19">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:301" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -36863,6 +37094,16 @@
       </c>
       <c r="KL20" s="12">
         <v>52034</v>
+      </c>
+      <c r="KM20" s="12">
+        <v>53048</v>
+      </c>
+      <c r="KN20" s="12">
+        <v>53092</v>
+      </c>
+      <c r="KO20" s="1">
+        <f>SUM(KO4:KO19)</f>
+        <v>54716</v>
       </c>
     </row>
   </sheetData>
@@ -36877,8 +37118,8 @@
   <dimension ref="A2:LD21"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KL25" sqref="KL25"/>
+      <pane xSplit="1" topLeftCell="JU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KM31" sqref="KM31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36947,7 +37188,7 @@
   <sheetData>
     <row r="2" spans="1:316" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="3" spans="1:316" x14ac:dyDescent="0.25">
@@ -38792,9 +39033,15 @@
       <c r="KM4" s="16">
         <v>48.827095686873818</v>
       </c>
-      <c r="KN4" s="16"/>
-      <c r="KO4" s="16"/>
-      <c r="KP4" s="16"/>
+      <c r="KN4" s="16">
+        <v>49.295547527412097</v>
+      </c>
+      <c r="KO4" s="16">
+        <v>50.007233977460622</v>
+      </c>
+      <c r="KP4" s="16">
+        <v>51.953110853542682</v>
+      </c>
       <c r="KQ4" s="16"/>
       <c r="KR4" s="16"/>
       <c r="KS4" s="16"/>
@@ -39708,9 +39955,15 @@
       <c r="KM5" s="16">
         <v>59.505954290741215</v>
       </c>
-      <c r="KN5" s="16"/>
-      <c r="KO5" s="16"/>
-      <c r="KP5" s="16"/>
+      <c r="KN5" s="16">
+        <v>60.351685523298478</v>
+      </c>
+      <c r="KO5" s="16">
+        <v>61.837429580493684</v>
+      </c>
+      <c r="KP5" s="16">
+        <v>65.898463336827248</v>
+      </c>
       <c r="KQ5" s="16"/>
       <c r="KR5" s="16"/>
       <c r="KS5" s="16"/>
@@ -40624,9 +40877,15 @@
       <c r="KM6" s="16">
         <v>52.486843543150805</v>
       </c>
-      <c r="KN6" s="16"/>
-      <c r="KO6" s="16"/>
-      <c r="KP6" s="16"/>
+      <c r="KN6" s="16">
+        <v>61.779685520416862</v>
+      </c>
+      <c r="KO6" s="16">
+        <v>65.322411200899523</v>
+      </c>
+      <c r="KP6" s="16">
+        <v>67.611557025211397</v>
+      </c>
       <c r="KQ6" s="16"/>
       <c r="KR6" s="16"/>
       <c r="KS6" s="16"/>
@@ -41540,9 +41799,15 @@
       <c r="KM7" s="16">
         <v>64.277112470671838</v>
       </c>
-      <c r="KN7" s="16"/>
-      <c r="KO7" s="16"/>
-      <c r="KP7" s="16"/>
+      <c r="KN7" s="16">
+        <v>63.087529883305912</v>
+      </c>
+      <c r="KO7" s="16">
+        <v>63.325446400779093</v>
+      </c>
+      <c r="KP7" s="16">
+        <v>64.435723482320626</v>
+      </c>
       <c r="KQ7" s="16"/>
       <c r="KR7" s="16"/>
       <c r="KS7" s="16"/>
@@ -42456,9 +42721,15 @@
       <c r="KM8" s="16">
         <v>77.950446416775051</v>
       </c>
-      <c r="KN8" s="16"/>
-      <c r="KO8" s="16"/>
-      <c r="KP8" s="16"/>
+      <c r="KN8" s="16">
+        <v>78.978041755602604</v>
+      </c>
+      <c r="KO8" s="16">
+        <v>79.858837760311914</v>
+      </c>
+      <c r="KP8" s="16">
+        <v>82.941623776794543</v>
+      </c>
       <c r="KQ8" s="16"/>
       <c r="KR8" s="16"/>
       <c r="KS8" s="16"/>
@@ -43372,9 +43643,15 @@
       <c r="KM9" s="16">
         <v>73.135623544798676</v>
       </c>
-      <c r="KN9" s="16"/>
-      <c r="KO9" s="16"/>
-      <c r="KP9" s="16"/>
+      <c r="KN9" s="16">
+        <v>69.508616307565887</v>
+      </c>
+      <c r="KO9" s="16">
+        <v>72.756682490162419</v>
+      </c>
+      <c r="KP9" s="16">
+        <v>71.457456017123803</v>
+      </c>
       <c r="KQ9" s="16"/>
       <c r="KR9" s="16"/>
       <c r="KS9" s="16"/>
@@ -44288,9 +44565,15 @@
       <c r="KM10" s="16">
         <v>61.163343977811984</v>
       </c>
-      <c r="KN10" s="16"/>
-      <c r="KO10" s="16"/>
-      <c r="KP10" s="16"/>
+      <c r="KN10" s="16">
+        <v>63.882775028307528</v>
+      </c>
+      <c r="KO10" s="16">
+        <v>63.421584967112373</v>
+      </c>
+      <c r="KP10" s="16">
+        <v>65.457182478594419</v>
+      </c>
       <c r="KQ10" s="16"/>
       <c r="KR10" s="16"/>
       <c r="KS10" s="16"/>
@@ -45204,9 +45487,15 @@
       <c r="KM11" s="16">
         <v>63.987045887852908</v>
       </c>
-      <c r="KN11" s="16"/>
-      <c r="KO11" s="16"/>
-      <c r="KP11" s="16"/>
+      <c r="KN11" s="16">
+        <v>61.188778574973043</v>
+      </c>
+      <c r="KO11" s="16">
+        <v>65.168536531068852</v>
+      </c>
+      <c r="KP11" s="16">
+        <v>65.790373711708824</v>
+      </c>
       <c r="KQ11" s="16"/>
       <c r="KR11" s="16"/>
       <c r="KS11" s="16"/>
@@ -46120,9 +46409,15 @@
       <c r="KM12" s="16">
         <v>65.152056493138019</v>
       </c>
-      <c r="KN12" s="16"/>
-      <c r="KO12" s="16"/>
-      <c r="KP12" s="16"/>
+      <c r="KN12" s="16">
+        <v>65.051976529246872</v>
+      </c>
+      <c r="KO12" s="16">
+        <v>63.375637134070118</v>
+      </c>
+      <c r="KP12" s="16">
+        <v>65.12703650216524</v>
+      </c>
       <c r="KQ12" s="16"/>
       <c r="KR12" s="16"/>
       <c r="KS12" s="16"/>
@@ -47036,9 +47331,15 @@
       <c r="KM13" s="16">
         <v>63.904043974273236</v>
       </c>
-      <c r="KN13" s="16"/>
-      <c r="KO13" s="16"/>
-      <c r="KP13" s="16"/>
+      <c r="KN13" s="16">
+        <v>64.801118791594533</v>
+      </c>
+      <c r="KO13" s="16">
+        <v>64.143635385110599</v>
+      </c>
+      <c r="KP13" s="16">
+        <v>64.438945728700844</v>
+      </c>
       <c r="KQ13" s="16"/>
       <c r="KR13" s="16"/>
       <c r="KS13" s="16"/>
@@ -47952,9 +48253,15 @@
       <c r="KM14" s="16">
         <v>52.932372848110958</v>
       </c>
-      <c r="KN14" s="16"/>
-      <c r="KO14" s="16"/>
-      <c r="KP14" s="16"/>
+      <c r="KN14" s="16">
+        <v>53.909435567965346</v>
+      </c>
+      <c r="KO14" s="16">
+        <v>48.755429720733495</v>
+      </c>
+      <c r="KP14" s="16">
+        <v>49.732492440587869</v>
+      </c>
       <c r="KQ14" s="16"/>
       <c r="KR14" s="16"/>
       <c r="KS14" s="16"/>
@@ -48868,9 +49175,15 @@
       <c r="KM15" s="16">
         <v>65.9649990323107</v>
       </c>
-      <c r="KN15" s="16"/>
-      <c r="KO15" s="16"/>
-      <c r="KP15" s="16"/>
+      <c r="KN15" s="16">
+        <v>68.599545844661037</v>
+      </c>
+      <c r="KO15" s="16">
+        <v>72.754023510290438</v>
+      </c>
+      <c r="KP15" s="16">
+        <v>73.26066712805013</v>
+      </c>
       <c r="KQ15" s="16"/>
       <c r="KR15" s="16"/>
       <c r="KS15" s="16"/>
@@ -49784,9 +50097,15 @@
       <c r="KM16" s="16">
         <v>75.319789851155619</v>
       </c>
-      <c r="KN16" s="16"/>
-      <c r="KO16" s="16"/>
-      <c r="KP16" s="16"/>
+      <c r="KN16" s="16">
+        <v>78.021184335546593</v>
+      </c>
+      <c r="KO16" s="16">
+        <v>77.775603018783784</v>
+      </c>
+      <c r="KP16" s="16">
+        <v>84.308066044674689</v>
+      </c>
       <c r="KQ16" s="16"/>
       <c r="KR16" s="16"/>
       <c r="KS16" s="16"/>
@@ -50700,9 +51019,15 @@
       <c r="KM17" s="16">
         <v>85.521022133405509</v>
       </c>
-      <c r="KN17" s="16"/>
-      <c r="KO17" s="16"/>
-      <c r="KP17" s="16"/>
+      <c r="KN17" s="16">
+        <v>88.710404951380141</v>
+      </c>
+      <c r="KO17" s="16">
+        <v>85.612147356776205</v>
+      </c>
+      <c r="KP17" s="16">
+        <v>92.036475604410825</v>
+      </c>
       <c r="KQ17" s="16"/>
       <c r="KR17" s="16"/>
       <c r="KS17" s="16"/>
@@ -51616,9 +51941,15 @@
       <c r="KM18" s="16">
         <v>50.830419595471135</v>
       </c>
-      <c r="KN18" s="16"/>
-      <c r="KO18" s="16"/>
-      <c r="KP18" s="16"/>
+      <c r="KN18" s="16">
+        <v>50.24497438332817</v>
+      </c>
+      <c r="KO18" s="16">
+        <v>50.623791873538323</v>
+      </c>
+      <c r="KP18" s="16">
+        <v>50.072784615050836</v>
+      </c>
       <c r="KQ18" s="16"/>
       <c r="KR18" s="16"/>
       <c r="KS18" s="16"/>
@@ -52532,9 +52863,15 @@
       <c r="KM19" s="16">
         <v>121.16933801698526</v>
       </c>
-      <c r="KN19" s="16"/>
-      <c r="KO19" s="16"/>
-      <c r="KP19" s="16"/>
+      <c r="KN19" s="16">
+        <v>125.48174772590698</v>
+      </c>
+      <c r="KO19" s="16">
+        <v>126.51297613456218</v>
+      </c>
+      <c r="KP19" s="16">
+        <v>126.46610211598694</v>
+      </c>
       <c r="KQ19" s="16"/>
       <c r="KR19" s="16"/>
       <c r="KS19" s="16"/>
@@ -53448,9 +53785,15 @@
       <c r="KM20" s="17">
         <v>62.565898511965919</v>
       </c>
-      <c r="KN20" s="17"/>
-      <c r="KO20" s="17"/>
-      <c r="KP20" s="17"/>
+      <c r="KN20" s="17">
+        <v>63.785136338985438</v>
+      </c>
+      <c r="KO20" s="17">
+        <v>63.838042122406399</v>
+      </c>
+      <c r="KP20" s="17">
+        <v>65.790746492307477</v>
+      </c>
       <c r="KQ20" s="17"/>
       <c r="KR20" s="17"/>
       <c r="KS20" s="17"/>

--- a/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
+++ b/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE67D33-E8F8-4E52-9688-1A64B3DDC55F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFC9250-3643-448C-B424-6276B50D4502}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="160" windowWidth="15280" windowHeight="10800" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2090" yWindow="170" windowWidth="15290" windowHeight="10800" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tageswerte berechnet" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="1031">
   <si>
     <t>Todesfälle</t>
   </si>
@@ -3117,10 +3117,25 @@
     <t>08.03.2021</t>
   </si>
   <si>
-    <t>Stand: 09.03.2021 05:25:55</t>
-  </si>
-  <si>
     <t>09.03.2021</t>
+  </si>
+  <si>
+    <t>10.03.2021</t>
+  </si>
+  <si>
+    <t>11.03.2021</t>
+  </si>
+  <si>
+    <t>12.03.2021</t>
+  </si>
+  <si>
+    <t>13.03.2021</t>
+  </si>
+  <si>
+    <t>Stand: 14.03.2021 07:19:53</t>
+  </si>
+  <si>
+    <t>14.03.2021</t>
   </si>
 </sst>
 </file>
@@ -3708,7 +3723,7 @@
   <dimension ref="A2:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:E31"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3718,13 +3733,13 @@
     <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.453125" customWidth="1"/>
     <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
     <col min="7" max="8" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
@@ -3743,10 +3758,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>6698</v>
+        <v>8176</v>
       </c>
       <c r="C6" s="29">
-        <v>60.340200537025986</v>
+        <v>73.655043235402275</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3754,10 +3769,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>9744</v>
+        <v>11293</v>
       </c>
       <c r="C7" s="29">
-        <v>74.24148765800031</v>
+        <v>86.043628912335535</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3765,10 +3780,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>2176</v>
+        <v>2598</v>
       </c>
       <c r="C8" s="29">
-        <v>59.299777544078999</v>
+        <v>70.800010137645799</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3776,10 +3791,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>1552</v>
+        <v>1964</v>
       </c>
       <c r="C9" s="29">
-        <v>61.541072519730221</v>
+        <v>77.878006719555501</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3787,10 +3802,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="C10" s="29">
-        <v>64.444907677898769</v>
+        <v>67.968091696736067</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3798,10 +3813,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>1334</v>
+        <v>1468</v>
       </c>
       <c r="C11" s="29">
-        <v>72.215338126396333</v>
+        <v>79.469352600861939</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3809,10 +3824,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>4322</v>
+        <v>5283</v>
       </c>
       <c r="C12" s="29">
-        <v>68.733222223635835</v>
+        <v>84.016106665309593</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3820,10 +3835,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1061</v>
+        <v>1011</v>
       </c>
       <c r="C13" s="29">
-        <v>65.976924865900813</v>
+        <v>62.867738962700962</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3831,10 +3846,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>4974</v>
+        <v>5201</v>
       </c>
       <c r="C14" s="29">
-        <v>62.224717549321909</v>
+        <v>65.064486524733255</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3842,10 +3857,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>11836</v>
+        <v>14158</v>
       </c>
       <c r="C15" s="29">
-        <v>65.948928806303769</v>
+        <v>78.88686499152152</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3853,10 +3868,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>1894</v>
+        <v>2135</v>
       </c>
       <c r="C16" s="29">
-        <v>46.263919785104825</v>
+        <v>52.150722672227459</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3864,10 +3879,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="C17" s="29">
-        <v>57.352057530396081</v>
+        <v>55.730797953565101</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3875,10 +3890,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>3437</v>
+        <v>4278</v>
       </c>
       <c r="C18" s="29">
-        <v>84.406298571379807</v>
+        <v>105.05968731113263</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3886,10 +3901,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>1945</v>
+        <v>2259</v>
       </c>
       <c r="C19" s="29">
-        <v>88.619279728009431</v>
+        <v>102.92593979720994</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3897,10 +3912,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>1317</v>
+        <v>1461</v>
       </c>
       <c r="C20" s="29">
-        <v>45.354784964251685</v>
+        <v>50.31385029063911</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3908,10 +3923,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>2875</v>
+        <v>3448</v>
       </c>
       <c r="C21" s="29">
-        <v>134.76280340380373</v>
+        <v>161.62161604741399</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -3920,11 +3935,11 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B6:B21)</f>
-        <v>56170</v>
+        <v>65746</v>
       </c>
       <c r="C22" s="30">
         <f>B22/A36*100000</f>
-        <v>67.539042153536656</v>
+        <v>79.053264472608518</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -3946,10 +3961,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="B31">
-        <v>2509445</v>
+        <v>2569245</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -3958,7 +3973,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>72189</v>
+        <v>73371</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="13" x14ac:dyDescent="0.3">
@@ -3995,7 +4010,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13" x14ac:dyDescent="0.3">
@@ -4020,10 +4035,10 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="D6" s="29">
-        <v>80.427125484300007</v>
+        <v>83.479047656700004</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4034,10 +4049,10 @@
         <v>120</v>
       </c>
       <c r="C7">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D7" s="29">
-        <v>77.640945220899994</v>
+        <v>59.960333932899999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4048,10 +4063,10 @@
         <v>122</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D8" s="29">
-        <v>31.190820986999999</v>
+        <v>43.8156771007</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4062,10 +4077,10 @@
         <v>124</v>
       </c>
       <c r="C9">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="D9" s="29">
-        <v>84.231464003699998</v>
+        <v>101.9911100286</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4076,10 +4091,10 @@
         <v>126</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D10" s="29">
-        <v>111.86558231630001</v>
+        <v>167.79837347439999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4090,10 +4105,10 @@
         <v>128</v>
       </c>
       <c r="C11">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="D11" s="29">
-        <v>83.847676720600006</v>
+        <v>112.57326967119999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4104,10 +4119,10 @@
         <v>130</v>
       </c>
       <c r="C12">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D12" s="29">
-        <v>54.1040962812</v>
+        <v>27.653204766000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4118,10 +4133,10 @@
         <v>132</v>
       </c>
       <c r="C13">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D13" s="29">
-        <v>100.4340184368</v>
+        <v>104.0209476667</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4132,10 +4147,10 @@
         <v>134</v>
       </c>
       <c r="C14">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="29">
-        <v>32.385667029099999</v>
+        <v>31.6145797189</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4146,10 +4161,10 @@
         <v>136</v>
       </c>
       <c r="C15">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D15" s="29">
-        <v>182.43419338020001</v>
+        <v>175.32636766409999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4160,10 +4175,10 @@
         <v>138</v>
       </c>
       <c r="C16">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D16" s="29">
-        <v>155.2659414453</v>
+        <v>149.4434686411</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4174,10 +4189,10 @@
         <v>140</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D17" s="29">
-        <v>68.076790619799993</v>
+        <v>72.882211134200006</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4188,10 +4203,10 @@
         <v>142</v>
       </c>
       <c r="C18">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D18" s="29">
-        <v>62.466085332500001</v>
+        <v>71.930643716199995</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4216,10 +4231,10 @@
         <v>146</v>
       </c>
       <c r="C20">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D20" s="29">
-        <v>86.136377179799993</v>
+        <v>91.012021171100002</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4230,10 +4245,10 @@
         <v>148</v>
       </c>
       <c r="C21">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D21" s="29">
-        <v>90.138305963199997</v>
+        <v>99.997183177899998</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4244,10 +4259,10 @@
         <v>150</v>
       </c>
       <c r="C22">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="D22" s="29">
-        <v>63.719862227299998</v>
+        <v>78.645235361700003</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4258,10 +4273,10 @@
         <v>152</v>
       </c>
       <c r="C23">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D23" s="29">
-        <v>64.063227033299995</v>
+        <v>68.109325582799997</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4272,10 +4287,10 @@
         <v>154</v>
       </c>
       <c r="C24">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D24" s="29">
-        <v>62.729812047300001</v>
+        <v>68.253191724399997</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4286,10 +4301,10 @@
         <v>156</v>
       </c>
       <c r="C25">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D25" s="29">
-        <v>27.412569717499998</v>
+        <v>35.3200417515</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4300,10 +4315,10 @@
         <v>158</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D26" s="29">
-        <v>26.381047855199999</v>
+        <v>45.978397690500003</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4314,10 +4329,10 @@
         <v>160</v>
       </c>
       <c r="C27">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D27" s="29">
-        <v>64.900469801900002</v>
+        <v>84.273744369599996</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4328,10 +4343,10 @@
         <v>162</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D28" s="29">
-        <v>31.576620670099999</v>
+        <v>23.998231709199999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4342,10 +4357,10 @@
         <v>164</v>
       </c>
       <c r="C29">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D29" s="29">
-        <v>28.925006058600001</v>
+        <v>44.560144468700003</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4356,10 +4371,10 @@
         <v>166</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D30" s="29">
-        <v>43.490078825799998</v>
+        <v>61.610945003200001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4370,10 +4385,10 @@
         <v>168</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D31" s="29">
-        <v>37.480774947299999</v>
+        <v>55.574942163300001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4384,10 +4399,10 @@
         <v>170</v>
       </c>
       <c r="C32">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D32" s="29">
-        <v>46.886785401200001</v>
+        <v>38.053043224200003</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4398,10 +4413,10 @@
         <v>172</v>
       </c>
       <c r="C33">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D33" s="29">
-        <v>59.381140549800001</v>
+        <v>53.982855045199997</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4412,10 +4427,10 @@
         <v>174</v>
       </c>
       <c r="C34">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="D34" s="29">
-        <v>98.079117154499997</v>
+        <v>92.741478125699999</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4426,10 +4441,10 @@
         <v>176</v>
       </c>
       <c r="C35">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D35" s="29">
-        <v>73.546126793499994</v>
+        <v>90.929756762899999</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4440,10 +4455,10 @@
         <v>178</v>
       </c>
       <c r="C36">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D36" s="29">
-        <v>109.97067448679999</v>
+        <v>88.748263620900005</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4454,10 +4469,10 @@
         <v>180</v>
       </c>
       <c r="C37">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D37" s="29">
-        <v>91.570769100099994</v>
+        <v>107.6192544063</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4468,10 +4483,10 @@
         <v>182</v>
       </c>
       <c r="C38">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="D38" s="29">
-        <v>55.855589258000002</v>
+        <v>77.679958570699995</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4482,10 +4497,10 @@
         <v>184</v>
       </c>
       <c r="C39">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="D39" s="29">
-        <v>57.416096243699997</v>
+        <v>64.294066106299994</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4496,10 +4511,10 @@
         <v>186</v>
       </c>
       <c r="C40">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="D40" s="29">
-        <v>47.8623266763</v>
+        <v>64.880042827899999</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4510,10 +4525,10 @@
         <v>188</v>
       </c>
       <c r="C41">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="D41" s="29">
-        <v>59.332267679300003</v>
+        <v>65.614507786499999</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -4524,10 +4539,10 @@
         <v>190</v>
       </c>
       <c r="C42">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="D42" s="29">
-        <v>63.125791449099999</v>
+        <v>74.153791160099999</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4538,10 +4553,10 @@
         <v>192</v>
       </c>
       <c r="C43">
-        <v>162</v>
+        <v>297</v>
       </c>
       <c r="D43" s="29">
-        <v>43.17259979</v>
+        <v>79.149766281699996</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4552,10 +4567,10 @@
         <v>194</v>
       </c>
       <c r="C44">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="D44" s="29">
-        <v>80.965860433499998</v>
+        <v>74.426310167799997</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4566,10 +4581,10 @@
         <v>196</v>
       </c>
       <c r="C45">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="D45" s="29">
-        <v>25.877056346700002</v>
+        <v>54.768915374499997</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4580,10 +4595,10 @@
         <v>198</v>
       </c>
       <c r="C46">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D46" s="29">
-        <v>83.176414865500007</v>
+        <v>88.567478791900001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4594,10 +4609,10 @@
         <v>200</v>
       </c>
       <c r="C47">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="D47" s="29">
-        <v>53.970604847300002</v>
+        <v>75.726197498900007</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -4608,10 +4623,10 @@
         <v>202</v>
       </c>
       <c r="C48">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="D48" s="29">
-        <v>55.596554337400001</v>
+        <v>66.8482379533</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4622,10 +4637,10 @@
         <v>204</v>
       </c>
       <c r="C49">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D49" s="29">
-        <v>91.581522184400001</v>
+        <v>88.655594957999995</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4636,10 +4651,10 @@
         <v>206</v>
       </c>
       <c r="C50">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D50" s="29">
-        <v>60.790729788999997</v>
+        <v>55.161958512200002</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4650,10 +4665,10 @@
         <v>208</v>
       </c>
       <c r="C51">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D51" s="29">
-        <v>18.6694878337</v>
+        <v>48.007254429600003</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -4664,10 +4679,10 @@
         <v>210</v>
       </c>
       <c r="C52">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="D52" s="29">
-        <v>84.955435657400002</v>
+        <v>66.573265368999998</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4678,10 +4693,10 @@
         <v>212</v>
       </c>
       <c r="C53">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="D53" s="29">
-        <v>30.2218764494</v>
+        <v>43.986295426300003</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4692,10 +4707,10 @@
         <v>214</v>
       </c>
       <c r="C54">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D54" s="29">
-        <v>49.412607626800003</v>
+        <v>45.706662054799999</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4706,10 +4721,10 @@
         <v>216</v>
       </c>
       <c r="C55">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D55" s="29">
-        <v>27.2567586666</v>
+        <v>42.399402370300002</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4720,10 +4735,10 @@
         <v>218</v>
       </c>
       <c r="C56">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="D56" s="29">
-        <v>34.368022973099997</v>
+        <v>51.424745485700001</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4734,10 +4749,10 @@
         <v>220</v>
       </c>
       <c r="C57">
-        <v>194</v>
+        <v>292</v>
       </c>
       <c r="D57" s="29">
-        <v>53.065344227200001</v>
+        <v>79.871549043000002</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4748,10 +4763,10 @@
         <v>222</v>
       </c>
       <c r="C58">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="D58" s="29">
-        <v>68.975031038799997</v>
+        <v>55.639858371300001</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4762,10 +4777,10 @@
         <v>224</v>
       </c>
       <c r="C59">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D59" s="29">
-        <v>57.026204754399998</v>
+        <v>53.689565114499999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4776,10 +4791,10 @@
         <v>226</v>
       </c>
       <c r="C60">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="D60" s="29">
-        <v>81.323168912300005</v>
+        <v>100.0450495252</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4790,10 +4805,10 @@
         <v>228</v>
       </c>
       <c r="C61">
-        <v>242</v>
+        <v>332</v>
       </c>
       <c r="D61" s="29">
-        <v>65.169562044399996</v>
+        <v>89.406176027800001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4804,10 +4819,10 @@
         <v>230</v>
       </c>
       <c r="C62">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D62" s="29">
-        <v>34.8743248416</v>
+        <v>43.3802577298</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -4818,10 +4833,10 @@
         <v>232</v>
       </c>
       <c r="C63">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D63" s="29">
-        <v>30.4776681813</v>
+        <v>55.4139421478</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4832,10 +4847,10 @@
         <v>234</v>
       </c>
       <c r="C64">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="D64" s="29">
-        <v>47.7133669599</v>
+        <v>65.355284155199996</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4846,10 +4861,10 @@
         <v>236</v>
       </c>
       <c r="C65">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D65" s="29">
-        <v>73.975440153899996</v>
+        <v>69.802466606699994</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4860,10 +4875,10 @@
         <v>238</v>
       </c>
       <c r="C66">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="D66" s="29">
-        <v>58.1437348364</v>
+        <v>63.253335776500002</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4874,10 +4889,10 @@
         <v>240</v>
       </c>
       <c r="C67">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D67" s="29">
-        <v>95.914398599099997</v>
+        <v>91.514655544099995</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4888,10 +4903,10 @@
         <v>242</v>
       </c>
       <c r="C68">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="D68" s="29">
-        <v>156.5592744596</v>
+        <v>168.30122004410001</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4902,10 +4917,10 @@
         <v>244</v>
       </c>
       <c r="C69">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="D69" s="29">
-        <v>51.507214150700001</v>
+        <v>74.748274194299995</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4916,10 +4931,10 @@
         <v>246</v>
       </c>
       <c r="C70">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D70" s="29">
-        <v>64.800487120900002</v>
+        <v>78.207484456299994</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4930,10 +4945,10 @@
         <v>248</v>
       </c>
       <c r="C71">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D71" s="29">
-        <v>156.25244144440001</v>
+        <v>195.31555180550001</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4944,10 +4959,10 @@
         <v>250</v>
       </c>
       <c r="C72">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="D72" s="29">
-        <v>77.537002606200005</v>
+        <v>95.398929908200003</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4958,10 +4973,10 @@
         <v>252</v>
       </c>
       <c r="C73">
-        <v>244</v>
+        <v>148</v>
       </c>
       <c r="D73" s="29">
-        <v>142.9559063053</v>
+        <v>86.710959562200003</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4972,10 +4987,10 @@
         <v>254</v>
       </c>
       <c r="C74">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D74" s="29">
-        <v>51.129723412499999</v>
+        <v>38.955979742899999</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4986,10 +5001,10 @@
         <v>256</v>
       </c>
       <c r="C75">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D75" s="29">
-        <v>61.097213736500002</v>
+        <v>40.347216618399997</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -5000,10 +5015,10 @@
         <v>258</v>
       </c>
       <c r="C76">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D76" s="29">
-        <v>35.845213849300002</v>
+        <v>14.6639511202</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -5014,10 +5029,10 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D77" s="29">
-        <v>27.6536135566</v>
+        <v>43.067103080000003</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -5028,10 +5043,10 @@
         <v>262</v>
       </c>
       <c r="C78">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D78" s="29">
-        <v>70.226128132599996</v>
+        <v>93.300427376200005</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -5042,10 +5057,10 @@
         <v>264</v>
       </c>
       <c r="C79">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D79" s="29">
-        <v>60.594431371799999</v>
+        <v>56.554802613600003</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -5056,10 +5071,10 @@
         <v>266</v>
       </c>
       <c r="C80">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="D80" s="29">
-        <v>49.0642289492</v>
+        <v>78.115417142799998</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -5084,10 +5099,10 @@
         <v>270</v>
       </c>
       <c r="C82">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D82" s="29">
-        <v>43.157907904799998</v>
+        <v>49.4126771663</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5098,10 +5113,10 @@
         <v>272</v>
       </c>
       <c r="C83">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="D83" s="29">
-        <v>48.0117108285</v>
+        <v>58.084097715600002</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5112,10 +5127,10 @@
         <v>274</v>
       </c>
       <c r="C84">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D84" s="29">
-        <v>117.17638393679999</v>
+        <v>98.762952175300001</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5126,10 +5141,10 @@
         <v>276</v>
       </c>
       <c r="C85">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D85" s="29">
-        <v>52.862981730000001</v>
+        <v>82.517825139600006</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5140,10 +5155,10 @@
         <v>278</v>
       </c>
       <c r="C86">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D86" s="29">
-        <v>54.929278553899998</v>
+        <v>68.661598192300005</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -5154,10 +5169,10 @@
         <v>280</v>
       </c>
       <c r="C87">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="D87" s="29">
-        <v>32.7054802408</v>
+        <v>50.670462344900002</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -5168,10 +5183,10 @@
         <v>282</v>
       </c>
       <c r="C88">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D88" s="29">
-        <v>23.818893560599999</v>
+        <v>46.602183053399997</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -5182,10 +5197,10 @@
         <v>284</v>
       </c>
       <c r="C89">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D89" s="29">
-        <v>104.46510761970001</v>
+        <v>112.7395715896</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -5210,10 +5225,10 @@
         <v>288</v>
       </c>
       <c r="C91">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D91" s="29">
-        <v>26.909248559200002</v>
+        <v>53.818497118499998</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -5224,10 +5239,10 @@
         <v>290</v>
       </c>
       <c r="C92">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D92" s="29">
-        <v>25.224029206800001</v>
+        <v>35.844673083300002</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -5238,10 +5253,10 @@
         <v>292</v>
       </c>
       <c r="C93">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="D93" s="29">
-        <v>62.388440289000002</v>
+        <v>66.808329791800006</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -5252,10 +5267,10 @@
         <v>294</v>
       </c>
       <c r="C94">
-        <v>327</v>
+        <v>452</v>
       </c>
       <c r="D94" s="29">
-        <v>58.730557850499999</v>
+        <v>81.181076906499996</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -5266,10 +5281,10 @@
         <v>296</v>
       </c>
       <c r="C95">
-        <v>437</v>
+        <v>566</v>
       </c>
       <c r="D95" s="29">
-        <v>87.630292408399995</v>
+        <v>113.4982734627</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -5280,10 +5295,10 @@
         <v>298</v>
       </c>
       <c r="C96">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D96" s="29">
-        <v>128.8552664394</v>
+        <v>126.58801834960001</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -5294,10 +5309,10 @@
         <v>300</v>
       </c>
       <c r="C97">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="D97" s="29">
-        <v>51.7787279478</v>
+        <v>58.693278574399997</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -5308,10 +5323,10 @@
         <v>302</v>
       </c>
       <c r="C98">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D98" s="29">
-        <v>43.160759907799999</v>
+        <v>66.133422439399993</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -5322,10 +5337,10 @@
         <v>304</v>
       </c>
       <c r="C99">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="D99" s="29">
-        <v>154.99070055799999</v>
+        <v>122.9926204428</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -5336,10 +5351,10 @@
         <v>306</v>
       </c>
       <c r="C100">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D100" s="29">
-        <v>18.0612728682</v>
+        <v>22.576591085299999</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -5350,10 +5365,10 @@
         <v>308</v>
       </c>
       <c r="C101">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D101" s="29">
-        <v>68.639053254399997</v>
+        <v>92.307692307699995</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -5364,10 +5379,10 @@
         <v>310</v>
       </c>
       <c r="C102">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="D102" s="29">
-        <v>105.0801850197</v>
+        <v>170.8780578825</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -5378,10 +5393,10 @@
         <v>312</v>
       </c>
       <c r="C103">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D103" s="29">
-        <v>52.090637709600003</v>
+        <v>38.0662352493</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -5392,10 +5407,10 @@
         <v>314</v>
       </c>
       <c r="C104">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D104" s="29">
-        <v>92.543627710199999</v>
+        <v>100.9566847748</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -5406,10 +5421,10 @@
         <v>316</v>
       </c>
       <c r="C105">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="D105" s="29">
-        <v>64.229218789200004</v>
+        <v>75.545795432999995</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -5420,10 +5435,10 @@
         <v>318</v>
       </c>
       <c r="C106">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D106" s="29">
-        <v>70.347355494799999</v>
+        <v>69.113191363300004</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -5434,10 +5449,10 @@
         <v>320</v>
       </c>
       <c r="C107">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D107" s="29">
-        <v>35.578985347500002</v>
+        <v>50.111246968300001</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -5448,10 +5463,10 @@
         <v>322</v>
       </c>
       <c r="C108">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D108" s="29">
-        <v>55.723610890000003</v>
+        <v>61.513076956500001</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -5462,10 +5477,10 @@
         <v>324</v>
       </c>
       <c r="C109">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D109" s="29">
-        <v>86.923605366800004</v>
+        <v>91.596917483300004</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -5476,10 +5491,10 @@
         <v>326</v>
       </c>
       <c r="C110">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D110" s="29">
-        <v>35.546708374799998</v>
+        <v>63.095407365299998</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -5490,10 +5505,10 @@
         <v>328</v>
       </c>
       <c r="C111">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D111" s="29">
-        <v>57.554166484500001</v>
+        <v>80.867246579500005</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -5504,10 +5519,10 @@
         <v>330</v>
       </c>
       <c r="C112">
-        <v>358</v>
+        <v>498</v>
       </c>
       <c r="D112" s="29">
-        <v>106.8822623213</v>
+        <v>148.67979507269999</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -5518,10 +5533,10 @@
         <v>332</v>
       </c>
       <c r="C113">
-        <v>341</v>
+        <v>450</v>
       </c>
       <c r="D113" s="29">
-        <v>58.514654403199998</v>
+        <v>77.218752144999996</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -5532,10 +5547,10 @@
         <v>334</v>
       </c>
       <c r="C114">
-        <v>360</v>
+        <v>523</v>
       </c>
       <c r="D114" s="29">
-        <v>67.286701157300001</v>
+        <v>97.752624181300007</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -5546,10 +5561,10 @@
         <v>336</v>
       </c>
       <c r="C115">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D115" s="29">
-        <v>44.925021687899999</v>
+        <v>39.761226091600001</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -5560,10 +5575,10 @@
         <v>338</v>
       </c>
       <c r="C116">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D116" s="29">
-        <v>96.490838915799998</v>
+        <v>78.745397276099993</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -5574,10 +5589,10 @@
         <v>340</v>
       </c>
       <c r="C117">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D117" s="29">
-        <v>97.243616774100005</v>
+        <v>98.964742734699996</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -5588,10 +5603,10 @@
         <v>342</v>
       </c>
       <c r="C118">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D118" s="29">
-        <v>67.675649070999995</v>
+        <v>133.30052089739999</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -5602,10 +5617,10 @@
         <v>344</v>
       </c>
       <c r="C119">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D119" s="29">
-        <v>19.0472892244</v>
+        <v>31.168291458199999</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -5616,10 +5631,10 @@
         <v>346</v>
       </c>
       <c r="C120">
-        <v>559</v>
+        <v>694</v>
       </c>
       <c r="D120" s="29">
-        <v>73.226964290400005</v>
+        <v>90.911472661100007</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -5630,10 +5645,10 @@
         <v>348</v>
       </c>
       <c r="C121">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D121" s="29">
-        <v>51.039166071899999</v>
+        <v>42.388459957999999</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -5644,10 +5659,10 @@
         <v>350</v>
       </c>
       <c r="C122">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="D122" s="29">
-        <v>89.440966184600001</v>
+        <v>68.886209980700002</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -5658,10 +5673,10 @@
         <v>352</v>
       </c>
       <c r="C123">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="D123" s="29">
-        <v>49.051529477400003</v>
+        <v>116.7088115153</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -5672,10 +5687,10 @@
         <v>354</v>
       </c>
       <c r="C124">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D124" s="29">
-        <v>153.13544830399999</v>
+        <v>139.09803220949999</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -5700,10 +5715,10 @@
         <v>358</v>
       </c>
       <c r="C126">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D126" s="29">
-        <v>106.6571063658</v>
+        <v>107.5533845706</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -5714,10 +5729,10 @@
         <v>360</v>
       </c>
       <c r="C127">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="D127" s="29">
-        <v>53.3488972281</v>
+        <v>66.116154684400001</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -5728,10 +5743,10 @@
         <v>362</v>
       </c>
       <c r="C128">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="D128" s="29">
-        <v>115.1777862518</v>
+        <v>136.18994995989999</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -5742,10 +5757,10 @@
         <v>364</v>
       </c>
       <c r="C129">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="D129" s="29">
-        <v>73.820776730299997</v>
+        <v>94.185128931799994</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -5756,10 +5771,10 @@
         <v>366</v>
       </c>
       <c r="C130">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D130" s="29">
-        <v>33.927440513900002</v>
+        <v>55.414819506000001</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -5770,10 +5785,10 @@
         <v>368</v>
       </c>
       <c r="C131">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="D131" s="29">
-        <v>76.257967609600001</v>
+        <v>93.204182634000006</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -5784,10 +5799,10 @@
         <v>370</v>
       </c>
       <c r="C132">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="D132" s="29">
-        <v>110.6040268456</v>
+        <v>162.14765100669999</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -5798,10 +5813,10 @@
         <v>372</v>
       </c>
       <c r="C133">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="D133" s="29">
-        <v>121.6931627045</v>
+        <v>93.788998007999993</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -5812,10 +5827,10 @@
         <v>374</v>
       </c>
       <c r="C134">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="D134" s="29">
-        <v>71.669228041099998</v>
+        <v>99.006974819700005</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -5826,10 +5841,10 @@
         <v>376</v>
       </c>
       <c r="C135">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D135" s="29">
-        <v>37.388895497999997</v>
+        <v>50.984857497299998</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -5840,10 +5855,10 @@
         <v>378</v>
       </c>
       <c r="C136">
-        <v>154</v>
+        <v>278</v>
       </c>
       <c r="D136" s="29">
-        <v>59.656394661900002</v>
+        <v>107.69141374030001</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5854,10 +5869,10 @@
         <v>380</v>
       </c>
       <c r="C137">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="D137" s="29">
-        <v>68.453853002299994</v>
+        <v>103.2743100208</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -5868,10 +5883,10 @@
         <v>382</v>
       </c>
       <c r="C138">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D138" s="29">
-        <v>22.011563408000001</v>
+        <v>20.5441258474</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -5882,10 +5897,10 @@
         <v>384</v>
       </c>
       <c r="C139">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="D139" s="29">
-        <v>122.3055712041</v>
+        <v>169.0040620275</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -5896,10 +5911,10 @@
         <v>386</v>
       </c>
       <c r="C140">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D140" s="29">
-        <v>33.7380881546</v>
+        <v>27.603890308299999</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5910,10 +5925,10 @@
         <v>388</v>
       </c>
       <c r="C141">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="D141" s="29">
-        <v>96.9656318806</v>
+        <v>67.073970924899996</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -5924,10 +5939,10 @@
         <v>390</v>
       </c>
       <c r="C142">
-        <v>254</v>
+        <v>450</v>
       </c>
       <c r="D142" s="29">
-        <v>260.78564241570001</v>
+        <v>462.0218074293</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -5938,10 +5953,10 @@
         <v>392</v>
       </c>
       <c r="C143">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="D143" s="29">
-        <v>72.173099381300005</v>
+        <v>96.109906211199998</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -5952,10 +5967,10 @@
         <v>394</v>
       </c>
       <c r="C144">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D144" s="29">
-        <v>33.063836822100001</v>
+        <v>40.9361789226</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -5966,10 +5981,10 @@
         <v>396</v>
       </c>
       <c r="C145">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="D145" s="29">
-        <v>56.447944582399998</v>
+        <v>67.408710520699998</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5980,10 +5995,10 @@
         <v>398</v>
       </c>
       <c r="C146">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D146" s="29">
-        <v>101.2263760957</v>
+        <v>109.1760914959</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -5994,10 +6009,10 @@
         <v>400</v>
       </c>
       <c r="C147">
-        <v>285</v>
+        <v>365</v>
       </c>
       <c r="D147" s="29">
-        <v>119.3657282147</v>
+        <v>152.8718975381</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -6008,10 +6023,10 @@
         <v>402</v>
       </c>
       <c r="C148">
-        <v>1334</v>
+        <v>1468</v>
       </c>
       <c r="D148" s="29">
-        <v>72.215338126399999</v>
+        <v>79.469352600899995</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -6022,10 +6037,10 @@
         <v>404</v>
       </c>
       <c r="C149">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D149" s="29">
-        <v>65.298319073200005</v>
+        <v>78.761890016099997</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -6036,10 +6051,10 @@
         <v>406</v>
       </c>
       <c r="C150">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="D150" s="29">
-        <v>107.8280975566</v>
+        <v>85.039685186400007</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -6050,10 +6065,10 @@
         <v>408</v>
       </c>
       <c r="C151">
-        <v>1228</v>
+        <v>1122</v>
       </c>
       <c r="D151" s="29">
-        <v>106.1260116756</v>
+        <v>96.965297312700002</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -6064,10 +6079,10 @@
         <v>410</v>
       </c>
       <c r="C152">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="D152" s="29">
-        <v>59.741147894699999</v>
+        <v>69.566994587899998</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -6078,10 +6093,10 @@
         <v>412</v>
       </c>
       <c r="C153">
-        <v>144</v>
+        <v>249</v>
       </c>
       <c r="D153" s="29">
-        <v>67.507383620100001</v>
+        <v>116.7315175097</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -6092,10 +6107,10 @@
         <v>414</v>
       </c>
       <c r="C154">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D154" s="29">
-        <v>40.291998483100002</v>
+        <v>49.772468714399999</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -6106,10 +6121,10 @@
         <v>416</v>
       </c>
       <c r="C155">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D155" s="29">
-        <v>62.578222778499999</v>
+        <v>52.7620309701</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -6120,10 +6135,10 @@
         <v>418</v>
       </c>
       <c r="C156">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D156" s="29">
-        <v>20.615185572200001</v>
+        <v>27.723870252299999</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -6134,10 +6149,10 @@
         <v>420</v>
       </c>
       <c r="C157">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D157" s="29">
-        <v>45.824689599700001</v>
+        <v>44.586184475300001</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -6148,10 +6163,10 @@
         <v>422</v>
       </c>
       <c r="C158">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D158" s="29">
-        <v>54.226259065999997</v>
+        <v>45.188549221599999</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -6162,10 +6177,10 @@
         <v>424</v>
       </c>
       <c r="C159">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D159" s="29">
-        <v>31.597573306400001</v>
+        <v>57.665571284099997</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -6176,10 +6191,10 @@
         <v>426</v>
       </c>
       <c r="C160">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="D160" s="29">
-        <v>44.708177532100002</v>
+        <v>74.610400167199998</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -6190,10 +6205,10 @@
         <v>428</v>
       </c>
       <c r="C161">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D161" s="29">
-        <v>43.043571833900003</v>
+        <v>44.2174874293</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -6204,10 +6219,10 @@
         <v>430</v>
       </c>
       <c r="C162">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D162" s="29">
-        <v>29.573808558900001</v>
+        <v>38.336418502299999</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -6218,10 +6233,10 @@
         <v>432</v>
       </c>
       <c r="C163">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="D163" s="29">
-        <v>65.847759978900001</v>
+        <v>98.173023968600006</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -6232,10 +6247,10 @@
         <v>434</v>
       </c>
       <c r="C164">
-        <v>135</v>
+        <v>259</v>
       </c>
       <c r="D164" s="29">
-        <v>86.290100927500006</v>
+        <v>165.54915659420001</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -6246,10 +6261,10 @@
         <v>436</v>
       </c>
       <c r="C165">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D165" s="29">
-        <v>59.642641175000001</v>
+        <v>86.150481697199993</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -6260,10 +6275,10 @@
         <v>438</v>
       </c>
       <c r="C166">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="D166" s="29">
-        <v>66.660269974100004</v>
+        <v>78.275317014999999</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -6274,10 +6289,10 @@
         <v>440</v>
       </c>
       <c r="C167">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="D167" s="29">
-        <v>202.54125986989999</v>
+        <v>139.2471161606</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -6288,10 +6303,10 @@
         <v>442</v>
       </c>
       <c r="C168">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D168" s="29">
-        <v>54.021325734100003</v>
+        <v>51.120851869200003</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -6302,10 +6317,10 @@
         <v>444</v>
       </c>
       <c r="C169">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D169" s="29">
-        <v>70.060090000299994</v>
+        <v>75.834273241999995</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -6316,10 +6331,10 @@
         <v>446</v>
       </c>
       <c r="C170">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D170" s="29">
-        <v>75.976936778699994</v>
+        <v>78.931595431299996</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -6330,10 +6345,10 @@
         <v>448</v>
       </c>
       <c r="C171">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D171" s="29">
-        <v>338.24331696669998</v>
+        <v>320.78559738130002</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -6344,10 +6359,10 @@
         <v>450</v>
       </c>
       <c r="C172">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D172" s="29">
-        <v>139.23903756289999</v>
+        <v>122.3615784644</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -6358,10 +6373,10 @@
         <v>452</v>
       </c>
       <c r="C173">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D173" s="29">
-        <v>90.541920021300001</v>
+        <v>105.6322400249</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -6372,10 +6387,10 @@
         <v>454</v>
       </c>
       <c r="C174">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D174" s="29">
-        <v>46.836413182299999</v>
+        <v>73.802832893399994</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -6386,10 +6401,10 @@
         <v>456</v>
       </c>
       <c r="C175">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D175" s="29">
-        <v>39.215406663800003</v>
+        <v>37.789391876000003</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -6400,10 +6415,10 @@
         <v>458</v>
       </c>
       <c r="C176">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="D176" s="29">
-        <v>150.58965260849999</v>
+        <v>178.82521247259999</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -6414,10 +6429,10 @@
         <v>460</v>
       </c>
       <c r="C177">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D177" s="29">
-        <v>24.0188657273</v>
+        <v>53.860486782300001</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -6428,10 +6443,10 @@
         <v>462</v>
       </c>
       <c r="C178">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D178" s="29">
-        <v>64.665044053100004</v>
+        <v>66.461295276800001</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -6442,10 +6457,10 @@
         <v>464</v>
       </c>
       <c r="C179">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D179" s="29">
-        <v>88.180468584300002</v>
+        <v>116.0856801616</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -6456,10 +6471,10 @@
         <v>466</v>
       </c>
       <c r="C180">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D180" s="29">
-        <v>32.990102969100001</v>
+        <v>34.989503149100003</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -6470,10 +6485,10 @@
         <v>468</v>
       </c>
       <c r="C181">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D181" s="29">
-        <v>19.815246416699999</v>
+        <v>14.1537474405</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -6484,10 +6499,10 @@
         <v>470</v>
       </c>
       <c r="C182">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="D182" s="29">
-        <v>74.344677305600001</v>
+        <v>101.9034801</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -6498,10 +6513,10 @@
         <v>472</v>
       </c>
       <c r="C183">
-        <v>302</v>
+        <v>389</v>
       </c>
       <c r="D183" s="29">
-        <v>67.849768928800003</v>
+        <v>87.395894415000001</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -6512,10 +6527,10 @@
         <v>474</v>
       </c>
       <c r="C184">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="D184" s="29">
-        <v>54.913251903400003</v>
+        <v>71.733527261199995</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -6526,10 +6541,10 @@
         <v>476</v>
       </c>
       <c r="C185">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D185" s="29">
-        <v>32.099474582299997</v>
+        <v>41.391427750799998</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -6540,10 +6555,10 @@
         <v>478</v>
       </c>
       <c r="C186">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D186" s="29">
-        <v>51.804135321399997</v>
+        <v>67.570611288799995</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -6554,10 +6569,10 @@
         <v>480</v>
       </c>
       <c r="C187">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="D187" s="29">
-        <v>55.258495993799997</v>
+        <v>96.702367989099997</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -6568,10 +6583,10 @@
         <v>482</v>
       </c>
       <c r="C188">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D188" s="29">
-        <v>41.937209873999997</v>
+        <v>46.275541930000003</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -6582,10 +6597,10 @@
         <v>484</v>
       </c>
       <c r="C189">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D189" s="29">
-        <v>44.9767822556</v>
+        <v>42.140408599899999</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -6596,10 +6611,10 @@
         <v>486</v>
       </c>
       <c r="C190">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D190" s="29">
-        <v>28.522845702400001</v>
+        <v>12.0673577972</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -6610,10 +6625,10 @@
         <v>488</v>
       </c>
       <c r="C191">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="D191" s="29">
-        <v>104.65172099279999</v>
+        <v>112.65261709310001</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -6624,10 +6639,10 @@
         <v>490</v>
       </c>
       <c r="C192">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D192" s="29">
-        <v>43.839652088500003</v>
+        <v>45.593238172100001</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -6638,10 +6653,10 @@
         <v>492</v>
       </c>
       <c r="C193">
-        <v>712</v>
+        <v>1016</v>
       </c>
       <c r="D193" s="29">
-        <v>65.449417803499998</v>
+        <v>93.394113045500006</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -6652,10 +6667,10 @@
         <v>494</v>
       </c>
       <c r="C194">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="D194" s="29">
-        <v>100.9413038543</v>
+        <v>96.051413702199994</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -6666,10 +6681,10 @@
         <v>496</v>
       </c>
       <c r="C195">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D195" s="29">
-        <v>65.518408914000005</v>
+        <v>76.071709678700003</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -6680,10 +6695,10 @@
         <v>498</v>
       </c>
       <c r="C196">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="D196" s="29">
-        <v>151.32673089310001</v>
+        <v>205.2649716075</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -6694,10 +6709,10 @@
         <v>500</v>
       </c>
       <c r="C197">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D197" s="29">
-        <v>257.10532934629998</v>
+        <v>265.48919878150002</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -6708,10 +6723,10 @@
         <v>502</v>
       </c>
       <c r="C198">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D198" s="29">
-        <v>14.2411598001</v>
+        <v>9.9688118600000006</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -6722,10 +6737,10 @@
         <v>504</v>
       </c>
       <c r="C199">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D199" s="29">
-        <v>133.4016062092</v>
+        <v>176.52131730720001</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -6736,10 +6751,10 @@
         <v>506</v>
       </c>
       <c r="C200">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="D200" s="29">
-        <v>117.6382347949</v>
+        <v>136.98143447589999</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -6750,10 +6765,10 @@
         <v>508</v>
       </c>
       <c r="C201">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D201" s="29">
-        <v>25.596723619399999</v>
+        <v>38.3950854291</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -6764,10 +6779,10 @@
         <v>510</v>
       </c>
       <c r="C202">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D202" s="29">
-        <v>53.199448055700003</v>
+        <v>39.899586041799999</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -6778,10 +6793,10 @@
         <v>512</v>
       </c>
       <c r="C203">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D203" s="29">
-        <v>73.558458541600004</v>
+        <v>132.1327866396</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -6792,10 +6807,10 @@
         <v>514</v>
       </c>
       <c r="C204">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="D204" s="29">
-        <v>53.785296600899997</v>
+        <v>103.1927202226</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -6806,10 +6821,10 @@
         <v>516</v>
       </c>
       <c r="C205">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D205" s="29">
-        <v>98.971632036399996</v>
+        <v>93.115322448399994</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -6820,10 +6835,10 @@
         <v>518</v>
       </c>
       <c r="C206">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="D206" s="29">
-        <v>45.014288243199999</v>
+        <v>58.501715432099999</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -6834,10 +6849,10 @@
         <v>520</v>
       </c>
       <c r="C207">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="D207" s="29">
-        <v>77.477638016699999</v>
+        <v>62.369498603499999</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -6848,10 +6863,10 @@
         <v>522</v>
       </c>
       <c r="C208">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D208" s="29">
-        <v>56.801177555599999</v>
+        <v>72.070311307099999</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -6862,10 +6877,10 @@
         <v>524</v>
       </c>
       <c r="C209">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D209" s="29">
-        <v>82.364921528699995</v>
+        <v>104.8280819456</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -6876,10 +6891,10 @@
         <v>526</v>
       </c>
       <c r="C210">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="D210" s="29">
-        <v>60.496067755600002</v>
+        <v>83.763786123100004</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -6890,10 +6905,10 @@
         <v>528</v>
       </c>
       <c r="C211">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D211" s="29">
-        <v>80.506458813600005</v>
+        <v>90.264817457700005</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -6904,10 +6919,10 @@
         <v>530</v>
       </c>
       <c r="C212">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="D212" s="29">
-        <v>50.933199813500003</v>
+        <v>73.953855096500007</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -6918,10 +6933,10 @@
         <v>532</v>
       </c>
       <c r="C213">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="D213" s="29">
-        <v>59.894376049199998</v>
+        <v>69.949636261899997</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -6932,10 +6947,10 @@
         <v>534</v>
       </c>
       <c r="C214">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D214" s="29">
-        <v>24.938807555499999</v>
+        <v>34.1754029465</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -6946,10 +6961,10 @@
         <v>536</v>
       </c>
       <c r="C215">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D215" s="29">
-        <v>12.3936214162</v>
+        <v>18.590432124300001</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -6960,10 +6975,10 @@
         <v>538</v>
       </c>
       <c r="C216">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="D216" s="29">
-        <v>50.2362386625</v>
+        <v>59.0367476252</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -6974,10 +6989,10 @@
         <v>540</v>
       </c>
       <c r="C217">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D217" s="29">
-        <v>55.731975640500004</v>
+        <v>60.376306943899998</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -6988,10 +7003,10 @@
         <v>542</v>
       </c>
       <c r="C218">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D218" s="29">
-        <v>98.215592669700001</v>
+        <v>91.132737429100004</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -7002,10 +7017,10 @@
         <v>544</v>
       </c>
       <c r="C219">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D219" s="29">
-        <v>26.6103324119</v>
+        <v>43.445440672499998</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -7016,10 +7031,10 @@
         <v>546</v>
       </c>
       <c r="C220">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="D220" s="29">
-        <v>52.617178456399998</v>
+        <v>80.8199861091</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -7030,10 +7045,10 @@
         <v>548</v>
       </c>
       <c r="C221">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="D221" s="29">
-        <v>93.210827674100003</v>
+        <v>107.4777910936</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -7044,10 +7059,10 @@
         <v>550</v>
       </c>
       <c r="C222">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="D222" s="29">
-        <v>65.790516653699996</v>
+        <v>138.7149447518</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -7058,10 +7073,10 @@
         <v>552</v>
       </c>
       <c r="C223">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D223" s="29">
-        <v>70.242222373299995</v>
+        <v>64.955173377400001</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -7072,10 +7087,10 @@
         <v>554</v>
       </c>
       <c r="C224">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D224" s="29">
-        <v>44.014453508199999</v>
+        <v>55.7516411103</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -7086,10 +7101,10 @@
         <v>556</v>
       </c>
       <c r="C225">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D225" s="29">
-        <v>37.515211960899997</v>
+        <v>48.952776583199999</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -7100,10 +7115,10 @@
         <v>558</v>
       </c>
       <c r="C226">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D226" s="29">
-        <v>32.636921344999998</v>
+        <v>41.150900826300003</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -7114,10 +7129,10 @@
         <v>560</v>
       </c>
       <c r="C227">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="D227" s="29">
-        <v>92.062654108399997</v>
+        <v>101.397678476</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -7128,10 +7143,10 @@
         <v>562</v>
       </c>
       <c r="C228">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D228" s="29">
-        <v>44.463547301799998</v>
+        <v>41.499310815000001</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -7142,10 +7157,10 @@
         <v>564</v>
       </c>
       <c r="C229">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D229" s="29">
-        <v>87.419662948600006</v>
+        <v>88.633824934000003</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -7156,10 +7171,10 @@
         <v>566</v>
       </c>
       <c r="C230">
-        <v>518</v>
+        <v>643</v>
       </c>
       <c r="D230" s="29">
-        <v>126.2730911555</v>
+        <v>156.74439693630001</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -7170,10 +7185,10 @@
         <v>568</v>
       </c>
       <c r="C231">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="D231" s="29">
-        <v>41.889952030899998</v>
+        <v>62.8349280463</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -7184,10 +7199,10 @@
         <v>570</v>
       </c>
       <c r="C232">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D232" s="29">
-        <v>53.629555014600001</v>
+        <v>45.235363794900003</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -7198,10 +7213,10 @@
         <v>572</v>
       </c>
       <c r="C233">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D233" s="29">
-        <v>35.648689910599998</v>
+        <v>39.5235475096</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -7212,10 +7227,10 @@
         <v>574</v>
       </c>
       <c r="C234">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="D234" s="29">
-        <v>88.533284791699998</v>
+        <v>102.1856137549</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -7226,10 +7241,10 @@
         <v>576</v>
       </c>
       <c r="C235">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D235" s="29">
-        <v>43.083900226799997</v>
+        <v>54.4217687075</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -7240,10 +7255,10 @@
         <v>578</v>
       </c>
       <c r="C236">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D236" s="29">
-        <v>51.3351994808</v>
+        <v>44.555078794700002</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -7254,10 +7269,10 @@
         <v>580</v>
       </c>
       <c r="C237">
-        <v>360</v>
+        <v>422</v>
       </c>
       <c r="D237" s="29">
-        <v>74.139670902199995</v>
+        <v>86.908169779800005</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -7268,10 +7283,10 @@
         <v>582</v>
       </c>
       <c r="C238">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D238" s="29">
-        <v>59.994000599899998</v>
+        <v>73.992600739899999</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -7282,10 +7297,10 @@
         <v>584</v>
       </c>
       <c r="C239">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D239" s="29">
-        <v>69.906713374700004</v>
+        <v>68.353230855299998</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -7296,10 +7311,10 @@
         <v>586</v>
       </c>
       <c r="C240">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="D240" s="29">
-        <v>75.062256571199995</v>
+        <v>98.257460318499994</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -7310,10 +7325,10 @@
         <v>588</v>
       </c>
       <c r="C241">
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="D241" s="29">
-        <v>72.673701656399999</v>
+        <v>97.994403138500005</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -7324,10 +7339,10 @@
         <v>590</v>
       </c>
       <c r="C242">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D242" s="29">
-        <v>46.737206647400001</v>
+        <v>42.906288069799999</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -7338,10 +7353,10 @@
         <v>592</v>
       </c>
       <c r="C243">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D243" s="29">
-        <v>106.15161557579999</v>
+        <v>104.4255730461</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -7352,10 +7367,10 @@
         <v>594</v>
       </c>
       <c r="C244">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D244" s="29">
-        <v>54.503258474399999</v>
+        <v>57.433541188100001</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -7366,10 +7381,10 @@
         <v>596</v>
       </c>
       <c r="C245">
-        <v>823</v>
+        <v>982</v>
       </c>
       <c r="D245" s="29">
-        <v>55.449776516500002</v>
+        <v>66.162430788799995</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -7380,10 +7395,10 @@
         <v>598</v>
       </c>
       <c r="C246">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="D246" s="29">
-        <v>55.924422138099999</v>
+        <v>65.625597406899999</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -7394,10 +7409,10 @@
         <v>600</v>
       </c>
       <c r="C247">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D247" s="29">
-        <v>43.768811867099998</v>
+        <v>38.694167012900003</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -7408,10 +7423,10 @@
         <v>602</v>
       </c>
       <c r="C248">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D248" s="29">
-        <v>43.861786636799998</v>
+        <v>42.469348965800002</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -7422,10 +7437,10 @@
         <v>604</v>
       </c>
       <c r="C249">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D249" s="29">
-        <v>29.803808721199999</v>
+        <v>78.106533200399994</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -7436,10 +7451,10 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D250" s="29">
-        <v>60.190379942500002</v>
+        <v>57.218015500900002</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -7450,10 +7465,10 @@
         <v>608</v>
       </c>
       <c r="C251">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D251" s="29">
-        <v>62.3472492394</v>
+        <v>66.088084193699999</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -7464,10 +7479,10 @@
         <v>610</v>
       </c>
       <c r="C252">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D252" s="29">
-        <v>72.293924266399998</v>
+        <v>62.4010714721</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -7478,10 +7493,10 @@
         <v>612</v>
       </c>
       <c r="C253">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D253" s="29">
-        <v>87.116637297799997</v>
+        <v>82.166828360400004</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -7492,10 +7507,10 @@
         <v>614</v>
       </c>
       <c r="C254">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="D254" s="29">
-        <v>155.6379036527</v>
+        <v>129.16887241929999</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -7506,10 +7521,10 @@
         <v>616</v>
       </c>
       <c r="C255">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D255" s="29">
-        <v>20.651847401600001</v>
+        <v>28.161610093099998</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -7520,10 +7535,10 @@
         <v>618</v>
       </c>
       <c r="C256">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D256" s="29">
-        <v>44.519531517499999</v>
+        <v>43.3780050684</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -7534,10 +7549,10 @@
         <v>620</v>
       </c>
       <c r="C257">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="D257" s="29">
-        <v>83.692994404100006</v>
+        <v>66.188577273800007</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -7548,10 +7563,10 @@
         <v>622</v>
       </c>
       <c r="C258">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D258" s="29">
-        <v>52.722629541099998</v>
+        <v>39.541972155899998</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -7562,10 +7577,10 @@
         <v>624</v>
       </c>
       <c r="C259">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D259" s="29">
-        <v>28.3216130062</v>
+        <v>27.116437984699999</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -7576,10 +7591,10 @@
         <v>626</v>
       </c>
       <c r="C260">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D260" s="29">
-        <v>57.542917425900001</v>
+        <v>74.326268341800002</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -7590,10 +7605,10 @@
         <v>628</v>
       </c>
       <c r="C261">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="D261" s="29">
-        <v>106.70523563650001</v>
+        <v>125.4165802742</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -7604,10 +7619,10 @@
         <v>630</v>
       </c>
       <c r="C262">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D262" s="29">
-        <v>104.8804363026</v>
+        <v>95.981490192099997</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -7618,10 +7633,10 @@
         <v>632</v>
       </c>
       <c r="C263">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D263" s="29">
-        <v>18.142646558599999</v>
+        <v>25.702082624599999</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -7632,10 +7647,10 @@
         <v>634</v>
       </c>
       <c r="C264">
-        <v>488</v>
+        <v>584</v>
       </c>
       <c r="D264" s="29">
-        <v>94.141250458200005</v>
+        <v>112.6608407122</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -7646,10 +7661,10 @@
         <v>636</v>
       </c>
       <c r="C265">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D265" s="29">
-        <v>63.820319452900002</v>
+        <v>72.017424703700001</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -7660,10 +7675,10 @@
         <v>638</v>
       </c>
       <c r="C266">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="D266" s="29">
-        <v>37.177580636899997</v>
+        <v>66.022255268999999</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -7674,10 +7689,10 @@
         <v>640</v>
       </c>
       <c r="C267">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D267" s="29">
-        <v>119.09269013479999</v>
+        <v>116.1521298845</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -7688,10 +7703,10 @@
         <v>642</v>
       </c>
       <c r="C268">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="D268" s="29">
-        <v>56.9357195726</v>
+        <v>91.571615645899996</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -7702,10 +7717,10 @@
         <v>644</v>
       </c>
       <c r="C269">
-        <v>157</v>
+        <v>254</v>
       </c>
       <c r="D269" s="29">
-        <v>73.738692617699996</v>
+        <v>119.2969931522</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -7716,10 +7731,10 @@
         <v>646</v>
       </c>
       <c r="C270">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="D270" s="29">
-        <v>126.17604300959999</v>
+        <v>168.2347240128</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -7730,10 +7745,10 @@
         <v>648</v>
       </c>
       <c r="C271">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D271" s="29">
-        <v>42.397857357100001</v>
+        <v>57.909268585299998</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -7744,10 +7759,10 @@
         <v>650</v>
       </c>
       <c r="C272">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D272" s="29">
-        <v>70.468616298399994</v>
+        <v>86.128308809100005</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -7758,10 +7773,10 @@
         <v>652</v>
       </c>
       <c r="C273">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="D273" s="29">
-        <v>112.06631869820001</v>
+        <v>178.84556340189999</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -7772,10 +7787,10 @@
         <v>654</v>
       </c>
       <c r="C274">
-        <v>282</v>
+        <v>438</v>
       </c>
       <c r="D274" s="29">
-        <v>79.255114343800003</v>
+        <v>123.0983690871</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -7786,10 +7801,10 @@
         <v>656</v>
       </c>
       <c r="C275">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D275" s="29">
-        <v>41.992701550200003</v>
+        <v>46.724273555800004</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -7800,10 +7815,10 @@
         <v>658</v>
       </c>
       <c r="C276">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D276" s="29">
-        <v>38.964015585600002</v>
+        <v>48.132019252799999</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -7814,10 +7829,10 @@
         <v>660</v>
       </c>
       <c r="C277">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D277" s="29">
-        <v>81.370609533099994</v>
+        <v>74.651935351399999</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -7828,10 +7843,10 @@
         <v>662</v>
       </c>
       <c r="C278">
-        <v>151</v>
+        <v>275</v>
       </c>
       <c r="D278" s="29">
-        <v>35.038623701399999</v>
+        <v>63.812063032399998</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -7842,10 +7857,10 @@
         <v>664</v>
       </c>
       <c r="C279">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="D279" s="29">
-        <v>67.775686682699998</v>
+        <v>105.8995104417</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -7856,10 +7871,10 @@
         <v>666</v>
       </c>
       <c r="C280">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="D280" s="29">
-        <v>56.411974977699998</v>
+        <v>66.744861483500003</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -7870,10 +7885,10 @@
         <v>668</v>
       </c>
       <c r="C281">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="D281" s="29">
-        <v>37.895072048400003</v>
+        <v>65.599872621599999</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -7884,10 +7899,10 @@
         <v>670</v>
       </c>
       <c r="C282">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="D282" s="29">
-        <v>65.872419996900007</v>
+        <v>118.99533934919999</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -7898,10 +7913,10 @@
         <v>672</v>
       </c>
       <c r="C283">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D283" s="29">
-        <v>40.376378063300002</v>
+        <v>38.620883364900003</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -7912,10 +7927,10 @@
         <v>674</v>
       </c>
       <c r="C284">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D284" s="29">
-        <v>30.916679548600001</v>
+        <v>35.404584644400003</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -7926,10 +7941,10 @@
         <v>676</v>
       </c>
       <c r="C285">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D285" s="29">
-        <v>38.4378066174</v>
+        <v>61.7027948331</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -7940,10 +7955,10 @@
         <v>678</v>
       </c>
       <c r="C286">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="D286" s="29">
-        <v>37.682035089800003</v>
+        <v>49.376459772799997</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -7954,10 +7969,10 @@
         <v>680</v>
       </c>
       <c r="C287">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D287" s="29">
-        <v>126.8867299206</v>
+        <v>138.2497206598</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -7968,10 +7983,10 @@
         <v>682</v>
       </c>
       <c r="C288">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="D288" s="29">
-        <v>124.57437089939999</v>
+        <v>111.078814052</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -7982,10 +7997,10 @@
         <v>684</v>
       </c>
       <c r="C289">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D289" s="29">
-        <v>123.8863213181</v>
+        <v>121.66081853990001</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -7996,10 +8011,10 @@
         <v>686</v>
       </c>
       <c r="C290">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D290" s="29">
-        <v>37.433613825499997</v>
+        <v>69.408158968099997</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -8010,10 +8025,10 @@
         <v>688</v>
       </c>
       <c r="C291">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D291" s="29">
-        <v>35.726478083799996</v>
+        <v>42.8717737005</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -8024,10 +8039,10 @@
         <v>690</v>
       </c>
       <c r="C292">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="D292" s="29">
-        <v>39.544072659900003</v>
+        <v>56.943464630199998</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -8038,10 +8053,10 @@
         <v>692</v>
       </c>
       <c r="C293">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="D293" s="29">
-        <v>69.598071139200002</v>
+        <v>156.59566006310001</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -8052,10 +8067,10 @@
         <v>694</v>
       </c>
       <c r="C294">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D294" s="29">
-        <v>20.981303327500001</v>
+        <v>26.420900486499999</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -8066,10 +8081,10 @@
         <v>696</v>
       </c>
       <c r="C295">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D295" s="29">
-        <v>33.2715960385</v>
+        <v>60.9979260705</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -8080,10 +8095,10 @@
         <v>698</v>
       </c>
       <c r="C296">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="D296" s="29">
-        <v>41.0960169186</v>
+        <v>61.874901877500001</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -8094,10 +8109,10 @@
         <v>700</v>
       </c>
       <c r="C297">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D297" s="29">
-        <v>42.017910134200001</v>
+        <v>77.470521809900006</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -8108,10 +8123,10 @@
         <v>702</v>
       </c>
       <c r="C298">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="D298" s="29">
-        <v>89.879872094000007</v>
+        <v>132.65923429259999</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -8122,10 +8137,10 @@
         <v>704</v>
       </c>
       <c r="C299">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="D299" s="29">
-        <v>49.750546555299998</v>
+        <v>69.020124446400004</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -8136,10 +8151,10 @@
         <v>706</v>
       </c>
       <c r="C300">
-        <v>318</v>
+        <v>488</v>
       </c>
       <c r="D300" s="29">
-        <v>51.779977431699997</v>
+        <v>79.461097442400003</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -8150,10 +8165,10 @@
         <v>708</v>
       </c>
       <c r="C301">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D301" s="29">
-        <v>116.2640485725</v>
+        <v>102.0539981914</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -8164,10 +8179,10 @@
         <v>710</v>
       </c>
       <c r="C302">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="D302" s="29">
-        <v>79.689602466500006</v>
+        <v>135.86424027070001</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -8178,10 +8193,10 @@
         <v>712</v>
       </c>
       <c r="C303">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D303" s="29">
-        <v>81.929200803800001</v>
+        <v>75.745864894099995</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -8192,10 +8207,10 @@
         <v>714</v>
       </c>
       <c r="C304">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D304" s="29">
-        <v>121.2524025939</v>
+        <v>100.5945858557</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -8206,10 +8221,10 @@
         <v>716</v>
       </c>
       <c r="C305">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D305" s="29">
-        <v>47.045275811700002</v>
+        <v>47.5133880088</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -8220,10 +8235,10 @@
         <v>718</v>
       </c>
       <c r="C306">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D306" s="29">
-        <v>37.942633656600002</v>
+        <v>32.470138417599998</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -8234,10 +8249,10 @@
         <v>720</v>
       </c>
       <c r="C307">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="D307" s="29">
-        <v>57.136088407599999</v>
+        <v>65.497467198999999</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -8248,10 +8263,10 @@
         <v>722</v>
       </c>
       <c r="C308">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="D308" s="29">
-        <v>78.408040542699993</v>
+        <v>83.932726326199997</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -8262,10 +8277,10 @@
         <v>724</v>
       </c>
       <c r="C309">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D309" s="29">
-        <v>51.8273135285</v>
+        <v>71.596494977600003</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -8276,10 +8291,10 @@
         <v>726</v>
       </c>
       <c r="C310">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D310" s="29">
-        <v>37.8042515243</v>
+        <v>48.466989133699997</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -8290,10 +8305,10 @@
         <v>728</v>
       </c>
       <c r="C311">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="D311" s="29">
-        <v>55.423957976600001</v>
+        <v>65.661504354499996</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -8304,10 +8319,10 @@
         <v>730</v>
       </c>
       <c r="C312">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="D312" s="29">
-        <v>65.083124875500005</v>
+        <v>68.625063644199997</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -8318,10 +8333,10 @@
         <v>732</v>
       </c>
       <c r="C313">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D313" s="29">
-        <v>56.420026656399997</v>
+        <v>58.873071293700001</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -8332,10 +8347,10 @@
         <v>734</v>
       </c>
       <c r="C314">
-        <v>213</v>
+        <v>312</v>
       </c>
       <c r="D314" s="29">
-        <v>38.843449954900002</v>
+        <v>56.897447821199997</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -8346,10 +8361,10 @@
         <v>736</v>
       </c>
       <c r="C315">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D315" s="29">
-        <v>56.917773221499999</v>
+        <v>65.972873506699997</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -8360,10 +8375,10 @@
         <v>738</v>
       </c>
       <c r="C316">
-        <v>287</v>
+        <v>360</v>
       </c>
       <c r="D316" s="29">
-        <v>47.772503012800001</v>
+        <v>59.923697159</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -8374,10 +8389,10 @@
         <v>740</v>
       </c>
       <c r="C317">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D317" s="29">
-        <v>75.3437558862</v>
+        <v>72.832297356699996</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -8388,10 +8403,10 @@
         <v>742</v>
       </c>
       <c r="C318">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D318" s="29">
-        <v>111.72129470820001</v>
+        <v>174.6628691917</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -8402,10 +8417,10 @@
         <v>744</v>
       </c>
       <c r="C319">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D319" s="29">
-        <v>79.9755098917</v>
+        <v>77.679562239299997</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -8416,10 +8431,10 @@
         <v>746</v>
       </c>
       <c r="C320">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D320" s="29">
-        <v>24.379633923099998</v>
+        <v>22.945537809899999</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -8430,10 +8445,10 @@
         <v>748</v>
       </c>
       <c r="C321">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="D321" s="29">
-        <v>92.217577875200007</v>
+        <v>73.217976403400002</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -8444,10 +8459,10 @@
         <v>750</v>
       </c>
       <c r="C322">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D322" s="29">
-        <v>43.350307115600003</v>
+        <v>42.129171703899999</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -8458,10 +8473,10 @@
         <v>752</v>
       </c>
       <c r="C323">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="D323" s="29">
-        <v>38.659082122900003</v>
+        <v>77.318164245899993</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -8472,10 +8487,10 @@
         <v>754</v>
       </c>
       <c r="C324">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D324" s="29">
-        <v>71.603759608900006</v>
+        <v>66.665569290999997</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -8486,10 +8501,10 @@
         <v>756</v>
       </c>
       <c r="C325">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="D325" s="29">
-        <v>81.499592501999999</v>
+        <v>40.749796250999999</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -8500,10 +8515,10 @@
         <v>758</v>
       </c>
       <c r="C326">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D326" s="29">
-        <v>116.9379144063</v>
+        <v>124.1711874623</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -8514,10 +8529,10 @@
         <v>760</v>
       </c>
       <c r="C327">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D327" s="29">
-        <v>129.47800777960001</v>
+        <v>127.30190680849999</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -8528,10 +8543,10 @@
         <v>762</v>
       </c>
       <c r="C328">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="D328" s="29">
-        <v>207.9390377528</v>
+        <v>271.4413786234</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -8542,10 +8557,10 @@
         <v>764</v>
       </c>
       <c r="C329">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D329" s="29">
-        <v>120.156203064</v>
+        <v>98.838167036499996</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -8556,10 +8571,10 @@
         <v>766</v>
       </c>
       <c r="C330">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D330" s="29">
-        <v>44.771741312000003</v>
+        <v>58.151801933900003</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -8570,10 +8585,10 @@
         <v>767</v>
       </c>
       <c r="C331">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D331" s="29">
-        <v>45.008298404999998</v>
+        <v>42.898534417299999</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -8584,10 +8599,10 @@
         <v>769</v>
       </c>
       <c r="C332">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D332" s="29">
-        <v>77.365973630400006</v>
+        <v>74.108458951200006</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -8598,10 +8613,10 @@
         <v>771</v>
       </c>
       <c r="C333">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="D333" s="29">
-        <v>103.55639508679999</v>
+        <v>139.03404895919999</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -8612,10 +8627,10 @@
         <v>773</v>
       </c>
       <c r="C334">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D334" s="29">
-        <v>69.2663582287</v>
+        <v>72.967614011899997</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -8626,10 +8641,10 @@
         <v>775</v>
       </c>
       <c r="C335">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D335" s="29">
-        <v>81.602629673500005</v>
+        <v>51.719976553599999</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -8640,10 +8655,10 @@
         <v>777</v>
       </c>
       <c r="C336">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D336" s="29">
-        <v>62.729692054200001</v>
+        <v>66.531491572700006</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -8654,10 +8669,10 @@
         <v>779</v>
       </c>
       <c r="C337">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D337" s="29">
-        <v>57.666686551700003</v>
+        <v>50.706914036900002</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -8668,10 +8683,10 @@
         <v>781</v>
       </c>
       <c r="C338">
-        <v>219</v>
+        <v>377</v>
       </c>
       <c r="D338" s="29">
-        <v>175.3178135707</v>
+        <v>301.80281148929998</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -8682,10 +8697,10 @@
         <v>783</v>
       </c>
       <c r="C339">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D339" s="29">
-        <v>61.003879846799997</v>
+        <v>65.884190234499997</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -8696,10 +8711,10 @@
         <v>785</v>
       </c>
       <c r="C340">
-        <v>339</v>
+        <v>420</v>
       </c>
       <c r="D340" s="29">
-        <v>172.29024044400001</v>
+        <v>213.45693506340001</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -8710,10 +8725,10 @@
         <v>787</v>
       </c>
       <c r="C341">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D341" s="29">
-        <v>32.837432446699999</v>
+        <v>23.375799368900001</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -8724,10 +8739,10 @@
         <v>789</v>
       </c>
       <c r="C342">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D342" s="29">
-        <v>190.02921445569999</v>
+        <v>198.8206016014</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -8738,10 +8753,10 @@
         <v>791</v>
       </c>
       <c r="C343">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="D343" s="29">
-        <v>31.5285215476</v>
+        <v>46.586919898700003</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -8752,10 +8767,10 @@
         <v>793</v>
       </c>
       <c r="C344">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D344" s="29">
-        <v>59.8959308202</v>
+        <v>82.356904877800005</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -8766,10 +8781,10 @@
         <v>795</v>
       </c>
       <c r="C345">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D345" s="29">
-        <v>45.909307462400001</v>
+        <v>43.310667417399998</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -8780,10 +8795,10 @@
         <v>797</v>
       </c>
       <c r="C346">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D346" s="29">
-        <v>76.317522712300004</v>
+        <v>73.181186162499998</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -8794,10 +8809,10 @@
         <v>799</v>
       </c>
       <c r="C347">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="D347" s="29">
-        <v>66.384053395899997</v>
+        <v>82.6192838459</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -8808,10 +8823,10 @@
         <v>801</v>
       </c>
       <c r="C348">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="D348" s="29">
-        <v>93.520711768400005</v>
+        <v>107.6029811081</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -8822,10 +8837,10 @@
         <v>803</v>
       </c>
       <c r="C349">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D349" s="29">
-        <v>87.887565055899998</v>
+        <v>107.7577971555</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -8836,10 +8851,10 @@
         <v>805</v>
       </c>
       <c r="C350">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D350" s="29">
-        <v>64.284175820499996</v>
+        <v>62.2960054343</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -8850,10 +8865,10 @@
         <v>807</v>
       </c>
       <c r="C351">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D351" s="29">
-        <v>89.170774592599997</v>
+        <v>98.590222612999995</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -8864,10 +8879,10 @@
         <v>809</v>
       </c>
       <c r="C352">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="D352" s="29">
-        <v>135.3940109756</v>
+        <v>180.04522736109999</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -8878,10 +8893,10 @@
         <v>811</v>
       </c>
       <c r="C353">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D353" s="29">
-        <v>77.966630282200001</v>
+        <v>65.838487793900001</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -8892,10 +8907,10 @@
         <v>813</v>
       </c>
       <c r="C354">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D354" s="29">
-        <v>35.600561697800003</v>
+        <v>19.778089832100001</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -8906,10 +8921,10 @@
         <v>992</v>
       </c>
       <c r="C355">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D355" s="29">
-        <v>66.830812522000002</v>
+        <v>46.605698206100001</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -8920,10 +8935,10 @@
         <v>815</v>
       </c>
       <c r="C356">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="D356" s="29">
-        <v>44.496166484100002</v>
+        <v>57.2093569082</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -8934,10 +8949,10 @@
         <v>817</v>
       </c>
       <c r="C357">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D357" s="29">
-        <v>59.6263012832</v>
+        <v>61.755812043299997</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -8948,10 +8963,10 @@
         <v>819</v>
       </c>
       <c r="C358">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D358" s="29">
-        <v>46.097448542800002</v>
+        <v>59.999853658900001</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -8962,10 +8977,10 @@
         <v>821</v>
       </c>
       <c r="C359">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D359" s="29">
-        <v>15.2656606596</v>
+        <v>39.690717714999998</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -8976,10 +8991,10 @@
         <v>823</v>
       </c>
       <c r="C360">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="D360" s="29">
-        <v>46.182678149099999</v>
+        <v>60.684485297400002</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -8990,10 +9005,10 @@
         <v>825</v>
       </c>
       <c r="C361">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D361" s="29">
-        <v>86.338699523299994</v>
+        <v>72.848277722800006</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -9004,10 +9019,10 @@
         <v>827</v>
       </c>
       <c r="C362">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D362" s="29">
-        <v>70.446763544600003</v>
+        <v>72.085060371200001</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -9018,10 +9033,10 @@
         <v>829</v>
       </c>
       <c r="C363">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D363" s="29">
-        <v>79.512878994000005</v>
+        <v>125.5466510431</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -9032,10 +9047,10 @@
         <v>831</v>
       </c>
       <c r="C364">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D364" s="29">
-        <v>116.6930379747</v>
+        <v>135.4825949367</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -9046,10 +9061,10 @@
         <v>833</v>
       </c>
       <c r="C365">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D365" s="29">
-        <v>67.619525373800002</v>
+        <v>68.405798924699994</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -9060,10 +9075,10 @@
         <v>835</v>
       </c>
       <c r="C366">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D366" s="29">
-        <v>53.383519874100003</v>
+        <v>33.477800598999998</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -9074,10 +9089,10 @@
         <v>837</v>
       </c>
       <c r="C367">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D367" s="29">
-        <v>46.398329660100003</v>
+        <v>89.633136843399996</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -9088,10 +9103,10 @@
         <v>839</v>
       </c>
       <c r="C368">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D368" s="29">
-        <v>182.1196553318</v>
+        <v>255.5111582266</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -9116,10 +9131,10 @@
         <v>843</v>
       </c>
       <c r="C370">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D370" s="29">
-        <v>206.81231435469999</v>
+        <v>204.03631013520001</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -9130,10 +9145,10 @@
         <v>845</v>
       </c>
       <c r="C371">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="D371" s="29">
-        <v>69.930464304400004</v>
+        <v>109.407339315</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -9144,10 +9159,10 @@
         <v>847</v>
       </c>
       <c r="C372">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D372" s="29">
-        <v>17.932716447899999</v>
+        <v>36.762068718199998</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -9158,10 +9173,10 @@
         <v>849</v>
       </c>
       <c r="C373">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D373" s="29">
-        <v>27.4434731389</v>
+        <v>57.564358291300003</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -9172,10 +9187,10 @@
         <v>851</v>
       </c>
       <c r="C374">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="D374" s="29">
-        <v>26.675062751999999</v>
+        <v>37.607465519199998</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -9186,10 +9201,10 @@
         <v>853</v>
       </c>
       <c r="C375">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="D375" s="29">
-        <v>75.302274697000001</v>
+        <v>96.614239233899994</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -9200,10 +9215,10 @@
         <v>855</v>
       </c>
       <c r="C376">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D376" s="29">
-        <v>43.7169495658</v>
+        <v>34.469133311500002</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -9214,10 +9229,10 @@
         <v>857</v>
       </c>
       <c r="C377">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D377" s="29">
-        <v>33.553778047199998</v>
+        <v>61.6956564093</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -9228,10 +9243,10 @@
         <v>859</v>
       </c>
       <c r="C378">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D378" s="29">
-        <v>63.885164445100003</v>
+        <v>47.3223440334</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -9242,10 +9257,10 @@
         <v>861</v>
       </c>
       <c r="C379">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="D379" s="29">
-        <v>57.230982726900002</v>
+        <v>63.055374774299999</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -9256,10 +9271,10 @@
         <v>863</v>
       </c>
       <c r="C380">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D380" s="29">
-        <v>152.59409969480001</v>
+        <v>153.57226700050001</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -9270,10 +9285,10 @@
         <v>865</v>
       </c>
       <c r="C381">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="D381" s="29">
-        <v>74.9960437867</v>
+        <v>129.3509746046</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -9284,10 +9299,10 @@
         <v>867</v>
       </c>
       <c r="C382">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D382" s="29">
-        <v>106.43214250699999</v>
+        <v>100.13023933229999</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -9298,10 +9313,10 @@
         <v>869</v>
       </c>
       <c r="C383">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D383" s="29">
-        <v>37.919392123000002</v>
+        <v>34.2732967265</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -9312,10 +9327,10 @@
         <v>871</v>
       </c>
       <c r="C384">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D384" s="29">
-        <v>56.213047449800001</v>
+        <v>60.228265124799996</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -9326,10 +9341,10 @@
         <v>873</v>
       </c>
       <c r="C385">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D385" s="29">
-        <v>28.397527521899999</v>
+        <v>42.596291282899998</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -9340,10 +9355,10 @@
         <v>875</v>
       </c>
       <c r="C386">
-        <v>568</v>
+        <v>668</v>
       </c>
       <c r="D386" s="29">
-        <v>251.33076987749999</v>
+        <v>295.57914485589998</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -9354,10 +9369,10 @@
         <v>877</v>
       </c>
       <c r="C387">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D387" s="29">
-        <v>92.520679220600002</v>
+        <v>84.881357083099999</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -9368,10 +9383,10 @@
         <v>879</v>
       </c>
       <c r="C388">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D388" s="29">
-        <v>24.476862689299999</v>
+        <v>39.608014169900002</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -9382,10 +9397,10 @@
         <v>881</v>
       </c>
       <c r="C389">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D389" s="29">
-        <v>49.467400982800001</v>
+        <v>42.871747518399999</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -9396,10 +9411,10 @@
         <v>883</v>
       </c>
       <c r="C390">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D390" s="29">
-        <v>60.739357825100001</v>
+        <v>67.132974438299996</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -9410,10 +9425,10 @@
         <v>885</v>
       </c>
       <c r="C391">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D391" s="29">
-        <v>63.741571785300003</v>
+        <v>66.080712034300007</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -9424,10 +9439,10 @@
         <v>887</v>
       </c>
       <c r="C392">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="D392" s="29">
-        <v>42.110567232900003</v>
+        <v>69.824359343500007</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -9438,10 +9453,10 @@
         <v>889</v>
       </c>
       <c r="C393">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D393" s="29">
-        <v>225.2593003513</v>
+        <v>226.09982012879999</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -9452,10 +9467,10 @@
         <v>891</v>
       </c>
       <c r="C394">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="D394" s="29">
-        <v>238.63556605759999</v>
+        <v>126.3364761481</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -9466,10 +9481,10 @@
         <v>893</v>
       </c>
       <c r="C395">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D395" s="29">
-        <v>64.955195677500001</v>
+        <v>77.503358478899997</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -9480,10 +9495,10 @@
         <v>895</v>
       </c>
       <c r="C396">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D396" s="29">
-        <v>67.455693873800001</v>
+        <v>50.591770405299997</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -9494,10 +9509,10 @@
         <v>897</v>
       </c>
       <c r="C397">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D397" s="29">
-        <v>115.6336725254</v>
+        <v>60.859827645000003</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -9508,10 +9523,10 @@
         <v>899</v>
       </c>
       <c r="C398">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D398" s="29">
-        <v>31.6676166952</v>
+        <v>28.500855025700002</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -9522,10 +9537,10 @@
         <v>901</v>
       </c>
       <c r="C399">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D399" s="29">
-        <v>49.6874658399</v>
+        <v>78.506196027000001</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -9536,10 +9551,10 @@
         <v>903</v>
       </c>
       <c r="C400">
-        <v>249</v>
+        <v>326</v>
       </c>
       <c r="D400" s="29">
-        <v>54.133259126600002</v>
+        <v>70.873262952800005</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -9550,10 +9565,10 @@
         <v>905</v>
       </c>
       <c r="C401">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D401" s="29">
-        <v>123.0484404457</v>
+        <v>104.98628404999999</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -9564,10 +9579,10 @@
         <v>907</v>
       </c>
       <c r="C402">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="D402" s="29">
-        <v>47.052064347399998</v>
+        <v>65.377605198500007</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -9578,10 +9593,10 @@
         <v>909</v>
       </c>
       <c r="C403">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="D403" s="29">
-        <v>73.295950236600007</v>
+        <v>78.160725694800007</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -9592,10 +9607,10 @@
         <v>911</v>
       </c>
       <c r="C404">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="D404" s="29">
-        <v>67.869890905399998</v>
+        <v>54.583192685900002</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -9606,10 +9621,10 @@
         <v>913</v>
       </c>
       <c r="C405">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D405" s="29">
-        <v>23.656507510899999</v>
+        <v>56.512767942799996</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -9620,10 +9635,10 @@
         <v>915</v>
       </c>
       <c r="C406">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D406" s="29">
-        <v>144.05416436580001</v>
+        <v>140.85296071319999</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -9634,10 +9649,10 @@
         <v>917</v>
       </c>
       <c r="C407">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D407" s="29">
-        <v>8.7833327477999994</v>
+        <v>21.079998594700001</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -9648,10 +9663,10 @@
         <v>919</v>
       </c>
       <c r="C408">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D408" s="29">
-        <v>45.142197923499999</v>
+        <v>36.782531641299997</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -9662,10 +9677,10 @@
         <v>921</v>
       </c>
       <c r="C409">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D409" s="29">
-        <v>43.418481800400002</v>
+        <v>45.830619678200001</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -9676,10 +9691,10 @@
         <v>923</v>
       </c>
       <c r="C410">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D410" s="29">
-        <v>56.259127145599997</v>
+        <v>47.880108208999999</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -9690,10 +9705,10 @@
         <v>925</v>
       </c>
       <c r="C411">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="D411" s="29">
-        <v>283.53175968620002</v>
+        <v>220.21884247470001</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -9704,10 +9719,10 @@
         <v>927</v>
       </c>
       <c r="C412">
-        <v>289</v>
+        <v>380</v>
       </c>
       <c r="D412" s="29">
-        <v>81.385525204199993</v>
+        <v>107.01210926500001</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -9718,10 +9733,10 @@
         <v>929</v>
       </c>
       <c r="C413">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D413" s="29">
-        <v>48.4624884706</v>
+        <v>63.313896227699999</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -9732,10 +9747,10 @@
         <v>931</v>
       </c>
       <c r="C414">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D414" s="29">
-        <v>36.351985804199998</v>
+        <v>48.674692856500002</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -9746,10 +9761,10 @@
         <v>933</v>
       </c>
       <c r="C415">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D415" s="29">
-        <v>40.662642649299997</v>
+        <v>42.2469014538</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -9760,10 +9775,10 @@
         <v>935</v>
       </c>
       <c r="C416">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D416" s="29">
-        <v>26.321176849099999</v>
+        <v>43.868628081799997</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -9774,10 +9789,10 @@
         <v>937</v>
       </c>
       <c r="C417">
-        <v>223</v>
+        <v>403</v>
       </c>
       <c r="D417" s="29">
-        <v>70.793201312999997</v>
+        <v>127.93569564640001</v>
       </c>
     </row>
   </sheetData>
@@ -9793,22 +9808,22 @@
   <dimension ref="A2:S510"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H385" sqref="H385"/>
+      <pane ySplit="3" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D373" sqref="D373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" style="25" customWidth="1"/>
     <col min="2" max="2" width="11.453125" style="32"/>
     <col min="3" max="11" width="11.453125" style="3"/>
-    <col min="12" max="13" width="12.36328125" style="3" customWidth="1"/>
+    <col min="12" max="13" width="12.453125" style="3" customWidth="1"/>
     <col min="14" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -18974,7 +18989,7 @@
         <v>2052028</v>
       </c>
       <c r="D333" s="3">
-        <f t="shared" ref="D333:D382" si="175">B333-B332</f>
+        <f t="shared" ref="D333:D387" si="175">B333-B332</f>
         <v>11369</v>
       </c>
       <c r="E333" s="3">
@@ -20405,7 +20420,7 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382" s="26" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B382" s="32">
         <v>2509445</v>
@@ -20421,87 +20436,217 @@
         <v>72189</v>
       </c>
       <c r="F382" s="3">
-        <f t="shared" ref="F382" si="261">E382-E381</f>
+        <f t="shared" ref="F382:F383" si="261">E382-E381</f>
         <v>255</v>
       </c>
       <c r="G382" s="4">
-        <f t="shared" ref="G382" si="262">E382/B382</f>
+        <f t="shared" ref="G382:G383" si="262">E382/B382</f>
         <v>2.876691858159872E-2</v>
       </c>
       <c r="H382" s="3">
-        <f t="shared" ref="H382" si="263">B382-E382</f>
+        <f t="shared" ref="H382:H383" si="263">B382-E382</f>
         <v>2437256</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A383" s="26"/>
-      <c r="G383" s="4"/>
+      <c r="A383" s="26" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B383" s="32">
+        <v>2518591</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D383" s="3">
+        <f t="shared" si="175"/>
+        <v>9146</v>
+      </c>
+      <c r="E383" s="3">
+        <v>72489</v>
+      </c>
+      <c r="F383" s="3">
+        <f t="shared" si="261"/>
+        <v>300</v>
+      </c>
+      <c r="G383" s="4">
+        <f t="shared" si="262"/>
+        <v>2.8781568742205464E-2</v>
+      </c>
+      <c r="H383" s="3">
+        <f t="shared" si="263"/>
+        <v>2446102</v>
+      </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A384" s="26"/>
-      <c r="G384" s="4"/>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A385" s="26"/>
-      <c r="G385" s="4"/>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A386" s="26"/>
-      <c r="G386" s="4"/>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A387" s="26"/>
-      <c r="G387" s="4"/>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A384" s="26" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B384" s="32">
+        <v>2532947</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D384" s="3">
+        <f t="shared" si="175"/>
+        <v>14356</v>
+      </c>
+      <c r="E384" s="3">
+        <v>72810</v>
+      </c>
+      <c r="F384" s="3">
+        <f t="shared" ref="F384" si="264">E384-E383</f>
+        <v>321</v>
+      </c>
+      <c r="G384" s="4">
+        <f t="shared" ref="G384" si="265">E384/B384</f>
+        <v>2.8745173112583879E-2</v>
+      </c>
+      <c r="H384" s="3">
+        <f t="shared" ref="H384" si="266">B384-E384</f>
+        <v>2460137</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A385" s="26" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B385" s="32">
+        <v>2545781</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D385" s="3">
+        <f t="shared" si="175"/>
+        <v>12834</v>
+      </c>
+      <c r="E385" s="3">
+        <v>73062</v>
+      </c>
+      <c r="F385" s="3">
+        <f t="shared" ref="F385" si="267">E385-E384</f>
+        <v>252</v>
+      </c>
+      <c r="G385" s="4">
+        <f t="shared" ref="G385" si="268">E385/B385</f>
+        <v>2.8699247892886307E-2</v>
+      </c>
+      <c r="H385" s="3">
+        <f t="shared" ref="H385" si="269">B385-E385</f>
+        <v>2472719</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A386" s="26" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B386" s="32">
+        <v>2558455</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D386" s="3">
+        <f t="shared" si="175"/>
+        <v>12674</v>
+      </c>
+      <c r="E386" s="3">
+        <v>73301</v>
+      </c>
+      <c r="F386" s="3">
+        <f t="shared" ref="F386:F387" si="270">E386-E385</f>
+        <v>239</v>
+      </c>
+      <c r="G386" s="4">
+        <f t="shared" ref="G386:G387" si="271">E386/B386</f>
+        <v>2.8650494145881011E-2</v>
+      </c>
+      <c r="H386" s="3">
+        <f t="shared" ref="H386:H387" si="272">B386-E386</f>
+        <v>2485154</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A387" s="26" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B387" s="32">
+        <v>2569245</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D387" s="3">
+        <f t="shared" si="175"/>
+        <v>10790</v>
+      </c>
+      <c r="E387" s="3">
+        <v>73371</v>
+      </c>
+      <c r="F387" s="3">
+        <f t="shared" si="270"/>
+        <v>70</v>
+      </c>
+      <c r="G387" s="4">
+        <f t="shared" si="271"/>
+        <v>2.8557416672991481E-2</v>
+      </c>
+      <c r="H387" s="3">
+        <f t="shared" si="272"/>
+        <v>2495874</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388" s="26"/>
       <c r="G388" s="4"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389" s="26"/>
       <c r="G389" s="4"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390" s="26"/>
       <c r="G390" s="4"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391" s="26"/>
       <c r="G391" s="4"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392" s="26"/>
       <c r="G392" s="4"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393" s="26"/>
       <c r="G393" s="4"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394" s="26"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395" s="26"/>
       <c r="G395" s="4"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396" s="26"/>
       <c r="G396" s="4"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397" s="26"/>
       <c r="G397" s="4"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398" s="26"/>
       <c r="G398" s="4"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399" s="26"/>
       <c r="G399" s="4"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400" s="26"/>
       <c r="G400" s="4"/>
     </row>
@@ -20954,10 +21099,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A2:KX20"/>
+  <dimension ref="A2:LS20"/>
   <sheetViews>
-    <sheetView topLeftCell="KI1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="KW4" sqref="KW4:KW20"/>
+    <sheetView topLeftCell="KS1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="LD19" sqref="LD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20966,12 +21111,12 @@
     <col min="2" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:310" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:310" x14ac:dyDescent="0.35">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:331" x14ac:dyDescent="0.35">
       <c r="B3" s="5">
         <v>43957</v>
       </c>
@@ -21899,8 +22044,71 @@
       <c r="KX3" s="5">
         <v>44265</v>
       </c>
-    </row>
-    <row r="4" spans="1:310" x14ac:dyDescent="0.35">
+      <c r="KY3" s="5">
+        <v>44266</v>
+      </c>
+      <c r="KZ3" s="5">
+        <v>44267</v>
+      </c>
+      <c r="LA3" s="5">
+        <v>44268</v>
+      </c>
+      <c r="LB3" s="5">
+        <v>44269</v>
+      </c>
+      <c r="LC3" s="5">
+        <v>44270</v>
+      </c>
+      <c r="LD3" s="5">
+        <v>44271</v>
+      </c>
+      <c r="LE3" s="5">
+        <v>44272</v>
+      </c>
+      <c r="LF3" s="5">
+        <v>44273</v>
+      </c>
+      <c r="LG3" s="5">
+        <v>44274</v>
+      </c>
+      <c r="LH3" s="5">
+        <v>44275</v>
+      </c>
+      <c r="LI3" s="5">
+        <v>44276</v>
+      </c>
+      <c r="LJ3" s="5">
+        <v>44277</v>
+      </c>
+      <c r="LK3" s="5">
+        <v>44278</v>
+      </c>
+      <c r="LL3" s="5">
+        <v>44279</v>
+      </c>
+      <c r="LM3" s="5">
+        <v>44280</v>
+      </c>
+      <c r="LN3" s="5">
+        <v>44281</v>
+      </c>
+      <c r="LO3" s="5">
+        <v>44282</v>
+      </c>
+      <c r="LP3" s="5">
+        <v>44283</v>
+      </c>
+      <c r="LQ3" s="5">
+        <v>44284</v>
+      </c>
+      <c r="LR3" s="5">
+        <v>44285</v>
+      </c>
+      <c r="LS3" s="5">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -22828,8 +23036,23 @@
       <c r="KW4">
         <v>6698</v>
       </c>
-    </row>
-    <row r="5" spans="1:310" x14ac:dyDescent="0.35">
+      <c r="KX4" s="3">
+        <v>6736</v>
+      </c>
+      <c r="KY4" s="3">
+        <v>6997</v>
+      </c>
+      <c r="KZ4" s="3">
+        <v>7386</v>
+      </c>
+      <c r="LA4" s="3">
+        <v>7714</v>
+      </c>
+      <c r="LB4" s="3">
+        <v>8176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -23757,8 +23980,23 @@
       <c r="KW5">
         <v>9744</v>
       </c>
-    </row>
-    <row r="6" spans="1:310" x14ac:dyDescent="0.35">
+      <c r="KX5" s="3">
+        <v>9251</v>
+      </c>
+      <c r="KY5" s="3">
+        <v>10098</v>
+      </c>
+      <c r="KZ5" s="3">
+        <v>10467</v>
+      </c>
+      <c r="LA5" s="3">
+        <v>10762</v>
+      </c>
+      <c r="LB5" s="3">
+        <v>11293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -24686,8 +24924,23 @@
       <c r="KW6">
         <v>2176</v>
       </c>
-    </row>
-    <row r="7" spans="1:310" x14ac:dyDescent="0.35">
+      <c r="KX6" s="3">
+        <v>1958</v>
+      </c>
+      <c r="KY6" s="3">
+        <v>1921</v>
+      </c>
+      <c r="KZ6" s="3">
+        <v>2034</v>
+      </c>
+      <c r="LA6" s="3">
+        <v>2257</v>
+      </c>
+      <c r="LB6" s="3">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -25615,8 +25868,23 @@
       <c r="KW7">
         <v>1552</v>
       </c>
-    </row>
-    <row r="8" spans="1:310" x14ac:dyDescent="0.35">
+      <c r="KX7" s="3">
+        <v>1529</v>
+      </c>
+      <c r="KY7" s="3">
+        <v>1688</v>
+      </c>
+      <c r="KZ7" s="3">
+        <v>1774</v>
+      </c>
+      <c r="LA7" s="3">
+        <v>1849</v>
+      </c>
+      <c r="LB7" s="3">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -26544,8 +26812,23 @@
       <c r="KW8">
         <v>439</v>
       </c>
-    </row>
-    <row r="9" spans="1:310" x14ac:dyDescent="0.35">
+      <c r="KX8" s="3">
+        <v>394</v>
+      </c>
+      <c r="KY8" s="3">
+        <v>411</v>
+      </c>
+      <c r="KZ8" s="3">
+        <v>420</v>
+      </c>
+      <c r="LA8" s="3">
+        <v>435</v>
+      </c>
+      <c r="LB8" s="3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -27473,8 +27756,23 @@
       <c r="KW9">
         <v>1334</v>
       </c>
-    </row>
-    <row r="10" spans="1:310" x14ac:dyDescent="0.35">
+      <c r="KX9" s="3">
+        <v>1095</v>
+      </c>
+      <c r="KY9" s="3">
+        <v>1225</v>
+      </c>
+      <c r="KZ9" s="3">
+        <v>1299</v>
+      </c>
+      <c r="LA9" s="3">
+        <v>1412</v>
+      </c>
+      <c r="LB9" s="3">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -28402,8 +28700,23 @@
       <c r="KW10">
         <v>4322</v>
       </c>
-    </row>
-    <row r="11" spans="1:310" x14ac:dyDescent="0.35">
+      <c r="KX10" s="3">
+        <v>4352</v>
+      </c>
+      <c r="KY10" s="3">
+        <v>4579</v>
+      </c>
+      <c r="KZ10" s="3">
+        <v>4765</v>
+      </c>
+      <c r="LA10" s="3">
+        <v>5114</v>
+      </c>
+      <c r="LB10" s="3">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
@@ -29331,8 +29644,23 @@
       <c r="KW11">
         <v>1061</v>
       </c>
-    </row>
-    <row r="12" spans="1:310" x14ac:dyDescent="0.35">
+      <c r="KX11" s="3">
+        <v>1007</v>
+      </c>
+      <c r="KY11" s="3">
+        <v>942</v>
+      </c>
+      <c r="KZ11" s="3">
+        <v>1008</v>
+      </c>
+      <c r="LA11" s="3">
+        <v>934</v>
+      </c>
+      <c r="LB11" s="3">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -30260,8 +30588,23 @@
       <c r="KW12">
         <v>4974</v>
       </c>
-    </row>
-    <row r="13" spans="1:310" x14ac:dyDescent="0.35">
+      <c r="KX12" s="3">
+        <v>4806</v>
+      </c>
+      <c r="KY12" s="3">
+        <v>4979</v>
+      </c>
+      <c r="KZ12" s="3">
+        <v>5207</v>
+      </c>
+      <c r="LA12" s="3">
+        <v>5547</v>
+      </c>
+      <c r="LB12" s="3">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -31189,8 +31532,23 @@
       <c r="KW13">
         <v>11836</v>
       </c>
-    </row>
-    <row r="14" spans="1:310" x14ac:dyDescent="0.35">
+      <c r="KX13" s="3">
+        <v>11724</v>
+      </c>
+      <c r="KY13" s="3">
+        <v>12543</v>
+      </c>
+      <c r="KZ13" s="3">
+        <v>13128</v>
+      </c>
+      <c r="LA13" s="3">
+        <v>13627</v>
+      </c>
+      <c r="LB13" s="3">
+        <v>14158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
@@ -32118,8 +32476,23 @@
       <c r="KW14">
         <v>1894</v>
       </c>
-    </row>
-    <row r="15" spans="1:310" x14ac:dyDescent="0.35">
+      <c r="KX14" s="3">
+        <v>1893</v>
+      </c>
+      <c r="KY14" s="3">
+        <v>1986</v>
+      </c>
+      <c r="KZ14" s="3">
+        <v>2075</v>
+      </c>
+      <c r="LA14" s="3">
+        <v>2202</v>
+      </c>
+      <c r="LB14" s="3">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -33047,8 +33420,23 @@
       <c r="KW15">
         <v>566</v>
       </c>
-    </row>
-    <row r="16" spans="1:310" x14ac:dyDescent="0.35">
+      <c r="KX15" s="3">
+        <v>555</v>
+      </c>
+      <c r="KY15" s="3">
+        <v>510</v>
+      </c>
+      <c r="KZ15" s="3">
+        <v>475</v>
+      </c>
+      <c r="LA15" s="3">
+        <v>557</v>
+      </c>
+      <c r="LB15" s="3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:331" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -33976,8 +34364,23 @@
       <c r="KW16">
         <v>3437</v>
       </c>
-    </row>
-    <row r="17" spans="1:309" x14ac:dyDescent="0.35">
+      <c r="KX16" s="3">
+        <v>3078</v>
+      </c>
+      <c r="KY16" s="3">
+        <v>3470</v>
+      </c>
+      <c r="KZ16" s="3">
+        <v>3703</v>
+      </c>
+      <c r="LA16" s="3">
+        <v>4093</v>
+      </c>
+      <c r="LB16" s="3">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:314" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -34905,8 +35308,23 @@
       <c r="KW17">
         <v>1945</v>
       </c>
-    </row>
-    <row r="18" spans="1:309" x14ac:dyDescent="0.35">
+      <c r="KX17" s="3">
+        <v>1812</v>
+      </c>
+      <c r="KY17" s="3">
+        <v>1850</v>
+      </c>
+      <c r="KZ17" s="3">
+        <v>1944</v>
+      </c>
+      <c r="LA17" s="3">
+        <v>2107</v>
+      </c>
+      <c r="LB17" s="3">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:314" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -35834,8 +36252,23 @@
       <c r="KW18">
         <v>1317</v>
       </c>
-    </row>
-    <row r="19" spans="1:309" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="KX18" s="3">
+        <v>1342</v>
+      </c>
+      <c r="KY18" s="3">
+        <v>1350</v>
+      </c>
+      <c r="KZ18" s="3">
+        <v>1395</v>
+      </c>
+      <c r="LA18" s="3">
+        <v>1411</v>
+      </c>
+      <c r="LB18" s="3">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:314" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -36763,8 +37196,23 @@
       <c r="KW19">
         <v>2875</v>
       </c>
-    </row>
-    <row r="20" spans="1:309" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="KX19" s="3">
+        <v>2863</v>
+      </c>
+      <c r="KY19" s="3">
+        <v>2950</v>
+      </c>
+      <c r="KZ19" s="3">
+        <v>3116</v>
+      </c>
+      <c r="LA19" s="3">
+        <v>3244</v>
+      </c>
+      <c r="LB19" s="3">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:314" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -36991,19 +37439,15 @@
         <v>2578</v>
       </c>
       <c r="BX20" s="12">
-        <f>SUM(BX4:BX19)</f>
         <v>2496</v>
       </c>
       <c r="BY20" s="12">
-        <f>SUM(BY4:BY19)</f>
         <v>2614</v>
       </c>
       <c r="BZ20" s="12">
-        <f>SUM(BZ4:BZ19)</f>
         <v>2809</v>
       </c>
       <c r="CA20" s="12">
-        <f>SUM(CA4:CA19)</f>
         <v>2802</v>
       </c>
       <c r="CB20" s="12">
@@ -37022,7 +37466,6 @@
         <v>3405</v>
       </c>
       <c r="CG20" s="12">
-        <f>SUM(CG4:CG19)</f>
         <v>3611</v>
       </c>
       <c r="CH20" s="12">
@@ -37032,7 +37475,6 @@
         <v>3968</v>
       </c>
       <c r="CJ20" s="12">
-        <f>SUM(CJ4:CJ19)</f>
         <v>4141</v>
       </c>
       <c r="CK20" s="12">
@@ -37054,30 +37496,24 @@
         <v>4783</v>
       </c>
       <c r="CQ20" s="12">
-        <f>SUM(CQ4:CQ19)</f>
         <v>5077</v>
       </c>
       <c r="CR20" s="12">
-        <f>SUM(CR4:CR19)</f>
         <v>5281</v>
       </c>
       <c r="CS20" s="12">
-        <f>SUM(CS4:CS19)</f>
         <v>5271</v>
       </c>
       <c r="CT20" s="12">
-        <f>SUM(CT4:CT19)</f>
         <v>5407</v>
       </c>
       <c r="CU20" s="12">
-        <f>SUM(CU4:CU19)</f>
         <v>5576</v>
       </c>
       <c r="CV20" s="12">
         <v>5853</v>
       </c>
       <c r="CW20" s="12">
-        <f>SUM(CW4:CW19)</f>
         <v>6189</v>
       </c>
       <c r="CX20" s="12">
@@ -37087,27 +37523,21 @@
         <v>6914</v>
       </c>
       <c r="CZ20" s="12">
-        <f t="shared" ref="CZ20:DE20" si="0">SUM(CZ4:CZ19)</f>
         <v>6837</v>
       </c>
       <c r="DA20" s="12">
-        <f t="shared" si="0"/>
         <v>7081</v>
       </c>
       <c r="DB20" s="12">
-        <f t="shared" si="0"/>
         <v>7391</v>
       </c>
       <c r="DC20" s="12">
-        <f t="shared" si="0"/>
         <v>7711</v>
       </c>
       <c r="DD20" s="12">
-        <f t="shared" si="0"/>
         <v>7902</v>
       </c>
       <c r="DE20" s="12">
-        <f t="shared" si="0"/>
         <v>7853</v>
       </c>
       <c r="DF20" s="12">
@@ -37138,39 +37568,30 @@
         <v>7905</v>
       </c>
       <c r="DO20" s="12">
-        <f t="shared" ref="DO20:DW20" si="1">SUM(DO4:DO19)</f>
         <v>7952</v>
       </c>
       <c r="DP20" s="12">
-        <f t="shared" si="1"/>
         <v>7756</v>
       </c>
       <c r="DQ20" s="12">
-        <f t="shared" si="1"/>
         <v>7564</v>
       </c>
       <c r="DR20" s="12">
-        <f t="shared" si="1"/>
         <v>7255</v>
       </c>
       <c r="DS20" s="12">
-        <f t="shared" si="1"/>
         <v>7177</v>
       </c>
       <c r="DT20" s="12">
-        <f t="shared" si="1"/>
         <v>7196</v>
       </c>
       <c r="DU20" s="12">
-        <f t="shared" si="1"/>
         <v>7352</v>
       </c>
       <c r="DV20" s="12">
-        <f t="shared" si="1"/>
         <v>7627</v>
       </c>
       <c r="DW20" s="12">
-        <f t="shared" si="1"/>
         <v>7944</v>
       </c>
       <c r="DX20" s="12">
@@ -37288,49 +37709,39 @@
         <v>30975</v>
       </c>
       <c r="FJ20" s="1">
-        <f>SUM(FJ4:FJ19)</f>
         <v>33742</v>
       </c>
       <c r="FK20" s="12">
         <v>35698</v>
       </c>
       <c r="FL20" s="1">
-        <f>SUM(FL4:FL19)</f>
         <v>37764</v>
       </c>
       <c r="FM20" s="1">
-        <f>SUM(FM4:FM19)</f>
         <v>40434</v>
       </c>
       <c r="FN20" s="1">
-        <f>SUM(FN4:FN19)</f>
         <v>42689</v>
       </c>
       <c r="FO20" s="1">
-        <f>SUM(FO4:FO19)</f>
         <v>46771</v>
       </c>
       <c r="FP20" s="12">
         <v>50123</v>
       </c>
       <c r="FQ20" s="1">
-        <f>SUM(FQ4:FQ19)</f>
         <v>56866</v>
       </c>
       <c r="FR20" s="1">
-        <f>SUM(FR4:FR19)</f>
         <v>62329</v>
       </c>
       <c r="FS20" s="1">
-        <f>SUM(FS4:FS19)</f>
         <v>67320</v>
       </c>
       <c r="FT20" s="1">
-        <f>SUM(FT4:FT19)</f>
         <v>72320</v>
       </c>
       <c r="FU20" s="1">
-        <f>SUM(FU4:FU19)</f>
         <v>77866</v>
       </c>
       <c r="FV20" s="12">
@@ -37343,19 +37754,15 @@
         <v>92250</v>
       </c>
       <c r="FY20" s="1">
-        <f>SUM(FY4:FY19)</f>
         <v>95312</v>
       </c>
       <c r="FZ20" s="1">
-        <f>SUM(FZ4:FZ19)</f>
         <v>99873</v>
       </c>
       <c r="GA20" s="1">
-        <f>SUM(GA4:GA19)</f>
         <v>103273</v>
       </c>
       <c r="GB20" s="1">
-        <f>SUM(GB4:GB19)</f>
         <v>104606</v>
       </c>
       <c r="GC20" s="12">
@@ -37539,11 +37946,9 @@
         <v>116094</v>
       </c>
       <c r="IK20" s="1">
-        <f>SUM(IK4:IK19)</f>
         <v>115894</v>
       </c>
       <c r="IL20" s="1">
-        <f>SUM(IL4:IL19)</f>
         <v>112002</v>
       </c>
       <c r="IM20" s="12">
@@ -37658,7 +38063,6 @@
         <v>53380</v>
       </c>
       <c r="JX20" s="1">
-        <f>SUM(JX4:JX19)</f>
         <v>51696</v>
       </c>
       <c r="JY20" s="12">
@@ -37686,11 +38090,9 @@
         <v>48042</v>
       </c>
       <c r="KG20" s="1">
-        <f>SUM(KG4:KG19)</f>
         <v>50086</v>
       </c>
       <c r="KH20" s="1">
-        <f>SUM(KH4:KH19)</f>
         <v>50691</v>
       </c>
       <c r="KI20" s="12">
@@ -37712,7 +38114,6 @@
         <v>53092</v>
       </c>
       <c r="KO20" s="1">
-        <f>SUM(KO4:KO19)</f>
         <v>54716</v>
       </c>
       <c r="KP20" s="12">
@@ -37737,8 +38138,22 @@
         <v>56518</v>
       </c>
       <c r="KW20" s="1">
-        <f>SUM(KW4:KW19)</f>
         <v>56170</v>
+      </c>
+      <c r="KX20" s="12">
+        <v>54395</v>
+      </c>
+      <c r="KY20" s="12">
+        <v>57499</v>
+      </c>
+      <c r="KZ20" s="12">
+        <v>60196</v>
+      </c>
+      <c r="LA20" s="12">
+        <v>63265</v>
+      </c>
+      <c r="LB20" s="12">
+        <v>65746</v>
       </c>
     </row>
   </sheetData>
@@ -37750,11 +38165,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Tabelle5"/>
-  <dimension ref="A2:LD21"/>
+  <dimension ref="A2:LT21"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="KL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KL30" sqref="KL30"/>
+      <pane xSplit="1" topLeftCell="KS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="LF19" sqref="LF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37803,30 +38218,30 @@
     <col min="151" max="151" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="152" max="159" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="11.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="162" max="169" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="170" max="170" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="171" max="171" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="172" max="180" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="181" max="181" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="11.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="183" max="190" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="193" max="200" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="11.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="193" max="200" width="11.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="201" max="201" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="11.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="203" max="212" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="213" max="220" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="221" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:316" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:332" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:316" x14ac:dyDescent="0.35">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:332" x14ac:dyDescent="0.35">
       <c r="C3" s="5">
         <v>43957</v>
       </c>
@@ -38769,8 +39184,56 @@
       <c r="LD3" s="5">
         <v>44270</v>
       </c>
-    </row>
-    <row r="4" spans="1:316" x14ac:dyDescent="0.35">
+      <c r="LE3" s="5">
+        <v>44271</v>
+      </c>
+      <c r="LF3" s="5">
+        <v>44272</v>
+      </c>
+      <c r="LG3" s="5">
+        <v>44273</v>
+      </c>
+      <c r="LH3" s="5">
+        <v>44274</v>
+      </c>
+      <c r="LI3" s="5">
+        <v>44275</v>
+      </c>
+      <c r="LJ3" s="5">
+        <v>44276</v>
+      </c>
+      <c r="LK3" s="5">
+        <v>44277</v>
+      </c>
+      <c r="LL3" s="5">
+        <v>44278</v>
+      </c>
+      <c r="LM3" s="5">
+        <v>44279</v>
+      </c>
+      <c r="LN3" s="5">
+        <v>44280</v>
+      </c>
+      <c r="LO3" s="5">
+        <v>44281</v>
+      </c>
+      <c r="LP3" s="5">
+        <v>44282</v>
+      </c>
+      <c r="LQ3" s="5">
+        <v>44283</v>
+      </c>
+      <c r="LR3" s="5">
+        <v>44284</v>
+      </c>
+      <c r="LS3" s="5">
+        <v>44285</v>
+      </c>
+      <c r="LT3" s="5">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:332" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -39701,14 +40164,24 @@
       <c r="KX4" s="16">
         <v>60.340200537025986</v>
       </c>
-      <c r="KY4" s="16"/>
-      <c r="KZ4" s="16"/>
-      <c r="LA4" s="16"/>
-      <c r="LB4" s="16"/>
-      <c r="LC4" s="16"/>
+      <c r="KY4" s="16">
+        <v>60.682530728188567</v>
+      </c>
+      <c r="KZ4" s="16">
+        <v>63.033798620121054</v>
+      </c>
+      <c r="LA4" s="16">
+        <v>66.538178734916968</v>
+      </c>
+      <c r="LB4" s="16">
+        <v>69.493028806004546</v>
+      </c>
+      <c r="LC4" s="16">
+        <v>73.655043235402275</v>
+      </c>
       <c r="LD4" s="16"/>
     </row>
-    <row r="5" spans="1:316" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:332" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -40639,14 +41112,24 @@
       <c r="KX5" s="16">
         <v>74.24148765800031</v>
       </c>
-      <c r="KY5" s="16"/>
-      <c r="KZ5" s="16"/>
-      <c r="LA5" s="16"/>
-      <c r="LB5" s="16"/>
-      <c r="LC5" s="16"/>
+      <c r="KY5" s="16">
+        <v>70.485221913399101</v>
+      </c>
+      <c r="KZ5" s="16">
+        <v>76.938684561831593</v>
+      </c>
+      <c r="LA5" s="16">
+        <v>79.750169470062517</v>
+      </c>
+      <c r="LB5" s="16">
+        <v>81.997833556588603</v>
+      </c>
+      <c r="LC5" s="16">
+        <v>86.043628912335535</v>
+      </c>
       <c r="LD5" s="16"/>
     </row>
-    <row r="6" spans="1:316" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:332" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -41577,14 +42060,24 @@
       <c r="KX6" s="16">
         <v>59.299777544078999</v>
       </c>
-      <c r="KY6" s="16"/>
-      <c r="KZ6" s="16"/>
-      <c r="LA6" s="16"/>
-      <c r="LB6" s="16"/>
-      <c r="LC6" s="16"/>
+      <c r="KY6" s="16">
+        <v>53.358899095269621</v>
+      </c>
+      <c r="KZ6" s="16">
+        <v>52.350584863132241</v>
+      </c>
+      <c r="LA6" s="16">
+        <v>55.430031031551785</v>
+      </c>
+      <c r="LB6" s="16">
+        <v>61.507168160379742</v>
+      </c>
+      <c r="LC6" s="16">
+        <v>70.800010137645799</v>
+      </c>
       <c r="LD6" s="16"/>
     </row>
-    <row r="7" spans="1:316" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:332" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -42515,14 +43008,24 @@
       <c r="KX7" s="16">
         <v>61.541072519730221</v>
       </c>
-      <c r="KY7" s="16"/>
-      <c r="KZ7" s="16"/>
-      <c r="LA7" s="16"/>
-      <c r="LB7" s="16"/>
-      <c r="LC7" s="16"/>
+      <c r="KY7" s="16">
+        <v>60.62905920274968</v>
+      </c>
+      <c r="KZ7" s="16">
+        <v>66.933846915789047</v>
+      </c>
+      <c r="LA7" s="16">
+        <v>70.343983666238032</v>
+      </c>
+      <c r="LB7" s="16">
+        <v>73.317940134652815</v>
+      </c>
+      <c r="LC7" s="16">
+        <v>77.878006719555501</v>
+      </c>
       <c r="LD7" s="16"/>
     </row>
-    <row r="8" spans="1:316" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:332" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -43453,14 +43956,24 @@
       <c r="KX8" s="16">
         <v>64.444907677898769</v>
       </c>
-      <c r="KY8" s="16"/>
-      <c r="KZ8" s="16"/>
-      <c r="LA8" s="16"/>
-      <c r="LB8" s="16"/>
-      <c r="LC8" s="16"/>
+      <c r="KY8" s="16">
+        <v>57.838937642578856</v>
+      </c>
+      <c r="KZ8" s="16">
+        <v>60.334526322588601</v>
+      </c>
+      <c r="LA8" s="16">
+        <v>61.655720329652588</v>
+      </c>
+      <c r="LB8" s="16">
+        <v>63.857710341425893</v>
+      </c>
+      <c r="LC8" s="16">
+        <v>67.968091696736067</v>
+      </c>
       <c r="LD8" s="16"/>
     </row>
-    <row r="9" spans="1:316" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:332" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -44391,14 +44904,24 @@
       <c r="KX9" s="16">
         <v>72.215338126396333</v>
       </c>
-      <c r="KY9" s="16"/>
-      <c r="KZ9" s="16"/>
-      <c r="LA9" s="16"/>
-      <c r="LB9" s="16"/>
-      <c r="LC9" s="16"/>
+      <c r="KY9" s="16">
+        <v>59.277207832386786</v>
+      </c>
+      <c r="KZ9" s="16">
+        <v>66.314684561345956</v>
+      </c>
+      <c r="LA9" s="16">
+        <v>70.320632853215017</v>
+      </c>
+      <c r="LB9" s="16">
+        <v>76.437824163771836</v>
+      </c>
+      <c r="LC9" s="16">
+        <v>79.469352600861939</v>
+      </c>
       <c r="LD9" s="16"/>
     </row>
-    <row r="10" spans="1:316" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:332" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -45329,14 +45852,24 @@
       <c r="KX10" s="16">
         <v>68.733222223635835</v>
       </c>
-      <c r="KY10" s="16"/>
-      <c r="KZ10" s="16"/>
-      <c r="LA10" s="16"/>
-      <c r="LB10" s="16"/>
-      <c r="LC10" s="16"/>
+      <c r="KY10" s="16">
+        <v>69.210315390389425</v>
+      </c>
+      <c r="KZ10" s="16">
+        <v>72.820320352158362</v>
+      </c>
+      <c r="LA10" s="16">
+        <v>75.778297986030708</v>
+      </c>
+      <c r="LB10" s="16">
+        <v>81.328481825930965</v>
+      </c>
+      <c r="LC10" s="16">
+        <v>84.016106665309593</v>
+      </c>
       <c r="LD10" s="16"/>
     </row>
-    <row r="11" spans="1:316" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:332" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
         <v>16</v>
       </c>
@@ -46267,14 +46800,24 @@
       <c r="KX11" s="16">
         <v>65.976924865900813</v>
       </c>
-      <c r="KY11" s="16"/>
-      <c r="KZ11" s="16"/>
-      <c r="LA11" s="16"/>
-      <c r="LB11" s="16"/>
-      <c r="LC11" s="16"/>
+      <c r="KY11" s="16">
+        <v>62.619004090444975</v>
+      </c>
+      <c r="KZ11" s="16">
+        <v>58.577062416285173</v>
+      </c>
+      <c r="LA11" s="16">
+        <v>62.681187808508966</v>
+      </c>
+      <c r="LB11" s="16">
+        <v>58.079592671773192</v>
+      </c>
+      <c r="LC11" s="16">
+        <v>62.867738962700962</v>
+      </c>
       <c r="LD11" s="16"/>
     </row>
-    <row r="12" spans="1:316" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:332" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -47205,14 +47748,24 @@
       <c r="KX12" s="16">
         <v>62.224717549321909</v>
       </c>
-      <c r="KY12" s="16"/>
-      <c r="KZ12" s="16"/>
-      <c r="LA12" s="16"/>
-      <c r="LB12" s="16"/>
-      <c r="LC12" s="16"/>
+      <c r="KY12" s="16">
+        <v>60.123038307607779</v>
+      </c>
+      <c r="KZ12" s="16">
+        <v>62.287267526753872</v>
+      </c>
+      <c r="LA12" s="16">
+        <v>65.139546497651622</v>
+      </c>
+      <c r="LB12" s="16">
+        <v>69.392944963025457</v>
+      </c>
+      <c r="LC12" s="16">
+        <v>65.064486524733255</v>
+      </c>
       <c r="LD12" s="16"/>
     </row>
-    <row r="13" spans="1:316" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:332" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -48143,14 +48696,24 @@
       <c r="KX13" s="16">
         <v>65.948928806303769</v>
       </c>
-      <c r="KY13" s="16"/>
-      <c r="KZ13" s="16"/>
-      <c r="LA13" s="16"/>
-      <c r="LB13" s="16"/>
-      <c r="LC13" s="16"/>
+      <c r="KY13" s="16">
+        <v>65.324876759471564</v>
+      </c>
+      <c r="KZ13" s="16">
+        <v>69.888257351932083</v>
+      </c>
+      <c r="LA13" s="16">
+        <v>73.147814917975325</v>
+      </c>
+      <c r="LB13" s="16">
+        <v>75.928189662343826</v>
+      </c>
+      <c r="LC13" s="16">
+        <v>78.88686499152152</v>
+      </c>
       <c r="LD13" s="16"/>
     </row>
-    <row r="14" spans="1:316" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:332" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
@@ -49081,14 +49644,24 @@
       <c r="KX14" s="16">
         <v>46.263919785104825</v>
       </c>
-      <c r="KY14" s="16"/>
-      <c r="KZ14" s="16"/>
-      <c r="LA14" s="16"/>
-      <c r="LB14" s="16"/>
-      <c r="LC14" s="16"/>
+      <c r="KY14" s="16">
+        <v>46.239493217108468</v>
+      </c>
+      <c r="KZ14" s="16">
+        <v>48.511164040769899</v>
+      </c>
+      <c r="LA14" s="16">
+        <v>50.685128592445892</v>
+      </c>
+      <c r="LB14" s="16">
+        <v>53.787302727983544</v>
+      </c>
+      <c r="LC14" s="16">
+        <v>52.150722672227459</v>
+      </c>
       <c r="LD14" s="16"/>
     </row>
-    <row r="15" spans="1:316" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:332" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -50019,14 +50592,24 @@
       <c r="KX15" s="16">
         <v>57.352057530396081</v>
       </c>
-      <c r="KY15" s="16"/>
-      <c r="KZ15" s="16"/>
-      <c r="LA15" s="16"/>
-      <c r="LB15" s="16"/>
-      <c r="LC15" s="16"/>
+      <c r="KY15" s="16">
+        <v>56.23744157132478</v>
+      </c>
+      <c r="KZ15" s="16">
+        <v>51.677649011487638</v>
+      </c>
+      <c r="LA15" s="16">
+        <v>48.13114368716986</v>
+      </c>
+      <c r="LB15" s="16">
+        <v>56.440099018428654</v>
+      </c>
+      <c r="LC15" s="16">
+        <v>55.730797953565101</v>
+      </c>
       <c r="LD15" s="16"/>
     </row>
-    <row r="16" spans="1:316" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:332" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -50957,11 +51540,21 @@
       <c r="KX16" s="16">
         <v>84.406298571379807</v>
       </c>
-      <c r="KY16" s="16"/>
-      <c r="KZ16" s="16"/>
-      <c r="LA16" s="16"/>
-      <c r="LB16" s="16"/>
-      <c r="LC16" s="16"/>
+      <c r="KY16" s="16">
+        <v>75.589929299594715</v>
+      </c>
+      <c r="KZ16" s="16">
+        <v>85.216716916697095</v>
+      </c>
+      <c r="LA16" s="16">
+        <v>90.938761597270712</v>
+      </c>
+      <c r="LB16" s="16">
+        <v>100.51643295102052</v>
+      </c>
+      <c r="LC16" s="16">
+        <v>105.05968731113263</v>
+      </c>
       <c r="LD16" s="16"/>
     </row>
     <row r="17" spans="1:316" x14ac:dyDescent="0.35">
@@ -51895,11 +52488,21 @@
       <c r="KX17" s="16">
         <v>88.619279728009431</v>
       </c>
-      <c r="KY17" s="16"/>
-      <c r="KZ17" s="16"/>
-      <c r="LA17" s="16"/>
-      <c r="LB17" s="16"/>
-      <c r="LC17" s="16"/>
+      <c r="KY17" s="16">
+        <v>82.559452373857624</v>
+      </c>
+      <c r="KZ17" s="16">
+        <v>84.290831617901006</v>
+      </c>
+      <c r="LA17" s="16">
+        <v>88.57371711632409</v>
+      </c>
+      <c r="LB17" s="16">
+        <v>96.000422821036437</v>
+      </c>
+      <c r="LC17" s="16">
+        <v>102.92593979720994</v>
+      </c>
       <c r="LD17" s="16"/>
     </row>
     <row r="18" spans="1:316" x14ac:dyDescent="0.35">
@@ -52833,11 +53436,21 @@
       <c r="KX18" s="16">
         <v>45.354784964251685</v>
       </c>
-      <c r="KY18" s="16"/>
-      <c r="KZ18" s="16"/>
-      <c r="LA18" s="16"/>
-      <c r="LB18" s="16"/>
-      <c r="LC18" s="16"/>
+      <c r="KY18" s="16">
+        <v>46.215733805638386</v>
+      </c>
+      <c r="KZ18" s="16">
+        <v>46.491237434882137</v>
+      </c>
+      <c r="LA18" s="16">
+        <v>48.040945349378205</v>
+      </c>
+      <c r="LB18" s="16">
+        <v>48.591952607865693</v>
+      </c>
+      <c r="LC18" s="16">
+        <v>50.31385029063911</v>
+      </c>
       <c r="LD18" s="16"/>
     </row>
     <row r="19" spans="1:316" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -53771,11 +54384,21 @@
       <c r="KX19" s="16">
         <v>134.76280340380373</v>
       </c>
-      <c r="KY19" s="16"/>
-      <c r="KZ19" s="16"/>
-      <c r="LA19" s="16"/>
-      <c r="LB19" s="16"/>
-      <c r="LC19" s="16"/>
+      <c r="KY19" s="16">
+        <v>134.2003151809009</v>
+      </c>
+      <c r="KZ19" s="16">
+        <v>138.27835479694645</v>
+      </c>
+      <c r="LA19" s="16">
+        <v>146.05944188043563</v>
+      </c>
+      <c r="LB19" s="16">
+        <v>152.05931625806585</v>
+      </c>
+      <c r="LC19" s="16">
+        <v>161.62161604741399</v>
+      </c>
       <c r="LD19" s="16"/>
     </row>
     <row r="20" spans="1:316" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -54709,11 +55332,21 @@
       <c r="KX20" s="17">
         <v>67.539042153536656</v>
       </c>
-      <c r="KY20" s="17"/>
-      <c r="KZ20" s="17"/>
-      <c r="LA20" s="17"/>
-      <c r="LB20" s="17"/>
-      <c r="LC20" s="17"/>
+      <c r="KY20" s="17">
+        <v>65.404774754168173</v>
+      </c>
+      <c r="KZ20" s="17">
+        <v>69.13703729368352</v>
+      </c>
+      <c r="LA20" s="17">
+        <v>72.379921336554958</v>
+      </c>
+      <c r="LB20" s="17">
+        <v>76.070099730167271</v>
+      </c>
+      <c r="LC20" s="17">
+        <v>79.053264472608518</v>
+      </c>
       <c r="LD20" s="17"/>
     </row>
     <row r="21" spans="1:316" x14ac:dyDescent="0.35">

--- a/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
+++ b/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49750532-AA74-4BCF-86C7-BD57E0D647C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1B3FD2-57F3-4510-AC98-46DE80B791FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="165" windowWidth="15285" windowHeight="10800" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1039">
   <si>
     <t>Todesfälle</t>
   </si>
@@ -3150,10 +3150,16 @@
     <t>19.03.2021</t>
   </si>
   <si>
-    <t>Stand: 20.03.2021 07:54:30</t>
-  </si>
-  <si>
     <t>20.03.2021</t>
+  </si>
+  <si>
+    <t>21.03.2021</t>
+  </si>
+  <si>
+    <t>Stand: 25.03.2021 06:17:13</t>
+  </si>
+  <si>
+    <t>25.03.2021</t>
   </si>
 </sst>
 </file>
@@ -3741,7 +3747,7 @@
   <dimension ref="A2:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3757,7 +3763,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3776,10 +3782,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>10232</v>
+        <v>12050</v>
       </c>
       <c r="C6" s="29">
-        <v>92.176908315146292</v>
+        <v>108.55470535550359</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3787,10 +3793,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>13594</v>
+        <v>15027</v>
       </c>
       <c r="C7" s="29">
-        <v>103.57540878723893</v>
+        <v>114.49372280755036</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3798,10 +3804,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>3417</v>
+        <v>4085</v>
       </c>
       <c r="C8" s="29">
-        <v>93.119181924686558</v>
+        <v>111.32334157516669</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3809,10 +3815,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>2714</v>
+        <v>3239</v>
       </c>
       <c r="C9" s="29">
-        <v>107.61757140370349</v>
+        <v>128.43526668260708</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3820,10 +3826,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>658</v>
+        <v>762</v>
       </c>
       <c r="C10" s="29">
-        <v>96.593961849789039</v>
+        <v>111.86109259808397</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3831,10 +3837,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>1841</v>
+        <v>1818</v>
       </c>
       <c r="C11" s="29">
-        <v>99.661497369337056</v>
+        <v>98.416405332675055</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3842,10 +3848,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>7095</v>
+        <v>7770</v>
       </c>
       <c r="C12" s="29">
-        <v>112.83253393722725</v>
+        <v>123.56713018918335</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3853,10 +3859,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1050</v>
+        <v>1358</v>
       </c>
       <c r="C13" s="29">
-        <v>65.292903967196835</v>
+        <v>84.445489130907916</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3864,10 +3870,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>6995</v>
+        <v>7499</v>
       </c>
       <c r="C14" s="29">
-        <v>87.507418427323429</v>
+        <v>93.812456152465813</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3875,10 +3881,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>17875</v>
+        <v>20345</v>
       </c>
       <c r="C15" s="29">
-        <v>99.597592295765466</v>
+        <v>113.36016868572578</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3886,10 +3892,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>3028</v>
+        <v>3447</v>
       </c>
       <c r="C16" s="29">
-        <v>73.963647892976454</v>
+        <v>84.198379883451068</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3897,10 +3903,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="C17" s="29">
-        <v>58.973317107227068</v>
+        <v>66.066327755862631</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3908,10 +3914,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>5450</v>
+        <v>6813</v>
       </c>
       <c r="C18" s="29">
-        <v>133.84181763573463</v>
+        <v>167.31455111050644</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3919,10 +3925,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>2601</v>
+        <v>2955</v>
       </c>
       <c r="C19" s="29">
-        <v>118.50835299360028</v>
+        <v>134.63751753021484</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3930,10 +3936,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>1696</v>
+        <v>1736</v>
       </c>
       <c r="C20" s="29">
-        <v>58.406769399674147</v>
+        <v>59.78428754589288</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3941,10 +3947,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>4293</v>
+        <v>4696</v>
       </c>
       <c r="C21" s="29">
-        <v>201.23016174348851</v>
+        <v>220.12039122930861</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3953,11 +3959,11 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B6:B21)</f>
-        <v>83121</v>
+        <v>94252</v>
       </c>
       <c r="C22" s="30">
         <f>B22/A36*100000</f>
-        <v>99.945036903046457</v>
+        <v>113.32899770438198</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3979,10 +3985,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B31">
-        <v>2645783</v>
+        <v>2713180</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -3991,7 +3997,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>74565</v>
+        <v>75440</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -4028,7 +4034,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4053,10 +4059,10 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="D6" s="29">
-        <v>103.2267793604</v>
+        <v>98.918183352300005</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4067,10 +4073,10 @@
         <v>120</v>
       </c>
       <c r="C7">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="D7" s="29">
-        <v>102.24005657799999</v>
+        <v>67.647556231999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4081,10 +4087,10 @@
         <v>122</v>
       </c>
       <c r="C8">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D8" s="29">
-        <v>79.462329657300003</v>
+        <v>91.344547176099994</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4095,10 +4101,10 @@
         <v>124</v>
       </c>
       <c r="C9">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D9" s="29">
-        <v>95.902088534399994</v>
+        <v>89.813067040099995</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4109,10 +4115,10 @@
         <v>126</v>
       </c>
       <c r="C10">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D10" s="29">
-        <v>215.9005738704</v>
+        <v>213.66326222410001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4123,10 +4129,10 @@
         <v>128</v>
       </c>
       <c r="C11">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="D11" s="29">
-        <v>128.10061721209999</v>
+        <v>174.6826598346</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4137,10 +4143,10 @@
         <v>130</v>
       </c>
       <c r="C12">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D12" s="29">
-        <v>56.508722782600003</v>
+        <v>49.294843278499997</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4151,10 +4157,10 @@
         <v>132</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="D13" s="29">
-        <v>94.156892284500003</v>
+        <v>120.1621292012</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4165,10 +4171,10 @@
         <v>134</v>
       </c>
       <c r="C14">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="D14" s="29">
-        <v>66.313508678600002</v>
+        <v>104.8678741894</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4179,10 +4185,10 @@
         <v>136</v>
       </c>
       <c r="C15">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="D15" s="29">
-        <v>258.25100101880003</v>
+        <v>184.80346861890001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4193,10 +4199,10 @@
         <v>138</v>
       </c>
       <c r="C16">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D16" s="29">
-        <v>217.37231802349999</v>
+        <v>222.22437869359999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4207,10 +4213,10 @@
         <v>140</v>
       </c>
       <c r="C17">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D17" s="29">
-        <v>92.904796610600002</v>
+        <v>98.511120543999994</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4221,10 +4227,10 @@
         <v>142</v>
       </c>
       <c r="C18">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D18" s="29">
-        <v>81.395202099900004</v>
+        <v>73.823555392900005</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4235,10 +4241,10 @@
         <v>144</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D19" s="29">
-        <v>57.4190152639</v>
+        <v>35.886884539900002</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4249,10 +4255,10 @@
         <v>146</v>
       </c>
       <c r="C20">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="D20" s="29">
-        <v>93.720712277399997</v>
+        <v>105.6389531451</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4263,10 +4269,10 @@
         <v>148</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D21" s="29">
-        <v>84.504661840500006</v>
+        <v>63.378496380400001</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4277,10 +4283,10 @@
         <v>150</v>
       </c>
       <c r="C22">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="D22" s="29">
-        <v>78.071182548799996</v>
+        <v>95.866819747400001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4291,10 +4297,10 @@
         <v>152</v>
       </c>
       <c r="C23">
-        <v>310</v>
+        <v>375</v>
       </c>
       <c r="D23" s="29">
-        <v>104.52421252809999</v>
+        <v>126.4405796711</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4305,10 +4311,10 @@
         <v>154</v>
       </c>
       <c r="C24">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="D24" s="29">
-        <v>79.694478198400006</v>
+        <v>91.135764672500002</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4319,10 +4325,10 @@
         <v>156</v>
       </c>
       <c r="C25">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D25" s="29">
-        <v>37.428700960500002</v>
+        <v>48.499161807999997</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4333,10 +4339,10 @@
         <v>158</v>
       </c>
       <c r="C26">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D26" s="29">
-        <v>52.008351486000002</v>
+        <v>66.329491750299994</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4347,10 +4353,10 @@
         <v>160</v>
       </c>
       <c r="C27">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D27" s="29">
-        <v>78.461761999299995</v>
+        <v>95.897709110299999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4361,10 +4367,10 @@
         <v>162</v>
       </c>
       <c r="C28">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="D28" s="29">
-        <v>44.2072689381</v>
+        <v>73.257759954500003</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4375,10 +4381,10 @@
         <v>164</v>
       </c>
       <c r="C29">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D29" s="29">
-        <v>60.195282878699999</v>
+        <v>67.231095163299997</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4389,10 +4395,10 @@
         <v>166</v>
       </c>
       <c r="C30">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D30" s="29">
-        <v>119.59771677090001</v>
+        <v>128.6581498596</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4403,10 +4409,10 @@
         <v>168</v>
       </c>
       <c r="C31">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D31" s="29">
-        <v>54.282501647899998</v>
+        <v>76.253990410100002</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4417,10 +4423,10 @@
         <v>170</v>
       </c>
       <c r="C32">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D32" s="29">
-        <v>43.489192256199999</v>
+        <v>58.438602094300002</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4431,10 +4437,10 @@
         <v>172</v>
       </c>
       <c r="C33">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="D33" s="29">
-        <v>86.912396622800003</v>
+        <v>110.1250242923</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4445,10 +4451,10 @@
         <v>174</v>
       </c>
       <c r="C34">
-        <v>287</v>
+        <v>370</v>
       </c>
       <c r="D34" s="29">
-        <v>95.743900079400007</v>
+        <v>123.4329025414</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4459,10 +4465,10 @@
         <v>176</v>
       </c>
       <c r="C35">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="D35" s="29">
-        <v>89.592554457600002</v>
+        <v>157.78987202970001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4473,10 +4479,10 @@
         <v>178</v>
       </c>
       <c r="C36">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D36" s="29">
-        <v>111.89998456550001</v>
+        <v>133.12239543140001</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4487,10 +4493,10 @@
         <v>180</v>
       </c>
       <c r="C37">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="D37" s="29">
-        <v>152.93262468259999</v>
+        <v>103.84314021660001</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4515,10 +4521,10 @@
         <v>184</v>
       </c>
       <c r="C39">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D39" s="29">
-        <v>86.722228701500001</v>
+        <v>89.7126503808</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4529,10 +4535,10 @@
         <v>186</v>
       </c>
       <c r="C40">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="D40" s="29">
-        <v>80.125080213700002</v>
+        <v>85.088580757900004</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4543,10 +4549,10 @@
         <v>188</v>
       </c>
       <c r="C41">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="D41" s="29">
-        <v>93.884588269000005</v>
+        <v>119.0135486978</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4557,10 +4563,10 @@
         <v>190</v>
       </c>
       <c r="C42">
-        <v>272</v>
+        <v>335</v>
       </c>
       <c r="D42" s="29">
-        <v>103.435031772</v>
+        <v>127.39241045449999</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4571,10 +4577,10 @@
         <v>192</v>
       </c>
       <c r="C43">
-        <v>402</v>
+        <v>577</v>
       </c>
       <c r="D43" s="29">
-        <v>107.1320068863</v>
+        <v>153.76907456070001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4585,10 +4591,10 @@
         <v>194</v>
       </c>
       <c r="C44">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="D44" s="29">
-        <v>110.8609473628</v>
+        <v>132.3480410933</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4599,10 +4605,10 @@
         <v>196</v>
       </c>
       <c r="C45">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="D45" s="29">
-        <v>73.360198574999998</v>
+        <v>104.7643931705</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4613,10 +4619,10 @@
         <v>198</v>
       </c>
       <c r="C46">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="D46" s="29">
-        <v>98.964530650100002</v>
+        <v>113.98249444530001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4627,10 +4633,10 @@
         <v>200</v>
       </c>
       <c r="C47">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="D47" s="29">
-        <v>108.7779632582</v>
+        <v>114.6352382028</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4641,10 +4647,10 @@
         <v>202</v>
       </c>
       <c r="C48">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D48" s="29">
-        <v>80.747376537600005</v>
+        <v>84.718558990299996</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4655,10 +4661,10 @@
         <v>204</v>
       </c>
       <c r="C49">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="D49" s="29">
-        <v>104.1630092576</v>
+        <v>99.188932972900005</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4669,10 +4675,10 @@
         <v>206</v>
       </c>
       <c r="C50">
-        <v>193</v>
+        <v>285</v>
       </c>
       <c r="D50" s="29">
-        <v>72.423523760899997</v>
+        <v>106.9466542584</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4683,10 +4689,10 @@
         <v>208</v>
       </c>
       <c r="C51">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D51" s="29">
-        <v>45.340184739000001</v>
+        <v>28.4487433657</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4697,10 +4703,10 @@
         <v>210</v>
       </c>
       <c r="C52">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="D52" s="29">
-        <v>81.477727764999997</v>
+        <v>114.7643604495</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -4711,10 +4717,10 @@
         <v>212</v>
       </c>
       <c r="C53">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="D53" s="29">
-        <v>52.6638639118</v>
+        <v>80.491928365199996</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4725,10 +4731,10 @@
         <v>214</v>
       </c>
       <c r="C54">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D54" s="29">
-        <v>64.236389914900002</v>
+        <v>81.530802584300005</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4739,10 +4745,10 @@
         <v>216</v>
       </c>
       <c r="C55">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D55" s="29">
-        <v>74.703708938199995</v>
+        <v>69.656161037000004</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4753,10 +4759,10 @@
         <v>218</v>
       </c>
       <c r="C56">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D56" s="29">
-        <v>57.280038288500002</v>
+        <v>61.862441351599998</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4767,10 +4773,10 @@
         <v>220</v>
       </c>
       <c r="C57">
-        <v>330</v>
+        <v>395</v>
       </c>
       <c r="D57" s="29">
-        <v>90.265791726700002</v>
+        <v>108.04541736989999</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4781,10 +4787,10 @@
         <v>222</v>
       </c>
       <c r="C58">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="D58" s="29">
-        <v>64.376695636199997</v>
+        <v>84.149537867299998</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4795,10 +4801,10 @@
         <v>224</v>
       </c>
       <c r="C59">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="D59" s="29">
-        <v>66.429461921400005</v>
+        <v>85.235976255300002</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4809,10 +4815,10 @@
         <v>226</v>
       </c>
       <c r="C60">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="D60" s="29">
-        <v>129.2979879829</v>
+        <v>101.80022583269999</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4823,10 +4829,10 @@
         <v>228</v>
       </c>
       <c r="C61">
-        <v>439</v>
+        <v>501</v>
       </c>
       <c r="D61" s="29">
-        <v>118.22081709699999</v>
+        <v>134.91715117449999</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4837,10 +4843,10 @@
         <v>230</v>
       </c>
       <c r="C62">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D62" s="29">
-        <v>83.358142304300003</v>
+        <v>106.3241611024</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4851,10 +4857,10 @@
         <v>232</v>
       </c>
       <c r="C63">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D63" s="29">
-        <v>74.808821899600005</v>
+        <v>95.589050205000007</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4865,10 +4871,10 @@
         <v>234</v>
       </c>
       <c r="C64">
-        <v>197</v>
+        <v>270</v>
       </c>
       <c r="D64" s="29">
-        <v>78.987674715099999</v>
+        <v>108.2572191527</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4879,10 +4885,10 @@
         <v>236</v>
       </c>
       <c r="C65">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="D65" s="29">
-        <v>75.872246311699996</v>
+        <v>55.007378576000001</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4893,10 +4899,10 @@
         <v>238</v>
       </c>
       <c r="C66">
-        <v>494</v>
+        <v>584</v>
       </c>
       <c r="D66" s="29">
-        <v>87.039409118699993</v>
+        <v>102.8967913468</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4907,10 +4913,10 @@
         <v>240</v>
       </c>
       <c r="C67">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D67" s="29">
-        <v>144.31157220419999</v>
+        <v>156.63085275820001</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4921,10 +4927,10 @@
         <v>242</v>
       </c>
       <c r="C68">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D68" s="29">
-        <v>195.69909307450001</v>
+        <v>194.5808125426</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4935,10 +4941,10 @@
         <v>244</v>
       </c>
       <c r="C69">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D69" s="29">
-        <v>87.939146110899998</v>
+        <v>79.7733682577</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4949,10 +4955,10 @@
         <v>246</v>
       </c>
       <c r="C70">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="D70" s="29">
-        <v>106.69735379390001</v>
+        <v>141.89072179920001</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4963,10 +4969,10 @@
         <v>248</v>
       </c>
       <c r="C71">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="D71" s="29">
-        <v>272.66051032050001</v>
+        <v>289.84827887940003</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4977,10 +4983,10 @@
         <v>250</v>
       </c>
       <c r="C72">
-        <v>285</v>
+        <v>531</v>
       </c>
       <c r="D72" s="29">
-        <v>115.6965745695</v>
+        <v>215.56098630310001</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4991,10 +4997,10 @@
         <v>252</v>
       </c>
       <c r="C73">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="D73" s="29">
-        <v>210.91855028649999</v>
+        <v>224.97978697229999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -5005,10 +5011,10 @@
         <v>254</v>
       </c>
       <c r="C74">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D74" s="29">
-        <v>68.172964550100005</v>
+        <v>63.303467082200001</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -5019,10 +5025,10 @@
         <v>256</v>
       </c>
       <c r="C75">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D75" s="29">
-        <v>57.638880883500001</v>
+        <v>54.180548030499999</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -5033,10 +5039,10 @@
         <v>258</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D76" s="29">
-        <v>9.7759674134000001</v>
+        <v>34.215885946999997</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -5047,10 +5053,10 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D77" s="29">
-        <v>58.480592603300003</v>
+        <v>55.3072271132</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -5061,10 +5067,10 @@
         <v>262</v>
       </c>
       <c r="C78">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D78" s="29">
-        <v>163.5265555087</v>
+        <v>168.54270751819999</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -5075,10 +5081,10 @@
         <v>264</v>
       </c>
       <c r="C79">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D79" s="29">
-        <v>79.782667972799999</v>
+        <v>72.713317646099995</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -5089,10 +5095,10 @@
         <v>266</v>
       </c>
       <c r="C80">
-        <v>152</v>
+        <v>270</v>
       </c>
       <c r="D80" s="29">
-        <v>98.128457898400001</v>
+        <v>174.30712916159999</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -5103,10 +5109,10 @@
         <v>268</v>
       </c>
       <c r="C81">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="D81" s="29">
-        <v>79.043977727200001</v>
+        <v>96.609306110999995</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -5117,10 +5123,10 @@
         <v>270</v>
       </c>
       <c r="C82">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="D82" s="29">
-        <v>57.543877206399998</v>
+        <v>76.308184991100006</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -5131,10 +5137,10 @@
         <v>272</v>
       </c>
       <c r="C83">
-        <v>257</v>
+        <v>344</v>
       </c>
       <c r="D83" s="29">
-        <v>86.286780999399994</v>
+        <v>115.49670297199999</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -5145,10 +5151,10 @@
         <v>274</v>
       </c>
       <c r="C84">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="D84" s="29">
-        <v>111.31756473999999</v>
+        <v>164.88391168250001</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -5159,10 +5165,10 @@
         <v>276</v>
       </c>
       <c r="C85">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D85" s="29">
-        <v>70.913755979300007</v>
+        <v>104.43662244230001</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -5173,10 +5179,10 @@
         <v>278</v>
       </c>
       <c r="C86">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D86" s="29">
-        <v>91.132666691599994</v>
+        <v>107.3617717189</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -5187,10 +5193,10 @@
         <v>280</v>
       </c>
       <c r="C87">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D87" s="29">
-        <v>53.4343057456</v>
+        <v>51.5917434785</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -5201,10 +5207,10 @@
         <v>282</v>
       </c>
       <c r="C88">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D88" s="29">
-        <v>40.388558646299998</v>
+        <v>52.815807460499997</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -5215,10 +5221,10 @@
         <v>284</v>
       </c>
       <c r="C89">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D89" s="29">
-        <v>116.8768035746</v>
+        <v>123.082651552</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -5229,10 +5235,10 @@
         <v>286</v>
       </c>
       <c r="C90">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D90" s="29">
-        <v>41.293461368099997</v>
+        <v>52.555314468500001</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -5243,10 +5249,10 @@
         <v>288</v>
       </c>
       <c r="C91">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="D91" s="29">
-        <v>130.0613680363</v>
+        <v>189.11221904129999</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -5257,10 +5263,10 @@
         <v>290</v>
       </c>
       <c r="C92">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D92" s="29">
-        <v>102.22369731160001</v>
+        <v>74.344507135699999</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5271,10 +5277,10 @@
         <v>292</v>
       </c>
       <c r="C93">
-        <v>485</v>
+        <v>627</v>
       </c>
       <c r="D93" s="29">
-        <v>82.447938801500001</v>
+        <v>106.5873353166</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -5285,10 +5291,10 @@
         <v>294</v>
       </c>
       <c r="C94">
-        <v>497</v>
+        <v>590</v>
       </c>
       <c r="D94" s="29">
-        <v>89.263263766700007</v>
+        <v>105.9664499443</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -5299,10 +5305,10 @@
         <v>296</v>
       </c>
       <c r="C95">
-        <v>659</v>
+        <v>748</v>
       </c>
       <c r="D95" s="29">
-        <v>132.14728305989999</v>
+        <v>149.9941847174</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -5313,10 +5319,10 @@
         <v>298</v>
       </c>
       <c r="C96">
-        <v>366</v>
+        <v>430</v>
       </c>
       <c r="D96" s="29">
-        <v>138.3021334805</v>
+        <v>162.48611310539999</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -5327,10 +5333,10 @@
         <v>300</v>
       </c>
       <c r="C97">
-        <v>371</v>
+        <v>513</v>
       </c>
       <c r="D97" s="29">
-        <v>59.658099591999999</v>
+        <v>82.492197009999998</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -5341,10 +5347,10 @@
         <v>302</v>
       </c>
       <c r="C98">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D98" s="29">
-        <v>82.840813371500005</v>
+        <v>80.752389504999996</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -5355,10 +5361,10 @@
         <v>304</v>
       </c>
       <c r="C99">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D99" s="29">
-        <v>200.98794072359999</v>
+        <v>196.98818070920001</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -5369,10 +5375,10 @@
         <v>306</v>
       </c>
       <c r="C100">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="D100" s="29">
-        <v>68.482326291899994</v>
+        <v>118.1508266795</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5383,10 +5389,10 @@
         <v>308</v>
       </c>
       <c r="C101">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D101" s="29">
-        <v>274.55621301780002</v>
+        <v>279.28994082840001</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -5397,10 +5403,10 @@
         <v>310</v>
       </c>
       <c r="C102">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="D102" s="29">
-        <v>219.98094807859999</v>
+        <v>257.2991446277</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5411,10 +5417,10 @@
         <v>312</v>
       </c>
       <c r="C103">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D103" s="29">
-        <v>28.048804920599999</v>
+        <v>56.097609841100002</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -5425,10 +5431,10 @@
         <v>314</v>
       </c>
       <c r="C104">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="D104" s="29">
-        <v>103.9613480121</v>
+        <v>82.9287053507</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -5439,10 +5445,10 @@
         <v>316</v>
       </c>
       <c r="C105">
-        <v>397</v>
+        <v>549</v>
       </c>
       <c r="D105" s="29">
-        <v>121.4238088538</v>
+        <v>167.91352912030001</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5453,10 +5459,10 @@
         <v>318</v>
       </c>
       <c r="C106">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="D106" s="29">
-        <v>98.733130518999999</v>
+        <v>79.295045448099998</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -5467,10 +5473,10 @@
         <v>320</v>
       </c>
       <c r="C107">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="D107" s="29">
-        <v>56.124596604499999</v>
+        <v>80.679107618900005</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5481,10 +5487,10 @@
         <v>322</v>
       </c>
       <c r="C108">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D108" s="29">
-        <v>77.434108639300007</v>
+        <v>82.499891447500005</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5495,10 +5501,10 @@
         <v>324</v>
       </c>
       <c r="C109">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="D109" s="29">
-        <v>112.6268220076</v>
+        <v>121.5061150289</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -5509,10 +5515,10 @@
         <v>326</v>
       </c>
       <c r="C110">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D110" s="29">
-        <v>52.431394852799997</v>
+        <v>57.763401109100002</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -5523,10 +5529,10 @@
         <v>328</v>
       </c>
       <c r="C111">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="D111" s="29">
-        <v>84.5099153444</v>
+        <v>101.2661916627</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5537,10 +5543,10 @@
         <v>330</v>
       </c>
       <c r="C112">
-        <v>597</v>
+        <v>741</v>
       </c>
       <c r="D112" s="29">
-        <v>178.23662180400001</v>
+        <v>221.22836977680001</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5551,10 +5557,10 @@
         <v>332</v>
       </c>
       <c r="C113">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="D113" s="29">
-        <v>103.8163223282</v>
+        <v>102.44354451229999</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5565,10 +5571,10 @@
         <v>334</v>
       </c>
       <c r="C114">
-        <v>552</v>
+        <v>644</v>
       </c>
       <c r="D114" s="29">
-        <v>103.17294177460001</v>
+        <v>120.3684320703</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5579,10 +5585,10 @@
         <v>336</v>
       </c>
       <c r="C115">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="D115" s="29">
-        <v>66.612963192500004</v>
+        <v>78.489693063999994</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -5593,10 +5599,10 @@
         <v>338</v>
       </c>
       <c r="C116">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D116" s="29">
-        <v>86.509027993399997</v>
+        <v>97.599929018200001</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -5607,10 +5613,10 @@
         <v>340</v>
       </c>
       <c r="C117">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D117" s="29">
-        <v>98.964742734699996</v>
+        <v>100.6858686953</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -5621,10 +5627,10 @@
         <v>342</v>
       </c>
       <c r="C118">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D118" s="29">
-        <v>153.80829334320001</v>
+        <v>112.79274845170001</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -5635,10 +5641,10 @@
         <v>344</v>
       </c>
       <c r="C119">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D119" s="29">
-        <v>41.557721944199997</v>
+        <v>121.2100223373</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -5649,10 +5655,10 @@
         <v>346</v>
       </c>
       <c r="C120">
-        <v>941</v>
+        <v>875</v>
       </c>
       <c r="D120" s="29">
-        <v>123.2675731615</v>
+        <v>114.6218135136</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -5663,10 +5669,10 @@
         <v>348</v>
       </c>
       <c r="C121">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D121" s="29">
-        <v>53.201842600399999</v>
+        <v>51.039166071899999</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -5677,10 +5683,10 @@
         <v>350</v>
       </c>
       <c r="C122">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D122" s="29">
-        <v>110.55125633999999</v>
+        <v>113.3289260973</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -5691,10 +5697,10 @@
         <v>352</v>
       </c>
       <c r="C123">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D123" s="29">
-        <v>100.64020703129999</v>
+        <v>84.571602547300003</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -5705,10 +5711,10 @@
         <v>354</v>
       </c>
       <c r="C124">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D124" s="29">
-        <v>117.40384369980001</v>
+        <v>128.88900232259999</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -5719,10 +5725,10 @@
         <v>356</v>
       </c>
       <c r="C125">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D125" s="29">
-        <v>42.551467012499998</v>
+        <v>52.682768682099997</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -5733,10 +5739,10 @@
         <v>358</v>
       </c>
       <c r="C126">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="D126" s="29">
-        <v>160.43379865110001</v>
+        <v>176.11866723430001</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -5747,10 +5753,10 @@
         <v>360</v>
       </c>
       <c r="C127">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="D127" s="29">
-        <v>72.043809932000002</v>
+        <v>82.987173466000002</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -5761,10 +5767,10 @@
         <v>362</v>
       </c>
       <c r="C128">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="D128" s="29">
-        <v>122.1818408212</v>
+        <v>143.1940045293</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -5775,10 +5781,10 @@
         <v>364</v>
       </c>
       <c r="C129">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D129" s="29">
-        <v>95.0336436069</v>
+        <v>96.730672956999996</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -5789,10 +5795,10 @@
         <v>366</v>
       </c>
       <c r="C130">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D130" s="29">
-        <v>96.127748122699998</v>
+        <v>89.342260019899996</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -5803,10 +5809,10 @@
         <v>368</v>
       </c>
       <c r="C131">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="D131" s="29">
-        <v>125.941188931</v>
+        <v>138.26570894880001</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -5817,10 +5823,10 @@
         <v>370</v>
       </c>
       <c r="C132">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="D132" s="29">
-        <v>295.30201342279997</v>
+        <v>368.32214765100002</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -5831,10 +5837,10 @@
         <v>372</v>
       </c>
       <c r="C133">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D133" s="29">
-        <v>130.99455093669999</v>
+        <v>121.6931627045</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -5845,10 +5851,10 @@
         <v>374</v>
       </c>
       <c r="C134">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D134" s="29">
-        <v>132.99444378769999</v>
+        <v>129.3001536825</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5859,10 +5865,10 @@
         <v>376</v>
       </c>
       <c r="C135">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="D135" s="29">
-        <v>100.2702197447</v>
+        <v>87.807254578699997</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5873,10 +5879,10 @@
         <v>378</v>
       </c>
       <c r="C136">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D136" s="29">
-        <v>123.18658118499999</v>
+        <v>120.8623060683</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5887,10 +5893,10 @@
         <v>380</v>
       </c>
       <c r="C137">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="D137" s="29">
-        <v>143.23869818969999</v>
+        <v>159.46186566430001</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5901,10 +5907,10 @@
         <v>382</v>
       </c>
       <c r="C138">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D138" s="29">
-        <v>20.5441258474</v>
+        <v>26.413876089599999</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -5915,10 +5921,10 @@
         <v>384</v>
       </c>
       <c r="C139">
-        <v>349</v>
+        <v>402</v>
       </c>
       <c r="D139" s="29">
-        <v>258.69481424380001</v>
+        <v>297.98084620629999</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -5929,10 +5935,10 @@
         <v>386</v>
       </c>
       <c r="C140">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D140" s="29">
-        <v>32.511248585300002</v>
+        <v>34.351507939199998</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -5943,10 +5949,10 @@
         <v>388</v>
       </c>
       <c r="C141">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D141" s="29">
-        <v>107.9016054009</v>
+        <v>100.61095638730001</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -5957,10 +5963,10 @@
         <v>390</v>
       </c>
       <c r="C142">
-        <v>553</v>
+        <v>479</v>
       </c>
       <c r="D142" s="29">
-        <v>567.77346557420003</v>
+        <v>491.79654613029999</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -5971,10 +5977,10 @@
         <v>392</v>
       </c>
       <c r="C143">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="D143" s="29">
-        <v>119.6840341498</v>
+        <v>130.92707978210001</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5985,10 +5991,10 @@
         <v>394</v>
       </c>
       <c r="C144">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D144" s="29">
-        <v>81.8723578452</v>
+        <v>103.9149157266</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -5999,10 +6005,10 @@
         <v>396</v>
       </c>
       <c r="C145">
-        <v>239</v>
+        <v>361</v>
       </c>
       <c r="D145" s="29">
-        <v>65.4905764815</v>
+        <v>98.920912593400004</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -6013,10 +6019,10 @@
         <v>398</v>
       </c>
       <c r="C146">
-        <v>251</v>
+        <v>361</v>
       </c>
       <c r="D146" s="29">
-        <v>133.0252376965</v>
+        <v>191.32315063120001</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -6027,10 +6033,10 @@
         <v>400</v>
       </c>
       <c r="C147">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D147" s="29">
-        <v>183.0274499292</v>
+        <v>183.4462770458</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -6041,10 +6047,10 @@
         <v>402</v>
       </c>
       <c r="C148">
-        <v>1841</v>
+        <v>1818</v>
       </c>
       <c r="D148" s="29">
-        <v>99.661497369299994</v>
+        <v>98.416405332699995</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -6055,10 +6061,10 @@
         <v>404</v>
       </c>
       <c r="C149">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D149" s="29">
-        <v>87.513211128999998</v>
+        <v>76.7423543747</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -6069,10 +6075,10 @@
         <v>406</v>
       </c>
       <c r="C150">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D150" s="29">
-        <v>101.71413326219999</v>
+        <v>91.1536494809</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -6083,10 +6089,10 @@
         <v>408</v>
       </c>
       <c r="C151">
-        <v>1461</v>
+        <v>1384</v>
       </c>
       <c r="D151" s="29">
-        <v>126.26229890720001</v>
+        <v>119.6078177191</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -6097,10 +6103,10 @@
         <v>410</v>
       </c>
       <c r="C152">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="D152" s="29">
-        <v>86.860484768000006</v>
+        <v>104.5470088157</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -6111,10 +6117,10 @@
         <v>412</v>
       </c>
       <c r="C153">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="D153" s="29">
-        <v>137.35877361589999</v>
+        <v>148.1412029441</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -6125,10 +6131,10 @@
         <v>414</v>
       </c>
       <c r="C154">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D154" s="29">
-        <v>105.4702313235</v>
+        <v>101.9150549867</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -6139,10 +6145,10 @@
         <v>416</v>
       </c>
       <c r="C155">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="D155" s="29">
-        <v>87.118702299399999</v>
+        <v>141.1077572456</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -6153,10 +6159,10 @@
         <v>418</v>
       </c>
       <c r="C156">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D156" s="29">
-        <v>39.808634208400001</v>
+        <v>36.965160336399997</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -6167,10 +6173,10 @@
         <v>420</v>
       </c>
       <c r="C157">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D157" s="29">
-        <v>58.828993404999999</v>
+        <v>72.452549772400005</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -6181,10 +6187,10 @@
         <v>422</v>
       </c>
       <c r="C158">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="D158" s="29">
-        <v>53.473116578899997</v>
+        <v>82.845673572999999</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -6195,10 +6201,10 @@
         <v>424</v>
       </c>
       <c r="C159">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="D159" s="29">
-        <v>75.834175935299996</v>
+        <v>125.6003538928</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -6209,10 +6215,10 @@
         <v>426</v>
       </c>
       <c r="C160">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="D160" s="29">
-        <v>87.674478017499993</v>
+        <v>97.254801774399994</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -6223,10 +6229,10 @@
         <v>428</v>
       </c>
       <c r="C161">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="D161" s="29">
-        <v>68.087104537200005</v>
+        <v>81.782786484300004</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -6237,10 +6243,10 @@
         <v>430</v>
       </c>
       <c r="C162">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D162" s="29">
-        <v>105.15131932049999</v>
+        <v>75.577510761599996</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -6251,10 +6257,10 @@
         <v>432</v>
       </c>
       <c r="C163">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="D163" s="29">
-        <v>116.1315039628</v>
+        <v>127.7047466258</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -6265,10 +6271,10 @@
         <v>434</v>
       </c>
       <c r="C164">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="D164" s="29">
-        <v>141.89927708069999</v>
+        <v>116.3318397689</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -6279,10 +6285,10 @@
         <v>436</v>
       </c>
       <c r="C165">
-        <v>242</v>
+        <v>331</v>
       </c>
       <c r="D165" s="29">
-        <v>200.4655439492</v>
+        <v>274.1904754016</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -6293,10 +6299,10 @@
         <v>438</v>
       </c>
       <c r="C166">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D166" s="29">
-        <v>75.750306788700001</v>
+        <v>67.165272019400007</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -6307,10 +6313,10 @@
         <v>440</v>
       </c>
       <c r="C167">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D167" s="29">
-        <v>113.9294586768</v>
+        <v>137.66476256780001</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -6321,10 +6327,10 @@
         <v>442</v>
       </c>
       <c r="C168">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="D168" s="29">
-        <v>85.563979015100003</v>
+        <v>104.417059137</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -6335,10 +6341,10 @@
         <v>444</v>
       </c>
       <c r="C169">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="D169" s="29">
-        <v>85.457911978400006</v>
+        <v>97.7761695608</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -6349,10 +6355,10 @@
         <v>446</v>
       </c>
       <c r="C170">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="D170" s="29">
-        <v>91.172324134500002</v>
+        <v>97.925829625899993</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -6363,10 +6369,10 @@
         <v>448</v>
       </c>
       <c r="C171">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="D171" s="29">
-        <v>272.77686852149998</v>
+        <v>403.70976541189998</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -6377,10 +6383,10 @@
         <v>450</v>
       </c>
       <c r="C172">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="D172" s="29">
-        <v>203.58435037609999</v>
+        <v>271.0941867702</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -6391,10 +6397,10 @@
         <v>452</v>
       </c>
       <c r="C173">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="D173" s="29">
-        <v>158.004527096</v>
+        <v>224.5794682881</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -6405,10 +6411,10 @@
         <v>454</v>
       </c>
       <c r="C174">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D174" s="29">
-        <v>59.609980413899997</v>
+        <v>48.255698430300001</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -6419,10 +6425,10 @@
         <v>456</v>
       </c>
       <c r="C175">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D175" s="29">
-        <v>45.632473208699999</v>
+        <v>55.614576723200003</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -6433,10 +6439,10 @@
         <v>458</v>
       </c>
       <c r="C176">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="D176" s="29">
-        <v>198.59010437750001</v>
+        <v>224.00210825510001</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -6447,10 +6453,10 @@
         <v>460</v>
       </c>
       <c r="C177">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D177" s="29">
-        <v>84.429952253400003</v>
+        <v>74.240130429700002</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -6461,10 +6467,10 @@
         <v>462</v>
       </c>
       <c r="C178">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D178" s="29">
-        <v>69.155672112299996</v>
+        <v>85.321933125599998</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -6475,10 +6481,10 @@
         <v>464</v>
       </c>
       <c r="C179">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="D179" s="29">
-        <v>129.48018171870001</v>
+        <v>197.56889796740001</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -6489,10 +6495,10 @@
         <v>466</v>
       </c>
       <c r="C180">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D180" s="29">
-        <v>30.9907027892</v>
+        <v>34.989503149100003</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -6503,10 +6509,10 @@
         <v>468</v>
       </c>
       <c r="C181">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D181" s="29">
-        <v>35.856160182700002</v>
+        <v>65.1072382264</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -6517,10 +6523,10 @@
         <v>470</v>
       </c>
       <c r="C182">
-        <v>341</v>
+        <v>265</v>
       </c>
       <c r="D182" s="29">
-        <v>109.2738575915</v>
+        <v>84.919566750000001</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -6531,10 +6537,10 @@
         <v>472</v>
       </c>
       <c r="C183">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D183" s="29">
-        <v>110.76137775470001</v>
+        <v>110.5367096457</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -6545,10 +6551,10 @@
         <v>474</v>
       </c>
       <c r="C184">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D184" s="29">
-        <v>89.543230581200007</v>
+        <v>93.995656411200002</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -6559,10 +6565,10 @@
         <v>476</v>
       </c>
       <c r="C185">
-        <v>139</v>
+        <v>233</v>
       </c>
       <c r="D185" s="29">
-        <v>58.708249565000003</v>
+        <v>98.410231285199998</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -6573,10 +6579,10 @@
         <v>478</v>
       </c>
       <c r="C186">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D186" s="29">
-        <v>101.35591693320001</v>
+        <v>99.103563223600005</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -6587,10 +6593,10 @@
         <v>480</v>
       </c>
       <c r="C187">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="D187" s="29">
-        <v>124.331615986</v>
+        <v>191.779486096</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -6601,10 +6607,10 @@
         <v>482</v>
       </c>
       <c r="C188">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D188" s="29">
-        <v>86.766641118699994</v>
+        <v>107.0121907131</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -6615,10 +6621,10 @@
         <v>484</v>
       </c>
       <c r="C189">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D189" s="29">
-        <v>41.735212363300001</v>
+        <v>47.407959674899999</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -6629,10 +6635,10 @@
         <v>486</v>
       </c>
       <c r="C190">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D190" s="29">
-        <v>42.7842685536</v>
+        <v>77.889309417999996</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -6643,10 +6649,10 @@
         <v>488</v>
       </c>
       <c r="C191">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D191" s="29">
-        <v>120.0134415054</v>
+        <v>120.97354903750001</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -6657,10 +6663,10 @@
         <v>490</v>
       </c>
       <c r="C192">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D192" s="29">
-        <v>80.664959842900004</v>
+        <v>77.157787675799995</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -6671,10 +6677,10 @@
         <v>492</v>
       </c>
       <c r="C193">
-        <v>1126</v>
+        <v>1232</v>
       </c>
       <c r="D193" s="29">
-        <v>103.5056804028</v>
+        <v>113.24955440159999</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -6685,10 +6691,10 @@
         <v>494</v>
       </c>
       <c r="C194">
-        <v>206</v>
+        <v>344</v>
       </c>
       <c r="D194" s="29">
-        <v>71.951240809599994</v>
+        <v>120.15158659470001</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -6699,10 +6705,10 @@
         <v>496</v>
       </c>
       <c r="C195">
-        <v>289</v>
+        <v>382</v>
       </c>
       <c r="D195" s="29">
-        <v>127.0793300413</v>
+        <v>167.97337050440001</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -6727,10 +6733,10 @@
         <v>500</v>
       </c>
       <c r="C197">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="D197" s="29">
-        <v>293.43543023220002</v>
+        <v>251.51608305619999</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -6741,10 +6747,10 @@
         <v>502</v>
       </c>
       <c r="C198">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D198" s="29">
-        <v>38.451131460100001</v>
+        <v>56.964639200199997</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -6755,10 +6761,10 @@
         <v>504</v>
       </c>
       <c r="C199">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D199" s="29">
-        <v>138.79157009650001</v>
+        <v>146.87651592730001</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -6769,10 +6775,10 @@
         <v>506</v>
       </c>
       <c r="C200">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D200" s="29">
-        <v>177.64162972380001</v>
+        <v>180.01018478680001</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -6783,10 +6789,10 @@
         <v>508</v>
       </c>
       <c r="C201">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D201" s="29">
-        <v>31.9959045242</v>
+        <v>34.128964825799997</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -6797,10 +6803,10 @@
         <v>510</v>
       </c>
       <c r="C202">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D202" s="29">
-        <v>40.730827417699999</v>
+        <v>53.199448055700003</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -6811,10 +6817,10 @@
         <v>512</v>
       </c>
       <c r="C203">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D203" s="29">
-        <v>144.39252972989999</v>
+        <v>136.21936766970001</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -6825,10 +6831,10 @@
         <v>514</v>
       </c>
       <c r="C204">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D204" s="29">
-        <v>135.08865192779999</v>
+        <v>139.46652490700001</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -6839,10 +6845,10 @@
         <v>516</v>
       </c>
       <c r="C205">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D205" s="29">
-        <v>108.9273583359</v>
+        <v>114.198036965</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -6853,10 +6859,10 @@
         <v>518</v>
       </c>
       <c r="C206">
-        <v>482</v>
+        <v>528</v>
       </c>
       <c r="D206" s="29">
-        <v>81.261748813500006</v>
+        <v>89.017019447199999</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -6867,10 +6873,10 @@
         <v>520</v>
       </c>
       <c r="C207">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="D207" s="29">
-        <v>124.3516090168</v>
+        <v>134.81109014910001</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -6881,10 +6887,10 @@
         <v>522</v>
       </c>
       <c r="C208">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="D208" s="29">
-        <v>98.943986709699999</v>
+        <v>107.4947016106</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -6895,10 +6901,10 @@
         <v>524</v>
       </c>
       <c r="C209">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D209" s="29">
-        <v>106.32562597339999</v>
+        <v>136.27650652930001</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -6909,10 +6915,10 @@
         <v>526</v>
       </c>
       <c r="C210">
-        <v>186</v>
+        <v>254</v>
       </c>
       <c r="D210" s="29">
-        <v>108.194890409</v>
+        <v>147.75001163389999</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -6923,10 +6929,10 @@
         <v>528</v>
       </c>
       <c r="C211">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D211" s="29">
-        <v>95.143996779700004</v>
+        <v>101.2429709323</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -6937,10 +6943,10 @@
         <v>530</v>
       </c>
       <c r="C212">
-        <v>489</v>
+        <v>694</v>
       </c>
       <c r="D212" s="29">
-        <v>140.71375541699999</v>
+        <v>199.7041845796</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -6951,10 +6957,10 @@
         <v>532</v>
       </c>
       <c r="C213">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="D213" s="29">
-        <v>85.251119194200001</v>
+        <v>98.366675993300007</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6965,10 +6971,10 @@
         <v>534</v>
       </c>
       <c r="C214">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="D214" s="29">
-        <v>47.106636493800004</v>
+        <v>60.499699810599999</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -6979,10 +6985,10 @@
         <v>536</v>
       </c>
       <c r="C215">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D215" s="29">
-        <v>35.115260679199999</v>
+        <v>49.574485664699999</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -6993,10 +6999,10 @@
         <v>538</v>
       </c>
       <c r="C216">
-        <v>450</v>
+        <v>556</v>
       </c>
       <c r="D216" s="29">
-        <v>82.504771525999999</v>
+        <v>101.9392288187</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -7007,10 +7013,10 @@
         <v>540</v>
       </c>
       <c r="C217">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="D217" s="29">
-        <v>137.58831486240001</v>
+        <v>159.6488885535</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -7021,10 +7027,10 @@
         <v>542</v>
       </c>
       <c r="C218">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c r="D218" s="29">
-        <v>97.271211971</v>
+        <v>141.18491446269999</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -7035,10 +7041,10 @@
         <v>544</v>
       </c>
       <c r="C219">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D219" s="29">
-        <v>60.823616941499999</v>
+        <v>61.909752958399999</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -7049,10 +7055,10 @@
         <v>546</v>
       </c>
       <c r="C220">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="D220" s="29">
-        <v>86.713110096199998</v>
+        <v>119.1252920253</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -7063,10 +7069,10 @@
         <v>548</v>
       </c>
       <c r="C221">
-        <v>591</v>
+        <v>628</v>
       </c>
       <c r="D221" s="29">
-        <v>140.52958968210001</v>
+        <v>149.3275504575</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -7077,10 +7083,10 @@
         <v>550</v>
       </c>
       <c r="C222">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D222" s="29">
-        <v>118.1058672458</v>
+        <v>100.6674170485</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -7091,10 +7097,10 @@
         <v>552</v>
       </c>
       <c r="C223">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="D223" s="29">
-        <v>141.23973746030001</v>
+        <v>200.15256912820001</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -7105,10 +7111,10 @@
         <v>554</v>
       </c>
       <c r="C224">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D224" s="29">
-        <v>93.897500817400001</v>
+        <v>94.735871360399997</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -7119,10 +7125,10 @@
         <v>556</v>
       </c>
       <c r="C225">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D225" s="29">
-        <v>61.305346375200003</v>
+        <v>67.252879978799996</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -7133,10 +7139,10 @@
         <v>558</v>
       </c>
       <c r="C226">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="D226" s="29">
-        <v>43.515895126700002</v>
+        <v>54.867867768399996</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -7147,10 +7153,10 @@
         <v>560</v>
       </c>
       <c r="C227">
-        <v>416</v>
+        <v>505</v>
       </c>
       <c r="D227" s="29">
-        <v>133.9093150667</v>
+        <v>162.55818295360001</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -7161,10 +7167,10 @@
         <v>562</v>
       </c>
       <c r="C228">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D228" s="29">
-        <v>74.105912169700005</v>
+        <v>111.15886825450001</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -7175,10 +7181,10 @@
         <v>564</v>
       </c>
       <c r="C229">
-        <v>322</v>
+        <v>415</v>
       </c>
       <c r="D229" s="29">
-        <v>130.32005309940001</v>
+        <v>167.9590746467</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -7189,10 +7195,10 @@
         <v>566</v>
       </c>
       <c r="C230">
-        <v>845</v>
+        <v>904</v>
       </c>
       <c r="D230" s="29">
-        <v>205.98602707800001</v>
+        <v>220.36848340649999</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -7203,10 +7209,10 @@
         <v>568</v>
       </c>
       <c r="C231">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D231" s="29">
-        <v>100.1272024153</v>
+        <v>97.572937047600007</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -7217,10 +7223,10 @@
         <v>570</v>
       </c>
       <c r="C232">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="D232" s="29">
-        <v>66.220841844099994</v>
+        <v>72.283313280499996</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -7231,10 +7237,10 @@
         <v>572</v>
       </c>
       <c r="C233">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="D233" s="29">
-        <v>51.923091826399997</v>
+        <v>88.734239016700002</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -7245,10 +7251,10 @@
         <v>574</v>
       </c>
       <c r="C234">
-        <v>302</v>
+        <v>385</v>
       </c>
       <c r="D234" s="29">
-        <v>124.9394953603</v>
+        <v>159.27717123740001</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -7259,10 +7265,10 @@
         <v>576</v>
       </c>
       <c r="C235">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D235" s="29">
-        <v>49.886621315200003</v>
+        <v>108.843537415</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -7273,10 +7279,10 @@
         <v>578</v>
       </c>
       <c r="C236">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D236" s="29">
-        <v>38.743546778000002</v>
+        <v>63.926852183699999</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -7287,10 +7293,10 @@
         <v>580</v>
       </c>
       <c r="C237">
-        <v>466</v>
+        <v>553</v>
       </c>
       <c r="D237" s="29">
-        <v>95.969685112299999</v>
+        <v>113.886772247</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -7301,10 +7307,10 @@
         <v>582</v>
       </c>
       <c r="C238">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D238" s="29">
-        <v>51.994800519899997</v>
+        <v>74.992500749900003</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -7315,10 +7321,10 @@
         <v>584</v>
       </c>
       <c r="C239">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D239" s="29">
-        <v>76.897384712199994</v>
+        <v>71.460195894099996</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -7329,10 +7335,10 @@
         <v>586</v>
       </c>
       <c r="C240">
-        <v>436</v>
+        <v>519</v>
       </c>
       <c r="D240" s="29">
-        <v>140.45984491429999</v>
+        <v>167.19876034519999</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -7343,10 +7349,10 @@
         <v>588</v>
       </c>
       <c r="C241">
-        <v>352</v>
+        <v>472</v>
       </c>
       <c r="D241" s="29">
-        <v>115.7517782038</v>
+        <v>155.2126116824</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -7357,10 +7363,10 @@
         <v>590</v>
       </c>
       <c r="C242">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D242" s="29">
-        <v>81.598565704099997</v>
+        <v>83.897116850700002</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -7371,10 +7377,10 @@
         <v>592</v>
       </c>
       <c r="C243">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D243" s="29">
-        <v>101.83650925160001</v>
+        <v>115.6448494891</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -7385,10 +7391,10 @@
         <v>594</v>
       </c>
       <c r="C244">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="D244" s="29">
-        <v>100.2156688077</v>
+        <v>119.555534718</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -7399,10 +7405,10 @@
         <v>596</v>
       </c>
       <c r="C245">
-        <v>1119</v>
+        <v>1253</v>
       </c>
       <c r="D245" s="29">
-        <v>75.392831010899997</v>
+        <v>84.421105680699995</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -7413,10 +7419,10 @@
         <v>598</v>
       </c>
       <c r="C246">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="D246" s="29">
-        <v>70.190856357000001</v>
+        <v>81.889332416499997</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -7427,10 +7433,10 @@
         <v>600</v>
       </c>
       <c r="C247">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="D247" s="29">
-        <v>77.705499329199995</v>
+        <v>62.7987300701</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -7441,10 +7447,10 @@
         <v>602</v>
       </c>
       <c r="C248">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D248" s="29">
-        <v>46.646661978799997</v>
+        <v>56.393725675900001</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -7455,10 +7461,10 @@
         <v>604</v>
       </c>
       <c r="C249">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D249" s="29">
-        <v>98.660884042600003</v>
+        <v>109.96577700580001</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -7469,10 +7475,10 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D250" s="29">
-        <v>67.621291046500005</v>
+        <v>79.510748812900005</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -7483,10 +7489,10 @@
         <v>608</v>
       </c>
       <c r="C251">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D251" s="29">
-        <v>88.533093919899997</v>
+        <v>71.075864132899994</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -7497,10 +7503,10 @@
         <v>610</v>
       </c>
       <c r="C252">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D252" s="29">
-        <v>82.947765737200001</v>
+        <v>89.796663825600007</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -7511,10 +7517,10 @@
         <v>612</v>
       </c>
       <c r="C253">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D253" s="29">
-        <v>52.467974736199999</v>
+        <v>71.277248698199998</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -7525,10 +7531,10 @@
         <v>614</v>
       </c>
       <c r="C254">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D254" s="29">
-        <v>124.93382742190001</v>
+        <v>115.4049761779</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -7539,10 +7545,10 @@
         <v>616</v>
       </c>
       <c r="C255">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D255" s="29">
-        <v>31.9164914389</v>
+        <v>54.445779513399998</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -7553,10 +7559,10 @@
         <v>618</v>
       </c>
       <c r="C256">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="D256" s="29">
-        <v>35.3873199242</v>
+        <v>64.496244378</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -7567,10 +7573,10 @@
         <v>620</v>
       </c>
       <c r="C257">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c r="D257" s="29">
-        <v>103.38546367559999</v>
+        <v>161.91585845489999</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -7581,10 +7587,10 @@
         <v>622</v>
       </c>
       <c r="C258">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D258" s="29">
-        <v>42.0133454156</v>
+        <v>41.189554329000003</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -7595,10 +7601,10 @@
         <v>624</v>
       </c>
       <c r="C259">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D259" s="29">
-        <v>34.950075624699998</v>
+        <v>19.885387855499999</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -7609,10 +7615,10 @@
         <v>626</v>
       </c>
       <c r="C260">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D260" s="29">
-        <v>57.542917425900001</v>
+        <v>69.531025223</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -7623,10 +7629,10 @@
         <v>628</v>
       </c>
       <c r="C261">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="D261" s="29">
-        <v>213.41047127300001</v>
+        <v>202.2848068939</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -7637,10 +7643,10 @@
         <v>630</v>
       </c>
       <c r="C262">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D262" s="29">
-        <v>87.718183089500002</v>
+        <v>93.438934160499997</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -7651,10 +7657,10 @@
         <v>632</v>
       </c>
       <c r="C263">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D263" s="29">
-        <v>41.576898363399998</v>
+        <v>46.868503609599998</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -7665,10 +7671,10 @@
         <v>634</v>
       </c>
       <c r="C264">
-        <v>686</v>
+        <v>748</v>
       </c>
       <c r="D264" s="29">
-        <v>132.33790535719999</v>
+        <v>144.2984740629</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -7679,10 +7685,10 @@
         <v>636</v>
       </c>
       <c r="C265">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="D265" s="29">
-        <v>86.069605133699994</v>
+        <v>119.443533655</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -7693,10 +7699,10 @@
         <v>638</v>
       </c>
       <c r="C266">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="D266" s="29">
-        <v>112.1737346803</v>
+        <v>69.868211886599994</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -7707,10 +7713,10 @@
         <v>640</v>
       </c>
       <c r="C267">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="D267" s="29">
-        <v>137.4711916988</v>
+        <v>156.58483332540001</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -7721,10 +7727,10 @@
         <v>642</v>
       </c>
       <c r="C268">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="D268" s="29">
-        <v>122.4117970811</v>
+        <v>106.75447419859999</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -7735,10 +7741,10 @@
         <v>644</v>
       </c>
       <c r="C269">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="D269" s="29">
-        <v>162.97660088110001</v>
+        <v>169.08235249910001</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -7749,10 +7755,10 @@
         <v>646</v>
       </c>
       <c r="C270">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="D270" s="29">
-        <v>172.806319774</v>
+        <v>205.72180925469999</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -7763,10 +7769,10 @@
         <v>648</v>
       </c>
       <c r="C271">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D271" s="29">
-        <v>87.897996959799997</v>
+        <v>118.9208194162</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -7777,10 +7783,10 @@
         <v>650</v>
       </c>
       <c r="C272">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="D272" s="29">
-        <v>125.277540086</v>
+        <v>148.76707885210001</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -7791,10 +7797,10 @@
         <v>652</v>
       </c>
       <c r="C273">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="D273" s="29">
-        <v>187.2889161805</v>
+        <v>200.33773411109999</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -7805,10 +7811,10 @@
         <v>654</v>
       </c>
       <c r="C274">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="D274" s="29">
-        <v>141.6474384016</v>
+        <v>134.059182773</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -7819,10 +7825,10 @@
         <v>656</v>
       </c>
       <c r="C275">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D275" s="29">
-        <v>85.759742602499998</v>
+        <v>82.802510098900001</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -7833,10 +7839,10 @@
         <v>658</v>
       </c>
       <c r="C276">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D276" s="29">
-        <v>70.288028115200007</v>
+        <v>68.760027504000007</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -7847,10 +7853,10 @@
         <v>660</v>
       </c>
       <c r="C277">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="D277" s="29">
-        <v>74.651935351399999</v>
+        <v>94.061438542800005</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -7861,10 +7867,10 @@
         <v>662</v>
       </c>
       <c r="C278">
-        <v>411</v>
+        <v>529</v>
       </c>
       <c r="D278" s="29">
-        <v>95.370028750200007</v>
+        <v>122.7512048878</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -7875,10 +7881,10 @@
         <v>664</v>
       </c>
       <c r="C279">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="D279" s="29">
-        <v>131.31539294769999</v>
+        <v>157.3364155134</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -7889,10 +7895,10 @@
         <v>666</v>
       </c>
       <c r="C280">
-        <v>223</v>
+        <v>350</v>
       </c>
       <c r="D280" s="29">
-        <v>62.276586237700002</v>
+        <v>97.743521000900003</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -7903,10 +7909,10 @@
         <v>668</v>
       </c>
       <c r="C281">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D281" s="29">
-        <v>106.0425125388</v>
+        <v>109.863864342</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -7917,10 +7923,10 @@
         <v>670</v>
       </c>
       <c r="C282">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="D282" s="29">
-        <v>157.24384128290001</v>
+        <v>116.1621169838</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -7931,10 +7937,10 @@
         <v>672</v>
       </c>
       <c r="C283">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D283" s="29">
-        <v>43.009620110900002</v>
+        <v>77.241766729899993</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -7945,10 +7951,10 @@
         <v>674</v>
       </c>
       <c r="C284">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D284" s="29">
-        <v>33.908616279100002</v>
+        <v>35.404584644400003</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -7959,10 +7965,10 @@
         <v>676</v>
       </c>
       <c r="C285">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="D285" s="29">
-        <v>84.967783048900003</v>
+        <v>112.2788561718</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -7973,10 +7979,10 @@
         <v>678</v>
       </c>
       <c r="C286">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D286" s="29">
-        <v>60.421194195699996</v>
+        <v>63.669645496500003</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -7987,10 +7993,10 @@
         <v>680</v>
       </c>
       <c r="C287">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D287" s="29">
-        <v>168.5510292976</v>
+        <v>174.23252466720001</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -8001,10 +8007,10 @@
         <v>682</v>
       </c>
       <c r="C288">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="D288" s="29">
-        <v>113.155053567</v>
+        <v>102.2547961133</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -8015,10 +8021,10 @@
         <v>684</v>
       </c>
       <c r="C289">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="D289" s="29">
-        <v>175.072885216</v>
+        <v>121.66081853990001</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -8029,10 +8035,10 @@
         <v>686</v>
       </c>
       <c r="C290">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="D290" s="29">
-        <v>108.401506703</v>
+        <v>138.0364509815</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -8043,10 +8049,10 @@
         <v>688</v>
       </c>
       <c r="C291">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D291" s="29">
-        <v>81.773938725099995</v>
+        <v>76.216486578800001</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -8057,10 +8063,10 @@
         <v>690</v>
       </c>
       <c r="C292">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="D292" s="29">
-        <v>86.680607270400003</v>
+        <v>96.803889871300001</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -8071,10 +8077,10 @@
         <v>692</v>
       </c>
       <c r="C293">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D293" s="29">
-        <v>99.425815913099996</v>
+        <v>104.3971067088</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -8085,10 +8091,10 @@
         <v>694</v>
       </c>
       <c r="C294">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D294" s="29">
-        <v>24.0896445612</v>
+        <v>18.650047402199998</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -8099,10 +8105,10 @@
         <v>696</v>
       </c>
       <c r="C295">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D295" s="29">
-        <v>97.042155112200007</v>
+        <v>93.714995508300007</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -8113,10 +8119,10 @@
         <v>698</v>
       </c>
       <c r="C296">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="D296" s="29">
-        <v>100.2004008016</v>
+        <v>110.3589667815</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -8127,10 +8133,10 @@
         <v>700</v>
       </c>
       <c r="C297">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D297" s="29">
-        <v>51.209327975999997</v>
+        <v>95.853357493600001</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -8141,10 +8147,10 @@
         <v>702</v>
       </c>
       <c r="C298">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="D298" s="29">
-        <v>194.0195315876</v>
+        <v>188.4020395817</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -8155,10 +8161,10 @@
         <v>704</v>
       </c>
       <c r="C299">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="D299" s="29">
-        <v>77.428667526200002</v>
+        <v>94.596109647399999</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -8169,10 +8175,10 @@
         <v>706</v>
       </c>
       <c r="C300">
-        <v>592</v>
+        <v>689</v>
       </c>
       <c r="D300" s="29">
-        <v>96.395429684299998</v>
+        <v>112.1899511021</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -8183,10 +8189,10 @@
         <v>708</v>
       </c>
       <c r="C301">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D301" s="29">
-        <v>94.303061619900006</v>
+        <v>122.7231623821</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -8197,10 +8203,10 @@
         <v>710</v>
       </c>
       <c r="C302">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="D302" s="29">
-        <v>166.56433302420001</v>
+        <v>148.9281095275</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -8211,10 +8217,10 @@
         <v>712</v>
       </c>
       <c r="C303">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="D303" s="29">
-        <v>107.6931004277</v>
+        <v>118.51393826970001</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -8225,10 +8231,10 @@
         <v>714</v>
       </c>
       <c r="C304">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="D304" s="29">
-        <v>126.6413982647</v>
+        <v>192.20751225999999</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -8239,10 +8245,10 @@
         <v>716</v>
       </c>
       <c r="C305">
-        <v>270</v>
+        <v>389</v>
       </c>
       <c r="D305" s="29">
-        <v>63.1951466127</v>
+        <v>91.047822342100005</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -8253,10 +8259,10 @@
         <v>718</v>
       </c>
       <c r="C306">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D306" s="29">
-        <v>42.320629847699998</v>
+        <v>46.333793022899997</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -8267,10 +8273,10 @@
         <v>720</v>
       </c>
       <c r="C307">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="D307" s="29">
-        <v>101.3817178453</v>
+        <v>106.9559703728</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -8281,10 +8287,10 @@
         <v>722</v>
       </c>
       <c r="C308">
-        <v>542</v>
+        <v>619</v>
       </c>
       <c r="D308" s="29">
-        <v>115.1684497944</v>
+        <v>131.5300192302</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -8295,10 +8301,10 @@
         <v>724</v>
       </c>
       <c r="C309">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D309" s="29">
-        <v>81.748236802700006</v>
+        <v>68.924983970900001</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -8309,10 +8315,10 @@
         <v>726</v>
       </c>
       <c r="C310">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D310" s="29">
-        <v>62.037746091099997</v>
+        <v>67.853784787199999</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -8323,10 +8329,10 @@
         <v>728</v>
       </c>
       <c r="C311">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="D311" s="29">
-        <v>95.6681058068</v>
+        <v>101.3164072567</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -8337,10 +8343,10 @@
         <v>730</v>
       </c>
       <c r="C312">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D312" s="29">
-        <v>88.327098045300005</v>
+        <v>88.991211564400004</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -8351,10 +8357,10 @@
         <v>732</v>
       </c>
       <c r="C313">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D313" s="29">
-        <v>60.508434385100003</v>
+        <v>80.132791483000005</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -8365,10 +8371,10 @@
         <v>734</v>
       </c>
       <c r="C314">
-        <v>510</v>
+        <v>601</v>
       </c>
       <c r="D314" s="29">
-        <v>93.005443553899994</v>
+        <v>109.6005325018</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -8379,10 +8385,10 @@
         <v>736</v>
       </c>
       <c r="C315">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D315" s="29">
-        <v>102.19327464769999</v>
+        <v>93.784967239899999</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -8393,10 +8399,10 @@
         <v>738</v>
       </c>
       <c r="C316">
-        <v>494</v>
+        <v>576</v>
       </c>
       <c r="D316" s="29">
-        <v>82.228628879200002</v>
+        <v>95.877915454299995</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -8407,10 +8413,10 @@
         <v>740</v>
       </c>
       <c r="C317">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D317" s="29">
-        <v>91.668236328199995</v>
+        <v>159.4776166259</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -8421,10 +8427,10 @@
         <v>742</v>
       </c>
       <c r="C318">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="D318" s="29">
-        <v>191.97180217459999</v>
+        <v>122.7360702428</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -8435,10 +8441,10 @@
         <v>744</v>
       </c>
       <c r="C319">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="D319" s="29">
-        <v>107.5268817204</v>
+        <v>94.899169632300001</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -8449,10 +8455,10 @@
         <v>746</v>
       </c>
       <c r="C320">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D320" s="29">
-        <v>22.945537809899999</v>
+        <v>31.072082451</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -8463,10 +8469,10 @@
         <v>748</v>
       </c>
       <c r="C321">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D321" s="29">
-        <v>75.535000973199999</v>
+        <v>76.461810800999999</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -8477,10 +8483,10 @@
         <v>750</v>
       </c>
       <c r="C322">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D322" s="29">
-        <v>59.835635173599997</v>
+        <v>76.320963231600004</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -8491,10 +8497,10 @@
         <v>752</v>
       </c>
       <c r="C323">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="D323" s="29">
-        <v>112.82140293019999</v>
+        <v>146.74671989519999</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -8505,10 +8511,10 @@
         <v>754</v>
       </c>
       <c r="C324">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D324" s="29">
-        <v>78.188013366000007</v>
+        <v>75.718918207100003</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -8519,10 +8525,10 @@
         <v>756</v>
       </c>
       <c r="C325">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="D325" s="29">
-        <v>36.460344014100002</v>
+        <v>70.775961909700001</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -8533,10 +8539,10 @@
         <v>758</v>
       </c>
       <c r="C326">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D326" s="29">
-        <v>161.54309825199999</v>
+        <v>162.7486437613</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -8547,10 +8553,10 @@
         <v>760</v>
       </c>
       <c r="C327">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="D327" s="29">
-        <v>122.9497048663</v>
+        <v>152.327067976</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -8561,10 +8567,10 @@
         <v>762</v>
       </c>
       <c r="C328">
-        <v>267</v>
+        <v>373</v>
       </c>
       <c r="D328" s="29">
-        <v>332.45343161670002</v>
+        <v>464.43868911250001</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -8575,10 +8581,10 @@
         <v>764</v>
       </c>
       <c r="C329">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="D329" s="29">
-        <v>138.56723417859999</v>
+        <v>187.98631769689999</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -8589,10 +8595,10 @@
         <v>766</v>
       </c>
       <c r="C330">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D330" s="29">
-        <v>42.713270446999999</v>
+        <v>47.859447609299998</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -8603,10 +8609,10 @@
         <v>767</v>
       </c>
       <c r="C331">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D331" s="29">
-        <v>51.337590368199997</v>
+        <v>61.886410306899997</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -8617,10 +8623,10 @@
         <v>769</v>
       </c>
       <c r="C332">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="D332" s="29">
-        <v>106.683605743</v>
+        <v>119.7136644597</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -8631,10 +8637,10 @@
         <v>771</v>
       </c>
       <c r="C333">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="D333" s="29">
-        <v>196.56537956299999</v>
+        <v>136.157482429</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -8645,10 +8651,10 @@
         <v>773</v>
       </c>
       <c r="C334">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D334" s="29">
-        <v>82.485128883000002</v>
+        <v>96.761401189699995</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -8673,10 +8679,10 @@
         <v>777</v>
       </c>
       <c r="C336">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D336" s="29">
-        <v>106.4503865163</v>
+        <v>109.6185527816</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -8687,10 +8693,10 @@
         <v>779</v>
       </c>
       <c r="C337">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D337" s="29">
-        <v>45.238521346600002</v>
+        <v>37.284495615300003</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -8701,10 +8707,10 @@
         <v>781</v>
       </c>
       <c r="C338">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="D338" s="29">
-        <v>298.60065964329999</v>
+        <v>313.01034295049999</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -8715,10 +8721,10 @@
         <v>783</v>
       </c>
       <c r="C339">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D339" s="29">
-        <v>97.606207754799996</v>
+        <v>87.845586979299995</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -8729,10 +8735,10 @@
         <v>785</v>
       </c>
       <c r="C340">
-        <v>548</v>
+        <v>738</v>
       </c>
       <c r="D340" s="29">
-        <v>278.51047717789999</v>
+        <v>375.0743287542</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -8743,10 +8749,10 @@
         <v>787</v>
       </c>
       <c r="C341">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="D341" s="29">
-        <v>62.335464983599998</v>
+        <v>81.258731139299996</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -8757,10 +8763,10 @@
         <v>789</v>
       </c>
       <c r="C342">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="D342" s="29">
-        <v>298.9071629517</v>
+        <v>282.00064921009999</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -8771,10 +8777,10 @@
         <v>791</v>
       </c>
       <c r="C343">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D343" s="29">
-        <v>62.586468146800001</v>
+        <v>66.351067734599994</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -8785,10 +8791,10 @@
         <v>793</v>
       </c>
       <c r="C344">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D344" s="29">
-        <v>172.20080110809999</v>
+        <v>160.97031407930001</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -8799,10 +8805,10 @@
         <v>795</v>
       </c>
       <c r="C345">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D345" s="29">
-        <v>58.9025076876</v>
+        <v>66.698427822799999</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -8813,10 +8819,10 @@
         <v>797</v>
       </c>
       <c r="C346">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D346" s="29">
-        <v>83.635641328600002</v>
+        <v>82.590195811900003</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -8827,10 +8833,10 @@
         <v>799</v>
       </c>
       <c r="C347">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="D347" s="29">
-        <v>103.90547488049999</v>
+        <v>87.309461531500006</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -8841,10 +8847,10 @@
         <v>801</v>
       </c>
       <c r="C348">
-        <v>426</v>
+        <v>512</v>
       </c>
       <c r="D348" s="29">
-        <v>153.82171124850001</v>
+        <v>184.87492056159999</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -8855,10 +8861,10 @@
         <v>803</v>
       </c>
       <c r="C349">
-        <v>199</v>
+        <v>273</v>
       </c>
       <c r="D349" s="29">
-        <v>152.0836995315</v>
+        <v>208.6374370458</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -8869,10 +8875,10 @@
         <v>805</v>
       </c>
       <c r="C350">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D350" s="29">
-        <v>80.1895389102</v>
+        <v>83.503156220500003</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -8883,10 +8889,10 @@
         <v>807</v>
       </c>
       <c r="C351">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="D351" s="29">
-        <v>123.0807874659</v>
+        <v>148.82727872149999</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -8897,10 +8903,10 @@
         <v>809</v>
       </c>
       <c r="C352">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="D352" s="29">
-        <v>218.93499647109999</v>
+        <v>243.4211473922</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -8911,10 +8917,10 @@
         <v>811</v>
       </c>
       <c r="C353">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D353" s="29">
-        <v>100.49032347489999</v>
+        <v>114.3510577473</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -8925,10 +8931,10 @@
         <v>813</v>
       </c>
       <c r="C354">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D354" s="29">
-        <v>73.178932378699997</v>
+        <v>132.51320187499999</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -8939,10 +8945,10 @@
         <v>992</v>
       </c>
       <c r="C355">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="D355" s="29">
-        <v>106.4016883574</v>
+        <v>149.48997537810001</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -8953,10 +8959,10 @@
         <v>815</v>
       </c>
       <c r="C356">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D356" s="29">
-        <v>61.121107807900003</v>
+        <v>49.3858551087</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -8967,10 +8973,10 @@
         <v>817</v>
       </c>
       <c r="C357">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D357" s="29">
-        <v>65.406401917799997</v>
+        <v>68.4485601465</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -8981,10 +8987,10 @@
         <v>819</v>
       </c>
       <c r="C358">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D358" s="29">
-        <v>72.438847710100006</v>
+        <v>87.804663891100006</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -8995,10 +9001,10 @@
         <v>821</v>
       </c>
       <c r="C359">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D359" s="29">
-        <v>32.821170418199998</v>
+        <v>52.6665292757</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -9009,10 +9015,10 @@
         <v>823</v>
       </c>
       <c r="C360">
-        <v>346</v>
+        <v>440</v>
       </c>
       <c r="D360" s="29">
-        <v>77.194234973899995</v>
+        <v>98.166079157599995</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -9023,10 +9029,10 @@
         <v>825</v>
       </c>
       <c r="C361">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="D361" s="29">
-        <v>100.7284827772</v>
+        <v>156.48889288609999</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -9037,10 +9043,10 @@
         <v>827</v>
       </c>
       <c r="C362">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="D362" s="29">
-        <v>68.808466718000005</v>
+        <v>79.047821884399994</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -9065,10 +9071,10 @@
         <v>831</v>
       </c>
       <c r="C364">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D364" s="29">
-        <v>166.13924050630001</v>
+        <v>161.19462025319999</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -9079,10 +9085,10 @@
         <v>833</v>
       </c>
       <c r="C365">
-        <v>484</v>
+        <v>681</v>
       </c>
       <c r="D365" s="29">
-        <v>76.111279723099997</v>
+        <v>107.0904576269</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -9093,10 +9099,10 @@
         <v>835</v>
       </c>
       <c r="C366">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D366" s="29">
-        <v>59.717157825199997</v>
+        <v>42.525854814900001</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -9107,10 +9113,10 @@
         <v>837</v>
       </c>
       <c r="C367">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D367" s="29">
-        <v>106.5052567198</v>
+        <v>89.633136843399996</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -9121,10 +9127,10 @@
         <v>839</v>
       </c>
       <c r="C368">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D368" s="29">
-        <v>195.7106743864</v>
+        <v>192.99247057540001</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -9135,10 +9141,10 @@
         <v>841</v>
       </c>
       <c r="C369">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="D369" s="29">
-        <v>96.472290687500006</v>
+        <v>121.1786090343</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -9149,10 +9155,10 @@
         <v>843</v>
       </c>
       <c r="C370">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D370" s="29">
-        <v>179.05227215950001</v>
+        <v>183.2162784887</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -9163,10 +9169,10 @@
         <v>845</v>
       </c>
       <c r="C371">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D371" s="29">
-        <v>144.93652682449999</v>
+        <v>152.8319018267</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -9177,10 +9183,10 @@
         <v>847</v>
       </c>
       <c r="C372">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D372" s="29">
-        <v>60.074600100399998</v>
+        <v>40.348612007699998</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -9191,10 +9197,10 @@
         <v>849</v>
       </c>
       <c r="C373">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D373" s="29">
-        <v>54.2175932743</v>
+        <v>54.886946277699998</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -9205,10 +9211,10 @@
         <v>851</v>
       </c>
       <c r="C374">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D374" s="29">
-        <v>62.096047717799998</v>
+        <v>65.157120492600001</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -9219,10 +9225,10 @@
         <v>853</v>
       </c>
       <c r="C375">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="D375" s="29">
-        <v>93.772643962299995</v>
+        <v>117.2158049529</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -9233,10 +9239,10 @@
         <v>855</v>
       </c>
       <c r="C376">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D376" s="29">
-        <v>46.239081271499998</v>
+        <v>51.283344682900001</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -9247,10 +9253,10 @@
         <v>857</v>
       </c>
       <c r="C377">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D377" s="29">
-        <v>34.636157984199997</v>
+        <v>45.4599573542</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -9261,10 +9267,10 @@
         <v>859</v>
       </c>
       <c r="C378">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D378" s="29">
-        <v>63.096458711300002</v>
+        <v>75.715750453499993</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -9275,10 +9281,10 @@
         <v>861</v>
       </c>
       <c r="C379">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="D379" s="29">
-        <v>69.892704569100005</v>
+        <v>84.327067469300005</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -9289,10 +9295,10 @@
         <v>863</v>
       </c>
       <c r="C380">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="D380" s="29">
-        <v>132.0525862744</v>
+        <v>100.75123249080001</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -9303,10 +9309,10 @@
         <v>865</v>
       </c>
       <c r="C381">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="D381" s="29">
-        <v>141.04760528689999</v>
+        <v>176.8255344328</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -9317,10 +9323,10 @@
         <v>867</v>
       </c>
       <c r="C382">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D382" s="29">
-        <v>135.84102398920001</v>
+        <v>139.3420813086</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -9331,10 +9337,10 @@
         <v>869</v>
       </c>
       <c r="C383">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D383" s="29">
-        <v>52.503773708700002</v>
+        <v>63.442059898099998</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -9345,10 +9351,10 @@
         <v>871</v>
       </c>
       <c r="C384">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="D384" s="29">
-        <v>71.604715204000001</v>
+        <v>87.665585903899995</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -9359,10 +9365,10 @@
         <v>873</v>
       </c>
       <c r="C385">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="D385" s="29">
-        <v>63.421144798999997</v>
+        <v>87.085751067299995</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -9373,10 +9379,10 @@
         <v>875</v>
       </c>
       <c r="C386">
-        <v>736</v>
+        <v>943</v>
       </c>
       <c r="D386" s="29">
-        <v>325.66803984120003</v>
+        <v>417.26217604660002</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -9387,10 +9393,10 @@
         <v>877</v>
       </c>
       <c r="C387">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="D387" s="29">
-        <v>80.637289229000004</v>
+        <v>106.9505099248</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -9401,10 +9407,10 @@
         <v>879</v>
       </c>
       <c r="C388">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="D388" s="29">
-        <v>40.498081904000003</v>
+        <v>54.294131783399997</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -9415,10 +9421,10 @@
         <v>881</v>
       </c>
       <c r="C389">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D389" s="29">
-        <v>54.414141080999997</v>
+        <v>95.636975233300006</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -9429,10 +9435,10 @@
         <v>883</v>
       </c>
       <c r="C390">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D390" s="29">
-        <v>79.280846003400001</v>
+        <v>99.740419165500001</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -9443,10 +9449,10 @@
         <v>885</v>
       </c>
       <c r="C391">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="D391" s="29">
-        <v>84.209048964100006</v>
+        <v>108.18523651629999</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -9457,10 +9463,10 @@
         <v>887</v>
       </c>
       <c r="C392">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D392" s="29">
-        <v>77.742585660800003</v>
+        <v>78.102505038900006</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -9471,10 +9477,10 @@
         <v>889</v>
       </c>
       <c r="C393">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="D393" s="29">
-        <v>347.13466807869997</v>
+        <v>385.7985778405</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -9485,10 +9491,10 @@
         <v>891</v>
       </c>
       <c r="C394">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D394" s="29">
-        <v>138.03429801370001</v>
+        <v>147.39255550620001</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -9499,10 +9505,10 @@
         <v>893</v>
       </c>
       <c r="C395">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D395" s="29">
-        <v>76.765231255299994</v>
+        <v>90.051521280200006</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -9513,10 +9519,10 @@
         <v>895</v>
       </c>
       <c r="C396">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D396" s="29">
-        <v>47.525602501999998</v>
+        <v>68.988777825499994</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -9527,10 +9533,10 @@
         <v>897</v>
       </c>
       <c r="C397">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="D397" s="29">
-        <v>92.5069380204</v>
+        <v>137.54321047760001</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -9541,10 +9547,10 @@
         <v>899</v>
       </c>
       <c r="C398">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="D398" s="29">
-        <v>72.835518398900007</v>
+        <v>135.115164566</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -9555,10 +9561,10 @@
         <v>901</v>
       </c>
       <c r="C399">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D399" s="29">
-        <v>117.26241938210001</v>
+        <v>109.3124248477</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -9569,10 +9575,10 @@
         <v>903</v>
       </c>
       <c r="C400">
-        <v>399</v>
+        <v>504</v>
       </c>
       <c r="D400" s="29">
-        <v>86.743656190799996</v>
+        <v>109.5709341357</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -9583,10 +9589,10 @@
         <v>905</v>
       </c>
       <c r="C401">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D401" s="29">
-        <v>118.5329013468</v>
+        <v>132.07951864349999</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -9597,10 +9603,10 @@
         <v>907</v>
       </c>
       <c r="C402">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="D402" s="29">
-        <v>92.618274031200002</v>
+        <v>111.4390997702</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -9611,10 +9617,10 @@
         <v>909</v>
       </c>
       <c r="C403">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="D403" s="29">
-        <v>104.43051316890001</v>
+        <v>119.3491579074</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -9625,10 +9631,10 @@
         <v>911</v>
       </c>
       <c r="C404">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="D404" s="29">
-        <v>70.742690520500005</v>
+        <v>81.156589124999996</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -9639,10 +9645,10 @@
         <v>913</v>
       </c>
       <c r="C405">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D405" s="29">
-        <v>45.998764604599998</v>
+        <v>55.198517525500002</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -9653,10 +9659,10 @@
         <v>915</v>
       </c>
       <c r="C406">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="D406" s="29">
-        <v>108.04062327440001</v>
+        <v>150.45657167089999</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -9667,10 +9673,10 @@
         <v>917</v>
       </c>
       <c r="C407">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D407" s="29">
-        <v>42.1599971893</v>
+        <v>43.916663738899999</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -9681,10 +9687,10 @@
         <v>919</v>
       </c>
       <c r="C408">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D408" s="29">
-        <v>43.470264667000002</v>
+        <v>67.713296885199995</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -9695,10 +9701,10 @@
         <v>921</v>
       </c>
       <c r="C409">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D409" s="29">
-        <v>67.539860578399995</v>
+        <v>73.168182293300006</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -9709,10 +9715,10 @@
         <v>923</v>
       </c>
       <c r="C410">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="D410" s="29">
-        <v>80.199181250099997</v>
+        <v>116.1092624069</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -9723,10 +9729,10 @@
         <v>925</v>
       </c>
       <c r="C411">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D411" s="29">
-        <v>211.9606358819</v>
+        <v>213.3370036474</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -9737,10 +9743,10 @@
         <v>927</v>
       </c>
       <c r="C412">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D412" s="29">
-        <v>144.18473669389999</v>
+        <v>144.46634750769999</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -9751,10 +9757,10 @@
         <v>929</v>
       </c>
       <c r="C413">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D413" s="29">
-        <v>66.440508387099996</v>
+        <v>67.222161427000003</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -9765,10 +9771,10 @@
         <v>931</v>
       </c>
       <c r="C414">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D414" s="29">
-        <v>61.613535261400003</v>
+        <v>51.139234266999999</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -9779,10 +9785,10 @@
         <v>933</v>
       </c>
       <c r="C415">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="D415" s="29">
-        <v>59.673748303499998</v>
+        <v>101.9206497573</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -9793,10 +9799,10 @@
         <v>935</v>
       </c>
       <c r="C416">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D416" s="29">
-        <v>35.094902465399997</v>
+        <v>32.170327260000001</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -9807,10 +9813,10 @@
         <v>937</v>
       </c>
       <c r="C417">
-        <v>545</v>
+        <v>808</v>
       </c>
       <c r="D417" s="29">
-        <v>173.01477450940001</v>
+        <v>256.5063078965</v>
       </c>
     </row>
   </sheetData>
@@ -9826,8 +9832,8 @@
   <dimension ref="A2:S510"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H392" sqref="H392:H393"/>
+      <pane ySplit="3" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H403" sqref="H403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9841,7 +9847,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -19007,7 +19013,7 @@
         <v>2052028</v>
       </c>
       <c r="D333" s="3">
-        <f t="shared" ref="D333:D393" si="175">B333-B332</f>
+        <f t="shared" ref="D333:D398" si="175">B333-B332</f>
         <v>11369</v>
       </c>
       <c r="E333" s="3">
@@ -20768,7 +20774,7 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="26" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B393" s="32">
         <v>2645783</v>
@@ -20797,24 +20803,145 @@
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A394" s="26"/>
-      <c r="G394" s="4"/>
+      <c r="A394" s="26" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B394" s="32">
+        <v>2659516</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D394" s="3">
+        <f t="shared" si="175"/>
+        <v>13733</v>
+      </c>
+      <c r="E394" s="3">
+        <v>74664</v>
+      </c>
+      <c r="F394" s="3">
+        <f t="shared" ref="F394:F397" si="282">E394-E393</f>
+        <v>99</v>
+      </c>
+      <c r="G394" s="4">
+        <f t="shared" ref="G394:G397" si="283">E394/B394</f>
+        <v>2.8074281184997572E-2</v>
+      </c>
+      <c r="H394" s="3">
+        <f t="shared" ref="H394:H397" si="284">B394-E394</f>
+        <v>2584852</v>
+      </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A395" s="26"/>
-      <c r="G395" s="4"/>
+      <c r="A395" s="26">
+        <v>44277</v>
+      </c>
+      <c r="B395" s="32">
+        <v>2667225</v>
+      </c>
+      <c r="D395" s="3">
+        <f t="shared" si="175"/>
+        <v>7709</v>
+      </c>
+      <c r="E395" s="3">
+        <v>74714</v>
+      </c>
+      <c r="F395" s="3">
+        <f t="shared" si="282"/>
+        <v>50</v>
+      </c>
+      <c r="G395" s="4">
+        <f t="shared" si="283"/>
+        <v>2.8011885011575702E-2</v>
+      </c>
+      <c r="H395" s="3">
+        <f t="shared" si="284"/>
+        <v>2592511</v>
+      </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A396" s="26"/>
-      <c r="G396" s="4"/>
+      <c r="A396" s="26">
+        <v>44278</v>
+      </c>
+      <c r="B396" s="32">
+        <v>2674710</v>
+      </c>
+      <c r="D396" s="3">
+        <f t="shared" si="175"/>
+        <v>7485</v>
+      </c>
+      <c r="E396" s="3">
+        <v>74964</v>
+      </c>
+      <c r="F396" s="3">
+        <f t="shared" si="282"/>
+        <v>250</v>
+      </c>
+      <c r="G396" s="4">
+        <f t="shared" si="283"/>
+        <v>2.8026963670827864E-2</v>
+      </c>
+      <c r="H396" s="3">
+        <f t="shared" si="284"/>
+        <v>2599746</v>
+      </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A397" s="26"/>
-      <c r="G397" s="4"/>
+      <c r="A397" s="26">
+        <v>44279</v>
+      </c>
+      <c r="B397" s="32">
+        <v>2690523</v>
+      </c>
+      <c r="D397" s="3">
+        <f t="shared" si="175"/>
+        <v>15813</v>
+      </c>
+      <c r="E397" s="3">
+        <v>75212</v>
+      </c>
+      <c r="F397" s="3">
+        <f t="shared" si="282"/>
+        <v>248</v>
+      </c>
+      <c r="G397" s="4">
+        <f t="shared" si="283"/>
+        <v>2.7954416297500524E-2</v>
+      </c>
+      <c r="H397" s="3">
+        <f t="shared" si="284"/>
+        <v>2615311</v>
+      </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A398" s="26"/>
-      <c r="G398" s="4"/>
+      <c r="A398" s="26" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B398" s="32">
+        <v>2713180</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D398" s="3">
+        <f t="shared" si="175"/>
+        <v>22657</v>
+      </c>
+      <c r="E398" s="3">
+        <v>75440</v>
+      </c>
+      <c r="F398" s="3">
+        <f t="shared" ref="F398" si="285">E398-E397</f>
+        <v>228</v>
+      </c>
+      <c r="G398" s="4">
+        <f t="shared" ref="G398" si="286">E398/B398</f>
+        <v>2.7805011093993026E-2</v>
+      </c>
+      <c r="H398" s="3">
+        <f t="shared" ref="H398" si="287">B398-E398</f>
+        <v>2637740</v>
+      </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="26"/>
@@ -21275,8 +21402,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A2:LS20"/>
   <sheetViews>
-    <sheetView topLeftCell="KS1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="LH4" sqref="LH4:LH20"/>
+    <sheetView topLeftCell="KV1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="LM4" sqref="LM4:LM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21287,7 +21414,7 @@
   <sheetData>
     <row r="2" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="3" spans="1:331" x14ac:dyDescent="0.25">
@@ -23243,6 +23370,21 @@
       <c r="LH4" s="3">
         <v>10232</v>
       </c>
+      <c r="LI4" s="3">
+        <v>11078</v>
+      </c>
+      <c r="LJ4" s="3">
+        <v>11440</v>
+      </c>
+      <c r="LK4" s="3">
+        <v>11433</v>
+      </c>
+      <c r="LL4" s="3">
+        <v>11312</v>
+      </c>
+      <c r="LM4" s="3">
+        <v>12050</v>
+      </c>
     </row>
     <row r="5" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -24205,6 +24347,21 @@
       <c r="LH5" s="3">
         <v>13594</v>
       </c>
+      <c r="LI5" s="3">
+        <v>14140</v>
+      </c>
+      <c r="LJ5" s="3">
+        <v>14535</v>
+      </c>
+      <c r="LK5" s="3">
+        <v>14534</v>
+      </c>
+      <c r="LL5" s="3">
+        <v>14541</v>
+      </c>
+      <c r="LM5" s="3">
+        <v>15027</v>
+      </c>
     </row>
     <row r="6" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -25167,6 +25324,21 @@
       <c r="LH6" s="3">
         <v>3417</v>
       </c>
+      <c r="LI6" s="3">
+        <v>3453</v>
+      </c>
+      <c r="LJ6" s="3">
+        <v>3606</v>
+      </c>
+      <c r="LK6" s="3">
+        <v>3464</v>
+      </c>
+      <c r="LL6" s="3">
+        <v>3567</v>
+      </c>
+      <c r="LM6" s="3">
+        <v>4085</v>
+      </c>
     </row>
     <row r="7" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -26129,6 +26301,21 @@
       <c r="LH7" s="3">
         <v>2714</v>
       </c>
+      <c r="LI7" s="3">
+        <v>2811</v>
+      </c>
+      <c r="LJ7" s="3">
+        <v>2824</v>
+      </c>
+      <c r="LK7" s="3">
+        <v>2869</v>
+      </c>
+      <c r="LL7" s="3">
+        <v>2995</v>
+      </c>
+      <c r="LM7" s="3">
+        <v>3239</v>
+      </c>
     </row>
     <row r="8" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -27091,6 +27278,21 @@
       <c r="LH8" s="3">
         <v>658</v>
       </c>
+      <c r="LI8" s="3">
+        <v>684</v>
+      </c>
+      <c r="LJ8" s="3">
+        <v>700</v>
+      </c>
+      <c r="LK8" s="3">
+        <v>701</v>
+      </c>
+      <c r="LL8" s="3">
+        <v>720</v>
+      </c>
+      <c r="LM8" s="3">
+        <v>762</v>
+      </c>
     </row>
     <row r="9" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -28053,6 +28255,21 @@
       <c r="LH9" s="3">
         <v>1841</v>
       </c>
+      <c r="LI9" s="3">
+        <v>1989</v>
+      </c>
+      <c r="LJ9" s="3">
+        <v>1908</v>
+      </c>
+      <c r="LK9" s="3">
+        <v>1963</v>
+      </c>
+      <c r="LL9" s="3">
+        <v>1830</v>
+      </c>
+      <c r="LM9" s="3">
+        <v>1818</v>
+      </c>
     </row>
     <row r="10" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -29015,6 +29232,21 @@
       <c r="LH10" s="3">
         <v>7095</v>
       </c>
+      <c r="LI10" s="3">
+        <v>7189</v>
+      </c>
+      <c r="LJ10" s="3">
+        <v>7304</v>
+      </c>
+      <c r="LK10" s="3">
+        <v>7368</v>
+      </c>
+      <c r="LL10" s="3">
+        <v>7445</v>
+      </c>
+      <c r="LM10" s="3">
+        <v>7770</v>
+      </c>
     </row>
     <row r="11" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -29977,6 +30209,21 @@
       <c r="LH11" s="3">
         <v>1050</v>
       </c>
+      <c r="LI11" s="3">
+        <v>1117</v>
+      </c>
+      <c r="LJ11" s="3">
+        <v>1176</v>
+      </c>
+      <c r="LK11" s="3">
+        <v>1192</v>
+      </c>
+      <c r="LL11" s="3">
+        <v>1279</v>
+      </c>
+      <c r="LM11" s="3">
+        <v>1358</v>
+      </c>
     </row>
     <row r="12" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -30939,6 +31186,21 @@
       <c r="LH12" s="3">
         <v>6995</v>
       </c>
+      <c r="LI12" s="3">
+        <v>7065</v>
+      </c>
+      <c r="LJ12" s="3">
+        <v>7385</v>
+      </c>
+      <c r="LK12" s="3">
+        <v>7559</v>
+      </c>
+      <c r="LL12" s="3">
+        <v>7247</v>
+      </c>
+      <c r="LM12" s="3">
+        <v>7499</v>
+      </c>
     </row>
     <row r="13" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -31901,6 +32163,21 @@
       <c r="LH13" s="3">
         <v>17875</v>
       </c>
+      <c r="LI13" s="3">
+        <v>18580</v>
+      </c>
+      <c r="LJ13" s="3">
+        <v>19129</v>
+      </c>
+      <c r="LK13" s="3">
+        <v>19605</v>
+      </c>
+      <c r="LL13" s="3">
+        <v>19953</v>
+      </c>
+      <c r="LM13" s="3">
+        <v>20345</v>
+      </c>
     </row>
     <row r="14" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -32863,6 +33140,21 @@
       <c r="LH14" s="3">
         <v>3028</v>
       </c>
+      <c r="LI14" s="3">
+        <v>3025</v>
+      </c>
+      <c r="LJ14" s="3">
+        <v>3180</v>
+      </c>
+      <c r="LK14" s="3">
+        <v>3365</v>
+      </c>
+      <c r="LL14" s="3">
+        <v>3269</v>
+      </c>
+      <c r="LM14" s="3">
+        <v>3447</v>
+      </c>
     </row>
     <row r="15" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -33825,6 +34117,21 @@
       <c r="LH15" s="3">
         <v>582</v>
       </c>
+      <c r="LI15" s="3">
+        <v>642</v>
+      </c>
+      <c r="LJ15" s="3">
+        <v>639</v>
+      </c>
+      <c r="LK15" s="3">
+        <v>608</v>
+      </c>
+      <c r="LL15" s="3">
+        <v>548</v>
+      </c>
+      <c r="LM15" s="3">
+        <v>652</v>
+      </c>
     </row>
     <row r="16" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -34787,8 +35094,23 @@
       <c r="LH16" s="3">
         <v>5450</v>
       </c>
-    </row>
-    <row r="17" spans="1:320" x14ac:dyDescent="0.25">
+      <c r="LI16" s="3">
+        <v>5913</v>
+      </c>
+      <c r="LJ16" s="3">
+        <v>6466</v>
+      </c>
+      <c r="LK16" s="3">
+        <v>6355</v>
+      </c>
+      <c r="LL16" s="3">
+        <v>6309</v>
+      </c>
+      <c r="LM16" s="3">
+        <v>6813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:325" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -35749,8 +36071,23 @@
       <c r="LH17" s="3">
         <v>2601</v>
       </c>
-    </row>
-    <row r="18" spans="1:320" x14ac:dyDescent="0.25">
+      <c r="LI17" s="3">
+        <v>2527</v>
+      </c>
+      <c r="LJ17" s="3">
+        <v>2702</v>
+      </c>
+      <c r="LK17" s="3">
+        <v>2773</v>
+      </c>
+      <c r="LL17" s="3">
+        <v>2738</v>
+      </c>
+      <c r="LM17" s="3">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:325" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -36711,8 +37048,23 @@
       <c r="LH18" s="3">
         <v>1696</v>
       </c>
-    </row>
-    <row r="19" spans="1:320" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="LI18" s="3">
+        <v>1729</v>
+      </c>
+      <c r="LJ18" s="3">
+        <v>1740</v>
+      </c>
+      <c r="LK18" s="3">
+        <v>1750</v>
+      </c>
+      <c r="LL18" s="3">
+        <v>1696</v>
+      </c>
+      <c r="LM18" s="3">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="19" spans="1:325" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -37673,8 +38025,23 @@
       <c r="LH19" s="3">
         <v>4293</v>
       </c>
-    </row>
-    <row r="20" spans="1:320" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="LI19" s="3">
+        <v>4430</v>
+      </c>
+      <c r="LJ19" s="3">
+        <v>4473</v>
+      </c>
+      <c r="LK19" s="3">
+        <v>4368</v>
+      </c>
+      <c r="LL19" s="3">
+        <v>4491</v>
+      </c>
+      <c r="LM19" s="3">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:325" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -38634,6 +39001,21 @@
       </c>
       <c r="LH20" s="12">
         <v>83121</v>
+      </c>
+      <c r="LI20" s="12">
+        <v>86372</v>
+      </c>
+      <c r="LJ20" s="12">
+        <v>89207</v>
+      </c>
+      <c r="LK20" s="12">
+        <v>89907</v>
+      </c>
+      <c r="LL20" s="12">
+        <v>89940</v>
+      </c>
+      <c r="LM20" s="12">
+        <v>94252</v>
       </c>
     </row>
   </sheetData>
@@ -38649,7 +39031,7 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="KW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="LI4" sqref="LI4:LI20"/>
+      <selection pane="topRight" activeCell="LK29" sqref="LK29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38718,7 +39100,7 @@
   <sheetData>
     <row r="2" spans="1:332" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="3" spans="1:332" x14ac:dyDescent="0.25">
@@ -40677,11 +41059,21 @@
       <c r="LI4" s="16">
         <v>92.176908315146292</v>
       </c>
-      <c r="LJ4" s="16"/>
-      <c r="LK4" s="16"/>
-      <c r="LL4" s="16"/>
-      <c r="LM4" s="16"/>
-      <c r="LN4" s="16"/>
+      <c r="LJ4" s="16">
+        <v>99.798259413134346</v>
+      </c>
+      <c r="LK4" s="16">
+        <v>103.05940491842</v>
+      </c>
+      <c r="LL4" s="16">
+        <v>102.99634409373216</v>
+      </c>
+      <c r="LM4" s="16">
+        <v>101.90629269555657</v>
+      </c>
+      <c r="LN4" s="16">
+        <v>108.55470535550359</v>
+      </c>
       <c r="LO4" s="16"/>
       <c r="LP4" s="16"/>
       <c r="LQ4" s="16"/>
@@ -41653,11 +42045,21 @@
       <c r="LI5" s="16">
         <v>103.57540878723893</v>
       </c>
-      <c r="LJ5" s="16"/>
-      <c r="LK5" s="16"/>
-      <c r="LL5" s="16"/>
-      <c r="LM5" s="16"/>
-      <c r="LN5" s="16"/>
+      <c r="LJ5" s="16">
+        <v>107.73549214738551</v>
+      </c>
+      <c r="LK5" s="16">
+        <v>110.74507626324245</v>
+      </c>
+      <c r="LL5" s="16">
+        <v>110.73745706294915</v>
+      </c>
+      <c r="LM5" s="16">
+        <v>110.7907914650023</v>
+      </c>
+      <c r="LN5" s="16">
+        <v>114.49372280755036</v>
+      </c>
       <c r="LO5" s="16"/>
       <c r="LP5" s="16"/>
       <c r="LQ5" s="16"/>
@@ -42629,11 +43031,21 @@
       <c r="LI6" s="16">
         <v>93.119181924686558</v>
       </c>
-      <c r="LJ6" s="16"/>
-      <c r="LK6" s="16"/>
-      <c r="LL6" s="16"/>
-      <c r="LM6" s="16"/>
-      <c r="LN6" s="16"/>
+      <c r="LJ6" s="16">
+        <v>94.100244420820218</v>
+      </c>
+      <c r="LK6" s="16">
+        <v>98.26976002938828</v>
+      </c>
+      <c r="LL6" s="16">
+        <v>94.400013516861051</v>
+      </c>
+      <c r="LM6" s="16">
+        <v>97.206942325243475</v>
+      </c>
+      <c r="LN6" s="16">
+        <v>111.32334157516669</v>
+      </c>
       <c r="LO6" s="16"/>
       <c r="LP6" s="16"/>
       <c r="LQ6" s="16"/>
@@ -43605,11 +44017,21 @@
       <c r="LI7" s="16">
         <v>107.61757140370349</v>
       </c>
-      <c r="LJ7" s="16"/>
-      <c r="LK7" s="16"/>
-      <c r="LL7" s="16"/>
-      <c r="LM7" s="16"/>
-      <c r="LN7" s="16"/>
+      <c r="LJ7" s="16">
+        <v>111.46388843618664</v>
+      </c>
+      <c r="LK7" s="16">
+        <v>111.97937422404519</v>
+      </c>
+      <c r="LL7" s="16">
+        <v>113.76374810509408</v>
+      </c>
+      <c r="LM7" s="16">
+        <v>118.75999497203092</v>
+      </c>
+      <c r="LN7" s="16">
+        <v>128.43526668260708</v>
+      </c>
       <c r="LO7" s="16"/>
       <c r="LP7" s="16"/>
       <c r="LQ7" s="16"/>
@@ -44581,11 +45003,21 @@
       <c r="LI8" s="16">
         <v>96.593961849789039</v>
       </c>
-      <c r="LJ8" s="16"/>
-      <c r="LK8" s="16"/>
-      <c r="LL8" s="16"/>
-      <c r="LM8" s="16"/>
-      <c r="LN8" s="16"/>
+      <c r="LJ8" s="16">
+        <v>100.41074453686278</v>
+      </c>
+      <c r="LK8" s="16">
+        <v>102.75953388275431</v>
+      </c>
+      <c r="LL8" s="16">
+        <v>102.90633321687253</v>
+      </c>
+      <c r="LM8" s="16">
+        <v>105.69552056511871</v>
+      </c>
+      <c r="LN8" s="16">
+        <v>111.86109259808397</v>
+      </c>
       <c r="LO8" s="16"/>
       <c r="LP8" s="16"/>
       <c r="LQ8" s="16"/>
@@ -45557,11 +45989,21 @@
       <c r="LI9" s="16">
         <v>99.661497369337056</v>
       </c>
-      <c r="LJ9" s="16"/>
-      <c r="LK9" s="16"/>
-      <c r="LL9" s="16"/>
-      <c r="LM9" s="16"/>
-      <c r="LN9" s="16"/>
+      <c r="LJ9" s="16">
+        <v>107.67339395307519</v>
+      </c>
+      <c r="LK9" s="16">
+        <v>103.28850460656987</v>
+      </c>
+      <c r="LL9" s="16">
+        <v>106.26589860728336</v>
+      </c>
+      <c r="LM9" s="16">
+        <v>99.066018569194355</v>
+      </c>
+      <c r="LN9" s="16">
+        <v>98.416405332675055</v>
+      </c>
       <c r="LO9" s="16"/>
       <c r="LP9" s="16"/>
       <c r="LQ9" s="16"/>
@@ -46533,11 +46975,21 @@
       <c r="LI10" s="16">
         <v>112.83253393722725</v>
       </c>
-      <c r="LJ10" s="16"/>
-      <c r="LK10" s="16"/>
-      <c r="LL10" s="16"/>
-      <c r="LM10" s="16"/>
-      <c r="LN10" s="16"/>
+      <c r="LJ10" s="16">
+        <v>114.32742585972188</v>
+      </c>
+      <c r="LK10" s="16">
+        <v>116.15628299894404</v>
+      </c>
+      <c r="LL10" s="16">
+        <v>117.17408175468506</v>
+      </c>
+      <c r="LM10" s="16">
+        <v>118.39862088268596</v>
+      </c>
+      <c r="LN10" s="16">
+        <v>123.56713018918335</v>
+      </c>
       <c r="LO10" s="16"/>
       <c r="LP10" s="16"/>
       <c r="LQ10" s="16"/>
@@ -47509,11 +47961,21 @@
       <c r="LI11" s="16">
         <v>65.292903967196835</v>
       </c>
-      <c r="LJ11" s="16"/>
-      <c r="LK11" s="16"/>
-      <c r="LL11" s="16"/>
-      <c r="LM11" s="16"/>
-      <c r="LN11" s="16"/>
+      <c r="LJ11" s="16">
+        <v>69.459213077484648</v>
+      </c>
+      <c r="LK11" s="16">
+        <v>73.128052443260472</v>
+      </c>
+      <c r="LL11" s="16">
+        <v>74.122991932284421</v>
+      </c>
+      <c r="LM11" s="16">
+        <v>79.532975403852163</v>
+      </c>
+      <c r="LN11" s="16">
+        <v>84.445489130907916</v>
+      </c>
       <c r="LO11" s="16"/>
       <c r="LP11" s="16"/>
       <c r="LQ11" s="16"/>
@@ -48485,11 +48947,21 @@
       <c r="LI12" s="16">
         <v>87.507418427323429</v>
       </c>
-      <c r="LJ12" s="16"/>
-      <c r="LK12" s="16"/>
-      <c r="LL12" s="16"/>
-      <c r="LM12" s="16"/>
-      <c r="LN12" s="16"/>
+      <c r="LJ12" s="16">
+        <v>88.383118111370976</v>
+      </c>
+      <c r="LK12" s="16">
+        <v>92.386316667016942</v>
+      </c>
+      <c r="LL12" s="16">
+        <v>94.563055881649447</v>
+      </c>
+      <c r="LM12" s="16">
+        <v>90.659937289894629</v>
+      </c>
+      <c r="LN12" s="16">
+        <v>93.812456152465813</v>
+      </c>
       <c r="LO12" s="16"/>
       <c r="LP12" s="16"/>
       <c r="LQ12" s="16"/>
@@ -49461,11 +49933,21 @@
       <c r="LI13" s="16">
         <v>99.597592295765466</v>
       </c>
-      <c r="LJ13" s="16"/>
-      <c r="LK13" s="16"/>
-      <c r="LL13" s="16"/>
-      <c r="LM13" s="16"/>
-      <c r="LN13" s="16"/>
+      <c r="LJ13" s="16">
+        <v>103.5257770548432</v>
+      </c>
+      <c r="LK13" s="16">
+        <v>106.58474646297609</v>
+      </c>
+      <c r="LL13" s="16">
+        <v>109.23696766201296</v>
+      </c>
+      <c r="LM13" s="16">
+        <v>111.17598652181303</v>
+      </c>
+      <c r="LN13" s="16">
+        <v>113.36016868572578</v>
+      </c>
       <c r="LO13" s="16"/>
       <c r="LP13" s="16"/>
       <c r="LQ13" s="16"/>
@@ -50437,11 +50919,21 @@
       <c r="LI14" s="16">
         <v>73.963647892976454</v>
       </c>
-      <c r="LJ14" s="16"/>
-      <c r="LK14" s="16"/>
-      <c r="LL14" s="16"/>
-      <c r="LM14" s="16"/>
-      <c r="LN14" s="16"/>
+      <c r="LJ14" s="16">
+        <v>73.890368188987381</v>
+      </c>
+      <c r="LK14" s="16">
+        <v>77.676486228423101</v>
+      </c>
+      <c r="LL14" s="16">
+        <v>82.195401307749592</v>
+      </c>
+      <c r="LM14" s="16">
+        <v>79.850450780099095</v>
+      </c>
+      <c r="LN14" s="16">
+        <v>84.198379883451068</v>
+      </c>
       <c r="LO14" s="16"/>
       <c r="LP14" s="16"/>
       <c r="LQ14" s="16"/>
@@ -51413,11 +51905,21 @@
       <c r="LI15" s="16">
         <v>58.973317107227068</v>
       </c>
-      <c r="LJ15" s="16"/>
-      <c r="LK15" s="16"/>
-      <c r="LL15" s="16"/>
-      <c r="LM15" s="16"/>
-      <c r="LN15" s="16"/>
+      <c r="LJ15" s="16">
+        <v>65.053040520343259</v>
+      </c>
+      <c r="LK15" s="16">
+        <v>64.749054349687455</v>
+      </c>
+      <c r="LL15" s="16">
+        <v>61.607863919577419</v>
+      </c>
+      <c r="LM15" s="16">
+        <v>55.528140506461227</v>
+      </c>
+      <c r="LN15" s="16">
+        <v>66.066327755862631</v>
+      </c>
       <c r="LO15" s="16"/>
       <c r="LP15" s="16"/>
       <c r="LQ15" s="16"/>
@@ -52389,11 +52891,21 @@
       <c r="LI16" s="16">
         <v>133.84181763573463</v>
       </c>
-      <c r="LJ16" s="16"/>
-      <c r="LK16" s="16"/>
-      <c r="LL16" s="16"/>
-      <c r="LM16" s="16"/>
-      <c r="LN16" s="16"/>
+      <c r="LJ16" s="16">
+        <v>145.212232601853</v>
+      </c>
+      <c r="LK16" s="16">
+        <v>158.79287941883672</v>
+      </c>
+      <c r="LL16" s="16">
+        <v>156.06692680276947</v>
+      </c>
+      <c r="LM16" s="16">
+        <v>154.93725274566052</v>
+      </c>
+      <c r="LN16" s="16">
+        <v>167.31455111050644</v>
+      </c>
       <c r="LO16" s="16"/>
       <c r="LP16" s="16"/>
       <c r="LQ16" s="16"/>
@@ -53365,11 +53877,21 @@
       <c r="LI17" s="16">
         <v>118.50835299360028</v>
       </c>
-      <c r="LJ17" s="16"/>
-      <c r="LK17" s="16"/>
-      <c r="LL17" s="16"/>
-      <c r="LM17" s="16"/>
-      <c r="LN17" s="16"/>
+      <c r="LJ17" s="16">
+        <v>115.13671972888423</v>
+      </c>
+      <c r="LK17" s="16">
+        <v>123.11017677382081</v>
+      </c>
+      <c r="LL17" s="16">
+        <v>126.3451222034808</v>
+      </c>
+      <c r="LM17" s="16">
+        <v>124.7504307944935</v>
+      </c>
+      <c r="LN17" s="16">
+        <v>134.63751753021484</v>
+      </c>
       <c r="LO17" s="16"/>
       <c r="LP17" s="16"/>
       <c r="LQ17" s="16"/>
@@ -54341,11 +54863,21 @@
       <c r="LI18" s="16">
         <v>58.406769399674147</v>
       </c>
-      <c r="LJ18" s="16"/>
-      <c r="LK18" s="16"/>
-      <c r="LL18" s="16"/>
-      <c r="LM18" s="16"/>
-      <c r="LN18" s="16"/>
+      <c r="LJ18" s="16">
+        <v>59.543221870304606</v>
+      </c>
+      <c r="LK18" s="16">
+        <v>59.922039360514752</v>
+      </c>
+      <c r="LL18" s="16">
+        <v>60.266418897069435</v>
+      </c>
+      <c r="LM18" s="16">
+        <v>58.406769399674147</v>
+      </c>
+      <c r="LN18" s="16">
+        <v>59.78428754589288</v>
+      </c>
       <c r="LO18" s="16"/>
       <c r="LP18" s="16"/>
       <c r="LQ18" s="16"/>
@@ -55317,11 +55849,21 @@
       <c r="LI19" s="16">
         <v>201.23016174348851</v>
       </c>
-      <c r="LJ19" s="16"/>
-      <c r="LK19" s="16"/>
-      <c r="LL19" s="16"/>
-      <c r="LM19" s="16"/>
-      <c r="LN19" s="16"/>
+      <c r="LJ19" s="16">
+        <v>207.65190228829584</v>
+      </c>
+      <c r="LK19" s="16">
+        <v>209.66748508703097</v>
+      </c>
+      <c r="LL19" s="16">
+        <v>204.7457131366312</v>
+      </c>
+      <c r="LM19" s="16">
+        <v>210.51121742138523</v>
+      </c>
+      <c r="LN19" s="16">
+        <v>220.12039122930861</v>
+      </c>
       <c r="LO19" s="16"/>
       <c r="LP19" s="16"/>
       <c r="LQ19" s="16"/>
@@ -56293,11 +56835,21 @@
       <c r="LI20" s="17">
         <v>99.945036903046457</v>
       </c>
-      <c r="LJ20" s="17"/>
-      <c r="LK20" s="17"/>
-      <c r="LL20" s="17"/>
-      <c r="LM20" s="17"/>
-      <c r="LN20" s="17"/>
+      <c r="LJ20" s="17">
+        <v>103.8540528553546</v>
+      </c>
+      <c r="LK20" s="17">
+        <v>107.26286867350086</v>
+      </c>
+      <c r="LL20" s="17">
+        <v>108.10455159156167</v>
+      </c>
+      <c r="LM20" s="17">
+        <v>108.1442309291274</v>
+      </c>
+      <c r="LN20" s="17">
+        <v>113.32899770438198</v>
+      </c>
       <c r="LO20" s="17"/>
       <c r="LP20" s="17"/>
       <c r="LQ20" s="17"/>

--- a/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
+++ b/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1B3FD2-57F3-4510-AC98-46DE80B791FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D234ADA-99E7-44D3-BFB3-6E8E5B988F66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="165" windowWidth="15285" windowHeight="10800" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1040">
   <si>
     <t>Todesfälle</t>
   </si>
@@ -3156,10 +3156,13 @@
     <t>21.03.2021</t>
   </si>
   <si>
-    <t>Stand: 25.03.2021 06:17:13</t>
-  </si>
-  <si>
     <t>25.03.2021</t>
+  </si>
+  <si>
+    <t>Stand: 26.03.2021 06:21:55</t>
+  </si>
+  <si>
+    <t>26.03.2021</t>
   </si>
 </sst>
 </file>
@@ -3374,6 +3377,18 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet001" fillFormulas="1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" name="Bundesland"/>
+      <queryTableField id="2" name="Fälle in den letzten 7 Tagen"/>
+      <queryTableField id="3" name="7-Tage-Inzidenz"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet003" fillFormulas="1" connectionId="3" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
@@ -3383,7 +3398,7 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet002" fillFormulas="1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
     <queryTableFields count="5">
@@ -3392,18 +3407,6 @@
       <queryTableField id="3"/>
       <queryTableField id="4"/>
       <queryTableField id="5" name="Todesfälle"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet001" fillFormulas="1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="4">
-    <queryTableFields count="3">
-      <queryTableField id="1" name="Bundesland"/>
-      <queryTableField id="2" name="Fälle in den letzten 7 Tagen"/>
-      <queryTableField id="3" name="7-Tage-Inzidenz"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3747,7 +3750,7 @@
   <dimension ref="A2:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3763,7 +3766,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3782,10 +3785,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>12050</v>
+        <v>12793</v>
       </c>
       <c r="C6" s="29">
-        <v>108.55470535550359</v>
+        <v>115.24816146165622</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3793,10 +3796,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>15027</v>
+        <v>16021</v>
       </c>
       <c r="C7" s="29">
-        <v>114.49372280755036</v>
+        <v>122.06720789909923</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3804,10 +3807,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>4085</v>
+        <v>4323</v>
       </c>
       <c r="C8" s="29">
-        <v>111.32334157516669</v>
+        <v>117.80925474405032</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3815,10 +3818,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>3239</v>
+        <v>3273</v>
       </c>
       <c r="C9" s="29">
-        <v>128.43526668260708</v>
+        <v>129.78346028162179</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3826,10 +3829,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>762</v>
+        <v>794</v>
       </c>
       <c r="C10" s="29">
-        <v>111.86109259808397</v>
+        <v>116.55867128986704</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3837,10 +3840,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>1818</v>
+        <v>2002</v>
       </c>
       <c r="C11" s="29">
-        <v>98.416405332675055</v>
+        <v>108.37714162597111</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3848,10 +3851,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>7770</v>
+        <v>8155</v>
       </c>
       <c r="C12" s="29">
-        <v>123.56713018918335</v>
+        <v>129.68982582918792</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3859,10 +3862,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1358</v>
+        <v>1533</v>
       </c>
       <c r="C13" s="29">
-        <v>84.445489130907916</v>
+        <v>95.327639792107391</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3870,10 +3873,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>7499</v>
+        <v>7840</v>
       </c>
       <c r="C14" s="29">
-        <v>93.812456152465813</v>
+        <v>98.078364613326045</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3881,10 +3884,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>20345</v>
+        <v>21515</v>
       </c>
       <c r="C15" s="29">
-        <v>113.36016868572578</v>
+        <v>119.87928381781224</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3892,10 +3895,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>3447</v>
+        <v>3836</v>
       </c>
       <c r="C16" s="29">
-        <v>84.198379883451068</v>
+        <v>93.700314834034913</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3903,10 +3906,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>652</v>
+        <v>603</v>
       </c>
       <c r="C17" s="29">
-        <v>66.066327755862631</v>
+        <v>61.101220301817733</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3914,10 +3917,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>6813</v>
+        <v>6887</v>
       </c>
       <c r="C18" s="29">
-        <v>167.31455111050644</v>
+        <v>169.13185285455128</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3925,10 +3928,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>2955</v>
+        <v>2959</v>
       </c>
       <c r="C19" s="29">
-        <v>134.63751753021484</v>
+        <v>134.81976797695626</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3936,10 +3939,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>1736</v>
+        <v>1813</v>
       </c>
       <c r="C20" s="29">
-        <v>59.78428754589288</v>
+        <v>62.436009977363938</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3947,10 +3950,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>4696</v>
+        <v>4725</v>
       </c>
       <c r="C21" s="29">
-        <v>220.12039122930861</v>
+        <v>221.47973776799049</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3959,11 +3962,11 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B6:B21)</f>
-        <v>94252</v>
+        <v>99072</v>
       </c>
       <c r="C22" s="30">
         <f>B22/A36*100000</f>
-        <v>113.32899770438198</v>
+        <v>119.12458579731498</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3985,10 +3988,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B31">
-        <v>2713180</v>
+        <v>2734753</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -3997,7 +4000,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>75440</v>
+        <v>75623</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -4034,7 +4037,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4059,10 +4062,10 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="D6" s="29">
-        <v>98.918183352300005</v>
+        <v>101.9701055247</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4073,10 +4076,10 @@
         <v>120</v>
       </c>
       <c r="C7">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D7" s="29">
-        <v>67.647556231999999</v>
+        <v>79.178389680699993</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4087,10 +4090,10 @@
         <v>122</v>
       </c>
       <c r="C8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D8" s="29">
-        <v>91.344547176099994</v>
+        <v>94.315101555799998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4101,10 +4104,10 @@
         <v>124</v>
       </c>
       <c r="C9">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D9" s="29">
-        <v>89.813067040099995</v>
+        <v>98.946599281499999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4115,10 +4118,10 @@
         <v>126</v>
       </c>
       <c r="C10">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D10" s="29">
-        <v>213.66326222410001</v>
+        <v>201.35804816929999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4129,10 +4132,10 @@
         <v>128</v>
       </c>
       <c r="C11">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="D11" s="29">
-        <v>174.6826598346</v>
+        <v>214.27739606380001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4143,10 +4146,10 @@
         <v>130</v>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="29">
-        <v>49.294843278499997</v>
+        <v>50.497156529199998</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4157,10 +4160,10 @@
         <v>132</v>
       </c>
       <c r="C13">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D13" s="29">
-        <v>120.1621292012</v>
+        <v>123.7490584311</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4171,10 +4174,10 @@
         <v>134</v>
       </c>
       <c r="C14">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="D14" s="29">
-        <v>104.8678741894</v>
+        <v>132.6270173572</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4185,10 +4188,10 @@
         <v>136</v>
       </c>
       <c r="C15">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D15" s="29">
-        <v>184.80346861890001</v>
+        <v>165.8492667093</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4199,10 +4202,10 @@
         <v>138</v>
       </c>
       <c r="C16">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D16" s="29">
-        <v>222.22437869359999</v>
+        <v>210.57943308520001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4213,10 +4216,10 @@
         <v>140</v>
       </c>
       <c r="C17">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D17" s="29">
-        <v>98.511120543999994</v>
+        <v>92.904796610600002</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4227,10 +4230,10 @@
         <v>142</v>
       </c>
       <c r="C18">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18" s="29">
-        <v>73.823555392900005</v>
+        <v>74.454525951799994</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4241,10 +4244,10 @@
         <v>144</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19" s="29">
-        <v>35.886884539900002</v>
+        <v>38.279343509299999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4255,10 +4258,10 @@
         <v>146</v>
       </c>
       <c r="C20">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="D20" s="29">
-        <v>105.6389531451</v>
+        <v>141.39367574799999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4269,10 +4272,10 @@
         <v>148</v>
       </c>
       <c r="C21">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D21" s="29">
-        <v>63.378496380400001</v>
+        <v>56.336441227000002</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4283,10 +4286,10 @@
         <v>150</v>
       </c>
       <c r="C22">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D22" s="29">
-        <v>95.866819747400001</v>
+        <v>97.588978186000006</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4297,10 +4300,10 @@
         <v>152</v>
       </c>
       <c r="C23">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D23" s="29">
-        <v>126.4405796711</v>
+        <v>127.7892791875</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4311,10 +4314,10 @@
         <v>154</v>
       </c>
       <c r="C24">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="D24" s="29">
-        <v>91.135764672500002</v>
+        <v>97.053671469400001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4325,10 +4328,10 @@
         <v>156</v>
       </c>
       <c r="C25">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="D25" s="29">
-        <v>48.499161807999997</v>
+        <v>66.949929887099998</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4339,10 +4342,10 @@
         <v>158</v>
       </c>
       <c r="C26">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D26" s="29">
-        <v>66.329491750299994</v>
+        <v>79.143143565700001</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4353,10 +4356,10 @@
         <v>160</v>
       </c>
       <c r="C27">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D27" s="29">
-        <v>95.897709110299999</v>
+        <v>100.7410277522</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4367,10 +4370,10 @@
         <v>162</v>
       </c>
       <c r="C28">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D28" s="29">
-        <v>73.257759954500003</v>
+        <v>82.099213742100005</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4381,10 +4384,10 @@
         <v>164</v>
       </c>
       <c r="C29">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D29" s="29">
-        <v>67.231095163299997</v>
+        <v>78.1756920503</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4395,10 +4398,10 @@
         <v>166</v>
       </c>
       <c r="C30">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D30" s="29">
-        <v>128.6581498596</v>
+        <v>143.1548428015</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4409,10 +4412,10 @@
         <v>168</v>
       </c>
       <c r="C31">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D31" s="29">
-        <v>76.253990410100002</v>
+        <v>99.517919687700001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4423,10 +4426,10 @@
         <v>170</v>
       </c>
       <c r="C32">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D32" s="29">
-        <v>58.438602094300002</v>
+        <v>69.310900158300001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4437,10 +4440,10 @@
         <v>172</v>
       </c>
       <c r="C33">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D33" s="29">
-        <v>110.1250242923</v>
+        <v>100.9479389346</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4451,10 +4454,10 @@
         <v>174</v>
       </c>
       <c r="C34">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D34" s="29">
-        <v>123.4329025414</v>
+        <v>125.7681196165</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4465,10 +4468,10 @@
         <v>176</v>
       </c>
       <c r="C35">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="D35" s="29">
-        <v>157.78987202970001</v>
+        <v>185.8711204418</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4479,10 +4482,10 @@
         <v>178</v>
       </c>
       <c r="C36">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D36" s="29">
-        <v>133.12239543140001</v>
+        <v>150.4861861398</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4493,10 +4496,10 @@
         <v>180</v>
       </c>
       <c r="C37">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D37" s="29">
-        <v>103.84314021660001</v>
+        <v>84.962569268099998</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4507,10 +4510,10 @@
         <v>182</v>
       </c>
       <c r="C38">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D38" s="29">
-        <v>103.57327809429999</v>
+        <v>98.024709624899998</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4521,10 +4524,10 @@
         <v>184</v>
       </c>
       <c r="C39">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D39" s="29">
-        <v>89.7126503808</v>
+        <v>104.6647587776</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4535,10 +4538,10 @@
         <v>186</v>
       </c>
       <c r="C40">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="D40" s="29">
-        <v>85.088580757900004</v>
+        <v>98.560939377899999</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4549,10 +4552,10 @@
         <v>188</v>
       </c>
       <c r="C41">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="D41" s="29">
-        <v>119.0135486978</v>
+        <v>113.4293352692</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4563,10 +4566,10 @@
         <v>190</v>
       </c>
       <c r="C42">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="D42" s="29">
-        <v>127.39241045449999</v>
+        <v>144.88509965130001</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4577,10 +4580,10 @@
         <v>192</v>
       </c>
       <c r="C43">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="D43" s="29">
-        <v>153.76907456070001</v>
+        <v>148.4391239693</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4591,10 +4594,10 @@
         <v>194</v>
       </c>
       <c r="C44">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="D44" s="29">
-        <v>132.3480410933</v>
+        <v>151.6552847351</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4605,10 +4608,10 @@
         <v>196</v>
       </c>
       <c r="C45">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="D45" s="29">
-        <v>104.7643931705</v>
+        <v>108.0304294084</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4619,10 +4622,10 @@
         <v>198</v>
       </c>
       <c r="C46">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="D46" s="29">
-        <v>113.98249444530001</v>
+        <v>100.1197586344</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4633,10 +4636,10 @@
         <v>200</v>
       </c>
       <c r="C47">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="D47" s="29">
-        <v>114.6352382028</v>
+        <v>122.1660202745</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4647,10 +4650,10 @@
         <v>202</v>
       </c>
       <c r="C48">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="D48" s="29">
-        <v>84.718558990299996</v>
+        <v>100.6032888009</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4661,10 +4664,10 @@
         <v>204</v>
       </c>
       <c r="C49">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="D49" s="29">
-        <v>99.188932972900005</v>
+        <v>104.1630092576</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4675,10 +4678,10 @@
         <v>206</v>
       </c>
       <c r="C50">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="D50" s="29">
-        <v>106.9466542584</v>
+        <v>113.70117979050001</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4689,10 +4692,10 @@
         <v>208</v>
       </c>
       <c r="C51">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D51" s="29">
-        <v>28.4487433657</v>
+        <v>27.559720135500001</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4703,10 +4706,10 @@
         <v>210</v>
       </c>
       <c r="C52">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="D52" s="29">
-        <v>114.7643604495</v>
+        <v>132.1528999116</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -4717,10 +4720,10 @@
         <v>212</v>
       </c>
       <c r="C53">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="D53" s="29">
-        <v>80.491928365199996</v>
+        <v>88.571043851599995</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4731,10 +4734,10 @@
         <v>214</v>
       </c>
       <c r="C54">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D54" s="29">
-        <v>81.530802584300005</v>
+        <v>82.766117774999998</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4745,10 +4748,10 @@
         <v>216</v>
       </c>
       <c r="C55">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D55" s="29">
-        <v>69.656161037000004</v>
+        <v>82.779785580199999</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4759,10 +4762,10 @@
         <v>218</v>
       </c>
       <c r="C56">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D56" s="29">
-        <v>61.862441351599998</v>
+        <v>60.844129559800002</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4773,10 +4776,10 @@
         <v>220</v>
       </c>
       <c r="C57">
-        <v>395</v>
+        <v>457</v>
       </c>
       <c r="D57" s="29">
-        <v>108.04541736989999</v>
+        <v>125.0044449064</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4787,10 +4790,10 @@
         <v>222</v>
       </c>
       <c r="C58">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="D58" s="29">
-        <v>84.149537867299998</v>
+        <v>91.5068745114</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4801,10 +4804,10 @@
         <v>224</v>
       </c>
       <c r="C59">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="D59" s="29">
-        <v>85.235976255300002</v>
+        <v>95.245895174899999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4815,10 +4818,10 @@
         <v>226</v>
       </c>
       <c r="C60">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D60" s="29">
-        <v>101.80022583269999</v>
+        <v>90.0990504496</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4829,10 +4832,10 @@
         <v>228</v>
       </c>
       <c r="C61">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="D61" s="29">
-        <v>134.91715117449999</v>
+        <v>141.38024823680001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4843,10 +4846,10 @@
         <v>230</v>
       </c>
       <c r="C62">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D62" s="29">
-        <v>106.3241611024</v>
+        <v>98.668821503000004</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4857,10 +4860,10 @@
         <v>232</v>
       </c>
       <c r="C63">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D63" s="29">
-        <v>95.589050205000007</v>
+        <v>91.433004543899997</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4871,10 +4874,10 @@
         <v>234</v>
       </c>
       <c r="C64">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D64" s="29">
-        <v>108.2572191527</v>
+        <v>105.45055050800001</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4885,10 +4888,10 @@
         <v>236</v>
       </c>
       <c r="C65">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="D65" s="29">
-        <v>55.007378576000001</v>
+        <v>73.975440153899996</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4899,10 +4902,10 @@
         <v>238</v>
       </c>
       <c r="C66">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="D66" s="29">
-        <v>102.8967913468</v>
+        <v>105.0111089772</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4913,10 +4916,10 @@
         <v>240</v>
       </c>
       <c r="C67">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="D67" s="29">
-        <v>156.63085275820001</v>
+        <v>174.22982497820001</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4927,10 +4930,10 @@
         <v>242</v>
       </c>
       <c r="C68">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="D68" s="29">
-        <v>194.5808125426</v>
+        <v>214.70986211600001</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4941,10 +4944,10 @@
         <v>244</v>
       </c>
       <c r="C69">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D69" s="29">
-        <v>79.7733682577</v>
+        <v>82.914052047400006</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4955,10 +4958,10 @@
         <v>246</v>
       </c>
       <c r="C70">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="D70" s="29">
-        <v>141.89072179920001</v>
+        <v>118.4284764623</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4969,10 +4972,10 @@
         <v>248</v>
       </c>
       <c r="C71">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="D71" s="29">
-        <v>289.84827887940003</v>
+        <v>296.87963874439998</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4983,10 +4986,10 @@
         <v>250</v>
       </c>
       <c r="C72">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="D72" s="29">
-        <v>215.56098630310001</v>
+        <v>222.05623259480001</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4997,10 +5000,10 @@
         <v>252</v>
       </c>
       <c r="C73">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="D73" s="29">
-        <v>224.97978697229999</v>
+        <v>206.23147139119999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -5011,10 +5014,10 @@
         <v>254</v>
       </c>
       <c r="C74">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D74" s="29">
-        <v>63.303467082200001</v>
+        <v>60.8687183483</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -5025,10 +5028,10 @@
         <v>256</v>
       </c>
       <c r="C75">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D75" s="29">
-        <v>54.180548030499999</v>
+        <v>69.166657060199995</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -5039,10 +5042,10 @@
         <v>258</v>
       </c>
       <c r="C76">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D76" s="29">
-        <v>34.215885946999997</v>
+        <v>39.103869653799997</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -5053,10 +5056,10 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D77" s="29">
-        <v>55.3072271132</v>
+        <v>47.6004823516</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -5067,10 +5070,10 @@
         <v>262</v>
       </c>
       <c r="C78">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D78" s="29">
-        <v>168.54270751819999</v>
+        <v>161.5200947049</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -5081,10 +5084,10 @@
         <v>264</v>
       </c>
       <c r="C79">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="D79" s="29">
-        <v>72.713317646099995</v>
+        <v>92.911461436699994</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -5095,10 +5098,10 @@
         <v>266</v>
       </c>
       <c r="C80">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D80" s="29">
-        <v>174.30712916159999</v>
+        <v>179.47178484040001</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -5109,10 +5112,10 @@
         <v>268</v>
       </c>
       <c r="C81">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D81" s="29">
-        <v>96.609306110999995</v>
+        <v>94.267262326500003</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -5123,10 +5126,10 @@
         <v>270</v>
       </c>
       <c r="C82">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D82" s="29">
-        <v>76.308184991100006</v>
+        <v>80.061046547999993</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -5137,10 +5140,10 @@
         <v>272</v>
       </c>
       <c r="C83">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="D83" s="29">
-        <v>115.49670297199999</v>
+        <v>119.8614039564</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -5151,10 +5154,10 @@
         <v>274</v>
       </c>
       <c r="C84">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D84" s="29">
-        <v>164.88391168250001</v>
+        <v>171.57970505029999</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -5165,10 +5168,10 @@
         <v>276</v>
       </c>
       <c r="C85">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D85" s="29">
-        <v>104.43662244230001</v>
+        <v>90.253871246399996</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -5179,10 +5182,10 @@
         <v>278</v>
       </c>
       <c r="C86">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D86" s="29">
-        <v>107.3617717189</v>
+        <v>111.1069498021</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -5193,10 +5196,10 @@
         <v>280</v>
       </c>
       <c r="C87">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D87" s="29">
-        <v>51.5917434785</v>
+        <v>59.4226331136</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -5207,10 +5210,10 @@
         <v>282</v>
       </c>
       <c r="C88">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D88" s="29">
-        <v>52.815807460499997</v>
+        <v>67.3142644104</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -5221,10 +5224,10 @@
         <v>284</v>
       </c>
       <c r="C89">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D89" s="29">
-        <v>123.082651552</v>
+        <v>130.32280752560001</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -5235,10 +5238,10 @@
         <v>286</v>
       </c>
       <c r="C90">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D90" s="29">
-        <v>52.555314468500001</v>
+        <v>44.296622194900003</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -5249,10 +5252,10 @@
         <v>288</v>
       </c>
       <c r="C91">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D91" s="29">
-        <v>189.11221904129999</v>
+        <v>193.5970938012</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -5263,10 +5266,10 @@
         <v>290</v>
       </c>
       <c r="C92">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D92" s="29">
-        <v>74.344507135699999</v>
+        <v>71.689346166600004</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5277,10 +5280,10 @@
         <v>292</v>
       </c>
       <c r="C93">
-        <v>627</v>
+        <v>689</v>
       </c>
       <c r="D93" s="29">
-        <v>106.5873353166</v>
+        <v>117.1270718232</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -5291,10 +5294,10 @@
         <v>294</v>
       </c>
       <c r="C94">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="D94" s="29">
-        <v>105.9664499443</v>
+        <v>107.9420956213</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -5305,10 +5308,10 @@
         <v>296</v>
       </c>
       <c r="C95">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="D95" s="29">
-        <v>149.9941847174</v>
+        <v>151.59840059679999</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -5333,10 +5336,10 @@
         <v>300</v>
       </c>
       <c r="C97">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="D97" s="29">
-        <v>82.492197009999998</v>
+        <v>91.6579966778</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -5347,10 +5350,10 @@
         <v>302</v>
       </c>
       <c r="C98">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D98" s="29">
-        <v>80.752389504999996</v>
+        <v>79.360106927299995</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -5361,10 +5364,10 @@
         <v>304</v>
       </c>
       <c r="C99">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="D99" s="29">
-        <v>196.98818070920001</v>
+        <v>208.98746075240001</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -5375,10 +5378,10 @@
         <v>306</v>
       </c>
       <c r="C100">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="D100" s="29">
-        <v>118.1508266795</v>
+        <v>146.74784205419999</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5389,10 +5392,10 @@
         <v>308</v>
       </c>
       <c r="C101">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D101" s="29">
-        <v>279.28994082840001</v>
+        <v>262.72189349109999</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -5403,10 +5406,10 @@
         <v>310</v>
       </c>
       <c r="C102">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D102" s="29">
-        <v>257.2991446277</v>
+        <v>256.31708682369998</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5417,10 +5420,10 @@
         <v>312</v>
       </c>
       <c r="C103">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D103" s="29">
-        <v>56.097609841100002</v>
+        <v>78.135956564400004</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -5431,10 +5434,10 @@
         <v>314</v>
       </c>
       <c r="C104">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D104" s="29">
-        <v>82.9287053507</v>
+        <v>87.135233882999998</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -5445,10 +5448,10 @@
         <v>316</v>
       </c>
       <c r="C105">
-        <v>549</v>
+        <v>579</v>
       </c>
       <c r="D105" s="29">
-        <v>167.91352912030001</v>
+        <v>177.0891318045</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5459,10 +5462,10 @@
         <v>318</v>
       </c>
       <c r="C106">
-        <v>257</v>
+        <v>370</v>
       </c>
       <c r="D106" s="29">
-        <v>79.295045448099998</v>
+        <v>114.16018216259999</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -5473,10 +5476,10 @@
         <v>320</v>
       </c>
       <c r="C107">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D107" s="29">
-        <v>80.679107618900005</v>
+        <v>83.685782437</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5487,10 +5490,10 @@
         <v>322</v>
       </c>
       <c r="C108">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D108" s="29">
-        <v>82.499891447500005</v>
+        <v>89.013040772300002</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5501,10 +5504,10 @@
         <v>324</v>
       </c>
       <c r="C109">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D109" s="29">
-        <v>121.5061150289</v>
+        <v>123.37543987550001</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -5515,10 +5518,10 @@
         <v>326</v>
       </c>
       <c r="C110">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="D110" s="29">
-        <v>57.763401109100002</v>
+        <v>83.534764680799995</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -5529,10 +5532,10 @@
         <v>328</v>
       </c>
       <c r="C111">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="D111" s="29">
-        <v>101.2661916627</v>
+        <v>132.59314304029999</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5543,10 +5546,10 @@
         <v>330</v>
       </c>
       <c r="C112">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="D112" s="29">
-        <v>221.22836977680001</v>
+        <v>223.019692609</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5557,10 +5560,10 @@
         <v>332</v>
       </c>
       <c r="C113">
-        <v>597</v>
+        <v>695</v>
       </c>
       <c r="D113" s="29">
-        <v>102.44354451229999</v>
+        <v>119.26007275720001</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5571,10 +5574,10 @@
         <v>334</v>
       </c>
       <c r="C114">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="D114" s="29">
-        <v>120.3684320703</v>
+        <v>125.6018421604</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5585,10 +5588,10 @@
         <v>336</v>
       </c>
       <c r="C115">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="D115" s="29">
-        <v>78.489693063999994</v>
+        <v>132.70954682530001</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -5599,10 +5602,10 @@
         <v>338</v>
       </c>
       <c r="C116">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D116" s="29">
-        <v>97.599929018200001</v>
+        <v>100.9271993257</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -5613,10 +5616,10 @@
         <v>340</v>
       </c>
       <c r="C117">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D117" s="29">
-        <v>100.6858686953</v>
+        <v>86.9168610105</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -5627,10 +5630,10 @@
         <v>342</v>
       </c>
       <c r="C118">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D118" s="29">
-        <v>112.79274845170001</v>
+        <v>108.69119396249999</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -5641,10 +5644,10 @@
         <v>344</v>
       </c>
       <c r="C119">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D119" s="29">
-        <v>121.2100223373</v>
+        <v>140.25731156169999</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -5655,10 +5658,10 @@
         <v>346</v>
       </c>
       <c r="C120">
-        <v>875</v>
+        <v>971</v>
       </c>
       <c r="D120" s="29">
-        <v>114.6218135136</v>
+        <v>127.19746391050001</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -5669,10 +5672,10 @@
         <v>348</v>
       </c>
       <c r="C121">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="D121" s="29">
-        <v>51.039166071899999</v>
+        <v>77.423819719299999</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -5683,10 +5686,10 @@
         <v>350</v>
       </c>
       <c r="C122">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D122" s="29">
-        <v>113.3289260973</v>
+        <v>121.1064014177</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -5697,10 +5700,10 @@
         <v>352</v>
       </c>
       <c r="C123">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D123" s="29">
-        <v>84.571602547300003</v>
+        <v>92.183046776599994</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -5711,10 +5714,10 @@
         <v>354</v>
       </c>
       <c r="C124">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D124" s="29">
-        <v>128.88900232259999</v>
+        <v>119.95610117149999</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -5725,10 +5728,10 @@
         <v>356</v>
       </c>
       <c r="C125">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D125" s="29">
-        <v>52.682768682099997</v>
+        <v>51.669638515199999</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -5739,10 +5742,10 @@
         <v>358</v>
       </c>
       <c r="C126">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D126" s="29">
-        <v>176.11866723430001</v>
+        <v>178.8075018486</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -5753,10 +5756,10 @@
         <v>360</v>
       </c>
       <c r="C127">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D127" s="29">
-        <v>82.987173466000002</v>
+        <v>87.090934791199999</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -5781,10 +5784,10 @@
         <v>364</v>
       </c>
       <c r="C129">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D129" s="29">
-        <v>96.730672956999996</v>
+        <v>104.3673050325</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -5795,10 +5798,10 @@
         <v>366</v>
       </c>
       <c r="C130">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D130" s="29">
-        <v>89.342260019899996</v>
+        <v>122.13878585</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -5809,10 +5812,10 @@
         <v>368</v>
       </c>
       <c r="C131">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D131" s="29">
-        <v>138.26570894880001</v>
+        <v>139.80627395100001</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -5823,10 +5826,10 @@
         <v>370</v>
       </c>
       <c r="C132">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D132" s="29">
-        <v>368.32214765100002</v>
+        <v>366.17449664430001</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -5837,10 +5840,10 @@
         <v>372</v>
       </c>
       <c r="C133">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="D133" s="29">
-        <v>121.6931627045</v>
+        <v>140.29593916889999</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -5851,10 +5854,10 @@
         <v>374</v>
       </c>
       <c r="C134">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D134" s="29">
-        <v>129.3001536825</v>
+        <v>132.99444378769999</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5865,10 +5868,10 @@
         <v>376</v>
       </c>
       <c r="C135">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="D135" s="29">
-        <v>87.807254578699997</v>
+        <v>103.1027118279</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5879,10 +5882,10 @@
         <v>378</v>
       </c>
       <c r="C136">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="D136" s="29">
-        <v>120.8623060683</v>
+        <v>111.9525847876</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5893,10 +5896,10 @@
         <v>380</v>
       </c>
       <c r="C137">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="D137" s="29">
-        <v>159.46186566430001</v>
+        <v>165.79285784940001</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5907,10 +5910,10 @@
         <v>382</v>
       </c>
       <c r="C138">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D138" s="29">
-        <v>26.413876089599999</v>
+        <v>35.218501452799998</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -5921,10 +5924,10 @@
         <v>384</v>
       </c>
       <c r="C139">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="D139" s="29">
-        <v>297.98084620629999</v>
+        <v>275.74346962369998</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -5935,10 +5938,10 @@
         <v>386</v>
       </c>
       <c r="C140">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="D140" s="29">
-        <v>34.351507939199998</v>
+        <v>45.393064062500002</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -5949,10 +5952,10 @@
         <v>388</v>
       </c>
       <c r="C141">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D141" s="29">
-        <v>100.61095638730001</v>
+        <v>102.7981510914</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -5963,10 +5966,10 @@
         <v>390</v>
       </c>
       <c r="C142">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="D142" s="29">
-        <v>491.79654613029999</v>
+        <v>521.57128483129998</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -5977,10 +5980,10 @@
         <v>392</v>
       </c>
       <c r="C143">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="D143" s="29">
-        <v>130.92707978210001</v>
+        <v>141.4447676316</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5991,10 +5994,10 @@
         <v>394</v>
       </c>
       <c r="C144">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D144" s="29">
-        <v>103.9149157266</v>
+        <v>107.06385256679999</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -6005,10 +6008,10 @@
         <v>396</v>
       </c>
       <c r="C145">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="D145" s="29">
-        <v>98.920912593400004</v>
+        <v>86.316031764300007</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -6019,10 +6022,10 @@
         <v>398</v>
       </c>
       <c r="C146">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="D146" s="29">
-        <v>191.32315063120001</v>
+        <v>204.57267629820001</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -6047,10 +6050,10 @@
         <v>402</v>
       </c>
       <c r="C148">
-        <v>1818</v>
+        <v>2002</v>
       </c>
       <c r="D148" s="29">
-        <v>98.416405332699995</v>
+        <v>108.377141626</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -6061,10 +6064,10 @@
         <v>404</v>
       </c>
       <c r="C149">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D149" s="29">
-        <v>76.7423543747</v>
+        <v>69.337390356</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -6075,10 +6078,10 @@
         <v>406</v>
       </c>
       <c r="C150">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D150" s="29">
-        <v>91.1536494809</v>
+        <v>92.821094288400005</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -6089,10 +6092,10 @@
         <v>408</v>
       </c>
       <c r="C151">
-        <v>1384</v>
+        <v>1412</v>
       </c>
       <c r="D151" s="29">
-        <v>119.6078177191</v>
+        <v>122.0276290602</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -6103,10 +6106,10 @@
         <v>410</v>
       </c>
       <c r="C152">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="D152" s="29">
-        <v>104.5470088157</v>
+        <v>110.8355506994</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -6117,10 +6120,10 @@
         <v>412</v>
       </c>
       <c r="C153">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D153" s="29">
-        <v>148.1412029441</v>
+        <v>141.57798509209999</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -6131,10 +6134,10 @@
         <v>414</v>
       </c>
       <c r="C154">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D154" s="29">
-        <v>101.9150549867</v>
+        <v>114.95070155480001</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -6145,10 +6148,10 @@
         <v>416</v>
       </c>
       <c r="C155">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D155" s="29">
-        <v>141.1077572456</v>
+        <v>138.04019730549999</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -6159,10 +6162,10 @@
         <v>418</v>
       </c>
       <c r="C156">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D156" s="29">
-        <v>36.965160336399997</v>
+        <v>48.339055824500001</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -6173,10 +6176,10 @@
         <v>420</v>
       </c>
       <c r="C157">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D157" s="29">
-        <v>72.452549772400005</v>
+        <v>81.741338204800002</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -6187,10 +6190,10 @@
         <v>422</v>
       </c>
       <c r="C158">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="D158" s="29">
-        <v>82.845673572999999</v>
+        <v>109.958803106</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -6201,10 +6204,10 @@
         <v>424</v>
       </c>
       <c r="C159">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D159" s="29">
-        <v>125.6003538928</v>
+        <v>121.6506572295</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -6215,10 +6218,10 @@
         <v>426</v>
       </c>
       <c r="C160">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="D160" s="29">
-        <v>97.254801774399994</v>
+        <v>110.3188796247</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -6229,10 +6232,10 @@
         <v>428</v>
       </c>
       <c r="C161">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D161" s="29">
-        <v>81.782786484300004</v>
+        <v>86.869754064700004</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -6243,10 +6246,10 @@
         <v>430</v>
       </c>
       <c r="C162">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D162" s="29">
-        <v>75.577510761599996</v>
+        <v>64.624248332400001</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -6257,10 +6260,10 @@
         <v>432</v>
       </c>
       <c r="C163">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="D163" s="29">
-        <v>127.7047466258</v>
+        <v>110.14534396480001</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -6271,10 +6274,10 @@
         <v>434</v>
       </c>
       <c r="C164">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D164" s="29">
-        <v>116.3318397689</v>
+        <v>126.5588146936</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -6285,10 +6288,10 @@
         <v>436</v>
       </c>
       <c r="C165">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="D165" s="29">
-        <v>274.1904754016</v>
+        <v>302.35505595640001</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -6299,10 +6302,10 @@
         <v>438</v>
       </c>
       <c r="C166">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D166" s="29">
-        <v>67.165272019400007</v>
+        <v>74.235300652999996</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -6313,10 +6316,10 @@
         <v>440</v>
       </c>
       <c r="C167">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D167" s="29">
-        <v>137.66476256780001</v>
+        <v>134.50005538240001</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -6327,10 +6330,10 @@
         <v>442</v>
       </c>
       <c r="C168">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="D168" s="29">
-        <v>104.417059137</v>
+        <v>89.552130579299998</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -6341,10 +6344,10 @@
         <v>444</v>
       </c>
       <c r="C169">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D169" s="29">
-        <v>97.7761695608</v>
+        <v>100.8557339564</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -6355,10 +6358,10 @@
         <v>446</v>
       </c>
       <c r="C170">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="D170" s="29">
-        <v>97.925829625899993</v>
+        <v>121.1410047528</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -6369,10 +6372,10 @@
         <v>448</v>
       </c>
       <c r="C171">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D171" s="29">
-        <v>403.70976541189998</v>
+        <v>418.9852700491</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -6383,10 +6386,10 @@
         <v>450</v>
       </c>
       <c r="C172">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D172" s="29">
-        <v>271.0941867702</v>
+        <v>280.58775751309997</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -6397,10 +6400,10 @@
         <v>452</v>
       </c>
       <c r="C173">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D173" s="29">
-        <v>224.5794682881</v>
+        <v>235.23145887890001</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -6411,10 +6414,10 @@
         <v>454</v>
       </c>
       <c r="C174">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D174" s="29">
-        <v>48.255698430300001</v>
+        <v>65.287121405700006</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -6425,10 +6428,10 @@
         <v>456</v>
       </c>
       <c r="C175">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D175" s="29">
-        <v>55.614576723200003</v>
+        <v>58.4666062987</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -6439,10 +6442,10 @@
         <v>458</v>
       </c>
       <c r="C176">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="D176" s="29">
-        <v>224.00210825510001</v>
+        <v>253.17885344800001</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -6453,10 +6456,10 @@
         <v>460</v>
       </c>
       <c r="C177">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D177" s="29">
-        <v>74.240130429700002</v>
+        <v>77.1515080936</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -6467,10 +6470,10 @@
         <v>462</v>
       </c>
       <c r="C178">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D178" s="29">
-        <v>85.321933125599998</v>
+        <v>61.970667217500001</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -6481,10 +6484,10 @@
         <v>464</v>
       </c>
       <c r="C179">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D179" s="29">
-        <v>197.56889796740001</v>
+        <v>193.104064115</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -6495,10 +6498,10 @@
         <v>466</v>
       </c>
       <c r="C180">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D180" s="29">
-        <v>34.989503149100003</v>
+        <v>36.988903329000003</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -6509,10 +6512,10 @@
         <v>468</v>
       </c>
       <c r="C181">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D181" s="29">
-        <v>65.1072382264</v>
+        <v>73.599486690800006</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -6523,10 +6526,10 @@
         <v>470</v>
       </c>
       <c r="C182">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D182" s="29">
-        <v>84.919566750000001</v>
+        <v>81.715054797199997</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -6537,10 +6540,10 @@
         <v>472</v>
       </c>
       <c r="C183">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D183" s="29">
-        <v>110.5367096457</v>
+        <v>111.66005019089999</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -6551,10 +6554,10 @@
         <v>474</v>
       </c>
       <c r="C184">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D184" s="29">
-        <v>93.995656411200002</v>
+        <v>93.006228449000005</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -6565,10 +6568,10 @@
         <v>476</v>
       </c>
       <c r="C185">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D185" s="29">
-        <v>98.410231285199998</v>
+        <v>99.677315808100005</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -6579,10 +6582,10 @@
         <v>478</v>
       </c>
       <c r="C186">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D186" s="29">
-        <v>99.103563223600005</v>
+        <v>171.17888193159999</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -6593,10 +6596,10 @@
         <v>480</v>
       </c>
       <c r="C187">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="D187" s="29">
-        <v>191.779486096</v>
+        <v>203.15623527119999</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -6607,10 +6610,10 @@
         <v>482</v>
       </c>
       <c r="C188">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D188" s="29">
-        <v>107.0121907131</v>
+        <v>133.0421830487</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -6621,10 +6624,10 @@
         <v>484</v>
       </c>
       <c r="C189">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D189" s="29">
-        <v>47.407959674899999</v>
+        <v>51.054725803700002</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -6635,10 +6638,10 @@
         <v>486</v>
       </c>
       <c r="C190">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D190" s="29">
-        <v>77.889309417999996</v>
+        <v>58.142723931799999</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -6649,10 +6652,10 @@
         <v>488</v>
       </c>
       <c r="C191">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="D191" s="29">
-        <v>120.97354903750001</v>
+        <v>129.9345526699</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -6663,10 +6666,10 @@
         <v>490</v>
       </c>
       <c r="C192">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D192" s="29">
-        <v>77.157787675799995</v>
+        <v>73.6506155087</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -6677,10 +6680,10 @@
         <v>492</v>
       </c>
       <c r="C193">
-        <v>1232</v>
+        <v>1392</v>
       </c>
       <c r="D193" s="29">
-        <v>113.24955440159999</v>
+        <v>127.9572887395</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -6691,10 +6694,10 @@
         <v>494</v>
       </c>
       <c r="C194">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="D194" s="29">
-        <v>120.15158659470001</v>
+        <v>128.88353329489999</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -6705,10 +6708,10 @@
         <v>496</v>
       </c>
       <c r="C195">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D195" s="29">
-        <v>167.97337050440001</v>
+        <v>171.05141656079999</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -6719,10 +6722,10 @@
         <v>498</v>
       </c>
       <c r="C196">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D196" s="29">
-        <v>229.23752303609999</v>
+        <v>236.7289453576</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -6733,10 +6736,10 @@
         <v>500</v>
       </c>
       <c r="C197">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="D197" s="29">
-        <v>251.51608305619999</v>
+        <v>283.65424922450001</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -6747,10 +6750,10 @@
         <v>502</v>
       </c>
       <c r="C198">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D198" s="29">
-        <v>56.964639200199997</v>
+        <v>58.3887551802</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -6761,10 +6764,10 @@
         <v>504</v>
       </c>
       <c r="C199">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D199" s="29">
-        <v>146.87651592730001</v>
+        <v>141.48655204010001</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -6775,10 +6778,10 @@
         <v>506</v>
       </c>
       <c r="C200">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="D200" s="29">
-        <v>180.01018478680001</v>
+        <v>189.8791642159</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -6803,10 +6806,10 @@
         <v>510</v>
       </c>
       <c r="C202">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D202" s="29">
-        <v>53.199448055700003</v>
+        <v>48.211999800500003</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -6817,10 +6820,10 @@
         <v>512</v>
       </c>
       <c r="C203">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D203" s="29">
-        <v>136.21936766970001</v>
+        <v>144.39252972989999</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -6831,10 +6834,10 @@
         <v>514</v>
       </c>
       <c r="C204">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D204" s="29">
-        <v>139.46652490700001</v>
+        <v>140.7173457582</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -6845,10 +6848,10 @@
         <v>516</v>
       </c>
       <c r="C205">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D205" s="29">
-        <v>114.198036965</v>
+        <v>117.12619175899999</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -6859,10 +6862,10 @@
         <v>518</v>
       </c>
       <c r="C206">
-        <v>528</v>
+        <v>475</v>
       </c>
       <c r="D206" s="29">
-        <v>89.017019447199999</v>
+        <v>80.081598934499993</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -6873,10 +6876,10 @@
         <v>520</v>
       </c>
       <c r="C207">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="D207" s="29">
-        <v>134.81109014910001</v>
+        <v>120.477727116</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -6887,10 +6890,10 @@
         <v>522</v>
       </c>
       <c r="C208">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D208" s="29">
-        <v>107.4947016106</v>
+        <v>106.2731709105</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -6901,10 +6904,10 @@
         <v>524</v>
       </c>
       <c r="C209">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D209" s="29">
-        <v>136.27650652930001</v>
+        <v>152.74949083499999</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -6915,10 +6918,10 @@
         <v>526</v>
       </c>
       <c r="C210">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D210" s="29">
-        <v>147.75001163389999</v>
+        <v>155.89371306250001</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -6929,10 +6932,10 @@
         <v>528</v>
       </c>
       <c r="C211">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D211" s="29">
-        <v>101.2429709323</v>
+        <v>123.1992778815</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -6943,10 +6946,10 @@
         <v>530</v>
       </c>
       <c r="C212">
-        <v>694</v>
+        <v>799</v>
       </c>
       <c r="D212" s="29">
-        <v>199.7041845796</v>
+        <v>229.9187946385</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -6957,10 +6960,10 @@
         <v>532</v>
       </c>
       <c r="C213">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D213" s="29">
-        <v>98.366675993300007</v>
+        <v>96.180749860099993</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6971,10 +6974,10 @@
         <v>534</v>
       </c>
       <c r="C214">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D214" s="29">
-        <v>60.499699810599999</v>
+        <v>53.572253267400001</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -6985,10 +6988,10 @@
         <v>536</v>
       </c>
       <c r="C215">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D215" s="29">
-        <v>49.574485664699999</v>
+        <v>57.836899942199999</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -6999,10 +7002,10 @@
         <v>538</v>
       </c>
       <c r="C216">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="D216" s="29">
-        <v>101.9392288187</v>
+        <v>106.7061711736</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -7013,10 +7016,10 @@
         <v>540</v>
       </c>
       <c r="C217">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D217" s="29">
-        <v>159.6488885535</v>
+        <v>157.3267229018</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -7027,10 +7030,10 @@
         <v>542</v>
       </c>
       <c r="C218">
-        <v>299</v>
+        <v>363</v>
       </c>
       <c r="D218" s="29">
-        <v>141.18491446269999</v>
+        <v>171.4050968226</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -7041,10 +7044,10 @@
         <v>544</v>
       </c>
       <c r="C219">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D219" s="29">
-        <v>61.909752958399999</v>
+        <v>71.141909101300001</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -7055,10 +7058,10 @@
         <v>546</v>
       </c>
       <c r="C220">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="D220" s="29">
-        <v>119.1252920253</v>
+        <v>125.43935344010001</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -7069,10 +7072,10 @@
         <v>548</v>
       </c>
       <c r="C221">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="D221" s="29">
-        <v>149.3275504575</v>
+        <v>155.50990127259999</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -7083,10 +7086,10 @@
         <v>550</v>
       </c>
       <c r="C222">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D222" s="29">
-        <v>100.6674170485</v>
+        <v>97.496789739899995</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -7097,10 +7100,10 @@
         <v>552</v>
       </c>
       <c r="C223">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D223" s="29">
-        <v>200.15256912820001</v>
+        <v>193.35493470489999</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -7111,10 +7114,10 @@
         <v>554</v>
       </c>
       <c r="C224">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="D224" s="29">
-        <v>94.735871360399997</v>
+        <v>103.9579473336</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -7125,10 +7128,10 @@
         <v>556</v>
       </c>
       <c r="C225">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D225" s="29">
-        <v>67.252879978799996</v>
+        <v>74.115418752099998</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -7139,10 +7142,10 @@
         <v>558</v>
       </c>
       <c r="C226">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="D226" s="29">
-        <v>54.867867768399996</v>
+        <v>69.530832430700002</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -7153,10 +7156,10 @@
         <v>560</v>
       </c>
       <c r="C227">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="D227" s="29">
-        <v>162.55818295360001</v>
+        <v>167.06474644139999</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -7167,10 +7170,10 @@
         <v>562</v>
       </c>
       <c r="C228">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D228" s="29">
-        <v>111.15886825450001</v>
+        <v>123.0158142017</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -7181,10 +7184,10 @@
         <v>564</v>
       </c>
       <c r="C229">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="D229" s="29">
-        <v>167.9590746467</v>
+        <v>161.8882647197</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -7195,10 +7198,10 @@
         <v>566</v>
       </c>
       <c r="C230">
-        <v>904</v>
+        <v>956</v>
       </c>
       <c r="D230" s="29">
-        <v>220.36848340649999</v>
+        <v>233.04454661130001</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -7209,10 +7212,10 @@
         <v>568</v>
       </c>
       <c r="C231">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D231" s="29">
-        <v>97.572937047600007</v>
+        <v>102.1706147095</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -7223,10 +7226,10 @@
         <v>570</v>
       </c>
       <c r="C232">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D232" s="29">
-        <v>72.283313280499996</v>
+        <v>69.018905583999995</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -7237,10 +7240,10 @@
         <v>572</v>
       </c>
       <c r="C233">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D233" s="29">
-        <v>88.734239016700002</v>
+        <v>89.121724776600004</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -7251,10 +7254,10 @@
         <v>574</v>
       </c>
       <c r="C234">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="D234" s="29">
-        <v>159.27717123740001</v>
+        <v>167.551310003</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -7265,10 +7268,10 @@
         <v>576</v>
       </c>
       <c r="C235">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D235" s="29">
-        <v>108.843537415</v>
+        <v>136.0544217687</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -7279,10 +7282,10 @@
         <v>578</v>
       </c>
       <c r="C236">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D236" s="29">
-        <v>63.926852183699999</v>
+        <v>57.146731497499999</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -7293,10 +7296,10 @@
         <v>580</v>
       </c>
       <c r="C237">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="D237" s="29">
-        <v>113.886772247</v>
+        <v>117.5937557922</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -7307,10 +7310,10 @@
         <v>582</v>
       </c>
       <c r="C238">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D238" s="29">
-        <v>74.992500749900003</v>
+        <v>76.992300769899998</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -7335,10 +7338,10 @@
         <v>586</v>
       </c>
       <c r="C240">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="D240" s="29">
-        <v>167.19876034519999</v>
+        <v>172.99756128210001</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -7349,10 +7352,10 @@
         <v>588</v>
       </c>
       <c r="C241">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="D241" s="29">
-        <v>155.2126116824</v>
+        <v>164.42013949400001</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -7363,10 +7366,10 @@
         <v>590</v>
       </c>
       <c r="C242">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="D242" s="29">
-        <v>83.897116850700002</v>
+        <v>96.539148156899998</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -7377,10 +7380,10 @@
         <v>592</v>
       </c>
       <c r="C243">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D243" s="29">
-        <v>115.6448494891</v>
+        <v>116.50787075389999</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -7391,10 +7394,10 @@
         <v>594</v>
       </c>
       <c r="C244">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="D244" s="29">
-        <v>119.555534718</v>
+        <v>133.03483520090001</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -7405,10 +7408,10 @@
         <v>596</v>
       </c>
       <c r="C245">
-        <v>1253</v>
+        <v>1330</v>
       </c>
       <c r="D245" s="29">
-        <v>84.421105680699995</v>
+        <v>89.608994856600006</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -7419,10 +7422,10 @@
         <v>598</v>
       </c>
       <c r="C246">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="D246" s="29">
-        <v>81.889332416499997</v>
+        <v>89.593206894700003</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -7433,10 +7436,10 @@
         <v>600</v>
       </c>
       <c r="C247">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D247" s="29">
-        <v>62.7987300701</v>
+        <v>59.627077036300001</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -7447,10 +7450,10 @@
         <v>602</v>
       </c>
       <c r="C248">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D248" s="29">
-        <v>56.393725675900001</v>
+        <v>66.140789372900002</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -7461,10 +7464,10 @@
         <v>604</v>
       </c>
       <c r="C249">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D249" s="29">
-        <v>109.96577700580001</v>
+        <v>123.3261050533</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -7475,10 +7478,10 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D250" s="29">
-        <v>79.510748812900005</v>
+        <v>94.372571020899997</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -7489,10 +7492,10 @@
         <v>608</v>
       </c>
       <c r="C251">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D251" s="29">
-        <v>71.075864132899994</v>
+        <v>74.816699087200007</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -7503,10 +7506,10 @@
         <v>610</v>
       </c>
       <c r="C252">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D252" s="29">
-        <v>89.796663825600007</v>
+        <v>87.513697796200006</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -7517,10 +7520,10 @@
         <v>612</v>
       </c>
       <c r="C253">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D253" s="29">
-        <v>71.277248698199998</v>
+        <v>82.166828360400004</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -7531,10 +7534,10 @@
         <v>614</v>
       </c>
       <c r="C254">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D254" s="29">
-        <v>115.4049761779</v>
+        <v>102.6998411858</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -7545,10 +7548,10 @@
         <v>616</v>
       </c>
       <c r="C255">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D255" s="29">
-        <v>54.445779513399998</v>
+        <v>63.832982877699997</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -7559,10 +7562,10 @@
         <v>618</v>
       </c>
       <c r="C256">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D256" s="29">
-        <v>64.496244378</v>
+        <v>71.9161662976</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -7573,10 +7576,10 @@
         <v>620</v>
       </c>
       <c r="C257">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="D257" s="29">
-        <v>161.91585845489999</v>
+        <v>187.62547111500001</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -7587,10 +7590,10 @@
         <v>622</v>
       </c>
       <c r="C258">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D258" s="29">
-        <v>41.189554329000003</v>
+        <v>46.132300848500002</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -7601,10 +7604,10 @@
         <v>624</v>
       </c>
       <c r="C259">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D259" s="29">
-        <v>19.885387855499999</v>
+        <v>18.680212833900001</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -7615,10 +7618,10 @@
         <v>626</v>
       </c>
       <c r="C260">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D260" s="29">
-        <v>69.531025223</v>
+        <v>70.729836002699997</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -7629,10 +7632,10 @@
         <v>628</v>
       </c>
       <c r="C261">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="D261" s="29">
-        <v>202.2848068939</v>
+        <v>209.87048715239999</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -7643,10 +7646,10 @@
         <v>630</v>
       </c>
       <c r="C262">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="D262" s="29">
-        <v>93.438934160499997</v>
+        <v>106.78735332630001</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -7657,10 +7660,10 @@
         <v>632</v>
       </c>
       <c r="C263">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D263" s="29">
-        <v>46.868503609599998</v>
+        <v>45.3566163964</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -7671,10 +7674,10 @@
         <v>634</v>
       </c>
       <c r="C264">
-        <v>748</v>
+        <v>779</v>
       </c>
       <c r="D264" s="29">
-        <v>144.2984740629</v>
+        <v>150.27875841580001</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -7685,10 +7688,10 @@
         <v>636</v>
       </c>
       <c r="C265">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="D265" s="29">
-        <v>119.443533655</v>
+        <v>99.536278045800003</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -7699,10 +7702,10 @@
         <v>638</v>
       </c>
       <c r="C266">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="D266" s="29">
-        <v>69.868211886599994</v>
+        <v>111.5327419107</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -7713,10 +7716,10 @@
         <v>640</v>
       </c>
       <c r="C267">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="D267" s="29">
-        <v>156.58483332540001</v>
+        <v>149.60100273099999</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -7727,10 +7730,10 @@
         <v>642</v>
       </c>
       <c r="C268">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="D268" s="29">
-        <v>106.75447419859999</v>
+        <v>130.952155017</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -7741,10 +7744,10 @@
         <v>644</v>
       </c>
       <c r="C269">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D269" s="29">
-        <v>169.08235249910001</v>
+        <v>165.32496688800001</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -7755,10 +7758,10 @@
         <v>646</v>
       </c>
       <c r="C270">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D270" s="29">
-        <v>205.72180925469999</v>
+        <v>207.55044755919999</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -7769,10 +7772,10 @@
         <v>648</v>
       </c>
       <c r="C271">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D271" s="29">
-        <v>118.9208194162</v>
+        <v>114.7844430886</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -7783,10 +7786,10 @@
         <v>650</v>
       </c>
       <c r="C272">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D272" s="29">
-        <v>148.76707885210001</v>
+        <v>154.35982617740001</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -7797,10 +7800,10 @@
         <v>652</v>
       </c>
       <c r="C273">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="D273" s="29">
-        <v>200.33773411109999</v>
+        <v>214.1541295671</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -7811,10 +7814,10 @@
         <v>654</v>
       </c>
       <c r="C274">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D274" s="29">
-        <v>134.059182773</v>
+        <v>133.4970897634</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -7825,10 +7828,10 @@
         <v>656</v>
       </c>
       <c r="C275">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D275" s="29">
-        <v>82.802510098900001</v>
+        <v>86.942635603900001</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -7839,10 +7842,10 @@
         <v>658</v>
       </c>
       <c r="C276">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D276" s="29">
-        <v>68.760027504000007</v>
+        <v>84.804033921599995</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -7853,10 +7856,10 @@
         <v>660</v>
       </c>
       <c r="C277">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D277" s="29">
-        <v>94.061438542800005</v>
+        <v>105.2592288455</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -7867,10 +7870,10 @@
         <v>662</v>
       </c>
       <c r="C278">
-        <v>529</v>
+        <v>580</v>
       </c>
       <c r="D278" s="29">
-        <v>122.7512048878</v>
+        <v>134.585442032</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -7881,10 +7884,10 @@
         <v>664</v>
       </c>
       <c r="C279">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D279" s="29">
-        <v>157.3364155134</v>
+        <v>154.31071521499999</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -7895,10 +7898,10 @@
         <v>666</v>
       </c>
       <c r="C280">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D280" s="29">
-        <v>97.743521000900003</v>
+        <v>99.419124218099995</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -7909,10 +7912,10 @@
         <v>668</v>
       </c>
       <c r="C281">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="D281" s="29">
-        <v>109.863864342</v>
+        <v>121.64636573520001</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -7923,10 +7926,10 @@
         <v>670</v>
       </c>
       <c r="C282">
-        <v>164</v>
+        <v>313</v>
       </c>
       <c r="D282" s="29">
-        <v>116.1621169838</v>
+        <v>221.69965009699999</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -7937,10 +7940,10 @@
         <v>672</v>
       </c>
       <c r="C283">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D283" s="29">
-        <v>77.241766729899993</v>
+        <v>93.041219015500005</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -7951,10 +7954,10 @@
         <v>674</v>
       </c>
       <c r="C284">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D284" s="29">
-        <v>35.404584644400003</v>
+        <v>30.4180234269</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -7965,10 +7968,10 @@
         <v>676</v>
       </c>
       <c r="C285">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D285" s="29">
-        <v>112.2788561718</v>
+        <v>121.38254721280001</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -7979,10 +7982,10 @@
         <v>678</v>
       </c>
       <c r="C286">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D286" s="29">
-        <v>63.669645496500003</v>
+        <v>66.918096797399997</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -7993,10 +7996,10 @@
         <v>680</v>
       </c>
       <c r="C287">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D287" s="29">
-        <v>174.23252466720001</v>
+        <v>151.50654318880001</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -8007,10 +8010,10 @@
         <v>682</v>
       </c>
       <c r="C288">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="D288" s="29">
-        <v>102.2547961133</v>
+        <v>106.926335022</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -8021,10 +8024,10 @@
         <v>684</v>
       </c>
       <c r="C289">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="D289" s="29">
-        <v>121.66081853990001</v>
+        <v>163.2035370657</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -8035,10 +8038,10 @@
         <v>686</v>
       </c>
       <c r="C290">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D290" s="29">
-        <v>138.0364509815</v>
+        <v>135.6968501174</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -8049,10 +8052,10 @@
         <v>688</v>
       </c>
       <c r="C291">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D291" s="29">
-        <v>76.216486578800001</v>
+        <v>80.980016989899994</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -8063,10 +8066,10 @@
         <v>690</v>
       </c>
       <c r="C292">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D292" s="29">
-        <v>96.803889871300001</v>
+        <v>99.018357940300007</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -8077,10 +8080,10 @@
         <v>692</v>
       </c>
       <c r="C293">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D293" s="29">
-        <v>104.3971067088</v>
+        <v>136.71049688049999</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -8091,10 +8094,10 @@
         <v>694</v>
       </c>
       <c r="C294">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D294" s="29">
-        <v>18.650047402199998</v>
+        <v>21.758388635900001</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -8105,10 +8108,10 @@
         <v>696</v>
       </c>
       <c r="C295">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D295" s="29">
-        <v>93.714995508300007</v>
+        <v>94.824048709600007</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -8119,10 +8122,10 @@
         <v>698</v>
       </c>
       <c r="C296">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D296" s="29">
-        <v>110.3589667815</v>
+        <v>115.9000027705</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -8133,10 +8136,10 @@
         <v>700</v>
       </c>
       <c r="C297">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D297" s="29">
-        <v>95.853357493600001</v>
+        <v>110.2970141023</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -8147,10 +8150,10 @@
         <v>702</v>
       </c>
       <c r="C298">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="D298" s="29">
-        <v>188.4020395817</v>
+        <v>177.59917033959999</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -8161,10 +8164,10 @@
         <v>704</v>
       </c>
       <c r="C299">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="D299" s="29">
-        <v>94.596109647399999</v>
+        <v>100.2018050339</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -8175,10 +8178,10 @@
         <v>706</v>
       </c>
       <c r="C300">
-        <v>689</v>
+        <v>719</v>
       </c>
       <c r="D300" s="29">
-        <v>112.1899511021</v>
+        <v>117.07485463339999</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -8189,10 +8192,10 @@
         <v>708</v>
       </c>
       <c r="C301">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D301" s="29">
-        <v>122.7231623821</v>
+        <v>135.64139000130001</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -8203,10 +8206,10 @@
         <v>710</v>
       </c>
       <c r="C302">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D302" s="29">
-        <v>148.9281095275</v>
+        <v>162.64517224709999</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -8217,10 +8220,10 @@
         <v>712</v>
       </c>
       <c r="C303">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="D303" s="29">
-        <v>118.51393826970001</v>
+        <v>138.60977997629999</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -8231,10 +8234,10 @@
         <v>714</v>
       </c>
       <c r="C304">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="D304" s="29">
-        <v>192.20751225999999</v>
+        <v>212.8653289982</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -8245,10 +8248,10 @@
         <v>716</v>
       </c>
       <c r="C305">
-        <v>389</v>
+        <v>461</v>
       </c>
       <c r="D305" s="29">
-        <v>91.047822342100005</v>
+        <v>107.8998614388</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -8259,10 +8262,10 @@
         <v>718</v>
       </c>
       <c r="C306">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D306" s="29">
-        <v>46.333793022899997</v>
+        <v>45.604126991100003</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -8273,10 +8276,10 @@
         <v>720</v>
       </c>
       <c r="C307">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D307" s="29">
-        <v>106.9559703728</v>
+        <v>119.1496477769</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -8287,10 +8290,10 @@
         <v>722</v>
       </c>
       <c r="C308">
-        <v>619</v>
+        <v>568</v>
       </c>
       <c r="D308" s="29">
-        <v>131.5300192302</v>
+        <v>120.69313557789999</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -8301,10 +8304,10 @@
         <v>724</v>
       </c>
       <c r="C309">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D309" s="29">
-        <v>68.924983970900001</v>
+        <v>74.802308185499996</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -8315,10 +8318,10 @@
         <v>726</v>
       </c>
       <c r="C310">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D310" s="29">
-        <v>67.853784787199999</v>
+        <v>77.547182613900006</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -8329,10 +8332,10 @@
         <v>728</v>
       </c>
       <c r="C311">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="D311" s="29">
-        <v>101.3164072567</v>
+        <v>113.6720666782</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -8343,10 +8346,10 @@
         <v>730</v>
       </c>
       <c r="C312">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="D312" s="29">
-        <v>88.991211564400004</v>
+        <v>79.250879950400005</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -8357,10 +8360,10 @@
         <v>732</v>
       </c>
       <c r="C313">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D313" s="29">
-        <v>80.132791483000005</v>
+        <v>94.033377760700006</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -8371,10 +8374,10 @@
         <v>734</v>
       </c>
       <c r="C314">
-        <v>601</v>
+        <v>647</v>
       </c>
       <c r="D314" s="29">
-        <v>109.6005325018</v>
+        <v>117.9892587831</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -8385,10 +8388,10 @@
         <v>736</v>
       </c>
       <c r="C315">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D315" s="29">
-        <v>93.784967239899999</v>
+        <v>99.606103137600002</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -8399,10 +8402,10 @@
         <v>738</v>
       </c>
       <c r="C316">
-        <v>576</v>
+        <v>635</v>
       </c>
       <c r="D316" s="29">
-        <v>95.877915454299995</v>
+        <v>105.6987435998</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -8413,10 +8416,10 @@
         <v>740</v>
       </c>
       <c r="C317">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D317" s="29">
-        <v>159.4776166259</v>
+        <v>178.31355559740001</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -8427,10 +8430,10 @@
         <v>742</v>
       </c>
       <c r="C318">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D318" s="29">
-        <v>122.7360702428</v>
+        <v>119.5889915186</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -8441,10 +8444,10 @@
         <v>744</v>
       </c>
       <c r="C319">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="D319" s="29">
-        <v>94.899169632300001</v>
+        <v>100.2563808212</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -8455,10 +8458,10 @@
         <v>746</v>
       </c>
       <c r="C320">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D320" s="29">
-        <v>31.072082451</v>
+        <v>45.891075619900001</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -8469,10 +8472,10 @@
         <v>748</v>
       </c>
       <c r="C321">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="D321" s="29">
-        <v>76.461810800999999</v>
+        <v>83.412884510200001</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -8483,10 +8486,10 @@
         <v>750</v>
       </c>
       <c r="C322">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="D322" s="29">
-        <v>76.320963231600004</v>
+        <v>99.522536054</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -8497,10 +8500,10 @@
         <v>752</v>
       </c>
       <c r="C323">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="D323" s="29">
-        <v>146.74671989519999</v>
+        <v>162.5259370883</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -8511,10 +8514,10 @@
         <v>754</v>
       </c>
       <c r="C324">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D324" s="29">
-        <v>75.718918207100003</v>
+        <v>78.188013366000007</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -8525,10 +8528,10 @@
         <v>756</v>
       </c>
       <c r="C325">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D325" s="29">
-        <v>70.775961909700001</v>
+        <v>74.350505440500001</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -8539,10 +8542,10 @@
         <v>758</v>
       </c>
       <c r="C326">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D326" s="29">
-        <v>162.7486437613</v>
+        <v>160.3375527426</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -8553,10 +8556,10 @@
         <v>760</v>
       </c>
       <c r="C327">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="D327" s="29">
-        <v>152.327067976</v>
+        <v>158.8553708892</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -8567,10 +8570,10 @@
         <v>762</v>
       </c>
       <c r="C328">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="D328" s="29">
-        <v>464.43868911250001</v>
+        <v>424.594083076</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -8581,10 +8584,10 @@
         <v>764</v>
       </c>
       <c r="C329">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D329" s="29">
-        <v>187.98631769689999</v>
+        <v>188.95531933449999</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -8595,10 +8598,10 @@
         <v>766</v>
       </c>
       <c r="C330">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D330" s="29">
-        <v>47.859447609299998</v>
+        <v>35.508622419799998</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -8609,10 +8612,10 @@
         <v>767</v>
       </c>
       <c r="C331">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D331" s="29">
-        <v>61.886410306899997</v>
+        <v>56.963627668900003</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -8623,10 +8626,10 @@
         <v>769</v>
       </c>
       <c r="C332">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D332" s="29">
-        <v>119.7136644597</v>
+        <v>122.9711791389</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -8637,10 +8640,10 @@
         <v>771</v>
       </c>
       <c r="C333">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="D333" s="29">
-        <v>136.157482429</v>
+        <v>156.2934481403</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -8651,10 +8654,10 @@
         <v>773</v>
       </c>
       <c r="C334">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D334" s="29">
-        <v>96.761401189699995</v>
+        <v>88.301387970899995</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -8665,10 +8668,10 @@
         <v>775</v>
       </c>
       <c r="C335">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D335" s="29">
-        <v>71.258634362799995</v>
+        <v>67.8106359258</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -8679,10 +8682,10 @@
         <v>777</v>
       </c>
       <c r="C336">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D336" s="29">
-        <v>109.6185527816</v>
+        <v>98.213154226300006</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -8693,10 +8696,10 @@
         <v>779</v>
       </c>
       <c r="C337">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D337" s="29">
-        <v>37.284495615300003</v>
+        <v>42.752888305600003</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -8707,10 +8710,10 @@
         <v>781</v>
       </c>
       <c r="C338">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="D338" s="29">
-        <v>313.01034295049999</v>
+        <v>327.4200262576</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -8721,10 +8724,10 @@
         <v>783</v>
       </c>
       <c r="C339">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D339" s="29">
-        <v>87.845586979299995</v>
+        <v>104.9266733364</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -8735,10 +8738,10 @@
         <v>785</v>
       </c>
       <c r="C340">
-        <v>738</v>
+        <v>781</v>
       </c>
       <c r="D340" s="29">
-        <v>375.0743287542</v>
+        <v>396.92825305830002</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -8749,10 +8752,10 @@
         <v>787</v>
       </c>
       <c r="C341">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D341" s="29">
-        <v>81.258731139299996</v>
+        <v>85.711264352499995</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -8763,10 +8766,10 @@
         <v>789</v>
       </c>
       <c r="C342">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="D342" s="29">
-        <v>282.00064921009999</v>
+        <v>250.2164033759</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -8777,10 +8780,10 @@
         <v>791</v>
       </c>
       <c r="C343">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="D343" s="29">
-        <v>66.351067734599994</v>
+        <v>74.350841858600006</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -8791,10 +8794,10 @@
         <v>793</v>
       </c>
       <c r="C344">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D344" s="29">
-        <v>160.97031407930001</v>
+        <v>164.71380975549999</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -8805,10 +8808,10 @@
         <v>795</v>
       </c>
       <c r="C345">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D345" s="29">
-        <v>66.698427822799999</v>
+        <v>73.628134609599996</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -8819,10 +8822,10 @@
         <v>797</v>
       </c>
       <c r="C346">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D346" s="29">
-        <v>82.590195811900003</v>
+        <v>83.635641328600002</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -8833,10 +8836,10 @@
         <v>799</v>
       </c>
       <c r="C347">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="D347" s="29">
-        <v>87.309461531500006</v>
+        <v>99.576080093800002</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -8847,10 +8850,10 @@
         <v>801</v>
       </c>
       <c r="C348">
-        <v>512</v>
+        <v>557</v>
       </c>
       <c r="D348" s="29">
-        <v>184.87492056159999</v>
+        <v>201.1236928765</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -8861,10 +8864,10 @@
         <v>803</v>
       </c>
       <c r="C349">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D349" s="29">
-        <v>208.6374370458</v>
+        <v>210.93015613419999</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -8875,10 +8878,10 @@
         <v>805</v>
       </c>
       <c r="C350">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D350" s="29">
-        <v>83.503156220500003</v>
+        <v>84.497241413599994</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -8889,10 +8892,10 @@
         <v>807</v>
       </c>
       <c r="C351">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="D351" s="29">
-        <v>148.82727872149999</v>
+        <v>131.8722722848</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -8903,10 +8906,10 @@
         <v>809</v>
       </c>
       <c r="C352">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D352" s="29">
-        <v>243.4211473922</v>
+        <v>254.94404194329999</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -8917,10 +8920,10 @@
         <v>811</v>
       </c>
       <c r="C353">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D353" s="29">
-        <v>114.3510577473</v>
+        <v>135.1421591559</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -8931,10 +8934,10 @@
         <v>813</v>
       </c>
       <c r="C354">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D354" s="29">
-        <v>132.51320187499999</v>
+        <v>189.86966238799999</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -8945,10 +8948,10 @@
         <v>992</v>
       </c>
       <c r="C355">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D355" s="29">
-        <v>149.48997537810001</v>
+        <v>150.3693281745</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -8959,10 +8962,10 @@
         <v>815</v>
       </c>
       <c r="C356">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="D356" s="29">
-        <v>49.3858551087</v>
+        <v>67.966671882300005</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -8973,10 +8976,10 @@
         <v>817</v>
       </c>
       <c r="C357">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D357" s="29">
-        <v>68.4485601465</v>
+        <v>66.927481032100005</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -8987,10 +8990,10 @@
         <v>819</v>
       </c>
       <c r="C358">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D358" s="29">
-        <v>87.804663891100006</v>
+        <v>96.585130280200005</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -9001,10 +9004,10 @@
         <v>821</v>
       </c>
       <c r="C359">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D359" s="29">
-        <v>52.6665292757</v>
+        <v>64.879057803400002</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -9015,10 +9018,10 @@
         <v>823</v>
       </c>
       <c r="C360">
-        <v>440</v>
+        <v>358</v>
       </c>
       <c r="D360" s="29">
-        <v>98.166079157599995</v>
+        <v>79.871491678200002</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -9029,10 +9032,10 @@
         <v>825</v>
       </c>
       <c r="C361">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="D361" s="29">
-        <v>156.48889288609999</v>
+        <v>134.0048565518</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -9043,10 +9046,10 @@
         <v>827</v>
       </c>
       <c r="C362">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D362" s="29">
-        <v>79.047821884399994</v>
+        <v>85.601009190799999</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -9057,10 +9060,10 @@
         <v>829</v>
       </c>
       <c r="C363">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D363" s="29">
-        <v>119.26931849090001</v>
+        <v>112.9919859388</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -9071,10 +9074,10 @@
         <v>831</v>
       </c>
       <c r="C364">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="D364" s="29">
-        <v>161.19462025319999</v>
+        <v>134.49367088610001</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -9085,10 +9088,10 @@
         <v>833</v>
       </c>
       <c r="C365">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D365" s="29">
-        <v>107.0904576269</v>
+        <v>109.13476885919999</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -9099,10 +9102,10 @@
         <v>835</v>
       </c>
       <c r="C366">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D366" s="29">
-        <v>42.525854814900001</v>
+        <v>44.335465658099999</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -9113,10 +9116,10 @@
         <v>837</v>
       </c>
       <c r="C367">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D367" s="29">
-        <v>89.633136843399996</v>
+        <v>100.17821176619999</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -9127,10 +9130,10 @@
         <v>839</v>
       </c>
       <c r="C368">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D368" s="29">
-        <v>192.99247057540001</v>
+        <v>214.73810106280001</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -9141,10 +9144,10 @@
         <v>841</v>
       </c>
       <c r="C369">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D369" s="29">
-        <v>121.1786090343</v>
+        <v>128.2375571334</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -9169,10 +9172,10 @@
         <v>845</v>
       </c>
       <c r="C371">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D371" s="29">
-        <v>152.8319018267</v>
+        <v>149.44816968289999</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -9183,10 +9186,10 @@
         <v>847</v>
       </c>
       <c r="C372">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D372" s="29">
-        <v>40.348612007699998</v>
+        <v>45.7284269421</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -9197,10 +9200,10 @@
         <v>849</v>
       </c>
       <c r="C373">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D373" s="29">
-        <v>54.886946277699998</v>
+        <v>55.556299281100003</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -9211,10 +9214,10 @@
         <v>851</v>
       </c>
       <c r="C374">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D374" s="29">
-        <v>65.157120492600001</v>
+        <v>70.841969931500003</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -9225,10 +9228,10 @@
         <v>853</v>
       </c>
       <c r="C375">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="D375" s="29">
-        <v>117.2158049529</v>
+        <v>95.903840415999994</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -9253,10 +9256,10 @@
         <v>857</v>
       </c>
       <c r="C377">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D377" s="29">
-        <v>45.4599573542</v>
+        <v>47.624717228199998</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -9267,10 +9270,10 @@
         <v>859</v>
       </c>
       <c r="C378">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="D378" s="29">
-        <v>75.715750453499993</v>
+        <v>101.74303967189999</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -9281,10 +9284,10 @@
         <v>861</v>
       </c>
       <c r="C379">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="D379" s="29">
-        <v>84.327067469300005</v>
+        <v>94.709679379899995</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -9295,10 +9298,10 @@
         <v>863</v>
       </c>
       <c r="C380">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D380" s="29">
-        <v>100.75123249080001</v>
+        <v>101.7293997965</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -9309,10 +9312,10 @@
         <v>865</v>
       </c>
       <c r="C381">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="D381" s="29">
-        <v>176.8255344328</v>
+        <v>194.71449900580001</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -9323,10 +9326,10 @@
         <v>867</v>
       </c>
       <c r="C382">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D382" s="29">
-        <v>139.3420813086</v>
+        <v>129.5391208145</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -9337,10 +9340,10 @@
         <v>869</v>
       </c>
       <c r="C383">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D383" s="29">
-        <v>63.442059898099998</v>
+        <v>71.463469770200007</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -9351,10 +9354,10 @@
         <v>871</v>
       </c>
       <c r="C384">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="D384" s="29">
-        <v>87.665585903899995</v>
+        <v>76.623737297700004</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -9365,10 +9368,10 @@
         <v>873</v>
       </c>
       <c r="C385">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="D385" s="29">
-        <v>87.085751067299995</v>
+        <v>116.4298628399</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -9379,10 +9382,10 @@
         <v>875</v>
       </c>
       <c r="C386">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="D386" s="29">
-        <v>417.26217604660002</v>
+        <v>419.47459479550002</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -9393,10 +9396,10 @@
         <v>877</v>
       </c>
       <c r="C387">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="D387" s="29">
-        <v>106.9505099248</v>
+        <v>117.1362727747</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -9407,10 +9410,10 @@
         <v>879</v>
       </c>
       <c r="C388">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D388" s="29">
-        <v>54.294131783399997</v>
+        <v>62.304741390799997</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -9421,10 +9424,10 @@
         <v>881</v>
       </c>
       <c r="C389">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D389" s="29">
-        <v>95.636975233300006</v>
+        <v>98.9348019655</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -9435,10 +9438,10 @@
         <v>883</v>
       </c>
       <c r="C390">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D390" s="29">
-        <v>99.740419165500001</v>
+        <v>109.9702057466</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -9449,10 +9452,10 @@
         <v>885</v>
       </c>
       <c r="C391">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D391" s="29">
-        <v>108.18523651629999</v>
+        <v>118.12658257459999</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -9463,10 +9466,10 @@
         <v>887</v>
       </c>
       <c r="C392">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D392" s="29">
-        <v>78.102505038900006</v>
+        <v>82.061618197499996</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -9477,10 +9480,10 @@
         <v>889</v>
       </c>
       <c r="C393">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D393" s="29">
-        <v>385.7985778405</v>
+        <v>387.4796173954</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -9491,10 +9494,10 @@
         <v>891</v>
       </c>
       <c r="C394">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D394" s="29">
-        <v>147.39255550620001</v>
+        <v>159.09037737169999</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -9505,10 +9508,10 @@
         <v>893</v>
       </c>
       <c r="C395">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="D395" s="29">
-        <v>90.051521280200006</v>
+        <v>109.9809563176</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -9519,10 +9522,10 @@
         <v>895</v>
       </c>
       <c r="C396">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D396" s="29">
-        <v>68.988777825499994</v>
+        <v>84.319617342200004</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -9533,10 +9536,10 @@
         <v>897</v>
       </c>
       <c r="C397">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D397" s="29">
-        <v>137.54321047760001</v>
+        <v>147.28078290080001</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -9547,10 +9550,10 @@
         <v>899</v>
       </c>
       <c r="C398">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D398" s="29">
-        <v>135.115164566</v>
+        <v>137.22633901239999</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -9561,10 +9564,10 @@
         <v>901</v>
       </c>
       <c r="C399">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D399" s="29">
-        <v>109.3124248477</v>
+        <v>99.374931679699998</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -9575,10 +9578,10 @@
         <v>903</v>
       </c>
       <c r="C400">
-        <v>504</v>
+        <v>547</v>
       </c>
       <c r="D400" s="29">
-        <v>109.5709341357</v>
+        <v>118.91924796080001</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -9589,10 +9592,10 @@
         <v>905</v>
       </c>
       <c r="C401">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D401" s="29">
-        <v>132.07951864349999</v>
+        <v>116.27513179730001</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -9603,10 +9606,10 @@
         <v>907</v>
       </c>
       <c r="C402">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D402" s="29">
-        <v>111.4390997702</v>
+        <v>109.95324510659999</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -9617,10 +9620,10 @@
         <v>909</v>
       </c>
       <c r="C403">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D403" s="29">
-        <v>119.3491579074</v>
+        <v>117.4032477241</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -9631,10 +9634,10 @@
         <v>911</v>
       </c>
       <c r="C404">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="D404" s="29">
-        <v>81.156589124999996</v>
+        <v>86.902188355099995</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -9645,10 +9648,10 @@
         <v>913</v>
       </c>
       <c r="C405">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D405" s="29">
-        <v>55.198517525500002</v>
+        <v>60.455519194600001</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -9659,10 +9662,10 @@
         <v>915</v>
       </c>
       <c r="C406">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D406" s="29">
-        <v>150.45657167089999</v>
+        <v>149.6562707578</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -9673,10 +9676,10 @@
         <v>917</v>
       </c>
       <c r="C407">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D407" s="29">
-        <v>43.916663738899999</v>
+        <v>64.9966623336</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -9687,10 +9690,10 @@
         <v>919</v>
       </c>
       <c r="C408">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D408" s="29">
-        <v>67.713296885199995</v>
+        <v>72.729096654499997</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -9701,10 +9704,10 @@
         <v>921</v>
       </c>
       <c r="C409">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D409" s="29">
-        <v>73.168182293300006</v>
+        <v>73.972228252600004</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -9715,10 +9718,10 @@
         <v>923</v>
       </c>
       <c r="C410">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="D410" s="29">
-        <v>116.1092624069</v>
+        <v>150.82234085850001</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -9729,10 +9732,10 @@
         <v>925</v>
       </c>
       <c r="C411">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D411" s="29">
-        <v>213.3370036474</v>
+        <v>198.19695822720001</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -9743,10 +9746,10 @@
         <v>927</v>
       </c>
       <c r="C412">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="D412" s="29">
-        <v>144.46634750769999</v>
+        <v>162.7710504083</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -9757,10 +9760,10 @@
         <v>929</v>
       </c>
       <c r="C413">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D413" s="29">
-        <v>67.222161427000003</v>
+        <v>68.785467506700002</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -9771,10 +9774,10 @@
         <v>931</v>
       </c>
       <c r="C414">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D414" s="29">
-        <v>51.139234266999999</v>
+        <v>56.684452440500003</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -9785,10 +9788,10 @@
         <v>933</v>
       </c>
       <c r="C415">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D415" s="29">
-        <v>101.9206497573</v>
+        <v>108.2576849754</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -9813,10 +9816,10 @@
         <v>937</v>
       </c>
       <c r="C417">
-        <v>808</v>
+        <v>840</v>
       </c>
       <c r="D417" s="29">
-        <v>256.5063078965</v>
+        <v>266.66497355569999</v>
       </c>
     </row>
   </sheetData>
@@ -9833,7 +9836,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H403" sqref="H403"/>
+      <selection pane="bottomLeft" activeCell="H402" sqref="H402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9847,7 +9850,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -19013,7 +19016,7 @@
         <v>2052028</v>
       </c>
       <c r="D333" s="3">
-        <f t="shared" ref="D333:D398" si="175">B333-B332</f>
+        <f t="shared" ref="D333:D399" si="175">B333-B332</f>
         <v>11369</v>
       </c>
       <c r="E333" s="3">
@@ -20915,7 +20918,7 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="26" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B398" s="32">
         <v>2713180</v>
@@ -20931,21 +20934,47 @@
         <v>75440</v>
       </c>
       <c r="F398" s="3">
-        <f t="shared" ref="F398" si="285">E398-E397</f>
+        <f t="shared" ref="F398:F399" si="285">E398-E397</f>
         <v>228</v>
       </c>
       <c r="G398" s="4">
-        <f t="shared" ref="G398" si="286">E398/B398</f>
+        <f t="shared" ref="G398:G399" si="286">E398/B398</f>
         <v>2.7805011093993026E-2</v>
       </c>
       <c r="H398" s="3">
-        <f t="shared" ref="H398" si="287">B398-E398</f>
+        <f t="shared" ref="H398:H399" si="287">B398-E398</f>
         <v>2637740</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A399" s="26"/>
-      <c r="G399" s="4"/>
+      <c r="A399" s="26" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B399" s="32">
+        <v>2734753</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D399" s="3">
+        <f t="shared" si="175"/>
+        <v>21573</v>
+      </c>
+      <c r="E399" s="3">
+        <v>75623</v>
+      </c>
+      <c r="F399" s="3">
+        <f t="shared" si="285"/>
+        <v>183</v>
+      </c>
+      <c r="G399" s="4">
+        <f t="shared" si="286"/>
+        <v>2.7652588734704744E-2</v>
+      </c>
+      <c r="H399" s="3">
+        <f t="shared" si="287"/>
+        <v>2659130</v>
+      </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="26"/>
@@ -21403,7 +21432,7 @@
   <dimension ref="A2:LS20"/>
   <sheetViews>
     <sheetView topLeftCell="KV1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="LM4" sqref="LM4:LM20"/>
+      <selection activeCell="LN4" sqref="LN4:LN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21414,7 +21443,7 @@
   <sheetData>
     <row r="2" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="3" spans="1:331" x14ac:dyDescent="0.25">
@@ -23385,6 +23414,9 @@
       <c r="LM4" s="3">
         <v>12050</v>
       </c>
+      <c r="LN4" s="3">
+        <v>12793</v>
+      </c>
     </row>
     <row r="5" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -24362,6 +24394,9 @@
       <c r="LM5" s="3">
         <v>15027</v>
       </c>
+      <c r="LN5" s="3">
+        <v>16021</v>
+      </c>
     </row>
     <row r="6" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -25339,6 +25374,9 @@
       <c r="LM6" s="3">
         <v>4085</v>
       </c>
+      <c r="LN6" s="3">
+        <v>4323</v>
+      </c>
     </row>
     <row r="7" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -26316,6 +26354,9 @@
       <c r="LM7" s="3">
         <v>3239</v>
       </c>
+      <c r="LN7" s="3">
+        <v>3273</v>
+      </c>
     </row>
     <row r="8" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -27293,6 +27334,9 @@
       <c r="LM8" s="3">
         <v>762</v>
       </c>
+      <c r="LN8" s="3">
+        <v>794</v>
+      </c>
     </row>
     <row r="9" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -28270,6 +28314,9 @@
       <c r="LM9" s="3">
         <v>1818</v>
       </c>
+      <c r="LN9" s="3">
+        <v>2002</v>
+      </c>
     </row>
     <row r="10" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -29247,6 +29294,9 @@
       <c r="LM10" s="3">
         <v>7770</v>
       </c>
+      <c r="LN10" s="3">
+        <v>8155</v>
+      </c>
     </row>
     <row r="11" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -30224,6 +30274,9 @@
       <c r="LM11" s="3">
         <v>1358</v>
       </c>
+      <c r="LN11" s="3">
+        <v>1533</v>
+      </c>
     </row>
     <row r="12" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -31201,6 +31254,9 @@
       <c r="LM12" s="3">
         <v>7499</v>
       </c>
+      <c r="LN12" s="3">
+        <v>7840</v>
+      </c>
     </row>
     <row r="13" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -32178,6 +32234,9 @@
       <c r="LM13" s="3">
         <v>20345</v>
       </c>
+      <c r="LN13" s="3">
+        <v>21515</v>
+      </c>
     </row>
     <row r="14" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -33155,6 +33214,9 @@
       <c r="LM14" s="3">
         <v>3447</v>
       </c>
+      <c r="LN14" s="3">
+        <v>3836</v>
+      </c>
     </row>
     <row r="15" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -34132,6 +34194,9 @@
       <c r="LM15" s="3">
         <v>652</v>
       </c>
+      <c r="LN15" s="3">
+        <v>603</v>
+      </c>
     </row>
     <row r="16" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -35109,8 +35174,11 @@
       <c r="LM16" s="3">
         <v>6813</v>
       </c>
-    </row>
-    <row r="17" spans="1:325" x14ac:dyDescent="0.25">
+      <c r="LN16" s="3">
+        <v>6887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:326" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -36086,8 +36154,11 @@
       <c r="LM17" s="3">
         <v>2955</v>
       </c>
-    </row>
-    <row r="18" spans="1:325" x14ac:dyDescent="0.25">
+      <c r="LN17" s="3">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="18" spans="1:326" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -37063,8 +37134,11 @@
       <c r="LM18" s="3">
         <v>1736</v>
       </c>
-    </row>
-    <row r="19" spans="1:325" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="LN18" s="3">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:326" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -38040,8 +38114,11 @@
       <c r="LM19" s="3">
         <v>4696</v>
       </c>
-    </row>
-    <row r="20" spans="1:325" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="LN19" s="3">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:326" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -39016,6 +39093,9 @@
       </c>
       <c r="LM20" s="12">
         <v>94252</v>
+      </c>
+      <c r="LN20" s="12">
+        <v>99072</v>
       </c>
     </row>
   </sheetData>
@@ -39031,7 +39111,7 @@
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="KW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="LK29" sqref="LK29"/>
+      <selection pane="topRight" activeCell="LO30" sqref="LO30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39100,7 +39180,7 @@
   <sheetData>
     <row r="2" spans="1:332" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="3" spans="1:332" x14ac:dyDescent="0.25">
@@ -41074,7 +41154,9 @@
       <c r="LN4" s="16">
         <v>108.55470535550359</v>
       </c>
-      <c r="LO4" s="16"/>
+      <c r="LO4" s="16">
+        <v>115.24816146165622</v>
+      </c>
       <c r="LP4" s="16"/>
       <c r="LQ4" s="16"/>
       <c r="LR4" s="16"/>
@@ -42060,7 +42142,9 @@
       <c r="LN5" s="16">
         <v>114.49372280755036</v>
       </c>
-      <c r="LO5" s="16"/>
+      <c r="LO5" s="16">
+        <v>122.06720789909923</v>
+      </c>
       <c r="LP5" s="16"/>
       <c r="LQ5" s="16"/>
       <c r="LR5" s="16"/>
@@ -43046,7 +43130,9 @@
       <c r="LN6" s="16">
         <v>111.32334157516669</v>
       </c>
-      <c r="LO6" s="16"/>
+      <c r="LO6" s="16">
+        <v>117.80925474405032</v>
+      </c>
       <c r="LP6" s="16"/>
       <c r="LQ6" s="16"/>
       <c r="LR6" s="16"/>
@@ -44032,7 +44118,9 @@
       <c r="LN7" s="16">
         <v>128.43526668260708</v>
       </c>
-      <c r="LO7" s="16"/>
+      <c r="LO7" s="16">
+        <v>129.78346028162179</v>
+      </c>
       <c r="LP7" s="16"/>
       <c r="LQ7" s="16"/>
       <c r="LR7" s="16"/>
@@ -45018,7 +45106,9 @@
       <c r="LN8" s="16">
         <v>111.86109259808397</v>
       </c>
-      <c r="LO8" s="16"/>
+      <c r="LO8" s="16">
+        <v>116.55867128986704</v>
+      </c>
       <c r="LP8" s="16"/>
       <c r="LQ8" s="16"/>
       <c r="LR8" s="16"/>
@@ -46004,7 +46094,9 @@
       <c r="LN9" s="16">
         <v>98.416405332675055</v>
       </c>
-      <c r="LO9" s="16"/>
+      <c r="LO9" s="16">
+        <v>108.37714162597111</v>
+      </c>
       <c r="LP9" s="16"/>
       <c r="LQ9" s="16"/>
       <c r="LR9" s="16"/>
@@ -46990,7 +47082,9 @@
       <c r="LN10" s="16">
         <v>123.56713018918335</v>
       </c>
-      <c r="LO10" s="16"/>
+      <c r="LO10" s="16">
+        <v>129.68982582918792</v>
+      </c>
       <c r="LP10" s="16"/>
       <c r="LQ10" s="16"/>
       <c r="LR10" s="16"/>
@@ -47976,7 +48070,9 @@
       <c r="LN11" s="16">
         <v>84.445489130907916</v>
       </c>
-      <c r="LO11" s="16"/>
+      <c r="LO11" s="16">
+        <v>95.327639792107391</v>
+      </c>
       <c r="LP11" s="16"/>
       <c r="LQ11" s="16"/>
       <c r="LR11" s="16"/>
@@ -48962,7 +49058,9 @@
       <c r="LN12" s="16">
         <v>93.812456152465813</v>
       </c>
-      <c r="LO12" s="16"/>
+      <c r="LO12" s="16">
+        <v>98.078364613326045</v>
+      </c>
       <c r="LP12" s="16"/>
       <c r="LQ12" s="16"/>
       <c r="LR12" s="16"/>
@@ -49948,7 +50046,9 @@
       <c r="LN13" s="16">
         <v>113.36016868572578</v>
       </c>
-      <c r="LO13" s="16"/>
+      <c r="LO13" s="16">
+        <v>119.87928381781224</v>
+      </c>
       <c r="LP13" s="16"/>
       <c r="LQ13" s="16"/>
       <c r="LR13" s="16"/>
@@ -50934,7 +51034,9 @@
       <c r="LN14" s="16">
         <v>84.198379883451068</v>
       </c>
-      <c r="LO14" s="16"/>
+      <c r="LO14" s="16">
+        <v>93.700314834034913</v>
+      </c>
       <c r="LP14" s="16"/>
       <c r="LQ14" s="16"/>
       <c r="LR14" s="16"/>
@@ -51920,7 +52022,9 @@
       <c r="LN15" s="16">
         <v>66.066327755862631</v>
       </c>
-      <c r="LO15" s="16"/>
+      <c r="LO15" s="16">
+        <v>61.101220301817733</v>
+      </c>
       <c r="LP15" s="16"/>
       <c r="LQ15" s="16"/>
       <c r="LR15" s="16"/>
@@ -52906,7 +53010,9 @@
       <c r="LN16" s="16">
         <v>167.31455111050644</v>
       </c>
-      <c r="LO16" s="16"/>
+      <c r="LO16" s="16">
+        <v>169.13185285455128</v>
+      </c>
       <c r="LP16" s="16"/>
       <c r="LQ16" s="16"/>
       <c r="LR16" s="16"/>
@@ -53892,7 +53998,9 @@
       <c r="LN17" s="16">
         <v>134.63751753021484</v>
       </c>
-      <c r="LO17" s="16"/>
+      <c r="LO17" s="16">
+        <v>134.81976797695626</v>
+      </c>
       <c r="LP17" s="16"/>
       <c r="LQ17" s="16"/>
       <c r="LR17" s="16"/>
@@ -54878,7 +54986,9 @@
       <c r="LN18" s="16">
         <v>59.78428754589288</v>
       </c>
-      <c r="LO18" s="16"/>
+      <c r="LO18" s="16">
+        <v>62.436009977363938</v>
+      </c>
       <c r="LP18" s="16"/>
       <c r="LQ18" s="16"/>
       <c r="LR18" s="16"/>
@@ -55864,7 +55974,9 @@
       <c r="LN19" s="16">
         <v>220.12039122930861</v>
       </c>
-      <c r="LO19" s="16"/>
+      <c r="LO19" s="16">
+        <v>221.47973776799049</v>
+      </c>
       <c r="LP19" s="16"/>
       <c r="LQ19" s="16"/>
       <c r="LR19" s="16"/>
@@ -56850,7 +56962,9 @@
       <c r="LN20" s="17">
         <v>113.32899770438198</v>
       </c>
-      <c r="LO20" s="17"/>
+      <c r="LO20" s="17">
+        <v>119.12458579731498</v>
+      </c>
       <c r="LP20" s="17"/>
       <c r="LQ20" s="17"/>
       <c r="LR20" s="17"/>

--- a/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
+++ b/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D234ADA-99E7-44D3-BFB3-6E8E5B988F66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1853529-5FFC-47DB-9C3E-873FAD809837}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="165" windowWidth="15285" windowHeight="10800" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="1043">
   <si>
     <t>Todesfälle</t>
   </si>
@@ -3159,10 +3159,19 @@
     <t>25.03.2021</t>
   </si>
   <si>
-    <t>Stand: 26.03.2021 06:21:55</t>
-  </si>
-  <si>
     <t>26.03.2021</t>
+  </si>
+  <si>
+    <t>27.03.2021</t>
+  </si>
+  <si>
+    <t>28.03.2021</t>
+  </si>
+  <si>
+    <t>Stand: 29.03.2021 06:18:42</t>
+  </si>
+  <si>
+    <t>29.03.2021</t>
   </si>
 </sst>
 </file>
@@ -3750,7 +3759,7 @@
   <dimension ref="A2:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D28" sqref="D27:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3766,7 +3775,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3785,10 +3794,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>12793</v>
+        <v>14145</v>
       </c>
       <c r="C6" s="29">
-        <v>115.24816146165622</v>
+        <v>127.42790931565132</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3796,10 +3805,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>16021</v>
+        <v>18157</v>
       </c>
       <c r="C7" s="29">
-        <v>122.06720789909923</v>
+        <v>138.34181972560668</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3807,10 +3816,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>4323</v>
+        <v>5362</v>
       </c>
       <c r="C8" s="29">
-        <v>117.80925474405032</v>
+        <v>146.12380845190791</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3818,10 +3827,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>3273</v>
+        <v>3566</v>
       </c>
       <c r="C9" s="29">
-        <v>129.78346028162179</v>
+        <v>141.40171688489559</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3829,10 +3838,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>794</v>
+        <v>927</v>
       </c>
       <c r="C10" s="29">
-        <v>116.55867128986704</v>
+        <v>136.08298272759035</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3840,10 +3849,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>2002</v>
+        <v>2533</v>
       </c>
       <c r="C11" s="29">
-        <v>108.37714162597111</v>
+        <v>137.12252734195044</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3851,10 +3860,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>8155</v>
+        <v>8723</v>
       </c>
       <c r="C12" s="29">
-        <v>129.68982582918792</v>
+        <v>138.72278978638948</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3862,10 +3871,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1533</v>
+        <v>1716</v>
       </c>
       <c r="C13" s="29">
-        <v>95.327639792107391</v>
+        <v>106.70726019781885</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3873,10 +3882,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>7840</v>
+        <v>9417</v>
       </c>
       <c r="C14" s="29">
-        <v>98.078364613326045</v>
+        <v>117.8066274953688</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3884,10 +3893,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>21515</v>
+        <v>23265</v>
       </c>
       <c r="C15" s="29">
-        <v>119.87928381781224</v>
+        <v>129.63009704956551</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3895,10 +3904,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>3836</v>
+        <v>4341</v>
       </c>
       <c r="C16" s="29">
-        <v>93.700314834034913</v>
+        <v>106.03573167219642</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3906,10 +3915,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>603</v>
+        <v>779</v>
       </c>
       <c r="C17" s="29">
-        <v>61.101220301817733</v>
+        <v>78.935075646958566</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3917,10 +3926,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>6887</v>
+        <v>8161</v>
       </c>
       <c r="C18" s="29">
-        <v>169.13185285455128</v>
+        <v>200.41891261013402</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3928,10 +3937,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>2959</v>
+        <v>3670</v>
       </c>
       <c r="C19" s="29">
-        <v>134.81976797695626</v>
+        <v>167.21478488524144</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3939,10 +3948,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>1813</v>
+        <v>1991</v>
       </c>
       <c r="C20" s="29">
-        <v>62.436009977363938</v>
+        <v>68.565965728037284</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3950,10 +3959,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>4725</v>
+        <v>5016</v>
       </c>
       <c r="C21" s="29">
-        <v>221.47973776799049</v>
+        <v>235.12007717338417</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3962,11 +3971,11 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B6:B21)</f>
-        <v>99072</v>
+        <v>111769</v>
       </c>
       <c r="C22" s="30">
         <f>B22/A36*100000</f>
-        <v>119.12458579731498</v>
+        <v>134.39151152676939</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3988,10 +3997,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B31">
-        <v>2734753</v>
+        <v>2782273</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -4000,7 +4009,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>75623</v>
+        <v>75913</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -4037,7 +4046,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4062,10 +4071,10 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>568</v>
+        <v>593</v>
       </c>
       <c r="D6" s="29">
-        <v>101.9701055247</v>
+        <v>106.4582263665</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4076,10 +4085,10 @@
         <v>120</v>
       </c>
       <c r="C7">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D7" s="29">
-        <v>79.178389680699993</v>
+        <v>75.3347785311</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4090,10 +4099,10 @@
         <v>122</v>
       </c>
       <c r="C8">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D8" s="29">
-        <v>94.315101555799998</v>
+        <v>100.9988489102</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4104,10 +4113,10 @@
         <v>124</v>
       </c>
       <c r="C9">
-        <v>195</v>
+        <v>252</v>
       </c>
       <c r="D9" s="29">
-        <v>98.946599281499999</v>
+        <v>127.8694513792</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4118,10 +4127,10 @@
         <v>126</v>
       </c>
       <c r="C10">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="D10" s="29">
-        <v>201.35804816929999</v>
+        <v>242.74831362629999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4132,10 +4141,10 @@
         <v>128</v>
       </c>
       <c r="C11">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="D11" s="29">
-        <v>214.27739606380001</v>
+        <v>222.81743721129999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4146,10 +4155,10 @@
         <v>130</v>
       </c>
       <c r="C12">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D12" s="29">
-        <v>50.497156529199998</v>
+        <v>61.317975785400002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4160,10 +4169,10 @@
         <v>132</v>
       </c>
       <c r="C13">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D13" s="29">
-        <v>123.7490584311</v>
+        <v>128.2327199684</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4174,10 +4183,10 @@
         <v>134</v>
       </c>
       <c r="C14">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="D14" s="29">
-        <v>132.6270173572</v>
+        <v>154.21746204319999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4188,10 +4197,10 @@
         <v>136</v>
       </c>
       <c r="C15">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D15" s="29">
-        <v>165.8492667093</v>
+        <v>177.69564290279999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4202,10 +4211,10 @@
         <v>138</v>
       </c>
       <c r="C16">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="D16" s="29">
-        <v>210.57943308520001</v>
+        <v>256.1888033848</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4216,10 +4225,10 @@
         <v>140</v>
       </c>
       <c r="C17">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D17" s="29">
-        <v>92.904796610600002</v>
+        <v>105.7192513155</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4230,10 +4239,10 @@
         <v>142</v>
       </c>
       <c r="C18">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D18" s="29">
-        <v>74.454525951799994</v>
+        <v>78.240349305300001</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4244,10 +4253,10 @@
         <v>144</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D19" s="29">
-        <v>38.279343509299999</v>
+        <v>50.241638355900001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4258,10 +4267,10 @@
         <v>146</v>
       </c>
       <c r="C20">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="D20" s="29">
-        <v>141.39367574799999</v>
+        <v>170.10580147460001</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4272,10 +4281,10 @@
         <v>148</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D21" s="29">
-        <v>56.336441227000002</v>
+        <v>69.012140503099999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4286,10 +4295,10 @@
         <v>150</v>
       </c>
       <c r="C22">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="D22" s="29">
-        <v>97.588978186000006</v>
+        <v>115.3846153846</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4300,10 +4309,10 @@
         <v>152</v>
       </c>
       <c r="C23">
-        <v>379</v>
+        <v>487</v>
       </c>
       <c r="D23" s="29">
-        <v>127.7892791875</v>
+        <v>164.2041661328</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4314,10 +4323,10 @@
         <v>154</v>
       </c>
       <c r="C24">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="D24" s="29">
-        <v>97.053671469400001</v>
+        <v>111.6511749018</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4328,10 +4337,10 @@
         <v>156</v>
       </c>
       <c r="C25">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D25" s="29">
-        <v>66.949929887099998</v>
+        <v>73.803072316500007</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4342,10 +4351,10 @@
         <v>158</v>
       </c>
       <c r="C26">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="D26" s="29">
-        <v>79.143143565700001</v>
+        <v>96.479260727699995</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4356,10 +4365,10 @@
         <v>160</v>
       </c>
       <c r="C27">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D27" s="29">
-        <v>100.7410277522</v>
+        <v>88.148399283200007</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4370,10 +4379,10 @@
         <v>162</v>
       </c>
       <c r="C28">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D28" s="29">
-        <v>82.099213742100005</v>
+        <v>94.729862010199994</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4384,10 +4393,10 @@
         <v>164</v>
       </c>
       <c r="C29">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D29" s="29">
-        <v>78.1756920503</v>
+        <v>92.247316619399996</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4398,10 +4407,10 @@
         <v>166</v>
       </c>
       <c r="C30">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D30" s="29">
-        <v>143.1548428015</v>
+        <v>132.28232309500001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4412,10 +4421,10 @@
         <v>168</v>
       </c>
       <c r="C31">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="D31" s="29">
-        <v>99.517919687700001</v>
+        <v>136.99869463510001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4426,10 +4435,10 @@
         <v>170</v>
       </c>
       <c r="C32">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D32" s="29">
-        <v>69.310900158300001</v>
+        <v>86.298865883399998</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4440,10 +4449,10 @@
         <v>172</v>
       </c>
       <c r="C33">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="D33" s="29">
-        <v>100.9479389346</v>
+        <v>113.36399559500001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4454,10 +4463,10 @@
         <v>174</v>
       </c>
       <c r="C34">
-        <v>377</v>
+        <v>556</v>
       </c>
       <c r="D34" s="29">
-        <v>125.7681196165</v>
+        <v>185.4829562514</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4468,10 +4477,10 @@
         <v>176</v>
       </c>
       <c r="C35">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D35" s="29">
-        <v>185.8711204418</v>
+        <v>175.17350199910001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4482,10 +4491,10 @@
         <v>178</v>
       </c>
       <c r="C36">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D36" s="29">
-        <v>150.4861861398</v>
+        <v>167.8499768483</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4496,10 +4505,10 @@
         <v>180</v>
       </c>
       <c r="C37">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D37" s="29">
-        <v>84.962569268099998</v>
+        <v>87.794654910399998</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4510,10 +4519,10 @@
         <v>182</v>
       </c>
       <c r="C38">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="D38" s="29">
-        <v>98.024709624899998</v>
+        <v>108.751941999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4524,10 +4533,10 @@
         <v>184</v>
       </c>
       <c r="C39">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="D39" s="29">
-        <v>104.6647587776</v>
+        <v>114.2341081516</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4538,10 +4547,10 @@
         <v>186</v>
       </c>
       <c r="C40">
-        <v>278</v>
+        <v>359</v>
       </c>
       <c r="D40" s="29">
-        <v>98.560939377899999</v>
+        <v>127.2783353837</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4552,10 +4561,10 @@
         <v>188</v>
       </c>
       <c r="C41">
-        <v>325</v>
+        <v>467</v>
       </c>
       <c r="D41" s="29">
-        <v>113.4293352692</v>
+        <v>162.98922944829999</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4566,10 +4575,10 @@
         <v>190</v>
       </c>
       <c r="C42">
-        <v>381</v>
+        <v>510</v>
       </c>
       <c r="D42" s="29">
-        <v>144.88509965130001</v>
+        <v>193.94068457259999</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4580,10 +4589,10 @@
         <v>192</v>
       </c>
       <c r="C43">
-        <v>557</v>
+        <v>645</v>
       </c>
       <c r="D43" s="29">
-        <v>148.4391239693</v>
+        <v>171.89090657130001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4594,10 +4603,10 @@
         <v>194</v>
       </c>
       <c r="C44">
-        <v>487</v>
+        <v>681</v>
       </c>
       <c r="D44" s="29">
-        <v>151.6552847351</v>
+        <v>212.06827290480001</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4608,10 +4617,10 @@
         <v>196</v>
       </c>
       <c r="C45">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D45" s="29">
-        <v>108.0304294084</v>
+        <v>107.52796229489999</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4622,10 +4631,10 @@
         <v>198</v>
       </c>
       <c r="C46">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="D46" s="29">
-        <v>100.1197586344</v>
+        <v>108.5914305188</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4636,10 +4645,10 @@
         <v>200</v>
       </c>
       <c r="C47">
-        <v>292</v>
+        <v>400</v>
       </c>
       <c r="D47" s="29">
-        <v>122.1660202745</v>
+        <v>167.3507127048</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4650,10 +4659,10 @@
         <v>202</v>
       </c>
       <c r="C48">
-        <v>304</v>
+        <v>410</v>
       </c>
       <c r="D48" s="29">
-        <v>100.6032888009</v>
+        <v>135.6820671328</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4664,10 +4673,10 @@
         <v>204</v>
       </c>
       <c r="C49">
-        <v>356</v>
+        <v>439</v>
       </c>
       <c r="D49" s="29">
-        <v>104.1630092576</v>
+        <v>128.44820523620001</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4678,10 +4687,10 @@
         <v>206</v>
       </c>
       <c r="C50">
-        <v>303</v>
+        <v>359</v>
       </c>
       <c r="D50" s="29">
-        <v>113.70117979050001</v>
+        <v>134.7152592237</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4692,10 +4701,10 @@
         <v>208</v>
       </c>
       <c r="C51">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D51" s="29">
-        <v>27.559720135500001</v>
+        <v>23.114603984599999</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4706,10 +4715,10 @@
         <v>210</v>
       </c>
       <c r="C52">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="D52" s="29">
-        <v>132.1528999116</v>
+        <v>163.45227094329999</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -4720,10 +4729,10 @@
         <v>212</v>
       </c>
       <c r="C53">
-        <v>296</v>
+        <v>410</v>
       </c>
       <c r="D53" s="29">
-        <v>88.571043851599995</v>
+        <v>122.68286479450001</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4734,10 +4743,10 @@
         <v>214</v>
       </c>
       <c r="C54">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="D54" s="29">
-        <v>82.766117774999998</v>
+        <v>138.35530135510001</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4748,10 +4757,10 @@
         <v>216</v>
       </c>
       <c r="C55">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D55" s="29">
-        <v>82.779785580199999</v>
+        <v>92.874881382599995</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4762,10 +4771,10 @@
         <v>218</v>
       </c>
       <c r="C56">
-        <v>239</v>
+        <v>314</v>
       </c>
       <c r="D56" s="29">
-        <v>60.844129559800002</v>
+        <v>79.937475656000004</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4776,10 +4785,10 @@
         <v>220</v>
       </c>
       <c r="C57">
-        <v>457</v>
+        <v>545</v>
       </c>
       <c r="D57" s="29">
-        <v>125.0044449064</v>
+        <v>149.07532270019999</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4790,10 +4799,10 @@
         <v>222</v>
       </c>
       <c r="C58">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="D58" s="29">
-        <v>91.5068745114</v>
+        <v>110.36004966199999</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4804,10 +4813,10 @@
         <v>224</v>
       </c>
       <c r="C59">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="D59" s="29">
-        <v>95.245895174899999</v>
+        <v>110.4124389926</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4818,10 +4827,10 @@
         <v>226</v>
       </c>
       <c r="C60">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="D60" s="29">
-        <v>90.0990504496</v>
+        <v>129.88304675200001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4832,10 +4841,10 @@
         <v>228</v>
       </c>
       <c r="C61">
-        <v>525</v>
+        <v>552</v>
       </c>
       <c r="D61" s="29">
-        <v>141.38024823680001</v>
+        <v>148.6512324318</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4846,10 +4855,10 @@
         <v>230</v>
       </c>
       <c r="C62">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="D62" s="29">
-        <v>98.668821503000004</v>
+        <v>130.99136647809999</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4860,10 +4869,10 @@
         <v>232</v>
       </c>
       <c r="C63">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D63" s="29">
-        <v>91.433004543899997</v>
+        <v>119.13997561790001</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4874,10 +4883,10 @@
         <v>234</v>
       </c>
       <c r="C64">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="D64" s="29">
-        <v>105.45055050800001</v>
+        <v>114.2715091056</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4888,10 +4897,10 @@
         <v>236</v>
       </c>
       <c r="C65">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="D65" s="29">
-        <v>73.975440153899996</v>
+        <v>88.011805721499996</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4902,10 +4911,10 @@
         <v>238</v>
       </c>
       <c r="C66">
-        <v>596</v>
+        <v>647</v>
       </c>
       <c r="D66" s="29">
-        <v>105.0111089772</v>
+        <v>113.9969589065</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4916,10 +4925,10 @@
         <v>240</v>
       </c>
       <c r="C67">
-        <v>198</v>
+        <v>280</v>
       </c>
       <c r="D67" s="29">
-        <v>174.22982497820001</v>
+        <v>246.38561108030001</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4930,10 +4939,10 @@
         <v>242</v>
       </c>
       <c r="C68">
-        <v>384</v>
+        <v>544</v>
       </c>
       <c r="D68" s="29">
-        <v>214.70986211600001</v>
+        <v>304.17230466429999</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4944,10 +4953,10 @@
         <v>244</v>
       </c>
       <c r="C69">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D69" s="29">
-        <v>82.914052047400006</v>
+        <v>87.939146110899998</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4958,10 +4967,10 @@
         <v>246</v>
       </c>
       <c r="C70">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="D70" s="29">
-        <v>118.4284764623</v>
+        <v>149.71147024480001</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4972,10 +4981,10 @@
         <v>248</v>
       </c>
       <c r="C71">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="D71" s="29">
-        <v>296.87963874439998</v>
+        <v>331.25517586209997</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4986,10 +4995,10 @@
         <v>250</v>
       </c>
       <c r="C72">
-        <v>547</v>
+        <v>734</v>
       </c>
       <c r="D72" s="29">
-        <v>222.05623259480001</v>
+        <v>297.9694236281</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -5000,10 +5009,10 @@
         <v>252</v>
       </c>
       <c r="C73">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="D73" s="29">
-        <v>206.23147139119999</v>
+        <v>194.5137741531</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -5014,10 +5023,10 @@
         <v>254</v>
       </c>
       <c r="C74">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D74" s="29">
-        <v>60.8687183483</v>
+        <v>82.781456953599999</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -5028,10 +5037,10 @@
         <v>256</v>
       </c>
       <c r="C75">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D75" s="29">
-        <v>69.166657060199995</v>
+        <v>78.388878001500004</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -5042,10 +5051,10 @@
         <v>258</v>
       </c>
       <c r="C76">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D76" s="29">
-        <v>39.103869653799997</v>
+        <v>68.431771894099995</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -5056,10 +5065,10 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="D77" s="29">
-        <v>47.6004823516</v>
+        <v>75.2540959082</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -5070,10 +5079,10 @@
         <v>262</v>
       </c>
       <c r="C78">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D78" s="29">
-        <v>161.5200947049</v>
+        <v>150.48456028410001</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -5084,10 +5093,10 @@
         <v>264</v>
       </c>
       <c r="C79">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="D79" s="29">
-        <v>92.911461436699994</v>
+        <v>65.139013724600005</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -5098,10 +5107,10 @@
         <v>266</v>
       </c>
       <c r="C80">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D80" s="29">
-        <v>179.47178484040001</v>
+        <v>182.6996946397</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -5112,10 +5121,10 @@
         <v>268</v>
       </c>
       <c r="C81">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="D81" s="29">
-        <v>94.267262326500003</v>
+        <v>105.39197030290001</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -5126,10 +5135,10 @@
         <v>270</v>
       </c>
       <c r="C82">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="D82" s="29">
-        <v>80.061046547999993</v>
+        <v>99.450831258799994</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -5140,10 +5149,10 @@
         <v>272</v>
       </c>
       <c r="C83">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="D83" s="29">
-        <v>119.8614039564</v>
+        <v>115.16095674250001</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -5154,10 +5163,10 @@
         <v>274</v>
       </c>
       <c r="C84">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="D84" s="29">
-        <v>171.57970505029999</v>
+        <v>215.93933611209999</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -5168,10 +5177,10 @@
         <v>276</v>
       </c>
       <c r="C85">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="D85" s="29">
-        <v>90.253871246399996</v>
+        <v>131.5127838162</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -5182,10 +5191,10 @@
         <v>278</v>
       </c>
       <c r="C86">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D86" s="29">
-        <v>111.1069498021</v>
+        <v>139.81998177349999</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -5196,10 +5205,10 @@
         <v>280</v>
       </c>
       <c r="C87">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="D87" s="29">
-        <v>59.4226331136</v>
+        <v>70.938647282900007</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -5210,10 +5219,10 @@
         <v>282</v>
       </c>
       <c r="C88">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D88" s="29">
-        <v>67.3142644104</v>
+        <v>91.133157971000003</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -5224,10 +5233,10 @@
         <v>284</v>
       </c>
       <c r="C89">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D89" s="29">
-        <v>130.32280752560001</v>
+        <v>161.35204741269999</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -5238,10 +5247,10 @@
         <v>286</v>
       </c>
       <c r="C90">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D90" s="29">
-        <v>44.296622194900003</v>
+        <v>40.542671161400001</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -5252,10 +5261,10 @@
         <v>288</v>
       </c>
       <c r="C91">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="D91" s="29">
-        <v>193.5970938012</v>
+        <v>180.1424695215</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -5266,10 +5275,10 @@
         <v>290</v>
       </c>
       <c r="C92">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D92" s="29">
-        <v>71.689346166600004</v>
+        <v>92.9306339197</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5280,10 +5289,10 @@
         <v>292</v>
       </c>
       <c r="C93">
-        <v>689</v>
+        <v>754</v>
       </c>
       <c r="D93" s="29">
-        <v>117.1270718232</v>
+        <v>128.17679558009999</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -5294,10 +5303,10 @@
         <v>294</v>
       </c>
       <c r="C94">
-        <v>601</v>
+        <v>766</v>
       </c>
       <c r="D94" s="29">
-        <v>107.9420956213</v>
+        <v>137.57678077520001</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -5308,10 +5317,10 @@
         <v>296</v>
       </c>
       <c r="C95">
-        <v>756</v>
+        <v>798</v>
       </c>
       <c r="D95" s="29">
-        <v>151.59840059679999</v>
+        <v>160.02053396330001</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -5322,10 +5331,10 @@
         <v>298</v>
       </c>
       <c r="C96">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="D96" s="29">
-        <v>162.48611310539999</v>
+        <v>172.68872950970001</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -5336,10 +5345,10 @@
         <v>300</v>
       </c>
       <c r="C97">
-        <v>570</v>
+        <v>605</v>
       </c>
       <c r="D97" s="29">
-        <v>91.6579966778</v>
+        <v>97.286119280799994</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -5350,10 +5359,10 @@
         <v>302</v>
       </c>
       <c r="C98">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D98" s="29">
-        <v>79.360106927299995</v>
+        <v>81.448530793800003</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -5364,10 +5373,10 @@
         <v>304</v>
       </c>
       <c r="C99">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="D99" s="29">
-        <v>208.98746075240001</v>
+        <v>186.98878067320001</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -5378,10 +5387,10 @@
         <v>306</v>
       </c>
       <c r="C100">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="D100" s="29">
-        <v>146.74784205419999</v>
+        <v>161.79890277769999</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5392,10 +5401,10 @@
         <v>308</v>
       </c>
       <c r="C101">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D101" s="29">
-        <v>262.72189349109999</v>
+        <v>260.35502958580003</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -5406,10 +5415,10 @@
         <v>310</v>
       </c>
       <c r="C102">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="D102" s="29">
-        <v>256.31708682369998</v>
+        <v>269.08383827469999</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5420,10 +5429,10 @@
         <v>312</v>
       </c>
       <c r="C103">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D103" s="29">
-        <v>78.135956564400004</v>
+        <v>130.22659427400001</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -5434,10 +5443,10 @@
         <v>314</v>
       </c>
       <c r="C104">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="D104" s="29">
-        <v>87.135233882999998</v>
+        <v>105.76414595449999</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -5448,10 +5457,10 @@
         <v>316</v>
       </c>
       <c r="C105">
-        <v>579</v>
+        <v>715</v>
       </c>
       <c r="D105" s="29">
-        <v>177.0891318045</v>
+        <v>218.68519730599999</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5462,10 +5471,10 @@
         <v>318</v>
       </c>
       <c r="C106">
-        <v>370</v>
+        <v>430</v>
       </c>
       <c r="D106" s="29">
-        <v>114.16018216259999</v>
+        <v>132.6726441349</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -5476,10 +5485,10 @@
         <v>320</v>
       </c>
       <c r="C107">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="D107" s="29">
-        <v>83.685782437</v>
+        <v>67.149070937499999</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5490,10 +5499,10 @@
         <v>322</v>
       </c>
       <c r="C108">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D108" s="29">
-        <v>89.013040772300002</v>
+        <v>91.907773805600002</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5504,10 +5513,10 @@
         <v>324</v>
       </c>
       <c r="C109">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="D109" s="29">
-        <v>123.37543987550001</v>
+        <v>146.27466924629999</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -5518,10 +5527,10 @@
         <v>326</v>
       </c>
       <c r="C110">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D110" s="29">
-        <v>83.534764680799995</v>
+        <v>84.423432390200006</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -5532,10 +5541,10 @@
         <v>328</v>
       </c>
       <c r="C111">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D111" s="29">
-        <v>132.59314304029999</v>
+        <v>121.6651367458</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5546,10 +5555,10 @@
         <v>330</v>
       </c>
       <c r="C112">
-        <v>747</v>
+        <v>868</v>
       </c>
       <c r="D112" s="29">
-        <v>223.019692609</v>
+        <v>259.14470305840001</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5560,10 +5569,10 @@
         <v>332</v>
       </c>
       <c r="C113">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="D113" s="29">
-        <v>119.26007275720001</v>
+        <v>124.4079895669</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5574,10 +5583,10 @@
         <v>334</v>
       </c>
       <c r="C114">
-        <v>672</v>
+        <v>733</v>
       </c>
       <c r="D114" s="29">
-        <v>125.6018421604</v>
+        <v>137.0031998565</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5588,10 +5597,10 @@
         <v>336</v>
       </c>
       <c r="C115">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D115" s="29">
-        <v>132.70954682530001</v>
+        <v>140.4552402198</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -5602,10 +5611,10 @@
         <v>338</v>
       </c>
       <c r="C116">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D116" s="29">
-        <v>100.9271993257</v>
+        <v>97.599929018200001</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -5616,10 +5625,10 @@
         <v>340</v>
       </c>
       <c r="C117">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="D117" s="29">
-        <v>86.9168610105</v>
+        <v>117.8971283013</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -5630,10 +5639,10 @@
         <v>342</v>
       </c>
       <c r="C118">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D118" s="29">
-        <v>108.69119396249999</v>
+        <v>84.081867027599998</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -5644,10 +5653,10 @@
         <v>344</v>
       </c>
       <c r="C119">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D119" s="29">
-        <v>140.25731156169999</v>
+        <v>178.35189001059999</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -5658,10 +5667,10 @@
         <v>346</v>
       </c>
       <c r="C120">
-        <v>971</v>
+        <v>1054</v>
       </c>
       <c r="D120" s="29">
-        <v>127.19746391050001</v>
+        <v>138.07016164949999</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -5672,10 +5681,10 @@
         <v>348</v>
       </c>
       <c r="C121">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D121" s="29">
-        <v>77.423819719299999</v>
+        <v>82.614243387599998</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -5686,10 +5695,10 @@
         <v>350</v>
       </c>
       <c r="C122">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D122" s="29">
-        <v>121.1064014177</v>
+        <v>127.2172748838</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -5700,10 +5709,10 @@
         <v>352</v>
       </c>
       <c r="C123">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="D123" s="29">
-        <v>92.183046776599994</v>
+        <v>121.7831076681</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -5714,10 +5723,10 @@
         <v>354</v>
       </c>
       <c r="C124">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D124" s="29">
-        <v>119.95610117149999</v>
+        <v>139.09803220949999</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -5728,10 +5737,10 @@
         <v>356</v>
       </c>
       <c r="C125">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D125" s="29">
-        <v>51.669638515199999</v>
+        <v>56.735289350000002</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -5742,10 +5751,10 @@
         <v>358</v>
       </c>
       <c r="C126">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="D126" s="29">
-        <v>178.8075018486</v>
+        <v>194.9405095342</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -5756,10 +5765,10 @@
         <v>360</v>
       </c>
       <c r="C127">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="D127" s="29">
-        <v>87.090934791199999</v>
+        <v>108.065714898</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -5770,10 +5779,10 @@
         <v>362</v>
       </c>
       <c r="C128">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D128" s="29">
-        <v>143.1940045293</v>
+        <v>152.53274395509999</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -5784,10 +5793,10 @@
         <v>364</v>
       </c>
       <c r="C129">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D129" s="29">
-        <v>104.3673050325</v>
+        <v>96.730672956999996</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -5798,10 +5807,10 @@
         <v>366</v>
       </c>
       <c r="C130">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D130" s="29">
-        <v>122.13878585</v>
+        <v>104.0441509093</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -5812,10 +5821,10 @@
         <v>368</v>
       </c>
       <c r="C131">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="D131" s="29">
-        <v>139.80627395100001</v>
+        <v>147.1239577115</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -5826,10 +5835,10 @@
         <v>370</v>
       </c>
       <c r="C132">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="D132" s="29">
-        <v>366.17449664430001</v>
+        <v>339.32885906040002</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -5840,10 +5849,10 @@
         <v>372</v>
       </c>
       <c r="C133">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="D133" s="29">
-        <v>140.29593916889999</v>
+        <v>161.22406269140001</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -5854,10 +5863,10 @@
         <v>374</v>
       </c>
       <c r="C134">
-        <v>360</v>
+        <v>422</v>
       </c>
       <c r="D134" s="29">
-        <v>132.99444378769999</v>
+        <v>155.89904243999999</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5868,10 +5877,10 @@
         <v>376</v>
       </c>
       <c r="C135">
-        <v>182</v>
+        <v>319</v>
       </c>
       <c r="D135" s="29">
-        <v>103.1027118279</v>
+        <v>180.7129949072</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5882,10 +5891,10 @@
         <v>378</v>
       </c>
       <c r="C136">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D136" s="29">
-        <v>111.9525847876</v>
+        <v>115.4389974627</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5896,10 +5905,10 @@
         <v>380</v>
       </c>
       <c r="C137">
-        <v>419</v>
+        <v>529</v>
       </c>
       <c r="D137" s="29">
-        <v>165.79285784940001</v>
+        <v>209.31842912260001</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5910,10 +5919,10 @@
         <v>382</v>
       </c>
       <c r="C138">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D138" s="29">
-        <v>35.218501452799998</v>
+        <v>44.023126816000001</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -5924,10 +5933,10 @@
         <v>384</v>
       </c>
       <c r="C139">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="D139" s="29">
-        <v>275.74346962369998</v>
+        <v>251.28235538289999</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -5938,10 +5947,10 @@
         <v>386</v>
       </c>
       <c r="C140">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="D140" s="29">
-        <v>45.393064062500002</v>
+        <v>61.9553982475</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -5952,10 +5961,10 @@
         <v>388</v>
       </c>
       <c r="C141">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D141" s="29">
-        <v>102.7981510914</v>
+        <v>90.404047768300003</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -5966,10 +5975,10 @@
         <v>390</v>
       </c>
       <c r="C142">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="D142" s="29">
-        <v>521.57128483129998</v>
+        <v>579.06733197810001</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -5980,10 +5989,10 @@
         <v>392</v>
       </c>
       <c r="C143">
-        <v>390</v>
+        <v>468</v>
       </c>
       <c r="D143" s="29">
-        <v>141.4447676316</v>
+        <v>169.73372115800001</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5994,10 +6003,10 @@
         <v>394</v>
       </c>
       <c r="C144">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D144" s="29">
-        <v>107.06385256679999</v>
+        <v>116.5106630874</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -6008,10 +6017,10 @@
         <v>396</v>
       </c>
       <c r="C145">
-        <v>315</v>
+        <v>483</v>
       </c>
       <c r="D145" s="29">
-        <v>86.316031764300007</v>
+        <v>132.35124870530001</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -6022,10 +6031,10 @@
         <v>398</v>
       </c>
       <c r="C146">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="D146" s="29">
-        <v>204.57267629820001</v>
+        <v>213.05237272510001</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -6036,10 +6045,10 @@
         <v>400</v>
       </c>
       <c r="C147">
-        <v>438</v>
+        <v>515</v>
       </c>
       <c r="D147" s="29">
-        <v>183.4462770458</v>
+        <v>215.69596501960001</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -6050,10 +6059,10 @@
         <v>402</v>
       </c>
       <c r="C148">
-        <v>2002</v>
+        <v>2533</v>
       </c>
       <c r="D148" s="29">
-        <v>108.377141626</v>
+        <v>137.12252734200001</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -6064,10 +6073,10 @@
         <v>404</v>
       </c>
       <c r="C149">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="D149" s="29">
-        <v>69.337390356</v>
+        <v>100.3036035248</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -6078,10 +6087,10 @@
         <v>406</v>
       </c>
       <c r="C150">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D150" s="29">
-        <v>92.821094288400005</v>
+        <v>101.71413326219999</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -6092,10 +6101,10 @@
         <v>408</v>
       </c>
       <c r="C151">
-        <v>1412</v>
+        <v>1673</v>
       </c>
       <c r="D151" s="29">
-        <v>122.0276290602</v>
+        <v>144.58372763290001</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -6106,10 +6115,10 @@
         <v>410</v>
       </c>
       <c r="C152">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="D152" s="29">
-        <v>110.8355506994</v>
+        <v>117.51712645080001</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -6120,10 +6129,10 @@
         <v>412</v>
       </c>
       <c r="C153">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="D153" s="29">
-        <v>141.57798509209999</v>
+        <v>173.92527307669999</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -6134,10 +6143,10 @@
         <v>414</v>
       </c>
       <c r="C154">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D154" s="29">
-        <v>114.95070155480001</v>
+        <v>136.28175957529999</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -6148,10 +6157,10 @@
         <v>416</v>
       </c>
       <c r="C155">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="D155" s="29">
-        <v>138.04019730549999</v>
+        <v>178.53198851510001</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -6162,10 +6171,10 @@
         <v>418</v>
       </c>
       <c r="C156">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D156" s="29">
-        <v>48.339055824500001</v>
+        <v>61.845556716600001</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -6176,10 +6185,10 @@
         <v>420</v>
       </c>
       <c r="C157">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D157" s="29">
-        <v>81.741338204800002</v>
+        <v>85.456853577700002</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -6190,10 +6199,10 @@
         <v>422</v>
       </c>
       <c r="C158">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="D158" s="29">
-        <v>109.958803106</v>
+        <v>126.5279378206</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -6204,10 +6213,10 @@
         <v>424</v>
       </c>
       <c r="C159">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="D159" s="29">
-        <v>121.6506572295</v>
+        <v>144.55889787660001</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -6218,10 +6227,10 @@
         <v>426</v>
       </c>
       <c r="C160">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="D160" s="29">
-        <v>110.3188796247</v>
+        <v>122.22170611049999</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -6232,10 +6241,10 @@
         <v>428</v>
       </c>
       <c r="C161">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="D161" s="29">
-        <v>86.869754064700004</v>
+        <v>92.739332042000001</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -6246,10 +6255,10 @@
         <v>430</v>
       </c>
       <c r="C162">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D162" s="29">
-        <v>64.624248332400001</v>
+        <v>73.386858275700007</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -6260,10 +6269,10 @@
         <v>432</v>
       </c>
       <c r="C163">
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="D163" s="29">
-        <v>110.14534396480001</v>
+        <v>134.0899839571</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -6274,10 +6283,10 @@
         <v>434</v>
       </c>
       <c r="C164">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="D164" s="29">
-        <v>126.5588146936</v>
+        <v>150.84788013990001</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -6288,10 +6297,10 @@
         <v>436</v>
       </c>
       <c r="C165">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D165" s="29">
-        <v>302.35505595640001</v>
+        <v>287.4443956627</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -6302,10 +6311,10 @@
         <v>438</v>
       </c>
       <c r="C166">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="D166" s="29">
-        <v>74.235300652999996</v>
+        <v>82.820335422400007</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -6316,10 +6325,10 @@
         <v>440</v>
       </c>
       <c r="C167">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D167" s="29">
-        <v>134.50005538240001</v>
+        <v>142.41182334600001</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -6330,10 +6339,10 @@
         <v>442</v>
       </c>
       <c r="C168">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="D168" s="29">
-        <v>89.552130579299998</v>
+        <v>107.68009223510001</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -6344,10 +6353,10 @@
         <v>444</v>
       </c>
       <c r="C169">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="D169" s="29">
-        <v>100.8557339564</v>
+        <v>116.638501484</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -6358,10 +6367,10 @@
         <v>446</v>
       </c>
       <c r="C170">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="D170" s="29">
-        <v>121.1410047528</v>
+        <v>142.6678035068</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -6372,10 +6381,10 @@
         <v>448</v>
       </c>
       <c r="C171">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="D171" s="29">
-        <v>418.9852700491</v>
+        <v>325.15002727770002</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -6386,10 +6395,10 @@
         <v>450</v>
       </c>
       <c r="C172">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D172" s="29">
-        <v>280.58775751309997</v>
+        <v>240.50379215410001</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -6400,10 +6409,10 @@
         <v>452</v>
       </c>
       <c r="C173">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="D173" s="29">
-        <v>235.23145887890001</v>
+        <v>268.07509653369999</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -6414,10 +6423,10 @@
         <v>454</v>
       </c>
       <c r="C174">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D174" s="29">
-        <v>65.287121405700006</v>
+        <v>86.576400124900005</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -6428,10 +6437,10 @@
         <v>456</v>
       </c>
       <c r="C175">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D175" s="29">
-        <v>58.4666062987</v>
+        <v>69.161717206999995</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -6442,10 +6451,10 @@
         <v>458</v>
       </c>
       <c r="C176">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="D176" s="29">
-        <v>253.17885344800001</v>
+        <v>263.53189206489998</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -6456,10 +6465,10 @@
         <v>460</v>
       </c>
       <c r="C177">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="D177" s="29">
-        <v>77.1515080936</v>
+        <v>97.531151741000002</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -6470,10 +6479,10 @@
         <v>462</v>
       </c>
       <c r="C178">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="D178" s="29">
-        <v>61.970667217500001</v>
+        <v>100.590068527</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -6484,10 +6493,10 @@
         <v>464</v>
       </c>
       <c r="C179">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D179" s="29">
-        <v>193.104064115</v>
+        <v>202.03373181980001</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -6498,10 +6507,10 @@
         <v>466</v>
       </c>
       <c r="C180">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D180" s="29">
-        <v>36.988903329000003</v>
+        <v>41.987403778900003</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -6512,10 +6521,10 @@
         <v>468</v>
       </c>
       <c r="C181">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D181" s="29">
-        <v>73.599486690800006</v>
+        <v>86.809650968599996</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -6526,10 +6535,10 @@
         <v>470</v>
       </c>
       <c r="C182">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="D182" s="29">
-        <v>81.715054797199997</v>
+        <v>89.726334679199994</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -6540,10 +6549,10 @@
         <v>472</v>
       </c>
       <c r="C183">
-        <v>497</v>
+        <v>544</v>
       </c>
       <c r="D183" s="29">
-        <v>111.66005019089999</v>
+        <v>122.2194513155</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -6554,10 +6563,10 @@
         <v>474</v>
       </c>
       <c r="C184">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="D184" s="29">
-        <v>93.006228449000005</v>
+        <v>106.8582199202</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -6568,10 +6577,10 @@
         <v>476</v>
       </c>
       <c r="C185">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D185" s="29">
-        <v>99.677315808100005</v>
+        <v>101.78912334650001</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -6582,10 +6591,10 @@
         <v>478</v>
       </c>
       <c r="C186">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D186" s="29">
-        <v>171.17888193159999</v>
+        <v>182.44065047980001</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -6596,10 +6605,10 @@
         <v>480</v>
       </c>
       <c r="C187">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="D187" s="29">
-        <v>203.15623527119999</v>
+        <v>264.10310585249999</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -6610,10 +6619,10 @@
         <v>482</v>
       </c>
       <c r="C188">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="D188" s="29">
-        <v>133.0421830487</v>
+        <v>201.0093852583</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -6624,10 +6633,10 @@
         <v>484</v>
       </c>
       <c r="C189">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="D189" s="29">
-        <v>51.054725803700002</v>
+        <v>61.995024190199999</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -6638,10 +6647,10 @@
         <v>486</v>
       </c>
       <c r="C190">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="D190" s="29">
-        <v>58.142723931799999</v>
+        <v>96.538862377300006</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -6652,10 +6661,10 @@
         <v>488</v>
       </c>
       <c r="C191">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="D191" s="29">
-        <v>129.9345526699</v>
+        <v>119.69340566140001</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -6666,10 +6675,10 @@
         <v>490</v>
       </c>
       <c r="C192">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="D192" s="29">
-        <v>73.6506155087</v>
+        <v>111.3527163048</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -6680,10 +6689,10 @@
         <v>492</v>
       </c>
       <c r="C193">
-        <v>1392</v>
+        <v>1438</v>
       </c>
       <c r="D193" s="29">
-        <v>127.9572887395</v>
+        <v>132.18576236160001</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -6694,10 +6703,10 @@
         <v>494</v>
       </c>
       <c r="C194">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D194" s="29">
-        <v>128.88353329489999</v>
+        <v>125.0414767468</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -6708,10 +6717,10 @@
         <v>496</v>
       </c>
       <c r="C195">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="D195" s="29">
-        <v>171.05141656079999</v>
+        <v>159.17895320049999</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -6722,10 +6731,10 @@
         <v>498</v>
       </c>
       <c r="C196">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D196" s="29">
-        <v>236.7289453576</v>
+        <v>229.23752303609999</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -6736,10 +6745,10 @@
         <v>500</v>
       </c>
       <c r="C197">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D197" s="29">
-        <v>283.65424922450001</v>
+        <v>300.42198809489997</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -6750,10 +6759,10 @@
         <v>502</v>
       </c>
       <c r="C198">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D198" s="29">
-        <v>58.3887551802</v>
+        <v>49.844059300200001</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -6764,10 +6773,10 @@
         <v>504</v>
       </c>
       <c r="C199">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D199" s="29">
-        <v>141.48655204010001</v>
+        <v>179.21629925080001</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -6778,10 +6787,10 @@
         <v>506</v>
       </c>
       <c r="C200">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D200" s="29">
-        <v>189.8791642159</v>
+        <v>186.72109079859999</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -6792,10 +6801,10 @@
         <v>508</v>
       </c>
       <c r="C201">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D201" s="29">
-        <v>34.128964825799997</v>
+        <v>51.193447238799997</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -6806,10 +6815,10 @@
         <v>510</v>
       </c>
       <c r="C202">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D202" s="29">
-        <v>48.211999800500003</v>
+        <v>81.461654835299996</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -6820,10 +6829,10 @@
         <v>512</v>
       </c>
       <c r="C203">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D203" s="29">
-        <v>144.39252972989999</v>
+        <v>125.3218182561</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -6834,10 +6843,10 @@
         <v>514</v>
       </c>
       <c r="C204">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="D204" s="29">
-        <v>140.7173457582</v>
+        <v>150.7239125676</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -6848,10 +6857,10 @@
         <v>516</v>
       </c>
       <c r="C205">
-        <v>200</v>
+        <v>313</v>
       </c>
       <c r="D205" s="29">
-        <v>117.12619175899999</v>
+        <v>183.30249010279999</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -6862,10 +6871,10 @@
         <v>518</v>
       </c>
       <c r="C206">
-        <v>475</v>
+        <v>577</v>
       </c>
       <c r="D206" s="29">
-        <v>80.081598934499993</v>
+        <v>97.278068600400005</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -6876,10 +6885,10 @@
         <v>520</v>
       </c>
       <c r="C207">
-        <v>311</v>
+        <v>384</v>
       </c>
       <c r="D207" s="29">
-        <v>120.477727116</v>
+        <v>148.7570649921</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -6890,10 +6899,10 @@
         <v>522</v>
       </c>
       <c r="C208">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D208" s="29">
-        <v>106.2731709105</v>
+        <v>107.4947016106</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -6904,10 +6913,10 @@
         <v>524</v>
       </c>
       <c r="C209">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D209" s="29">
-        <v>152.74949083499999</v>
+        <v>158.7396669462</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -6918,10 +6927,10 @@
         <v>526</v>
       </c>
       <c r="C210">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="D210" s="29">
-        <v>155.89371306250001</v>
+        <v>189.0502117362</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -6946,10 +6955,10 @@
         <v>530</v>
       </c>
       <c r="C212">
-        <v>799</v>
+        <v>746</v>
       </c>
       <c r="D212" s="29">
-        <v>229.9187946385</v>
+        <v>214.66761051349999</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -6960,10 +6969,10 @@
         <v>532</v>
       </c>
       <c r="C213">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D213" s="29">
-        <v>96.180749860099993</v>
+        <v>90.4973419138</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6974,10 +6983,10 @@
         <v>534</v>
       </c>
       <c r="C214">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D214" s="29">
-        <v>53.572253267400001</v>
+        <v>64.656167736599997</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -6988,10 +6997,10 @@
         <v>536</v>
       </c>
       <c r="C215">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D215" s="29">
-        <v>57.836899942199999</v>
+        <v>53.705692803399998</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -7002,10 +7011,10 @@
         <v>538</v>
       </c>
       <c r="C216">
-        <v>582</v>
+        <v>653</v>
       </c>
       <c r="D216" s="29">
-        <v>106.7061711736</v>
+        <v>119.723590681</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -7016,10 +7025,10 @@
         <v>540</v>
       </c>
       <c r="C217">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="D217" s="29">
-        <v>157.3267229018</v>
+        <v>164.87376126980001</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -7030,10 +7039,10 @@
         <v>542</v>
       </c>
       <c r="C218">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="D218" s="29">
-        <v>171.4050968226</v>
+        <v>180.84890381010001</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -7044,10 +7053,10 @@
         <v>544</v>
       </c>
       <c r="C219">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D219" s="29">
-        <v>71.141909101300001</v>
+        <v>78.201793210600002</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -7058,10 +7067,10 @@
         <v>546</v>
       </c>
       <c r="C220">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="D220" s="29">
-        <v>125.43935344010001</v>
+        <v>132.59528971020001</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -7072,10 +7081,10 @@
         <v>548</v>
       </c>
       <c r="C221">
-        <v>654</v>
+        <v>712</v>
       </c>
       <c r="D221" s="29">
-        <v>155.50990127259999</v>
+        <v>169.30129924479999</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -7086,10 +7095,10 @@
         <v>550</v>
       </c>
       <c r="C222">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D222" s="29">
-        <v>97.496789739899995</v>
+        <v>93.5335056041</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -7100,10 +7109,10 @@
         <v>552</v>
       </c>
       <c r="C223">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="D223" s="29">
-        <v>193.35493470489999</v>
+        <v>166.16439701210001</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -7114,10 +7123,10 @@
         <v>554</v>
       </c>
       <c r="C224">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D224" s="29">
-        <v>103.9579473336</v>
+        <v>102.28120624749999</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -7128,10 +7137,10 @@
         <v>556</v>
       </c>
       <c r="C225">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="D225" s="29">
-        <v>74.115418752099998</v>
+        <v>107.5131074491</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -7142,10 +7151,10 @@
         <v>558</v>
       </c>
       <c r="C226">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="D226" s="29">
-        <v>69.530832430700002</v>
+        <v>98.856761755199997</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -7156,10 +7165,10 @@
         <v>560</v>
       </c>
       <c r="C227">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="D227" s="29">
-        <v>167.06474644139999</v>
+        <v>172.5370021052</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -7170,10 +7179,10 @@
         <v>562</v>
       </c>
       <c r="C228">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="D228" s="29">
-        <v>123.0158142017</v>
+        <v>140.80123312239999</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -7184,10 +7193,10 @@
         <v>564</v>
       </c>
       <c r="C229">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="D229" s="29">
-        <v>161.8882647197</v>
+        <v>129.51061177579999</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -7198,10 +7207,10 @@
         <v>566</v>
       </c>
       <c r="C230">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="D230" s="29">
-        <v>233.04454661130001</v>
+        <v>234.99471018130001</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -7212,10 +7221,10 @@
         <v>568</v>
       </c>
       <c r="C231">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="D231" s="29">
-        <v>102.1706147095</v>
+        <v>119.5396192101</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -7226,10 +7235,10 @@
         <v>570</v>
       </c>
       <c r="C232">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="D232" s="29">
-        <v>69.018905583999995</v>
+        <v>103.528358376</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -7240,10 +7249,10 @@
         <v>572</v>
       </c>
       <c r="C233">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="D233" s="29">
-        <v>89.121724776600004</v>
+        <v>105.3961266923</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -7254,10 +7263,10 @@
         <v>574</v>
       </c>
       <c r="C234">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="D234" s="29">
-        <v>167.551310003</v>
+        <v>156.79492960779999</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -7268,10 +7277,10 @@
         <v>576</v>
       </c>
       <c r="C235">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D235" s="29">
-        <v>136.0544217687</v>
+        <v>210.88435374150001</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -7282,10 +7291,10 @@
         <v>578</v>
       </c>
       <c r="C236">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D236" s="29">
-        <v>57.146731497499999</v>
+        <v>60.0524975059</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -7296,10 +7305,10 @@
         <v>580</v>
       </c>
       <c r="C237">
-        <v>571</v>
+        <v>620</v>
       </c>
       <c r="D237" s="29">
-        <v>117.5937557922</v>
+        <v>127.6849887761</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -7310,10 +7319,10 @@
         <v>582</v>
       </c>
       <c r="C238">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D238" s="29">
-        <v>76.992300769899998</v>
+        <v>81.991800819900007</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -7324,10 +7333,10 @@
         <v>584</v>
       </c>
       <c r="C239">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D239" s="29">
-        <v>71.460195894099996</v>
+        <v>76.897384712199994</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -7338,10 +7347,10 @@
         <v>586</v>
       </c>
       <c r="C240">
-        <v>537</v>
+        <v>598</v>
       </c>
       <c r="D240" s="29">
-        <v>172.99756128210001</v>
+        <v>192.6490533457</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -7352,10 +7361,10 @@
         <v>588</v>
       </c>
       <c r="C241">
-        <v>500</v>
+        <v>612</v>
       </c>
       <c r="D241" s="29">
-        <v>164.42013949400001</v>
+        <v>201.25025074070001</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -7380,10 +7389,10 @@
         <v>592</v>
       </c>
       <c r="C243">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="D243" s="29">
-        <v>116.50787075389999</v>
+        <v>152.75476387739999</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -7394,10 +7403,10 @@
         <v>594</v>
       </c>
       <c r="C244">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D244" s="29">
-        <v>133.03483520090001</v>
+        <v>134.7930048291</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -7408,10 +7417,10 @@
         <v>596</v>
       </c>
       <c r="C245">
-        <v>1330</v>
+        <v>1444</v>
       </c>
       <c r="D245" s="29">
-        <v>89.608994856600006</v>
+        <v>97.289765844300007</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -7422,10 +7431,10 @@
         <v>598</v>
       </c>
       <c r="C246">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="D246" s="29">
-        <v>89.593206894700003</v>
+        <v>95.2997805822</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -7436,10 +7445,10 @@
         <v>600</v>
       </c>
       <c r="C247">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D247" s="29">
-        <v>59.627077036300001</v>
+        <v>58.041250519400002</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -7450,10 +7459,10 @@
         <v>602</v>
       </c>
       <c r="C248">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D248" s="29">
-        <v>66.140789372900002</v>
+        <v>88.419792109100001</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -7464,10 +7473,10 @@
         <v>604</v>
       </c>
       <c r="C249">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D249" s="29">
-        <v>123.3261050533</v>
+        <v>141.82502081129999</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -7478,10 +7487,10 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="D250" s="29">
-        <v>94.372571020899997</v>
+        <v>178.34186649630001</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -7492,10 +7501,10 @@
         <v>608</v>
       </c>
       <c r="C251">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D251" s="29">
-        <v>74.816699087200007</v>
+        <v>76.063644072000002</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -7506,10 +7515,10 @@
         <v>610</v>
       </c>
       <c r="C252">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="D252" s="29">
-        <v>87.513697796200006</v>
+        <v>122.5191769146</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -7520,10 +7529,10 @@
         <v>612</v>
       </c>
       <c r="C253">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D253" s="29">
-        <v>82.166828360400004</v>
+        <v>95.036331597599997</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -7534,10 +7543,10 @@
         <v>614</v>
       </c>
       <c r="C254">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D254" s="29">
-        <v>102.6998411858</v>
+        <v>109.0524086818</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -7548,10 +7557,10 @@
         <v>616</v>
       </c>
       <c r="C255">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D255" s="29">
-        <v>63.832982877699997</v>
+        <v>73.220186242099999</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -7562,10 +7571,10 @@
         <v>618</v>
       </c>
       <c r="C256">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="D256" s="29">
-        <v>71.9161662976</v>
+        <v>90.1805894843</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -7576,10 +7585,10 @@
         <v>620</v>
       </c>
       <c r="C257">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="D257" s="29">
-        <v>187.62547111500001</v>
+        <v>195.8306666448</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -7604,10 +7613,10 @@
         <v>624</v>
       </c>
       <c r="C259">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D259" s="29">
-        <v>18.680212833900001</v>
+        <v>22.295737898500001</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -7618,10 +7627,10 @@
         <v>626</v>
       </c>
       <c r="C260">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D260" s="29">
-        <v>70.729836002699997</v>
+        <v>75.525079121499999</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -7632,10 +7641,10 @@
         <v>628</v>
       </c>
       <c r="C261">
-        <v>415</v>
+        <v>482</v>
       </c>
       <c r="D261" s="29">
-        <v>209.87048715239999</v>
+        <v>243.75319230709999</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -7646,10 +7655,10 @@
         <v>630</v>
       </c>
       <c r="C262">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="D262" s="29">
-        <v>106.78735332630001</v>
+        <v>126.49216257099999</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -7660,10 +7669,10 @@
         <v>632</v>
       </c>
       <c r="C263">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D263" s="29">
-        <v>45.3566163964</v>
+        <v>40.0650111502</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -7674,10 +7683,10 @@
         <v>634</v>
       </c>
       <c r="C264">
-        <v>779</v>
+        <v>965</v>
       </c>
       <c r="D264" s="29">
-        <v>150.27875841580001</v>
+        <v>186.1604645331</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -7688,10 +7697,10 @@
         <v>636</v>
       </c>
       <c r="C265">
-        <v>170</v>
+        <v>247</v>
       </c>
       <c r="D265" s="29">
-        <v>99.536278045800003</v>
+        <v>144.62035692539999</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -7702,10 +7711,10 @@
         <v>638</v>
       </c>
       <c r="C266">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="D266" s="29">
-        <v>111.5327419107</v>
+        <v>148.069329778</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -7716,10 +7725,10 @@
         <v>640</v>
       </c>
       <c r="C267">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="D267" s="29">
-        <v>149.60100273099999</v>
+        <v>159.52539357559999</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -7730,10 +7739,10 @@
         <v>642</v>
       </c>
       <c r="C268">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="D268" s="29">
-        <v>130.952155017</v>
+        <v>154.20090717580001</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -7744,10 +7753,10 @@
         <v>644</v>
       </c>
       <c r="C269">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D269" s="29">
-        <v>165.32496688800001</v>
+        <v>164.85529368670001</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -7758,10 +7767,10 @@
         <v>646</v>
       </c>
       <c r="C270">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="D270" s="29">
-        <v>207.55044755919999</v>
+        <v>192.00702197109999</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -7772,10 +7781,10 @@
         <v>648</v>
       </c>
       <c r="C271">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D271" s="29">
-        <v>114.7844430886</v>
+        <v>104.44350226980001</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -7786,10 +7795,10 @@
         <v>650</v>
       </c>
       <c r="C272">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="D272" s="29">
-        <v>154.35982617740001</v>
+        <v>170.57879342070001</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -7800,10 +7809,10 @@
         <v>652</v>
       </c>
       <c r="C273">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="D273" s="29">
-        <v>214.1541295671</v>
+        <v>244.08965305500001</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -7814,10 +7823,10 @@
         <v>654</v>
       </c>
       <c r="C274">
-        <v>475</v>
+        <v>546</v>
       </c>
       <c r="D274" s="29">
-        <v>133.4970897634</v>
+        <v>153.4513916018</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -7828,10 +7837,10 @@
         <v>656</v>
       </c>
       <c r="C275">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D275" s="29">
-        <v>86.942635603900001</v>
+        <v>88.716975106000007</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -7842,10 +7851,10 @@
         <v>658</v>
       </c>
       <c r="C276">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="D276" s="29">
-        <v>84.804033921599995</v>
+        <v>152.0360608144</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -7856,10 +7865,10 @@
         <v>660</v>
       </c>
       <c r="C277">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="D277" s="29">
-        <v>105.2592288455</v>
+        <v>119.4430965623</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -7870,10 +7879,10 @@
         <v>662</v>
       </c>
       <c r="C278">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="D278" s="29">
-        <v>134.585442032</v>
+        <v>140.8506264024</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -7884,10 +7893,10 @@
         <v>664</v>
       </c>
       <c r="C279">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="D279" s="29">
-        <v>154.31071521499999</v>
+        <v>176.7008974227</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -7898,10 +7907,10 @@
         <v>666</v>
       </c>
       <c r="C280">
-        <v>356</v>
+        <v>456</v>
       </c>
       <c r="D280" s="29">
-        <v>99.419124218099995</v>
+        <v>127.345844504</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -7912,10 +7921,10 @@
         <v>668</v>
       </c>
       <c r="C281">
-        <v>382</v>
+        <v>485</v>
       </c>
       <c r="D281" s="29">
-        <v>121.64636573520001</v>
+        <v>154.446302046</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -7926,10 +7935,10 @@
         <v>670</v>
       </c>
       <c r="C282">
-        <v>313</v>
+        <v>446</v>
       </c>
       <c r="D282" s="29">
-        <v>221.69965009699999</v>
+        <v>315.90429374849998</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -7940,10 +7949,10 @@
         <v>672</v>
       </c>
       <c r="C283">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D283" s="29">
-        <v>93.041219015500005</v>
+        <v>78.1195140791</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -7954,10 +7963,10 @@
         <v>674</v>
       </c>
       <c r="C284">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D284" s="29">
-        <v>30.4180234269</v>
+        <v>36.900553009600003</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -7968,10 +7977,10 @@
         <v>676</v>
       </c>
       <c r="C285">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="D285" s="29">
-        <v>121.38254721280001</v>
+        <v>160.8318750569</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -7982,10 +7991,10 @@
         <v>678</v>
       </c>
       <c r="C286">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D286" s="29">
-        <v>66.918096797399997</v>
+        <v>75.364070179500004</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -7996,10 +8005,10 @@
         <v>680</v>
       </c>
       <c r="C287">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D287" s="29">
-        <v>151.50654318880001</v>
+        <v>140.1435524497</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -8010,10 +8019,10 @@
         <v>682</v>
       </c>
       <c r="C288">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="D288" s="29">
-        <v>106.926335022</v>
+        <v>121.97907150570001</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -8024,10 +8033,10 @@
         <v>684</v>
       </c>
       <c r="C289">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D289" s="29">
-        <v>163.2035370657</v>
+        <v>169.88004540029999</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -8038,10 +8047,10 @@
         <v>686</v>
       </c>
       <c r="C290">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D290" s="29">
-        <v>135.6968501174</v>
+        <v>156.7532578942</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -8052,10 +8061,10 @@
         <v>688</v>
       </c>
       <c r="C291">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D291" s="29">
-        <v>80.980016989899994</v>
+        <v>57.162364934099998</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -8066,10 +8075,10 @@
         <v>690</v>
       </c>
       <c r="C292">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="D292" s="29">
-        <v>99.018357940300007</v>
+        <v>110.4070508663</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -8080,10 +8089,10 @@
         <v>692</v>
       </c>
       <c r="C293">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D293" s="29">
-        <v>136.71049688049999</v>
+        <v>144.167433074</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -8094,10 +8103,10 @@
         <v>694</v>
       </c>
       <c r="C294">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D294" s="29">
-        <v>21.758388635900001</v>
+        <v>26.420900486499999</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -8108,10 +8117,10 @@
         <v>696</v>
       </c>
       <c r="C295">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="D295" s="29">
-        <v>94.824048709600007</v>
+        <v>116.4505861346</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -8122,10 +8131,10 @@
         <v>698</v>
       </c>
       <c r="C296">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="D296" s="29">
-        <v>115.9000027705</v>
+        <v>103.43267179519999</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -8136,10 +8145,10 @@
         <v>700</v>
       </c>
       <c r="C297">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D297" s="29">
-        <v>110.2970141023</v>
+        <v>119.4884319441</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -8150,10 +8159,10 @@
         <v>702</v>
       </c>
       <c r="C298">
-        <v>411</v>
+        <v>324</v>
       </c>
       <c r="D298" s="29">
-        <v>177.59917033959999</v>
+        <v>140.00518537720001</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -8164,10 +8173,10 @@
         <v>704</v>
       </c>
       <c r="C299">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="D299" s="29">
-        <v>100.2018050339</v>
+        <v>114.56639946190001</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -8178,10 +8187,10 @@
         <v>706</v>
       </c>
       <c r="C300">
-        <v>719</v>
+        <v>797</v>
       </c>
       <c r="D300" s="29">
-        <v>117.07485463339999</v>
+        <v>129.77560381480001</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -8192,10 +8201,10 @@
         <v>708</v>
       </c>
       <c r="C301">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="D301" s="29">
-        <v>135.64139000130001</v>
+        <v>175.6878956207</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -8206,10 +8215,10 @@
         <v>710</v>
       </c>
       <c r="C302">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="D302" s="29">
-        <v>162.64517224709999</v>
+        <v>148.27491606460001</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -8220,10 +8229,10 @@
         <v>712</v>
       </c>
       <c r="C303">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="D303" s="29">
-        <v>138.60977997629999</v>
+        <v>205.59591899829999</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -8234,10 +8243,10 @@
         <v>714</v>
       </c>
       <c r="C304">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D304" s="29">
-        <v>212.8653289982</v>
+        <v>210.1708311628</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -8248,10 +8257,10 @@
         <v>716</v>
       </c>
       <c r="C305">
-        <v>461</v>
+        <v>623</v>
       </c>
       <c r="D305" s="29">
-        <v>107.8998614388</v>
+        <v>145.8169494064</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -8262,10 +8271,10 @@
         <v>718</v>
       </c>
       <c r="C306">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D306" s="29">
-        <v>45.604126991100003</v>
+        <v>43.0502958796</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -8276,10 +8285,10 @@
         <v>720</v>
       </c>
       <c r="C307">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D307" s="29">
-        <v>119.1496477769</v>
+        <v>120.89160169180001</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -8290,10 +8299,10 @@
         <v>722</v>
       </c>
       <c r="C308">
-        <v>568</v>
+        <v>655</v>
       </c>
       <c r="D308" s="29">
-        <v>120.69313557789999</v>
+        <v>139.17958416120001</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -8318,10 +8327,10 @@
         <v>726</v>
       </c>
       <c r="C310">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D310" s="29">
-        <v>77.547182613900006</v>
+        <v>83.36322131</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -8332,10 +8341,10 @@
         <v>728</v>
       </c>
       <c r="C311">
-        <v>322</v>
+        <v>216</v>
       </c>
       <c r="D311" s="29">
-        <v>113.6720666782</v>
+        <v>76.252069573</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -8346,10 +8355,10 @@
         <v>730</v>
       </c>
       <c r="C312">
-        <v>358</v>
+        <v>436</v>
       </c>
       <c r="D312" s="29">
-        <v>79.250879950400005</v>
+        <v>96.517831447999995</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -8360,10 +8369,10 @@
         <v>732</v>
       </c>
       <c r="C313">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D313" s="29">
-        <v>94.033377760700006</v>
+        <v>94.851059306400003</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -8374,10 +8383,10 @@
         <v>734</v>
       </c>
       <c r="C314">
-        <v>647</v>
+        <v>739</v>
       </c>
       <c r="D314" s="29">
-        <v>117.9892587831</v>
+        <v>134.76671134579999</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -8402,10 +8411,10 @@
         <v>738</v>
       </c>
       <c r="C316">
-        <v>635</v>
+        <v>594</v>
       </c>
       <c r="D316" s="29">
-        <v>105.6987435998</v>
+        <v>98.874100312300001</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -8416,10 +8425,10 @@
         <v>740</v>
       </c>
       <c r="C317">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D317" s="29">
-        <v>178.31355559740001</v>
+        <v>170.77918000880001</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -8430,10 +8439,10 @@
         <v>742</v>
       </c>
       <c r="C318">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D318" s="29">
-        <v>119.5889915186</v>
+        <v>114.86837343240001</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -8444,10 +8453,10 @@
         <v>744</v>
       </c>
       <c r="C319">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D319" s="29">
-        <v>100.2563808212</v>
+        <v>105.230934068</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -8458,10 +8467,10 @@
         <v>746</v>
       </c>
       <c r="C320">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D320" s="29">
-        <v>45.891075619900001</v>
+        <v>56.885812487199999</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -8472,10 +8481,10 @@
         <v>748</v>
       </c>
       <c r="C321">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D321" s="29">
-        <v>83.412884510200001</v>
+        <v>88.510338563600001</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -8486,10 +8495,10 @@
         <v>750</v>
       </c>
       <c r="C322">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D322" s="29">
-        <v>99.522536054</v>
+        <v>101.3542391716</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -8500,10 +8509,10 @@
         <v>752</v>
       </c>
       <c r="C323">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="D323" s="29">
-        <v>162.5259370883</v>
+        <v>184.61684115849999</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -8514,10 +8523,10 @@
         <v>754</v>
       </c>
       <c r="C324">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D324" s="29">
-        <v>78.188013366000007</v>
+        <v>88.064394001699995</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -8528,10 +8537,10 @@
         <v>756</v>
       </c>
       <c r="C325">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="D325" s="29">
-        <v>74.350505440500001</v>
+        <v>106.5213972176</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -8542,10 +8551,10 @@
         <v>758</v>
       </c>
       <c r="C326">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="D326" s="29">
-        <v>160.3375527426</v>
+        <v>192.88728149490001</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -8556,10 +8565,10 @@
         <v>760</v>
       </c>
       <c r="C327">
-        <v>292</v>
+        <v>403</v>
       </c>
       <c r="D327" s="29">
-        <v>158.8553708892</v>
+        <v>219.24217283679999</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -8570,10 +8579,10 @@
         <v>762</v>
       </c>
       <c r="C328">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="D328" s="29">
-        <v>424.594083076</v>
+        <v>410.897499751</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -8584,10 +8593,10 @@
         <v>764</v>
       </c>
       <c r="C329">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D329" s="29">
-        <v>188.95531933449999</v>
+        <v>186.04831442170001</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -8598,10 +8607,10 @@
         <v>766</v>
       </c>
       <c r="C330">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="D330" s="29">
-        <v>35.508622419799998</v>
+        <v>74.619568853299995</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -8612,10 +8621,10 @@
         <v>767</v>
       </c>
       <c r="C331">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D331" s="29">
-        <v>56.963627668900003</v>
+        <v>73.8417395707</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -8626,10 +8635,10 @@
         <v>769</v>
       </c>
       <c r="C332">
-        <v>302</v>
+        <v>370</v>
       </c>
       <c r="D332" s="29">
-        <v>122.9711791389</v>
+        <v>150.66005391190001</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -8640,10 +8649,10 @@
         <v>771</v>
       </c>
       <c r="C333">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="D333" s="29">
-        <v>156.2934481403</v>
+        <v>226.28990037489999</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -8654,10 +8663,10 @@
         <v>773</v>
       </c>
       <c r="C334">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="D334" s="29">
-        <v>88.301387970899995</v>
+        <v>115.79643093190001</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -8668,10 +8677,10 @@
         <v>775</v>
       </c>
       <c r="C335">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D335" s="29">
-        <v>67.8106359258</v>
+        <v>49.421310929000001</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -8682,10 +8691,10 @@
         <v>777</v>
       </c>
       <c r="C336">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="D336" s="29">
-        <v>98.213154226300006</v>
+        <v>129.89481688000001</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -8696,10 +8705,10 @@
         <v>779</v>
       </c>
       <c r="C337">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D337" s="29">
-        <v>42.752888305600003</v>
+        <v>43.747141522</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -8710,10 +8719,10 @@
         <v>781</v>
       </c>
       <c r="C338">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="D338" s="29">
-        <v>327.4200262576</v>
+        <v>351.43616510290002</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -8724,10 +8733,10 @@
         <v>783</v>
       </c>
       <c r="C339">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D339" s="29">
-        <v>104.9266733364</v>
+        <v>109.80698372419999</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -8738,10 +8747,10 @@
         <v>785</v>
       </c>
       <c r="C340">
-        <v>781</v>
+        <v>940</v>
       </c>
       <c r="D340" s="29">
-        <v>396.92825305830002</v>
+        <v>477.73694990370001</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -8752,10 +8761,10 @@
         <v>787</v>
       </c>
       <c r="C341">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D341" s="29">
-        <v>85.711264352499995</v>
+        <v>84.598131049200006</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -8766,10 +8775,10 @@
         <v>789</v>
       </c>
       <c r="C342">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="D342" s="29">
-        <v>250.2164033759</v>
+        <v>304.3172473491</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -8780,10 +8789,10 @@
         <v>791</v>
       </c>
       <c r="C343">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="D343" s="29">
-        <v>74.350841858600006</v>
+        <v>90.350390106600003</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -8794,10 +8803,10 @@
         <v>793</v>
       </c>
       <c r="C344">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D344" s="29">
-        <v>164.71380975549999</v>
+        <v>155.35507056489999</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -8808,10 +8817,10 @@
         <v>795</v>
       </c>
       <c r="C345">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D345" s="29">
-        <v>73.628134609599996</v>
+        <v>75.360561306199997</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -8822,10 +8831,10 @@
         <v>797</v>
       </c>
       <c r="C346">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D346" s="29">
-        <v>83.635641328600002</v>
+        <v>75.272077195700007</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -8836,10 +8845,10 @@
         <v>799</v>
       </c>
       <c r="C347">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="D347" s="29">
-        <v>99.576080093800002</v>
+        <v>114.3681789483</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -8850,10 +8859,10 @@
         <v>801</v>
       </c>
       <c r="C348">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="D348" s="29">
-        <v>201.1236928765</v>
+        <v>205.4566988272</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -8864,10 +8873,10 @@
         <v>803</v>
       </c>
       <c r="C349">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="D349" s="29">
-        <v>210.93015613419999</v>
+        <v>240.73550428359999</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -8878,10 +8887,10 @@
         <v>805</v>
       </c>
       <c r="C350">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="D350" s="29">
-        <v>84.497241413599994</v>
+        <v>96.426263730800002</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -8892,10 +8901,10 @@
         <v>807</v>
       </c>
       <c r="C351">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="D351" s="29">
-        <v>131.8722722848</v>
+        <v>161.38654274859999</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -8906,10 +8915,10 @@
         <v>809</v>
       </c>
       <c r="C352">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="D352" s="29">
-        <v>254.94404194329999</v>
+        <v>290.95308741560001</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -8934,10 +8943,10 @@
         <v>813</v>
       </c>
       <c r="C354">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D354" s="29">
-        <v>189.86966238799999</v>
+        <v>156.2469096735</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -8948,10 +8957,10 @@
         <v>992</v>
       </c>
       <c r="C355">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D355" s="29">
-        <v>150.3693281745</v>
+        <v>153.8867393598</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -8962,10 +8971,10 @@
         <v>815</v>
       </c>
       <c r="C356">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D356" s="29">
-        <v>67.966671882300005</v>
+        <v>77.746049131600003</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -8976,10 +8985,10 @@
         <v>817</v>
       </c>
       <c r="C357">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="D357" s="29">
-        <v>66.927481032100005</v>
+        <v>80.008761415699993</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -8990,10 +8999,10 @@
         <v>819</v>
       </c>
       <c r="C358">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D358" s="29">
-        <v>96.585130280200005</v>
+        <v>125.8533515772</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -9004,10 +9013,10 @@
         <v>821</v>
       </c>
       <c r="C359">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D359" s="29">
-        <v>64.879057803400002</v>
+        <v>70.222039034299996</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -9018,10 +9027,10 @@
         <v>823</v>
       </c>
       <c r="C360">
-        <v>358</v>
+        <v>568</v>
       </c>
       <c r="D360" s="29">
-        <v>79.871491678200002</v>
+        <v>126.7234840034</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -9032,10 +9041,10 @@
         <v>825</v>
       </c>
       <c r="C361">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="D361" s="29">
-        <v>134.0048565518</v>
+        <v>170.87867613989999</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -9046,10 +9055,10 @@
         <v>827</v>
       </c>
       <c r="C362">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D362" s="29">
-        <v>85.601009190799999</v>
+        <v>90.925473877399995</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -9060,10 +9069,10 @@
         <v>829</v>
       </c>
       <c r="C363">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D363" s="29">
-        <v>112.9919859388</v>
+        <v>131.82398359519999</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -9074,10 +9083,10 @@
         <v>831</v>
       </c>
       <c r="C364">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D364" s="29">
-        <v>134.49367088610001</v>
+        <v>145.37183544300001</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -9088,10 +9097,10 @@
         <v>833</v>
       </c>
       <c r="C365">
-        <v>694</v>
+        <v>649</v>
       </c>
       <c r="D365" s="29">
-        <v>109.13476885919999</v>
+        <v>102.0583069014</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -9102,10 +9111,10 @@
         <v>835</v>
       </c>
       <c r="C366">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D366" s="29">
-        <v>44.335465658099999</v>
+        <v>57.002741560399997</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -9130,10 +9139,10 @@
         <v>839</v>
       </c>
       <c r="C368">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D368" s="29">
-        <v>214.73810106280001</v>
+        <v>220.17450868469999</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -9144,10 +9153,10 @@
         <v>841</v>
       </c>
       <c r="C369">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D369" s="29">
-        <v>128.2375571334</v>
+        <v>135.29650523239999</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -9158,10 +9167,10 @@
         <v>843</v>
       </c>
       <c r="C370">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="D370" s="29">
-        <v>183.2162784887</v>
+        <v>148.51622574469999</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -9172,10 +9181,10 @@
         <v>845</v>
       </c>
       <c r="C371">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="D371" s="29">
-        <v>149.44816968289999</v>
+        <v>178.20989290489999</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -9186,10 +9195,10 @@
         <v>847</v>
       </c>
       <c r="C372">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D372" s="29">
-        <v>45.7284269421</v>
+        <v>36.762068718199998</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -9200,10 +9209,10 @@
         <v>849</v>
       </c>
       <c r="C373">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D373" s="29">
-        <v>55.556299281100003</v>
+        <v>42.169239213399997</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -9214,10 +9223,10 @@
         <v>851</v>
       </c>
       <c r="C374">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="D374" s="29">
-        <v>70.841969931500003</v>
+        <v>98.391624904899999</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -9228,10 +9237,10 @@
         <v>853</v>
       </c>
       <c r="C375">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D375" s="29">
-        <v>95.903840415999994</v>
+        <v>109.401417956</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -9242,10 +9251,10 @@
         <v>855</v>
       </c>
       <c r="C376">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D376" s="29">
-        <v>51.283344682900001</v>
+        <v>69.778977191500005</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -9256,10 +9265,10 @@
         <v>857</v>
       </c>
       <c r="C377">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D377" s="29">
-        <v>47.624717228199998</v>
+        <v>82.260875212399995</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -9270,10 +9279,10 @@
         <v>859</v>
       </c>
       <c r="C378">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="D378" s="29">
-        <v>101.74303967189999</v>
+        <v>121.4606830192</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -9284,10 +9293,10 @@
         <v>861</v>
       </c>
       <c r="C379">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="D379" s="29">
-        <v>94.709679379899995</v>
+        <v>100.53407142730001</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -9298,10 +9307,10 @@
         <v>863</v>
       </c>
       <c r="C380">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D380" s="29">
-        <v>101.7293997965</v>
+        <v>87.056890210500001</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -9312,10 +9321,10 @@
         <v>865</v>
       </c>
       <c r="C381">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="D381" s="29">
-        <v>194.71449900580001</v>
+        <v>211.22738938079999</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -9326,10 +9335,10 @@
         <v>867</v>
       </c>
       <c r="C382">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D382" s="29">
-        <v>129.5391208145</v>
+        <v>139.3420813086</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -9340,10 +9349,10 @@
         <v>869</v>
       </c>
       <c r="C383">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D383" s="29">
-        <v>71.463469770200007</v>
+        <v>82.401755959499994</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -9354,10 +9363,10 @@
         <v>871</v>
       </c>
       <c r="C384">
-        <v>229</v>
+        <v>328</v>
       </c>
       <c r="D384" s="29">
-        <v>76.623737297700004</v>
+        <v>109.74928311630001</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -9368,10 +9377,10 @@
         <v>873</v>
       </c>
       <c r="C385">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="D385" s="29">
-        <v>116.4298628399</v>
+        <v>140.0944691082</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -9382,10 +9391,10 @@
         <v>875</v>
       </c>
       <c r="C386">
-        <v>948</v>
+        <v>960</v>
       </c>
       <c r="D386" s="29">
-        <v>419.47459479550002</v>
+        <v>424.78439979289999</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -9396,10 +9405,10 @@
         <v>877</v>
       </c>
       <c r="C387">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="D387" s="29">
-        <v>117.1362727747</v>
+        <v>125.2000016976</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -9410,10 +9419,10 @@
         <v>879</v>
       </c>
       <c r="C388">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="D388" s="29">
-        <v>62.304741390799997</v>
+        <v>82.331265409300002</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -9424,10 +9433,10 @@
         <v>881</v>
       </c>
       <c r="C389">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D389" s="29">
-        <v>98.9348019655</v>
+        <v>125.317415823</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -9438,10 +9447,10 @@
         <v>883</v>
       </c>
       <c r="C390">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="D390" s="29">
-        <v>109.9702057466</v>
+        <v>83.756377632600007</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -9452,10 +9461,10 @@
         <v>885</v>
       </c>
       <c r="C391">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D391" s="29">
-        <v>118.12658257459999</v>
+        <v>110.5243767653</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -9466,10 +9475,10 @@
         <v>887</v>
       </c>
       <c r="C392">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D392" s="29">
-        <v>82.061618197499996</v>
+        <v>78.462424416900006</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -9480,10 +9489,10 @@
         <v>889</v>
       </c>
       <c r="C393">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="D393" s="29">
-        <v>387.4796173954</v>
+        <v>428.66508648950003</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -9494,10 +9503,10 @@
         <v>891</v>
       </c>
       <c r="C394">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D394" s="29">
-        <v>159.09037737169999</v>
+        <v>119.31778302879999</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -9508,10 +9517,10 @@
         <v>893</v>
       </c>
       <c r="C395">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="D395" s="29">
-        <v>109.9809563176</v>
+        <v>128.4341369078</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -9522,10 +9531,10 @@
         <v>895</v>
       </c>
       <c r="C396">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D396" s="29">
-        <v>84.319617342200004</v>
+        <v>95.051205003999996</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -9536,10 +9545,10 @@
         <v>897</v>
       </c>
       <c r="C397">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="D397" s="29">
-        <v>147.28078290080001</v>
+        <v>181.36228638200001</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -9550,10 +9559,10 @@
         <v>899</v>
       </c>
       <c r="C398">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D398" s="29">
-        <v>137.22633901239999</v>
+        <v>144.61544957460001</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -9564,10 +9573,10 @@
         <v>901</v>
       </c>
       <c r="C399">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="D399" s="29">
-        <v>99.374931679699998</v>
+        <v>136.14365640119999</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -9578,10 +9587,10 @@
         <v>903</v>
       </c>
       <c r="C400">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D400" s="29">
-        <v>118.91924796080001</v>
+        <v>119.13665060789999</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -9592,10 +9601,10 @@
         <v>905</v>
       </c>
       <c r="C401">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="D401" s="29">
-        <v>116.27513179730001</v>
+        <v>209.97256809999999</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -9606,10 +9615,10 @@
         <v>907</v>
       </c>
       <c r="C402">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D402" s="29">
-        <v>109.95324510659999</v>
+        <v>101.5334020128</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -9620,10 +9629,10 @@
         <v>909</v>
       </c>
       <c r="C403">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="D403" s="29">
-        <v>117.4032477241</v>
+        <v>123.88961500169999</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -9634,10 +9643,10 @@
         <v>911</v>
       </c>
       <c r="C404">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="D404" s="29">
-        <v>86.902188355099995</v>
+        <v>99.470686670899994</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -9648,10 +9657,10 @@
         <v>913</v>
       </c>
       <c r="C405">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D405" s="29">
-        <v>60.455519194600001</v>
+        <v>61.769769611900003</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -9662,10 +9671,10 @@
         <v>915</v>
       </c>
       <c r="C406">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="D406" s="29">
-        <v>149.6562707578</v>
+        <v>186.47011276239999</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -9676,10 +9685,10 @@
         <v>917</v>
       </c>
       <c r="C407">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D407" s="29">
-        <v>64.9966623336</v>
+        <v>101.88665987420001</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -9690,10 +9699,10 @@
         <v>919</v>
       </c>
       <c r="C408">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D408" s="29">
-        <v>72.729096654499997</v>
+        <v>87.776495962300004</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -9704,10 +9713,10 @@
         <v>921</v>
       </c>
       <c r="C409">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="D409" s="29">
-        <v>73.972228252600004</v>
+        <v>115.7826181345</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -9718,10 +9727,10 @@
         <v>923</v>
       </c>
       <c r="C410">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="D410" s="29">
-        <v>150.82234085850001</v>
+        <v>202.29345718319999</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -9732,10 +9741,10 @@
         <v>925</v>
       </c>
       <c r="C411">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D411" s="29">
-        <v>198.19695822720001</v>
+        <v>209.20790035100001</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -9746,10 +9755,10 @@
         <v>927</v>
       </c>
       <c r="C412">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D412" s="29">
-        <v>162.7710504083</v>
+        <v>163.05266122219999</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -9774,10 +9783,10 @@
         <v>931</v>
       </c>
       <c r="C414">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D414" s="29">
-        <v>56.684452440500003</v>
+        <v>59.765129203599997</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -9788,10 +9797,10 @@
         <v>933</v>
       </c>
       <c r="C415">
-        <v>205</v>
+        <v>261</v>
       </c>
       <c r="D415" s="29">
-        <v>108.2576849754</v>
+        <v>137.83051599309999</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -9802,10 +9811,10 @@
         <v>935</v>
       </c>
       <c r="C416">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D416" s="29">
-        <v>32.170327260000001</v>
+        <v>43.868628081799997</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -9816,10 +9825,10 @@
         <v>937</v>
       </c>
       <c r="C417">
-        <v>840</v>
+        <v>944</v>
       </c>
       <c r="D417" s="29">
-        <v>266.66497355569999</v>
+        <v>299.68063694829999</v>
       </c>
     </row>
   </sheetData>
@@ -9836,7 +9845,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H402" sqref="H402"/>
+      <selection pane="bottomLeft" activeCell="E408" sqref="E408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9850,7 +9859,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -19016,7 +19025,7 @@
         <v>2052028</v>
       </c>
       <c r="D333" s="3">
-        <f t="shared" ref="D333:D399" si="175">B333-B332</f>
+        <f t="shared" ref="D333:D402" si="175">B333-B332</f>
         <v>11369</v>
       </c>
       <c r="E333" s="3">
@@ -20934,21 +20943,21 @@
         <v>75440</v>
       </c>
       <c r="F398" s="3">
-        <f t="shared" ref="F398:F399" si="285">E398-E397</f>
+        <f t="shared" ref="F398:F400" si="285">E398-E397</f>
         <v>228</v>
       </c>
       <c r="G398" s="4">
-        <f t="shared" ref="G398:G399" si="286">E398/B398</f>
+        <f t="shared" ref="G398:G400" si="286">E398/B398</f>
         <v>2.7805011093993026E-2</v>
       </c>
       <c r="H398" s="3">
-        <f t="shared" ref="H398:H399" si="287">B398-E398</f>
+        <f t="shared" ref="H398:H400" si="287">B398-E398</f>
         <v>2637740</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="26" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B399" s="32">
         <v>2734753</v>
@@ -20977,70 +20986,148 @@
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A400" s="26"/>
-      <c r="G400" s="4"/>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401" s="26"/>
-      <c r="G401" s="4"/>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A402" s="26"/>
-      <c r="G402" s="4"/>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400" s="26" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B400" s="32">
+        <v>2755225</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D400" s="3">
+        <f t="shared" si="175"/>
+        <v>20472</v>
+      </c>
+      <c r="E400" s="3">
+        <v>75780</v>
+      </c>
+      <c r="F400" s="3">
+        <f t="shared" si="285"/>
+        <v>157</v>
+      </c>
+      <c r="G400" s="4">
+        <f t="shared" si="286"/>
+        <v>2.7504105835276609E-2</v>
+      </c>
+      <c r="H400" s="3">
+        <f t="shared" si="287"/>
+        <v>2679445</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A401" s="26" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B401" s="32">
+        <v>2772401</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D401" s="3">
+        <f t="shared" si="175"/>
+        <v>17176</v>
+      </c>
+      <c r="E401" s="3">
+        <v>75870</v>
+      </c>
+      <c r="F401" s="3">
+        <f t="shared" ref="F401" si="288">E401-E400</f>
+        <v>90</v>
+      </c>
+      <c r="G401" s="4">
+        <f t="shared" ref="G401" si="289">E401/B401</f>
+        <v>2.7366171055341563E-2</v>
+      </c>
+      <c r="H401" s="3">
+        <f t="shared" ref="H401" si="290">B401-E401</f>
+        <v>2696531</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A402" s="26" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B402" s="32">
+        <v>2782273</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D402" s="3">
+        <f t="shared" si="175"/>
+        <v>9872</v>
+      </c>
+      <c r="E402" s="3">
+        <v>75913</v>
+      </c>
+      <c r="F402" s="3">
+        <f t="shared" ref="F402" si="291">E402-E401</f>
+        <v>43</v>
+      </c>
+      <c r="G402" s="4">
+        <f t="shared" ref="G402" si="292">E402/B402</f>
+        <v>2.7284525997269139E-2</v>
+      </c>
+      <c r="H402" s="3">
+        <f t="shared" ref="H402" si="293">B402-E402</f>
+        <v>2706360</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="26"/>
       <c r="G403" s="4"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="26"/>
       <c r="G404" s="4"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="26"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="26"/>
       <c r="G406" s="4"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="26"/>
       <c r="G407" s="4"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="26"/>
       <c r="G408" s="4"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="26"/>
       <c r="G409" s="4"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="26"/>
       <c r="G410" s="4"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="26"/>
       <c r="G411" s="4"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="26"/>
       <c r="G412" s="4"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="26"/>
       <c r="G413" s="4"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="26"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="26"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="26"/>
       <c r="G416" s="4"/>
     </row>
@@ -21431,8 +21518,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A2:LS20"/>
   <sheetViews>
-    <sheetView topLeftCell="KV1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="LN4" sqref="LN4:LN20"/>
+    <sheetView topLeftCell="LG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="LO35" sqref="LO35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21443,7 +21530,7 @@
   <sheetData>
     <row r="2" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="3" spans="1:331" x14ac:dyDescent="0.25">
@@ -23417,6 +23504,15 @@
       <c r="LN4" s="3">
         <v>12793</v>
       </c>
+      <c r="LO4" s="3">
+        <v>13453</v>
+      </c>
+      <c r="LP4" s="3">
+        <v>13485</v>
+      </c>
+      <c r="LQ4" s="3">
+        <v>14145</v>
+      </c>
     </row>
     <row r="5" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -24397,6 +24493,15 @@
       <c r="LN5" s="3">
         <v>16021</v>
       </c>
+      <c r="LO5" s="3">
+        <v>17102</v>
+      </c>
+      <c r="LP5" s="3">
+        <v>17819</v>
+      </c>
+      <c r="LQ5" s="3">
+        <v>18157</v>
+      </c>
     </row>
     <row r="6" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -25377,6 +25482,15 @@
       <c r="LN6" s="3">
         <v>4323</v>
       </c>
+      <c r="LO6" s="3">
+        <v>4680</v>
+      </c>
+      <c r="LP6" s="3">
+        <v>5146</v>
+      </c>
+      <c r="LQ6" s="3">
+        <v>5362</v>
+      </c>
     </row>
     <row r="7" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -26357,6 +26471,15 @@
       <c r="LN7" s="3">
         <v>3273</v>
       </c>
+      <c r="LO7" s="3">
+        <v>3412</v>
+      </c>
+      <c r="LP7" s="3">
+        <v>3457</v>
+      </c>
+      <c r="LQ7" s="3">
+        <v>3566</v>
+      </c>
     </row>
     <row r="8" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -27337,6 +27460,15 @@
       <c r="LN8" s="3">
         <v>794</v>
       </c>
+      <c r="LO8" s="3">
+        <v>853</v>
+      </c>
+      <c r="LP8" s="3">
+        <v>892</v>
+      </c>
+      <c r="LQ8" s="3">
+        <v>927</v>
+      </c>
     </row>
     <row r="9" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -28317,6 +28449,15 @@
       <c r="LN9" s="3">
         <v>2002</v>
       </c>
+      <c r="LO9" s="3">
+        <v>2231</v>
+      </c>
+      <c r="LP9" s="3">
+        <v>2531</v>
+      </c>
+      <c r="LQ9" s="3">
+        <v>2533</v>
+      </c>
     </row>
     <row r="10" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -29297,6 +29438,15 @@
       <c r="LN10" s="3">
         <v>8155</v>
       </c>
+      <c r="LO10" s="3">
+        <v>8432</v>
+      </c>
+      <c r="LP10" s="3">
+        <v>8379</v>
+      </c>
+      <c r="LQ10" s="3">
+        <v>8723</v>
+      </c>
     </row>
     <row r="11" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -30277,6 +30427,15 @@
       <c r="LN11" s="3">
         <v>1533</v>
       </c>
+      <c r="LO11" s="3">
+        <v>1621</v>
+      </c>
+      <c r="LP11" s="3">
+        <v>1667</v>
+      </c>
+      <c r="LQ11" s="3">
+        <v>1716</v>
+      </c>
     </row>
     <row r="12" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -31257,6 +31416,15 @@
       <c r="LN12" s="3">
         <v>7840</v>
       </c>
+      <c r="LO12" s="3">
+        <v>8268</v>
+      </c>
+      <c r="LP12" s="3">
+        <v>8916</v>
+      </c>
+      <c r="LQ12" s="3">
+        <v>9417</v>
+      </c>
     </row>
     <row r="13" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -32237,6 +32405,15 @@
       <c r="LN13" s="3">
         <v>21515</v>
       </c>
+      <c r="LO13" s="3">
+        <v>22210</v>
+      </c>
+      <c r="LP13" s="3">
+        <v>23109</v>
+      </c>
+      <c r="LQ13" s="3">
+        <v>23265</v>
+      </c>
     </row>
     <row r="14" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -33217,6 +33394,15 @@
       <c r="LN14" s="3">
         <v>3836</v>
       </c>
+      <c r="LO14" s="3">
+        <v>3985</v>
+      </c>
+      <c r="LP14" s="3">
+        <v>4067</v>
+      </c>
+      <c r="LQ14" s="3">
+        <v>4341</v>
+      </c>
     </row>
     <row r="15" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -34197,6 +34383,15 @@
       <c r="LN15" s="3">
         <v>603</v>
       </c>
+      <c r="LO15" s="3">
+        <v>688</v>
+      </c>
+      <c r="LP15" s="3">
+        <v>773</v>
+      </c>
+      <c r="LQ15" s="3">
+        <v>779</v>
+      </c>
     </row>
     <row r="16" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -35177,8 +35372,17 @@
       <c r="LN16" s="3">
         <v>6887</v>
       </c>
-    </row>
-    <row r="17" spans="1:326" x14ac:dyDescent="0.25">
+      <c r="LO16" s="3">
+        <v>7182</v>
+      </c>
+      <c r="LP16" s="3">
+        <v>7451</v>
+      </c>
+      <c r="LQ16" s="3">
+        <v>8161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:329" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -36157,8 +36361,17 @@
       <c r="LN17" s="3">
         <v>2959</v>
       </c>
-    </row>
-    <row r="18" spans="1:326" x14ac:dyDescent="0.25">
+      <c r="LO17" s="3">
+        <v>3212</v>
+      </c>
+      <c r="LP17" s="3">
+        <v>3310</v>
+      </c>
+      <c r="LQ17" s="3">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="18" spans="1:329" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -37137,8 +37350,17 @@
       <c r="LN18" s="3">
         <v>1813</v>
       </c>
-    </row>
-    <row r="19" spans="1:326" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="LO18" s="3">
+        <v>1903</v>
+      </c>
+      <c r="LP18" s="3">
+        <v>1935</v>
+      </c>
+      <c r="LQ18" s="3">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:329" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -38117,8 +38339,17 @@
       <c r="LN19" s="3">
         <v>4725</v>
       </c>
-    </row>
-    <row r="20" spans="1:326" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="LO19" s="3">
+        <v>4647</v>
+      </c>
+      <c r="LP19" s="3">
+        <v>4953</v>
+      </c>
+      <c r="LQ19" s="3">
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:329" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -39096,6 +39327,15 @@
       </c>
       <c r="LN20" s="12">
         <v>99072</v>
+      </c>
+      <c r="LO20" s="12">
+        <v>103879</v>
+      </c>
+      <c r="LP20" s="12">
+        <v>107890</v>
+      </c>
+      <c r="LQ20" s="12">
+        <v>111769</v>
       </c>
     </row>
   </sheetData>
@@ -39110,8 +39350,8 @@
   <dimension ref="A2:LT21"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="KW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="LO30" sqref="LO30"/>
+      <pane xSplit="1" topLeftCell="LM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="LP31" sqref="LP31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39180,7 +39420,7 @@
   <sheetData>
     <row r="2" spans="1:332" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="3" spans="1:332" x14ac:dyDescent="0.25">
@@ -41157,9 +41397,15 @@
       <c r="LO4" s="16">
         <v>115.24816146165622</v>
       </c>
-      <c r="LP4" s="16"/>
-      <c r="LQ4" s="16"/>
-      <c r="LR4" s="16"/>
+      <c r="LP4" s="16">
+        <v>121.19389636079585</v>
+      </c>
+      <c r="LQ4" s="16">
+        <v>121.4821744165117</v>
+      </c>
+      <c r="LR4" s="16">
+        <v>127.42790931565132</v>
+      </c>
       <c r="LS4" s="16"/>
       <c r="LT4" s="16"/>
     </row>
@@ -42145,9 +42391,15 @@
       <c r="LO5" s="16">
         <v>122.06720789909923</v>
       </c>
-      <c r="LP5" s="16"/>
-      <c r="LQ5" s="16"/>
-      <c r="LR5" s="16"/>
+      <c r="LP5" s="16">
+        <v>130.30356341616599</v>
+      </c>
+      <c r="LQ5" s="16">
+        <v>135.76653002646833</v>
+      </c>
+      <c r="LR5" s="16">
+        <v>138.34181972560668</v>
+      </c>
       <c r="LS5" s="16"/>
       <c r="LT5" s="16"/>
     </row>
@@ -43133,9 +43385,15 @@
       <c r="LO6" s="16">
         <v>117.80925474405032</v>
       </c>
-      <c r="LP6" s="16"/>
-      <c r="LQ6" s="16"/>
-      <c r="LR6" s="16"/>
+      <c r="LP6" s="16">
+        <v>127.5381244973758</v>
+      </c>
+      <c r="LQ6" s="16">
+        <v>140.23743347510595</v>
+      </c>
+      <c r="LR6" s="16">
+        <v>146.12380845190791</v>
+      </c>
       <c r="LS6" s="16"/>
       <c r="LT6" s="16"/>
     </row>
@@ -44121,9 +44379,15 @@
       <c r="LO7" s="16">
         <v>129.78346028162179</v>
       </c>
-      <c r="LP7" s="16"/>
-      <c r="LQ7" s="16"/>
-      <c r="LR7" s="16"/>
+      <c r="LP7" s="16">
+        <v>135.29519293641721</v>
+      </c>
+      <c r="LQ7" s="16">
+        <v>137.07956681746609</v>
+      </c>
+      <c r="LR7" s="16">
+        <v>141.40171688489559</v>
+      </c>
       <c r="LS7" s="16"/>
       <c r="LT7" s="16"/>
     </row>
@@ -45109,9 +45373,15 @@
       <c r="LO8" s="16">
         <v>116.55867128986704</v>
       </c>
-      <c r="LP8" s="16"/>
-      <c r="LQ8" s="16"/>
-      <c r="LR8" s="16"/>
+      <c r="LP8" s="16">
+        <v>125.21983200284204</v>
+      </c>
+      <c r="LQ8" s="16">
+        <v>130.94500603345264</v>
+      </c>
+      <c r="LR8" s="16">
+        <v>136.08298272759035</v>
+      </c>
       <c r="LS8" s="16"/>
       <c r="LT8" s="16"/>
     </row>
@@ -46097,9 +46367,15 @@
       <c r="LO9" s="16">
         <v>108.37714162597111</v>
       </c>
-      <c r="LP9" s="16"/>
-      <c r="LQ9" s="16"/>
-      <c r="LR9" s="16"/>
+      <c r="LP9" s="16">
+        <v>120.77392755621456</v>
+      </c>
+      <c r="LQ9" s="16">
+        <v>137.01425846919724</v>
+      </c>
+      <c r="LR9" s="16">
+        <v>137.12252734195044</v>
+      </c>
       <c r="LS9" s="16"/>
       <c r="LT9" s="16"/>
     </row>
@@ -47085,9 +47361,15 @@
       <c r="LO10" s="16">
         <v>129.68982582918792</v>
       </c>
-      <c r="LP10" s="16"/>
-      <c r="LQ10" s="16"/>
-      <c r="LR10" s="16"/>
+      <c r="LP10" s="16">
+        <v>134.09498606887954</v>
+      </c>
+      <c r="LQ10" s="16">
+        <v>133.25212147428149</v>
+      </c>
+      <c r="LR10" s="16">
+        <v>138.72278978638948</v>
+      </c>
       <c r="LS10" s="16"/>
       <c r="LT10" s="16"/>
     </row>
@@ -48073,9 +48355,15 @@
       <c r="LO11" s="16">
         <v>95.327639792107391</v>
       </c>
-      <c r="LP11" s="16"/>
-      <c r="LQ11" s="16"/>
-      <c r="LR11" s="16"/>
+      <c r="LP11" s="16">
+        <v>100.79980698173912</v>
+      </c>
+      <c r="LQ11" s="16">
+        <v>103.660258012683</v>
+      </c>
+      <c r="LR11" s="16">
+        <v>106.70726019781885</v>
+      </c>
       <c r="LS11" s="16"/>
       <c r="LT11" s="16"/>
     </row>
@@ -49061,9 +49349,15 @@
       <c r="LO12" s="16">
         <v>98.078364613326045</v>
       </c>
-      <c r="LP12" s="16"/>
-      <c r="LQ12" s="16"/>
-      <c r="LR12" s="16"/>
+      <c r="LP12" s="16">
+        <v>103.43264268150253</v>
+      </c>
+      <c r="LQ12" s="16">
+        <v>111.53911975668559</v>
+      </c>
+      <c r="LR12" s="16">
+        <v>117.8066274953688</v>
+      </c>
       <c r="LS12" s="16"/>
       <c r="LT12" s="16"/>
     </row>
@@ -50049,9 +50343,15 @@
       <c r="LO13" s="16">
         <v>119.87928381781224</v>
       </c>
-      <c r="LP13" s="16"/>
-      <c r="LQ13" s="16"/>
-      <c r="LR13" s="16"/>
+      <c r="LP13" s="16">
+        <v>123.75174964413711</v>
+      </c>
+      <c r="LQ13" s="16">
+        <v>128.76088169862064</v>
+      </c>
+      <c r="LR13" s="16">
+        <v>129.63009704956551</v>
+      </c>
       <c r="LS13" s="16"/>
       <c r="LT13" s="16"/>
     </row>
@@ -51037,9 +51337,15 @@
       <c r="LO14" s="16">
         <v>93.700314834034913</v>
       </c>
-      <c r="LP14" s="16"/>
-      <c r="LQ14" s="16"/>
-      <c r="LR14" s="16"/>
+      <c r="LP14" s="16">
+        <v>97.339873465492474</v>
+      </c>
+      <c r="LQ14" s="16">
+        <v>99.342852041193936</v>
+      </c>
+      <c r="LR14" s="16">
+        <v>106.03573167219642</v>
+      </c>
       <c r="LS14" s="16"/>
       <c r="LT14" s="16"/>
     </row>
@@ -52025,9 +52331,15 @@
       <c r="LO15" s="16">
         <v>61.101220301817733</v>
       </c>
-      <c r="LP15" s="16"/>
-      <c r="LQ15" s="16"/>
-      <c r="LR15" s="16"/>
+      <c r="LP15" s="16">
+        <v>69.714161803732338</v>
+      </c>
+      <c r="LQ15" s="16">
+        <v>78.327103305646943</v>
+      </c>
+      <c r="LR15" s="16">
+        <v>78.935075646958566</v>
+      </c>
       <c r="LS15" s="16"/>
       <c r="LT15" s="16"/>
     </row>
@@ -53013,9 +53325,15 @@
       <c r="LO16" s="16">
         <v>169.13185285455128</v>
       </c>
-      <c r="LP16" s="16"/>
-      <c r="LQ16" s="16"/>
-      <c r="LR16" s="16"/>
+      <c r="LP16" s="16">
+        <v>176.37650169905433</v>
+      </c>
+      <c r="LQ16" s="16">
+        <v>182.9826391199741</v>
+      </c>
+      <c r="LR16" s="16">
+        <v>200.41891261013402</v>
+      </c>
       <c r="LS16" s="16"/>
       <c r="LT16" s="16"/>
     </row>
@@ -54001,9 +54319,15 @@
       <c r="LO17" s="16">
         <v>134.81976797695626</v>
       </c>
-      <c r="LP17" s="16"/>
-      <c r="LQ17" s="16"/>
-      <c r="LR17" s="16"/>
+      <c r="LP17" s="16">
+        <v>146.3471087333503</v>
+      </c>
+      <c r="LQ17" s="16">
+        <v>150.81224467851476</v>
+      </c>
+      <c r="LR17" s="16">
+        <v>167.21478488524144</v>
+      </c>
       <c r="LS17" s="16"/>
       <c r="LT17" s="16"/>
     </row>
@@ -54989,9 +55313,15 @@
       <c r="LO18" s="16">
         <v>62.436009977363938</v>
       </c>
-      <c r="LP18" s="16"/>
-      <c r="LQ18" s="16"/>
-      <c r="LR18" s="16"/>
+      <c r="LP18" s="16">
+        <v>65.535425806356074</v>
+      </c>
+      <c r="LQ18" s="16">
+        <v>66.637440323331063</v>
+      </c>
+      <c r="LR18" s="16">
+        <v>68.565965728037284</v>
+      </c>
       <c r="LS18" s="16"/>
       <c r="LT18" s="16"/>
     </row>
@@ -55977,9 +56307,15 @@
       <c r="LO19" s="16">
         <v>221.47973776799049</v>
       </c>
-      <c r="LP19" s="16"/>
-      <c r="LQ19" s="16"/>
-      <c r="LR19" s="16"/>
+      <c r="LP19" s="16">
+        <v>217.82356431912206</v>
+      </c>
+      <c r="LQ19" s="16">
+        <v>232.16701400314432</v>
+      </c>
+      <c r="LR19" s="16">
+        <v>235.12007717338417</v>
+      </c>
       <c r="LS19" s="16"/>
       <c r="LT19" s="16"/>
     </row>
@@ -56965,9 +57301,15 @@
       <c r="LO20" s="17">
         <v>119.12458579731498</v>
       </c>
-      <c r="LP20" s="17"/>
-      <c r="LQ20" s="17"/>
-      <c r="LR20" s="17"/>
+      <c r="LP20" s="17">
+        <v>124.90454263605544</v>
+      </c>
+      <c r="LQ20" s="17">
+        <v>129.72738575654387</v>
+      </c>
+      <c r="LR20" s="17">
+        <v>134.39151152676939</v>
+      </c>
       <c r="LS20" s="17"/>
       <c r="LT20" s="17"/>
     </row>

--- a/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
+++ b/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1853529-5FFC-47DB-9C3E-873FAD809837}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4522BA9E-DDAF-4E2D-B509-86CC3F24E75D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="165" windowWidth="15285" windowHeight="10800" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="1044">
   <si>
     <t>Todesfälle</t>
   </si>
@@ -3168,10 +3168,13 @@
     <t>28.03.2021</t>
   </si>
   <si>
-    <t>Stand: 29.03.2021 06:18:42</t>
-  </si>
-  <si>
     <t>29.03.2021</t>
+  </si>
+  <si>
+    <t>Stand: 30.03.2021 06:22:57</t>
+  </si>
+  <si>
+    <t>30.03.2021</t>
   </si>
 </sst>
 </file>
@@ -3386,6 +3389,20 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet002" fillFormulas="1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
+    <queryTableFields count="5">
+      <queryTableField id="1" name="Berichtsdatum"/>
+      <queryTableField id="2" name="Fälle gesamt"/>
+      <queryTableField id="3"/>
+      <queryTableField id="4"/>
+      <queryTableField id="5" name="Todesfälle"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet001" fillFormulas="1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="4">
     <queryTableFields count="3">
@@ -3397,25 +3414,11 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet003" fillFormulas="1" connectionId="3" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
       <queryTableField id="1" name="Bev"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet002" fillFormulas="1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
-    <queryTableFields count="5">
-      <queryTableField id="1" name="Berichtsdatum"/>
-      <queryTableField id="2" name="Fälle gesamt"/>
-      <queryTableField id="3"/>
-      <queryTableField id="4"/>
-      <queryTableField id="5" name="Todesfälle"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3759,13 +3762,13 @@
   <dimension ref="A2:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D27:D28"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -3775,7 +3778,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3794,10 +3797,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>14145</v>
+        <v>14104</v>
       </c>
       <c r="C6" s="29">
-        <v>127.42790931565132</v>
+        <v>127.05855305676536</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3805,10 +3808,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>18157</v>
+        <v>18438</v>
       </c>
       <c r="C7" s="29">
-        <v>138.34181972560668</v>
+        <v>140.48281500802645</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3816,10 +3819,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>5362</v>
+        <v>5013</v>
       </c>
       <c r="C8" s="29">
-        <v>146.12380845190791</v>
+        <v>136.61295258661215</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3827,10 +3830,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>3566</v>
+        <v>3667</v>
       </c>
       <c r="C9" s="29">
-        <v>141.40171688489559</v>
+        <v>145.40664492902752</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3838,10 +3841,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>927</v>
+        <v>943</v>
       </c>
       <c r="C10" s="29">
-        <v>136.08298272759035</v>
+        <v>138.43177207348188</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3849,10 +3852,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>2533</v>
+        <v>2599</v>
       </c>
       <c r="C11" s="29">
-        <v>137.12252734195044</v>
+        <v>140.69540014280665</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3860,10 +3863,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>8723</v>
+        <v>8861</v>
       </c>
       <c r="C12" s="29">
-        <v>138.72278978638948</v>
+        <v>140.91741835345607</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3871,10 +3874,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1716</v>
+        <v>1711</v>
       </c>
       <c r="C13" s="29">
-        <v>106.70726019781885</v>
+        <v>106.39634160749885</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3882,10 +3885,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>9417</v>
+        <v>9329</v>
       </c>
       <c r="C14" s="29">
-        <v>117.8066274953688</v>
+        <v>116.70574789256617</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3893,10 +3896,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>23265</v>
+        <v>23747</v>
       </c>
       <c r="C15" s="29">
-        <v>129.63009704956551</v>
+        <v>132.31574960825409</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3904,10 +3907,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>4341</v>
+        <v>4666</v>
       </c>
       <c r="C16" s="29">
-        <v>106.03573167219642</v>
+        <v>113.97436627101325</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -3915,10 +3918,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>779</v>
+        <v>747</v>
       </c>
       <c r="C17" s="29">
-        <v>78.935075646958566</v>
+        <v>75.692556493296593</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -3926,10 +3929,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>8161</v>
+        <v>7877</v>
       </c>
       <c r="C18" s="29">
-        <v>200.41891261013402</v>
+        <v>193.44440321407004</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3937,10 +3940,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>3670</v>
+        <v>3689</v>
       </c>
       <c r="C19" s="29">
-        <v>167.21478488524144</v>
+        <v>168.08047450726315</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -3948,10 +3951,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>1991</v>
+        <v>2023</v>
       </c>
       <c r="C20" s="29">
-        <v>68.565965728037284</v>
+        <v>69.667980245012274</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -3959,10 +3962,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>5016</v>
+        <v>5068</v>
       </c>
       <c r="C21" s="29">
-        <v>235.12007717338417</v>
+        <v>237.55752613929644</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -3971,11 +3974,11 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B6:B21)</f>
-        <v>111769</v>
+        <v>112482</v>
       </c>
       <c r="C22" s="30">
         <f>B22/A36*100000</f>
-        <v>134.39151152676939</v>
+        <v>135.24882569902277</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -3997,10 +4000,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B31">
-        <v>2782273</v>
+        <v>2791822</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -4009,7 +4012,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>75913</v>
+        <v>76093</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -4046,7 +4049,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4071,10 +4074,10 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="D6" s="29">
-        <v>106.4582263665</v>
+        <v>103.9448786951</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4085,10 +4088,10 @@
         <v>120</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D7" s="29">
-        <v>75.3347785311</v>
+        <v>79.9471119106</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4099,10 +4102,10 @@
         <v>122</v>
       </c>
       <c r="C8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D8" s="29">
-        <v>100.9988489102</v>
+        <v>103.226764695</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4113,10 +4116,10 @@
         <v>124</v>
       </c>
       <c r="C9">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D9" s="29">
-        <v>127.8694513792</v>
+        <v>129.8991252106</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4127,10 +4130,10 @@
         <v>126</v>
       </c>
       <c r="C10">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D10" s="29">
-        <v>242.74831362629999</v>
+        <v>234.91772286419999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4141,10 +4144,10 @@
         <v>128</v>
       </c>
       <c r="C11">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="D11" s="29">
-        <v>222.81743721129999</v>
+        <v>211.94829393270001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4155,10 +4158,10 @@
         <v>130</v>
       </c>
       <c r="C12">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D12" s="29">
-        <v>61.317975785400002</v>
+        <v>52.901783030600001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4169,10 +4172,10 @@
         <v>132</v>
       </c>
       <c r="C13">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D13" s="29">
-        <v>128.2327199684</v>
+        <v>133.6131138133</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4183,10 +4186,10 @@
         <v>134</v>
       </c>
       <c r="C14">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="D14" s="29">
-        <v>154.21746204319999</v>
+        <v>171.18138286799999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4211,10 +4214,10 @@
         <v>138</v>
       </c>
       <c r="C16">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D16" s="29">
-        <v>256.1888033848</v>
+        <v>254.24797911670001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4225,10 +4228,10 @@
         <v>140</v>
       </c>
       <c r="C17">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D17" s="29">
-        <v>105.7192513155</v>
+        <v>98.511120543999994</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4239,10 +4242,10 @@
         <v>142</v>
       </c>
       <c r="C18">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D18" s="29">
-        <v>78.240349305300001</v>
+        <v>76.347437628600005</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4253,10 +4256,10 @@
         <v>144</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="29">
-        <v>50.241638355900001</v>
+        <v>47.849179386599999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4267,10 +4270,10 @@
         <v>146</v>
       </c>
       <c r="C20">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="D20" s="29">
-        <v>170.10580147460001</v>
+        <v>178.7736130147</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4295,10 +4298,10 @@
         <v>150</v>
       </c>
       <c r="C22">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D22" s="29">
-        <v>115.3846153846</v>
+        <v>113.66245694600001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4309,10 +4312,10 @@
         <v>152</v>
       </c>
       <c r="C23">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D23" s="29">
-        <v>164.2041661328</v>
+        <v>163.19264149540001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4323,10 +4326,10 @@
         <v>154</v>
       </c>
       <c r="C24">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D24" s="29">
-        <v>111.6511749018</v>
+        <v>109.284012183</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4337,10 +4340,10 @@
         <v>156</v>
       </c>
       <c r="C25">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D25" s="29">
-        <v>73.803072316500007</v>
+        <v>75.384566723199995</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4351,10 +4354,10 @@
         <v>158</v>
       </c>
       <c r="C26">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D26" s="29">
-        <v>96.479260727699995</v>
+        <v>101.7554702987</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4365,10 +4368,10 @@
         <v>160</v>
       </c>
       <c r="C27">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D27" s="29">
-        <v>88.148399283200007</v>
+        <v>89.117063011599996</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4379,10 +4382,10 @@
         <v>162</v>
       </c>
       <c r="C28">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D28" s="29">
-        <v>94.729862010199994</v>
+        <v>104.20284821120001</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -4393,10 +4396,10 @@
         <v>164</v>
       </c>
       <c r="C29">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D29" s="29">
-        <v>92.247316619399996</v>
+        <v>86.7750181758</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -4407,10 +4410,10 @@
         <v>166</v>
       </c>
       <c r="C30">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D30" s="29">
-        <v>132.28232309500001</v>
+        <v>157.65153574339999</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -4421,10 +4424,10 @@
         <v>168</v>
       </c>
       <c r="C31">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D31" s="29">
-        <v>136.99869463510001</v>
+        <v>156.38530236650001</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4435,10 +4438,10 @@
         <v>170</v>
       </c>
       <c r="C32">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D32" s="29">
-        <v>86.298865883399998</v>
+        <v>91.0554962864</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4449,10 +4452,10 @@
         <v>172</v>
       </c>
       <c r="C33">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="D33" s="29">
-        <v>113.36399559500001</v>
+        <v>126.8597093563</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -4463,10 +4466,10 @@
         <v>174</v>
       </c>
       <c r="C34">
-        <v>556</v>
+        <v>506</v>
       </c>
       <c r="D34" s="29">
-        <v>185.4829562514</v>
+        <v>168.8028342863</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4477,10 +4480,10 @@
         <v>176</v>
       </c>
       <c r="C35">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D35" s="29">
-        <v>175.17350199910001</v>
+        <v>176.5107043045</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -4505,10 +4508,10 @@
         <v>180</v>
       </c>
       <c r="C37">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D37" s="29">
-        <v>87.794654910399998</v>
+        <v>88.738683457799993</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -4519,10 +4522,10 @@
         <v>182</v>
       </c>
       <c r="C38">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="D38" s="29">
-        <v>108.751941999</v>
+        <v>114.6704150329</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -4533,10 +4536,10 @@
         <v>184</v>
       </c>
       <c r="C39">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D39" s="29">
-        <v>114.2341081516</v>
+        <v>110.9446443043</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -4547,10 +4550,10 @@
         <v>186</v>
       </c>
       <c r="C40">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D40" s="29">
-        <v>127.2783353837</v>
+        <v>124.0875136053</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4561,10 +4564,10 @@
         <v>188</v>
       </c>
       <c r="C41">
-        <v>467</v>
+        <v>358</v>
       </c>
       <c r="D41" s="29">
-        <v>162.98922944829999</v>
+        <v>124.9467754658</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4575,10 +4578,10 @@
         <v>190</v>
       </c>
       <c r="C42">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D42" s="29">
-        <v>193.94068457259999</v>
+        <v>192.4195811642</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4589,10 +4592,10 @@
         <v>192</v>
       </c>
       <c r="C43">
-        <v>645</v>
+        <v>587</v>
       </c>
       <c r="D43" s="29">
-        <v>171.89090657130001</v>
+        <v>156.43404985640001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4603,10 +4606,10 @@
         <v>194</v>
       </c>
       <c r="C44">
-        <v>681</v>
+        <v>578</v>
       </c>
       <c r="D44" s="29">
-        <v>212.06827290480001</v>
+        <v>179.99333588690001</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4617,10 +4620,10 @@
         <v>196</v>
       </c>
       <c r="C45">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D45" s="29">
-        <v>107.52796229489999</v>
+        <v>106.0205609543</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4631,10 +4634,10 @@
         <v>198</v>
       </c>
       <c r="C46">
-        <v>282</v>
+        <v>341</v>
       </c>
       <c r="D46" s="29">
-        <v>108.5914305188</v>
+        <v>131.31091420889999</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4645,10 +4648,10 @@
         <v>200</v>
       </c>
       <c r="C47">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="D47" s="29">
-        <v>167.3507127048</v>
+        <v>157.30966994260001</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4659,10 +4662,10 @@
         <v>202</v>
       </c>
       <c r="C48">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="D48" s="29">
-        <v>135.6820671328</v>
+        <v>124.761315388</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4673,10 +4676,10 @@
         <v>204</v>
       </c>
       <c r="C49">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D49" s="29">
-        <v>128.44820523620001</v>
+        <v>127.863019791</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4687,10 +4690,10 @@
         <v>206</v>
       </c>
       <c r="C50">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="D50" s="29">
-        <v>134.7152592237</v>
+        <v>116.3279397196</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4701,10 +4704,10 @@
         <v>208</v>
       </c>
       <c r="C51">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D51" s="29">
-        <v>23.114603984599999</v>
+        <v>24.892650445000001</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4715,10 +4718,10 @@
         <v>210</v>
       </c>
       <c r="C52">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="D52" s="29">
-        <v>163.45227094329999</v>
+        <v>169.41405590170001</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -4729,10 +4732,10 @@
         <v>212</v>
       </c>
       <c r="C53">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="D53" s="29">
-        <v>122.68286479450001</v>
+        <v>115.20220230699999</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4757,10 +4760,10 @@
         <v>216</v>
       </c>
       <c r="C55">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D55" s="29">
-        <v>92.874881382599995</v>
+        <v>89.846352641899998</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4771,10 +4774,10 @@
         <v>218</v>
       </c>
       <c r="C56">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D56" s="29">
-        <v>79.937475656000004</v>
+        <v>77.646274124399994</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4785,10 +4788,10 @@
         <v>220</v>
       </c>
       <c r="C57">
-        <v>545</v>
+        <v>508</v>
       </c>
       <c r="D57" s="29">
-        <v>149.07532270019999</v>
+        <v>138.95461271869999</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4799,10 +4802,10 @@
         <v>222</v>
       </c>
       <c r="C58">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="D58" s="29">
-        <v>110.36004966199999</v>
+        <v>101.1633788569</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4813,10 +4816,10 @@
         <v>224</v>
       </c>
       <c r="C59">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D59" s="29">
-        <v>110.4124389926</v>
+        <v>111.01910074529999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4827,10 +4830,10 @@
         <v>226</v>
       </c>
       <c r="C60">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="D60" s="29">
-        <v>129.88304675200001</v>
+        <v>153.2853975182</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -4841,10 +4844,10 @@
         <v>228</v>
       </c>
       <c r="C61">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="D61" s="29">
-        <v>148.6512324318</v>
+        <v>151.613485252</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -4855,10 +4858,10 @@
         <v>230</v>
       </c>
       <c r="C62">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D62" s="29">
-        <v>130.99136647809999</v>
+        <v>130.14077318930001</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -4869,10 +4872,10 @@
         <v>232</v>
       </c>
       <c r="C63">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D63" s="29">
-        <v>119.13997561790001</v>
+        <v>114.9839299568</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -4883,10 +4886,10 @@
         <v>234</v>
       </c>
       <c r="C64">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D64" s="29">
-        <v>114.2715091056</v>
+        <v>113.8705564421</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -4897,10 +4900,10 @@
         <v>236</v>
       </c>
       <c r="C65">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D65" s="29">
-        <v>88.011805721499996</v>
+        <v>84.597554637499996</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4911,10 +4914,10 @@
         <v>238</v>
       </c>
       <c r="C66">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="D66" s="29">
-        <v>113.9969589065</v>
+        <v>115.75889026519999</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4925,10 +4928,10 @@
         <v>240</v>
       </c>
       <c r="C67">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D67" s="29">
-        <v>246.38561108030001</v>
+        <v>251.6653027463</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4939,10 +4942,10 @@
         <v>242</v>
       </c>
       <c r="C68">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="D68" s="29">
-        <v>304.17230466429999</v>
+        <v>296.34434094139999</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4953,10 +4956,10 @@
         <v>244</v>
       </c>
       <c r="C69">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D69" s="29">
-        <v>87.939146110899998</v>
+        <v>80.401505015699996</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4967,10 +4970,10 @@
         <v>246</v>
       </c>
       <c r="C70">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D70" s="29">
-        <v>149.71147024480001</v>
+        <v>144.68384624410001</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4981,10 +4984,10 @@
         <v>248</v>
       </c>
       <c r="C71">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D71" s="29">
-        <v>331.25517586209997</v>
+        <v>332.0364380693</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4995,10 +4998,10 @@
         <v>250</v>
       </c>
       <c r="C72">
-        <v>734</v>
+        <v>705</v>
       </c>
       <c r="D72" s="29">
-        <v>297.9694236281</v>
+        <v>286.19678972449998</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -5009,10 +5012,10 @@
         <v>252</v>
       </c>
       <c r="C73">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="D73" s="29">
-        <v>194.5137741531</v>
+        <v>205.05970166739999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -5023,10 +5026,10 @@
         <v>254</v>
       </c>
       <c r="C74">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D74" s="29">
-        <v>82.781456953599999</v>
+        <v>87.650954421500003</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -5037,10 +5040,10 @@
         <v>256</v>
       </c>
       <c r="C75">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D75" s="29">
-        <v>78.388878001500004</v>
+        <v>77.236100383899995</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -5051,10 +5054,10 @@
         <v>258</v>
       </c>
       <c r="C76">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D76" s="29">
-        <v>68.431771894099995</v>
+        <v>78.207739307500006</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -5065,10 +5068,10 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D77" s="29">
-        <v>75.2540959082</v>
+        <v>77.520785544000006</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -5079,10 +5082,10 @@
         <v>262</v>
       </c>
       <c r="C78">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D78" s="29">
-        <v>150.48456028410001</v>
+        <v>154.49748189170001</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -5093,10 +5096,10 @@
         <v>264</v>
       </c>
       <c r="C79">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D79" s="29">
-        <v>65.139013724600005</v>
+        <v>58.069663397900001</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -5107,10 +5110,10 @@
         <v>266</v>
       </c>
       <c r="C80">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="D80" s="29">
-        <v>182.6996946397</v>
+        <v>200.77598951569999</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -5121,10 +5124,10 @@
         <v>268</v>
       </c>
       <c r="C81">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D81" s="29">
-        <v>105.39197030290001</v>
+        <v>108.3195250335</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -5135,10 +5138,10 @@
         <v>270</v>
       </c>
       <c r="C82">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D82" s="29">
-        <v>99.450831258799994</v>
+        <v>101.9527389635</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -5163,10 +5166,10 @@
         <v>274</v>
       </c>
       <c r="C84">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D84" s="29">
-        <v>215.93933611209999</v>
+        <v>210.91749108619999</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -5177,10 +5180,10 @@
         <v>276</v>
       </c>
       <c r="C85">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D85" s="29">
-        <v>131.5127838162</v>
+        <v>135.38080686960001</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -5191,10 +5194,10 @@
         <v>278</v>
       </c>
       <c r="C86">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D86" s="29">
-        <v>139.81998177349999</v>
+        <v>154.8006941063</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -5205,10 +5208,10 @@
         <v>280</v>
       </c>
       <c r="C87">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D87" s="29">
-        <v>70.938647282900007</v>
+        <v>77.848255784499997</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -5219,10 +5222,10 @@
         <v>282</v>
       </c>
       <c r="C88">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D88" s="29">
-        <v>91.133157971000003</v>
+        <v>89.061949835299998</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -5233,10 +5236,10 @@
         <v>284</v>
       </c>
       <c r="C89">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="D89" s="29">
-        <v>161.35204741269999</v>
+        <v>181.00389934110001</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -5247,10 +5250,10 @@
         <v>286</v>
       </c>
       <c r="C90">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D90" s="29">
-        <v>40.542671161400001</v>
+        <v>36.7887201279</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -5261,10 +5264,10 @@
         <v>288</v>
       </c>
       <c r="C91">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D91" s="29">
-        <v>180.1424695215</v>
+        <v>162.95044960870001</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -5275,10 +5278,10 @@
         <v>290</v>
       </c>
       <c r="C92">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D92" s="29">
-        <v>92.9306339197</v>
+        <v>84.965151012299998</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5289,10 +5292,10 @@
         <v>292</v>
       </c>
       <c r="C93">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D93" s="29">
-        <v>128.17679558009999</v>
+        <v>128.51678708029999</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -5303,10 +5306,10 @@
         <v>294</v>
       </c>
       <c r="C94">
-        <v>766</v>
+        <v>662</v>
       </c>
       <c r="D94" s="29">
-        <v>137.57678077520001</v>
+        <v>118.8979489206</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -5317,10 +5320,10 @@
         <v>296</v>
       </c>
       <c r="C95">
-        <v>798</v>
+        <v>822</v>
       </c>
       <c r="D95" s="29">
-        <v>160.02053396330001</v>
+        <v>164.83318160120001</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -5331,10 +5334,10 @@
         <v>298</v>
       </c>
       <c r="C96">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D96" s="29">
-        <v>172.68872950970001</v>
+        <v>170.4214814199</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -5345,10 +5348,10 @@
         <v>300</v>
       </c>
       <c r="C97">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="D97" s="29">
-        <v>97.286119280799994</v>
+        <v>100.6629928426</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -5359,10 +5362,10 @@
         <v>302</v>
       </c>
       <c r="C98">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D98" s="29">
-        <v>81.448530793800003</v>
+        <v>89.106084971000001</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -5373,10 +5376,10 @@
         <v>304</v>
       </c>
       <c r="C99">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D99" s="29">
-        <v>186.98878067320001</v>
+        <v>179.98920064800001</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -5387,10 +5390,10 @@
         <v>306</v>
       </c>
       <c r="C100">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="D100" s="29">
-        <v>161.79890277769999</v>
+        <v>175.3448574288</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -5401,10 +5404,10 @@
         <v>308</v>
       </c>
       <c r="C101">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D101" s="29">
-        <v>260.35502958580003</v>
+        <v>269.82248520709999</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -5415,10 +5418,10 @@
         <v>310</v>
       </c>
       <c r="C102">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="D102" s="29">
-        <v>269.08383827469999</v>
+        <v>279.88647411789998</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -5429,10 +5432,10 @@
         <v>312</v>
       </c>
       <c r="C103">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D103" s="29">
-        <v>130.22659427400001</v>
+        <v>116.2021918138</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -5443,10 +5446,10 @@
         <v>314</v>
       </c>
       <c r="C104">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D104" s="29">
-        <v>105.76414595449999</v>
+        <v>102.7594827172</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -5457,10 +5460,10 @@
         <v>316</v>
       </c>
       <c r="C105">
-        <v>715</v>
+        <v>646</v>
       </c>
       <c r="D105" s="29">
-        <v>218.68519730599999</v>
+        <v>197.58131113249999</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -5471,10 +5474,10 @@
         <v>318</v>
       </c>
       <c r="C106">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D106" s="29">
-        <v>132.6726441349</v>
+        <v>129.5872338062</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -5485,10 +5488,10 @@
         <v>320</v>
       </c>
       <c r="C107">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="D107" s="29">
-        <v>67.149070937499999</v>
+        <v>89.198019603500001</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -5499,10 +5502,10 @@
         <v>322</v>
       </c>
       <c r="C108">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D108" s="29">
-        <v>91.907773805600002</v>
+        <v>80.328841672600007</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -5513,10 +5516,10 @@
         <v>324</v>
       </c>
       <c r="C109">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D109" s="29">
-        <v>146.27466924629999</v>
+        <v>149.0786565162</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -5527,10 +5530,10 @@
         <v>326</v>
       </c>
       <c r="C110">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D110" s="29">
-        <v>84.423432390200006</v>
+        <v>87.978103227600002</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -5541,10 +5544,10 @@
         <v>328</v>
       </c>
       <c r="C111">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D111" s="29">
-        <v>121.6651367458</v>
+        <v>128.9504742755</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -5555,10 +5558,10 @@
         <v>330</v>
       </c>
       <c r="C112">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="D112" s="29">
-        <v>259.14470305840001</v>
+        <v>257.35338022619999</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -5569,10 +5572,10 @@
         <v>332</v>
       </c>
       <c r="C113">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="D113" s="29">
-        <v>124.4079895669</v>
+        <v>124.7511840209</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -5583,10 +5586,10 @@
         <v>334</v>
       </c>
       <c r="C114">
-        <v>733</v>
+        <v>673</v>
       </c>
       <c r="D114" s="29">
-        <v>137.0031998565</v>
+        <v>125.7887496636</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -5597,10 +5600,10 @@
         <v>336</v>
       </c>
       <c r="C115">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D115" s="29">
-        <v>140.4552402198</v>
+        <v>139.42248110049999</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -5611,10 +5614,10 @@
         <v>338</v>
       </c>
       <c r="C116">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D116" s="29">
-        <v>97.599929018200001</v>
+        <v>100.9271993257</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -5625,10 +5628,10 @@
         <v>340</v>
       </c>
       <c r="C117">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D117" s="29">
-        <v>117.8971283013</v>
+        <v>114.4548763801</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -5639,10 +5642,10 @@
         <v>342</v>
       </c>
       <c r="C118">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D118" s="29">
-        <v>84.081867027599998</v>
+        <v>104.5896394734</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -5681,10 +5684,10 @@
         <v>348</v>
       </c>
       <c r="C121">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D121" s="29">
-        <v>82.614243387599998</v>
+        <v>79.5864962478</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -5695,10 +5698,10 @@
         <v>350</v>
       </c>
       <c r="C122">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D122" s="29">
-        <v>127.2172748838</v>
+        <v>132.77261439829999</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -5709,10 +5712,10 @@
         <v>352</v>
       </c>
       <c r="C123">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D123" s="29">
-        <v>121.7831076681</v>
+        <v>120.93739164260001</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -5723,10 +5726,10 @@
         <v>354</v>
       </c>
       <c r="C124">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D124" s="29">
-        <v>139.09803220949999</v>
+        <v>144.20254715300001</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -5737,10 +5740,10 @@
         <v>356</v>
       </c>
       <c r="C125">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D125" s="29">
-        <v>56.735289350000002</v>
+        <v>61.800940184799998</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -5751,10 +5754,10 @@
         <v>358</v>
       </c>
       <c r="C126">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D126" s="29">
-        <v>194.9405095342</v>
+        <v>191.3553967151</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -5765,10 +5768,10 @@
         <v>360</v>
       </c>
       <c r="C127">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="D127" s="29">
-        <v>108.065714898</v>
+        <v>113.9933701456</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -5779,10 +5782,10 @@
         <v>362</v>
       </c>
       <c r="C128">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D128" s="29">
-        <v>152.53274395509999</v>
+        <v>155.64565709710001</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -5793,10 +5796,10 @@
         <v>364</v>
       </c>
       <c r="C129">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D129" s="29">
-        <v>96.730672956999996</v>
+        <v>100.97324633229999</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -5807,10 +5810,10 @@
         <v>366</v>
       </c>
       <c r="C130">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D130" s="29">
-        <v>104.0441509093</v>
+        <v>105.1750655931</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -5821,10 +5824,10 @@
         <v>368</v>
       </c>
       <c r="C131">
-        <v>382</v>
+        <v>448</v>
       </c>
       <c r="D131" s="29">
-        <v>147.1239577115</v>
+        <v>172.543280248</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -5835,10 +5838,10 @@
         <v>370</v>
       </c>
       <c r="C132">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="D132" s="29">
-        <v>339.32885906040002</v>
+        <v>364.02684563759999</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -5863,10 +5866,10 @@
         <v>374</v>
       </c>
       <c r="C134">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="D134" s="29">
-        <v>155.89904243999999</v>
+        <v>149.98817827170001</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -5877,10 +5880,10 @@
         <v>376</v>
       </c>
       <c r="C135">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D135" s="29">
-        <v>180.7129949072</v>
+        <v>176.74750599070001</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -5891,10 +5894,10 @@
         <v>378</v>
       </c>
       <c r="C136">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="D136" s="29">
-        <v>115.4389974627</v>
+        <v>123.5739603711</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -5905,10 +5908,10 @@
         <v>380</v>
       </c>
       <c r="C137">
-        <v>529</v>
+        <v>442</v>
       </c>
       <c r="D137" s="29">
-        <v>209.31842912260001</v>
+        <v>174.8936591156</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -5919,10 +5922,10 @@
         <v>382</v>
       </c>
       <c r="C138">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D138" s="29">
-        <v>44.023126816000001</v>
+        <v>47.691720717300001</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -5933,10 +5936,10 @@
         <v>384</v>
       </c>
       <c r="C139">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="D139" s="29">
-        <v>251.28235538289999</v>
+        <v>292.0508791176</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -5947,10 +5950,10 @@
         <v>386</v>
       </c>
       <c r="C140">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="D140" s="29">
-        <v>61.9553982475</v>
+        <v>67.169466416800006</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -5961,10 +5964,10 @@
         <v>388</v>
       </c>
       <c r="C141">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D141" s="29">
-        <v>90.404047768300003</v>
+        <v>88.945917965600003</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -5975,10 +5978,10 @@
         <v>390</v>
       </c>
       <c r="C142">
-        <v>564</v>
+        <v>594</v>
       </c>
       <c r="D142" s="29">
-        <v>579.06733197810001</v>
+        <v>609.86878580669998</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -5989,10 +5992,10 @@
         <v>392</v>
       </c>
       <c r="C143">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D143" s="29">
-        <v>169.73372115800001</v>
+        <v>168.6456844839</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -6003,10 +6006,10 @@
         <v>394</v>
       </c>
       <c r="C144">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D144" s="29">
-        <v>116.5106630874</v>
+        <v>118.08513150749999</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -6017,10 +6020,10 @@
         <v>396</v>
       </c>
       <c r="C145">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D145" s="29">
-        <v>132.35124870530001</v>
+        <v>130.7071338145</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -6031,10 +6034,10 @@
         <v>398</v>
       </c>
       <c r="C146">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D146" s="29">
-        <v>213.05237272510001</v>
+        <v>208.2825434849</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -6045,10 +6048,10 @@
         <v>400</v>
       </c>
       <c r="C147">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D147" s="29">
-        <v>215.69596501960001</v>
+        <v>217.37127348569999</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -6059,10 +6062,10 @@
         <v>402</v>
       </c>
       <c r="C148">
-        <v>2533</v>
+        <v>2599</v>
       </c>
       <c r="D148" s="29">
-        <v>137.12252734200001</v>
+        <v>140.6954001428</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -6073,10 +6076,10 @@
         <v>404</v>
       </c>
       <c r="C149">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D149" s="29">
-        <v>100.3036035248</v>
+        <v>95.591353694700004</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -6087,10 +6090,10 @@
         <v>406</v>
       </c>
       <c r="C150">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D150" s="29">
-        <v>101.71413326219999</v>
+        <v>88.930389737400006</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -6101,10 +6104,10 @@
         <v>408</v>
       </c>
       <c r="C151">
-        <v>1673</v>
+        <v>1743</v>
       </c>
       <c r="D151" s="29">
-        <v>144.58372763290001</v>
+        <v>150.63325598579999</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -6115,10 +6118,10 @@
         <v>410</v>
       </c>
       <c r="C152">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D152" s="29">
-        <v>117.51712645080001</v>
+        <v>113.9798216412</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -6129,10 +6132,10 @@
         <v>412</v>
       </c>
       <c r="C153">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D153" s="29">
-        <v>173.92527307669999</v>
+        <v>172.5188692513</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -6143,10 +6146,10 @@
         <v>414</v>
       </c>
       <c r="C154">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D154" s="29">
-        <v>136.28175957529999</v>
+        <v>132.72658323850001</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -6157,10 +6160,10 @@
         <v>416</v>
       </c>
       <c r="C155">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="D155" s="29">
-        <v>178.53198851510001</v>
+        <v>184.05359640730001</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -6171,10 +6174,10 @@
         <v>418</v>
       </c>
       <c r="C156">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D156" s="29">
-        <v>61.845556716600001</v>
+        <v>68.954241396699999</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -6185,10 +6188,10 @@
         <v>420</v>
       </c>
       <c r="C157">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D157" s="29">
-        <v>85.456853577700002</v>
+        <v>87.9338638264</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -6199,10 +6202,10 @@
         <v>422</v>
       </c>
       <c r="C158">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D158" s="29">
-        <v>126.5279378206</v>
+        <v>128.0342227946</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -6213,10 +6216,10 @@
         <v>424</v>
       </c>
       <c r="C159">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D159" s="29">
-        <v>144.55889787660001</v>
+        <v>148.5085945399</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -6227,10 +6230,10 @@
         <v>426</v>
       </c>
       <c r="C160">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D160" s="29">
-        <v>122.22170611049999</v>
+        <v>123.09264463389999</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -6241,10 +6244,10 @@
         <v>428</v>
       </c>
       <c r="C161">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D161" s="29">
-        <v>92.739332042000001</v>
+        <v>95.869773629899996</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -6255,10 +6258,10 @@
         <v>430</v>
       </c>
       <c r="C162">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D162" s="29">
-        <v>73.386858275700007</v>
+        <v>82.149468219100001</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -6269,10 +6272,10 @@
         <v>432</v>
       </c>
       <c r="C163">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="D163" s="29">
-        <v>134.0899839571</v>
+        <v>139.67706662200001</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -6283,10 +6286,10 @@
         <v>434</v>
       </c>
       <c r="C164">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="D164" s="29">
-        <v>150.84788013990001</v>
+        <v>165.54915659420001</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -6297,10 +6300,10 @@
         <v>436</v>
       </c>
       <c r="C165">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D165" s="29">
-        <v>287.4443956627</v>
+        <v>291.58624574420003</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -6311,10 +6314,10 @@
         <v>438</v>
       </c>
       <c r="C166">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D166" s="29">
-        <v>82.820335422400007</v>
+        <v>89.385362010700007</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -6325,10 +6328,10 @@
         <v>440</v>
       </c>
       <c r="C167">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D167" s="29">
-        <v>142.41182334600001</v>
+        <v>143.9941769388</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -6339,10 +6342,10 @@
         <v>442</v>
       </c>
       <c r="C168">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D168" s="29">
-        <v>107.68009223510001</v>
+        <v>106.5924145357</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -6353,10 +6356,10 @@
         <v>444</v>
       </c>
       <c r="C169">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="D169" s="29">
-        <v>116.638501484</v>
+        <v>124.7223580225</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -6367,10 +6370,10 @@
         <v>446</v>
       </c>
       <c r="C170">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D170" s="29">
-        <v>142.6678035068</v>
+        <v>140.9794271339</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -6381,10 +6384,10 @@
         <v>448</v>
       </c>
       <c r="C171">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D171" s="29">
-        <v>325.15002727770002</v>
+        <v>320.78559738130002</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -6395,10 +6398,10 @@
         <v>450</v>
       </c>
       <c r="C172">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D172" s="29">
-        <v>240.50379215410001</v>
+        <v>234.17474499209999</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -6409,10 +6412,10 @@
         <v>452</v>
       </c>
       <c r="C173">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D173" s="29">
-        <v>268.07509653369999</v>
+        <v>265.41209888600002</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -6423,10 +6426,10 @@
         <v>454</v>
       </c>
       <c r="C174">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D174" s="29">
-        <v>86.576400124900005</v>
+        <v>76.641403389299995</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -6437,10 +6440,10 @@
         <v>456</v>
       </c>
       <c r="C175">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D175" s="29">
-        <v>69.161717206999995</v>
+        <v>65.596680237599998</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -6451,10 +6454,10 @@
         <v>458</v>
       </c>
       <c r="C176">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="D176" s="29">
-        <v>263.53189206489998</v>
+        <v>240.9434441736</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -6465,10 +6468,10 @@
         <v>460</v>
       </c>
       <c r="C177">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D177" s="29">
-        <v>97.531151741000002</v>
+        <v>109.9045068126</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -6479,10 +6482,10 @@
         <v>462</v>
       </c>
       <c r="C178">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D178" s="29">
-        <v>100.590068527</v>
+        <v>103.28444536249999</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -6493,10 +6496,10 @@
         <v>464</v>
       </c>
       <c r="C179">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D179" s="29">
-        <v>202.03373181980001</v>
+        <v>198.68510643050001</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -6521,10 +6524,10 @@
         <v>468</v>
       </c>
       <c r="C181">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D181" s="29">
-        <v>86.809650968599996</v>
+        <v>73.599486690800006</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -6535,10 +6538,10 @@
         <v>470</v>
       </c>
       <c r="C182">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D182" s="29">
-        <v>89.726334679199994</v>
+        <v>86.842273921699999</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -6549,10 +6552,10 @@
         <v>472</v>
       </c>
       <c r="C183">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="D183" s="29">
-        <v>122.2194513155</v>
+        <v>119.2987658981</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -6563,10 +6566,10 @@
         <v>474</v>
       </c>
       <c r="C184">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D184" s="29">
-        <v>106.8582199202</v>
+        <v>107.8476478824</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -6577,10 +6580,10 @@
         <v>476</v>
       </c>
       <c r="C185">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="D185" s="29">
-        <v>101.78912334650001</v>
+        <v>106.43509993070001</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -6591,10 +6594,10 @@
         <v>478</v>
       </c>
       <c r="C186">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D186" s="29">
-        <v>182.44065047980001</v>
+        <v>180.18829677010001</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -6605,10 +6608,10 @@
         <v>480</v>
       </c>
       <c r="C187">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="D187" s="29">
-        <v>264.10310585249999</v>
+        <v>281.16822961529999</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -6619,10 +6622,10 @@
         <v>482</v>
       </c>
       <c r="C188">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D188" s="29">
-        <v>201.0093852583</v>
+        <v>209.68604937020001</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -6633,10 +6636,10 @@
         <v>484</v>
       </c>
       <c r="C189">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D189" s="29">
-        <v>61.995024190199999</v>
+        <v>60.374239244100004</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -6661,10 +6664,10 @@
         <v>488</v>
       </c>
       <c r="C191">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D191" s="29">
-        <v>119.69340566140001</v>
+        <v>118.41326228539999</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -6675,10 +6678,10 @@
         <v>490</v>
       </c>
       <c r="C192">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D192" s="29">
-        <v>111.3527163048</v>
+        <v>129.765370182</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -6689,10 +6692,10 @@
         <v>492</v>
       </c>
       <c r="C193">
-        <v>1438</v>
+        <v>1411</v>
       </c>
       <c r="D193" s="29">
-        <v>132.18576236160001</v>
+        <v>129.70383219210001</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -6703,10 +6706,10 @@
         <v>494</v>
       </c>
       <c r="C194">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="D194" s="29">
-        <v>125.0414767468</v>
+        <v>119.1037529907</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -6717,10 +6720,10 @@
         <v>496</v>
       </c>
       <c r="C195">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D195" s="29">
-        <v>159.17895320049999</v>
+        <v>162.6967201221</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -6731,10 +6734,10 @@
         <v>498</v>
       </c>
       <c r="C196">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D196" s="29">
-        <v>229.23752303609999</v>
+        <v>241.22379875039999</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -6745,10 +6748,10 @@
         <v>500</v>
       </c>
       <c r="C197">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D197" s="29">
-        <v>300.42198809489997</v>
+        <v>312.99779224769998</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -6759,10 +6762,10 @@
         <v>502</v>
       </c>
       <c r="C198">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D198" s="29">
-        <v>49.844059300200001</v>
+        <v>58.3887551802</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -6773,10 +6776,10 @@
         <v>504</v>
       </c>
       <c r="C199">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D199" s="29">
-        <v>179.21629925080001</v>
+        <v>185.9537541098</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -6787,10 +6790,10 @@
         <v>506</v>
       </c>
       <c r="C200">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="D200" s="29">
-        <v>186.72109079859999</v>
+        <v>211.19615978269999</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -6801,10 +6804,10 @@
         <v>508</v>
       </c>
       <c r="C201">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D201" s="29">
-        <v>51.193447238799997</v>
+        <v>61.858748746800003</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -6815,10 +6818,10 @@
         <v>510</v>
       </c>
       <c r="C202">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D202" s="29">
-        <v>81.461654835299996</v>
+        <v>82.292896211200002</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -6829,10 +6832,10 @@
         <v>512</v>
       </c>
       <c r="C203">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D203" s="29">
-        <v>125.3218182561</v>
+        <v>118.51084987260001</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -6843,10 +6846,10 @@
         <v>514</v>
       </c>
       <c r="C204">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D204" s="29">
-        <v>150.7239125676</v>
+        <v>151.97473341880001</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -6857,10 +6860,10 @@
         <v>516</v>
       </c>
       <c r="C205">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D205" s="29">
-        <v>183.30249010279999</v>
+        <v>180.37433530889999</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -6871,10 +6874,10 @@
         <v>518</v>
       </c>
       <c r="C206">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="D206" s="29">
-        <v>97.278068600400005</v>
+        <v>98.963996999000003</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -6885,10 +6888,10 @@
         <v>520</v>
       </c>
       <c r="C207">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="D207" s="29">
-        <v>148.7570649921</v>
+        <v>158.05438155409999</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -6899,10 +6902,10 @@
         <v>522</v>
       </c>
       <c r="C208">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D208" s="29">
-        <v>107.4947016106</v>
+        <v>115.4346511614</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -6913,10 +6916,10 @@
         <v>524</v>
       </c>
       <c r="C209">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D209" s="29">
-        <v>158.7396669462</v>
+        <v>172.21756319639999</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -6927,10 +6930,10 @@
         <v>526</v>
       </c>
       <c r="C210">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D210" s="29">
-        <v>189.0502117362</v>
+        <v>188.46851877700001</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -6941,10 +6944,10 @@
         <v>528</v>
       </c>
       <c r="C211">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D211" s="29">
-        <v>123.1992778815</v>
+        <v>114.6607140679</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -6955,10 +6958,10 @@
         <v>530</v>
       </c>
       <c r="C212">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="D212" s="29">
-        <v>214.66761051349999</v>
+        <v>215.81864327770001</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -6969,10 +6972,10 @@
         <v>532</v>
       </c>
       <c r="C213">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D213" s="29">
-        <v>90.4973419138</v>
+        <v>93.557638500300001</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6983,10 +6986,10 @@
         <v>534</v>
       </c>
       <c r="C214">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D214" s="29">
-        <v>64.656167736599997</v>
+        <v>61.4233593497</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -6997,10 +7000,10 @@
         <v>536</v>
       </c>
       <c r="C215">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D215" s="29">
-        <v>53.705692803399998</v>
+        <v>55.771296372800002</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -7011,10 +7014,10 @@
         <v>538</v>
       </c>
       <c r="C216">
-        <v>653</v>
+        <v>628</v>
       </c>
       <c r="D216" s="29">
-        <v>119.723590681</v>
+        <v>115.13999226289999</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -7025,10 +7028,10 @@
         <v>540</v>
       </c>
       <c r="C217">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D217" s="29">
-        <v>164.87376126980001</v>
+        <v>173.58188246360001</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -7039,10 +7042,10 @@
         <v>542</v>
       </c>
       <c r="C218">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D218" s="29">
-        <v>180.84890381010001</v>
+        <v>175.65480996700001</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -7053,10 +7056,10 @@
         <v>544</v>
       </c>
       <c r="C219">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D219" s="29">
-        <v>78.201793210600002</v>
+        <v>71.6849771097</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -7067,10 +7070,10 @@
         <v>546</v>
       </c>
       <c r="C220">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="D220" s="29">
-        <v>132.59528971020001</v>
+        <v>139.75122598030001</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -7081,10 +7084,10 @@
         <v>548</v>
       </c>
       <c r="C221">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="D221" s="29">
-        <v>169.30129924479999</v>
+        <v>167.63682017919999</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -7095,10 +7098,10 @@
         <v>550</v>
       </c>
       <c r="C222">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D222" s="29">
-        <v>93.5335056041</v>
+        <v>89.570221468300005</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -7109,10 +7112,10 @@
         <v>552</v>
       </c>
       <c r="C223">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D223" s="29">
-        <v>166.16439701210001</v>
+        <v>170.6961532942</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -7123,10 +7126,10 @@
         <v>554</v>
       </c>
       <c r="C224">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="D224" s="29">
-        <v>102.28120624749999</v>
+        <v>108.5689853201</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -7137,10 +7140,10 @@
         <v>556</v>
       </c>
       <c r="C225">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D225" s="29">
-        <v>107.5131074491</v>
+        <v>105.2255945246</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -7151,10 +7154,10 @@
         <v>558</v>
       </c>
       <c r="C226">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D226" s="29">
-        <v>98.856761755199997</v>
+        <v>93.653774294399994</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -7165,10 +7168,10 @@
         <v>560</v>
       </c>
       <c r="C227">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="D227" s="29">
-        <v>172.5370021052</v>
+        <v>183.15961604079999</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -7179,10 +7182,10 @@
         <v>562</v>
       </c>
       <c r="C228">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="D228" s="29">
-        <v>140.80123312239999</v>
+        <v>153.3992381912</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -7193,10 +7196,10 @@
         <v>564</v>
       </c>
       <c r="C229">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="D229" s="29">
-        <v>129.51061177579999</v>
+        <v>147.7230415567</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -7207,10 +7210,10 @@
         <v>566</v>
       </c>
       <c r="C230">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="D230" s="29">
-        <v>234.99471018130001</v>
+        <v>232.5570057189</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -7221,10 +7224,10 @@
         <v>568</v>
       </c>
       <c r="C231">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D231" s="29">
-        <v>119.5396192101</v>
+        <v>123.62644379850001</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -7235,10 +7238,10 @@
         <v>570</v>
       </c>
       <c r="C232">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="D232" s="29">
-        <v>103.528358376</v>
+        <v>131.04265181829999</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -7249,10 +7252,10 @@
         <v>572</v>
       </c>
       <c r="C233">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D233" s="29">
-        <v>105.3961266923</v>
+        <v>108.49601277150001</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -7263,10 +7266,10 @@
         <v>574</v>
       </c>
       <c r="C234">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D234" s="29">
-        <v>156.79492960779999</v>
+        <v>161.34570592879999</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -7277,10 +7280,10 @@
         <v>576</v>
       </c>
       <c r="C235">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D235" s="29">
-        <v>210.88435374150001</v>
+        <v>195.01133786849999</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -7291,10 +7294,10 @@
         <v>578</v>
       </c>
       <c r="C236">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D236" s="29">
-        <v>60.0524975059</v>
+        <v>59.083908836399999</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -7305,10 +7308,10 @@
         <v>580</v>
       </c>
       <c r="C237">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="D237" s="29">
-        <v>127.6849887761</v>
+        <v>130.98008526059999</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -7319,10 +7322,10 @@
         <v>582</v>
       </c>
       <c r="C238">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D238" s="29">
-        <v>81.991800819900007</v>
+        <v>97.990200979899996</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -7333,10 +7336,10 @@
         <v>584</v>
       </c>
       <c r="C239">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D239" s="29">
-        <v>76.897384712199994</v>
+        <v>84.664797309400001</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -7347,10 +7350,10 @@
         <v>586</v>
       </c>
       <c r="C240">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="D240" s="29">
-        <v>192.6490533457</v>
+        <v>185.23947437090001</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -7361,10 +7364,10 @@
         <v>588</v>
       </c>
       <c r="C241">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D241" s="29">
-        <v>201.25025074070001</v>
+        <v>199.93488962480001</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -7375,10 +7378,10 @@
         <v>590</v>
       </c>
       <c r="C242">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="D242" s="29">
-        <v>96.539148156899998</v>
+        <v>108.4149957477</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -7389,10 +7392,10 @@
         <v>592</v>
       </c>
       <c r="C243">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D243" s="29">
-        <v>152.75476387739999</v>
+        <v>148.43965755319999</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -7403,10 +7406,10 @@
         <v>594</v>
       </c>
       <c r="C244">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="D244" s="29">
-        <v>134.7930048291</v>
+        <v>152.9607576539</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -7417,10 +7420,10 @@
         <v>596</v>
       </c>
       <c r="C245">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="D245" s="29">
-        <v>97.289765844300007</v>
+        <v>97.424516212499995</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -7431,10 +7434,10 @@
         <v>598</v>
       </c>
       <c r="C246">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="D246" s="29">
-        <v>95.2997805822</v>
+        <v>103.00365506040001</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -7445,10 +7448,10 @@
         <v>600</v>
       </c>
       <c r="C247">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="D247" s="29">
-        <v>58.041250519400002</v>
+        <v>67.239044317500003</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -7459,10 +7462,10 @@
         <v>602</v>
       </c>
       <c r="C248">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D248" s="29">
-        <v>88.419792109100001</v>
+        <v>92.597105122100004</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -7473,10 +7476,10 @@
         <v>604</v>
       </c>
       <c r="C249">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D249" s="29">
-        <v>141.82502081129999</v>
+        <v>132.57556293229999</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -7487,10 +7490,10 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D250" s="29">
-        <v>178.34186649630001</v>
+        <v>170.91095539220001</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -7501,10 +7504,10 @@
         <v>608</v>
       </c>
       <c r="C251">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D251" s="29">
-        <v>76.063644072000002</v>
+        <v>82.298368995999994</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -7515,10 +7518,10 @@
         <v>610</v>
       </c>
       <c r="C252">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D252" s="29">
-        <v>122.5191769146</v>
+        <v>115.67027882630001</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -7529,10 +7532,10 @@
         <v>612</v>
       </c>
       <c r="C253">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D253" s="29">
-        <v>95.036331597599997</v>
+        <v>98.006216960000003</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -7543,10 +7546,10 @@
         <v>614</v>
       </c>
       <c r="C254">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D254" s="29">
-        <v>109.0524086818</v>
+        <v>114.3462149285</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -7557,10 +7560,10 @@
         <v>616</v>
       </c>
       <c r="C255">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D255" s="29">
-        <v>73.220186242099999</v>
+        <v>60.078101531999998</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -7571,10 +7574,10 @@
         <v>618</v>
       </c>
       <c r="C256">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D256" s="29">
-        <v>90.1805894843</v>
+        <v>94.175932056299999</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -7585,10 +7588,10 @@
         <v>620</v>
       </c>
       <c r="C257">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="D257" s="29">
-        <v>195.8306666448</v>
+        <v>211.69404466910001</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -7599,10 +7602,10 @@
         <v>622</v>
       </c>
       <c r="C258">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D258" s="29">
-        <v>46.132300848500002</v>
+        <v>42.837136502200003</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -7613,10 +7616,10 @@
         <v>624</v>
       </c>
       <c r="C259">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D259" s="29">
-        <v>22.295737898500001</v>
+        <v>24.7060879416</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -7641,10 +7644,10 @@
         <v>628</v>
       </c>
       <c r="C261">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D261" s="29">
-        <v>243.75319230709999</v>
+        <v>240.2132081865</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -7655,10 +7658,10 @@
         <v>630</v>
       </c>
       <c r="C262">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D262" s="29">
-        <v>126.49216257099999</v>
+        <v>125.8565235631</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -7669,10 +7672,10 @@
         <v>632</v>
       </c>
       <c r="C263">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D263" s="29">
-        <v>40.0650111502</v>
+        <v>37.797180330300002</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -7683,10 +7686,10 @@
         <v>634</v>
       </c>
       <c r="C264">
-        <v>965</v>
+        <v>982</v>
       </c>
       <c r="D264" s="29">
-        <v>186.1604645331</v>
+        <v>189.4399753072</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -7697,10 +7700,10 @@
         <v>636</v>
       </c>
       <c r="C265">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D265" s="29">
-        <v>144.62035692539999</v>
+        <v>148.13340203289999</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -7711,10 +7714,10 @@
         <v>638</v>
       </c>
       <c r="C266">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D266" s="29">
-        <v>148.069329778</v>
+        <v>153.1972719348</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -7725,10 +7728,10 @@
         <v>640</v>
       </c>
       <c r="C267">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D267" s="29">
-        <v>159.52539357559999</v>
+        <v>158.7902535131</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -7739,10 +7742,10 @@
         <v>642</v>
       </c>
       <c r="C268">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D268" s="29">
-        <v>154.20090717580001</v>
+        <v>148.98179954829999</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -7753,10 +7756,10 @@
         <v>644</v>
       </c>
       <c r="C269">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="D269" s="29">
-        <v>164.85529368670001</v>
+        <v>168.6126792977</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -7767,10 +7770,10 @@
         <v>646</v>
       </c>
       <c r="C270">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D270" s="29">
-        <v>192.00702197109999</v>
+        <v>197.49293688450001</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -7781,10 +7784,10 @@
         <v>648</v>
       </c>
       <c r="C271">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D271" s="29">
-        <v>104.44350226980001</v>
+        <v>105.4775963517</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -7795,10 +7798,10 @@
         <v>650</v>
       </c>
       <c r="C272">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D272" s="29">
-        <v>170.57879342070001</v>
+        <v>172.2566176183</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -7809,10 +7812,10 @@
         <v>652</v>
       </c>
       <c r="C273">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="D273" s="29">
-        <v>244.08965305500001</v>
+        <v>259.44120356159999</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -7823,10 +7826,10 @@
         <v>654</v>
       </c>
       <c r="C274">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="D274" s="29">
-        <v>153.4513916018</v>
+        <v>149.51674053510001</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -7837,10 +7840,10 @@
         <v>656</v>
       </c>
       <c r="C275">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D275" s="29">
-        <v>88.716975106000007</v>
+        <v>89.899868107399996</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -7851,10 +7854,10 @@
         <v>658</v>
       </c>
       <c r="C276">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="D276" s="29">
-        <v>152.0360608144</v>
+        <v>166.55206662079999</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -7865,10 +7868,10 @@
         <v>660</v>
       </c>
       <c r="C277">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D277" s="29">
-        <v>119.4430965623</v>
+        <v>117.2035385017</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -7879,10 +7882,10 @@
         <v>662</v>
       </c>
       <c r="C278">
-        <v>607</v>
+        <v>569</v>
       </c>
       <c r="D278" s="29">
-        <v>140.8506264024</v>
+        <v>132.03295951070001</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -7893,10 +7896,10 @@
         <v>664</v>
       </c>
       <c r="C279">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D279" s="29">
-        <v>176.7008974227</v>
+        <v>174.28033718399999</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -7907,10 +7910,10 @@
         <v>666</v>
       </c>
       <c r="C280">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D280" s="29">
-        <v>127.345844504</v>
+        <v>118.1300268097</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -7921,10 +7924,10 @@
         <v>668</v>
       </c>
       <c r="C281">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="D281" s="29">
-        <v>154.446302046</v>
+        <v>147.12204442320001</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -7935,10 +7938,10 @@
         <v>670</v>
       </c>
       <c r="C282">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D282" s="29">
-        <v>315.90429374849998</v>
+        <v>313.77937697440001</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -7949,10 +7952,10 @@
         <v>672</v>
       </c>
       <c r="C283">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D283" s="29">
-        <v>78.1195140791</v>
+        <v>79.8750087775</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -7977,10 +7980,10 @@
         <v>676</v>
       </c>
       <c r="C285">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D285" s="29">
-        <v>160.8318750569</v>
+        <v>161.8433962837</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -7991,10 +7994,10 @@
         <v>678</v>
       </c>
       <c r="C286">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="D286" s="29">
-        <v>75.364070179500004</v>
+        <v>79.911902000699996</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -8005,10 +8008,10 @@
         <v>680</v>
       </c>
       <c r="C287">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D287" s="29">
-        <v>140.1435524497</v>
+        <v>134.46205708010001</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -8019,10 +8022,10 @@
         <v>682</v>
       </c>
       <c r="C288">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D288" s="29">
-        <v>121.97907150570001</v>
+        <v>124.57437089939999</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -8033,10 +8036,10 @@
         <v>684</v>
       </c>
       <c r="C289">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D289" s="29">
-        <v>169.88004540029999</v>
+        <v>168.3963768815</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -8047,10 +8050,10 @@
         <v>686</v>
       </c>
       <c r="C290">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D290" s="29">
-        <v>156.7532578942</v>
+        <v>165.3317943959</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -8061,10 +8064,10 @@
         <v>688</v>
       </c>
       <c r="C291">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D291" s="29">
-        <v>57.162364934099998</v>
+        <v>75.4225648436</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -8075,10 +8078,10 @@
         <v>690</v>
       </c>
       <c r="C292">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="D292" s="29">
-        <v>110.4070508663</v>
+        <v>114.519634423</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -8117,10 +8120,10 @@
         <v>696</v>
       </c>
       <c r="C295">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D295" s="29">
-        <v>116.4505861346</v>
+        <v>105.3600541218</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -8131,10 +8134,10 @@
         <v>698</v>
       </c>
       <c r="C296">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="D296" s="29">
-        <v>103.43267179519999</v>
+        <v>111.7442257787</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -8145,10 +8148,10 @@
         <v>700</v>
       </c>
       <c r="C297">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D297" s="29">
-        <v>119.4884319441</v>
+        <v>116.8623125607</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -8159,10 +8162,10 @@
         <v>702</v>
       </c>
       <c r="C298">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="D298" s="29">
-        <v>140.00518537720001</v>
+        <v>170.253219255</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -8173,10 +8176,10 @@
         <v>704</v>
       </c>
       <c r="C299">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D299" s="29">
-        <v>114.56639946190001</v>
+        <v>111.7635517686</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -8187,10 +8190,10 @@
         <v>706</v>
       </c>
       <c r="C300">
-        <v>797</v>
+        <v>870</v>
       </c>
       <c r="D300" s="29">
-        <v>129.77560381480001</v>
+        <v>141.66220240760001</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -8201,10 +8204,10 @@
         <v>708</v>
       </c>
       <c r="C301">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D301" s="29">
-        <v>175.6878956207</v>
+        <v>161.47784523959999</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -8215,10 +8218,10 @@
         <v>710</v>
       </c>
       <c r="C302">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D302" s="29">
-        <v>148.27491606460001</v>
+        <v>152.8472703045</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -8229,10 +8232,10 @@
         <v>712</v>
       </c>
       <c r="C303">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D303" s="29">
-        <v>205.59591899829999</v>
+        <v>208.6875869532</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -8257,10 +8260,10 @@
         <v>716</v>
       </c>
       <c r="C305">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="D305" s="29">
-        <v>145.8169494064</v>
+        <v>142.3061079279</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -8271,10 +8274,10 @@
         <v>718</v>
       </c>
       <c r="C306">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D306" s="29">
-        <v>43.0502958796</v>
+        <v>39.766798736200002</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -8285,10 +8288,10 @@
         <v>720</v>
       </c>
       <c r="C307">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="D307" s="29">
-        <v>120.89160169180001</v>
+        <v>108.00114272179999</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -8299,10 +8302,10 @@
         <v>722</v>
       </c>
       <c r="C308">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="D308" s="29">
-        <v>139.17958416120001</v>
+        <v>136.84221709889999</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -8313,10 +8316,10 @@
         <v>724</v>
       </c>
       <c r="C309">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D309" s="29">
-        <v>74.802308185499996</v>
+        <v>69.993588373600005</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -8327,10 +8330,10 @@
         <v>726</v>
       </c>
       <c r="C310">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D310" s="29">
-        <v>83.36322131</v>
+        <v>99.841997615400004</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -8341,10 +8344,10 @@
         <v>728</v>
       </c>
       <c r="C311">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="D311" s="29">
-        <v>76.252069573</v>
+        <v>100.2573507348</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -8355,10 +8358,10 @@
         <v>730</v>
       </c>
       <c r="C312">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="D312" s="29">
-        <v>96.517831447999995</v>
+        <v>104.0444513315</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -8369,10 +8372,10 @@
         <v>732</v>
       </c>
       <c r="C313">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D313" s="29">
-        <v>94.851059306400003</v>
+        <v>93.215696214999994</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -8383,10 +8386,10 @@
         <v>734</v>
       </c>
       <c r="C314">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="D314" s="29">
-        <v>134.76671134579999</v>
+        <v>135.496165805</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -8397,10 +8400,10 @@
         <v>736</v>
       </c>
       <c r="C315">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="D315" s="29">
-        <v>99.606103137600002</v>
+        <v>127.4181968708</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -8411,10 +8414,10 @@
         <v>738</v>
       </c>
       <c r="C316">
-        <v>594</v>
+        <v>645</v>
       </c>
       <c r="D316" s="29">
-        <v>98.874100312300001</v>
+        <v>107.36329074309999</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -8425,10 +8428,10 @@
         <v>740</v>
       </c>
       <c r="C317">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D317" s="29">
-        <v>170.77918000880001</v>
+        <v>179.56928486219999</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -8439,10 +8442,10 @@
         <v>742</v>
       </c>
       <c r="C318">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D318" s="29">
-        <v>114.86837343240001</v>
+        <v>121.1625308807</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -8453,10 +8456,10 @@
         <v>744</v>
       </c>
       <c r="C319">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D319" s="29">
-        <v>105.230934068</v>
+        <v>103.7003022998</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -8481,10 +8484,10 @@
         <v>748</v>
       </c>
       <c r="C321">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D321" s="29">
-        <v>88.510338563600001</v>
+        <v>81.095859940500006</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -8495,10 +8498,10 @@
         <v>750</v>
       </c>
       <c r="C322">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D322" s="29">
-        <v>101.3542391716</v>
+        <v>96.469697524799997</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -8509,10 +8512,10 @@
         <v>752</v>
       </c>
       <c r="C323">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D323" s="29">
-        <v>184.61684115849999</v>
+        <v>189.35060631639999</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -8523,10 +8526,10 @@
         <v>754</v>
       </c>
       <c r="C324">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D324" s="29">
-        <v>88.064394001699995</v>
+        <v>88.887425721400007</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -8537,10 +8540,10 @@
         <v>756</v>
       </c>
       <c r="C325">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D325" s="29">
-        <v>106.5213972176</v>
+        <v>112.955575573</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -8551,10 +8554,10 @@
         <v>758</v>
       </c>
       <c r="C326">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D326" s="29">
-        <v>192.88728149490001</v>
+        <v>201.32610006030001</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -8565,10 +8568,10 @@
         <v>760</v>
       </c>
       <c r="C327">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="D327" s="29">
-        <v>219.24217283679999</v>
+        <v>192.0409106983</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -8579,10 +8582,10 @@
         <v>762</v>
       </c>
       <c r="C328">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D328" s="29">
-        <v>410.897499751</v>
+        <v>408.40721187370002</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -8593,10 +8596,10 @@
         <v>764</v>
       </c>
       <c r="C329">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D329" s="29">
-        <v>186.04831442170001</v>
+        <v>185.079312784</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -8607,10 +8610,10 @@
         <v>766</v>
       </c>
       <c r="C330">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D330" s="29">
-        <v>74.619568853299995</v>
+        <v>70.502627123400003</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -8621,10 +8624,10 @@
         <v>767</v>
       </c>
       <c r="C331">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D331" s="29">
-        <v>73.8417395707</v>
+        <v>65.402683619800001</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -8635,10 +8638,10 @@
         <v>769</v>
       </c>
       <c r="C332">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D332" s="29">
-        <v>150.66005391190001</v>
+        <v>153.1031899212</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -8649,10 +8652,10 @@
         <v>771</v>
       </c>
       <c r="C333">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D333" s="29">
-        <v>226.28990037489999</v>
+        <v>218.6190562944</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -8663,10 +8666,10 @@
         <v>773</v>
       </c>
       <c r="C334">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D334" s="29">
-        <v>115.79643093190001</v>
+        <v>112.09517514869999</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -8691,10 +8694,10 @@
         <v>777</v>
       </c>
       <c r="C336">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D336" s="29">
-        <v>129.89481688000001</v>
+        <v>124.8257508554</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -8705,10 +8708,10 @@
         <v>779</v>
       </c>
       <c r="C337">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D337" s="29">
-        <v>43.747141522</v>
+        <v>41.261508481</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -8719,10 +8722,10 @@
         <v>781</v>
       </c>
       <c r="C338">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="D338" s="29">
-        <v>351.43616510290002</v>
+        <v>335.42540587270003</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -8733,10 +8736,10 @@
         <v>783</v>
       </c>
       <c r="C339">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D339" s="29">
-        <v>109.80698372419999</v>
+        <v>131.76838046899999</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -8747,10 +8750,10 @@
         <v>785</v>
       </c>
       <c r="C340">
-        <v>940</v>
+        <v>951</v>
       </c>
       <c r="D340" s="29">
-        <v>477.73694990370001</v>
+        <v>483.32748867919997</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -8761,10 +8764,10 @@
         <v>787</v>
       </c>
       <c r="C341">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D341" s="29">
-        <v>84.598131049200006</v>
+        <v>85.1546977008</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -8775,10 +8778,10 @@
         <v>789</v>
       </c>
       <c r="C342">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D342" s="29">
-        <v>304.3172473491</v>
+        <v>294.17333910410002</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -8789,10 +8792,10 @@
         <v>791</v>
       </c>
       <c r="C343">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D343" s="29">
-        <v>90.350390106600003</v>
+        <v>91.762114952000005</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -8803,10 +8806,10 @@
         <v>793</v>
       </c>
       <c r="C344">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D344" s="29">
-        <v>155.35507056489999</v>
+        <v>170.32905326989999</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -8817,10 +8820,10 @@
         <v>795</v>
       </c>
       <c r="C345">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D345" s="29">
-        <v>75.360561306199997</v>
+        <v>86.621334834799995</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -8831,10 +8834,10 @@
         <v>797</v>
       </c>
       <c r="C346">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D346" s="29">
-        <v>75.272077195700007</v>
+        <v>70.044849612700006</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -8845,10 +8848,10 @@
         <v>799</v>
       </c>
       <c r="C347">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D347" s="29">
-        <v>114.3681789483</v>
+        <v>116.5328763417</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -8859,10 +8862,10 @@
         <v>801</v>
       </c>
       <c r="C348">
-        <v>569</v>
+        <v>616</v>
       </c>
       <c r="D348" s="29">
-        <v>205.4566988272</v>
+        <v>222.42763880059999</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -8873,10 +8876,10 @@
         <v>803</v>
       </c>
       <c r="C349">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="D349" s="29">
-        <v>240.73550428359999</v>
+        <v>226.21495005689999</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -8887,10 +8890,10 @@
         <v>805</v>
       </c>
       <c r="C350">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D350" s="29">
-        <v>96.426263730800002</v>
+        <v>93.4440081515</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -8901,10 +8904,10 @@
         <v>807</v>
       </c>
       <c r="C351">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D351" s="29">
-        <v>161.38654274859999</v>
+        <v>169.55006436619999</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -8915,10 +8918,10 @@
         <v>809</v>
       </c>
       <c r="C352">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D352" s="29">
-        <v>290.95308741560001</v>
+        <v>265.02657467559999</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -8929,10 +8932,10 @@
         <v>811</v>
       </c>
       <c r="C353">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D353" s="29">
-        <v>135.1421591559</v>
+        <v>140.339934508</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -8943,10 +8946,10 @@
         <v>813</v>
       </c>
       <c r="C354">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D354" s="29">
-        <v>156.2469096735</v>
+        <v>199.75870730400001</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -8957,10 +8960,10 @@
         <v>992</v>
       </c>
       <c r="C355">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D355" s="29">
-        <v>153.8867393598</v>
+        <v>171.47379528670001</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -8971,10 +8974,10 @@
         <v>815</v>
       </c>
       <c r="C356">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D356" s="29">
-        <v>77.746049131600003</v>
+        <v>69.433578469699995</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -8985,10 +8988,10 @@
         <v>817</v>
       </c>
       <c r="C357">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D357" s="29">
-        <v>80.008761415699993</v>
+        <v>79.400329769999999</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -8999,10 +9002,10 @@
         <v>819</v>
       </c>
       <c r="C358">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D358" s="29">
-        <v>125.8533515772</v>
+        <v>126.5850571096</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -9013,10 +9016,10 @@
         <v>821</v>
       </c>
       <c r="C359">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D359" s="29">
-        <v>70.222039034299996</v>
+        <v>78.618152397100005</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -9027,10 +9030,10 @@
         <v>823</v>
       </c>
       <c r="C360">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D360" s="29">
-        <v>126.7234840034</v>
+        <v>124.9386462005</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -9041,10 +9044,10 @@
         <v>825</v>
       </c>
       <c r="C361">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="D361" s="29">
-        <v>170.87867613989999</v>
+        <v>186.16782084720001</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -9055,10 +9058,10 @@
         <v>827</v>
       </c>
       <c r="C362">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D362" s="29">
-        <v>90.925473877399995</v>
+        <v>93.792493323900004</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -9069,10 +9072,10 @@
         <v>829</v>
       </c>
       <c r="C363">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D363" s="29">
-        <v>131.82398359519999</v>
+        <v>125.5466510431</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -9083,10 +9086,10 @@
         <v>831</v>
       </c>
       <c r="C364">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D364" s="29">
-        <v>145.37183544300001</v>
+        <v>144.38291139239999</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -9097,10 +9100,10 @@
         <v>833</v>
       </c>
       <c r="C365">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D365" s="29">
-        <v>102.0583069014</v>
+        <v>101.4292880608</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -9111,10 +9114,10 @@
         <v>835</v>
       </c>
       <c r="C366">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D366" s="29">
-        <v>57.002741560399997</v>
+        <v>71.479628305899993</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -9139,10 +9142,10 @@
         <v>839</v>
       </c>
       <c r="C368">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D368" s="29">
-        <v>220.17450868469999</v>
+        <v>184.83785914270001</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -9153,10 +9156,10 @@
         <v>841</v>
       </c>
       <c r="C369">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D369" s="29">
-        <v>135.29650523239999</v>
+        <v>142.9436990065</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -9167,10 +9170,10 @@
         <v>843</v>
       </c>
       <c r="C370">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D370" s="29">
-        <v>148.51622574469999</v>
+        <v>137.4122088666</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -9181,10 +9184,10 @@
         <v>845</v>
       </c>
       <c r="C371">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D371" s="29">
-        <v>178.20989290489999</v>
+        <v>178.7738482622</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -9195,10 +9198,10 @@
         <v>847</v>
       </c>
       <c r="C372">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D372" s="29">
-        <v>36.762068718199998</v>
+        <v>45.7284269421</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -9209,10 +9212,10 @@
         <v>849</v>
       </c>
       <c r="C373">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D373" s="29">
-        <v>42.169239213399997</v>
+        <v>54.886946277699998</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -9223,10 +9226,10 @@
         <v>851</v>
       </c>
       <c r="C374">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D374" s="29">
-        <v>98.391624904899999</v>
+        <v>104.0764743438</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -9237,10 +9240,10 @@
         <v>853</v>
       </c>
       <c r="C375">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D375" s="29">
-        <v>109.401417956</v>
+        <v>117.9262037708</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -9251,10 +9254,10 @@
         <v>855</v>
       </c>
       <c r="C376">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D376" s="29">
-        <v>69.778977191500005</v>
+        <v>65.575424348699997</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -9265,10 +9268,10 @@
         <v>857</v>
       </c>
       <c r="C377">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D377" s="29">
-        <v>82.260875212399995</v>
+        <v>83.343255149399994</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -9279,10 +9282,10 @@
         <v>859</v>
       </c>
       <c r="C378">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D378" s="29">
-        <v>121.4606830192</v>
+        <v>115.151037148</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -9293,10 +9296,10 @@
         <v>861</v>
       </c>
       <c r="C379">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="D379" s="29">
-        <v>100.53407142730001</v>
+        <v>105.3455257274</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -9307,10 +9310,10 @@
         <v>863</v>
       </c>
       <c r="C380">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D380" s="29">
-        <v>87.056890210500001</v>
+        <v>95.8603959621</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -9321,10 +9324,10 @@
         <v>865</v>
       </c>
       <c r="C381">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D381" s="29">
-        <v>211.22738938079999</v>
+        <v>204.34701839120001</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -9335,10 +9338,10 @@
         <v>867</v>
       </c>
       <c r="C382">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D382" s="29">
-        <v>139.3420813086</v>
+        <v>146.34419594720001</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -9349,10 +9352,10 @@
         <v>869</v>
       </c>
       <c r="C383">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D383" s="29">
-        <v>82.401755959499994</v>
+        <v>83.130975038800003</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -9363,10 +9366,10 @@
         <v>871</v>
       </c>
       <c r="C384">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D384" s="29">
-        <v>109.74928311630001</v>
+        <v>109.0800801705</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -9377,10 +9380,10 @@
         <v>873</v>
       </c>
       <c r="C385">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D385" s="29">
-        <v>140.0944691082</v>
+        <v>158.0795698721</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -9391,10 +9394,10 @@
         <v>875</v>
       </c>
       <c r="C386">
-        <v>960</v>
+        <v>981</v>
       </c>
       <c r="D386" s="29">
-        <v>424.78439979289999</v>
+        <v>434.07655853839998</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -9405,10 +9408,10 @@
         <v>877</v>
       </c>
       <c r="C387">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="D387" s="29">
-        <v>125.2000016976</v>
+        <v>132.41491704969999</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -9419,10 +9422,10 @@
         <v>879</v>
       </c>
       <c r="C388">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D388" s="29">
-        <v>82.331265409300002</v>
+        <v>83.666367010499997</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -9433,10 +9436,10 @@
         <v>881</v>
       </c>
       <c r="C389">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D389" s="29">
-        <v>125.317415823</v>
+        <v>140.1576361178</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -9447,10 +9450,10 @@
         <v>883</v>
       </c>
       <c r="C390">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D390" s="29">
-        <v>83.756377632600007</v>
+        <v>91.428717568400003</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -9461,10 +9464,10 @@
         <v>885</v>
       </c>
       <c r="C391">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D391" s="29">
-        <v>110.5243767653</v>
+        <v>109.93959170310001</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -9475,10 +9478,10 @@
         <v>887</v>
       </c>
       <c r="C392">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D392" s="29">
-        <v>78.462424416900006</v>
+        <v>77.382666282800002</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -9489,10 +9492,10 @@
         <v>889</v>
       </c>
       <c r="C393">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D393" s="29">
-        <v>428.66508648950003</v>
+        <v>423.62196782490003</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -9517,10 +9520,10 @@
         <v>893</v>
       </c>
       <c r="C395">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D395" s="29">
-        <v>128.4341369078</v>
+        <v>136.55353636749999</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -9531,10 +9534,10 @@
         <v>895</v>
       </c>
       <c r="C396">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D396" s="29">
-        <v>95.051205003999996</v>
+        <v>84.319617342200004</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -9545,10 +9548,10 @@
         <v>897</v>
       </c>
       <c r="C397">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D397" s="29">
-        <v>181.36228638200001</v>
+        <v>194.7514484639</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -9559,10 +9562,10 @@
         <v>899</v>
       </c>
       <c r="C398">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D398" s="29">
-        <v>144.61544957460001</v>
+        <v>148.83779846729999</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -9573,10 +9576,10 @@
         <v>901</v>
       </c>
       <c r="C399">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D399" s="29">
-        <v>136.14365640119999</v>
+        <v>121.2374166493</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -9587,10 +9590,10 @@
         <v>903</v>
       </c>
       <c r="C400">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D400" s="29">
-        <v>119.13665060789999</v>
+        <v>119.354053255</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -9601,10 +9604,10 @@
         <v>905</v>
       </c>
       <c r="C401">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D401" s="29">
-        <v>209.97256809999999</v>
+        <v>203.1992594516</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -9615,10 +9618,10 @@
         <v>907</v>
       </c>
       <c r="C402">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="D402" s="29">
-        <v>101.5334020128</v>
+        <v>118.3730882003</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -9629,10 +9632,10 @@
         <v>909</v>
       </c>
       <c r="C403">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D403" s="29">
-        <v>123.88961500169999</v>
+        <v>124.86257009329999</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -9643,10 +9646,10 @@
         <v>911</v>
       </c>
       <c r="C404">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D404" s="29">
-        <v>99.470686670899994</v>
+        <v>99.111586719000002</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -9657,10 +9660,10 @@
         <v>913</v>
       </c>
       <c r="C405">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D405" s="29">
-        <v>61.769769611900003</v>
+        <v>52.570016690999999</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -9671,10 +9674,10 @@
         <v>915</v>
       </c>
       <c r="C406">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D406" s="29">
-        <v>186.47011276239999</v>
+        <v>185.6698118493</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -9685,10 +9688,10 @@
         <v>917</v>
       </c>
       <c r="C407">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D407" s="29">
-        <v>101.88665987420001</v>
+        <v>84.319994378700002</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -9699,10 +9702,10 @@
         <v>919</v>
       </c>
       <c r="C408">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D408" s="29">
-        <v>87.776495962300004</v>
+        <v>85.268596077599994</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -9713,10 +9716,10 @@
         <v>921</v>
       </c>
       <c r="C409">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D409" s="29">
-        <v>115.7826181345</v>
+        <v>112.56643429739999</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -9727,10 +9730,10 @@
         <v>923</v>
       </c>
       <c r="C410">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D410" s="29">
-        <v>202.29345718319999</v>
+        <v>214.26348423549999</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -9741,10 +9744,10 @@
         <v>925</v>
       </c>
       <c r="C411">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D411" s="29">
-        <v>209.20790035100001</v>
+        <v>218.84247470919999</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -9755,10 +9758,10 @@
         <v>927</v>
       </c>
       <c r="C412">
-        <v>579</v>
+        <v>661</v>
       </c>
       <c r="D412" s="29">
-        <v>163.05266122219999</v>
+        <v>186.1447479583</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -9769,10 +9772,10 @@
         <v>929</v>
       </c>
       <c r="C413">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D413" s="29">
-        <v>68.785467506700002</v>
+        <v>73.475385745799997</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -9783,10 +9786,10 @@
         <v>931</v>
       </c>
       <c r="C414">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D414" s="29">
-        <v>59.765129203599997</v>
+        <v>65.926482729699998</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -9797,10 +9800,10 @@
         <v>933</v>
       </c>
       <c r="C415">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D415" s="29">
-        <v>137.83051599309999</v>
+        <v>135.71817092040001</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -9811,10 +9814,10 @@
         <v>935</v>
       </c>
       <c r="C416">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D416" s="29">
-        <v>43.868628081799997</v>
+        <v>55.566928903600001</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -9825,10 +9828,10 @@
         <v>937</v>
       </c>
       <c r="C417">
-        <v>944</v>
+        <v>875</v>
       </c>
       <c r="D417" s="29">
-        <v>299.68063694829999</v>
+        <v>277.77601412050001</v>
       </c>
     </row>
   </sheetData>
@@ -9845,7 +9848,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E408" sqref="E408"/>
+      <selection pane="bottomLeft" activeCell="B388" sqref="B388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9859,7 +9862,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -19025,7 +19028,7 @@
         <v>2052028</v>
       </c>
       <c r="D333" s="3">
-        <f t="shared" ref="D333:D402" si="175">B333-B332</f>
+        <f t="shared" ref="D333:D403" si="175">B333-B332</f>
         <v>11369</v>
       </c>
       <c r="E333" s="3">
@@ -21047,7 +21050,7 @@
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="26" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B402" s="32">
         <v>2782273</v>
@@ -21076,8 +21079,34 @@
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A403" s="26"/>
-      <c r="G403" s="4"/>
+      <c r="A403" s="26" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B403" s="32">
+        <v>2791822</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D403" s="3">
+        <f t="shared" si="175"/>
+        <v>9549</v>
+      </c>
+      <c r="E403" s="3">
+        <v>76093</v>
+      </c>
+      <c r="F403" s="3">
+        <f t="shared" ref="F403" si="294">E403-E402</f>
+        <v>180</v>
+      </c>
+      <c r="G403" s="4">
+        <f t="shared" ref="G403" si="295">E403/B403</f>
+        <v>2.7255677475139892E-2</v>
+      </c>
+      <c r="H403" s="3">
+        <f t="shared" ref="H403" si="296">B403-E403</f>
+        <v>2715729</v>
+      </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="26"/>
@@ -21519,7 +21548,7 @@
   <dimension ref="A2:LS20"/>
   <sheetViews>
     <sheetView topLeftCell="LG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="LO35" sqref="LO35"/>
+      <selection activeCell="LR4" sqref="LR4:LR20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21530,7 +21559,7 @@
   <sheetData>
     <row r="2" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="3" spans="1:331" x14ac:dyDescent="0.25">
@@ -23513,6 +23542,9 @@
       <c r="LQ4" s="3">
         <v>14145</v>
       </c>
+      <c r="LR4" s="3">
+        <v>14104</v>
+      </c>
     </row>
     <row r="5" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -24502,6 +24534,9 @@
       <c r="LQ5" s="3">
         <v>18157</v>
       </c>
+      <c r="LR5" s="3">
+        <v>18438</v>
+      </c>
     </row>
     <row r="6" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -25491,6 +25526,9 @@
       <c r="LQ6" s="3">
         <v>5362</v>
       </c>
+      <c r="LR6" s="3">
+        <v>5013</v>
+      </c>
     </row>
     <row r="7" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -26480,6 +26518,9 @@
       <c r="LQ7" s="3">
         <v>3566</v>
       </c>
+      <c r="LR7" s="3">
+        <v>3667</v>
+      </c>
     </row>
     <row r="8" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -27469,6 +27510,9 @@
       <c r="LQ8" s="3">
         <v>927</v>
       </c>
+      <c r="LR8" s="3">
+        <v>943</v>
+      </c>
     </row>
     <row r="9" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -28458,6 +28502,9 @@
       <c r="LQ9" s="3">
         <v>2533</v>
       </c>
+      <c r="LR9" s="3">
+        <v>2599</v>
+      </c>
     </row>
     <row r="10" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -29447,6 +29494,9 @@
       <c r="LQ10" s="3">
         <v>8723</v>
       </c>
+      <c r="LR10" s="3">
+        <v>8861</v>
+      </c>
     </row>
     <row r="11" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -30436,6 +30486,9 @@
       <c r="LQ11" s="3">
         <v>1716</v>
       </c>
+      <c r="LR11" s="3">
+        <v>1711</v>
+      </c>
     </row>
     <row r="12" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -31425,6 +31478,9 @@
       <c r="LQ12" s="3">
         <v>9417</v>
       </c>
+      <c r="LR12" s="3">
+        <v>9329</v>
+      </c>
     </row>
     <row r="13" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -32414,6 +32470,9 @@
       <c r="LQ13" s="3">
         <v>23265</v>
       </c>
+      <c r="LR13" s="3">
+        <v>23747</v>
+      </c>
     </row>
     <row r="14" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -33403,6 +33462,9 @@
       <c r="LQ14" s="3">
         <v>4341</v>
       </c>
+      <c r="LR14" s="3">
+        <v>4666</v>
+      </c>
     </row>
     <row r="15" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -34392,6 +34454,9 @@
       <c r="LQ15" s="3">
         <v>779</v>
       </c>
+      <c r="LR15" s="3">
+        <v>747</v>
+      </c>
     </row>
     <row r="16" spans="1:331" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -35381,8 +35446,11 @@
       <c r="LQ16" s="3">
         <v>8161</v>
       </c>
-    </row>
-    <row r="17" spans="1:329" x14ac:dyDescent="0.25">
+      <c r="LR16" s="3">
+        <v>7877</v>
+      </c>
+    </row>
+    <row r="17" spans="1:330" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -36370,8 +36438,11 @@
       <c r="LQ17" s="3">
         <v>3670</v>
       </c>
-    </row>
-    <row r="18" spans="1:329" x14ac:dyDescent="0.25">
+      <c r="LR17" s="3">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:330" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -37359,8 +37430,11 @@
       <c r="LQ18" s="3">
         <v>1991</v>
       </c>
-    </row>
-    <row r="19" spans="1:329" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="LR18" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:330" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -38348,8 +38422,11 @@
       <c r="LQ19" s="3">
         <v>5016</v>
       </c>
-    </row>
-    <row r="20" spans="1:329" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="LR19" s="3">
+        <v>5068</v>
+      </c>
+    </row>
+    <row r="20" spans="1:330" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -39336,6 +39413,9 @@
       </c>
       <c r="LQ20" s="12">
         <v>111769</v>
+      </c>
+      <c r="LR20" s="12">
+        <v>112482</v>
       </c>
     </row>
   </sheetData>
@@ -39350,8 +39430,8 @@
   <dimension ref="A2:LT21"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="LM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="LP31" sqref="LP31"/>
+      <pane xSplit="1" topLeftCell="LB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="LF20" sqref="LF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39420,7 +39500,7 @@
   <sheetData>
     <row r="2" spans="1:332" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="3" spans="1:332" x14ac:dyDescent="0.25">
@@ -41406,7 +41486,9 @@
       <c r="LR4" s="16">
         <v>127.42790931565132</v>
       </c>
-      <c r="LS4" s="16"/>
+      <c r="LS4" s="16">
+        <v>127.05855305676536</v>
+      </c>
       <c r="LT4" s="16"/>
     </row>
     <row r="5" spans="1:332" x14ac:dyDescent="0.25">
@@ -42400,7 +42482,9 @@
       <c r="LR5" s="16">
         <v>138.34181972560668</v>
       </c>
-      <c r="LS5" s="16"/>
+      <c r="LS5" s="16">
+        <v>140.48281500802645</v>
+      </c>
       <c r="LT5" s="16"/>
     </row>
     <row r="6" spans="1:332" x14ac:dyDescent="0.25">
@@ -43394,7 +43478,9 @@
       <c r="LR6" s="16">
         <v>146.12380845190791</v>
       </c>
-      <c r="LS6" s="16"/>
+      <c r="LS6" s="16">
+        <v>136.61295258661215</v>
+      </c>
       <c r="LT6" s="16"/>
     </row>
     <row r="7" spans="1:332" x14ac:dyDescent="0.25">
@@ -44388,7 +44474,9 @@
       <c r="LR7" s="16">
         <v>141.40171688489559</v>
       </c>
-      <c r="LS7" s="16"/>
+      <c r="LS7" s="16">
+        <v>145.40664492902752</v>
+      </c>
       <c r="LT7" s="16"/>
     </row>
     <row r="8" spans="1:332" x14ac:dyDescent="0.25">
@@ -45382,7 +45470,9 @@
       <c r="LR8" s="16">
         <v>136.08298272759035</v>
       </c>
-      <c r="LS8" s="16"/>
+      <c r="LS8" s="16">
+        <v>138.43177207348188</v>
+      </c>
       <c r="LT8" s="16"/>
     </row>
     <row r="9" spans="1:332" x14ac:dyDescent="0.25">
@@ -46376,7 +46466,9 @@
       <c r="LR9" s="16">
         <v>137.12252734195044</v>
       </c>
-      <c r="LS9" s="16"/>
+      <c r="LS9" s="16">
+        <v>140.69540014280665</v>
+      </c>
       <c r="LT9" s="16"/>
     </row>
     <row r="10" spans="1:332" x14ac:dyDescent="0.25">
@@ -47370,7 +47462,9 @@
       <c r="LR10" s="16">
         <v>138.72278978638948</v>
       </c>
-      <c r="LS10" s="16"/>
+      <c r="LS10" s="16">
+        <v>140.91741835345607</v>
+      </c>
       <c r="LT10" s="16"/>
     </row>
     <row r="11" spans="1:332" x14ac:dyDescent="0.25">
@@ -48364,7 +48458,9 @@
       <c r="LR11" s="16">
         <v>106.70726019781885</v>
       </c>
-      <c r="LS11" s="16"/>
+      <c r="LS11" s="16">
+        <v>106.39634160749885</v>
+      </c>
       <c r="LT11" s="16"/>
     </row>
     <row r="12" spans="1:332" x14ac:dyDescent="0.25">
@@ -49358,7 +49454,9 @@
       <c r="LR12" s="16">
         <v>117.8066274953688</v>
       </c>
-      <c r="LS12" s="16"/>
+      <c r="LS12" s="16">
+        <v>116.70574789256617</v>
+      </c>
       <c r="LT12" s="16"/>
     </row>
     <row r="13" spans="1:332" x14ac:dyDescent="0.25">
@@ -50352,7 +50450,9 @@
       <c r="LR13" s="16">
         <v>129.63009704956551</v>
       </c>
-      <c r="LS13" s="16"/>
+      <c r="LS13" s="16">
+        <v>132.31574960825409</v>
+      </c>
       <c r="LT13" s="16"/>
     </row>
     <row r="14" spans="1:332" x14ac:dyDescent="0.25">
@@ -51346,7 +51446,9 @@
       <c r="LR14" s="16">
         <v>106.03573167219642</v>
       </c>
-      <c r="LS14" s="16"/>
+      <c r="LS14" s="16">
+        <v>113.97436627101325</v>
+      </c>
       <c r="LT14" s="16"/>
     </row>
     <row r="15" spans="1:332" x14ac:dyDescent="0.25">
@@ -52340,7 +52442,9 @@
       <c r="LR15" s="16">
         <v>78.935075646958566</v>
       </c>
-      <c r="LS15" s="16"/>
+      <c r="LS15" s="16">
+        <v>75.692556493296593</v>
+      </c>
       <c r="LT15" s="16"/>
     </row>
     <row r="16" spans="1:332" x14ac:dyDescent="0.25">
@@ -53334,7 +53438,9 @@
       <c r="LR16" s="16">
         <v>200.41891261013402</v>
       </c>
-      <c r="LS16" s="16"/>
+      <c r="LS16" s="16">
+        <v>193.44440321407004</v>
+      </c>
       <c r="LT16" s="16"/>
     </row>
     <row r="17" spans="1:332" x14ac:dyDescent="0.25">
@@ -54328,7 +54434,9 @@
       <c r="LR17" s="16">
         <v>167.21478488524144</v>
       </c>
-      <c r="LS17" s="16"/>
+      <c r="LS17" s="16">
+        <v>168.08047450726315</v>
+      </c>
       <c r="LT17" s="16"/>
     </row>
     <row r="18" spans="1:332" x14ac:dyDescent="0.25">
@@ -55322,7 +55430,9 @@
       <c r="LR18" s="16">
         <v>68.565965728037284</v>
       </c>
-      <c r="LS18" s="16"/>
+      <c r="LS18" s="16">
+        <v>69.667980245012274</v>
+      </c>
       <c r="LT18" s="16"/>
     </row>
     <row r="19" spans="1:332" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -56316,7 +56426,9 @@
       <c r="LR19" s="16">
         <v>235.12007717338417</v>
       </c>
-      <c r="LS19" s="16"/>
+      <c r="LS19" s="16">
+        <v>237.55752613929644</v>
+      </c>
       <c r="LT19" s="16"/>
     </row>
     <row r="20" spans="1:332" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -57310,7 +57422,9 @@
       <c r="LR20" s="17">
         <v>134.39151152676939</v>
       </c>
-      <c r="LS20" s="17"/>
+      <c r="LS20" s="17">
+        <v>135.24882569902277</v>
+      </c>
       <c r="LT20" s="17"/>
     </row>
     <row r="21" spans="1:332" x14ac:dyDescent="0.25">

--- a/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
+++ b/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D9F3E3-F18A-4161-AE13-FD3166DDCBF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A337313A-4DA3-4E0F-9446-E90D28A5AF6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2090" yWindow="170" windowWidth="15290" windowHeight="10800" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3174,10 +3174,10 @@
     <t>30.03.2021</t>
   </si>
   <si>
-    <t>Stand: 31.03.2021 06:02:15</t>
-  </si>
-  <si>
-    <t>31.03.2021</t>
+    <t>Stand: 01.04.2021 05:45:53</t>
+  </si>
+  <si>
+    <t>01.04.2021</t>
   </si>
 </sst>
 </file>
@@ -3392,6 +3392,18 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet001" fillFormulas="1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh preserveSortFilterLayout="0" nextId="4">
+    <queryTableFields count="3">
+      <queryTableField id="1" name="Bundesland"/>
+      <queryTableField id="2" name="Fälle in den letzten 7 Tagen"/>
+      <queryTableField id="3" name="7-Tage-Inzidenz"/>
+    </queryTableFields>
+  </queryTableRefresh>
+</queryTable>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet003" fillFormulas="1" connectionId="3" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="2">
     <queryTableFields count="1">
@@ -3401,7 +3413,7 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet002" fillFormulas="1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="6">
     <queryTableFields count="5">
@@ -3410,18 +3422,6 @@
       <queryTableField id="3"/>
       <queryTableField id="4"/>
       <queryTableField id="5" name="Todesfälle"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Tageswerte berechnet001" fillFormulas="1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000002000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh preserveSortFilterLayout="0" nextId="4">
-    <queryTableFields count="3">
-      <queryTableField id="1" name="Bundesland"/>
-      <queryTableField id="2" name="Fälle in den letzten 7 Tagen"/>
-      <queryTableField id="3" name="7-Tage-Inzidenz"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3765,7 +3765,7 @@
   <dimension ref="A2:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3800,10 +3800,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>13955</v>
+        <v>14413</v>
       </c>
       <c r="C6" s="29">
-        <v>125.71625835983841</v>
+        <v>129.84223803227164</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3811,10 +3811,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>17925</v>
+        <v>18638</v>
       </c>
       <c r="C7" s="29">
-        <v>136.57416525755909</v>
+        <v>142.00665506668818</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3822,10 +3822,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>4564</v>
+        <v>4565</v>
       </c>
       <c r="C8" s="29">
-        <v>124.37692312094511</v>
+        <v>124.40417485694883</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3833,10 +3833,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>3596</v>
+        <v>3692</v>
       </c>
       <c r="C9" s="29">
-        <v>142.59129947226151</v>
+        <v>146.39796375183246</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3844,10 +3844,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>902</v>
+        <v>870</v>
       </c>
       <c r="C10" s="29">
-        <v>132.41299937463484</v>
+        <v>127.71542068285179</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3855,10 +3855,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>2474</v>
+        <v>2568</v>
       </c>
       <c r="C11" s="29">
-        <v>133.92859559573051</v>
+        <v>139.01723261513177</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3866,10 +3866,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>8822</v>
+        <v>8683</v>
       </c>
       <c r="C12" s="29">
-        <v>140.29719723667637</v>
+        <v>138.08666556405134</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3877,10 +3877,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1661</v>
+        <v>1557</v>
       </c>
       <c r="C13" s="29">
-        <v>103.28715570429901</v>
+        <v>96.820049025643328</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3888,10 +3888,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>9054</v>
+        <v>9038</v>
       </c>
       <c r="C14" s="29">
-        <v>113.26549913380792</v>
+        <v>113.06533920602561</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3899,10 +3899,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>23459</v>
+        <v>23174</v>
       </c>
       <c r="C15" s="29">
-        <v>130.7110443449713</v>
+        <v>129.12305476151434</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3910,10 +3910,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>4670</v>
+        <v>4651</v>
       </c>
       <c r="C16" s="29">
-        <v>114.0720725429987</v>
+        <v>113.60796775106787</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3921,10 +3921,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>803</v>
+        <v>850</v>
       </c>
       <c r="C17" s="29">
-        <v>81.366965012205043</v>
+        <v>86.129415019146052</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3932,10 +3932,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>7425</v>
+        <v>7747</v>
       </c>
       <c r="C18" s="29">
-        <v>182.34412769639076</v>
+        <v>190.25184609615343</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3943,10 +3943,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>3474</v>
+        <v>3550</v>
       </c>
       <c r="C19" s="29">
-        <v>158.28451299491249</v>
+        <v>161.74727148299922</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3954,10 +3954,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>2084</v>
+        <v>2165</v>
       </c>
       <c r="C20" s="29">
-        <v>71.768695417995829</v>
+        <v>74.558169664088766</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3965,10 +3965,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>5171</v>
+        <v>5419</v>
       </c>
       <c r="C21" s="29">
-        <v>242.3855500525458</v>
+        <v>254.01030665920433</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -3977,11 +3977,11 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B6:B21)</f>
-        <v>110039</v>
+        <v>111580</v>
       </c>
       <c r="C22" s="30">
         <f>B22/A36*100000</f>
-        <v>132.31135231499056</v>
+        <v>134.16425713889299</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="13" x14ac:dyDescent="0.3">
@@ -4006,7 +4006,7 @@
         <v>1044</v>
       </c>
       <c r="B31">
-        <v>2808873</v>
+        <v>2833173</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -4015,7 +4015,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>76342</v>
+        <v>76543</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="13" x14ac:dyDescent="0.3">
@@ -4077,10 +4077,10 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>553</v>
+        <v>393</v>
       </c>
       <c r="D6" s="29">
-        <v>99.277233019600004</v>
+        <v>70.5532596324</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4091,10 +4091,10 @@
         <v>120</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D7" s="29">
-        <v>76.872222990899999</v>
+        <v>63.0352228526</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4105,10 +4105,10 @@
         <v>122</v>
       </c>
       <c r="C8">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D8" s="29">
-        <v>92.829824365999997</v>
+        <v>105.4546804797</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4119,10 +4119,10 @@
         <v>124</v>
       </c>
       <c r="C9">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="D9" s="29">
-        <v>131.92879904200001</v>
+        <v>122.7952668006</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4133,10 +4133,10 @@
         <v>126</v>
       </c>
       <c r="C10">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="D10" s="29">
-        <v>256.17218350429999</v>
+        <v>272.95202085170001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4147,10 +4147,10 @@
         <v>128</v>
       </c>
       <c r="C11">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="D11" s="29">
-        <v>206.51372229340001</v>
+        <v>166.9189860642</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4161,10 +4161,10 @@
         <v>130</v>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D12" s="29">
-        <v>49.294843278499997</v>
+        <v>52.901783030600001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4189,10 +4189,10 @@
         <v>134</v>
       </c>
       <c r="C14">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D14" s="29">
-        <v>169.63920824749999</v>
+        <v>161.92833514540001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4203,10 +4203,10 @@
         <v>136</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D15" s="29">
-        <v>189.5420190964</v>
+        <v>191.9112943351</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4217,10 +4217,10 @@
         <v>138</v>
       </c>
       <c r="C16">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="D16" s="29">
-        <v>260.07045192089998</v>
+        <v>234.8397364361</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4231,10 +4231,10 @@
         <v>140</v>
       </c>
       <c r="C17">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D17" s="29">
-        <v>104.91834789639999</v>
+        <v>99.312023963000001</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4245,10 +4245,10 @@
         <v>142</v>
       </c>
       <c r="C18">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="D18" s="29">
-        <v>68.775790921600006</v>
+        <v>85.8119960123</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4259,10 +4259,10 @@
         <v>144</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D19" s="29">
-        <v>47.849179386599999</v>
+        <v>76.558687018499995</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4273,10 +4273,10 @@
         <v>146</v>
       </c>
       <c r="C20">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D20" s="29">
-        <v>168.48058681079999</v>
+        <v>166.85537214710001</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4287,10 +4287,10 @@
         <v>148</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D21" s="29">
-        <v>70.420551533799994</v>
+        <v>98.588772147300006</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4301,10 +4301,10 @@
         <v>150</v>
       </c>
       <c r="C22">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="D22" s="29">
-        <v>100.45924225029999</v>
+        <v>113.66245694600001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4315,10 +4315,10 @@
         <v>152</v>
       </c>
       <c r="C23">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="D23" s="29">
-        <v>170.61048883609999</v>
+        <v>176.00528690210001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4329,10 +4329,10 @@
         <v>154</v>
       </c>
       <c r="C24">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D24" s="29">
-        <v>120.33077153719999</v>
+        <v>121.9088800164</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4343,10 +4343,10 @@
         <v>156</v>
       </c>
       <c r="C25">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D25" s="29">
-        <v>76.438896327799995</v>
+        <v>71.694413107399996</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4357,10 +4357,10 @@
         <v>158</v>
       </c>
       <c r="C26">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D26" s="29">
-        <v>97.986749176499998</v>
+        <v>91.203051156599997</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4371,10 +4371,10 @@
         <v>160</v>
       </c>
       <c r="C27">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D27" s="29">
-        <v>88.148399283200007</v>
+        <v>75.555770814200002</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4385,10 +4385,10 @@
         <v>162</v>
       </c>
       <c r="C28">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D28" s="29">
-        <v>97.255991663800003</v>
+        <v>100.41365373079999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4399,10 +4399,10 @@
         <v>164</v>
       </c>
       <c r="C29">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D29" s="29">
-        <v>68.7946090043</v>
+        <v>82.084476652800006</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4413,10 +4413,10 @@
         <v>166</v>
       </c>
       <c r="C30">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="29">
-        <v>163.08779559659999</v>
+        <v>161.27570897890001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4427,10 +4427,10 @@
         <v>168</v>
       </c>
       <c r="C31">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D31" s="29">
-        <v>161.55506442820001</v>
+        <v>164.13994545899999</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4441,10 +4441,10 @@
         <v>170</v>
       </c>
       <c r="C32">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D32" s="29">
-        <v>84.939828625399997</v>
+        <v>90.3759776574</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4455,10 +4455,10 @@
         <v>172</v>
       </c>
       <c r="C33">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D33" s="29">
-        <v>145.2138800717</v>
+        <v>143.59439442030001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4469,10 +4469,10 @@
         <v>174</v>
       </c>
       <c r="C34">
-        <v>405</v>
+        <v>466</v>
       </c>
       <c r="D34" s="29">
-        <v>135.10898791689999</v>
+        <v>155.45873671429999</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4483,10 +4483,10 @@
         <v>176</v>
       </c>
       <c r="C35">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D35" s="29">
-        <v>171.16189508310001</v>
+        <v>141.74344436569999</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4497,10 +4497,10 @@
         <v>178</v>
       </c>
       <c r="C36">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="D36" s="29">
-        <v>171.7085970057</v>
+        <v>146.6275659824</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4511,10 +4511,10 @@
         <v>180</v>
       </c>
       <c r="C37">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D37" s="29">
-        <v>81.186455078400002</v>
+        <v>91.570769100099994</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4525,10 +4525,10 @@
         <v>182</v>
       </c>
       <c r="C38">
-        <v>329</v>
+        <v>238</v>
       </c>
       <c r="D38" s="29">
-        <v>121.6986017607</v>
+        <v>88.037286380099999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4539,10 +4539,10 @@
         <v>184</v>
       </c>
       <c r="C39">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="D39" s="29">
-        <v>113.3369816478</v>
+        <v>105.2628431135</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4553,10 +4553,10 @@
         <v>186</v>
       </c>
       <c r="C40">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="D40" s="29">
-        <v>116.642262789</v>
+        <v>109.1970119727</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4567,10 +4567,10 @@
         <v>188</v>
       </c>
       <c r="C41">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="D41" s="29">
-        <v>114.4763752871</v>
+        <v>128.08789551940001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -4581,10 +4581,10 @@
         <v>190</v>
       </c>
       <c r="C42">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D42" s="29">
-        <v>142.60344453869999</v>
+        <v>144.50482379920001</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4595,10 +4595,10 @@
         <v>192</v>
       </c>
       <c r="C43">
-        <v>477</v>
+        <v>569</v>
       </c>
       <c r="D43" s="29">
-        <v>127.1193216039</v>
+        <v>151.63709432409999</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4609,10 +4609,10 @@
         <v>194</v>
       </c>
       <c r="C44">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="D44" s="29">
-        <v>169.40549259939999</v>
+        <v>176.56785717619999</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4623,10 +4623,10 @@
         <v>196</v>
       </c>
       <c r="C45">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="D45" s="29">
-        <v>100.7446562622</v>
+        <v>88.685445537600003</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4637,10 +4637,10 @@
         <v>198</v>
       </c>
       <c r="C46">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="D46" s="29">
-        <v>120.9138623507</v>
+        <v>110.5168104926</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4651,10 +4651,10 @@
         <v>200</v>
       </c>
       <c r="C47">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D47" s="29">
-        <v>166.51395914130001</v>
+        <v>164.00369845079999</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -4665,10 +4665,10 @@
         <v>202</v>
       </c>
       <c r="C48">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="D48" s="29">
-        <v>102.9198118983</v>
+        <v>95.308378864000005</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4679,10 +4679,10 @@
         <v>204</v>
       </c>
       <c r="C49">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D49" s="29">
-        <v>118.5000526667</v>
+        <v>115.5741254404</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4693,10 +4693,10 @@
         <v>206</v>
       </c>
       <c r="C50">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D50" s="29">
-        <v>113.70117979050001</v>
+        <v>115.2021854643</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4707,10 +4707,10 @@
         <v>208</v>
       </c>
       <c r="C51">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D51" s="29">
-        <v>25.781673675099999</v>
+        <v>19.558511063899999</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -4721,10 +4721,10 @@
         <v>210</v>
       </c>
       <c r="C52">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D52" s="29">
-        <v>146.56054689440001</v>
+        <v>149.0446239604</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4735,10 +4735,10 @@
         <v>212</v>
       </c>
       <c r="C53">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="D53" s="29">
-        <v>119.3913733</v>
+        <v>110.11535181559999</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4749,10 +4749,10 @@
         <v>214</v>
       </c>
       <c r="C54">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D54" s="29">
-        <v>129.70809502040001</v>
+        <v>135.88467097380001</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4763,10 +4763,10 @@
         <v>216</v>
       </c>
       <c r="C55">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D55" s="29">
-        <v>100.9509580246</v>
+        <v>93.8843909629</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4777,10 +4777,10 @@
         <v>218</v>
       </c>
       <c r="C56">
-        <v>248</v>
+        <v>320</v>
       </c>
       <c r="D56" s="29">
-        <v>63.135331091399998</v>
+        <v>81.4649433437</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4791,10 +4791,10 @@
         <v>220</v>
       </c>
       <c r="C57">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="D57" s="29">
-        <v>139.50167812309999</v>
+        <v>134.57808948350001</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4805,10 +4805,10 @@
         <v>222</v>
       </c>
       <c r="C58">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D58" s="29">
-        <v>108.98054904120001</v>
+        <v>108.0608819607</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4819,10 +4819,10 @@
         <v>224</v>
       </c>
       <c r="C59">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="D59" s="29">
-        <v>112.23242425070001</v>
+        <v>122.5456740467</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4833,10 +4833,10 @@
         <v>226</v>
       </c>
       <c r="C60">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D60" s="29">
-        <v>121.1071652147</v>
+        <v>128.12787044460001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4847,10 +4847,10 @@
         <v>228</v>
       </c>
       <c r="C61">
-        <v>630</v>
+        <v>567</v>
       </c>
       <c r="D61" s="29">
-        <v>169.65629788410001</v>
+        <v>152.6906680957</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4861,10 +4861,10 @@
         <v>230</v>
       </c>
       <c r="C62">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D62" s="29">
-        <v>130.99136647809999</v>
+        <v>142.8996725216</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -4875,10 +4875,10 @@
         <v>232</v>
       </c>
       <c r="C63">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D63" s="29">
-        <v>106.67183863459999</v>
+        <v>120.5253241716</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4889,10 +4889,10 @@
         <v>234</v>
       </c>
       <c r="C64">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D64" s="29">
-        <v>106.25245583509999</v>
+        <v>102.6438818633</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4903,10 +4903,10 @@
         <v>236</v>
       </c>
       <c r="C65">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="D65" s="29">
-        <v>85.735638332199997</v>
+        <v>89.908611879299997</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4917,10 +4917,10 @@
         <v>238</v>
       </c>
       <c r="C66">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="D66" s="29">
-        <v>114.8779245858</v>
+        <v>111.1778687326</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4931,10 +4931,10 @@
         <v>240</v>
       </c>
       <c r="C67">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D67" s="29">
-        <v>219.9871527503</v>
+        <v>210.30771802929999</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4945,10 +4945,10 @@
         <v>242</v>
       </c>
       <c r="C68">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="D68" s="29">
-        <v>257.20452232650001</v>
+        <v>273.41959003839997</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4959,10 +4959,10 @@
         <v>244</v>
       </c>
       <c r="C69">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D69" s="29">
-        <v>80.401505015699996</v>
+        <v>87.939146110899998</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4973,10 +4973,10 @@
         <v>246</v>
       </c>
       <c r="C70">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D70" s="29">
-        <v>144.1252213551</v>
+        <v>135.74584802050001</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4987,10 +4987,10 @@
         <v>248</v>
       </c>
       <c r="C71">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="D71" s="29">
-        <v>302.34847419490001</v>
+        <v>334.38022469100002</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -5001,10 +5001,10 @@
         <v>250</v>
       </c>
       <c r="C72">
-        <v>742</v>
+        <v>643</v>
       </c>
       <c r="D72" s="29">
-        <v>301.21704677389999</v>
+        <v>261.02771034450001</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -5015,10 +5015,10 @@
         <v>252</v>
       </c>
       <c r="C73">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="D73" s="29">
-        <v>215.6056291818</v>
+        <v>206.8173562531</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -5029,10 +5029,10 @@
         <v>254</v>
       </c>
       <c r="C74">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D74" s="29">
-        <v>85.216205687599995</v>
+        <v>70.607713283999999</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -5043,10 +5043,10 @@
         <v>256</v>
       </c>
       <c r="C75">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D75" s="29">
-        <v>87.6110989429</v>
+        <v>91.069431795900002</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -5057,10 +5057,10 @@
         <v>258</v>
       </c>
       <c r="C76">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D76" s="29">
-        <v>61.914460285099999</v>
+        <v>63.543788187399997</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -5071,10 +5071,10 @@
         <v>260</v>
       </c>
       <c r="C77">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D77" s="29">
-        <v>87.947557868600001</v>
+        <v>89.307571650100002</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -5085,10 +5085,10 @@
         <v>262</v>
       </c>
       <c r="C78">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D78" s="29">
-        <v>144.46517787280001</v>
+        <v>136.4393346576</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -5099,10 +5099,10 @@
         <v>264</v>
       </c>
       <c r="C79">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="D79" s="29">
-        <v>65.139013724600005</v>
+        <v>77.762853593800003</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -5113,10 +5113,10 @@
         <v>266</v>
       </c>
       <c r="C80">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D80" s="29">
-        <v>201.42157147559999</v>
+        <v>203.3583173552</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -5127,10 +5127,10 @@
         <v>268</v>
       </c>
       <c r="C81">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D81" s="29">
-        <v>98.365838949400001</v>
+        <v>105.39197030290001</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5141,10 +5141,10 @@
         <v>270</v>
       </c>
       <c r="C82">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D82" s="29">
-        <v>99.450831258799994</v>
+        <v>103.8291697419</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5155,10 +5155,10 @@
         <v>272</v>
       </c>
       <c r="C83">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="D83" s="29">
-        <v>115.8324492016</v>
+        <v>121.2043888747</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5169,10 +5169,10 @@
         <v>274</v>
       </c>
       <c r="C84">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="D84" s="29">
-        <v>194.17800766670001</v>
+        <v>209.24354274429999</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5183,10 +5183,10 @@
         <v>276</v>
       </c>
       <c r="C85">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D85" s="29">
-        <v>130.22344279839999</v>
+        <v>103.14728142449999</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5197,10 +5197,10 @@
         <v>278</v>
       </c>
       <c r="C86">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D86" s="29">
-        <v>131.0812329126</v>
+        <v>152.30390871750001</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -5211,10 +5211,10 @@
         <v>280</v>
       </c>
       <c r="C87">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D87" s="29">
-        <v>80.1514586184</v>
+        <v>74.623771817100007</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -5225,10 +5225,10 @@
         <v>282</v>
       </c>
       <c r="C88">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D88" s="29">
-        <v>94.239970174600003</v>
+        <v>100.4535945817</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -5239,10 +5239,10 @@
         <v>284</v>
       </c>
       <c r="C89">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="D89" s="29">
-        <v>170.6608193788</v>
+        <v>186.17543932230001</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -5253,10 +5253,10 @@
         <v>286</v>
       </c>
       <c r="C90">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D90" s="29">
-        <v>28.530027854299998</v>
+        <v>37.539510334600003</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -5267,10 +5267,10 @@
         <v>288</v>
       </c>
       <c r="C91">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="D91" s="29">
-        <v>161.4554913554</v>
+        <v>145.75842969589999</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -5281,10 +5281,10 @@
         <v>290</v>
       </c>
       <c r="C92">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D92" s="29">
-        <v>91.603053435099994</v>
+        <v>103.5512777962</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -5295,10 +5295,10 @@
         <v>292</v>
       </c>
       <c r="C93">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="D93" s="29">
-        <v>137.52656183600001</v>
+        <v>139.3965150871</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -5309,10 +5309,10 @@
         <v>294</v>
       </c>
       <c r="C94">
-        <v>643</v>
+        <v>764</v>
       </c>
       <c r="D94" s="29">
-        <v>115.4854700241</v>
+        <v>137.21757247030001</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -5323,10 +5323,10 @@
         <v>296</v>
       </c>
       <c r="C95">
-        <v>813</v>
+        <v>870</v>
       </c>
       <c r="D95" s="29">
-        <v>163.02843873699999</v>
+        <v>174.45847687720001</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -5337,10 +5337,10 @@
         <v>298</v>
       </c>
       <c r="C96">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="D96" s="29">
-        <v>163.99761183199999</v>
+        <v>154.92861947259999</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -5351,10 +5351,10 @@
         <v>300</v>
       </c>
       <c r="C97">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="D97" s="29">
-        <v>96.642905268999996</v>
+        <v>100.5021893397</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -5365,10 +5365,10 @@
         <v>302</v>
       </c>
       <c r="C98">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="D98" s="29">
-        <v>90.498367548700003</v>
+        <v>64.741139861700006</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -5379,10 +5379,10 @@
         <v>304</v>
       </c>
       <c r="C99">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="D99" s="29">
-        <v>202.9878207308</v>
+        <v>225.98644081360001</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -5393,10 +5393,10 @@
         <v>306</v>
       </c>
       <c r="C100">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D100" s="29">
-        <v>171.58209224800001</v>
+        <v>175.3448574288</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -5407,10 +5407,10 @@
         <v>308</v>
       </c>
       <c r="C101">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D101" s="29">
-        <v>262.72189349109999</v>
+        <v>234.31952662719999</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -5421,10 +5421,10 @@
         <v>310</v>
       </c>
       <c r="C102">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D102" s="29">
-        <v>260.24531803939999</v>
+        <v>266.137664863</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -5435,10 +5435,10 @@
         <v>312</v>
       </c>
       <c r="C103">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D103" s="29">
-        <v>108.1882475507</v>
+        <v>96.167331156200007</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -5449,10 +5449,10 @@
         <v>314</v>
       </c>
       <c r="C104">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="D104" s="29">
-        <v>100.9566847748</v>
+        <v>113.5762703716</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -5463,10 +5463,10 @@
         <v>316</v>
       </c>
       <c r="C105">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="D105" s="29">
-        <v>184.42961395180001</v>
+        <v>181.06522630090001</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -5477,10 +5477,10 @@
         <v>318</v>
       </c>
       <c r="C106">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="D106" s="29">
-        <v>132.98118516779999</v>
+        <v>142.5459571868</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -5491,10 +5491,10 @@
         <v>320</v>
       </c>
       <c r="C107">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="D107" s="29">
-        <v>88.696907133799996</v>
+        <v>102.72805628499999</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -5505,10 +5505,10 @@
         <v>322</v>
       </c>
       <c r="C108">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D108" s="29">
-        <v>93.3551403222</v>
+        <v>99.144606388699998</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -5519,10 +5519,10 @@
         <v>324</v>
       </c>
       <c r="C109">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="D109" s="29">
-        <v>135.99338259000001</v>
+        <v>153.2846374211</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -5533,10 +5533,10 @@
         <v>326</v>
       </c>
       <c r="C110">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D110" s="29">
-        <v>77.314090715199995</v>
+        <v>76.425423005799999</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -5547,10 +5547,10 @@
         <v>328</v>
       </c>
       <c r="C111">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D111" s="29">
-        <v>109.2800629453</v>
+        <v>115.1083329691</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -5561,10 +5561,10 @@
         <v>330</v>
       </c>
       <c r="C112">
-        <v>762</v>
+        <v>822</v>
       </c>
       <c r="D112" s="29">
-        <v>227.49799968950001</v>
+        <v>245.41122801149999</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -5575,10 +5575,10 @@
         <v>332</v>
       </c>
       <c r="C113">
-        <v>775</v>
+        <v>805</v>
       </c>
       <c r="D113" s="29">
-        <v>132.9878509163</v>
+        <v>138.13576772600001</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -5589,10 +5589,10 @@
         <v>334</v>
       </c>
       <c r="C114">
-        <v>639</v>
+        <v>668</v>
       </c>
       <c r="D114" s="29">
-        <v>119.4338945543</v>
+        <v>124.85421214749999</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -5603,10 +5603,10 @@
         <v>336</v>
       </c>
       <c r="C115">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="D115" s="29">
-        <v>128.57851034820001</v>
+        <v>111.5379848804</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -5617,10 +5617,10 @@
         <v>338</v>
       </c>
       <c r="C116">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D116" s="29">
-        <v>98.709019120700006</v>
+        <v>104.2544696331</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -5631,10 +5631,10 @@
         <v>340</v>
       </c>
       <c r="C117">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D117" s="29">
-        <v>99.825305714999999</v>
+        <v>113.5943133998</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -5645,10 +5645,10 @@
         <v>342</v>
       </c>
       <c r="C118">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D118" s="29">
-        <v>94.335753250500005</v>
+        <v>79.980312538500002</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -5659,10 +5659,10 @@
         <v>344</v>
       </c>
       <c r="C119">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D119" s="29">
-        <v>187.00974874889999</v>
+        <v>190.4728922443</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -5673,10 +5673,10 @@
         <v>346</v>
       </c>
       <c r="C120">
-        <v>1116</v>
+        <v>1076</v>
       </c>
       <c r="D120" s="29">
-        <v>146.19193586419999</v>
+        <v>140.95208153210001</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -5687,10 +5687,10 @@
         <v>348</v>
       </c>
       <c r="C121">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D121" s="29">
-        <v>74.396072579399998</v>
+        <v>78.721425636399999</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -5701,10 +5701,10 @@
         <v>350</v>
       </c>
       <c r="C122">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="D122" s="29">
-        <v>127.7728088352</v>
+        <v>139.9945557673</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -5715,10 +5715,10 @@
         <v>352</v>
       </c>
       <c r="C123">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D123" s="29">
-        <v>100.64020703129999</v>
+        <v>115.8630954898</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -5729,10 +5729,10 @@
         <v>354</v>
       </c>
       <c r="C124">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D124" s="29">
-        <v>142.9264184171</v>
+        <v>151.85931956819999</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -5743,10 +5743,10 @@
         <v>356</v>
       </c>
       <c r="C125">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D125" s="29">
-        <v>60.787810017799998</v>
+        <v>49.643378181199999</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -5757,10 +5757,10 @@
         <v>358</v>
       </c>
       <c r="C126">
-        <v>369</v>
+        <v>443</v>
       </c>
       <c r="D126" s="29">
-        <v>165.36332877730001</v>
+        <v>198.52562235319999</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -5771,10 +5771,10 @@
         <v>360</v>
       </c>
       <c r="C127">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="D127" s="29">
-        <v>118.09713147079999</v>
+        <v>110.8015557815</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -5785,10 +5785,10 @@
         <v>362</v>
       </c>
       <c r="C128">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="D128" s="29">
-        <v>165.76262480840001</v>
+        <v>181.3271905181</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -5799,10 +5799,10 @@
         <v>364</v>
       </c>
       <c r="C129">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D129" s="29">
-        <v>100.97324633229999</v>
+        <v>97.579187632100002</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -5813,10 +5813,10 @@
         <v>366</v>
       </c>
       <c r="C130">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D130" s="29">
-        <v>85.949515968499995</v>
+        <v>82.556771917099994</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -5827,10 +5827,10 @@
         <v>368</v>
       </c>
       <c r="C131">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D131" s="29">
-        <v>196.03689653180001</v>
+        <v>195.2666140307</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -5841,10 +5841,10 @@
         <v>370</v>
       </c>
       <c r="C132">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="D132" s="29">
-        <v>375.83892617449999</v>
+        <v>393.02013422819999</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -5855,10 +5855,10 @@
         <v>372</v>
       </c>
       <c r="C133">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="D133" s="29">
-        <v>149.59732740109999</v>
+        <v>162.77429406339999</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -5869,10 +5869,10 @@
         <v>374</v>
       </c>
       <c r="C134">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D134" s="29">
-        <v>107.8732710722</v>
+        <v>102.7012649249</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -5883,10 +5883,10 @@
         <v>376</v>
       </c>
       <c r="C135">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="D135" s="29">
-        <v>178.4470012406</v>
+        <v>189.77696957340001</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -5897,10 +5897,10 @@
         <v>378</v>
       </c>
       <c r="C136">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="D136" s="29">
-        <v>126.67299386000001</v>
+        <v>132.87106083789999</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5911,10 +5911,10 @@
         <v>380</v>
       </c>
       <c r="C137">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="D137" s="29">
-        <v>170.93678899989999</v>
+        <v>183.20308635870001</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -5925,10 +5925,10 @@
         <v>382</v>
       </c>
       <c r="C138">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D138" s="29">
-        <v>56.496346080499997</v>
+        <v>49.159158277800003</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -5939,10 +5939,10 @@
         <v>384</v>
       </c>
       <c r="C139">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D139" s="29">
-        <v>312.06451804189999</v>
+        <v>308.35828861149997</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -5953,10 +5953,10 @@
         <v>386</v>
       </c>
       <c r="C140">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D140" s="29">
-        <v>71.156695016900002</v>
+        <v>84.038510494099995</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5981,10 +5981,10 @@
         <v>390</v>
       </c>
       <c r="C142">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D142" s="29">
-        <v>595.49477402000002</v>
+        <v>599.60163453049995</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -5995,10 +5995,10 @@
         <v>392</v>
       </c>
       <c r="C143">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="D143" s="29">
-        <v>173.72318896300001</v>
+        <v>176.9872989852</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -6009,10 +6009,10 @@
         <v>394</v>
       </c>
       <c r="C144">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D144" s="29">
-        <v>88.957465735599996</v>
+        <v>87.382997315500006</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -6023,10 +6023,10 @@
         <v>396</v>
       </c>
       <c r="C145">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="D145" s="29">
-        <v>100.8390466326</v>
+        <v>114.54000405550001</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -6037,10 +6037,10 @@
         <v>398</v>
       </c>
       <c r="C146">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="D146" s="29">
-        <v>205.63263835149999</v>
+        <v>215.7022778585</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -6051,10 +6051,10 @@
         <v>400</v>
       </c>
       <c r="C147">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="D147" s="29">
-        <v>235.79966661360001</v>
+        <v>239.56911066250001</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -6065,10 +6065,10 @@
         <v>402</v>
       </c>
       <c r="C148">
-        <v>2474</v>
+        <v>2568</v>
       </c>
       <c r="D148" s="29">
-        <v>133.92859559569999</v>
+        <v>139.0172326151</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -6079,10 +6079,10 @@
         <v>404</v>
       </c>
       <c r="C149">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D149" s="29">
-        <v>96.937710788999993</v>
+        <v>95.591353694700004</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -6093,10 +6093,10 @@
         <v>406</v>
       </c>
       <c r="C150">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="D150" s="29">
-        <v>91.1536494809</v>
+        <v>111.7188021077</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -6107,10 +6107,10 @@
         <v>408</v>
       </c>
       <c r="C151">
-        <v>1674</v>
+        <v>1683</v>
       </c>
       <c r="D151" s="29">
-        <v>144.67014946660001</v>
+        <v>145.4479459691</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -6121,10 +6121,10 @@
         <v>410</v>
       </c>
       <c r="C152">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="D152" s="29">
-        <v>110.4425168317</v>
+        <v>102.18880560940001</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -6135,10 +6135,10 @@
         <v>412</v>
       </c>
       <c r="C153">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D153" s="29">
-        <v>190.33331770660001</v>
+        <v>193.14612535750001</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -6149,10 +6149,10 @@
         <v>414</v>
       </c>
       <c r="C154">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D154" s="29">
-        <v>110.2104664391</v>
+        <v>131.5415244596</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -6163,10 +6163,10 @@
         <v>416</v>
       </c>
       <c r="C155">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="D155" s="29">
-        <v>160.74014086240001</v>
+        <v>173.62389261089999</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -6177,10 +6177,10 @@
         <v>418</v>
       </c>
       <c r="C156">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D156" s="29">
-        <v>67.532504460699997</v>
+        <v>69.6651098647</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -6191,10 +6191,10 @@
         <v>420</v>
       </c>
       <c r="C157">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D157" s="29">
-        <v>84.218348453399997</v>
+        <v>87.9338638264</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -6205,10 +6205,10 @@
         <v>422</v>
       </c>
       <c r="C158">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="D158" s="29">
-        <v>128.0342227946</v>
+        <v>143.85021502219999</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -6219,10 +6219,10 @@
         <v>424</v>
       </c>
       <c r="C159">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D159" s="29">
-        <v>146.92871587459999</v>
+        <v>152.45829120319999</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -6233,10 +6233,10 @@
         <v>426</v>
       </c>
       <c r="C160">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="D160" s="29">
-        <v>123.382957475</v>
+        <v>115.2541979237</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -6247,10 +6247,10 @@
         <v>428</v>
       </c>
       <c r="C161">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D161" s="29">
-        <v>91.565416446599997</v>
+        <v>85.304533270700006</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -6261,10 +6261,10 @@
         <v>430</v>
       </c>
       <c r="C162">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D162" s="29">
-        <v>79.9588157333</v>
+        <v>100.7700143488</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -6275,10 +6275,10 @@
         <v>432</v>
       </c>
       <c r="C163">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D163" s="29">
-        <v>125.7093599598</v>
+        <v>125.3102826266</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -6289,10 +6289,10 @@
         <v>434</v>
       </c>
       <c r="C164">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="D164" s="29">
-        <v>158.51811133339999</v>
+        <v>167.46671439249999</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -6303,10 +6303,10 @@
         <v>436</v>
       </c>
       <c r="C165">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D165" s="29">
-        <v>258.45144509149998</v>
+        <v>253.48122499359999</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -6317,10 +6317,10 @@
         <v>438</v>
       </c>
       <c r="C166">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D166" s="29">
-        <v>98.475398825400006</v>
+        <v>107.0604335948</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -6331,10 +6331,10 @@
         <v>440</v>
       </c>
       <c r="C167">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D167" s="29">
-        <v>150.32359130969999</v>
+        <v>170.89418801529999</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -6345,10 +6345,10 @@
         <v>442</v>
       </c>
       <c r="C168">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D168" s="29">
-        <v>97.165874474700004</v>
+        <v>98.978670640299995</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -6359,10 +6359,10 @@
         <v>444</v>
       </c>
       <c r="C169">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D169" s="29">
-        <v>123.18257582459999</v>
+        <v>125.49224912139999</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -6373,10 +6373,10 @@
         <v>446</v>
       </c>
       <c r="C170">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="D170" s="29">
-        <v>142.6678035068</v>
+        <v>148.1550267186</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -6387,10 +6387,10 @@
         <v>448</v>
       </c>
       <c r="C171">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D171" s="29">
-        <v>346.97217675939999</v>
+        <v>373.15875613750001</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -6401,10 +6401,10 @@
         <v>450</v>
       </c>
       <c r="C172">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D172" s="29">
-        <v>222.5714918619</v>
+        <v>219.4069682809</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -6415,10 +6415,10 @@
         <v>452</v>
       </c>
       <c r="C173">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="D173" s="29">
-        <v>250.3217788824</v>
+        <v>272.51342594649998</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -6429,10 +6429,10 @@
         <v>454</v>
       </c>
       <c r="C174">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D174" s="29">
-        <v>79.479973885199996</v>
+        <v>69.544977149499999</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -6443,10 +6443,10 @@
         <v>456</v>
       </c>
       <c r="C175">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D175" s="29">
-        <v>61.3186358743</v>
+        <v>64.170665449799998</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -6457,10 +6457,10 @@
         <v>458</v>
       </c>
       <c r="C176">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="D176" s="29">
-        <v>275.76730133929999</v>
+        <v>303.06167587459998</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -6471,10 +6471,10 @@
         <v>460</v>
       </c>
       <c r="C177">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D177" s="29">
-        <v>108.4488179807</v>
+        <v>107.7209735647</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -6485,10 +6485,10 @@
         <v>462</v>
       </c>
       <c r="C178">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D178" s="29">
-        <v>114.9600783166</v>
+        <v>132.92259055349999</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -6499,10 +6499,10 @@
         <v>464</v>
       </c>
       <c r="C179">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D179" s="29">
-        <v>168.54747792699999</v>
+        <v>170.77989485320001</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -6513,10 +6513,10 @@
         <v>466</v>
       </c>
       <c r="C180">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D180" s="29">
-        <v>45.986204138799998</v>
+        <v>47.985604318699998</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -6527,10 +6527,10 @@
         <v>468</v>
       </c>
       <c r="C181">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D181" s="29">
-        <v>73.599486690800006</v>
+        <v>69.825154040000001</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -6541,10 +6541,10 @@
         <v>470</v>
       </c>
       <c r="C182">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="D182" s="29">
-        <v>89.085432288700005</v>
+        <v>103.1852848811</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -6555,10 +6555,10 @@
         <v>472</v>
       </c>
       <c r="C183">
-        <v>546</v>
+        <v>595</v>
       </c>
       <c r="D183" s="29">
-        <v>122.6687875336</v>
+        <v>133.67752487640001</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -6569,10 +6569,10 @@
         <v>474</v>
       </c>
       <c r="C184">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D184" s="29">
-        <v>131.59391897570001</v>
+        <v>129.12034907020001</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -6583,10 +6583,10 @@
         <v>476</v>
       </c>
       <c r="C185">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="D185" s="29">
-        <v>111.9257995303</v>
+        <v>94.608977716200002</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -6597,10 +6597,10 @@
         <v>478</v>
       </c>
       <c r="C186">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D186" s="29">
-        <v>155.41240596419999</v>
+        <v>175.68358935090001</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -6611,10 +6611,10 @@
         <v>480</v>
       </c>
       <c r="C187">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D187" s="29">
-        <v>284.41872937959999</v>
+        <v>280.35560467419998</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -6625,10 +6625,10 @@
         <v>482</v>
       </c>
       <c r="C188">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D188" s="29">
-        <v>198.1171638877</v>
+        <v>215.47049211149999</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -6639,10 +6639,10 @@
         <v>484</v>
       </c>
       <c r="C189">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D189" s="29">
-        <v>57.943061824799997</v>
+        <v>57.537865588300001</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -6653,10 +6653,10 @@
         <v>486</v>
       </c>
       <c r="C190">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D190" s="29">
-        <v>84.471504580100003</v>
+        <v>141.51719598490001</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -6667,10 +6667,10 @@
         <v>488</v>
       </c>
       <c r="C191">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D191" s="29">
-        <v>112.3325812491</v>
+        <v>102.09143424059999</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -6681,10 +6681,10 @@
         <v>490</v>
       </c>
       <c r="C192">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D192" s="29">
-        <v>135.02612843259999</v>
+        <v>126.2581980149</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -6695,10 +6695,10 @@
         <v>492</v>
       </c>
       <c r="C193">
-        <v>1377</v>
+        <v>1435</v>
       </c>
       <c r="D193" s="29">
-        <v>126.5784386453</v>
+        <v>131.9099923428</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -6709,10 +6709,10 @@
         <v>494</v>
       </c>
       <c r="C194">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="D194" s="29">
-        <v>118.7544751227</v>
+        <v>125.0414767468</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -6723,10 +6723,10 @@
         <v>496</v>
       </c>
       <c r="C195">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="D195" s="29">
-        <v>145.9873272447</v>
+        <v>138.07235167120001</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -6737,10 +6737,10 @@
         <v>498</v>
       </c>
       <c r="C196">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D196" s="29">
-        <v>253.2100744647</v>
+        <v>268.19291910760001</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -6751,10 +6751,10 @@
         <v>500</v>
       </c>
       <c r="C197">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="D197" s="29">
-        <v>310.20316910259999</v>
+        <v>346.53326998850002</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -6765,10 +6765,10 @@
         <v>502</v>
       </c>
       <c r="C198">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D198" s="29">
-        <v>55.540523220200001</v>
+        <v>58.3887551802</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -6779,10 +6779,10 @@
         <v>504</v>
       </c>
       <c r="C199">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D199" s="29">
-        <v>175.17382633540001</v>
+        <v>191.34371799709999</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -6793,10 +6793,10 @@
         <v>506</v>
       </c>
       <c r="C200">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D200" s="29">
-        <v>209.61712307409999</v>
+        <v>208.82760471969999</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -6807,10 +6807,10 @@
         <v>508</v>
       </c>
       <c r="C201">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D201" s="29">
-        <v>68.257929651699996</v>
+        <v>83.189351763000005</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -6821,10 +6821,10 @@
         <v>510</v>
       </c>
       <c r="C202">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D202" s="29">
-        <v>93.099034097499995</v>
+        <v>107.2301374873</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -6835,10 +6835,10 @@
         <v>512</v>
       </c>
       <c r="C203">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D203" s="29">
-        <v>104.8889131057</v>
+        <v>107.6133004591</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -6849,10 +6849,10 @@
         <v>514</v>
       </c>
       <c r="C204">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D204" s="29">
-        <v>145.0952187373</v>
+        <v>146.97145001409999</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -6863,10 +6863,10 @@
         <v>516</v>
       </c>
       <c r="C205">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D205" s="29">
-        <v>152.26404928669999</v>
+        <v>149.33589449269999</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -6877,10 +6877,10 @@
         <v>518</v>
       </c>
       <c r="C206">
-        <v>614</v>
+        <v>661</v>
       </c>
       <c r="D206" s="29">
-        <v>103.5160036753</v>
+        <v>111.4398671488</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -6891,10 +6891,10 @@
         <v>520</v>
       </c>
       <c r="C207">
-        <v>383</v>
+        <v>481</v>
       </c>
       <c r="D207" s="29">
-        <v>148.36967680199999</v>
+        <v>186.33371943020001</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -6905,10 +6905,10 @@
         <v>522</v>
       </c>
       <c r="C208">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D208" s="29">
-        <v>124.5961314123</v>
+        <v>116.04541651140001</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -6919,10 +6919,10 @@
         <v>524</v>
       </c>
       <c r="C209">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D209" s="29">
-        <v>178.20773930749999</v>
+        <v>184.19791541870001</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -6933,10 +6933,10 @@
         <v>526</v>
       </c>
       <c r="C210">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D210" s="29">
-        <v>187.88682581789999</v>
+        <v>189.0502117362</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -6961,10 +6961,10 @@
         <v>530</v>
       </c>
       <c r="C212">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="D212" s="29">
-        <v>207.76141392860001</v>
+        <v>201.1429755348</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -6975,10 +6975,10 @@
         <v>532</v>
       </c>
       <c r="C213">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="D213" s="29">
-        <v>92.246082820400005</v>
+        <v>82.190822607699999</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -6989,10 +6989,10 @@
         <v>534</v>
       </c>
       <c r="C214">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D214" s="29">
-        <v>68.8126356625</v>
+        <v>69.736295201600001</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -7003,10 +7003,10 @@
         <v>536</v>
       </c>
       <c r="C215">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D215" s="29">
-        <v>51.640089234100003</v>
+        <v>57.836899942199999</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -7017,10 +7017,10 @@
         <v>538</v>
       </c>
       <c r="C216">
-        <v>599</v>
+        <v>642</v>
       </c>
       <c r="D216" s="29">
-        <v>109.8230180979</v>
+        <v>117.706807377</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -7031,10 +7031,10 @@
         <v>540</v>
       </c>
       <c r="C217">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D217" s="29">
-        <v>180.54837941860001</v>
+        <v>182.29000365740001</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -7045,10 +7045,10 @@
         <v>542</v>
       </c>
       <c r="C218">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="D218" s="29">
-        <v>171.4050968226</v>
+        <v>157.7115766908</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -7059,10 +7059,10 @@
         <v>544</v>
       </c>
       <c r="C219">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D219" s="29">
-        <v>78.744861219000001</v>
+        <v>66.797365033999995</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -7073,10 +7073,10 @@
         <v>546</v>
       </c>
       <c r="C220">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D220" s="29">
-        <v>119.9671668806</v>
+        <v>115.7577926041</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -7087,10 +7087,10 @@
         <v>548</v>
       </c>
       <c r="C221">
-        <v>689</v>
+        <v>716</v>
       </c>
       <c r="D221" s="29">
-        <v>163.8322966007</v>
+        <v>170.25243013939999</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -7101,10 +7101,10 @@
         <v>550</v>
       </c>
       <c r="C222">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D222" s="29">
-        <v>76.095055406699998</v>
+        <v>72.924428098099995</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -7115,10 +7115,10 @@
         <v>552</v>
       </c>
       <c r="C223">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="D223" s="29">
-        <v>182.7808367133</v>
+        <v>169.94086058049999</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -7129,10 +7129,10 @@
         <v>554</v>
       </c>
       <c r="C224">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D224" s="29">
-        <v>109.40735586309999</v>
+        <v>112.7608380352</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -7143,10 +7143,10 @@
         <v>556</v>
       </c>
       <c r="C225">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="D225" s="29">
-        <v>113.91814363749999</v>
+        <v>120.7806824109</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -7157,10 +7157,10 @@
         <v>558</v>
       </c>
       <c r="C226">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D226" s="29">
-        <v>93.653774294399994</v>
+        <v>91.761778854100001</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -7171,10 +7171,10 @@
         <v>560</v>
       </c>
       <c r="C227">
-        <v>567</v>
+        <v>601</v>
       </c>
       <c r="D227" s="29">
-        <v>182.5158212568</v>
+        <v>193.46033258439999</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -7185,10 +7185,10 @@
         <v>562</v>
       </c>
       <c r="C228">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="D228" s="29">
-        <v>146.729706096</v>
+        <v>157.8455929214</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -7199,10 +7199,10 @@
         <v>564</v>
       </c>
       <c r="C229">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="D229" s="29">
-        <v>139.2239076589</v>
+        <v>133.1530977319</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -7213,10 +7213,10 @@
         <v>566</v>
       </c>
       <c r="C230">
-        <v>942</v>
+        <v>968</v>
       </c>
       <c r="D230" s="29">
-        <v>229.63176036390001</v>
+        <v>235.96979196629999</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -7227,10 +7227,10 @@
         <v>568</v>
       </c>
       <c r="C231">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="D231" s="29">
-        <v>123.115590725</v>
+        <v>132.82179912239999</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -7241,10 +7241,10 @@
         <v>570</v>
       </c>
       <c r="C232">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="D232" s="29">
-        <v>132.44168368819999</v>
+        <v>145.96565843100001</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -7255,10 +7255,10 @@
         <v>572</v>
       </c>
       <c r="C233">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D233" s="29">
-        <v>98.421383014200003</v>
+        <v>94.546525415199994</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -7269,10 +7269,10 @@
         <v>574</v>
       </c>
       <c r="C234">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="D234" s="29">
-        <v>158.86346429919999</v>
+        <v>176.23915570689999</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -7283,10 +7283,10 @@
         <v>576</v>
       </c>
       <c r="C235">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D235" s="29">
-        <v>172.33560090700001</v>
+        <v>208.61678004539999</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -7297,10 +7297,10 @@
         <v>578</v>
       </c>
       <c r="C236">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D236" s="29">
-        <v>51.3351994808</v>
+        <v>59.083908836399999</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -7311,10 +7311,10 @@
         <v>580</v>
       </c>
       <c r="C237">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="D237" s="29">
-        <v>126.2433840641</v>
+        <v>123.15423110979999</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -7325,10 +7325,10 @@
         <v>582</v>
       </c>
       <c r="C238">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D238" s="29">
-        <v>91.990800919899996</v>
+        <v>88.991100889899997</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -7339,10 +7339,10 @@
         <v>584</v>
       </c>
       <c r="C239">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D239" s="29">
-        <v>81.557832270500001</v>
+        <v>82.334573530200004</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -7353,10 +7353,10 @@
         <v>586</v>
       </c>
       <c r="C240">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="D240" s="29">
-        <v>176.54127296569999</v>
+        <v>182.98438511769999</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -7367,10 +7367,10 @@
         <v>588</v>
       </c>
       <c r="C241">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="D241" s="29">
-        <v>166.39318116800001</v>
+        <v>170.6681047948</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -7381,10 +7381,10 @@
         <v>590</v>
       </c>
       <c r="C242">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="D242" s="29">
-        <v>106.1164446011</v>
+        <v>112.24591432530001</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -7395,10 +7395,10 @@
         <v>592</v>
       </c>
       <c r="C243">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D243" s="29">
-        <v>157.93289146640001</v>
+        <v>162.2479977907</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -7409,10 +7409,10 @@
         <v>594</v>
       </c>
       <c r="C244">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="D244" s="29">
-        <v>135.9651179146</v>
+        <v>165.26794505129999</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -7423,10 +7423,10 @@
         <v>596</v>
       </c>
       <c r="C245">
-        <v>1487</v>
+        <v>1525</v>
       </c>
       <c r="D245" s="29">
-        <v>100.1868987607</v>
+        <v>102.74715575659999</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -7437,10 +7437,10 @@
         <v>598</v>
       </c>
       <c r="C246">
-        <v>306</v>
+        <v>362</v>
       </c>
       <c r="D246" s="29">
-        <v>87.310577419699996</v>
+        <v>103.28898374480001</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -7451,10 +7451,10 @@
         <v>600</v>
       </c>
       <c r="C247">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D247" s="29">
-        <v>69.459201441199994</v>
+        <v>70.727862654700004</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -7465,10 +7465,10 @@
         <v>602</v>
       </c>
       <c r="C248">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="D248" s="29">
-        <v>104.43282532569999</v>
+        <v>112.09123251619999</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -7479,10 +7479,10 @@
         <v>604</v>
       </c>
       <c r="C249">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D249" s="29">
-        <v>136.68643310069999</v>
+        <v>146.96360852180001</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -7493,10 +7493,10 @@
         <v>606</v>
       </c>
       <c r="C250">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D250" s="29">
-        <v>161.99386206739999</v>
+        <v>148.61822208020001</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -7507,10 +7507,10 @@
         <v>608</v>
       </c>
       <c r="C251">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D251" s="29">
-        <v>73.569754102399997</v>
+        <v>78.557534041599993</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -7521,10 +7521,10 @@
         <v>610</v>
       </c>
       <c r="C252">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D252" s="29">
-        <v>113.3873127968</v>
+        <v>122.5191769146</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -7535,10 +7535,10 @@
         <v>612</v>
       </c>
       <c r="C253">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D253" s="29">
-        <v>97.016255172599998</v>
+        <v>98.006216960000003</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -7549,10 +7549,10 @@
         <v>614</v>
       </c>
       <c r="C254">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="D254" s="29">
-        <v>87.877183695100001</v>
+        <v>119.6400211752</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -7563,10 +7563,10 @@
         <v>616</v>
       </c>
       <c r="C255">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D255" s="29">
-        <v>67.587864223500006</v>
+        <v>65.710423550599998</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -7577,10 +7577,10 @@
         <v>618</v>
       </c>
       <c r="C256">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D256" s="29">
-        <v>102.7373804251</v>
+        <v>92.4636423826</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -7591,10 +7591,10 @@
         <v>620</v>
       </c>
       <c r="C257">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D257" s="29">
-        <v>212.7880707397</v>
+        <v>207.86495342180001</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -7605,10 +7605,10 @@
         <v>622</v>
       </c>
       <c r="C258">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D258" s="29">
-        <v>47.779883021700002</v>
+        <v>59.312958233800003</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -7619,10 +7619,10 @@
         <v>624</v>
       </c>
       <c r="C259">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D259" s="29">
-        <v>24.7060879416</v>
+        <v>24.103500430899999</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -7661,10 +7661,10 @@
         <v>630</v>
       </c>
       <c r="C262">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D262" s="29">
-        <v>127.7634405868</v>
+        <v>130.94163562630001</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -7675,10 +7675,10 @@
         <v>632</v>
       </c>
       <c r="C263">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D263" s="29">
-        <v>37.041236723700003</v>
+        <v>40.0650111502</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -7689,10 +7689,10 @@
         <v>634</v>
       </c>
       <c r="C264">
-        <v>945</v>
+        <v>990</v>
       </c>
       <c r="D264" s="29">
-        <v>182.3022165635</v>
+        <v>190.98327449510001</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -7703,10 +7703,10 @@
         <v>636</v>
       </c>
       <c r="C265">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="D265" s="29">
-        <v>139.93629678209999</v>
+        <v>155.7449997658</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -7717,10 +7717,10 @@
         <v>638</v>
       </c>
       <c r="C266">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="D266" s="29">
-        <v>159.60719963080001</v>
+        <v>188.45187426289999</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -7731,10 +7731,10 @@
         <v>640</v>
       </c>
       <c r="C267">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="D267" s="29">
-        <v>160.9956737007</v>
+        <v>152.90913301259999</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -7745,10 +7745,10 @@
         <v>642</v>
       </c>
       <c r="C268">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="D268" s="29">
-        <v>148.98179954829999</v>
+        <v>127.6309047086</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -7759,10 +7759,10 @@
         <v>644</v>
       </c>
       <c r="C269">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="D269" s="29">
-        <v>167.67333289499999</v>
+        <v>155.93150286029999</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -7773,10 +7773,10 @@
         <v>646</v>
       </c>
       <c r="C270">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D270" s="29">
-        <v>194.74997942780001</v>
+        <v>192.00702197109999</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -7787,10 +7787,10 @@
         <v>648</v>
       </c>
       <c r="C271">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D271" s="29">
-        <v>112.7162549249</v>
+        <v>100.3071259423</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -7801,10 +7801,10 @@
         <v>650</v>
       </c>
       <c r="C272">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D272" s="29">
-        <v>166.663870293</v>
+        <v>158.83402403759999</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -7815,10 +7815,10 @@
         <v>652</v>
       </c>
       <c r="C273">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D273" s="29">
-        <v>259.44120356159999</v>
+        <v>253.30058335890001</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -7829,10 +7829,10 @@
         <v>654</v>
       </c>
       <c r="C274">
-        <v>518</v>
+        <v>540</v>
       </c>
       <c r="D274" s="29">
-        <v>145.58208946830001</v>
+        <v>151.76511257320001</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -7843,10 +7843,10 @@
         <v>656</v>
       </c>
       <c r="C275">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D275" s="29">
-        <v>86.351189103199999</v>
+        <v>95.814333114500002</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -7857,10 +7857,10 @@
         <v>658</v>
       </c>
       <c r="C276">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="D276" s="29">
-        <v>153.56406142559999</v>
+        <v>176.48407059359999</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -7871,10 +7871,10 @@
         <v>660</v>
       </c>
       <c r="C277">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="D277" s="29">
-        <v>116.4570191482</v>
+        <v>97.794035310400005</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -7885,10 +7885,10 @@
         <v>662</v>
       </c>
       <c r="C278">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="D278" s="29">
-        <v>137.3699684188</v>
+        <v>134.585442032</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -7899,10 +7899,10 @@
         <v>664</v>
       </c>
       <c r="C279">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D279" s="29">
-        <v>167.01865646799999</v>
+        <v>157.3364155134</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -7913,10 +7913,10 @@
         <v>666</v>
       </c>
       <c r="C280">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="D280" s="29">
-        <v>126.7873100983</v>
+        <v>119.2470956211</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -7927,10 +7927,10 @@
         <v>668</v>
       </c>
       <c r="C281">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D281" s="29">
-        <v>157.94920786559999</v>
+        <v>158.2676538492</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -7941,10 +7941,10 @@
         <v>670</v>
       </c>
       <c r="C282">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="D282" s="29">
-        <v>320.862432888</v>
+        <v>301.0298763298</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -7955,10 +7955,10 @@
         <v>672</v>
       </c>
       <c r="C283">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D283" s="29">
-        <v>75.486272031499993</v>
+        <v>65.8310511902</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -7969,10 +7969,10 @@
         <v>674</v>
       </c>
       <c r="C284">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D284" s="29">
-        <v>35.404584644400003</v>
+        <v>45.377707079399997</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -7983,10 +7983,10 @@
         <v>676</v>
       </c>
       <c r="C285">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D285" s="29">
-        <v>166.9010024175</v>
+        <v>163.86643873720001</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -7997,10 +7997,10 @@
         <v>678</v>
       </c>
       <c r="C286">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="D286" s="29">
-        <v>75.688915309600006</v>
+        <v>69.841702968099995</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -8011,10 +8011,10 @@
         <v>680</v>
       </c>
       <c r="C287">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D287" s="29">
-        <v>130.67439350039999</v>
+        <v>115.52373918150001</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -8025,10 +8025,10 @@
         <v>682</v>
       </c>
       <c r="C288">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="D288" s="29">
-        <v>115.7503529607</v>
+        <v>123.0171912632</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -8039,10 +8039,10 @@
         <v>684</v>
       </c>
       <c r="C289">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D289" s="29">
-        <v>136.49750372770001</v>
+        <v>135.01383520889999</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -8053,10 +8053,10 @@
         <v>686</v>
       </c>
       <c r="C290">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D290" s="29">
-        <v>163.77206048650001</v>
+        <v>166.1116613506</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -8067,10 +8067,10 @@
         <v>688</v>
       </c>
       <c r="C291">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D291" s="29">
-        <v>66.689425756399999</v>
+        <v>89.713156077099995</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -8081,10 +8081,10 @@
         <v>690</v>
       </c>
       <c r="C292">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D292" s="29">
-        <v>119.2649231421</v>
+        <v>114.83598700420001</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -8095,10 +8095,10 @@
         <v>692</v>
       </c>
       <c r="C293">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D293" s="29">
-        <v>126.7679152892</v>
+        <v>146.6530784718</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -8109,10 +8109,10 @@
         <v>694</v>
       </c>
       <c r="C294">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D294" s="29">
-        <v>25.643815178000001</v>
+        <v>24.8667298696</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -8123,10 +8123,10 @@
         <v>696</v>
       </c>
       <c r="C295">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="D295" s="29">
-        <v>98.151208313500007</v>
+        <v>113.6779531314</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -8137,10 +8137,10 @@
         <v>698</v>
       </c>
       <c r="C296">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D296" s="29">
-        <v>113.5912377751</v>
+        <v>107.588448787</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -8151,10 +8151,10 @@
         <v>700</v>
       </c>
       <c r="C297">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D297" s="29">
-        <v>127.3667900943</v>
+        <v>140.4973870112</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -8165,10 +8165,10 @@
         <v>702</v>
       </c>
       <c r="C298">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="D298" s="29">
-        <v>170.68533402470001</v>
+        <v>181.05608849710001</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -8179,10 +8179,10 @@
         <v>704</v>
       </c>
       <c r="C299">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D299" s="29">
-        <v>102.65429676550001</v>
+        <v>101.6032288805</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -8193,10 +8193,10 @@
         <v>706</v>
       </c>
       <c r="C300">
-        <v>899</v>
+        <v>929</v>
       </c>
       <c r="D300" s="29">
-        <v>146.38427582119999</v>
+        <v>151.2691793525</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -8207,10 +8207,10 @@
         <v>708</v>
       </c>
       <c r="C301">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D301" s="29">
-        <v>178.27154114460001</v>
+        <v>176.9797183826</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -8221,10 +8221,10 @@
         <v>710</v>
       </c>
       <c r="C302">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="D302" s="29">
-        <v>145.6621422133</v>
+        <v>160.68559185859999</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -8235,10 +8235,10 @@
         <v>712</v>
       </c>
       <c r="C303">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="D303" s="29">
-        <v>198.89730509610001</v>
+        <v>215.38620085540001</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -8249,10 +8249,10 @@
         <v>714</v>
       </c>
       <c r="C304">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D304" s="29">
-        <v>207.47633332730001</v>
+        <v>212.8653289982</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -8263,10 +8263,10 @@
         <v>716</v>
       </c>
       <c r="C305">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="D305" s="29">
-        <v>145.3488372093</v>
+        <v>142.77422012509999</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -8277,10 +8277,10 @@
         <v>718</v>
       </c>
       <c r="C306">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D306" s="29">
-        <v>45.968960007</v>
+        <v>43.415128895499997</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -8291,10 +8291,10 @@
         <v>720</v>
       </c>
       <c r="C307">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="D307" s="29">
-        <v>120.19482012580001</v>
+        <v>123.6787279556</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -8305,10 +8305,10 @@
         <v>722</v>
       </c>
       <c r="C308">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="D308" s="29">
-        <v>134.92982586619999</v>
+        <v>140.45451164959999</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -8319,10 +8319,10 @@
         <v>724</v>
       </c>
       <c r="C309">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D309" s="29">
-        <v>76.939516990800001</v>
+        <v>80.679632400100004</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -8333,10 +8333,10 @@
         <v>726</v>
       </c>
       <c r="C310">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D310" s="29">
-        <v>99.841997615400004</v>
+        <v>90.148599788699997</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -8347,10 +8347,10 @@
         <v>728</v>
       </c>
       <c r="C311">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="D311" s="29">
-        <v>103.787539141</v>
+        <v>86.1365971102</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -8361,10 +8361,10 @@
         <v>730</v>
       </c>
       <c r="C312">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="D312" s="29">
-        <v>107.1436477542</v>
+        <v>110.0214730038</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -8375,10 +8375,10 @@
         <v>732</v>
       </c>
       <c r="C313">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D313" s="29">
-        <v>97.304103943699999</v>
+        <v>90.762651577699998</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -8389,10 +8389,10 @@
         <v>734</v>
       </c>
       <c r="C314">
-        <v>771</v>
+        <v>799</v>
       </c>
       <c r="D314" s="29">
-        <v>140.60234701970001</v>
+        <v>145.70852823440001</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -8403,10 +8403,10 @@
         <v>736</v>
       </c>
       <c r="C315">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D315" s="29">
-        <v>133.88612564600001</v>
+        <v>131.2989541359</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -8417,10 +8417,10 @@
         <v>738</v>
       </c>
       <c r="C316">
-        <v>638</v>
+        <v>471</v>
       </c>
       <c r="D316" s="29">
-        <v>106.1981077428</v>
+        <v>78.400170449599997</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -8431,10 +8431,10 @@
         <v>740</v>
       </c>
       <c r="C317">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D317" s="29">
-        <v>189.6151189803</v>
+        <v>182.0807433917</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -8445,10 +8445,10 @@
         <v>742</v>
       </c>
       <c r="C318">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D318" s="29">
-        <v>108.57421598400001</v>
+        <v>107.0006766219</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -8459,10 +8459,10 @@
         <v>744</v>
       </c>
       <c r="C319">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="D319" s="29">
-        <v>100.63903876320001</v>
+        <v>114.41472467760001</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -8473,10 +8473,10 @@
         <v>746</v>
       </c>
       <c r="C320">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D320" s="29">
-        <v>64.056293052800001</v>
+        <v>67.402517316699999</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -8487,10 +8487,10 @@
         <v>748</v>
       </c>
       <c r="C321">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="D321" s="29">
-        <v>92.6809827891</v>
+        <v>78.315430456800001</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -8501,10 +8501,10 @@
         <v>750</v>
       </c>
       <c r="C322">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="D322" s="29">
-        <v>89.142885054499999</v>
+        <v>70.215286173099997</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -8515,10 +8515,10 @@
         <v>752</v>
       </c>
       <c r="C323">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D323" s="29">
-        <v>188.56164545679999</v>
+        <v>175.9382717023</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -8529,10 +8529,10 @@
         <v>754</v>
       </c>
       <c r="C324">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D324" s="29">
-        <v>81.480140244599994</v>
+        <v>109.46321871240001</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -8543,10 +8543,10 @@
         <v>756</v>
       </c>
       <c r="C325">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="D325" s="29">
-        <v>99.372310155999998</v>
+        <v>114.3853929853</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -8557,10 +8557,10 @@
         <v>758</v>
       </c>
       <c r="C326">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D326" s="29">
-        <v>203.73719107900001</v>
+        <v>210.97046413499999</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -8571,10 +8571,10 @@
         <v>760</v>
       </c>
       <c r="C327">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D327" s="29">
-        <v>190.4088349699</v>
+        <v>184.42455729950001</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -8585,10 +8585,10 @@
         <v>762</v>
       </c>
       <c r="C328">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="D328" s="29">
-        <v>405.91692399639999</v>
+        <v>379.76890128500003</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -8599,10 +8599,10 @@
         <v>764</v>
       </c>
       <c r="C329">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D329" s="29">
-        <v>187.98631769689999</v>
+        <v>199.6143373482</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -8613,10 +8613,10 @@
         <v>766</v>
       </c>
       <c r="C330">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D330" s="29">
-        <v>96.748130651099999</v>
+        <v>94.175042070000003</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -8627,10 +8627,10 @@
         <v>767</v>
       </c>
       <c r="C331">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D331" s="29">
-        <v>64.699428957199999</v>
+        <v>61.183155644300001</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -8641,10 +8641,10 @@
         <v>769</v>
       </c>
       <c r="C332">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="D332" s="29">
-        <v>121.74961113419999</v>
+        <v>132.74372317640001</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -8655,10 +8655,10 @@
         <v>771</v>
       </c>
       <c r="C333">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="D333" s="29">
-        <v>206.15393466360001</v>
+        <v>227.24875588500001</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -8669,10 +8669,10 @@
         <v>773</v>
       </c>
       <c r="C334">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="D334" s="29">
-        <v>99.405155320600002</v>
+        <v>111.0376734964</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -8683,10 +8683,10 @@
         <v>775</v>
       </c>
       <c r="C335">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D335" s="29">
-        <v>58.6159734274</v>
+        <v>60.914639051999998</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -8697,10 +8697,10 @@
         <v>777</v>
       </c>
       <c r="C336">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D336" s="29">
-        <v>117.2221518185</v>
+        <v>123.5584843493</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -8711,10 +8711,10 @@
         <v>779</v>
       </c>
       <c r="C337">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D337" s="29">
-        <v>37.284495615300003</v>
+        <v>43.250014913800001</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -8725,10 +8725,10 @@
         <v>781</v>
       </c>
       <c r="C338">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D338" s="29">
-        <v>360.2420826796</v>
+        <v>361.8431586026</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -8739,10 +8739,10 @@
         <v>783</v>
       </c>
       <c r="C339">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D339" s="29">
-        <v>124.4479148874</v>
+        <v>158.61008760159999</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -8753,10 +8753,10 @@
         <v>785</v>
       </c>
       <c r="C340">
-        <v>925</v>
+        <v>857</v>
       </c>
       <c r="D340" s="29">
-        <v>470.11348793709999</v>
+        <v>435.5537936888</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -8767,10 +8767,10 @@
         <v>787</v>
       </c>
       <c r="C341">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D341" s="29">
-        <v>69.570831454900002</v>
+        <v>72.353664713100002</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -8781,10 +8781,10 @@
         <v>789</v>
       </c>
       <c r="C342">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="D342" s="29">
-        <v>263.06535381949999</v>
+        <v>298.9071629517</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -8795,10 +8795,10 @@
         <v>791</v>
       </c>
       <c r="C343">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D343" s="29">
-        <v>83.291765879600007</v>
+        <v>84.703490724999995</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -8809,10 +8809,10 @@
         <v>793</v>
       </c>
       <c r="C344">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D344" s="29">
-        <v>132.89409650729999</v>
+        <v>114.17661812599999</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -8823,10 +8823,10 @@
         <v>795</v>
       </c>
       <c r="C345">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D345" s="29">
-        <v>65.832214474400004</v>
+        <v>61.501147732699998</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -8837,10 +8837,10 @@
         <v>797</v>
       </c>
       <c r="C346">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D346" s="29">
-        <v>81.544750295300005</v>
+        <v>83.635641328600002</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -8851,10 +8851,10 @@
         <v>799</v>
       </c>
       <c r="C347">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="D347" s="29">
-        <v>123.0269685217</v>
+        <v>132.76810679170001</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -8865,10 +8865,10 @@
         <v>801</v>
       </c>
       <c r="C348">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D348" s="29">
-        <v>203.65127968109999</v>
+        <v>203.29019585189999</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -8879,10 +8879,10 @@
         <v>803</v>
       </c>
       <c r="C349">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="D349" s="29">
-        <v>182.65328737710001</v>
+        <v>197.1738416037</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -8893,10 +8893,10 @@
         <v>805</v>
       </c>
       <c r="C350">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D350" s="29">
-        <v>92.118561227399994</v>
+        <v>92.781284689399996</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -8907,10 +8907,10 @@
         <v>807</v>
       </c>
       <c r="C351">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D351" s="29">
-        <v>172.68988037299999</v>
+        <v>168.9221011649</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -8921,10 +8921,10 @@
         <v>809</v>
       </c>
       <c r="C352">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D352" s="29">
-        <v>263.5862128567</v>
+        <v>265.02657467559999</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -8935,10 +8935,10 @@
         <v>811</v>
       </c>
       <c r="C353">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D353" s="29">
-        <v>154.20066878040001</v>
+        <v>190.58509624550001</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -8949,10 +8949,10 @@
         <v>813</v>
       </c>
       <c r="C354">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D354" s="29">
-        <v>209.64775222009999</v>
+        <v>215.58117916969999</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -8963,10 +8963,10 @@
         <v>992</v>
       </c>
       <c r="C355">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D355" s="29">
-        <v>160.0422089342</v>
+        <v>178.50861765740001</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -8977,10 +8977,10 @@
         <v>815</v>
       </c>
       <c r="C356">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D356" s="29">
-        <v>63.0769832577</v>
+        <v>68.455640744799993</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -8991,10 +8991,10 @@
         <v>817</v>
       </c>
       <c r="C357">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="D357" s="29">
-        <v>82.138272175799997</v>
+        <v>92.785825976400005</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -9005,10 +9005,10 @@
         <v>819</v>
       </c>
       <c r="C358">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="D358" s="29">
-        <v>114.1460630584</v>
+        <v>126.5850571096</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -9019,10 +9019,10 @@
         <v>821</v>
       </c>
       <c r="C359">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D359" s="29">
-        <v>87.014265759899999</v>
+        <v>90.830680924800006</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -9033,10 +9033,10 @@
         <v>823</v>
       </c>
       <c r="C360">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="D360" s="29">
-        <v>116.4606666369</v>
+        <v>113.3372004819</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -9047,10 +9047,10 @@
         <v>825</v>
       </c>
       <c r="C361">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D361" s="29">
-        <v>173.57676050000001</v>
+        <v>174.4761219534</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -9061,10 +9061,10 @@
         <v>827</v>
       </c>
       <c r="C362">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D362" s="29">
-        <v>95.430790150600004</v>
+        <v>95.840364357200002</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -9075,10 +9075,10 @@
         <v>829</v>
       </c>
       <c r="C363">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D363" s="29">
-        <v>98.344876650399996</v>
+        <v>167.3955347241</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -9089,10 +9089,10 @@
         <v>831</v>
       </c>
       <c r="C364">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D364" s="29">
-        <v>104.82594936709999</v>
+        <v>136.47151898729999</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -9103,10 +9103,10 @@
         <v>833</v>
       </c>
       <c r="C365">
-        <v>662</v>
+        <v>609</v>
       </c>
       <c r="D365" s="29">
-        <v>104.10261813370001</v>
+        <v>95.768118494600003</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -9117,10 +9117,10 @@
         <v>835</v>
       </c>
       <c r="C366">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D366" s="29">
-        <v>74.194044570700001</v>
+        <v>76.908460835499994</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -9131,10 +9131,10 @@
         <v>837</v>
       </c>
       <c r="C367">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D367" s="29">
-        <v>80.142569413000004</v>
+        <v>90.6876443357</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -9159,10 +9159,10 @@
         <v>841</v>
       </c>
       <c r="C369">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="D369" s="29">
-        <v>151.17913845539999</v>
+        <v>166.4735260034</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -9173,10 +9173,10 @@
         <v>843</v>
       </c>
       <c r="C370">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D370" s="29">
-        <v>155.45623629350001</v>
+        <v>126.3081919885</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -9187,10 +9187,10 @@
         <v>845</v>
       </c>
       <c r="C371">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D371" s="29">
-        <v>179.90175897680001</v>
+        <v>184.41340183509999</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -9201,10 +9201,10 @@
         <v>847</v>
       </c>
       <c r="C372">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D372" s="29">
-        <v>47.521698586900001</v>
+        <v>48.418334409300002</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -9215,10 +9215,10 @@
         <v>849</v>
       </c>
       <c r="C373">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D373" s="29">
-        <v>54.886946277699998</v>
+        <v>53.548240270999997</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -9229,10 +9229,10 @@
         <v>851</v>
       </c>
       <c r="C374">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="D374" s="29">
-        <v>110.19861989349999</v>
+        <v>123.3175032141</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -9243,10 +9243,10 @@
         <v>853</v>
       </c>
       <c r="C375">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D375" s="29">
-        <v>115.0846084992</v>
+        <v>114.3742096813</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -9257,10 +9257,10 @@
         <v>855</v>
       </c>
       <c r="C376">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D376" s="29">
-        <v>58.849739800099997</v>
+        <v>67.2568454858</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -9271,10 +9271,10 @@
         <v>857</v>
       </c>
       <c r="C377">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D377" s="29">
-        <v>98.496574267499994</v>
+        <v>104.9908538895</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -9285,10 +9285,10 @@
         <v>859</v>
       </c>
       <c r="C378">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D378" s="29">
-        <v>144.33314930200001</v>
+        <v>149.06538370530001</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -9299,10 +9299,10 @@
         <v>861</v>
       </c>
       <c r="C379">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="D379" s="29">
-        <v>111.1699177748</v>
+        <v>107.62463565900001</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -9313,10 +9313,10 @@
         <v>863</v>
       </c>
       <c r="C380">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D380" s="29">
-        <v>97.816730573599997</v>
+        <v>104.6639017137</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -9327,10 +9327,10 @@
         <v>865</v>
       </c>
       <c r="C381">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D381" s="29">
-        <v>190.58627641199999</v>
+        <v>186.45805381829999</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -9341,10 +9341,10 @@
         <v>867</v>
       </c>
       <c r="C382">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D382" s="29">
-        <v>148.44483033879999</v>
+        <v>146.34419594720001</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -9355,10 +9355,10 @@
         <v>869</v>
       </c>
       <c r="C383">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D383" s="29">
-        <v>75.109565166699994</v>
+        <v>79.484879642400003</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -9369,10 +9369,10 @@
         <v>871</v>
       </c>
       <c r="C384">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D384" s="29">
-        <v>110.4184860622</v>
+        <v>107.74167427890001</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -9383,10 +9383,10 @@
         <v>873</v>
       </c>
       <c r="C385">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="D385" s="29">
-        <v>166.59882812870001</v>
+        <v>184.5839288926</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -9397,10 +9397,10 @@
         <v>875</v>
       </c>
       <c r="C386">
-        <v>942</v>
+        <v>914</v>
       </c>
       <c r="D386" s="29">
-        <v>416.81969229679999</v>
+        <v>404.43014730279998</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -9411,10 +9411,10 @@
         <v>877</v>
       </c>
       <c r="C387">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="D387" s="29">
-        <v>109.07254385180001</v>
+        <v>94.218306362299998</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -9425,10 +9425,10 @@
         <v>879</v>
       </c>
       <c r="C388">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D388" s="29">
-        <v>77.4358928714</v>
+        <v>71.650452599399998</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -9439,10 +9439,10 @@
         <v>881</v>
       </c>
       <c r="C389">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D389" s="29">
-        <v>133.56198265340001</v>
+        <v>154.99785641259999</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -9453,10 +9453,10 @@
         <v>883</v>
       </c>
       <c r="C390">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D390" s="29">
-        <v>111.8882907305</v>
+        <v>103.57658913340001</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -9467,10 +9467,10 @@
         <v>885</v>
       </c>
       <c r="C391">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="D391" s="29">
-        <v>90.056899586599997</v>
+        <v>104.6765261428</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -9481,10 +9481,10 @@
         <v>887</v>
       </c>
       <c r="C392">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D392" s="29">
-        <v>77.382666282800002</v>
+        <v>74.863230636300003</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -9495,10 +9495,10 @@
         <v>889</v>
       </c>
       <c r="C393">
-        <v>480</v>
+        <v>523</v>
       </c>
       <c r="D393" s="29">
-        <v>403.44949316660001</v>
+        <v>439.59184359609998</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
@@ -9509,10 +9509,10 @@
         <v>891</v>
       </c>
       <c r="C394">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D394" s="29">
-        <v>100.60126804390001</v>
+        <v>98.261703670800003</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
@@ -9523,10 +9523,10 @@
         <v>893</v>
       </c>
       <c r="C395">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D395" s="29">
-        <v>123.2672463426</v>
+        <v>116.6241013301</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -9537,10 +9537,10 @@
         <v>895</v>
       </c>
       <c r="C396">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D396" s="29">
-        <v>85.852701293899997</v>
+        <v>93.518121052300003</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -9551,10 +9551,10 @@
         <v>897</v>
       </c>
       <c r="C397">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="D397" s="29">
-        <v>199.6202346755</v>
+        <v>223.96416573350001</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -9565,10 +9565,10 @@
         <v>899</v>
       </c>
       <c r="C398">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D398" s="29">
-        <v>155.1713218063</v>
+        <v>147.78221124410001</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -9579,10 +9579,10 @@
         <v>901</v>
       </c>
       <c r="C399">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D399" s="29">
-        <v>128.19366186689999</v>
+        <v>134.15615776760001</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -9593,10 +9593,10 @@
         <v>903</v>
       </c>
       <c r="C400">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="D400" s="29">
-        <v>101.5270361932</v>
+        <v>97.178983251299996</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -9607,10 +9607,10 @@
         <v>905</v>
       </c>
       <c r="C401">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D401" s="29">
-        <v>178.3637944075</v>
+        <v>158.0438684623</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
@@ -9621,10 +9621,10 @@
         <v>907</v>
       </c>
       <c r="C402">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="D402" s="29">
-        <v>119.3636579761</v>
+        <v>128.27878595769999</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
@@ -9635,10 +9635,10 @@
         <v>909</v>
       </c>
       <c r="C403">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="D403" s="29">
-        <v>127.4571170043</v>
+        <v>112.5384722659</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -9649,10 +9649,10 @@
         <v>911</v>
       </c>
       <c r="C404">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="D404" s="29">
-        <v>106.6526857085</v>
+        <v>84.7475886438</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -9663,10 +9663,10 @@
         <v>913</v>
       </c>
       <c r="C405">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D405" s="29">
-        <v>43.370263770100003</v>
+        <v>61.769769611900003</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -9677,10 +9677,10 @@
         <v>915</v>
       </c>
       <c r="C406">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="D406" s="29">
-        <v>174.4655990652</v>
+        <v>137.65175706069999</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -9691,10 +9691,10 @@
         <v>917</v>
       </c>
       <c r="C407">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D407" s="29">
-        <v>79.049994729999995</v>
+        <v>52.699996486700002</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -9705,10 +9705,10 @@
         <v>919</v>
       </c>
       <c r="C408">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D408" s="29">
-        <v>91.956329103300007</v>
+        <v>91.120362475099995</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -9719,10 +9719,10 @@
         <v>921</v>
       </c>
       <c r="C409">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="D409" s="29">
-        <v>105.330020664</v>
+        <v>131.0594913605</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
@@ -9733,10 +9733,10 @@
         <v>923</v>
       </c>
       <c r="C410">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D410" s="29">
-        <v>223.83950587730001</v>
+        <v>208.2784707093</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -9747,10 +9747,10 @@
         <v>925</v>
       </c>
       <c r="C411">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D411" s="29">
-        <v>243.61709448760001</v>
+        <v>225.72431353659999</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -9761,10 +9761,10 @@
         <v>927</v>
       </c>
       <c r="C412">
-        <v>676</v>
+        <v>653</v>
       </c>
       <c r="D412" s="29">
-        <v>190.36891016620001</v>
+        <v>183.89186144749999</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -9775,10 +9775,10 @@
         <v>929</v>
       </c>
       <c r="C413">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D413" s="29">
-        <v>68.785467506700002</v>
+        <v>76.601997905199994</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -9789,10 +9789,10 @@
         <v>931</v>
       </c>
       <c r="C414">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D414" s="29">
-        <v>72.087836255900001</v>
+        <v>88.107355423800001</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -9803,10 +9803,10 @@
         <v>933</v>
       </c>
       <c r="C415">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="D415" s="29">
-        <v>130.43730823870001</v>
+        <v>140.47094733399999</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
@@ -9817,10 +9817,10 @@
         <v>935</v>
       </c>
       <c r="C416">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D416" s="29">
-        <v>46.793203287200001</v>
+        <v>58.491504108999997</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -9831,10 +9831,10 @@
         <v>937</v>
       </c>
       <c r="C417">
-        <v>860</v>
+        <v>809</v>
       </c>
       <c r="D417" s="29">
-        <v>273.01413959280001</v>
+        <v>256.82376619830001</v>
       </c>
     </row>
   </sheetData>
@@ -9851,7 +9851,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K404" sqref="K404"/>
+      <selection pane="bottomLeft" activeCell="L406" sqref="L406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19031,7 +19031,7 @@
         <v>2052028</v>
       </c>
       <c r="D333" s="3">
-        <f t="shared" ref="D333:D404" si="175">B333-B332</f>
+        <f t="shared" ref="D333:D405" si="175">B333-B332</f>
         <v>11369</v>
       </c>
       <c r="E333" s="3">
@@ -21099,7 +21099,7 @@
         <v>76093</v>
       </c>
       <c r="F403" s="3">
-        <f t="shared" ref="F403:F404" si="294">E403-E402</f>
+        <f t="shared" ref="F403:F405" si="294">E403-E402</f>
         <v>180</v>
       </c>
       <c r="G403" s="4">
@@ -21107,7 +21107,7 @@
         <v>2.7255677475139892E-2</v>
       </c>
       <c r="H403" s="3">
-        <f t="shared" ref="H403:H404" si="295">B403-E403</f>
+        <f t="shared" ref="H403:H405" si="295">B403-E403</f>
         <v>2715729</v>
       </c>
     </row>
@@ -21139,8 +21139,31 @@
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A405" s="26"/>
-      <c r="G405" s="4"/>
+      <c r="A405" s="26">
+        <v>44287</v>
+      </c>
+      <c r="B405" s="32">
+        <v>2833173</v>
+      </c>
+      <c r="D405" s="3">
+        <f t="shared" si="175"/>
+        <v>24300</v>
+      </c>
+      <c r="E405" s="3">
+        <v>76543</v>
+      </c>
+      <c r="F405" s="3">
+        <f t="shared" si="294"/>
+        <v>201</v>
+      </c>
+      <c r="G405" s="4">
+        <f>E405/B405</f>
+        <v>2.7016705298264526E-2</v>
+      </c>
+      <c r="H405" s="3">
+        <f t="shared" si="295"/>
+        <v>2756630</v>
+      </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406" s="26"/>
@@ -21571,10 +21594,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A2:LS20"/>
+  <dimension ref="A2:LU20"/>
   <sheetViews>
     <sheetView topLeftCell="LG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="LS4" sqref="LS4:LS20"/>
+      <selection activeCell="LV7" sqref="LV7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21583,12 +21606,12 @@
     <col min="2" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:331" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:333" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="3" spans="1:331" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:333" x14ac:dyDescent="0.35">
       <c r="B3" s="5">
         <v>43957</v>
       </c>
@@ -22579,8 +22602,14 @@
       <c r="LS3" s="5">
         <v>44286</v>
       </c>
-    </row>
-    <row r="4" spans="1:331" x14ac:dyDescent="0.35">
+      <c r="LT3" s="5">
+        <v>44287</v>
+      </c>
+      <c r="LU3" s="5">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:333" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -23574,8 +23603,11 @@
       <c r="LS4" s="3">
         <v>13955</v>
       </c>
-    </row>
-    <row r="5" spans="1:331" x14ac:dyDescent="0.35">
+      <c r="LT4" s="3">
+        <v>14413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:333" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -24569,8 +24601,11 @@
       <c r="LS5" s="3">
         <v>17925</v>
       </c>
-    </row>
-    <row r="6" spans="1:331" x14ac:dyDescent="0.35">
+      <c r="LT5" s="3">
+        <v>18638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:333" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -25564,8 +25599,11 @@
       <c r="LS6" s="3">
         <v>4564</v>
       </c>
-    </row>
-    <row r="7" spans="1:331" x14ac:dyDescent="0.35">
+      <c r="LT6" s="3">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:333" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -26559,8 +26597,11 @@
       <c r="LS7" s="3">
         <v>3596</v>
       </c>
-    </row>
-    <row r="8" spans="1:331" x14ac:dyDescent="0.35">
+      <c r="LT7" s="3">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:333" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -27554,8 +27595,11 @@
       <c r="LS8" s="3">
         <v>902</v>
       </c>
-    </row>
-    <row r="9" spans="1:331" x14ac:dyDescent="0.35">
+      <c r="LT8" s="3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="9" spans="1:333" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -28549,8 +28593,11 @@
       <c r="LS9" s="3">
         <v>2474</v>
       </c>
-    </row>
-    <row r="10" spans="1:331" x14ac:dyDescent="0.35">
+      <c r="LT9" s="3">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:333" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -29544,8 +29591,11 @@
       <c r="LS10" s="3">
         <v>8822</v>
       </c>
-    </row>
-    <row r="11" spans="1:331" x14ac:dyDescent="0.35">
+      <c r="LT10" s="3">
+        <v>8683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:333" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
@@ -30539,8 +30589,11 @@
       <c r="LS11" s="3">
         <v>1661</v>
       </c>
-    </row>
-    <row r="12" spans="1:331" x14ac:dyDescent="0.35">
+      <c r="LT11" s="3">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:333" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -31534,8 +31587,11 @@
       <c r="LS12" s="3">
         <v>9054</v>
       </c>
-    </row>
-    <row r="13" spans="1:331" x14ac:dyDescent="0.35">
+      <c r="LT12" s="3">
+        <v>9038</v>
+      </c>
+    </row>
+    <row r="13" spans="1:333" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -32529,8 +32585,11 @@
       <c r="LS13" s="3">
         <v>23459</v>
       </c>
-    </row>
-    <row r="14" spans="1:331" x14ac:dyDescent="0.35">
+      <c r="LT13" s="3">
+        <v>23174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:333" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
@@ -33524,8 +33583,11 @@
       <c r="LS14" s="3">
         <v>4670</v>
       </c>
-    </row>
-    <row r="15" spans="1:331" x14ac:dyDescent="0.35">
+      <c r="LT14" s="3">
+        <v>4651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:333" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -34519,8 +34581,11 @@
       <c r="LS15" s="3">
         <v>803</v>
       </c>
-    </row>
-    <row r="16" spans="1:331" x14ac:dyDescent="0.35">
+      <c r="LT15" s="3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="16" spans="1:333" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -35514,8 +35579,11 @@
       <c r="LS16" s="3">
         <v>7425</v>
       </c>
-    </row>
-    <row r="17" spans="1:331" x14ac:dyDescent="0.35">
+      <c r="LT16" s="3">
+        <v>7747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:332" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -36509,8 +36577,11 @@
       <c r="LS17" s="3">
         <v>3474</v>
       </c>
-    </row>
-    <row r="18" spans="1:331" x14ac:dyDescent="0.35">
+      <c r="LT17" s="3">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:332" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
@@ -37504,8 +37575,11 @@
       <c r="LS18" s="3">
         <v>2084</v>
       </c>
-    </row>
-    <row r="19" spans="1:331" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="LT18" s="3">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:332" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -38499,8 +38573,11 @@
       <c r="LS19" s="3">
         <v>5171</v>
       </c>
-    </row>
-    <row r="20" spans="1:331" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="LT19" s="3">
+        <v>5419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:332" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -39493,6 +39570,9 @@
       </c>
       <c r="LS20" s="12">
         <v>110039</v>
+      </c>
+      <c r="LT20" s="12">
+        <v>111580</v>
       </c>
     </row>
   </sheetData>
@@ -39504,11 +39584,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Tabelle5"/>
-  <dimension ref="A2:LT21"/>
+  <dimension ref="A2:LV21"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="LF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="LP27" sqref="LP27"/>
+      <selection pane="topRight" activeCell="LT28" sqref="LT28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39575,12 +39655,12 @@
     <col min="221" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:332" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:334" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="3" spans="1:332" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:334" x14ac:dyDescent="0.35">
       <c r="C3" s="5">
         <v>43957</v>
       </c>
@@ -40571,8 +40651,14 @@
       <c r="LT3" s="5">
         <v>44286</v>
       </c>
-    </row>
-    <row r="4" spans="1:332" x14ac:dyDescent="0.35">
+      <c r="LU3" s="5">
+        <v>44287</v>
+      </c>
+      <c r="LV3" s="5">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:334" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -41569,8 +41655,11 @@
       <c r="LT4" s="16">
         <v>125.71625835983841</v>
       </c>
-    </row>
-    <row r="5" spans="1:332" x14ac:dyDescent="0.35">
+      <c r="LU4" s="13">
+        <v>129.84223803227164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:334" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -42567,8 +42656,11 @@
       <c r="LT5" s="16">
         <v>136.57416525755909</v>
       </c>
-    </row>
-    <row r="6" spans="1:332" x14ac:dyDescent="0.35">
+      <c r="LU5" s="13">
+        <v>142.00665506668818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:334" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -43565,8 +43657,11 @@
       <c r="LT6" s="16">
         <v>124.37692312094511</v>
       </c>
-    </row>
-    <row r="7" spans="1:332" x14ac:dyDescent="0.35">
+      <c r="LU6" s="13">
+        <v>124.40417485694883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:334" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -44563,8 +44658,11 @@
       <c r="LT7" s="16">
         <v>142.59129947226151</v>
       </c>
-    </row>
-    <row r="8" spans="1:332" x14ac:dyDescent="0.35">
+      <c r="LU7" s="13">
+        <v>146.39796375183246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:334" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -45561,8 +45659,11 @@
       <c r="LT8" s="16">
         <v>132.41299937463484</v>
       </c>
-    </row>
-    <row r="9" spans="1:332" x14ac:dyDescent="0.35">
+      <c r="LU8" s="13">
+        <v>127.71542068285179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:334" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -46559,8 +46660,11 @@
       <c r="LT9" s="16">
         <v>133.92859559573051</v>
       </c>
-    </row>
-    <row r="10" spans="1:332" x14ac:dyDescent="0.35">
+      <c r="LU9" s="13">
+        <v>139.01723261513177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:334" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
@@ -47557,8 +47661,11 @@
       <c r="LT10" s="16">
         <v>140.29719723667637</v>
       </c>
-    </row>
-    <row r="11" spans="1:332" x14ac:dyDescent="0.35">
+      <c r="LU10" s="13">
+        <v>138.08666556405134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:334" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
         <v>16</v>
       </c>
@@ -48555,8 +48662,11 @@
       <c r="LT11" s="16">
         <v>103.28715570429901</v>
       </c>
-    </row>
-    <row r="12" spans="1:332" x14ac:dyDescent="0.35">
+      <c r="LU11" s="13">
+        <v>96.820049025643328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:334" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
@@ -49553,8 +49663,11 @@
       <c r="LT12" s="16">
         <v>113.26549913380792</v>
       </c>
-    </row>
-    <row r="13" spans="1:332" x14ac:dyDescent="0.35">
+      <c r="LU12" s="13">
+        <v>113.06533920602561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:334" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
@@ -50551,8 +50664,11 @@
       <c r="LT13" s="16">
         <v>130.7110443449713</v>
       </c>
-    </row>
-    <row r="14" spans="1:332" x14ac:dyDescent="0.35">
+      <c r="LU13" s="13">
+        <v>129.12305476151434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:334" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
@@ -51549,8 +51665,11 @@
       <c r="LT14" s="16">
         <v>114.0720725429987</v>
       </c>
-    </row>
-    <row r="15" spans="1:332" x14ac:dyDescent="0.35">
+      <c r="LU14" s="13">
+        <v>113.60796775106787</v>
+      </c>
+    </row>
+    <row r="15" spans="1:334" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -52547,8 +52666,11 @@
       <c r="LT15" s="16">
         <v>81.366965012205043</v>
       </c>
-    </row>
-    <row r="16" spans="1:332" x14ac:dyDescent="0.35">
+      <c r="LU15" s="13">
+        <v>86.129415019146052</v>
+      </c>
+    </row>
+    <row r="16" spans="1:334" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
@@ -53545,8 +53667,11 @@
       <c r="LT16" s="16">
         <v>182.34412769639076</v>
       </c>
-    </row>
-    <row r="17" spans="1:332" x14ac:dyDescent="0.35">
+      <c r="LU16" s="13">
+        <v>190.25184609615343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:333" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -54543,8 +54668,11 @@
       <c r="LT17" s="16">
         <v>158.28451299491249</v>
       </c>
-    </row>
-    <row r="18" spans="1:332" x14ac:dyDescent="0.35">
+      <c r="LU17" s="13">
+        <v>161.74727148299922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:333" x14ac:dyDescent="0.35">
       <c r="A18" s="28" t="s">
         <v>23</v>
       </c>
@@ -55541,8 +55669,11 @@
       <c r="LT18" s="16">
         <v>71.768695417995829</v>
       </c>
-    </row>
-    <row r="19" spans="1:332" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="LU18" s="13">
+        <v>74.558169664088766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:333" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -56539,8 +56670,11 @@
       <c r="LT19" s="16">
         <v>242.3855500525458</v>
       </c>
-    </row>
-    <row r="20" spans="1:332" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="LU19" s="13">
+        <v>254.01030665920433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:333" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
@@ -57537,8 +57671,11 @@
       <c r="LT20" s="17">
         <v>132.31135231499056</v>
       </c>
-    </row>
-    <row r="21" spans="1:332" x14ac:dyDescent="0.35">
+      <c r="LU20" s="15">
+        <v>134.16425713889299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:333" x14ac:dyDescent="0.35">
       <c r="JB21" s="13"/>
       <c r="JC21" s="13"/>
     </row>

--- a/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
+++ b/rki-data/RKI-Fallzahlen_Kum_Tab.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8B63D4-7ED0-4DB1-A6DC-23400F92D0E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AF1BC5-1CE0-4828-93D9-89A190CC186D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2088" yWindow="168" windowWidth="15288" windowHeight="10800" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="1050">
   <si>
     <t>Todesfälle</t>
   </si>
@@ -3186,13 +3186,13 @@
     <t>05.04.2021</t>
   </si>
   <si>
-    <t>Stand: 06.04.2021 09:18:56</t>
-  </si>
-  <si>
-    <t>Stand: 06.04.2021 09:18:57</t>
-  </si>
-  <si>
     <t>06.04.2021</t>
+  </si>
+  <si>
+    <t>Stand: 07.04.2021 06:50:20</t>
+  </si>
+  <si>
+    <t>07.04.2021</t>
   </si>
 </sst>
 </file>
@@ -3768,7 +3768,7 @@
   <dimension ref="A2:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3784,7 +3784,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3803,10 +3803,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>12957</v>
+        <v>11170</v>
       </c>
       <c r="C6" s="23">
-        <v>116.72558649720001</v>
+        <v>100.62705882331745</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3814,10 +3814,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>16920</v>
+        <v>15831</v>
       </c>
       <c r="C7" s="23">
-        <v>128.91686896278381</v>
+        <v>120.61955984337058</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3825,10 +3825,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>4204</v>
+        <v>3857</v>
       </c>
       <c r="C8" s="23">
-        <v>114.56629815960852</v>
+        <v>105.10994576632018</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3836,10 +3836,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>3207</v>
+        <v>2753</v>
       </c>
       <c r="C9" s="23">
-        <v>127.16637858941675</v>
+        <v>109.16402876727919</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3847,10 +3847,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>794</v>
+        <v>695</v>
       </c>
       <c r="C10" s="23">
-        <v>116.55867128986704</v>
+        <v>102.0255372121632</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3858,10 +3858,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>2527</v>
+        <v>2213</v>
       </c>
       <c r="C11" s="23">
-        <v>136.79772072369079</v>
+        <v>119.79950770143559</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3869,10 +3869,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>8361</v>
+        <v>7526</v>
       </c>
       <c r="C12" s="23">
-        <v>132.96586557422935</v>
+        <v>119.68677243292069</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3880,10 +3880,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>1516</v>
+        <v>1222</v>
       </c>
       <c r="C13" s="23">
-        <v>94.270516585019436</v>
+        <v>75.988503474204336</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3891,10 +3891,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>7649</v>
+        <v>6800</v>
       </c>
       <c r="C14" s="23">
-        <v>95.688955475424862</v>
+        <v>85.067969307476673</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3902,10 +3902,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>21711</v>
+        <v>19837</v>
       </c>
       <c r="C15" s="23">
-        <v>120.97137489976861</v>
+        <v>110.52964690187969</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3913,10 +3913,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>4258</v>
+        <v>3930</v>
       </c>
       <c r="C16" s="23">
-        <v>104.0083265284986</v>
+        <v>95.996412225692694</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3924,10 +3924,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>846</v>
+        <v>734</v>
       </c>
       <c r="C17" s="23">
-        <v>85.724100124938317</v>
+        <v>74.375283087121431</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3935,10 +3935,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>7359</v>
+        <v>6090</v>
       </c>
       <c r="C18" s="23">
-        <v>180.72329100575618</v>
+        <v>149.55902190855485</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3946,10 +3946,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>3421</v>
+        <v>3054</v>
       </c>
       <c r="C19" s="23">
-        <v>155.86969457558882</v>
+        <v>139.14821608706467</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3957,10 +3957,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>1933</v>
+        <v>1813</v>
       </c>
       <c r="C20" s="23">
-        <v>66.568564416020124</v>
+        <v>62.436009977363938</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3968,10 +3968,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>4620</v>
+        <v>4014</v>
       </c>
       <c r="C21" s="23">
-        <v>216.55796581759068</v>
+        <v>188.15231056099762</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3980,11 +3980,11 @@
       </c>
       <c r="B22" s="1">
         <f>SUM(B6:B21)</f>
-        <v>102283</v>
+        <v>91539</v>
       </c>
       <c r="C22" s="24">
         <f>B22/A36*100000</f>
-        <v>122.98550558287678</v>
+        <v>110.06687519481203</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4009,7 +4009,7 @@
         <v>1049</v>
       </c>
       <c r="B31">
-        <v>2900768</v>
+        <v>2910445</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -4018,7 +4018,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>77103</v>
+        <v>77401</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
@@ -4080,10 +4080,10 @@
         <v>118</v>
       </c>
       <c r="C6">
-        <v>651</v>
+        <v>508</v>
       </c>
       <c r="D6" s="23">
-        <v>116.8706667193</v>
+        <v>91.198615504499998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4094,10 +4094,10 @@
         <v>120</v>
       </c>
       <c r="C7">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D7" s="23">
-        <v>79.9471119106</v>
+        <v>89.940500899400007</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4108,10 +4108,10 @@
         <v>122</v>
       </c>
       <c r="C8">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="D8" s="23">
-        <v>105.4546804797</v>
+        <v>86.146077011599999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4122,10 +4122,10 @@
         <v>124</v>
       </c>
       <c r="C9">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="D9" s="23">
-        <v>101.9911100286</v>
+        <v>86.768556293000003</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4136,10 +4136,10 @@
         <v>126</v>
       </c>
       <c r="C10">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="D10" s="23">
-        <v>222.6125088094</v>
+        <v>183.45955499870001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4150,10 +4150,10 @@
         <v>128</v>
       </c>
       <c r="C11">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D11" s="23">
-        <v>127.324249835</v>
+        <v>138.9697604907</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4164,10 +4164,10 @@
         <v>130</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D12" s="23">
-        <v>66.1272287882</v>
+        <v>60.1156625347</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4178,10 +4178,10 @@
         <v>132</v>
       </c>
       <c r="C13">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D13" s="23">
-        <v>144.3739015029</v>
+        <v>146.1673661179</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4192,10 +4192,10 @@
         <v>134</v>
       </c>
       <c r="C14">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="D14" s="23">
-        <v>116.43418384260001</v>
+        <v>94.072651846400007</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4206,10 +4206,10 @@
         <v>136</v>
       </c>
       <c r="C15">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D15" s="23">
-        <v>144.52578956100001</v>
+        <v>106.61738574170001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4220,10 +4220,10 @@
         <v>138</v>
       </c>
       <c r="C16">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="D16" s="23">
-        <v>161.0884142495</v>
+        <v>124.2127531563</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4234,10 +4234,10 @@
         <v>140</v>
       </c>
       <c r="C17">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D17" s="23">
-        <v>72.882211134200006</v>
+        <v>67.2758872008</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4248,10 +4248,10 @@
         <v>142</v>
       </c>
       <c r="C18">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D18" s="23">
-        <v>81.395202099900004</v>
+        <v>77.609378746399997</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4262,10 +4262,10 @@
         <v>144</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D19" s="23">
-        <v>81.3436049572</v>
+        <v>69.381310110499996</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4276,10 +4276,10 @@
         <v>146</v>
       </c>
       <c r="C20">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="D20" s="23">
-        <v>145.72758151810001</v>
+        <v>122.9745762253</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4290,10 +4290,10 @@
         <v>148</v>
       </c>
       <c r="C21">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D21" s="23">
-        <v>85.913072871200001</v>
+        <v>73.237373595099996</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4304,10 +4304,10 @@
         <v>150</v>
       </c>
       <c r="C22">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D22" s="23">
-        <v>109.0700344432</v>
+        <v>100.45924225029999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4318,10 +4318,10 @@
         <v>152</v>
       </c>
       <c r="C23">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="D23" s="23">
-        <v>133.52125213260001</v>
+        <v>116.32533329739999</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4346,10 +4346,10 @@
         <v>156</v>
       </c>
       <c r="C25">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="D25" s="23">
-        <v>84.346368361700002</v>
+        <v>72.221577909700002</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4360,10 +4360,10 @@
         <v>158</v>
       </c>
       <c r="C26">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D26" s="23">
-        <v>70.851957096899994</v>
+        <v>58.792049505900003</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4374,10 +4374,10 @@
         <v>160</v>
       </c>
       <c r="C27">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D27" s="23">
-        <v>98.803700295400006</v>
+        <v>75.555770814200002</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4388,10 +4388,10 @@
         <v>162</v>
       </c>
       <c r="C28">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D28" s="23">
-        <v>73.889292367899998</v>
+        <v>70.100097887499999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4402,10 +4402,10 @@
         <v>164</v>
       </c>
       <c r="C29">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D29" s="23">
-        <v>67.231095163299997</v>
+        <v>54.722984435199997</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4416,10 +4416,10 @@
         <v>166</v>
       </c>
       <c r="C30">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D30" s="23">
-        <v>135.9064963305</v>
+        <v>101.4768505935</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4430,10 +4430,10 @@
         <v>168</v>
       </c>
       <c r="C31">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D31" s="23">
-        <v>104.6876817494</v>
+        <v>76.253990410100002</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4444,10 +4444,10 @@
         <v>170</v>
       </c>
       <c r="C32">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D32" s="23">
-        <v>73.388011932300003</v>
+        <v>67.2723442713</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4458,10 +4458,10 @@
         <v>172</v>
       </c>
       <c r="C33">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="D33" s="23">
-        <v>112.2843384941</v>
+        <v>87.992053723699996</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4472,10 +4472,10 @@
         <v>174</v>
       </c>
       <c r="C34">
-        <v>498</v>
+        <v>377</v>
       </c>
       <c r="D34" s="23">
-        <v>166.13401477190001</v>
+        <v>125.7681196165</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4486,10 +4486,10 @@
         <v>176</v>
       </c>
       <c r="C35">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D35" s="23">
-        <v>173.83629969379999</v>
+        <v>153.7782651137</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4500,10 +4500,10 @@
         <v>178</v>
       </c>
       <c r="C36">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="D36" s="23">
-        <v>142.768945825</v>
+        <v>117.6879148017</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4514,10 +4514,10 @@
         <v>180</v>
       </c>
       <c r="C37">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D37" s="23">
-        <v>89.682712005200003</v>
+        <v>92.514797647500004</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4528,10 +4528,10 @@
         <v>182</v>
       </c>
       <c r="C38">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D38" s="23">
-        <v>82.858622475399997</v>
+        <v>77.679958570699995</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4542,10 +4542,10 @@
         <v>184</v>
       </c>
       <c r="C39">
-        <v>430</v>
+        <v>359</v>
       </c>
       <c r="D39" s="23">
-        <v>128.5881322125</v>
+        <v>107.3561382891</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4556,10 +4556,10 @@
         <v>186</v>
       </c>
       <c r="C40">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="D40" s="23">
-        <v>91.470224314800006</v>
+        <v>74.807043916300003</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4570,10 +4570,10 @@
         <v>188</v>
       </c>
       <c r="C41">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D41" s="23">
-        <v>118.3155220193</v>
+        <v>116.5704553228</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -4584,10 +4584,10 @@
         <v>190</v>
       </c>
       <c r="C42">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="D42" s="23">
-        <v>128.53323801089999</v>
+        <v>119.0263417083</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4598,10 +4598,10 @@
         <v>192</v>
       </c>
       <c r="C43">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="D43" s="23">
-        <v>119.3908932464</v>
+        <v>102.0685538245</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4612,10 +4612,10 @@
         <v>194</v>
       </c>
       <c r="C44">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="D44" s="23">
-        <v>116.4662761621</v>
+        <v>120.2031620283</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4626,10 +4626,10 @@
         <v>196</v>
       </c>
       <c r="C45">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D45" s="23">
-        <v>90.946547548500007</v>
+        <v>90.192846878200001</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4640,10 +4640,10 @@
         <v>198</v>
       </c>
       <c r="C46">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D46" s="23">
-        <v>132.4661421932</v>
+        <v>134.77659816159999</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4654,10 +4654,10 @@
         <v>200</v>
       </c>
       <c r="C47">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="D47" s="23">
-        <v>171.1161037407</v>
+        <v>156.472916379</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -4668,10 +4668,10 @@
         <v>202</v>
       </c>
       <c r="C48">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D48" s="23">
-        <v>88.689741442900001</v>
+        <v>81.409240279700001</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4682,10 +4682,10 @@
         <v>204</v>
       </c>
       <c r="C49">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="D49" s="23">
-        <v>111.1852346008</v>
+        <v>102.1148601992</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4696,10 +4696,10 @@
         <v>206</v>
       </c>
       <c r="C50">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="D50" s="23">
-        <v>95.313860286400001</v>
+        <v>72.423523760899997</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4710,10 +4710,10 @@
         <v>208</v>
       </c>
       <c r="C51">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D51" s="23">
-        <v>45.340184739000001</v>
+        <v>43.562138278699997</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -4724,10 +4724,10 @@
         <v>210</v>
       </c>
       <c r="C52">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="D52" s="23">
-        <v>114.26754503630001</v>
+        <v>95.388559334700005</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4738,10 +4738,10 @@
         <v>212</v>
       </c>
       <c r="C53">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="D53" s="23">
-        <v>104.7292748246</v>
+        <v>90.964855847600006</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4752,10 +4752,10 @@
         <v>214</v>
       </c>
       <c r="C54">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D54" s="23">
-        <v>101.29584563500001</v>
+        <v>96.354584872299995</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4766,10 +4766,10 @@
         <v>216</v>
       </c>
       <c r="C55">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D55" s="23">
-        <v>129.21722627150001</v>
+        <v>108.0175250863</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4780,10 +4780,10 @@
         <v>218</v>
       </c>
       <c r="C56">
-        <v>382</v>
+        <v>304</v>
       </c>
       <c r="D56" s="23">
-        <v>97.248776116499997</v>
+        <v>77.391696176500005</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4794,10 +4794,10 @@
         <v>220</v>
       </c>
       <c r="C57">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="D57" s="23">
-        <v>119.2602581602</v>
+        <v>105.8571557523</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4808,10 +4808,10 @@
         <v>222</v>
       </c>
       <c r="C58">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D58" s="23">
-        <v>91.966708051699996</v>
+        <v>84.149537867299998</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4822,10 +4822,10 @@
         <v>224</v>
       </c>
       <c r="C59">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D59" s="23">
-        <v>134.07224734810001</v>
+        <v>136.19556348259999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4836,10 +4836,10 @@
         <v>226</v>
       </c>
       <c r="C60">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D60" s="23">
-        <v>102.3852846018</v>
+        <v>94.194461833700004</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4850,10 +4850,10 @@
         <v>228</v>
       </c>
       <c r="C61">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="D61" s="23">
-        <v>113.3734943004</v>
+        <v>97.754343066600001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4864,10 +4864,10 @@
         <v>230</v>
       </c>
       <c r="C62">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D62" s="23">
-        <v>108.87594096879999</v>
+        <v>89.312295325999997</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -4878,10 +4878,10 @@
         <v>232</v>
       </c>
       <c r="C63">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D63" s="23">
-        <v>95.589050205000007</v>
+        <v>80.350216114399998</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4892,10 +4892,10 @@
         <v>234</v>
       </c>
       <c r="C64">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="D64" s="23">
-        <v>85.402917331599994</v>
+        <v>72.572432098700006</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4906,10 +4906,10 @@
         <v>236</v>
       </c>
       <c r="C65">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="D65" s="23">
-        <v>67.526299217399995</v>
+        <v>50.834405028799999</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4920,10 +4920,10 @@
         <v>238</v>
       </c>
       <c r="C66">
-        <v>598</v>
+        <v>538</v>
       </c>
       <c r="D66" s="23">
-        <v>105.363495249</v>
+        <v>94.791907096900005</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4934,10 +4934,10 @@
         <v>240</v>
       </c>
       <c r="C67">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="D67" s="23">
-        <v>172.46992775620001</v>
+        <v>138.1519319272</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4948,10 +4948,10 @@
         <v>242</v>
       </c>
       <c r="C68">
-        <v>492</v>
+        <v>406</v>
       </c>
       <c r="D68" s="23">
-        <v>275.09701083610003</v>
+        <v>227.01094796640001</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4962,10 +4962,10 @@
         <v>244</v>
       </c>
       <c r="C69">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D69" s="23">
-        <v>74.748274194299995</v>
+        <v>62.185539035600002</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4976,10 +4976,10 @@
         <v>246</v>
       </c>
       <c r="C70">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D70" s="23">
-        <v>102.78697957110001</v>
+        <v>95.524856014400001</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4990,10 +4990,10 @@
         <v>248</v>
       </c>
       <c r="C71">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="D71" s="23">
-        <v>291.41080329379997</v>
+        <v>256.25400396880002</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -5004,10 +5004,10 @@
         <v>250</v>
       </c>
       <c r="C72">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="D72" s="23">
-        <v>272.39439135480001</v>
+        <v>274.8301087